--- a/data/merged_scores.xlsx
+++ b/data/merged_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="511">
   <si>
     <t>Player_Name</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Brandin Podziemski</t>
+  </si>
+  <si>
+    <t>Brandon Boston Jr</t>
   </si>
   <si>
     <t>Brandon Boston Jr.</t>
@@ -1901,7 +1904,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C508"/>
+  <dimension ref="A1:C509"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1923,7 +1926,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-9.300000000000001</v>
+        <v>-9.44</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1934,7 +1937,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-7.24</v>
+        <v>-7.39</v>
       </c>
       <c r="C3">
         <v>-5.33</v>
@@ -1945,7 +1948,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-8.98</v>
+        <v>-9.119999999999999</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1967,7 +1970,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="C6">
         <v>4.56</v>
@@ -1978,7 +1981,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-6.92</v>
+        <v>-7.06</v>
       </c>
       <c r="C7">
         <v>-4.48</v>
@@ -1989,7 +1992,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-1.56</v>
+        <v>-1.68</v>
       </c>
       <c r="C8">
         <v>-0.95</v>
@@ -2000,7 +2003,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-4.25</v>
+        <v>-4.39</v>
       </c>
       <c r="C9">
         <v>0.23</v>
@@ -2022,7 +2025,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-8.869999999999999</v>
+        <v>-9.02</v>
       </c>
       <c r="C11">
         <v>-6.93</v>
@@ -2033,7 +2036,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>-6.55</v>
+        <v>-6.71</v>
       </c>
       <c r="C12">
         <v>-6.44</v>
@@ -2044,7 +2047,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>-8.710000000000001</v>
+        <v>-8.85</v>
       </c>
       <c r="C13">
         <v>-3.91</v>
@@ -2055,7 +2058,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="C14">
         <v>0.96</v>
@@ -2066,7 +2069,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>-4.22</v>
+        <v>-4.35</v>
       </c>
       <c r="C15">
         <v>-0.63</v>
@@ -2077,7 +2080,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>1.12</v>
+        <v>0.99</v>
       </c>
       <c r="C16">
         <v>-2.12</v>
@@ -2099,7 +2102,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>-6.23</v>
+        <v>-6.38</v>
       </c>
       <c r="C18">
         <v>-5.06</v>
@@ -2121,7 +2124,7 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="C20">
         <v>3.54</v>
@@ -2132,7 +2135,7 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>4.16</v>
+        <v>4.05</v>
       </c>
       <c r="C21">
         <v>2.09</v>
@@ -2143,7 +2146,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="C22">
         <v>-2.14</v>
@@ -2154,7 +2157,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>-5.35</v>
+        <v>-5.49</v>
       </c>
       <c r="C23">
         <v>-3.97</v>
@@ -2165,7 +2168,7 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.38</v>
+        <v>-0.48</v>
       </c>
       <c r="C24">
         <v>-0.45</v>
@@ -2176,7 +2179,7 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>-6.19</v>
+        <v>-6.34</v>
       </c>
       <c r="C25">
         <v>-5.15</v>
@@ -2187,7 +2190,7 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>-1.15</v>
+        <v>-1.27</v>
       </c>
       <c r="C26">
         <v>-2.49</v>
@@ -2198,7 +2201,7 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>-1.05</v>
+        <v>-1.18</v>
       </c>
       <c r="C27">
         <v>3.62</v>
@@ -2209,7 +2212,7 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>2.79</v>
+        <v>2.73</v>
       </c>
       <c r="C28">
         <v>2.38</v>
@@ -2220,7 +2223,7 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>-3.29</v>
+        <v>-3.44</v>
       </c>
       <c r="C29">
         <v>-0.8100000000000001</v>
@@ -2231,7 +2234,7 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>14.12</v>
+        <v>14.06</v>
       </c>
       <c r="C30">
         <v>12.51</v>
@@ -2242,7 +2245,7 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>7.03</v>
+        <v>6.96</v>
       </c>
       <c r="C31">
         <v>4.84</v>
@@ -2253,7 +2256,7 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>-7.96</v>
+        <v>-8.109999999999999</v>
       </c>
       <c r="C32">
         <v>-6.92</v>
@@ -2275,7 +2278,7 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>-7.39</v>
+        <v>-7.55</v>
       </c>
       <c r="C34">
         <v>-5.24</v>
@@ -2286,7 +2289,7 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>0.13</v>
+        <v>-0.01</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2297,7 +2300,7 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>4.37</v>
+        <v>4.28</v>
       </c>
       <c r="C36">
         <v>4.83</v>
@@ -2308,7 +2311,7 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>-1.85</v>
+        <v>-1.97</v>
       </c>
       <c r="C37">
         <v>-2.29</v>
@@ -2319,7 +2322,7 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>4.89</v>
       </c>
       <c r="C38">
         <v>1.68</v>
@@ -2330,7 +2333,7 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>-7.14</v>
+        <v>-7.29</v>
       </c>
       <c r="C39">
         <v>-6.92</v>
@@ -2341,7 +2344,7 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>-5.88</v>
+        <v>-6.02</v>
       </c>
       <c r="C40">
         <v>-2.31</v>
@@ -2352,7 +2355,7 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.28</v>
+        <v>-0.37</v>
       </c>
       <c r="C41">
         <v>1.69</v>
@@ -2363,7 +2366,7 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>-1.24</v>
+        <v>-1.36</v>
       </c>
       <c r="C42">
         <v>-0.4</v>
@@ -2374,7 +2377,7 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>3.03</v>
+        <v>2.92</v>
       </c>
       <c r="C43">
         <v>4.96</v>
@@ -2385,7 +2388,7 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>-7.65</v>
+        <v>-7.81</v>
       </c>
       <c r="C44">
         <v>-7.22</v>
@@ -2396,7 +2399,7 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
       <c r="C45">
         <v>0.12</v>
@@ -2407,7 +2410,7 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>-5.99</v>
+        <v>-6.14</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2418,7 +2421,7 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>0.89</v>
+        <v>0.79</v>
       </c>
       <c r="C47">
         <v>1.04</v>
@@ -2429,7 +2432,7 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>-2.31</v>
+        <v>-2.43</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2440,7 +2443,7 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>-5.21</v>
+        <v>-5.35</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2451,7 +2454,7 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>-3.29</v>
+        <v>-3.41</v>
       </c>
       <c r="C50">
         <v>-4.94</v>
@@ -2462,7 +2465,7 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>-9.01</v>
+        <v>-9.17</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2473,7 +2476,7 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>3.7</v>
+        <v>3.61</v>
       </c>
       <c r="C52">
         <v>4.89</v>
@@ -2484,7 +2487,7 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>0.71</v>
+        <v>0.59</v>
       </c>
       <c r="C53">
         <v>-0.78</v>
@@ -2495,10 +2498,10 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>-4.2</v>
       </c>
       <c r="C54">
-        <v>-2.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2506,10 +2509,10 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>-2.22</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>-4.28</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2517,10 +2520,10 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>2.89</v>
+        <v>-2.36</v>
       </c>
       <c r="C56">
-        <v>7.17</v>
+        <v>-4.28</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2528,10 +2531,10 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="C57">
-        <v>-0.16</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2539,10 +2542,10 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="C58">
-        <v>-8.890000000000001</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2550,10 +2553,10 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>-3.29</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>-3.59</v>
+        <v>-8.890000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2561,10 +2564,10 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>-8.289999999999999</v>
+        <v>-3.4</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2572,10 +2575,10 @@
         <v>62</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="C61">
-        <v>-7.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2583,10 +2586,10 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>3.07</v>
+        <v>-7.03</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2594,10 +2597,10 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.25</v>
+        <v>1.55</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2605,10 +2608,10 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>-0.37</v>
       </c>
       <c r="C64">
-        <v>-2.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2616,10 +2619,10 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>-9.199999999999999</v>
+        <v>-4.67</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-2.95</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2627,10 +2630,10 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>-9.34</v>
       </c>
       <c r="C66">
-        <v>0.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2638,10 +2641,10 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>-9.69</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2649,10 +2652,10 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>0.45</v>
+        <v>-9.83</v>
       </c>
       <c r="C68">
-        <v>6.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2660,10 +2663,10 @@
         <v>70</v>
       </c>
       <c r="B69">
-        <v>2.07</v>
+        <v>0.35</v>
       </c>
       <c r="C69">
-        <v>6.1</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2671,10 +2674,10 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>6.44</v>
+        <v>1.98</v>
       </c>
       <c r="C70">
-        <v>7.54</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2682,10 +2685,10 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>-7.47</v>
+        <v>6.4</v>
       </c>
       <c r="C71">
-        <v>-6.79</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2693,10 +2696,10 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.89</v>
+        <v>-7.62</v>
       </c>
       <c r="C72">
-        <v>-3.9</v>
+        <v>-6.79</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2704,10 +2707,10 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>-8.32</v>
+        <v>-1.01</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2715,10 +2718,10 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>-5.32</v>
+        <v>-8.48</v>
       </c>
       <c r="C74">
-        <v>-7.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2726,10 +2729,10 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>2.02</v>
+        <v>-5.47</v>
       </c>
       <c r="C75">
-        <v>4.49</v>
+        <v>-7.98</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2737,10 +2740,10 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>-4.36</v>
+        <v>1.95</v>
       </c>
       <c r="C76">
-        <v>-7.11</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2748,10 +2751,10 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>0.9</v>
+        <v>-4.5</v>
       </c>
       <c r="C77">
-        <v>2.64</v>
+        <v>-7.11</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2759,10 +2762,10 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>-5.21</v>
+        <v>0.79</v>
       </c>
       <c r="C78">
-        <v>-3.84</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2770,10 +2773,10 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>-1.17</v>
+        <v>-5.34</v>
       </c>
       <c r="C79">
-        <v>1.45</v>
+        <v>-3.84</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2781,10 +2784,10 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>-3.21</v>
+        <v>-1.3</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2792,10 +2795,10 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>-2.07</v>
+        <v>-3.33</v>
       </c>
       <c r="C81">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2803,10 +2806,10 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>-5.36</v>
+        <v>-2.2</v>
       </c>
       <c r="C82">
-        <v>-6.33</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2814,10 +2817,10 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>8.25</v>
+        <v>-5.5</v>
       </c>
       <c r="C83">
-        <v>10.12</v>
+        <v>-6.33</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2825,10 +2828,10 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>-4.85</v>
+        <v>8.18</v>
       </c>
       <c r="C84">
-        <v>-1.26</v>
+        <v>10.12</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2836,10 +2839,10 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>-6.31</v>
+        <v>-4.99</v>
       </c>
       <c r="C85">
-        <v>-5.42</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2847,10 +2850,10 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>1.13</v>
+        <v>-6.45</v>
       </c>
       <c r="C86">
-        <v>4.89</v>
+        <v>-5.42</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2858,10 +2861,10 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.76</v>
+        <v>1.02</v>
       </c>
       <c r="C87">
-        <v>3.94</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2869,10 +2872,10 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>-2.87</v>
+        <v>-0.88</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2880,7 +2883,7 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>-9.220000000000001</v>
+        <v>-3</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2891,10 +2894,10 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>0.9399999999999999</v>
+        <v>-9.359999999999999</v>
       </c>
       <c r="C90">
-        <v>1.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2902,10 +2905,10 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>2.39</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C91">
-        <v>3.57</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2913,10 +2916,10 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>-3.99</v>
+        <v>2.31</v>
       </c>
       <c r="C92">
-        <v>-0.09</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2924,10 +2927,10 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>-6.61</v>
+        <v>-4.13</v>
       </c>
       <c r="C93">
-        <v>-5.59</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2935,10 +2938,10 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>-9.039999999999999</v>
+        <v>-6.76</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>-5.59</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2946,10 +2949,10 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>-8.880000000000001</v>
+        <v>-9.19</v>
       </c>
       <c r="C95">
-        <v>-7.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2957,10 +2960,10 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>-3.32</v>
+        <v>-9.039999999999999</v>
       </c>
       <c r="C96">
-        <v>-5.36</v>
+        <v>-7.11</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2968,10 +2971,10 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-3.45</v>
       </c>
       <c r="C97">
-        <v>-6.71</v>
+        <v>-5.36</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2979,10 +2982,10 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>-8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>-6.3</v>
+        <v>-6.71</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2990,10 +2993,10 @@
         <v>100</v>
       </c>
       <c r="B99">
-        <v>1.59</v>
+        <v>-8.960000000000001</v>
       </c>
       <c r="C99">
-        <v>-0.52</v>
+        <v>-6.3</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3001,10 +3004,10 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>-0.46</v>
+        <v>1.5</v>
       </c>
       <c r="C100">
-        <v>-2.73</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3012,10 +3015,10 @@
         <v>102</v>
       </c>
       <c r="B101">
-        <v>-7.19</v>
+        <v>-0.57</v>
       </c>
       <c r="C101">
-        <v>-6.04</v>
+        <v>-2.73</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3023,10 +3026,10 @@
         <v>103</v>
       </c>
       <c r="B102">
-        <v>-5.45</v>
+        <v>-7.34</v>
       </c>
       <c r="C102">
-        <v>-5.92</v>
+        <v>-6.04</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3034,10 +3037,10 @@
         <v>104</v>
       </c>
       <c r="B103">
-        <v>2.8</v>
+        <v>-5.59</v>
       </c>
       <c r="C103">
-        <v>1.36</v>
+        <v>-5.92</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3045,10 +3048,10 @@
         <v>105</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="C104">
-        <v>-6.58</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3056,10 +3059,10 @@
         <v>106</v>
       </c>
       <c r="B105">
-        <v>-7.3</v>
+        <v>-9.130000000000001</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>-6.58</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3067,7 +3070,7 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>-9.380000000000001</v>
+        <v>-7.46</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -3078,10 +3081,10 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>-6.86</v>
+        <v>-9.539999999999999</v>
       </c>
       <c r="C107">
-        <v>-4.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3089,10 +3092,10 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>-7.84</v>
+        <v>-7</v>
       </c>
       <c r="C108">
-        <v>-5.92</v>
+        <v>-4.77</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3100,10 +3103,10 @@
         <v>110</v>
       </c>
       <c r="B109">
-        <v>-4.69</v>
+        <v>-8</v>
       </c>
       <c r="C109">
-        <v>-3.37</v>
+        <v>-5.92</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3111,10 +3114,10 @@
         <v>111</v>
       </c>
       <c r="B110">
-        <v>9.18</v>
+        <v>-4.83</v>
       </c>
       <c r="C110">
-        <v>7.38</v>
+        <v>-3.37</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3122,10 +3125,10 @@
         <v>112</v>
       </c>
       <c r="B111">
-        <v>-4.68</v>
+        <v>9.16</v>
       </c>
       <c r="C111">
-        <v>-5.94</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3133,10 +3136,10 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>2.18</v>
+        <v>-4.81</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>-5.94</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3144,10 +3147,10 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>-1.61</v>
+        <v>2.06</v>
       </c>
       <c r="C113">
-        <v>-2.23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3155,10 +3158,10 @@
         <v>115</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>-1.73</v>
       </c>
       <c r="C114">
-        <v>-8.34</v>
+        <v>-2.23</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3166,10 +3169,10 @@
         <v>116</v>
       </c>
       <c r="B115">
-        <v>-4.85</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>-8.34</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3177,10 +3180,10 @@
         <v>117</v>
       </c>
       <c r="B116">
-        <v>-4.58</v>
+        <v>-4.99</v>
       </c>
       <c r="C116">
-        <v>-7.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3188,10 +3191,10 @@
         <v>118</v>
       </c>
       <c r="B117">
-        <v>-8.69</v>
+        <v>-4.72</v>
       </c>
       <c r="C117">
-        <v>-7.35</v>
+        <v>-7.85</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3199,10 +3202,10 @@
         <v>119</v>
       </c>
       <c r="B118">
-        <v>3.85</v>
+        <v>-8.83</v>
       </c>
       <c r="C118">
-        <v>5.19</v>
+        <v>-7.35</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3210,10 +3213,10 @@
         <v>120</v>
       </c>
       <c r="B119">
-        <v>-7.07</v>
+        <v>3.77</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3221,10 +3224,10 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>-9.25</v>
+        <v>-7.23</v>
       </c>
       <c r="C120">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3232,10 +3235,10 @@
         <v>122</v>
       </c>
       <c r="B121">
-        <v>-5.15</v>
+        <v>-9.390000000000001</v>
       </c>
       <c r="C121">
-        <v>0.37</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3243,10 +3246,10 @@
         <v>123</v>
       </c>
       <c r="B122">
-        <v>-2.4</v>
+        <v>-5.29</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3254,10 +3257,10 @@
         <v>124</v>
       </c>
       <c r="B123">
-        <v>5.32</v>
+        <v>-2.54</v>
       </c>
       <c r="C123">
-        <v>7.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3265,10 +3268,10 @@
         <v>125</v>
       </c>
       <c r="B124">
-        <v>-0.17</v>
+        <v>5.23</v>
       </c>
       <c r="C124">
-        <v>4.36</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3276,10 +3279,10 @@
         <v>126</v>
       </c>
       <c r="B125">
-        <v>0.6899999999999999</v>
+        <v>-0.27</v>
       </c>
       <c r="C125">
-        <v>-2.29</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3287,10 +3290,10 @@
         <v>127</v>
       </c>
       <c r="B126">
-        <v>-7.08</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C126">
-        <v>-5.62</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3298,10 +3301,10 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>5.12</v>
+        <v>-7.25</v>
       </c>
       <c r="C127">
-        <v>7.41</v>
+        <v>-5.62</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3309,10 +3312,10 @@
         <v>129</v>
       </c>
       <c r="B128">
-        <v>-4.36</v>
+        <v>5.04</v>
       </c>
       <c r="C128">
-        <v>-2.26</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3320,10 +3323,10 @@
         <v>130</v>
       </c>
       <c r="B129">
-        <v>2.75</v>
+        <v>-4.5</v>
       </c>
       <c r="C129">
-        <v>1.99</v>
+        <v>-2.26</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3331,10 +3334,10 @@
         <v>131</v>
       </c>
       <c r="B130">
-        <v>3.95</v>
+        <v>2.65</v>
       </c>
       <c r="C130">
-        <v>3.24</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3342,10 +3345,10 @@
         <v>132</v>
       </c>
       <c r="B131">
-        <v>-2.77</v>
+        <v>3.87</v>
       </c>
       <c r="C131">
-        <v>-5.06</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3353,10 +3356,10 @@
         <v>133</v>
       </c>
       <c r="B132">
-        <v>-0.48</v>
+        <v>-2.91</v>
       </c>
       <c r="C132">
-        <v>1.99</v>
+        <v>-5.06</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3364,10 +3367,10 @@
         <v>134</v>
       </c>
       <c r="B133">
-        <v>1.71</v>
+        <v>-0.61</v>
       </c>
       <c r="C133">
-        <v>6.82</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3375,10 +3378,10 @@
         <v>135</v>
       </c>
       <c r="B134">
-        <v>2.55</v>
+        <v>1.62</v>
       </c>
       <c r="C134">
-        <v>1.1</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3386,10 +3389,10 @@
         <v>136</v>
       </c>
       <c r="B135">
-        <v>-2.26</v>
+        <v>2.43</v>
       </c>
       <c r="C135">
-        <v>-0.17</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3397,10 +3400,10 @@
         <v>137</v>
       </c>
       <c r="B136">
-        <v>-6.8</v>
+        <v>-2.39</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3408,10 +3411,10 @@
         <v>138</v>
       </c>
       <c r="B137">
-        <v>5.01</v>
+        <v>-6.94</v>
       </c>
       <c r="C137">
-        <v>6.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3419,10 +3422,10 @@
         <v>139</v>
       </c>
       <c r="B138">
-        <v>5.04</v>
+        <v>4.94</v>
       </c>
       <c r="C138">
-        <v>4.71</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3430,10 +3433,10 @@
         <v>140</v>
       </c>
       <c r="B139">
-        <v>8.050000000000001</v>
+        <v>4.98</v>
       </c>
       <c r="C139">
-        <v>7.94</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3441,10 +3444,10 @@
         <v>141</v>
       </c>
       <c r="B140">
-        <v>-5.1</v>
+        <v>8</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3452,7 +3455,7 @@
         <v>142</v>
       </c>
       <c r="B141">
-        <v>2.61</v>
+        <v>-5.25</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3463,7 +3466,7 @@
         <v>143</v>
       </c>
       <c r="B142">
-        <v>-7.03</v>
+        <v>2.52</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -3474,10 +3477,10 @@
         <v>144</v>
       </c>
       <c r="B143">
-        <v>-2.37</v>
+        <v>-7.18</v>
       </c>
       <c r="C143">
-        <v>-1.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3485,10 +3488,10 @@
         <v>145</v>
       </c>
       <c r="B144">
-        <v>-8.6</v>
+        <v>-2.49</v>
       </c>
       <c r="C144">
-        <v>-6.6</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3496,10 +3499,10 @@
         <v>146</v>
       </c>
       <c r="B145">
-        <v>7.95</v>
+        <v>-8.76</v>
       </c>
       <c r="C145">
-        <v>8.82</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3507,10 +3510,10 @@
         <v>147</v>
       </c>
       <c r="B146">
-        <v>-8.75</v>
+        <v>7.86</v>
       </c>
       <c r="C146">
-        <v>-7.71</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3518,10 +3521,10 @@
         <v>148</v>
       </c>
       <c r="B147">
-        <v>-1.01</v>
+        <v>-8.890000000000001</v>
       </c>
       <c r="C147">
-        <v>-1.47</v>
+        <v>-7.71</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3529,10 +3532,10 @@
         <v>149</v>
       </c>
       <c r="B148">
-        <v>8.02</v>
+        <v>-1.09</v>
       </c>
       <c r="C148">
-        <v>5.08</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3540,10 +3543,10 @@
         <v>150</v>
       </c>
       <c r="B149">
-        <v>1.17</v>
+        <v>7.96</v>
       </c>
       <c r="C149">
-        <v>-1.71</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3551,10 +3554,10 @@
         <v>151</v>
       </c>
       <c r="B150">
-        <v>-2.86</v>
+        <v>1.06</v>
       </c>
       <c r="C150">
-        <v>0.27</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3562,10 +3565,10 @@
         <v>152</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>-2.99</v>
       </c>
       <c r="C151">
-        <v>-7.55</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3573,10 +3576,10 @@
         <v>153</v>
       </c>
       <c r="B152">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="C152">
-        <v>1.9</v>
+        <v>-7.55</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3584,10 +3587,10 @@
         <v>154</v>
       </c>
       <c r="B153">
-        <v>-4.04</v>
+        <v>2.44</v>
       </c>
       <c r="C153">
-        <v>-2.24</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3595,10 +3598,10 @@
         <v>155</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>-4.18</v>
       </c>
       <c r="C154">
-        <v>-4.97</v>
+        <v>-2.24</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3606,7 +3609,7 @@
         <v>156</v>
       </c>
       <c r="B155">
-        <v>-6.61</v>
+        <v>0</v>
       </c>
       <c r="C155">
         <v>-4.97</v>
@@ -3617,10 +3620,10 @@
         <v>157</v>
       </c>
       <c r="B156">
-        <v>-3.46</v>
+        <v>-6.76</v>
       </c>
       <c r="C156">
-        <v>-6.24</v>
+        <v>-4.97</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3628,10 +3631,10 @@
         <v>158</v>
       </c>
       <c r="B157">
-        <v>-4.85</v>
+        <v>-3.58</v>
       </c>
       <c r="C157">
-        <v>-6.29</v>
+        <v>-6.24</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3639,10 +3642,10 @@
         <v>159</v>
       </c>
       <c r="B158">
-        <v>-5.81</v>
+        <v>-4.98</v>
       </c>
       <c r="C158">
-        <v>-6.74</v>
+        <v>-6.29</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3650,10 +3653,10 @@
         <v>160</v>
       </c>
       <c r="B159">
-        <v>0.3</v>
+        <v>-5.97</v>
       </c>
       <c r="C159">
-        <v>3.27</v>
+        <v>-6.74</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3661,10 +3664,10 @@
         <v>161</v>
       </c>
       <c r="B160">
-        <v>-8.279999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3672,7 +3675,7 @@
         <v>162</v>
       </c>
       <c r="B161">
-        <v>-9.550000000000001</v>
+        <v>-8.43</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3683,10 +3686,10 @@
         <v>163</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>-9.69</v>
       </c>
       <c r="C162">
-        <v>-5.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3694,10 +3697,10 @@
         <v>164</v>
       </c>
       <c r="B163">
-        <v>-1.76</v>
+        <v>-6.91</v>
       </c>
       <c r="C163">
-        <v>-5.03</v>
+        <v>-5.29</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3705,10 +3708,10 @@
         <v>165</v>
       </c>
       <c r="B164">
-        <v>5.1</v>
+        <v>-1.88</v>
       </c>
       <c r="C164">
-        <v>7.11</v>
+        <v>-5.03</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3716,10 +3719,10 @@
         <v>166</v>
       </c>
       <c r="B165">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="C165">
-        <v>3.4</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3727,10 +3730,10 @@
         <v>167</v>
       </c>
       <c r="B166">
-        <v>5.35</v>
+        <v>4.21</v>
       </c>
       <c r="C166">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3738,10 +3741,10 @@
         <v>168</v>
       </c>
       <c r="B167">
-        <v>-3.37</v>
+        <v>5.31</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3749,10 +3752,10 @@
         <v>169</v>
       </c>
       <c r="B168">
-        <v>-3.9</v>
+        <v>-3.5</v>
       </c>
       <c r="C168">
-        <v>-5.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3760,10 +3763,10 @@
         <v>170</v>
       </c>
       <c r="B169">
-        <v>-7.73</v>
+        <v>-4.03</v>
       </c>
       <c r="C169">
-        <v>-6.15</v>
+        <v>-5.86</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3771,10 +3774,10 @@
         <v>171</v>
       </c>
       <c r="B170">
-        <v>-5.19</v>
+        <v>-7.88</v>
       </c>
       <c r="C170">
-        <v>1.2</v>
+        <v>-6.15</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3782,10 +3785,10 @@
         <v>172</v>
       </c>
       <c r="B171">
-        <v>-4.95</v>
+        <v>-5.33</v>
       </c>
       <c r="C171">
-        <v>-4.94</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3793,10 +3796,10 @@
         <v>173</v>
       </c>
       <c r="B172">
-        <v>-3.9</v>
+        <v>-5.09</v>
       </c>
       <c r="C172">
-        <v>-2.68</v>
+        <v>-4.94</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3804,10 +3807,10 @@
         <v>174</v>
       </c>
       <c r="B173">
-        <v>-1.14</v>
+        <v>-4.05</v>
       </c>
       <c r="C173">
-        <v>-3.49</v>
+        <v>-2.68</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3815,10 +3818,10 @@
         <v>175</v>
       </c>
       <c r="B174">
-        <v>-3.76</v>
+        <v>-1.26</v>
       </c>
       <c r="C174">
-        <v>-3.93</v>
+        <v>-3.49</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3826,10 +3829,10 @@
         <v>176</v>
       </c>
       <c r="B175">
-        <v>12.6</v>
+        <v>-3.88</v>
       </c>
       <c r="C175">
-        <v>8.17</v>
+        <v>-3.93</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3837,10 +3840,10 @@
         <v>177</v>
       </c>
       <c r="B176">
-        <v>-3.83</v>
+        <v>12.61</v>
       </c>
       <c r="C176">
-        <v>-6.62</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3848,10 +3851,10 @@
         <v>178</v>
       </c>
       <c r="B177">
-        <v>-2.63</v>
+        <v>-3.97</v>
       </c>
       <c r="C177">
-        <v>3.72</v>
+        <v>-6.62</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3859,10 +3862,10 @@
         <v>179</v>
       </c>
       <c r="B178">
-        <v>-2.69</v>
+        <v>-2.75</v>
       </c>
       <c r="C178">
-        <v>0.14</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3870,10 +3873,10 @@
         <v>180</v>
       </c>
       <c r="B179">
-        <v>0.31</v>
+        <v>-2.81</v>
       </c>
       <c r="C179">
-        <v>0.3</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3881,10 +3884,10 @@
         <v>181</v>
       </c>
       <c r="B180">
-        <v>-5.41</v>
+        <v>0.2</v>
       </c>
       <c r="C180">
-        <v>-0.45</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3892,10 +3895,10 @@
         <v>182</v>
       </c>
       <c r="B181">
-        <v>-8.289999999999999</v>
+        <v>-5.56</v>
       </c>
       <c r="C181">
-        <v>-7.37</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3903,10 +3906,10 @@
         <v>183</v>
       </c>
       <c r="B182">
-        <v>-2.21</v>
+        <v>-8.42</v>
       </c>
       <c r="C182">
-        <v>-0.15</v>
+        <v>-7.37</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3914,10 +3917,10 @@
         <v>184</v>
       </c>
       <c r="B183">
-        <v>-5.38</v>
+        <v>-2.33</v>
       </c>
       <c r="C183">
-        <v>-2.84</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3925,10 +3928,10 @@
         <v>185</v>
       </c>
       <c r="B184">
-        <v>2.1</v>
+        <v>-5.53</v>
       </c>
       <c r="C184">
-        <v>-1.49</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3936,10 +3939,10 @@
         <v>186</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="C185">
-        <v>-5.46</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3947,10 +3950,10 @@
         <v>187</v>
       </c>
       <c r="B186">
-        <v>4.36</v>
+        <v>-7.35</v>
       </c>
       <c r="C186">
-        <v>-0.3</v>
+        <v>-5.46</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3958,10 +3961,10 @@
         <v>188</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>4.28</v>
       </c>
       <c r="C187">
-        <v>-8.02</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3969,10 +3972,10 @@
         <v>189</v>
       </c>
       <c r="B188">
-        <v>-4.08</v>
+        <v>0</v>
       </c>
       <c r="C188">
-        <v>-3.17</v>
+        <v>-8.02</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3980,10 +3983,10 @@
         <v>190</v>
       </c>
       <c r="B189">
-        <v>-6.91</v>
+        <v>-4.22</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>-3.17</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3991,7 +3994,7 @@
         <v>191</v>
       </c>
       <c r="B190">
-        <v>2.65</v>
+        <v>-7.08</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -4002,10 +4005,10 @@
         <v>192</v>
       </c>
       <c r="B191">
-        <v>-1.73</v>
+        <v>2.53</v>
       </c>
       <c r="C191">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4013,10 +4016,10 @@
         <v>193</v>
       </c>
       <c r="B192">
-        <v>-3.48</v>
+        <v>-1.87</v>
       </c>
       <c r="C192">
-        <v>-2.61</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4024,10 +4027,10 @@
         <v>194</v>
       </c>
       <c r="B193">
-        <v>-3.62</v>
+        <v>-3.6</v>
       </c>
       <c r="C193">
-        <v>0.41</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4035,10 +4038,10 @@
         <v>195</v>
       </c>
       <c r="B194">
-        <v>2.91</v>
+        <v>-3.76</v>
       </c>
       <c r="C194">
-        <v>3.31</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4046,10 +4049,10 @@
         <v>196</v>
       </c>
       <c r="B195">
-        <v>-8.69</v>
+        <v>2.8</v>
       </c>
       <c r="C195">
-        <v>-7.6</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4057,10 +4060,10 @@
         <v>197</v>
       </c>
       <c r="B196">
-        <v>5.44</v>
+        <v>-8.83</v>
       </c>
       <c r="C196">
-        <v>4.66</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4068,10 +4071,10 @@
         <v>198</v>
       </c>
       <c r="B197">
-        <v>-8.119999999999999</v>
+        <v>5.36</v>
       </c>
       <c r="C197">
-        <v>-7.73</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4079,10 +4082,10 @@
         <v>199</v>
       </c>
       <c r="B198">
-        <v>2.39</v>
+        <v>-8.279999999999999</v>
       </c>
       <c r="C198">
-        <v>0.82</v>
+        <v>-7.73</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4090,10 +4093,10 @@
         <v>200</v>
       </c>
       <c r="B199">
-        <v>-5.54</v>
+        <v>2.29</v>
       </c>
       <c r="C199">
-        <v>-4.77</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4101,10 +4104,10 @@
         <v>201</v>
       </c>
       <c r="B200">
-        <v>0</v>
+        <v>-5.68</v>
       </c>
       <c r="C200">
-        <v>-7.34</v>
+        <v>-4.77</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4112,10 +4115,10 @@
         <v>202</v>
       </c>
       <c r="B201">
-        <v>-5.91</v>
+        <v>0</v>
       </c>
       <c r="C201">
-        <v>-5.58</v>
+        <v>-7.34</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4123,10 +4126,10 @@
         <v>203</v>
       </c>
       <c r="B202">
-        <v>0.65</v>
+        <v>-6.05</v>
       </c>
       <c r="C202">
-        <v>1.53</v>
+        <v>-5.58</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4134,10 +4137,10 @@
         <v>204</v>
       </c>
       <c r="B203">
-        <v>-1.65</v>
+        <v>0.54</v>
       </c>
       <c r="C203">
-        <v>-0.79</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4145,10 +4148,10 @@
         <v>205</v>
       </c>
       <c r="B204">
-        <v>-5.24</v>
+        <v>-1.78</v>
       </c>
       <c r="C204">
-        <v>-7.91</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4156,10 +4159,10 @@
         <v>206</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>-5.4</v>
       </c>
       <c r="C205">
-        <v>-6.86</v>
+        <v>-7.91</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4167,10 +4170,10 @@
         <v>207</v>
       </c>
       <c r="B206">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="C206">
-        <v>-2.93</v>
+        <v>-6.86</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4178,10 +4181,10 @@
         <v>208</v>
       </c>
       <c r="B207">
-        <v>-5.84</v>
+        <v>-0.92</v>
       </c>
       <c r="C207">
-        <v>-3.18</v>
+        <v>-2.93</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4189,10 +4192,10 @@
         <v>209</v>
       </c>
       <c r="B208">
-        <v>2.79</v>
+        <v>-5.99</v>
       </c>
       <c r="C208">
-        <v>5.42</v>
+        <v>-3.18</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4200,10 +4203,10 @@
         <v>210</v>
       </c>
       <c r="B209">
-        <v>5.97</v>
+        <v>2.72</v>
       </c>
       <c r="C209">
-        <v>2.66</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4211,10 +4214,10 @@
         <v>211</v>
       </c>
       <c r="B210">
-        <v>2.26</v>
+        <v>5.91</v>
       </c>
       <c r="C210">
-        <v>2.15</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4222,10 +4225,10 @@
         <v>212</v>
       </c>
       <c r="B211">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="C211">
-        <v>3.44</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4233,10 +4236,10 @@
         <v>213</v>
       </c>
       <c r="B212">
-        <v>-11.33</v>
+        <v>1.89</v>
       </c>
       <c r="C212">
-        <v>0</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4244,10 +4247,10 @@
         <v>214</v>
       </c>
       <c r="B213">
-        <v>5.39</v>
+        <v>-11.51</v>
       </c>
       <c r="C213">
-        <v>4.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4255,10 +4258,10 @@
         <v>215</v>
       </c>
       <c r="B214">
-        <v>-6.92</v>
+        <v>5.29</v>
       </c>
       <c r="C214">
-        <v>0</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4266,10 +4269,10 @@
         <v>216</v>
       </c>
       <c r="B215">
-        <v>-8.91</v>
+        <v>-7.07</v>
       </c>
       <c r="C215">
-        <v>-8.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4277,10 +4280,10 @@
         <v>217</v>
       </c>
       <c r="B216">
-        <v>0.54</v>
+        <v>-9.050000000000001</v>
       </c>
       <c r="C216">
-        <v>-1.84</v>
+        <v>-8.02</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4288,10 +4291,10 @@
         <v>218</v>
       </c>
       <c r="B217">
-        <v>5.64</v>
+        <v>0.42</v>
       </c>
       <c r="C217">
-        <v>7.13</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4299,10 +4302,10 @@
         <v>219</v>
       </c>
       <c r="B218">
-        <v>5.49</v>
+        <v>5.55</v>
       </c>
       <c r="C218">
-        <v>3.97</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4310,10 +4313,10 @@
         <v>220</v>
       </c>
       <c r="B219">
-        <v>-7</v>
+        <v>5.41</v>
       </c>
       <c r="C219">
-        <v>-2.28</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4321,10 +4324,10 @@
         <v>221</v>
       </c>
       <c r="B220">
-        <v>-6.57</v>
+        <v>-7.14</v>
       </c>
       <c r="C220">
-        <v>-4.24</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4332,10 +4335,10 @@
         <v>222</v>
       </c>
       <c r="B221">
-        <v>2.95</v>
+        <v>-6.73</v>
       </c>
       <c r="C221">
-        <v>1.25</v>
+        <v>-4.24</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4343,10 +4346,10 @@
         <v>223</v>
       </c>
       <c r="B222">
-        <v>-7.84</v>
+        <v>2.87</v>
       </c>
       <c r="C222">
-        <v>-3.15</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4354,10 +4357,10 @@
         <v>224</v>
       </c>
       <c r="B223">
-        <v>11.1</v>
+        <v>-8</v>
       </c>
       <c r="C223">
-        <v>10.72</v>
+        <v>-3.15</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4365,10 +4368,10 @@
         <v>225</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>11.07</v>
       </c>
       <c r="C224">
-        <v>-4.24</v>
+        <v>10.72</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4376,10 +4379,10 @@
         <v>226</v>
       </c>
       <c r="B225">
-        <v>-6.64</v>
+        <v>0</v>
       </c>
       <c r="C225">
-        <v>-5.16</v>
+        <v>-4.24</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4387,10 +4390,10 @@
         <v>227</v>
       </c>
       <c r="B226">
-        <v>0</v>
+        <v>-6.77</v>
       </c>
       <c r="C226">
-        <v>-3.59</v>
+        <v>-5.16</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4398,10 +4401,10 @@
         <v>228</v>
       </c>
       <c r="B227">
-        <v>-4.37</v>
+        <v>-5.4</v>
       </c>
       <c r="C227">
-        <v>-3.74</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4409,10 +4412,10 @@
         <v>229</v>
       </c>
       <c r="B228">
-        <v>0</v>
+        <v>-4.5</v>
       </c>
       <c r="C228">
-        <v>-3.49</v>
+        <v>-3.74</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4420,10 +4423,10 @@
         <v>230</v>
       </c>
       <c r="B229">
-        <v>-8.029999999999999</v>
+        <v>-5.45</v>
       </c>
       <c r="C229">
-        <v>-3.77</v>
+        <v>-3.49</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4431,10 +4434,10 @@
         <v>231</v>
       </c>
       <c r="B230">
-        <v>5.11</v>
+        <v>-8.18</v>
       </c>
       <c r="C230">
-        <v>3.25</v>
+        <v>-3.77</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4442,10 +4445,10 @@
         <v>232</v>
       </c>
       <c r="B231">
-        <v>-1.05</v>
+        <v>5.02</v>
       </c>
       <c r="C231">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4453,10 +4456,10 @@
         <v>233</v>
       </c>
       <c r="B232">
-        <v>3.64</v>
+        <v>-1.19</v>
       </c>
       <c r="C232">
-        <v>5.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4464,10 +4467,10 @@
         <v>234</v>
       </c>
       <c r="B233">
-        <v>-8.19</v>
+        <v>3.53</v>
       </c>
       <c r="C233">
-        <v>0</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4475,10 +4478,10 @@
         <v>235</v>
       </c>
       <c r="B234">
-        <v>0</v>
+        <v>-8.34</v>
       </c>
       <c r="C234">
-        <v>-0.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4486,10 +4489,10 @@
         <v>236</v>
       </c>
       <c r="B235">
-        <v>-5.43</v>
+        <v>-0.5</v>
       </c>
       <c r="C235">
-        <v>-1.1</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4497,10 +4500,10 @@
         <v>237</v>
       </c>
       <c r="B236">
-        <v>-0.8100000000000001</v>
+        <v>-5.59</v>
       </c>
       <c r="C236">
-        <v>2.09</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4508,10 +4511,10 @@
         <v>238</v>
       </c>
       <c r="B237">
-        <v>3.82</v>
+        <v>-0.93</v>
       </c>
       <c r="C237">
-        <v>4.28</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4519,10 +4522,10 @@
         <v>239</v>
       </c>
       <c r="B238">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="C238">
-        <v>-6.69</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4533,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="C239">
-        <v>-7.71</v>
+        <v>-6.69</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4544,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="C240">
-        <v>-3.32</v>
+        <v>-7.71</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4552,10 +4555,10 @@
         <v>242</v>
       </c>
       <c r="B241">
-        <v>-5.09</v>
+        <v>-5.4</v>
       </c>
       <c r="C241">
-        <v>0</v>
+        <v>-3.32</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4563,10 +4566,10 @@
         <v>243</v>
       </c>
       <c r="B242">
-        <v>-6.14</v>
+        <v>-5.23</v>
       </c>
       <c r="C242">
-        <v>-6.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4574,10 +4577,10 @@
         <v>244</v>
       </c>
       <c r="B243">
-        <v>9.210000000000001</v>
+        <v>-6.28</v>
       </c>
       <c r="C243">
-        <v>9.880000000000001</v>
+        <v>-6.75</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4585,10 +4588,10 @@
         <v>245</v>
       </c>
       <c r="B244">
-        <v>0</v>
+        <v>9.16</v>
       </c>
       <c r="C244">
-        <v>-7.71</v>
+        <v>9.880000000000001</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4599,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="C245">
-        <v>-8.02</v>
+        <v>-7.71</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4607,10 +4610,10 @@
         <v>247</v>
       </c>
       <c r="B246">
-        <v>-7.37</v>
+        <v>0</v>
       </c>
       <c r="C246">
-        <v>-7.21</v>
+        <v>-8.02</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4618,10 +4621,10 @@
         <v>248</v>
       </c>
       <c r="B247">
-        <v>1.76</v>
+        <v>-7.52</v>
       </c>
       <c r="C247">
-        <v>3.09</v>
+        <v>-7.21</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4629,10 +4632,10 @@
         <v>249</v>
       </c>
       <c r="B248">
-        <v>-6.47</v>
+        <v>1.66</v>
       </c>
       <c r="C248">
-        <v>-4.38</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4640,10 +4643,10 @@
         <v>250</v>
       </c>
       <c r="B249">
-        <v>0.62</v>
+        <v>-6.62</v>
       </c>
       <c r="C249">
-        <v>1.95</v>
+        <v>-4.38</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4651,10 +4654,10 @@
         <v>251</v>
       </c>
       <c r="B250">
-        <v>-4.65</v>
+        <v>0.51</v>
       </c>
       <c r="C250">
-        <v>-4.4</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4662,10 +4665,10 @@
         <v>252</v>
       </c>
       <c r="B251">
-        <v>-8.68</v>
+        <v>-4.8</v>
       </c>
       <c r="C251">
-        <v>-4.66</v>
+        <v>-4.4</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4673,10 +4676,10 @@
         <v>253</v>
       </c>
       <c r="B252">
-        <v>-7.13</v>
+        <v>-8.84</v>
       </c>
       <c r="C252">
-        <v>-6.08</v>
+        <v>-4.66</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4684,10 +4687,10 @@
         <v>254</v>
       </c>
       <c r="B253">
-        <v>5.79</v>
+        <v>-7.28</v>
       </c>
       <c r="C253">
-        <v>2.11</v>
+        <v>-6.08</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4695,10 +4698,10 @@
         <v>255</v>
       </c>
       <c r="B254">
-        <v>-5.5</v>
+        <v>5.69</v>
       </c>
       <c r="C254">
-        <v>-4.62</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4706,10 +4709,10 @@
         <v>256</v>
       </c>
       <c r="B255">
-        <v>-5.13</v>
+        <v>-5.65</v>
       </c>
       <c r="C255">
-        <v>-7.02</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4717,10 +4720,10 @@
         <v>257</v>
       </c>
       <c r="B256">
-        <v>12.49</v>
+        <v>-5.27</v>
       </c>
       <c r="C256">
-        <v>0</v>
+        <v>-7.02</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4728,10 +4731,10 @@
         <v>258</v>
       </c>
       <c r="B257">
-        <v>1.14</v>
+        <v>12.45</v>
       </c>
       <c r="C257">
-        <v>3.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4739,10 +4742,10 @@
         <v>259</v>
       </c>
       <c r="B258">
-        <v>-2.55</v>
+        <v>1.04</v>
       </c>
       <c r="C258">
-        <v>-0.6</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4750,10 +4753,10 @@
         <v>260</v>
       </c>
       <c r="B259">
-        <v>-8.23</v>
+        <v>-2.69</v>
       </c>
       <c r="C259">
-        <v>-5.99</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4761,10 +4764,10 @@
         <v>261</v>
       </c>
       <c r="B260">
-        <v>-5.79</v>
+        <v>-8.390000000000001</v>
       </c>
       <c r="C260">
-        <v>-9.6</v>
+        <v>-5.99</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4772,10 +4775,10 @@
         <v>262</v>
       </c>
       <c r="B261">
-        <v>-7.32</v>
+        <v>-5.94</v>
       </c>
       <c r="C261">
-        <v>-3.35</v>
+        <v>-9.6</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4783,10 +4786,10 @@
         <v>263</v>
       </c>
       <c r="B262">
-        <v>0.34</v>
+        <v>-7.47</v>
       </c>
       <c r="C262">
-        <v>0.51</v>
+        <v>-3.35</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4794,10 +4797,10 @@
         <v>264</v>
       </c>
       <c r="B263">
-        <v>-1</v>
+        <v>0.23</v>
       </c>
       <c r="C263">
-        <v>-2.57</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4805,10 +4808,10 @@
         <v>265</v>
       </c>
       <c r="B264">
-        <v>0.8</v>
+        <v>-1.14</v>
       </c>
       <c r="C264">
-        <v>-1.86</v>
+        <v>-2.57</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4816,10 +4819,10 @@
         <v>266</v>
       </c>
       <c r="B265">
-        <v>-3.86</v>
+        <v>0.68</v>
       </c>
       <c r="C265">
-        <v>0</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4827,10 +4830,10 @@
         <v>267</v>
       </c>
       <c r="B266">
-        <v>-0.58</v>
+        <v>-4.01</v>
       </c>
       <c r="C266">
-        <v>-3.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4838,10 +4841,10 @@
         <v>268</v>
       </c>
       <c r="B267">
-        <v>-3.42</v>
+        <v>-0.67</v>
       </c>
       <c r="C267">
-        <v>0.76</v>
+        <v>-3.07</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4849,10 +4852,10 @@
         <v>269</v>
       </c>
       <c r="B268">
-        <v>-5.64</v>
+        <v>-3.54</v>
       </c>
       <c r="C268">
-        <v>-6.73</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4860,10 +4863,10 @@
         <v>270</v>
       </c>
       <c r="B269">
-        <v>0</v>
+        <v>-5.78</v>
       </c>
       <c r="C269">
-        <v>-9.15</v>
+        <v>-6.73</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4871,10 +4874,10 @@
         <v>271</v>
       </c>
       <c r="B270">
-        <v>3.27</v>
+        <v>0</v>
       </c>
       <c r="C270">
-        <v>10.08</v>
+        <v>-9.15</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4882,10 +4885,10 @@
         <v>272</v>
       </c>
       <c r="B271">
-        <v>-6.94</v>
+        <v>3.19</v>
       </c>
       <c r="C271">
-        <v>-6.72</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4893,10 +4896,10 @@
         <v>273</v>
       </c>
       <c r="B272">
-        <v>-2.32</v>
+        <v>-7.1</v>
       </c>
       <c r="C272">
-        <v>0.14</v>
+        <v>-6.72</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4904,10 +4907,10 @@
         <v>274</v>
       </c>
       <c r="B273">
-        <v>2.92</v>
+        <v>-2.45</v>
       </c>
       <c r="C273">
-        <v>0.83</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4915,10 +4918,10 @@
         <v>275</v>
       </c>
       <c r="B274">
-        <v>-2.04</v>
+        <v>2.84</v>
       </c>
       <c r="C274">
-        <v>-1.41</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4926,10 +4929,10 @@
         <v>276</v>
       </c>
       <c r="B275">
-        <v>1.59</v>
+        <v>-2.17</v>
       </c>
       <c r="C275">
-        <v>4.43</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4937,10 +4940,10 @@
         <v>277</v>
       </c>
       <c r="B276">
-        <v>-4.52</v>
+        <v>1.47</v>
       </c>
       <c r="C276">
-        <v>-6.31</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4948,10 +4951,10 @@
         <v>278</v>
       </c>
       <c r="B277">
-        <v>-5.23</v>
+        <v>-4.66</v>
       </c>
       <c r="C277">
-        <v>0</v>
+        <v>-6.31</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4959,10 +4962,10 @@
         <v>279</v>
       </c>
       <c r="B278">
-        <v>-1.36</v>
+        <v>-5.38</v>
       </c>
       <c r="C278">
-        <v>-8.859999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4970,10 +4973,10 @@
         <v>280</v>
       </c>
       <c r="B279">
-        <v>2.74</v>
+        <v>-1.47</v>
       </c>
       <c r="C279">
-        <v>0.02</v>
+        <v>-8.859999999999999</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4981,10 +4984,10 @@
         <v>281</v>
       </c>
       <c r="B280">
-        <v>-7.97</v>
+        <v>2.65</v>
       </c>
       <c r="C280">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4992,10 +4995,10 @@
         <v>282</v>
       </c>
       <c r="B281">
-        <v>-2.09</v>
+        <v>-8.130000000000001</v>
       </c>
       <c r="C281">
-        <v>0.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5003,10 +5006,10 @@
         <v>283</v>
       </c>
       <c r="B282">
-        <v>0</v>
+        <v>-2.21</v>
       </c>
       <c r="C282">
-        <v>-4.75</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5014,10 +5017,10 @@
         <v>284</v>
       </c>
       <c r="B283">
-        <v>-2.69</v>
+        <v>-6.73</v>
       </c>
       <c r="C283">
-        <v>-1.59</v>
+        <v>-4.75</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5025,10 +5028,10 @@
         <v>285</v>
       </c>
       <c r="B284">
-        <v>1.6</v>
+        <v>-2.81</v>
       </c>
       <c r="C284">
-        <v>5.25</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5036,10 +5039,10 @@
         <v>286</v>
       </c>
       <c r="B285">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C285">
-        <v>-6.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5047,10 +5050,10 @@
         <v>287</v>
       </c>
       <c r="B286">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="C286">
-        <v>-2.15</v>
+        <v>-6.5</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5058,10 +5061,10 @@
         <v>288</v>
       </c>
       <c r="B287">
-        <v>-7.34</v>
+        <v>1.69</v>
       </c>
       <c r="C287">
-        <v>0</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5069,10 +5072,10 @@
         <v>289</v>
       </c>
       <c r="B288">
-        <v>-9.15</v>
+        <v>-7.49</v>
       </c>
       <c r="C288">
-        <v>-4.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5080,10 +5083,10 @@
         <v>290</v>
       </c>
       <c r="B289">
-        <v>8.23</v>
+        <v>-9.25</v>
       </c>
       <c r="C289">
-        <v>8.710000000000001</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5091,10 +5094,10 @@
         <v>291</v>
       </c>
       <c r="B290">
-        <v>-3.24</v>
+        <v>8.18</v>
       </c>
       <c r="C290">
-        <v>-5.52</v>
+        <v>8.710000000000001</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5102,10 +5105,10 @@
         <v>292</v>
       </c>
       <c r="B291">
-        <v>4.89</v>
+        <v>-3.37</v>
       </c>
       <c r="C291">
-        <v>0</v>
+        <v>-5.52</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5113,10 +5116,10 @@
         <v>293</v>
       </c>
       <c r="B292">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="C292">
-        <v>-2.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5124,10 +5127,10 @@
         <v>294</v>
       </c>
       <c r="B293">
-        <v>2.18</v>
+        <v>-3.99</v>
       </c>
       <c r="C293">
-        <v>2.14</v>
+        <v>-2.57</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5135,10 +5138,10 @@
         <v>295</v>
       </c>
       <c r="B294">
-        <v>-7.32</v>
+        <v>2.08</v>
       </c>
       <c r="C294">
-        <v>0</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5146,10 +5149,10 @@
         <v>296</v>
       </c>
       <c r="B295">
-        <v>-7.01</v>
+        <v>-7.47</v>
       </c>
       <c r="C295">
-        <v>-7.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5157,10 +5160,10 @@
         <v>297</v>
       </c>
       <c r="B296">
-        <v>-1.86</v>
+        <v>-7.17</v>
       </c>
       <c r="C296">
-        <v>-1.44</v>
+        <v>-7.63</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5168,10 +5171,10 @@
         <v>298</v>
       </c>
       <c r="B297">
-        <v>0</v>
+        <v>-1.98</v>
       </c>
       <c r="C297">
-        <v>0</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5179,10 +5182,10 @@
         <v>299</v>
       </c>
       <c r="B298">
-        <v>0</v>
+        <v>-0.12</v>
       </c>
       <c r="C298">
-        <v>-0.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5190,10 +5193,10 @@
         <v>300</v>
       </c>
       <c r="B299">
-        <v>-5.63</v>
+        <v>-0.13</v>
       </c>
       <c r="C299">
-        <v>0</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5201,10 +5204,10 @@
         <v>301</v>
       </c>
       <c r="B300">
-        <v>-0.5600000000000001</v>
+        <v>-5.78</v>
       </c>
       <c r="C300">
-        <v>-1.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5212,10 +5215,10 @@
         <v>302</v>
       </c>
       <c r="B301">
-        <v>-5.72</v>
+        <v>-0.68</v>
       </c>
       <c r="C301">
-        <v>-2.21</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5223,10 +5226,10 @@
         <v>303</v>
       </c>
       <c r="B302">
-        <v>-2.04</v>
+        <v>-5.87</v>
       </c>
       <c r="C302">
-        <v>0.89</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5234,10 +5237,10 @@
         <v>304</v>
       </c>
       <c r="B303">
-        <v>-6.01</v>
+        <v>-2.17</v>
       </c>
       <c r="C303">
-        <v>-4.4</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5245,10 +5248,10 @@
         <v>305</v>
       </c>
       <c r="B304">
-        <v>0</v>
+        <v>-6.17</v>
       </c>
       <c r="C304">
-        <v>-7.71</v>
+        <v>-4.4</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5256,10 +5259,10 @@
         <v>306</v>
       </c>
       <c r="B305">
-        <v>9.43</v>
+        <v>0</v>
       </c>
       <c r="C305">
-        <v>7.93</v>
+        <v>-7.71</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5267,10 +5270,10 @@
         <v>307</v>
       </c>
       <c r="B306">
-        <v>-0.9399999999999999</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="C306">
-        <v>1.56</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5278,10 +5281,10 @@
         <v>308</v>
       </c>
       <c r="B307">
-        <v>-4.26</v>
+        <v>-1.06</v>
       </c>
       <c r="C307">
-        <v>0</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5289,10 +5292,10 @@
         <v>309</v>
       </c>
       <c r="B308">
-        <v>-1.69</v>
+        <v>-4.39</v>
       </c>
       <c r="C308">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5300,10 +5303,10 @@
         <v>310</v>
       </c>
       <c r="B309">
-        <v>-6.36</v>
+        <v>-1.81</v>
       </c>
       <c r="C309">
-        <v>-0.99</v>
+        <v>-3.75</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5311,10 +5314,10 @@
         <v>311</v>
       </c>
       <c r="B310">
-        <v>0.71</v>
+        <v>-6.52</v>
       </c>
       <c r="C310">
-        <v>-0.9399999999999999</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5322,10 +5325,10 @@
         <v>312</v>
       </c>
       <c r="B311">
-        <v>1.7</v>
+        <v>0.62</v>
       </c>
       <c r="C311">
-        <v>0</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5333,7 +5336,7 @@
         <v>313</v>
       </c>
       <c r="B312">
-        <v>-6.43</v>
+        <v>1.61</v>
       </c>
       <c r="C312">
         <v>0</v>
@@ -5344,10 +5347,10 @@
         <v>314</v>
       </c>
       <c r="B313">
-        <v>0.42</v>
+        <v>-6.58</v>
       </c>
       <c r="C313">
-        <v>1.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5355,10 +5358,10 @@
         <v>315</v>
       </c>
       <c r="B314">
-        <v>-9.210000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="C314">
-        <v>-6.86</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5366,10 +5369,10 @@
         <v>316</v>
       </c>
       <c r="B315">
-        <v>-6.49</v>
+        <v>-9.35</v>
       </c>
       <c r="C315">
-        <v>0</v>
+        <v>-6.86</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5377,10 +5380,10 @@
         <v>317</v>
       </c>
       <c r="B316">
-        <v>-1.32</v>
+        <v>-6.64</v>
       </c>
       <c r="C316">
-        <v>-0.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5388,10 +5391,10 @@
         <v>318</v>
       </c>
       <c r="B317">
-        <v>-7.53</v>
+        <v>-1.45</v>
       </c>
       <c r="C317">
-        <v>-5.65</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5399,10 +5402,10 @@
         <v>319</v>
       </c>
       <c r="B318">
-        <v>4.62</v>
+        <v>-7.68</v>
       </c>
       <c r="C318">
-        <v>0</v>
+        <v>-5.65</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5410,10 +5413,10 @@
         <v>320</v>
       </c>
       <c r="B319">
-        <v>-2.41</v>
+        <v>4.55</v>
       </c>
       <c r="C319">
-        <v>-1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5421,10 +5424,10 @@
         <v>321</v>
       </c>
       <c r="B320">
-        <v>-5.41</v>
+        <v>-2.55</v>
       </c>
       <c r="C320">
-        <v>-4.71</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5432,10 +5435,10 @@
         <v>322</v>
       </c>
       <c r="B321">
-        <v>1.61</v>
+        <v>-5.56</v>
       </c>
       <c r="C321">
-        <v>-0.89</v>
+        <v>-4.71</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5443,10 +5446,10 @@
         <v>323</v>
       </c>
       <c r="B322">
-        <v>-0.49</v>
+        <v>1.52</v>
       </c>
       <c r="C322">
-        <v>1.38</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5454,10 +5457,10 @@
         <v>324</v>
       </c>
       <c r="B323">
-        <v>8.48</v>
+        <v>-0.6</v>
       </c>
       <c r="C323">
-        <v>6.73</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5465,10 +5468,10 @@
         <v>325</v>
       </c>
       <c r="B324">
-        <v>-2.86</v>
+        <v>8.44</v>
       </c>
       <c r="C324">
-        <v>-1.27</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5476,10 +5479,10 @@
         <v>326</v>
       </c>
       <c r="B325">
-        <v>8.74</v>
+        <v>-2.99</v>
       </c>
       <c r="C325">
-        <v>10.7</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5487,10 +5490,10 @@
         <v>327</v>
       </c>
       <c r="B326">
-        <v>-2.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C326">
-        <v>-0.65</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5498,10 +5501,10 @@
         <v>328</v>
       </c>
       <c r="B327">
-        <v>6.2</v>
+        <v>-2.84</v>
       </c>
       <c r="C327">
-        <v>0.66</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5509,10 +5512,10 @@
         <v>329</v>
       </c>
       <c r="B328">
-        <v>6.68</v>
+        <v>6.14</v>
       </c>
       <c r="C328">
-        <v>5.13</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5520,10 +5523,10 @@
         <v>330</v>
       </c>
       <c r="B329">
-        <v>-5.06</v>
+        <v>6.6</v>
       </c>
       <c r="C329">
-        <v>0</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5531,10 +5534,10 @@
         <v>331</v>
       </c>
       <c r="B330">
-        <v>0</v>
+        <v>-5.2</v>
       </c>
       <c r="C330">
-        <v>-7.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5545,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="C331">
-        <v>-8.73</v>
+        <v>-7.49</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5556,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="C332">
-        <v>-2.08</v>
+        <v>-8.73</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -5564,10 +5567,10 @@
         <v>334</v>
       </c>
       <c r="B333">
-        <v>-0.85</v>
+        <v>-3.65</v>
       </c>
       <c r="C333">
-        <v>-3.15</v>
+        <v>-2.08</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -5575,10 +5578,10 @@
         <v>335</v>
       </c>
       <c r="B334">
-        <v>-0.08</v>
+        <v>-0.97</v>
       </c>
       <c r="C334">
-        <v>2.5</v>
+        <v>-3.15</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5586,10 +5589,10 @@
         <v>336</v>
       </c>
       <c r="B335">
-        <v>14.38</v>
+        <v>-0.19</v>
       </c>
       <c r="C335">
-        <v>5.03</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -5597,10 +5600,10 @@
         <v>337</v>
       </c>
       <c r="B336">
-        <v>-8.300000000000001</v>
+        <v>14.34</v>
       </c>
       <c r="C336">
-        <v>-7.98</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5608,10 +5611,10 @@
         <v>338</v>
       </c>
       <c r="B337">
-        <v>-1.03</v>
+        <v>-8.44</v>
       </c>
       <c r="C337">
-        <v>0</v>
+        <v>-7.98</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5619,10 +5622,10 @@
         <v>339</v>
       </c>
       <c r="B338">
-        <v>-2.69</v>
+        <v>-1.13</v>
       </c>
       <c r="C338">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5630,10 +5633,10 @@
         <v>340</v>
       </c>
       <c r="B339">
-        <v>0</v>
+        <v>-2.82</v>
       </c>
       <c r="C339">
-        <v>-1.53</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -5644,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="C340">
-        <v>-6.36</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -5652,10 +5655,10 @@
         <v>342</v>
       </c>
       <c r="B341">
-        <v>-5.26</v>
+        <v>0</v>
       </c>
       <c r="C341">
-        <v>-1.3</v>
+        <v>-6.36</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -5663,10 +5666,10 @@
         <v>343</v>
       </c>
       <c r="B342">
-        <v>-1.27</v>
+        <v>-5.39</v>
       </c>
       <c r="C342">
-        <v>0</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -5674,10 +5677,10 @@
         <v>344</v>
       </c>
       <c r="B343">
-        <v>0</v>
+        <v>-1.38</v>
       </c>
       <c r="C343">
-        <v>-8.630000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -5685,10 +5688,10 @@
         <v>345</v>
       </c>
       <c r="B344">
-        <v>-2.73</v>
+        <v>0</v>
       </c>
       <c r="C344">
-        <v>-3.09</v>
+        <v>-8.630000000000001</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -5696,10 +5699,10 @@
         <v>346</v>
       </c>
       <c r="B345">
-        <v>0.3</v>
+        <v>-2.85</v>
       </c>
       <c r="C345">
-        <v>0.29</v>
+        <v>-3.09</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -5707,10 +5710,10 @@
         <v>347</v>
       </c>
       <c r="B346">
-        <v>-6.74</v>
+        <v>0.21</v>
       </c>
       <c r="C346">
-        <v>-6.87</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -5718,10 +5721,10 @@
         <v>348</v>
       </c>
       <c r="B347">
-        <v>-3.55</v>
+        <v>-6.89</v>
       </c>
       <c r="C347">
-        <v>-6.27</v>
+        <v>-6.87</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -5729,10 +5732,10 @@
         <v>349</v>
       </c>
       <c r="B348">
-        <v>-0.9399999999999999</v>
+        <v>-3.67</v>
       </c>
       <c r="C348">
-        <v>-2.68</v>
+        <v>-6.27</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -5740,10 +5743,10 @@
         <v>350</v>
       </c>
       <c r="B349">
-        <v>2.08</v>
+        <v>-1.07</v>
       </c>
       <c r="C349">
-        <v>0</v>
+        <v>-2.68</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -5751,10 +5754,10 @@
         <v>351</v>
       </c>
       <c r="B350">
-        <v>-4.34</v>
+        <v>1.95</v>
       </c>
       <c r="C350">
-        <v>-5.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -5762,10 +5765,10 @@
         <v>352</v>
       </c>
       <c r="B351">
-        <v>-4.34</v>
+        <v>-4.48</v>
       </c>
       <c r="C351">
-        <v>-3.8</v>
+        <v>-5.65</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -5773,10 +5776,10 @@
         <v>353</v>
       </c>
       <c r="B352">
-        <v>-4.78</v>
+        <v>-4.5</v>
       </c>
       <c r="C352">
-        <v>-7.88</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -5784,10 +5787,10 @@
         <v>354</v>
       </c>
       <c r="B353">
-        <v>-2.52</v>
+        <v>-4.92</v>
       </c>
       <c r="C353">
-        <v>0</v>
+        <v>-7.88</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -5795,7 +5798,7 @@
         <v>355</v>
       </c>
       <c r="B354">
-        <v>-7.51</v>
+        <v>-2.66</v>
       </c>
       <c r="C354">
         <v>0</v>
@@ -5806,10 +5809,10 @@
         <v>356</v>
       </c>
       <c r="B355">
-        <v>-4.59</v>
+        <v>-7.66</v>
       </c>
       <c r="C355">
-        <v>-3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -5817,10 +5820,10 @@
         <v>357</v>
       </c>
       <c r="B356">
-        <v>-0.72</v>
+        <v>-4.73</v>
       </c>
       <c r="C356">
-        <v>0</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -5828,10 +5831,10 @@
         <v>358</v>
       </c>
       <c r="B357">
-        <v>-5.45</v>
+        <v>-0.83</v>
       </c>
       <c r="C357">
-        <v>-4.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -5839,10 +5842,10 @@
         <v>359</v>
       </c>
       <c r="B358">
-        <v>-10.16</v>
+        <v>-5.59</v>
       </c>
       <c r="C358">
-        <v>0</v>
+        <v>-4.52</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -5850,10 +5853,10 @@
         <v>360</v>
       </c>
       <c r="B359">
-        <v>1.82</v>
+        <v>-10.3</v>
       </c>
       <c r="C359">
-        <v>2.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -5861,10 +5864,10 @@
         <v>361</v>
       </c>
       <c r="B360">
-        <v>2.65</v>
+        <v>1.74</v>
       </c>
       <c r="C360">
-        <v>4.52</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -5872,10 +5875,10 @@
         <v>362</v>
       </c>
       <c r="B361">
-        <v>0.97</v>
+        <v>2.55</v>
       </c>
       <c r="C361">
-        <v>0.03</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -5883,10 +5886,10 @@
         <v>363</v>
       </c>
       <c r="B362">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="C362">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -5894,10 +5897,10 @@
         <v>364</v>
       </c>
       <c r="B363">
-        <v>-0.88</v>
+        <v>0.85</v>
       </c>
       <c r="C363">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -5905,10 +5908,10 @@
         <v>365</v>
       </c>
       <c r="B364">
-        <v>0.6899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="C364">
-        <v>0</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -5916,7 +5919,7 @@
         <v>366</v>
       </c>
       <c r="B365">
-        <v>-3.23</v>
+        <v>0.61</v>
       </c>
       <c r="C365">
         <v>0</v>
@@ -5927,10 +5930,10 @@
         <v>367</v>
       </c>
       <c r="B366">
-        <v>-5.35</v>
+        <v>-3.36</v>
       </c>
       <c r="C366">
-        <v>-4.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -5938,10 +5941,10 @@
         <v>368</v>
       </c>
       <c r="B367">
-        <v>-2.11</v>
+        <v>-5.48</v>
       </c>
       <c r="C367">
-        <v>-1.66</v>
+        <v>-4.87</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -5949,10 +5952,10 @@
         <v>369</v>
       </c>
       <c r="B368">
-        <v>-3.92</v>
+        <v>-2.24</v>
       </c>
       <c r="C368">
-        <v>-2.2</v>
+        <v>-1.66</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -5960,10 +5963,10 @@
         <v>370</v>
       </c>
       <c r="B369">
-        <v>0</v>
+        <v>-4.05</v>
       </c>
       <c r="C369">
-        <v>-7.36</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -5971,10 +5974,10 @@
         <v>371</v>
       </c>
       <c r="B370">
-        <v>-8.91</v>
+        <v>0</v>
       </c>
       <c r="C370">
-        <v>-5.82</v>
+        <v>-7.36</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -5982,10 +5985,10 @@
         <v>372</v>
       </c>
       <c r="B371">
-        <v>4.1</v>
+        <v>-9.07</v>
       </c>
       <c r="C371">
-        <v>1.97</v>
+        <v>-5.82</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -5993,10 +5996,10 @@
         <v>373</v>
       </c>
       <c r="B372">
-        <v>-3.31</v>
+        <v>4.01</v>
       </c>
       <c r="C372">
-        <v>-2.91</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6004,10 +6007,10 @@
         <v>374</v>
       </c>
       <c r="B373">
-        <v>-7.44</v>
+        <v>-3.45</v>
       </c>
       <c r="C373">
-        <v>0</v>
+        <v>-2.91</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6015,10 +6018,10 @@
         <v>375</v>
       </c>
       <c r="B374">
-        <v>0</v>
+        <v>-7.59</v>
       </c>
       <c r="C374">
-        <v>-4.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6026,10 +6029,10 @@
         <v>376</v>
       </c>
       <c r="B375">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="C375">
-        <v>2.73</v>
+        <v>-4.96</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6037,10 +6040,10 @@
         <v>377</v>
       </c>
       <c r="B376">
-        <v>-3.55</v>
+        <v>1.19</v>
       </c>
       <c r="C376">
-        <v>-3.68</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6048,10 +6051,10 @@
         <v>378</v>
       </c>
       <c r="B377">
-        <v>-0.31</v>
+        <v>-3.69</v>
       </c>
       <c r="C377">
-        <v>3.14</v>
+        <v>-3.68</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6059,10 +6062,10 @@
         <v>379</v>
       </c>
       <c r="B378">
-        <v>-7.24</v>
+        <v>-0.44</v>
       </c>
       <c r="C378">
-        <v>-7.29</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6070,10 +6073,10 @@
         <v>380</v>
       </c>
       <c r="B379">
-        <v>-1.6</v>
+        <v>-7.38</v>
       </c>
       <c r="C379">
-        <v>-0.63</v>
+        <v>-7.29</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6081,10 +6084,10 @@
         <v>381</v>
       </c>
       <c r="B380">
-        <v>-2.14</v>
+        <v>-1.72</v>
       </c>
       <c r="C380">
-        <v>-2.26</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6092,10 +6095,10 @@
         <v>382</v>
       </c>
       <c r="B381">
-        <v>2.88</v>
+        <v>-2.26</v>
       </c>
       <c r="C381">
-        <v>0.74</v>
+        <v>-2.26</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6103,10 +6106,10 @@
         <v>383</v>
       </c>
       <c r="B382">
-        <v>-6.38</v>
+        <v>2.82</v>
       </c>
       <c r="C382">
-        <v>0</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6114,10 +6117,10 @@
         <v>384</v>
       </c>
       <c r="B383">
-        <v>15.11</v>
+        <v>-6.53</v>
       </c>
       <c r="C383">
-        <v>15.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6125,10 +6128,10 @@
         <v>385</v>
       </c>
       <c r="B384">
-        <v>-1.31</v>
+        <v>15.08</v>
       </c>
       <c r="C384">
-        <v>-1.45</v>
+        <v>15.43</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6136,10 +6139,10 @@
         <v>386</v>
       </c>
       <c r="B385">
-        <v>4.32</v>
+        <v>-1.43</v>
       </c>
       <c r="C385">
-        <v>7.97</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6147,10 +6150,10 @@
         <v>387</v>
       </c>
       <c r="B386">
-        <v>-0.38</v>
+        <v>4.24</v>
       </c>
       <c r="C386">
-        <v>-4.09</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6158,10 +6161,10 @@
         <v>388</v>
       </c>
       <c r="B387">
-        <v>1.77</v>
+        <v>-0.51</v>
       </c>
       <c r="C387">
-        <v>4.62</v>
+        <v>-4.09</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6169,10 +6172,10 @@
         <v>389</v>
       </c>
       <c r="B388">
-        <v>2.37</v>
+        <v>1.67</v>
       </c>
       <c r="C388">
-        <v>1.21</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6180,10 +6183,10 @@
         <v>390</v>
       </c>
       <c r="B389">
-        <v>-2.21</v>
+        <v>2.26</v>
       </c>
       <c r="C389">
-        <v>-0.35</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6191,10 +6194,10 @@
         <v>391</v>
       </c>
       <c r="B390">
-        <v>-5.33</v>
+        <v>-2.33</v>
       </c>
       <c r="C390">
-        <v>2.59</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -6202,10 +6205,10 @@
         <v>392</v>
       </c>
       <c r="B391">
-        <v>-8.73</v>
+        <v>-5.47</v>
       </c>
       <c r="C391">
-        <v>-7.85</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6213,10 +6216,10 @@
         <v>393</v>
       </c>
       <c r="B392">
-        <v>3.24</v>
+        <v>-8.890000000000001</v>
       </c>
       <c r="C392">
-        <v>1.5</v>
+        <v>-7.85</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6224,10 +6227,10 @@
         <v>394</v>
       </c>
       <c r="B393">
-        <v>-7.1</v>
+        <v>3.14</v>
       </c>
       <c r="C393">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6235,10 +6238,10 @@
         <v>395</v>
       </c>
       <c r="B394">
-        <v>0</v>
+        <v>-7.25</v>
       </c>
       <c r="C394">
-        <v>-5.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6246,10 +6249,10 @@
         <v>396</v>
       </c>
       <c r="B395">
-        <v>-7.5</v>
+        <v>0</v>
       </c>
       <c r="C395">
-        <v>-2.48</v>
+        <v>-5.82</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6257,10 +6260,10 @@
         <v>397</v>
       </c>
       <c r="B396">
-        <v>-8.35</v>
+        <v>-7.65</v>
       </c>
       <c r="C396">
-        <v>0</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6268,10 +6271,10 @@
         <v>398</v>
       </c>
       <c r="B397">
-        <v>0.17</v>
+        <v>-8.51</v>
       </c>
       <c r="C397">
-        <v>2.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6279,10 +6282,10 @@
         <v>399</v>
       </c>
       <c r="B398">
-        <v>-8.109999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="C398">
-        <v>-6.75</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6290,10 +6293,10 @@
         <v>400</v>
       </c>
       <c r="B399">
-        <v>-8.720000000000001</v>
+        <v>-8.26</v>
       </c>
       <c r="C399">
-        <v>0</v>
+        <v>-6.75</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6301,10 +6304,10 @@
         <v>401</v>
       </c>
       <c r="B400">
-        <v>-8.35</v>
+        <v>-8.859999999999999</v>
       </c>
       <c r="C400">
-        <v>-6.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6312,10 +6315,10 @@
         <v>402</v>
       </c>
       <c r="B401">
-        <v>2.97</v>
+        <v>-8.51</v>
       </c>
       <c r="C401">
-        <v>5.4</v>
+        <v>-6.97</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6323,10 +6326,10 @@
         <v>403</v>
       </c>
       <c r="B402">
-        <v>3.13</v>
+        <v>2.85</v>
       </c>
       <c r="C402">
-        <v>4.46</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6334,10 +6337,10 @@
         <v>404</v>
       </c>
       <c r="B403">
-        <v>-4.13</v>
+        <v>3.02</v>
       </c>
       <c r="C403">
-        <v>-5.1</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6345,10 +6348,10 @@
         <v>405</v>
       </c>
       <c r="B404">
-        <v>0</v>
+        <v>-4.27</v>
       </c>
       <c r="C404">
-        <v>-6.8</v>
+        <v>-5.1</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6359,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="C405">
-        <v>-4.51</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6367,10 +6370,10 @@
         <v>407</v>
       </c>
       <c r="B406">
-        <v>-1.08</v>
+        <v>0</v>
       </c>
       <c r="C406">
-        <v>-2.04</v>
+        <v>-4.51</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -6378,10 +6381,10 @@
         <v>408</v>
       </c>
       <c r="B407">
-        <v>0</v>
+        <v>-1.19</v>
       </c>
       <c r="C407">
-        <v>-4.87</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6389,10 +6392,10 @@
         <v>409</v>
       </c>
       <c r="B408">
-        <v>6.5</v>
+        <v>-7.16</v>
       </c>
       <c r="C408">
-        <v>0</v>
+        <v>-4.87</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6400,10 +6403,10 @@
         <v>410</v>
       </c>
       <c r="B409">
-        <v>-2.91</v>
+        <v>6.43</v>
       </c>
       <c r="C409">
-        <v>-3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -6411,10 +6414,10 @@
         <v>411</v>
       </c>
       <c r="B410">
-        <v>-1.07</v>
+        <v>-3.05</v>
       </c>
       <c r="C410">
-        <v>3.23</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -6422,10 +6425,10 @@
         <v>412</v>
       </c>
       <c r="B411">
-        <v>-7.19</v>
+        <v>-1.18</v>
       </c>
       <c r="C411">
-        <v>-3.1</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -6433,10 +6436,10 @@
         <v>413</v>
       </c>
       <c r="B412">
-        <v>-2.43</v>
+        <v>-7.34</v>
       </c>
       <c r="C412">
-        <v>-4.68</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -6444,10 +6447,10 @@
         <v>414</v>
       </c>
       <c r="B413">
-        <v>-4.35</v>
+        <v>-2.56</v>
       </c>
       <c r="C413">
-        <v>0</v>
+        <v>-4.68</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -6455,10 +6458,10 @@
         <v>415</v>
       </c>
       <c r="B414">
-        <v>-5.42</v>
+        <v>-4.49</v>
       </c>
       <c r="C414">
-        <v>-5.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -6466,10 +6469,10 @@
         <v>416</v>
       </c>
       <c r="B415">
-        <v>0</v>
+        <v>-5.56</v>
       </c>
       <c r="C415">
-        <v>-3.72</v>
+        <v>-5.58</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -6477,10 +6480,10 @@
         <v>417</v>
       </c>
       <c r="B416">
-        <v>-8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="C416">
-        <v>0</v>
+        <v>-3.72</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -6488,10 +6491,10 @@
         <v>418</v>
       </c>
       <c r="B417">
-        <v>0.5600000000000001</v>
+        <v>-8.44</v>
       </c>
       <c r="C417">
-        <v>4.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -6499,10 +6502,10 @@
         <v>419</v>
       </c>
       <c r="B418">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="C418">
-        <v>-3.32</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -6510,10 +6513,10 @@
         <v>420</v>
       </c>
       <c r="B419">
-        <v>0</v>
+        <v>-4.96</v>
       </c>
       <c r="C419">
-        <v>-5.91</v>
+        <v>-3.32</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -6521,10 +6524,10 @@
         <v>421</v>
       </c>
       <c r="B420">
-        <v>-1.12</v>
+        <v>0</v>
       </c>
       <c r="C420">
-        <v>-5.5</v>
+        <v>-5.91</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -6532,10 +6535,10 @@
         <v>422</v>
       </c>
       <c r="B421">
-        <v>-5.83</v>
+        <v>-1.26</v>
       </c>
       <c r="C421">
-        <v>-7.52</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -6543,10 +6546,10 @@
         <v>423</v>
       </c>
       <c r="B422">
-        <v>-5.48</v>
+        <v>-5.97</v>
       </c>
       <c r="C422">
-        <v>-8.34</v>
+        <v>-7.52</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -6554,10 +6557,10 @@
         <v>424</v>
       </c>
       <c r="B423">
-        <v>-8.619999999999999</v>
+        <v>-5.62</v>
       </c>
       <c r="C423">
-        <v>-6.25</v>
+        <v>-8.34</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -6565,10 +6568,10 @@
         <v>425</v>
       </c>
       <c r="B424">
-        <v>-3.72</v>
+        <v>-8.789999999999999</v>
       </c>
       <c r="C424">
-        <v>-7.34</v>
+        <v>-6.25</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -6576,10 +6579,10 @@
         <v>426</v>
       </c>
       <c r="B425">
-        <v>-2.35</v>
+        <v>-3.85</v>
       </c>
       <c r="C425">
-        <v>0</v>
+        <v>-7.34</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -6587,10 +6590,10 @@
         <v>427</v>
       </c>
       <c r="B426">
-        <v>-2.97</v>
+        <v>-2.49</v>
       </c>
       <c r="C426">
-        <v>-4.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -6598,10 +6601,10 @@
         <v>428</v>
       </c>
       <c r="B427">
-        <v>-2.45</v>
+        <v>-3.12</v>
       </c>
       <c r="C427">
-        <v>2.99</v>
+        <v>-4.41</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -6609,10 +6612,10 @@
         <v>429</v>
       </c>
       <c r="B428">
-        <v>3.98</v>
+        <v>-2.58</v>
       </c>
       <c r="C428">
-        <v>2.36</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -6620,10 +6623,10 @@
         <v>430</v>
       </c>
       <c r="B429">
-        <v>0.03</v>
+        <v>3.92</v>
       </c>
       <c r="C429">
-        <v>0.42</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -6631,10 +6634,10 @@
         <v>431</v>
       </c>
       <c r="B430">
-        <v>-2.34</v>
+        <v>-0.08</v>
       </c>
       <c r="C430">
-        <v>-0.99</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -6642,10 +6645,10 @@
         <v>432</v>
       </c>
       <c r="B431">
-        <v>-4.7</v>
+        <v>-2.49</v>
       </c>
       <c r="C431">
-        <v>-2.43</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -6653,10 +6656,10 @@
         <v>433</v>
       </c>
       <c r="B432">
-        <v>-7.9</v>
+        <v>-4.86</v>
       </c>
       <c r="C432">
-        <v>-6.59</v>
+        <v>-2.43</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -6664,10 +6667,10 @@
         <v>434</v>
       </c>
       <c r="B433">
-        <v>-3.91</v>
+        <v>-8.06</v>
       </c>
       <c r="C433">
-        <v>0</v>
+        <v>-6.59</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -6675,10 +6678,10 @@
         <v>435</v>
       </c>
       <c r="B434">
-        <v>-1.96</v>
+        <v>-4.05</v>
       </c>
       <c r="C434">
-        <v>-2.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -6686,10 +6689,10 @@
         <v>436</v>
       </c>
       <c r="B435">
-        <v>-5.49</v>
+        <v>-2.08</v>
       </c>
       <c r="C435">
-        <v>-2.28</v>
+        <v>-2.05</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -6697,10 +6700,10 @@
         <v>437</v>
       </c>
       <c r="B436">
-        <v>-8.69</v>
+        <v>-5.62</v>
       </c>
       <c r="C436">
-        <v>-4.6</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -6708,10 +6711,10 @@
         <v>438</v>
       </c>
       <c r="B437">
-        <v>-2.28</v>
+        <v>-8.82</v>
       </c>
       <c r="C437">
-        <v>3.55</v>
+        <v>-4.6</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -6719,10 +6722,10 @@
         <v>439</v>
       </c>
       <c r="B438">
-        <v>-0.07000000000000001</v>
+        <v>-2.4</v>
       </c>
       <c r="C438">
-        <v>-0.9399999999999999</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -6730,10 +6733,10 @@
         <v>440</v>
       </c>
       <c r="B439">
-        <v>8.07</v>
+        <v>-0.17</v>
       </c>
       <c r="C439">
-        <v>4.73</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -6741,10 +6744,10 @@
         <v>441</v>
       </c>
       <c r="B440">
-        <v>-0.33</v>
+        <v>8</v>
       </c>
       <c r="C440">
-        <v>3.12</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -6752,10 +6755,10 @@
         <v>442</v>
       </c>
       <c r="B441">
-        <v>-2.33</v>
+        <v>-0.47</v>
       </c>
       <c r="C441">
-        <v>-1.34</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -6763,10 +6766,10 @@
         <v>443</v>
       </c>
       <c r="B442">
-        <v>-0.57</v>
+        <v>-2.44</v>
       </c>
       <c r="C442">
-        <v>0</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -6774,10 +6777,10 @@
         <v>444</v>
       </c>
       <c r="B443">
-        <v>14.23</v>
+        <v>-0.68</v>
       </c>
       <c r="C443">
-        <v>11.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -6785,10 +6788,10 @@
         <v>445</v>
       </c>
       <c r="B444">
-        <v>-6.04</v>
+        <v>14.19</v>
       </c>
       <c r="C444">
-        <v>-6.74</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -6796,10 +6799,10 @@
         <v>446</v>
       </c>
       <c r="B445">
-        <v>-8.81</v>
+        <v>-6.18</v>
       </c>
       <c r="C445">
-        <v>-7.25</v>
+        <v>-6.74</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -6807,10 +6810,10 @@
         <v>447</v>
       </c>
       <c r="B446">
-        <v>-5.92</v>
+        <v>-8.98</v>
       </c>
       <c r="C446">
-        <v>-5.18</v>
+        <v>-7.25</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -6818,10 +6821,10 @@
         <v>448</v>
       </c>
       <c r="B447">
-        <v>-4.08</v>
+        <v>-6.06</v>
       </c>
       <c r="C447">
-        <v>-5.33</v>
+        <v>-5.18</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -6829,10 +6832,10 @@
         <v>449</v>
       </c>
       <c r="B448">
-        <v>0</v>
+        <v>-4.21</v>
       </c>
       <c r="C448">
-        <v>-5.59</v>
+        <v>-5.33</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -6840,10 +6843,10 @@
         <v>450</v>
       </c>
       <c r="B449">
-        <v>9.15</v>
+        <v>0</v>
       </c>
       <c r="C449">
-        <v>8.52</v>
+        <v>-5.59</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -6851,10 +6854,10 @@
         <v>451</v>
       </c>
       <c r="B450">
-        <v>-3.78</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="C450">
-        <v>-5.82</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -6862,10 +6865,10 @@
         <v>452</v>
       </c>
       <c r="B451">
-        <v>-3.34</v>
+        <v>-3.93</v>
       </c>
       <c r="C451">
-        <v>-5</v>
+        <v>-5.82</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -6873,10 +6876,10 @@
         <v>453</v>
       </c>
       <c r="B452">
-        <v>0</v>
+        <v>-3.44</v>
       </c>
       <c r="C452">
-        <v>-3.03</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -6884,10 +6887,10 @@
         <v>454</v>
       </c>
       <c r="B453">
-        <v>-0.49</v>
+        <v>-5.07</v>
       </c>
       <c r="C453">
-        <v>-1.59</v>
+        <v>-3.03</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -6895,10 +6898,10 @@
         <v>455</v>
       </c>
       <c r="B454">
-        <v>-8.970000000000001</v>
+        <v>-0.6</v>
       </c>
       <c r="C454">
-        <v>-7.21</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -6906,10 +6909,10 @@
         <v>456</v>
       </c>
       <c r="B455">
-        <v>0</v>
+        <v>-9.109999999999999</v>
       </c>
       <c r="C455">
-        <v>-7.62</v>
+        <v>-7.21</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -6917,10 +6920,10 @@
         <v>457</v>
       </c>
       <c r="B456">
-        <v>-0.44</v>
+        <v>0</v>
       </c>
       <c r="C456">
-        <v>3.66</v>
+        <v>-7.62</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -6928,10 +6931,10 @@
         <v>458</v>
       </c>
       <c r="B457">
-        <v>-2.34</v>
+        <v>-0.57</v>
       </c>
       <c r="C457">
-        <v>1.17</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -6939,10 +6942,10 @@
         <v>459</v>
       </c>
       <c r="B458">
-        <v>0.73</v>
+        <v>-2.47</v>
       </c>
       <c r="C458">
-        <v>-0.55</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -6950,10 +6953,10 @@
         <v>460</v>
       </c>
       <c r="B459">
-        <v>-1.84</v>
+        <v>0.62</v>
       </c>
       <c r="C459">
-        <v>-4.39</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -6961,10 +6964,10 @@
         <v>461</v>
       </c>
       <c r="B460">
-        <v>-7.74</v>
+        <v>-1.96</v>
       </c>
       <c r="C460">
-        <v>-7.71</v>
+        <v>-4.39</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -6972,10 +6975,10 @@
         <v>462</v>
       </c>
       <c r="B461">
-        <v>1.05</v>
+        <v>-7.9</v>
       </c>
       <c r="C461">
-        <v>3.27</v>
+        <v>-7.71</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -6983,10 +6986,10 @@
         <v>463</v>
       </c>
       <c r="B462">
-        <v>-5.17</v>
+        <v>0.96</v>
       </c>
       <c r="C462">
-        <v>-1.74</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -6994,10 +6997,10 @@
         <v>464</v>
       </c>
       <c r="B463">
-        <v>-6.08</v>
+        <v>-5.32</v>
       </c>
       <c r="C463">
-        <v>-5.19</v>
+        <v>-1.74</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7005,10 +7008,10 @@
         <v>465</v>
       </c>
       <c r="B464">
-        <v>-5.27</v>
+        <v>-6.23</v>
       </c>
       <c r="C464">
-        <v>-0.86</v>
+        <v>-5.19</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -7016,10 +7019,10 @@
         <v>466</v>
       </c>
       <c r="B465">
-        <v>3.02</v>
+        <v>-5.4</v>
       </c>
       <c r="C465">
-        <v>2.5</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7027,10 +7030,10 @@
         <v>467</v>
       </c>
       <c r="B466">
-        <v>-4.02</v>
+        <v>2.94</v>
       </c>
       <c r="C466">
-        <v>-7.63</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -7038,10 +7041,10 @@
         <v>468</v>
       </c>
       <c r="B467">
-        <v>-2.13</v>
+        <v>-4.15</v>
       </c>
       <c r="C467">
-        <v>1.26</v>
+        <v>-7.63</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7049,10 +7052,10 @@
         <v>469</v>
       </c>
       <c r="B468">
-        <v>10.04</v>
+        <v>-2.28</v>
       </c>
       <c r="C468">
-        <v>11.06</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7060,10 +7063,10 @@
         <v>470</v>
       </c>
       <c r="B469">
-        <v>2.35</v>
+        <v>10.01</v>
       </c>
       <c r="C469">
-        <v>-0.52</v>
+        <v>11.06</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7071,10 +7074,10 @@
         <v>471</v>
       </c>
       <c r="B470">
-        <v>-0.39</v>
+        <v>2.29</v>
       </c>
       <c r="C470">
-        <v>-5.3</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7082,10 +7085,10 @@
         <v>472</v>
       </c>
       <c r="B471">
-        <v>-1.89</v>
+        <v>-0.5</v>
       </c>
       <c r="C471">
-        <v>3.77</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7093,10 +7096,10 @@
         <v>473</v>
       </c>
       <c r="B472">
-        <v>-6.52</v>
+        <v>-2.02</v>
       </c>
       <c r="C472">
-        <v>0</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7104,10 +7107,10 @@
         <v>474</v>
       </c>
       <c r="B473">
-        <v>0</v>
+        <v>-6.67</v>
       </c>
       <c r="C473">
-        <v>-7.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7118,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="C474">
-        <v>-7.67</v>
+        <v>-7.71</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7126,10 +7129,10 @@
         <v>476</v>
       </c>
       <c r="B475">
-        <v>-5.04</v>
+        <v>0</v>
       </c>
       <c r="C475">
-        <v>-7.28</v>
+        <v>-7.67</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -7137,10 +7140,10 @@
         <v>477</v>
       </c>
       <c r="B476">
-        <v>-3.7</v>
+        <v>-5.18</v>
       </c>
       <c r="C476">
-        <v>-2.75</v>
+        <v>-7.28</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -7148,10 +7151,10 @@
         <v>478</v>
       </c>
       <c r="B477">
-        <v>2.43</v>
+        <v>-3.83</v>
       </c>
       <c r="C477">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -7159,10 +7162,10 @@
         <v>479</v>
       </c>
       <c r="B478">
-        <v>-5.91</v>
+        <v>2.33</v>
       </c>
       <c r="C478">
-        <v>-2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -7170,10 +7173,10 @@
         <v>480</v>
       </c>
       <c r="B479">
-        <v>0</v>
+        <v>-6.05</v>
       </c>
       <c r="C479">
-        <v>-8.029999999999999</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -7181,10 +7184,10 @@
         <v>481</v>
       </c>
       <c r="B480">
-        <v>-6.88</v>
+        <v>0</v>
       </c>
       <c r="C480">
-        <v>0</v>
+        <v>-8.029999999999999</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -7192,10 +7195,10 @@
         <v>482</v>
       </c>
       <c r="B481">
-        <v>-8.710000000000001</v>
+        <v>-7.03</v>
       </c>
       <c r="C481">
-        <v>0.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -7203,10 +7206,10 @@
         <v>483</v>
       </c>
       <c r="B482">
-        <v>2.94</v>
+        <v>-8.85</v>
       </c>
       <c r="C482">
-        <v>4.13</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -7214,10 +7217,10 @@
         <v>484</v>
       </c>
       <c r="B483">
-        <v>-8.01</v>
+        <v>2.87</v>
       </c>
       <c r="C483">
-        <v>-5.16</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -7225,10 +7228,10 @@
         <v>485</v>
       </c>
       <c r="B484">
-        <v>-6.23</v>
+        <v>-8.16</v>
       </c>
       <c r="C484">
-        <v>-6.95</v>
+        <v>-5.16</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -7236,10 +7239,10 @@
         <v>486</v>
       </c>
       <c r="B485">
-        <v>8.6</v>
+        <v>-6.38</v>
       </c>
       <c r="C485">
-        <v>2.33</v>
+        <v>-6.95</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -7247,10 +7250,10 @@
         <v>487</v>
       </c>
       <c r="B486">
-        <v>0</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="C486">
-        <v>-7.53</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -7258,10 +7261,10 @@
         <v>488</v>
       </c>
       <c r="B487">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="C487">
-        <v>5.8</v>
+        <v>-7.53</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -7269,10 +7272,10 @@
         <v>489</v>
       </c>
       <c r="B488">
-        <v>1.71</v>
+        <v>5.44</v>
       </c>
       <c r="C488">
-        <v>3.26</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -7280,10 +7283,10 @@
         <v>490</v>
       </c>
       <c r="B489">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="C489">
-        <v>-6.38</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -7291,10 +7294,10 @@
         <v>491</v>
       </c>
       <c r="B490">
-        <v>-5.32</v>
+        <v>0</v>
       </c>
       <c r="C490">
-        <v>-6.76</v>
+        <v>-6.38</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -7302,10 +7305,10 @@
         <v>492</v>
       </c>
       <c r="B491">
-        <v>15.13</v>
+        <v>-5.46</v>
       </c>
       <c r="C491">
-        <v>9.640000000000001</v>
+        <v>-6.76</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -7313,10 +7316,10 @@
         <v>493</v>
       </c>
       <c r="B492">
-        <v>-0.8</v>
+        <v>15.11</v>
       </c>
       <c r="C492">
-        <v>0</v>
+        <v>9.640000000000001</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -7324,10 +7327,10 @@
         <v>494</v>
       </c>
       <c r="B493">
-        <v>-7.33</v>
+        <v>-0.93</v>
       </c>
       <c r="C493">
-        <v>-7.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -7335,10 +7338,10 @@
         <v>495</v>
       </c>
       <c r="B494">
-        <v>-7.94</v>
+        <v>-7.48</v>
       </c>
       <c r="C494">
-        <v>-4.9</v>
+        <v>-7.35</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -7346,10 +7349,10 @@
         <v>496</v>
       </c>
       <c r="B495">
-        <v>2.6</v>
+        <v>-8.09</v>
       </c>
       <c r="C495">
-        <v>5.26</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -7357,10 +7360,10 @@
         <v>497</v>
       </c>
       <c r="B496">
-        <v>0.23</v>
+        <v>2.49</v>
       </c>
       <c r="C496">
-        <v>0.57</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -7368,10 +7371,10 @@
         <v>498</v>
       </c>
       <c r="B497">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C497">
-        <v>-7.12</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -7379,10 +7382,10 @@
         <v>499</v>
       </c>
       <c r="B498">
-        <v>-3.06</v>
+        <v>0</v>
       </c>
       <c r="C498">
-        <v>-5.51</v>
+        <v>-7.12</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -7390,10 +7393,10 @@
         <v>500</v>
       </c>
       <c r="B499">
-        <v>0</v>
+        <v>-3.22</v>
       </c>
       <c r="C499">
-        <v>-8.43</v>
+        <v>-5.51</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -7404,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="C500">
-        <v>-8.109999999999999</v>
+        <v>-8.43</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -7412,10 +7415,10 @@
         <v>502</v>
       </c>
       <c r="B501">
-        <v>-3.83</v>
+        <v>0</v>
       </c>
       <c r="C501">
-        <v>-1.13</v>
+        <v>-8.109999999999999</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -7423,10 +7426,10 @@
         <v>503</v>
       </c>
       <c r="B502">
-        <v>-2.48</v>
+        <v>-3.92</v>
       </c>
       <c r="C502">
-        <v>-3.24</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -7434,10 +7437,10 @@
         <v>504</v>
       </c>
       <c r="B503">
-        <v>-2.52</v>
+        <v>-2.61</v>
       </c>
       <c r="C503">
-        <v>-1.66</v>
+        <v>-3.24</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -7445,10 +7448,10 @@
         <v>505</v>
       </c>
       <c r="B504">
-        <v>-1.33</v>
+        <v>-2.64</v>
       </c>
       <c r="C504">
-        <v>-3</v>
+        <v>-1.66</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -7456,10 +7459,10 @@
         <v>506</v>
       </c>
       <c r="B505">
-        <v>3.6</v>
+        <v>-1.46</v>
       </c>
       <c r="C505">
-        <v>5.39</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -7467,10 +7470,10 @@
         <v>507</v>
       </c>
       <c r="B506">
-        <v>-6.49</v>
+        <v>3.52</v>
       </c>
       <c r="C506">
-        <v>-5.31</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -7478,10 +7481,10 @@
         <v>508</v>
       </c>
       <c r="B507">
-        <v>-4.33</v>
+        <v>-6.65</v>
       </c>
       <c r="C507">
-        <v>-0.18</v>
+        <v>-5.31</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -7489,9 +7492,20 @@
         <v>509</v>
       </c>
       <c r="B508">
-        <v>2.27</v>
+        <v>-4.46</v>
       </c>
       <c r="C508">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" t="s">
+        <v>510</v>
+      </c>
+      <c r="B509">
+        <v>2.22</v>
+      </c>
+      <c r="C509">
         <v>1.93</v>
       </c>
     </row>

--- a/data/merged_scores.xlsx
+++ b/data/merged_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="512">
   <si>
     <t>Player_Name</t>
   </si>
@@ -710,6 +710,9 @@
   </si>
   <si>
     <t>Jared McCain</t>
+  </si>
+  <si>
+    <t>Jared Rhoden</t>
   </si>
   <si>
     <t>Jaren Jackson Jr.</t>
@@ -1904,7 +1907,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C509"/>
+  <dimension ref="A1:C510"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1926,7 +1929,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-9.44</v>
+        <v>-9.449999999999999</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1940,7 +1943,7 @@
         <v>-7.39</v>
       </c>
       <c r="C3">
-        <v>-5.33</v>
+        <v>-3.29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1962,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-7.7</v>
+        <v>-8.039999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1970,10 +1973,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="C6">
-        <v>4.56</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1981,10 +1984,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-7.06</v>
+        <v>-7.07</v>
       </c>
       <c r="C7">
-        <v>-4.48</v>
+        <v>-4.76</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1992,10 +1995,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-1.68</v>
+        <v>-1.69</v>
       </c>
       <c r="C8">
-        <v>-0.95</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2006,7 +2009,7 @@
         <v>-4.39</v>
       </c>
       <c r="C9">
-        <v>0.23</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2017,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-6.05</v>
+        <v>-6.33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2028,7 +2031,7 @@
         <v>-9.02</v>
       </c>
       <c r="C11">
-        <v>-6.93</v>
+        <v>-7.26</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2039,7 +2042,7 @@
         <v>-6.71</v>
       </c>
       <c r="C12">
-        <v>-6.44</v>
+        <v>-6.76</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2050,7 +2053,7 @@
         <v>-8.85</v>
       </c>
       <c r="C13">
-        <v>-3.91</v>
+        <v>-4.69</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2058,10 +2061,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="C14">
-        <v>0.96</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2072,7 +2075,7 @@
         <v>-4.35</v>
       </c>
       <c r="C15">
-        <v>-0.63</v>
+        <v>-2.07</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2083,7 +2086,7 @@
         <v>0.99</v>
       </c>
       <c r="C16">
-        <v>-2.12</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2094,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>-8.18</v>
+        <v>-8.539999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2105,7 +2108,7 @@
         <v>-6.38</v>
       </c>
       <c r="C18">
-        <v>-5.06</v>
+        <v>-5.23</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2116,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>-6.38</v>
+        <v>-6.67</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2124,10 +2127,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="C20">
-        <v>3.54</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2138,7 +2141,7 @@
         <v>4.05</v>
       </c>
       <c r="C21">
-        <v>2.09</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2146,10 +2149,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="C22">
-        <v>-2.14</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2160,7 +2163,7 @@
         <v>-5.49</v>
       </c>
       <c r="C23">
-        <v>-3.97</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2168,10 +2171,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.48</v>
+        <v>-0.47</v>
       </c>
       <c r="C24">
-        <v>-0.45</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2182,7 +2185,7 @@
         <v>-6.34</v>
       </c>
       <c r="C25">
-        <v>-5.15</v>
+        <v>-5.04</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2193,7 +2196,7 @@
         <v>-1.27</v>
       </c>
       <c r="C26">
-        <v>-2.49</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2204,7 +2207,7 @@
         <v>-1.18</v>
       </c>
       <c r="C27">
-        <v>3.62</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2212,10 +2215,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>2.73</v>
+        <v>2.72</v>
       </c>
       <c r="C28">
-        <v>2.38</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2226,7 +2229,7 @@
         <v>-3.44</v>
       </c>
       <c r="C29">
-        <v>-0.8100000000000001</v>
+        <v>-1.78</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2234,10 +2237,10 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>14.06</v>
+        <v>14.07</v>
       </c>
       <c r="C30">
-        <v>12.51</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2248,7 +2251,7 @@
         <v>6.96</v>
       </c>
       <c r="C31">
-        <v>4.84</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2256,10 +2259,10 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>-8.109999999999999</v>
+        <v>-8.119999999999999</v>
       </c>
       <c r="C32">
-        <v>-6.92</v>
+        <v>-7.31</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2270,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>-8.26</v>
+        <v>-8.49</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2281,7 +2284,7 @@
         <v>-7.55</v>
       </c>
       <c r="C34">
-        <v>-5.24</v>
+        <v>-5.58</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2289,7 +2292,7 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2303,7 +2306,7 @@
         <v>4.28</v>
       </c>
       <c r="C36">
-        <v>4.83</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2314,7 +2317,7 @@
         <v>-1.97</v>
       </c>
       <c r="C37">
-        <v>-2.29</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2325,7 +2328,7 @@
         <v>4.89</v>
       </c>
       <c r="C38">
-        <v>1.68</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2336,7 +2339,7 @@
         <v>-7.29</v>
       </c>
       <c r="C39">
-        <v>-6.92</v>
+        <v>-7.83</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2344,10 +2347,10 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>-6.02</v>
+        <v>-6.03</v>
       </c>
       <c r="C40">
-        <v>-2.31</v>
+        <v>-3.06</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2358,7 +2361,7 @@
         <v>-0.37</v>
       </c>
       <c r="C41">
-        <v>1.69</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2369,7 +2372,7 @@
         <v>-1.36</v>
       </c>
       <c r="C42">
-        <v>-0.4</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2380,7 +2383,7 @@
         <v>2.92</v>
       </c>
       <c r="C43">
-        <v>4.96</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2391,7 +2394,7 @@
         <v>-7.81</v>
       </c>
       <c r="C44">
-        <v>-7.22</v>
+        <v>-7.58</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2399,10 +2402,10 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="C45">
-        <v>0.12</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2424,7 +2427,7 @@
         <v>0.79</v>
       </c>
       <c r="C47">
-        <v>1.04</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2457,7 +2460,7 @@
         <v>-3.41</v>
       </c>
       <c r="C50">
-        <v>-4.94</v>
+        <v>-5.28</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2465,7 +2468,7 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>-9.17</v>
+        <v>-9.18</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2479,7 +2482,7 @@
         <v>3.61</v>
       </c>
       <c r="C52">
-        <v>4.89</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2490,7 +2493,7 @@
         <v>0.59</v>
       </c>
       <c r="C53">
-        <v>-0.78</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2512,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>-2.53</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2523,7 +2526,7 @@
         <v>-2.36</v>
       </c>
       <c r="C56">
-        <v>-4.28</v>
+        <v>-4.3</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2534,7 +2537,7 @@
         <v>2.8</v>
       </c>
       <c r="C57">
-        <v>7.17</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2545,7 +2548,7 @@
         <v>1.81</v>
       </c>
       <c r="C58">
-        <v>-0.16</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2556,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>-8.890000000000001</v>
+        <v>-9.300000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2567,7 +2570,7 @@
         <v>-3.4</v>
       </c>
       <c r="C60">
-        <v>-3.59</v>
+        <v>-4.51</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2589,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>-7.03</v>
+        <v>-7.35</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2597,10 +2600,10 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="C63">
-        <v>3.07</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2622,7 +2625,7 @@
         <v>-4.67</v>
       </c>
       <c r="C65">
-        <v>-2.95</v>
+        <v>-4.05</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2644,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>0.92</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2652,7 +2655,7 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>-9.83</v>
+        <v>-9.84</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2666,7 +2669,7 @@
         <v>0.35</v>
       </c>
       <c r="C69">
-        <v>6.88</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2677,7 +2680,7 @@
         <v>1.98</v>
       </c>
       <c r="C70">
-        <v>6.1</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2688,7 +2691,7 @@
         <v>6.4</v>
       </c>
       <c r="C71">
-        <v>7.54</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2699,7 +2702,7 @@
         <v>-7.62</v>
       </c>
       <c r="C72">
-        <v>-6.79</v>
+        <v>-7.64</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2710,7 +2713,7 @@
         <v>-1.01</v>
       </c>
       <c r="C73">
-        <v>-3.9</v>
+        <v>-3.56</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2729,10 +2732,10 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>-5.47</v>
+        <v>-5.48</v>
       </c>
       <c r="C75">
-        <v>-7.98</v>
+        <v>-6.38</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2743,7 +2746,7 @@
         <v>1.95</v>
       </c>
       <c r="C76">
-        <v>4.49</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2754,7 +2757,7 @@
         <v>-4.5</v>
       </c>
       <c r="C77">
-        <v>-7.11</v>
+        <v>-7.51</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2765,7 +2768,7 @@
         <v>0.79</v>
       </c>
       <c r="C78">
-        <v>2.64</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2773,10 +2776,10 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>-5.34</v>
+        <v>-5.35</v>
       </c>
       <c r="C79">
-        <v>-3.84</v>
+        <v>-4.16</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2787,7 +2790,7 @@
         <v>-1.3</v>
       </c>
       <c r="C80">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2809,7 +2812,7 @@
         <v>-2.2</v>
       </c>
       <c r="C82">
-        <v>0.3</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2820,7 +2823,7 @@
         <v>-5.5</v>
       </c>
       <c r="C83">
-        <v>-6.33</v>
+        <v>-6.63</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2828,10 +2831,10 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>8.18</v>
+        <v>8.19</v>
       </c>
       <c r="C84">
-        <v>10.12</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2842,7 +2845,7 @@
         <v>-4.99</v>
       </c>
       <c r="C85">
-        <v>-1.26</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2850,10 +2853,10 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>-6.45</v>
+        <v>-6.46</v>
       </c>
       <c r="C86">
-        <v>-5.42</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2864,7 +2867,7 @@
         <v>1.02</v>
       </c>
       <c r="C87">
-        <v>4.89</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2875,7 +2878,7 @@
         <v>-0.88</v>
       </c>
       <c r="C88">
-        <v>3.94</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2894,7 +2897,7 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>-9.359999999999999</v>
+        <v>-9.369999999999999</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2905,10 +2908,10 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="C91">
-        <v>1.17</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2916,10 +2919,10 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>2.31</v>
+        <v>2.3</v>
       </c>
       <c r="C92">
-        <v>3.57</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2930,7 +2933,7 @@
         <v>-4.13</v>
       </c>
       <c r="C93">
-        <v>-0.09</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2938,10 +2941,10 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>-6.76</v>
+        <v>-6.77</v>
       </c>
       <c r="C94">
-        <v>-5.59</v>
+        <v>-6.08</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2963,7 +2966,7 @@
         <v>-9.039999999999999</v>
       </c>
       <c r="C96">
-        <v>-7.11</v>
+        <v>-7.45</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2974,7 +2977,7 @@
         <v>-3.45</v>
       </c>
       <c r="C97">
-        <v>-5.36</v>
+        <v>-5.86</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2985,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>-6.71</v>
+        <v>-7.05</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2996,7 +2999,7 @@
         <v>-8.960000000000001</v>
       </c>
       <c r="C99">
-        <v>-6.3</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3004,10 +3007,10 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="C100">
-        <v>-0.52</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3018,7 +3021,7 @@
         <v>-0.57</v>
       </c>
       <c r="C101">
-        <v>-2.73</v>
+        <v>-3.33</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3026,10 +3029,10 @@
         <v>103</v>
       </c>
       <c r="B102">
-        <v>-7.34</v>
+        <v>-7.35</v>
       </c>
       <c r="C102">
-        <v>-6.04</v>
+        <v>-6.53</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3040,7 +3043,7 @@
         <v>-5.59</v>
       </c>
       <c r="C103">
-        <v>-5.92</v>
+        <v>-6.63</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3048,10 +3051,10 @@
         <v>105</v>
       </c>
       <c r="B104">
-        <v>2.71</v>
+        <v>2.7</v>
       </c>
       <c r="C104">
-        <v>1.36</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3059,10 +3062,10 @@
         <v>106</v>
       </c>
       <c r="B105">
-        <v>-9.130000000000001</v>
+        <v>-9.140000000000001</v>
       </c>
       <c r="C105">
-        <v>-6.58</v>
+        <v>-6.89</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3081,7 +3084,7 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>-9.539999999999999</v>
+        <v>-9.550000000000001</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -3092,10 +3095,10 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>-7</v>
+        <v>-7.01</v>
       </c>
       <c r="C108">
-        <v>-4.77</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3106,7 +3109,7 @@
         <v>-8</v>
       </c>
       <c r="C109">
-        <v>-5.92</v>
+        <v>-6.23</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3117,7 +3120,7 @@
         <v>-4.83</v>
       </c>
       <c r="C110">
-        <v>-3.37</v>
+        <v>-3.73</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3128,7 +3131,7 @@
         <v>9.16</v>
       </c>
       <c r="C111">
-        <v>7.38</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3139,7 +3142,7 @@
         <v>-4.81</v>
       </c>
       <c r="C112">
-        <v>-5.94</v>
+        <v>-6.29</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3147,10 +3150,10 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3161,7 +3164,7 @@
         <v>-1.73</v>
       </c>
       <c r="C114">
-        <v>-2.23</v>
+        <v>-2.57</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3172,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="C115">
-        <v>-8.34</v>
+        <v>-8.699999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3194,7 +3197,7 @@
         <v>-4.72</v>
       </c>
       <c r="C117">
-        <v>-7.85</v>
+        <v>-8.220000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3205,7 +3208,7 @@
         <v>-8.83</v>
       </c>
       <c r="C118">
-        <v>-7.35</v>
+        <v>-7.69</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3213,10 +3216,10 @@
         <v>120</v>
       </c>
       <c r="B119">
-        <v>3.77</v>
+        <v>3.76</v>
       </c>
       <c r="C119">
-        <v>5.19</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3235,10 +3238,10 @@
         <v>122</v>
       </c>
       <c r="B121">
-        <v>-9.390000000000001</v>
+        <v>-9.4</v>
       </c>
       <c r="C121">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3249,7 +3252,7 @@
         <v>-5.29</v>
       </c>
       <c r="C122">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3257,7 +3260,7 @@
         <v>124</v>
       </c>
       <c r="B123">
-        <v>-2.54</v>
+        <v>-2.53</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -3268,10 +3271,10 @@
         <v>125</v>
       </c>
       <c r="B124">
-        <v>5.23</v>
+        <v>5.22</v>
       </c>
       <c r="C124">
-        <v>7.81</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3279,10 +3282,10 @@
         <v>126</v>
       </c>
       <c r="B125">
-        <v>-0.27</v>
+        <v>-0.28</v>
       </c>
       <c r="C125">
-        <v>4.36</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3293,7 +3296,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="C126">
-        <v>-2.29</v>
+        <v>-2.58</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3304,7 +3307,7 @@
         <v>-7.25</v>
       </c>
       <c r="C127">
-        <v>-5.62</v>
+        <v>-5.53</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3312,10 +3315,10 @@
         <v>129</v>
       </c>
       <c r="B128">
-        <v>5.04</v>
+        <v>5.03</v>
       </c>
       <c r="C128">
-        <v>7.41</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3326,7 +3329,7 @@
         <v>-4.5</v>
       </c>
       <c r="C129">
-        <v>-2.26</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3334,10 +3337,10 @@
         <v>131</v>
       </c>
       <c r="B130">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
       <c r="C130">
-        <v>1.99</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3348,7 +3351,7 @@
         <v>3.87</v>
       </c>
       <c r="C131">
-        <v>3.24</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3359,7 +3362,7 @@
         <v>-2.91</v>
       </c>
       <c r="C132">
-        <v>-5.06</v>
+        <v>-5.65</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3370,7 +3373,7 @@
         <v>-0.61</v>
       </c>
       <c r="C133">
-        <v>1.99</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3381,7 +3384,7 @@
         <v>1.62</v>
       </c>
       <c r="C134">
-        <v>6.82</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3392,7 +3395,7 @@
         <v>2.43</v>
       </c>
       <c r="C135">
-        <v>1.1</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3403,7 +3406,7 @@
         <v>-2.39</v>
       </c>
       <c r="C136">
-        <v>-0.17</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3425,7 +3428,7 @@
         <v>4.94</v>
       </c>
       <c r="C138">
-        <v>6.61</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3436,7 +3439,7 @@
         <v>4.98</v>
       </c>
       <c r="C139">
-        <v>4.71</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3447,7 +3450,7 @@
         <v>8</v>
       </c>
       <c r="C140">
-        <v>7.94</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3477,7 +3480,7 @@
         <v>144</v>
       </c>
       <c r="B143">
-        <v>-7.18</v>
+        <v>-7.19</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3491,7 +3494,7 @@
         <v>-2.49</v>
       </c>
       <c r="C144">
-        <v>-1.67</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3499,10 +3502,10 @@
         <v>146</v>
       </c>
       <c r="B145">
-        <v>-8.76</v>
+        <v>-8.77</v>
       </c>
       <c r="C145">
-        <v>-6.6</v>
+        <v>-7.47</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3510,10 +3513,10 @@
         <v>147</v>
       </c>
       <c r="B146">
-        <v>7.86</v>
+        <v>7.87</v>
       </c>
       <c r="C146">
-        <v>8.82</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3521,10 +3524,10 @@
         <v>148</v>
       </c>
       <c r="B147">
-        <v>-8.890000000000001</v>
+        <v>-8.9</v>
       </c>
       <c r="C147">
-        <v>-7.71</v>
+        <v>-9.130000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3532,10 +3535,10 @@
         <v>149</v>
       </c>
       <c r="B148">
-        <v>-1.09</v>
+        <v>-1.08</v>
       </c>
       <c r="C148">
-        <v>-1.47</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3546,7 +3549,7 @@
         <v>7.96</v>
       </c>
       <c r="C149">
-        <v>5.08</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3557,7 +3560,7 @@
         <v>1.06</v>
       </c>
       <c r="C150">
-        <v>-1.71</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3568,7 +3571,7 @@
         <v>-2.99</v>
       </c>
       <c r="C151">
-        <v>0.27</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3579,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C152">
-        <v>-7.55</v>
+        <v>-7.91</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3590,7 +3593,7 @@
         <v>2.44</v>
       </c>
       <c r="C153">
-        <v>1.9</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3601,7 +3604,7 @@
         <v>-4.18</v>
       </c>
       <c r="C154">
-        <v>-2.24</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3612,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="C155">
-        <v>-4.97</v>
+        <v>-5.28</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3623,7 +3626,7 @@
         <v>-6.76</v>
       </c>
       <c r="C156">
-        <v>-4.97</v>
+        <v>-5.32</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3631,10 +3634,10 @@
         <v>158</v>
       </c>
       <c r="B157">
-        <v>-3.58</v>
+        <v>-3.59</v>
       </c>
       <c r="C157">
-        <v>-6.24</v>
+        <v>-5.45</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3645,7 +3648,7 @@
         <v>-4.98</v>
       </c>
       <c r="C158">
-        <v>-6.29</v>
+        <v>-6.63</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3656,7 +3659,7 @@
         <v>-5.97</v>
       </c>
       <c r="C159">
-        <v>-6.74</v>
+        <v>-7.35</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3667,7 +3670,7 @@
         <v>0.16</v>
       </c>
       <c r="C160">
-        <v>3.27</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3675,7 +3678,7 @@
         <v>162</v>
       </c>
       <c r="B161">
-        <v>-8.43</v>
+        <v>-8.44</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3686,7 +3689,7 @@
         <v>163</v>
       </c>
       <c r="B162">
-        <v>-9.69</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3700,7 +3703,7 @@
         <v>-6.91</v>
       </c>
       <c r="C163">
-        <v>-5.29</v>
+        <v>-5.58</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3711,7 +3714,7 @@
         <v>-1.88</v>
       </c>
       <c r="C164">
-        <v>-5.03</v>
+        <v>-4.26</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3719,10 +3722,10 @@
         <v>166</v>
       </c>
       <c r="B165">
-        <v>5</v>
+        <v>5.01</v>
       </c>
       <c r="C165">
-        <v>7.11</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3733,7 +3736,7 @@
         <v>4.21</v>
       </c>
       <c r="C166">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3744,7 +3747,7 @@
         <v>5.31</v>
       </c>
       <c r="C167">
-        <v>1.75</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3766,7 +3769,7 @@
         <v>-4.03</v>
       </c>
       <c r="C169">
-        <v>-5.86</v>
+        <v>-6.26</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3774,10 +3777,10 @@
         <v>171</v>
       </c>
       <c r="B170">
-        <v>-7.88</v>
+        <v>-7.89</v>
       </c>
       <c r="C170">
-        <v>-6.15</v>
+        <v>-6.44</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3788,7 +3791,7 @@
         <v>-5.33</v>
       </c>
       <c r="C171">
-        <v>1.2</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3799,7 +3802,7 @@
         <v>-5.09</v>
       </c>
       <c r="C172">
-        <v>-4.94</v>
+        <v>-5.28</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3810,7 +3813,7 @@
         <v>-4.05</v>
       </c>
       <c r="C173">
-        <v>-2.68</v>
+        <v>-2.87</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3821,7 +3824,7 @@
         <v>-1.26</v>
       </c>
       <c r="C174">
-        <v>-3.49</v>
+        <v>-4.12</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3829,10 +3832,10 @@
         <v>176</v>
       </c>
       <c r="B175">
-        <v>-3.88</v>
+        <v>-3.89</v>
       </c>
       <c r="C175">
-        <v>-3.93</v>
+        <v>-3.48</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3840,10 +3843,10 @@
         <v>177</v>
       </c>
       <c r="B176">
-        <v>12.61</v>
+        <v>12.62</v>
       </c>
       <c r="C176">
-        <v>8.17</v>
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3854,7 +3857,7 @@
         <v>-3.97</v>
       </c>
       <c r="C177">
-        <v>-6.62</v>
+        <v>-4.41</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3865,7 +3868,7 @@
         <v>-2.75</v>
       </c>
       <c r="C178">
-        <v>3.72</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3876,7 +3879,7 @@
         <v>-2.81</v>
       </c>
       <c r="C179">
-        <v>0.14</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3887,7 +3890,7 @@
         <v>0.2</v>
       </c>
       <c r="C180">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3898,7 +3901,7 @@
         <v>-5.56</v>
       </c>
       <c r="C181">
-        <v>-0.45</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3906,10 +3909,10 @@
         <v>183</v>
       </c>
       <c r="B182">
-        <v>-8.42</v>
+        <v>-8.43</v>
       </c>
       <c r="C182">
-        <v>-7.37</v>
+        <v>-7.72</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3920,7 +3923,7 @@
         <v>-2.33</v>
       </c>
       <c r="C183">
-        <v>-0.15</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3931,7 +3934,7 @@
         <v>-5.53</v>
       </c>
       <c r="C184">
-        <v>-2.84</v>
+        <v>-3.83</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3942,7 +3945,7 @@
         <v>1.98</v>
       </c>
       <c r="C185">
-        <v>-1.49</v>
+        <v>-1.66</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3953,7 +3956,7 @@
         <v>-7.35</v>
       </c>
       <c r="C186">
-        <v>-5.46</v>
+        <v>-5.22</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3964,7 +3967,7 @@
         <v>4.28</v>
       </c>
       <c r="C187">
-        <v>-0.3</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3975,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="C188">
-        <v>-8.02</v>
+        <v>-8.369999999999999</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3983,10 +3986,10 @@
         <v>190</v>
       </c>
       <c r="B189">
-        <v>-4.22</v>
+        <v>-4.23</v>
       </c>
       <c r="C189">
-        <v>-3.17</v>
+        <v>-3.26</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3994,7 +3997,7 @@
         <v>191</v>
       </c>
       <c r="B190">
-        <v>-7.08</v>
+        <v>-7.09</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -4005,7 +4008,7 @@
         <v>192</v>
       </c>
       <c r="B191">
-        <v>2.53</v>
+        <v>2.54</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -4016,10 +4019,10 @@
         <v>193</v>
       </c>
       <c r="B192">
-        <v>-1.87</v>
+        <v>-1.86</v>
       </c>
       <c r="C192">
-        <v>-1.2</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4027,10 +4030,10 @@
         <v>194</v>
       </c>
       <c r="B193">
-        <v>-3.6</v>
+        <v>-3.61</v>
       </c>
       <c r="C193">
-        <v>-2.61</v>
+        <v>-2.73</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4038,10 +4041,10 @@
         <v>195</v>
       </c>
       <c r="B194">
-        <v>-3.76</v>
+        <v>-3.75</v>
       </c>
       <c r="C194">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4049,10 +4052,10 @@
         <v>196</v>
       </c>
       <c r="B195">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="C195">
-        <v>3.31</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4063,7 +4066,7 @@
         <v>-8.83</v>
       </c>
       <c r="C196">
-        <v>-7.6</v>
+        <v>-8.08</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4074,7 +4077,7 @@
         <v>5.36</v>
       </c>
       <c r="C197">
-        <v>4.66</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4082,10 +4085,10 @@
         <v>199</v>
       </c>
       <c r="B198">
-        <v>-8.279999999999999</v>
+        <v>-8.289999999999999</v>
       </c>
       <c r="C198">
-        <v>-7.73</v>
+        <v>-7.91</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4096,7 +4099,7 @@
         <v>2.29</v>
       </c>
       <c r="C199">
-        <v>0.82</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4104,10 +4107,10 @@
         <v>201</v>
       </c>
       <c r="B200">
-        <v>-5.68</v>
+        <v>-5.69</v>
       </c>
       <c r="C200">
-        <v>-4.77</v>
+        <v>-5.76</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4118,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="C201">
-        <v>-7.34</v>
+        <v>-7.67</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4129,7 +4132,7 @@
         <v>-6.05</v>
       </c>
       <c r="C202">
-        <v>-5.58</v>
+        <v>-5.89</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4140,7 +4143,7 @@
         <v>0.54</v>
       </c>
       <c r="C203">
-        <v>1.53</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4151,7 +4154,7 @@
         <v>-1.78</v>
       </c>
       <c r="C204">
-        <v>-0.79</v>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4162,7 +4165,7 @@
         <v>-5.4</v>
       </c>
       <c r="C205">
-        <v>-7.91</v>
+        <v>-7.39</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4173,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="C206">
-        <v>-6.86</v>
+        <v>-7.19</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4184,7 +4187,7 @@
         <v>-0.92</v>
       </c>
       <c r="C207">
-        <v>-2.93</v>
+        <v>-3.27</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4195,7 +4198,7 @@
         <v>-5.99</v>
       </c>
       <c r="C208">
-        <v>-3.18</v>
+        <v>-2.94</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4203,10 +4206,10 @@
         <v>210</v>
       </c>
       <c r="B209">
-        <v>2.72</v>
+        <v>2.73</v>
       </c>
       <c r="C209">
-        <v>5.42</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4217,7 +4220,7 @@
         <v>5.91</v>
       </c>
       <c r="C210">
-        <v>2.66</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4225,10 +4228,10 @@
         <v>212</v>
       </c>
       <c r="B211">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="C211">
-        <v>2.15</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4236,10 +4239,10 @@
         <v>213</v>
       </c>
       <c r="B212">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="C212">
-        <v>3.44</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4247,7 +4250,7 @@
         <v>214</v>
       </c>
       <c r="B213">
-        <v>-11.51</v>
+        <v>-11.52</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -4258,10 +4261,10 @@
         <v>215</v>
       </c>
       <c r="B214">
-        <v>5.29</v>
+        <v>5.3</v>
       </c>
       <c r="C214">
-        <v>4.53</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4269,7 +4272,7 @@
         <v>216</v>
       </c>
       <c r="B215">
-        <v>-7.07</v>
+        <v>-7.08</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -4283,7 +4286,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="C216">
-        <v>-8.02</v>
+        <v>-8.369999999999999</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4291,10 +4294,10 @@
         <v>218</v>
       </c>
       <c r="B217">
-        <v>0.42</v>
+        <v>-3.25</v>
       </c>
       <c r="C217">
-        <v>-1.84</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4305,7 +4308,7 @@
         <v>5.55</v>
       </c>
       <c r="C218">
-        <v>7.13</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4316,7 +4319,7 @@
         <v>5.41</v>
       </c>
       <c r="C219">
-        <v>3.97</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4324,10 +4327,10 @@
         <v>221</v>
       </c>
       <c r="B220">
-        <v>-7.14</v>
+        <v>-7.15</v>
       </c>
       <c r="C220">
-        <v>-2.28</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4338,7 +4341,7 @@
         <v>-6.73</v>
       </c>
       <c r="C221">
-        <v>-4.24</v>
+        <v>-4.99</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4349,7 +4352,7 @@
         <v>2.87</v>
       </c>
       <c r="C222">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4360,7 +4363,7 @@
         <v>-8</v>
       </c>
       <c r="C223">
-        <v>-3.15</v>
+        <v>-2.91</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4371,7 +4374,7 @@
         <v>11.07</v>
       </c>
       <c r="C224">
-        <v>10.72</v>
+        <v>9.869999999999999</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4382,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="C225">
-        <v>-4.24</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4393,7 +4396,7 @@
         <v>-6.77</v>
       </c>
       <c r="C226">
-        <v>-5.16</v>
+        <v>-5.41</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4401,10 +4404,10 @@
         <v>228</v>
       </c>
       <c r="B227">
-        <v>-5.4</v>
+        <v>-5.41</v>
       </c>
       <c r="C227">
-        <v>-3.59</v>
+        <v>-4.23</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4415,7 +4418,7 @@
         <v>-4.5</v>
       </c>
       <c r="C228">
-        <v>-3.74</v>
+        <v>-4.59</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4426,7 +4429,7 @@
         <v>-5.45</v>
       </c>
       <c r="C229">
-        <v>-3.49</v>
+        <v>-3.87</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4437,7 +4440,7 @@
         <v>-8.18</v>
       </c>
       <c r="C230">
-        <v>-3.77</v>
+        <v>-4.21</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4445,10 +4448,10 @@
         <v>232</v>
       </c>
       <c r="B231">
-        <v>5.02</v>
+        <v>0</v>
       </c>
       <c r="C231">
-        <v>3.25</v>
+        <v>-3.77</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4456,10 +4459,10 @@
         <v>233</v>
       </c>
       <c r="B232">
-        <v>-1.19</v>
+        <v>5.02</v>
       </c>
       <c r="C232">
-        <v>0</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4467,10 +4470,10 @@
         <v>234</v>
       </c>
       <c r="B233">
-        <v>3.53</v>
+        <v>-1.19</v>
       </c>
       <c r="C233">
-        <v>5.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4478,10 +4481,10 @@
         <v>235</v>
       </c>
       <c r="B234">
-        <v>-8.34</v>
+        <v>3.54</v>
       </c>
       <c r="C234">
-        <v>0</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4489,10 +4492,10 @@
         <v>236</v>
       </c>
       <c r="B235">
-        <v>-0.5</v>
+        <v>-8.35</v>
       </c>
       <c r="C235">
-        <v>-0.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4500,10 +4503,10 @@
         <v>237</v>
       </c>
       <c r="B236">
-        <v>-5.59</v>
+        <v>-0.5</v>
       </c>
       <c r="C236">
-        <v>-1.1</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4511,10 +4514,10 @@
         <v>238</v>
       </c>
       <c r="B237">
-        <v>-0.93</v>
+        <v>-5.59</v>
       </c>
       <c r="C237">
-        <v>2.09</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4522,10 +4525,10 @@
         <v>239</v>
       </c>
       <c r="B238">
-        <v>3.72</v>
+        <v>-0.93</v>
       </c>
       <c r="C238">
-        <v>4.28</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4533,10 +4536,10 @@
         <v>240</v>
       </c>
       <c r="B239">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="C239">
-        <v>-6.69</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4547,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="C240">
-        <v>-7.71</v>
+        <v>-6.99</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4555,10 +4558,10 @@
         <v>242</v>
       </c>
       <c r="B241">
-        <v>-5.4</v>
+        <v>0</v>
       </c>
       <c r="C241">
-        <v>-3.32</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4566,10 +4569,10 @@
         <v>243</v>
       </c>
       <c r="B242">
-        <v>-5.23</v>
+        <v>-5.4</v>
       </c>
       <c r="C242">
-        <v>0</v>
+        <v>-3.61</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4577,10 +4580,10 @@
         <v>244</v>
       </c>
       <c r="B243">
-        <v>-6.28</v>
+        <v>-5.23</v>
       </c>
       <c r="C243">
-        <v>-6.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4588,10 +4591,10 @@
         <v>245</v>
       </c>
       <c r="B244">
-        <v>9.16</v>
+        <v>-6.29</v>
       </c>
       <c r="C244">
-        <v>9.880000000000001</v>
+        <v>-7.09</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4599,10 +4602,10 @@
         <v>246</v>
       </c>
       <c r="B245">
-        <v>0</v>
+        <v>9.16</v>
       </c>
       <c r="C245">
-        <v>-7.71</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4613,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="C246">
-        <v>-8.02</v>
+        <v>-8.039999999999999</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4621,10 +4624,10 @@
         <v>248</v>
       </c>
       <c r="B247">
-        <v>-7.52</v>
+        <v>0</v>
       </c>
       <c r="C247">
-        <v>-7.21</v>
+        <v>-8.369999999999999</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4632,10 +4635,10 @@
         <v>249</v>
       </c>
       <c r="B248">
-        <v>1.66</v>
+        <v>-7.52</v>
       </c>
       <c r="C248">
-        <v>3.09</v>
+        <v>-7.54</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4643,10 +4646,10 @@
         <v>250</v>
       </c>
       <c r="B249">
-        <v>-6.62</v>
+        <v>1.66</v>
       </c>
       <c r="C249">
-        <v>-4.38</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4654,10 +4657,10 @@
         <v>251</v>
       </c>
       <c r="B250">
-        <v>0.51</v>
+        <v>-6.62</v>
       </c>
       <c r="C250">
-        <v>1.95</v>
+        <v>-3.79</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4665,10 +4668,10 @@
         <v>252</v>
       </c>
       <c r="B251">
-        <v>-4.8</v>
+        <v>0.52</v>
       </c>
       <c r="C251">
-        <v>-4.4</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4676,10 +4679,10 @@
         <v>253</v>
       </c>
       <c r="B252">
-        <v>-8.84</v>
+        <v>-4.79</v>
       </c>
       <c r="C252">
-        <v>-4.66</v>
+        <v>-4.95</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4687,10 +4690,10 @@
         <v>254</v>
       </c>
       <c r="B253">
-        <v>-7.28</v>
+        <v>-8.85</v>
       </c>
       <c r="C253">
-        <v>-6.08</v>
+        <v>-5.2</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4698,10 +4701,10 @@
         <v>255</v>
       </c>
       <c r="B254">
-        <v>5.69</v>
+        <v>-7.28</v>
       </c>
       <c r="C254">
-        <v>2.11</v>
+        <v>-6.35</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4709,10 +4712,10 @@
         <v>256</v>
       </c>
       <c r="B255">
-        <v>-5.65</v>
+        <v>5.69</v>
       </c>
       <c r="C255">
-        <v>-4.62</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4720,10 +4723,10 @@
         <v>257</v>
       </c>
       <c r="B256">
-        <v>-5.27</v>
+        <v>-5.65</v>
       </c>
       <c r="C256">
-        <v>-7.02</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4731,10 +4734,10 @@
         <v>258</v>
       </c>
       <c r="B257">
-        <v>12.45</v>
+        <v>-5.28</v>
       </c>
       <c r="C257">
-        <v>0</v>
+        <v>-7.37</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4742,10 +4745,10 @@
         <v>259</v>
       </c>
       <c r="B258">
-        <v>1.04</v>
+        <v>12.46</v>
       </c>
       <c r="C258">
-        <v>3.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4753,10 +4756,10 @@
         <v>260</v>
       </c>
       <c r="B259">
-        <v>-2.69</v>
+        <v>1.04</v>
       </c>
       <c r="C259">
-        <v>-0.6</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4764,10 +4767,10 @@
         <v>261</v>
       </c>
       <c r="B260">
-        <v>-8.390000000000001</v>
+        <v>-2.69</v>
       </c>
       <c r="C260">
-        <v>-5.99</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4775,10 +4778,10 @@
         <v>262</v>
       </c>
       <c r="B261">
-        <v>-5.94</v>
+        <v>-8.4</v>
       </c>
       <c r="C261">
-        <v>-9.6</v>
+        <v>-6.11</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4786,10 +4789,10 @@
         <v>263</v>
       </c>
       <c r="B262">
-        <v>-7.47</v>
+        <v>-5.95</v>
       </c>
       <c r="C262">
-        <v>-3.35</v>
+        <v>-10.02</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4797,10 +4800,10 @@
         <v>264</v>
       </c>
       <c r="B263">
-        <v>0.23</v>
+        <v>-7.47</v>
       </c>
       <c r="C263">
-        <v>0.51</v>
+        <v>-3.37</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4808,10 +4811,10 @@
         <v>265</v>
       </c>
       <c r="B264">
-        <v>-1.14</v>
+        <v>0.24</v>
       </c>
       <c r="C264">
-        <v>-2.57</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4819,10 +4822,10 @@
         <v>266</v>
       </c>
       <c r="B265">
-        <v>0.68</v>
+        <v>-1.13</v>
       </c>
       <c r="C265">
-        <v>-1.86</v>
+        <v>-3.67</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4830,10 +4833,10 @@
         <v>267</v>
       </c>
       <c r="B266">
-        <v>-4.01</v>
+        <v>0.68</v>
       </c>
       <c r="C266">
-        <v>0</v>
+        <v>-2.91</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4841,10 +4844,10 @@
         <v>268</v>
       </c>
       <c r="B267">
-        <v>-0.67</v>
+        <v>-4.01</v>
       </c>
       <c r="C267">
-        <v>-3.07</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4852,10 +4855,10 @@
         <v>269</v>
       </c>
       <c r="B268">
-        <v>-3.54</v>
+        <v>-0.67</v>
       </c>
       <c r="C268">
-        <v>0.76</v>
+        <v>-3.43</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4863,10 +4866,10 @@
         <v>270</v>
       </c>
       <c r="B269">
-        <v>-5.78</v>
+        <v>-3.54</v>
       </c>
       <c r="C269">
-        <v>-6.73</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4874,10 +4877,10 @@
         <v>271</v>
       </c>
       <c r="B270">
-        <v>0</v>
+        <v>-5.79</v>
       </c>
       <c r="C270">
-        <v>-9.15</v>
+        <v>-6.33</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4885,10 +4888,10 @@
         <v>272</v>
       </c>
       <c r="B271">
-        <v>3.19</v>
+        <v>0</v>
       </c>
       <c r="C271">
-        <v>10.08</v>
+        <v>-9.56</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4896,10 +4899,10 @@
         <v>273</v>
       </c>
       <c r="B272">
-        <v>-7.1</v>
+        <v>3.19</v>
       </c>
       <c r="C272">
-        <v>-6.72</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4907,10 +4910,10 @@
         <v>274</v>
       </c>
       <c r="B273">
-        <v>-2.45</v>
+        <v>-7.11</v>
       </c>
       <c r="C273">
-        <v>0.14</v>
+        <v>-6.73</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4918,10 +4921,10 @@
         <v>275</v>
       </c>
       <c r="B274">
-        <v>2.84</v>
+        <v>-2.46</v>
       </c>
       <c r="C274">
-        <v>0.83</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4929,10 +4932,10 @@
         <v>276</v>
       </c>
       <c r="B275">
-        <v>-2.17</v>
+        <v>2.84</v>
       </c>
       <c r="C275">
-        <v>-1.41</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4940,10 +4943,10 @@
         <v>277</v>
       </c>
       <c r="B276">
-        <v>1.47</v>
+        <v>-2.17</v>
       </c>
       <c r="C276">
-        <v>4.43</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4951,10 +4954,10 @@
         <v>278</v>
       </c>
       <c r="B277">
-        <v>-4.66</v>
+        <v>1.48</v>
       </c>
       <c r="C277">
-        <v>-6.31</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4962,10 +4965,10 @@
         <v>279</v>
       </c>
       <c r="B278">
-        <v>-5.38</v>
+        <v>-4.66</v>
       </c>
       <c r="C278">
-        <v>0</v>
+        <v>-6.92</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4973,10 +4976,10 @@
         <v>280</v>
       </c>
       <c r="B279">
-        <v>-1.47</v>
+        <v>-5.39</v>
       </c>
       <c r="C279">
-        <v>-8.859999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4984,10 +4987,10 @@
         <v>281</v>
       </c>
       <c r="B280">
-        <v>2.65</v>
+        <v>-1.47</v>
       </c>
       <c r="C280">
-        <v>0.02</v>
+        <v>-7.16</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4995,10 +4998,10 @@
         <v>282</v>
       </c>
       <c r="B281">
-        <v>-8.130000000000001</v>
+        <v>2.65</v>
       </c>
       <c r="C281">
-        <v>0</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5006,10 +5009,10 @@
         <v>283</v>
       </c>
       <c r="B282">
-        <v>-2.21</v>
+        <v>-8.140000000000001</v>
       </c>
       <c r="C282">
-        <v>0.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5017,10 +5020,10 @@
         <v>284</v>
       </c>
       <c r="B283">
-        <v>-6.73</v>
+        <v>-2.21</v>
       </c>
       <c r="C283">
-        <v>-4.75</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5028,10 +5031,10 @@
         <v>285</v>
       </c>
       <c r="B284">
-        <v>-2.81</v>
+        <v>-6.74</v>
       </c>
       <c r="C284">
-        <v>-1.59</v>
+        <v>-4.94</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5039,10 +5042,10 @@
         <v>286</v>
       </c>
       <c r="B285">
-        <v>1.5</v>
+        <v>-2.82</v>
       </c>
       <c r="C285">
-        <v>5.25</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5050,10 +5053,10 @@
         <v>287</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C286">
-        <v>-6.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5061,10 +5064,10 @@
         <v>288</v>
       </c>
       <c r="B287">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="C287">
-        <v>-2.15</v>
+        <v>-6.83</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5072,10 +5075,10 @@
         <v>289</v>
       </c>
       <c r="B288">
-        <v>-7.49</v>
+        <v>1.7</v>
       </c>
       <c r="C288">
-        <v>0</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5083,10 +5086,10 @@
         <v>290</v>
       </c>
       <c r="B289">
-        <v>-9.25</v>
+        <v>-7.5</v>
       </c>
       <c r="C289">
-        <v>-4.54</v>
+        <v>-6.12</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5094,10 +5097,10 @@
         <v>291</v>
       </c>
       <c r="B290">
-        <v>8.18</v>
+        <v>-9.26</v>
       </c>
       <c r="C290">
-        <v>8.710000000000001</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5105,10 +5108,10 @@
         <v>292</v>
       </c>
       <c r="B291">
-        <v>-3.37</v>
+        <v>8.19</v>
       </c>
       <c r="C291">
-        <v>-5.52</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5116,10 +5119,10 @@
         <v>293</v>
       </c>
       <c r="B292">
-        <v>4.8</v>
+        <v>-3.37</v>
       </c>
       <c r="C292">
-        <v>0</v>
+        <v>-5.83</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5127,10 +5130,10 @@
         <v>294</v>
       </c>
       <c r="B293">
-        <v>-3.99</v>
+        <v>4.81</v>
       </c>
       <c r="C293">
-        <v>-2.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5138,10 +5141,10 @@
         <v>295</v>
       </c>
       <c r="B294">
-        <v>2.08</v>
+        <v>-3.99</v>
       </c>
       <c r="C294">
-        <v>2.14</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5149,10 +5152,10 @@
         <v>296</v>
       </c>
       <c r="B295">
-        <v>-7.47</v>
+        <v>2.08</v>
       </c>
       <c r="C295">
-        <v>0</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5160,10 +5163,10 @@
         <v>297</v>
       </c>
       <c r="B296">
-        <v>-7.17</v>
+        <v>-7.47</v>
       </c>
       <c r="C296">
-        <v>-7.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5171,10 +5174,10 @@
         <v>298</v>
       </c>
       <c r="B297">
-        <v>-1.98</v>
+        <v>-7.17</v>
       </c>
       <c r="C297">
-        <v>-1.44</v>
+        <v>-7.99</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5182,10 +5185,10 @@
         <v>299</v>
       </c>
       <c r="B298">
-        <v>-0.12</v>
+        <v>-1.98</v>
       </c>
       <c r="C298">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5193,10 +5196,10 @@
         <v>300</v>
       </c>
       <c r="B299">
-        <v>-0.13</v>
+        <v>-0.12</v>
       </c>
       <c r="C299">
-        <v>-0.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5204,10 +5207,10 @@
         <v>301</v>
       </c>
       <c r="B300">
-        <v>-5.78</v>
+        <v>-0.13</v>
       </c>
       <c r="C300">
-        <v>0</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5215,10 +5218,10 @@
         <v>302</v>
       </c>
       <c r="B301">
-        <v>-0.68</v>
+        <v>-5.78</v>
       </c>
       <c r="C301">
-        <v>-1.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5226,10 +5229,10 @@
         <v>303</v>
       </c>
       <c r="B302">
-        <v>-5.87</v>
+        <v>-0.68</v>
       </c>
       <c r="C302">
-        <v>-2.21</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5237,10 +5240,10 @@
         <v>304</v>
       </c>
       <c r="B303">
-        <v>-2.17</v>
+        <v>-5.87</v>
       </c>
       <c r="C303">
-        <v>0.89</v>
+        <v>-3.54</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5248,10 +5251,10 @@
         <v>305</v>
       </c>
       <c r="B304">
-        <v>-6.17</v>
+        <v>-2.17</v>
       </c>
       <c r="C304">
-        <v>-4.4</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5259,10 +5262,10 @@
         <v>306</v>
       </c>
       <c r="B305">
-        <v>0</v>
+        <v>-6.17</v>
       </c>
       <c r="C305">
-        <v>-7.71</v>
+        <v>-4.53</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5270,10 +5273,10 @@
         <v>307</v>
       </c>
       <c r="B306">
-        <v>9.380000000000001</v>
+        <v>0</v>
       </c>
       <c r="C306">
-        <v>7.93</v>
+        <v>-8.039999999999999</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5281,10 +5284,10 @@
         <v>308</v>
       </c>
       <c r="B307">
-        <v>-1.06</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="C307">
-        <v>1.56</v>
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5292,10 +5295,10 @@
         <v>309</v>
       </c>
       <c r="B308">
-        <v>-4.39</v>
+        <v>-1.06</v>
       </c>
       <c r="C308">
-        <v>0</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5303,10 +5306,10 @@
         <v>310</v>
       </c>
       <c r="B309">
-        <v>-1.81</v>
+        <v>-4.39</v>
       </c>
       <c r="C309">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5314,10 +5317,10 @@
         <v>311</v>
       </c>
       <c r="B310">
-        <v>-6.52</v>
+        <v>-1.82</v>
       </c>
       <c r="C310">
-        <v>-0.99</v>
+        <v>-3.71</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5325,10 +5328,10 @@
         <v>312</v>
       </c>
       <c r="B311">
-        <v>0.62</v>
+        <v>-6.52</v>
       </c>
       <c r="C311">
-        <v>-0.9399999999999999</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5336,10 +5339,10 @@
         <v>313</v>
       </c>
       <c r="B312">
-        <v>1.61</v>
+        <v>0.61</v>
       </c>
       <c r="C312">
-        <v>0</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5347,7 +5350,7 @@
         <v>314</v>
       </c>
       <c r="B313">
-        <v>-6.58</v>
+        <v>1.6</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -5358,10 +5361,10 @@
         <v>315</v>
       </c>
       <c r="B314">
-        <v>0.33</v>
+        <v>-6.58</v>
       </c>
       <c r="C314">
-        <v>1.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5369,10 +5372,10 @@
         <v>316</v>
       </c>
       <c r="B315">
-        <v>-9.35</v>
+        <v>0.33</v>
       </c>
       <c r="C315">
-        <v>-6.86</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5380,10 +5383,10 @@
         <v>317</v>
       </c>
       <c r="B316">
-        <v>-6.64</v>
+        <v>-9.35</v>
       </c>
       <c r="C316">
-        <v>0</v>
+        <v>-7.19</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5391,10 +5394,10 @@
         <v>318</v>
       </c>
       <c r="B317">
-        <v>-1.45</v>
+        <v>-6.64</v>
       </c>
       <c r="C317">
-        <v>-0.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5402,10 +5405,10 @@
         <v>319</v>
       </c>
       <c r="B318">
-        <v>-7.68</v>
+        <v>-1.45</v>
       </c>
       <c r="C318">
-        <v>-5.65</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5413,10 +5416,10 @@
         <v>320</v>
       </c>
       <c r="B319">
-        <v>4.55</v>
+        <v>-7.69</v>
       </c>
       <c r="C319">
-        <v>0</v>
+        <v>-6.35</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5424,10 +5427,10 @@
         <v>321</v>
       </c>
       <c r="B320">
-        <v>-2.55</v>
+        <v>4.55</v>
       </c>
       <c r="C320">
-        <v>-1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5435,10 +5438,10 @@
         <v>322</v>
       </c>
       <c r="B321">
-        <v>-5.56</v>
+        <v>-2.55</v>
       </c>
       <c r="C321">
-        <v>-4.71</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5446,10 +5449,10 @@
         <v>323</v>
       </c>
       <c r="B322">
-        <v>1.52</v>
+        <v>-5.56</v>
       </c>
       <c r="C322">
-        <v>-0.89</v>
+        <v>-4.51</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5457,10 +5460,10 @@
         <v>324</v>
       </c>
       <c r="B323">
-        <v>-0.6</v>
+        <v>1.52</v>
       </c>
       <c r="C323">
-        <v>1.38</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5468,10 +5471,10 @@
         <v>325</v>
       </c>
       <c r="B324">
-        <v>8.44</v>
+        <v>-0.6</v>
       </c>
       <c r="C324">
-        <v>6.73</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5479,10 +5482,10 @@
         <v>326</v>
       </c>
       <c r="B325">
-        <v>-2.99</v>
+        <v>8.44</v>
       </c>
       <c r="C325">
-        <v>-1.27</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5490,10 +5493,10 @@
         <v>327</v>
       </c>
       <c r="B326">
-        <v>8.699999999999999</v>
+        <v>-2.99</v>
       </c>
       <c r="C326">
-        <v>10.7</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5501,10 +5504,10 @@
         <v>328</v>
       </c>
       <c r="B327">
-        <v>-2.84</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C327">
-        <v>-0.65</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5512,10 +5515,10 @@
         <v>329</v>
       </c>
       <c r="B328">
-        <v>6.14</v>
+        <v>-2.84</v>
       </c>
       <c r="C328">
-        <v>0.66</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5523,10 +5526,10 @@
         <v>330</v>
       </c>
       <c r="B329">
-        <v>6.6</v>
+        <v>6.15</v>
       </c>
       <c r="C329">
-        <v>5.13</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5534,10 +5537,10 @@
         <v>331</v>
       </c>
       <c r="B330">
-        <v>-5.2</v>
+        <v>6.6</v>
       </c>
       <c r="C330">
-        <v>0</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5545,10 +5548,10 @@
         <v>332</v>
       </c>
       <c r="B331">
-        <v>0</v>
+        <v>-5.21</v>
       </c>
       <c r="C331">
-        <v>-7.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5559,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="C332">
-        <v>-8.73</v>
+        <v>-7.85</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -5567,10 +5570,10 @@
         <v>334</v>
       </c>
       <c r="B333">
-        <v>-3.65</v>
+        <v>0</v>
       </c>
       <c r="C333">
-        <v>-2.08</v>
+        <v>-9.029999999999999</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -5578,10 +5581,10 @@
         <v>335</v>
       </c>
       <c r="B334">
-        <v>-0.97</v>
+        <v>-3.65</v>
       </c>
       <c r="C334">
-        <v>-3.15</v>
+        <v>-3.07</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5589,10 +5592,10 @@
         <v>336</v>
       </c>
       <c r="B335">
-        <v>-0.19</v>
+        <v>-0.97</v>
       </c>
       <c r="C335">
-        <v>2.5</v>
+        <v>-3.48</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -5600,10 +5603,10 @@
         <v>337</v>
       </c>
       <c r="B336">
-        <v>14.34</v>
+        <v>-0.19</v>
       </c>
       <c r="C336">
-        <v>5.03</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5611,10 +5614,10 @@
         <v>338</v>
       </c>
       <c r="B337">
-        <v>-8.44</v>
+        <v>14.35</v>
       </c>
       <c r="C337">
-        <v>-7.98</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5622,10 +5625,10 @@
         <v>339</v>
       </c>
       <c r="B338">
-        <v>-1.13</v>
+        <v>-8.44</v>
       </c>
       <c r="C338">
-        <v>0</v>
+        <v>-7.48</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5633,10 +5636,10 @@
         <v>340</v>
       </c>
       <c r="B339">
-        <v>-2.82</v>
+        <v>-1.14</v>
       </c>
       <c r="C339">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -5644,10 +5647,10 @@
         <v>341</v>
       </c>
       <c r="B340">
-        <v>0</v>
+        <v>-2.81</v>
       </c>
       <c r="C340">
-        <v>-1.53</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -5658,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="C341">
-        <v>-6.36</v>
+        <v>-4.73</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -5666,10 +5669,10 @@
         <v>343</v>
       </c>
       <c r="B342">
-        <v>-5.39</v>
+        <v>0</v>
       </c>
       <c r="C342">
-        <v>-1.3</v>
+        <v>-6.69</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -5677,10 +5680,10 @@
         <v>344</v>
       </c>
       <c r="B343">
-        <v>-1.38</v>
+        <v>-5.39</v>
       </c>
       <c r="C343">
-        <v>0</v>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -5688,10 +5691,10 @@
         <v>345</v>
       </c>
       <c r="B344">
-        <v>0</v>
+        <v>-1.38</v>
       </c>
       <c r="C344">
-        <v>-8.630000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -5699,10 +5702,10 @@
         <v>346</v>
       </c>
       <c r="B345">
-        <v>-2.85</v>
+        <v>0</v>
       </c>
       <c r="C345">
-        <v>-3.09</v>
+        <v>-8.609999999999999</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -5710,10 +5713,10 @@
         <v>347</v>
       </c>
       <c r="B346">
-        <v>0.21</v>
+        <v>-2.85</v>
       </c>
       <c r="C346">
-        <v>0.29</v>
+        <v>-3.74</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -5721,10 +5724,10 @@
         <v>348</v>
       </c>
       <c r="B347">
-        <v>-6.89</v>
+        <v>0.21</v>
       </c>
       <c r="C347">
-        <v>-6.87</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -5732,10 +5735,10 @@
         <v>349</v>
       </c>
       <c r="B348">
-        <v>-3.67</v>
+        <v>-6.9</v>
       </c>
       <c r="C348">
-        <v>-6.27</v>
+        <v>-7.18</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -5743,10 +5746,10 @@
         <v>350</v>
       </c>
       <c r="B349">
-        <v>-1.07</v>
+        <v>-3.67</v>
       </c>
       <c r="C349">
-        <v>-2.68</v>
+        <v>-6.57</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -5754,10 +5757,10 @@
         <v>351</v>
       </c>
       <c r="B350">
-        <v>1.95</v>
+        <v>-1.07</v>
       </c>
       <c r="C350">
-        <v>0</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -5765,10 +5768,10 @@
         <v>352</v>
       </c>
       <c r="B351">
-        <v>-4.48</v>
+        <v>1.96</v>
       </c>
       <c r="C351">
-        <v>-5.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -5776,10 +5779,10 @@
         <v>353</v>
       </c>
       <c r="B352">
-        <v>-4.5</v>
+        <v>-4.48</v>
       </c>
       <c r="C352">
-        <v>-3.8</v>
+        <v>-5.98</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -5787,10 +5790,10 @@
         <v>354</v>
       </c>
       <c r="B353">
-        <v>-4.92</v>
+        <v>-4.49</v>
       </c>
       <c r="C353">
-        <v>-7.88</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -5798,10 +5801,10 @@
         <v>355</v>
       </c>
       <c r="B354">
-        <v>-2.66</v>
+        <v>-4.92</v>
       </c>
       <c r="C354">
-        <v>0</v>
+        <v>-8.18</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -5809,7 +5812,7 @@
         <v>356</v>
       </c>
       <c r="B355">
-        <v>-7.66</v>
+        <v>-2.66</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -5820,10 +5823,10 @@
         <v>357</v>
       </c>
       <c r="B356">
-        <v>-4.73</v>
+        <v>-7.67</v>
       </c>
       <c r="C356">
-        <v>-3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -5831,10 +5834,10 @@
         <v>358</v>
       </c>
       <c r="B357">
-        <v>-0.83</v>
+        <v>-4.73</v>
       </c>
       <c r="C357">
-        <v>0</v>
+        <v>-4.77</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -5842,10 +5845,10 @@
         <v>359</v>
       </c>
       <c r="B358">
-        <v>-5.59</v>
+        <v>-0.83</v>
       </c>
       <c r="C358">
-        <v>-4.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -5853,10 +5856,10 @@
         <v>360</v>
       </c>
       <c r="B359">
-        <v>-10.3</v>
+        <v>-5.59</v>
       </c>
       <c r="C359">
-        <v>0</v>
+        <v>-4.85</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -5864,10 +5867,10 @@
         <v>361</v>
       </c>
       <c r="B360">
-        <v>1.74</v>
+        <v>-10.31</v>
       </c>
       <c r="C360">
-        <v>2.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -5875,10 +5878,10 @@
         <v>362</v>
       </c>
       <c r="B361">
-        <v>2.55</v>
+        <v>1.74</v>
       </c>
       <c r="C361">
-        <v>4.52</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -5886,10 +5889,10 @@
         <v>363</v>
       </c>
       <c r="B362">
-        <v>0.87</v>
+        <v>2.55</v>
       </c>
       <c r="C362">
-        <v>0.03</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -5897,10 +5900,10 @@
         <v>364</v>
       </c>
       <c r="B363">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="C363">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -5908,10 +5911,10 @@
         <v>365</v>
       </c>
       <c r="B364">
-        <v>-1</v>
+        <v>0.85</v>
       </c>
       <c r="C364">
-        <v>0.97</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -5919,10 +5922,10 @@
         <v>366</v>
       </c>
       <c r="B365">
-        <v>0.61</v>
+        <v>-1</v>
       </c>
       <c r="C365">
-        <v>0</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -5930,7 +5933,7 @@
         <v>367</v>
       </c>
       <c r="B366">
-        <v>-3.36</v>
+        <v>0.61</v>
       </c>
       <c r="C366">
         <v>0</v>
@@ -5941,10 +5944,10 @@
         <v>368</v>
       </c>
       <c r="B367">
-        <v>-5.48</v>
+        <v>-3.36</v>
       </c>
       <c r="C367">
-        <v>-4.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -5952,10 +5955,10 @@
         <v>369</v>
       </c>
       <c r="B368">
-        <v>-2.24</v>
+        <v>-5.49</v>
       </c>
       <c r="C368">
-        <v>-1.66</v>
+        <v>-5.17</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -5963,10 +5966,10 @@
         <v>370</v>
       </c>
       <c r="B369">
-        <v>-4.05</v>
+        <v>-2.24</v>
       </c>
       <c r="C369">
-        <v>-2.2</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -5974,10 +5977,10 @@
         <v>371</v>
       </c>
       <c r="B370">
-        <v>0</v>
+        <v>-4.06</v>
       </c>
       <c r="C370">
-        <v>-7.36</v>
+        <v>-2.47</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -5985,10 +5988,10 @@
         <v>372</v>
       </c>
       <c r="B371">
-        <v>-9.07</v>
+        <v>0</v>
       </c>
       <c r="C371">
-        <v>-5.82</v>
+        <v>-8.17</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -5996,10 +5999,10 @@
         <v>373</v>
       </c>
       <c r="B372">
-        <v>4.01</v>
+        <v>-9.07</v>
       </c>
       <c r="C372">
-        <v>1.97</v>
+        <v>-6.12</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6007,10 +6010,10 @@
         <v>374</v>
       </c>
       <c r="B373">
-        <v>-3.45</v>
+        <v>4.02</v>
       </c>
       <c r="C373">
-        <v>-2.91</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6018,10 +6021,10 @@
         <v>375</v>
       </c>
       <c r="B374">
-        <v>-7.59</v>
+        <v>-3.45</v>
       </c>
       <c r="C374">
-        <v>0</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6029,10 +6032,10 @@
         <v>376</v>
       </c>
       <c r="B375">
-        <v>0</v>
+        <v>-7.59</v>
       </c>
       <c r="C375">
-        <v>-4.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6040,10 +6043,10 @@
         <v>377</v>
       </c>
       <c r="B376">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="C376">
-        <v>2.73</v>
+        <v>-5.23</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6051,10 +6054,10 @@
         <v>378</v>
       </c>
       <c r="B377">
-        <v>-3.69</v>
+        <v>1.2</v>
       </c>
       <c r="C377">
-        <v>-3.68</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6062,10 +6065,10 @@
         <v>379</v>
       </c>
       <c r="B378">
-        <v>-0.44</v>
+        <v>-3.69</v>
       </c>
       <c r="C378">
-        <v>3.14</v>
+        <v>-3.23</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6073,10 +6076,10 @@
         <v>380</v>
       </c>
       <c r="B379">
-        <v>-7.38</v>
+        <v>-0.43</v>
       </c>
       <c r="C379">
-        <v>-7.29</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6084,10 +6087,10 @@
         <v>381</v>
       </c>
       <c r="B380">
-        <v>-1.72</v>
+        <v>-7.38</v>
       </c>
       <c r="C380">
-        <v>-0.63</v>
+        <v>-6.52</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6095,10 +6098,10 @@
         <v>382</v>
       </c>
       <c r="B381">
-        <v>-2.26</v>
+        <v>-1.72</v>
       </c>
       <c r="C381">
-        <v>-2.26</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6106,10 +6109,10 @@
         <v>383</v>
       </c>
       <c r="B382">
-        <v>2.82</v>
+        <v>-2.27</v>
       </c>
       <c r="C382">
-        <v>0.74</v>
+        <v>-3.23</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6117,10 +6120,10 @@
         <v>384</v>
       </c>
       <c r="B383">
-        <v>-6.53</v>
+        <v>2.83</v>
       </c>
       <c r="C383">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6128,10 +6131,10 @@
         <v>385</v>
       </c>
       <c r="B384">
-        <v>15.08</v>
+        <v>-6.54</v>
       </c>
       <c r="C384">
-        <v>15.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6139,10 +6142,10 @@
         <v>386</v>
       </c>
       <c r="B385">
-        <v>-1.43</v>
+        <v>15.09</v>
       </c>
       <c r="C385">
-        <v>-1.45</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6150,10 +6153,10 @@
         <v>387</v>
       </c>
       <c r="B386">
-        <v>4.24</v>
+        <v>-1.43</v>
       </c>
       <c r="C386">
-        <v>7.97</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6161,10 +6164,10 @@
         <v>388</v>
       </c>
       <c r="B387">
-        <v>-0.51</v>
+        <v>4.25</v>
       </c>
       <c r="C387">
-        <v>-4.09</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6172,10 +6175,10 @@
         <v>389</v>
       </c>
       <c r="B388">
-        <v>1.67</v>
+        <v>-0.5</v>
       </c>
       <c r="C388">
-        <v>4.62</v>
+        <v>-4.42</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6183,10 +6186,10 @@
         <v>390</v>
       </c>
       <c r="B389">
-        <v>2.26</v>
+        <v>1.67</v>
       </c>
       <c r="C389">
-        <v>1.21</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6194,10 +6197,10 @@
         <v>391</v>
       </c>
       <c r="B390">
-        <v>-2.33</v>
+        <v>2.26</v>
       </c>
       <c r="C390">
-        <v>-0.35</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -6205,10 +6208,10 @@
         <v>392</v>
       </c>
       <c r="B391">
-        <v>-5.47</v>
+        <v>-2.33</v>
       </c>
       <c r="C391">
-        <v>2.59</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6216,10 +6219,10 @@
         <v>393</v>
       </c>
       <c r="B392">
-        <v>-8.890000000000001</v>
+        <v>-5.47</v>
       </c>
       <c r="C392">
-        <v>-7.85</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6227,10 +6230,10 @@
         <v>394</v>
       </c>
       <c r="B393">
-        <v>3.14</v>
+        <v>-8.9</v>
       </c>
       <c r="C393">
-        <v>1.5</v>
+        <v>-8.19</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6238,10 +6241,10 @@
         <v>395</v>
       </c>
       <c r="B394">
-        <v>-7.25</v>
+        <v>3.15</v>
       </c>
       <c r="C394">
-        <v>0</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6249,10 +6252,10 @@
         <v>396</v>
       </c>
       <c r="B395">
-        <v>0</v>
+        <v>-7.25</v>
       </c>
       <c r="C395">
-        <v>-5.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6260,10 +6263,10 @@
         <v>397</v>
       </c>
       <c r="B396">
-        <v>-7.65</v>
+        <v>0</v>
       </c>
       <c r="C396">
-        <v>-2.48</v>
+        <v>-6.14</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6271,10 +6274,10 @@
         <v>398</v>
       </c>
       <c r="B397">
-        <v>-8.51</v>
+        <v>-7.65</v>
       </c>
       <c r="C397">
-        <v>0</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6282,10 +6285,10 @@
         <v>399</v>
       </c>
       <c r="B398">
-        <v>0.04</v>
+        <v>-8.51</v>
       </c>
       <c r="C398">
-        <v>2.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6293,10 +6296,10 @@
         <v>400</v>
       </c>
       <c r="B399">
-        <v>-8.26</v>
+        <v>0.04</v>
       </c>
       <c r="C399">
-        <v>-6.75</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6304,10 +6307,10 @@
         <v>401</v>
       </c>
       <c r="B400">
-        <v>-8.859999999999999</v>
+        <v>-8.27</v>
       </c>
       <c r="C400">
-        <v>0</v>
+        <v>-6.98</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6315,10 +6318,10 @@
         <v>402</v>
       </c>
       <c r="B401">
-        <v>-8.51</v>
+        <v>-8.869999999999999</v>
       </c>
       <c r="C401">
-        <v>-6.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6326,10 +6329,10 @@
         <v>403</v>
       </c>
       <c r="B402">
-        <v>2.85</v>
+        <v>-8.52</v>
       </c>
       <c r="C402">
-        <v>5.4</v>
+        <v>-7.31</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6337,10 +6340,10 @@
         <v>404</v>
       </c>
       <c r="B403">
-        <v>3.02</v>
+        <v>2.85</v>
       </c>
       <c r="C403">
-        <v>4.46</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6348,10 +6351,10 @@
         <v>405</v>
       </c>
       <c r="B404">
-        <v>-4.27</v>
+        <v>3.02</v>
       </c>
       <c r="C404">
-        <v>-5.1</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6359,10 +6362,10 @@
         <v>406</v>
       </c>
       <c r="B405">
-        <v>0</v>
+        <v>-4.27</v>
       </c>
       <c r="C405">
-        <v>-6.8</v>
+        <v>-4.3</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6373,7 +6376,7 @@
         <v>0</v>
       </c>
       <c r="C406">
-        <v>-4.51</v>
+        <v>-7.44</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -6381,10 +6384,10 @@
         <v>408</v>
       </c>
       <c r="B407">
-        <v>-1.19</v>
+        <v>0</v>
       </c>
       <c r="C407">
-        <v>-2.04</v>
+        <v>-4.78</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6392,10 +6395,10 @@
         <v>409</v>
       </c>
       <c r="B408">
-        <v>-7.16</v>
+        <v>-1.19</v>
       </c>
       <c r="C408">
-        <v>-4.87</v>
+        <v>-1.91</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6403,10 +6406,10 @@
         <v>410</v>
       </c>
       <c r="B409">
-        <v>6.43</v>
+        <v>-7.16</v>
       </c>
       <c r="C409">
-        <v>0</v>
+        <v>-4.61</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -6414,10 +6417,10 @@
         <v>411</v>
       </c>
       <c r="B410">
-        <v>-3.05</v>
+        <v>6.43</v>
       </c>
       <c r="C410">
-        <v>-3.4</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -6425,10 +6428,10 @@
         <v>412</v>
       </c>
       <c r="B411">
-        <v>-1.18</v>
+        <v>-3.05</v>
       </c>
       <c r="C411">
-        <v>3.23</v>
+        <v>-3.68</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -6436,10 +6439,10 @@
         <v>413</v>
       </c>
       <c r="B412">
-        <v>-7.34</v>
+        <v>-1.19</v>
       </c>
       <c r="C412">
-        <v>-3.1</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -6447,10 +6450,10 @@
         <v>414</v>
       </c>
       <c r="B413">
-        <v>-2.56</v>
+        <v>-7.35</v>
       </c>
       <c r="C413">
-        <v>-4.68</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -6458,10 +6461,10 @@
         <v>415</v>
       </c>
       <c r="B414">
-        <v>-4.49</v>
+        <v>-2.56</v>
       </c>
       <c r="C414">
-        <v>0</v>
+        <v>-3.48</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -6469,10 +6472,10 @@
         <v>416</v>
       </c>
       <c r="B415">
-        <v>-5.56</v>
+        <v>-4.49</v>
       </c>
       <c r="C415">
-        <v>-5.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -6480,10 +6483,10 @@
         <v>417</v>
       </c>
       <c r="B416">
-        <v>0</v>
+        <v>-5.56</v>
       </c>
       <c r="C416">
-        <v>-3.72</v>
+        <v>-6.11</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -6491,10 +6494,10 @@
         <v>418</v>
       </c>
       <c r="B417">
-        <v>-8.44</v>
+        <v>0</v>
       </c>
       <c r="C417">
-        <v>0</v>
+        <v>-3.93</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -6502,10 +6505,10 @@
         <v>419</v>
       </c>
       <c r="B418">
-        <v>0.44</v>
+        <v>-8.44</v>
       </c>
       <c r="C418">
-        <v>4.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -6513,10 +6516,10 @@
         <v>420</v>
       </c>
       <c r="B419">
-        <v>-4.96</v>
+        <v>0.44</v>
       </c>
       <c r="C419">
-        <v>-3.32</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -6524,10 +6527,10 @@
         <v>421</v>
       </c>
       <c r="B420">
-        <v>0</v>
+        <v>-4.96</v>
       </c>
       <c r="C420">
-        <v>-5.91</v>
+        <v>-3.87</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -6535,10 +6538,10 @@
         <v>422</v>
       </c>
       <c r="B421">
-        <v>-1.26</v>
+        <v>0</v>
       </c>
       <c r="C421">
-        <v>-5.5</v>
+        <v>-6.18</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -6546,10 +6549,10 @@
         <v>423</v>
       </c>
       <c r="B422">
-        <v>-5.97</v>
+        <v>-1.26</v>
       </c>
       <c r="C422">
-        <v>-7.52</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -6557,10 +6560,10 @@
         <v>424</v>
       </c>
       <c r="B423">
-        <v>-5.62</v>
+        <v>-5.97</v>
       </c>
       <c r="C423">
-        <v>-8.34</v>
+        <v>-7.89</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -6568,10 +6571,10 @@
         <v>425</v>
       </c>
       <c r="B424">
-        <v>-8.789999999999999</v>
+        <v>-5.62</v>
       </c>
       <c r="C424">
-        <v>-6.25</v>
+        <v>-8.699999999999999</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -6579,10 +6582,10 @@
         <v>426</v>
       </c>
       <c r="B425">
-        <v>-3.85</v>
+        <v>-8.789999999999999</v>
       </c>
       <c r="C425">
-        <v>-7.34</v>
+        <v>-6.56</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -6590,10 +6593,10 @@
         <v>427</v>
       </c>
       <c r="B426">
-        <v>-2.49</v>
+        <v>-3.85</v>
       </c>
       <c r="C426">
-        <v>0</v>
+        <v>-6.69</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -6601,10 +6604,10 @@
         <v>428</v>
       </c>
       <c r="B427">
-        <v>-3.12</v>
+        <v>-2.49</v>
       </c>
       <c r="C427">
-        <v>-4.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -6612,10 +6615,10 @@
         <v>429</v>
       </c>
       <c r="B428">
-        <v>-2.58</v>
+        <v>-3.12</v>
       </c>
       <c r="C428">
-        <v>2.99</v>
+        <v>-3.94</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -6623,10 +6626,10 @@
         <v>430</v>
       </c>
       <c r="B429">
-        <v>3.92</v>
+        <v>-2.58</v>
       </c>
       <c r="C429">
-        <v>2.36</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -6634,10 +6637,10 @@
         <v>431</v>
       </c>
       <c r="B430">
-        <v>-0.08</v>
+        <v>3.94</v>
       </c>
       <c r="C430">
-        <v>0.42</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -6645,10 +6648,10 @@
         <v>432</v>
       </c>
       <c r="B431">
-        <v>-2.49</v>
+        <v>-0.08</v>
       </c>
       <c r="C431">
-        <v>-0.99</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -6656,10 +6659,10 @@
         <v>433</v>
       </c>
       <c r="B432">
-        <v>-4.86</v>
+        <v>-2.49</v>
       </c>
       <c r="C432">
-        <v>-2.43</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -6667,10 +6670,10 @@
         <v>434</v>
       </c>
       <c r="B433">
-        <v>-8.06</v>
+        <v>-4.86</v>
       </c>
       <c r="C433">
-        <v>-6.59</v>
+        <v>-3.46</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -6678,10 +6681,10 @@
         <v>435</v>
       </c>
       <c r="B434">
-        <v>-4.05</v>
+        <v>-8.06</v>
       </c>
       <c r="C434">
-        <v>0</v>
+        <v>-6.87</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -6689,10 +6692,10 @@
         <v>436</v>
       </c>
       <c r="B435">
-        <v>-2.08</v>
+        <v>-4.05</v>
       </c>
       <c r="C435">
-        <v>-2.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -6700,10 +6703,10 @@
         <v>437</v>
       </c>
       <c r="B436">
-        <v>-5.62</v>
+        <v>-2.08</v>
       </c>
       <c r="C436">
-        <v>-2.28</v>
+        <v>-2.72</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -6711,10 +6714,10 @@
         <v>438</v>
       </c>
       <c r="B437">
-        <v>-8.82</v>
+        <v>-5.63</v>
       </c>
       <c r="C437">
-        <v>-4.6</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -6722,10 +6725,10 @@
         <v>439</v>
       </c>
       <c r="B438">
-        <v>-2.4</v>
+        <v>-8.83</v>
       </c>
       <c r="C438">
-        <v>3.55</v>
+        <v>-5.27</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -6733,10 +6736,10 @@
         <v>440</v>
       </c>
       <c r="B439">
-        <v>-0.17</v>
+        <v>-2.4</v>
       </c>
       <c r="C439">
-        <v>-0.9399999999999999</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -6744,10 +6747,10 @@
         <v>441</v>
       </c>
       <c r="B440">
-        <v>8</v>
+        <v>-0.18</v>
       </c>
       <c r="C440">
-        <v>4.73</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -6755,10 +6758,10 @@
         <v>442</v>
       </c>
       <c r="B441">
-        <v>-0.47</v>
+        <v>8</v>
       </c>
       <c r="C441">
-        <v>3.12</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -6766,10 +6769,10 @@
         <v>443</v>
       </c>
       <c r="B442">
-        <v>-2.44</v>
+        <v>-0.47</v>
       </c>
       <c r="C442">
-        <v>-1.34</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -6777,10 +6780,10 @@
         <v>444</v>
       </c>
       <c r="B443">
-        <v>-0.68</v>
+        <v>-2.45</v>
       </c>
       <c r="C443">
-        <v>0</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -6788,10 +6791,10 @@
         <v>445</v>
       </c>
       <c r="B444">
-        <v>14.19</v>
+        <v>-0.68</v>
       </c>
       <c r="C444">
-        <v>11.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -6799,10 +6802,10 @@
         <v>446</v>
       </c>
       <c r="B445">
-        <v>-6.18</v>
+        <v>14.19</v>
       </c>
       <c r="C445">
-        <v>-6.74</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -6810,10 +6813,10 @@
         <v>447</v>
       </c>
       <c r="B446">
-        <v>-8.98</v>
+        <v>-6.18</v>
       </c>
       <c r="C446">
-        <v>-7.25</v>
+        <v>-6.68</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -6821,10 +6824,10 @@
         <v>448</v>
       </c>
       <c r="B447">
-        <v>-6.06</v>
+        <v>-8.98</v>
       </c>
       <c r="C447">
-        <v>-5.18</v>
+        <v>-7.59</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -6832,10 +6835,10 @@
         <v>449</v>
       </c>
       <c r="B448">
-        <v>-4.21</v>
+        <v>-6.06</v>
       </c>
       <c r="C448">
-        <v>-5.33</v>
+        <v>-5.67</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -6843,10 +6846,10 @@
         <v>450</v>
       </c>
       <c r="B449">
-        <v>0</v>
+        <v>-4.21</v>
       </c>
       <c r="C449">
-        <v>-5.59</v>
+        <v>-4.64</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -6854,10 +6857,10 @@
         <v>451</v>
       </c>
       <c r="B450">
-        <v>9.130000000000001</v>
+        <v>0</v>
       </c>
       <c r="C450">
-        <v>8.52</v>
+        <v>-5.83</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -6865,10 +6868,10 @@
         <v>452</v>
       </c>
       <c r="B451">
-        <v>-3.93</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="C451">
-        <v>-5.82</v>
+        <v>8.289999999999999</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -6876,10 +6879,10 @@
         <v>453</v>
       </c>
       <c r="B452">
-        <v>-3.44</v>
+        <v>-3.93</v>
       </c>
       <c r="C452">
-        <v>-5</v>
+        <v>-5.88</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -6887,10 +6890,10 @@
         <v>454</v>
       </c>
       <c r="B453">
-        <v>-5.07</v>
+        <v>-3.44</v>
       </c>
       <c r="C453">
-        <v>-3.03</v>
+        <v>-6.52</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -6898,10 +6901,10 @@
         <v>455</v>
       </c>
       <c r="B454">
-        <v>-0.6</v>
+        <v>-5.08</v>
       </c>
       <c r="C454">
-        <v>-1.59</v>
+        <v>-3.28</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -6909,10 +6912,10 @@
         <v>456</v>
       </c>
       <c r="B455">
-        <v>-9.109999999999999</v>
+        <v>-0.6</v>
       </c>
       <c r="C455">
-        <v>-7.21</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -6920,10 +6923,10 @@
         <v>457</v>
       </c>
       <c r="B456">
-        <v>0</v>
+        <v>-9.109999999999999</v>
       </c>
       <c r="C456">
-        <v>-7.62</v>
+        <v>-5.28</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -6931,10 +6934,10 @@
         <v>458</v>
       </c>
       <c r="B457">
-        <v>-0.57</v>
+        <v>0</v>
       </c>
       <c r="C457">
-        <v>3.66</v>
+        <v>-6.96</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -6942,10 +6945,10 @@
         <v>459</v>
       </c>
       <c r="B458">
-        <v>-2.47</v>
+        <v>-0.57</v>
       </c>
       <c r="C458">
-        <v>1.17</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -6953,10 +6956,10 @@
         <v>460</v>
       </c>
       <c r="B459">
-        <v>0.62</v>
+        <v>-2.47</v>
       </c>
       <c r="C459">
-        <v>-0.55</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -6964,10 +6967,10 @@
         <v>461</v>
       </c>
       <c r="B460">
-        <v>-1.96</v>
+        <v>0.62</v>
       </c>
       <c r="C460">
-        <v>-4.39</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -6975,10 +6978,10 @@
         <v>462</v>
       </c>
       <c r="B461">
-        <v>-7.9</v>
+        <v>-1.96</v>
       </c>
       <c r="C461">
-        <v>-7.71</v>
+        <v>-4.71</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -6986,10 +6989,10 @@
         <v>463</v>
       </c>
       <c r="B462">
-        <v>0.96</v>
+        <v>-7.9</v>
       </c>
       <c r="C462">
-        <v>3.27</v>
+        <v>-8.369999999999999</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -6997,10 +7000,10 @@
         <v>464</v>
       </c>
       <c r="B463">
-        <v>-5.32</v>
+        <v>0.96</v>
       </c>
       <c r="C463">
-        <v>-1.74</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7008,10 +7011,10 @@
         <v>465</v>
       </c>
       <c r="B464">
-        <v>-6.23</v>
+        <v>-5.32</v>
       </c>
       <c r="C464">
-        <v>-5.19</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -7019,10 +7022,10 @@
         <v>466</v>
       </c>
       <c r="B465">
-        <v>-5.4</v>
+        <v>-6.24</v>
       </c>
       <c r="C465">
-        <v>-0.86</v>
+        <v>-5.84</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7030,10 +7033,10 @@
         <v>467</v>
       </c>
       <c r="B466">
-        <v>2.94</v>
+        <v>-5.4</v>
       </c>
       <c r="C466">
-        <v>2.5</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -7041,10 +7044,10 @@
         <v>468</v>
       </c>
       <c r="B467">
-        <v>-4.15</v>
+        <v>2.94</v>
       </c>
       <c r="C467">
-        <v>-7.63</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7052,10 +7055,10 @@
         <v>469</v>
       </c>
       <c r="B468">
-        <v>-2.28</v>
+        <v>-4.15</v>
       </c>
       <c r="C468">
-        <v>1.26</v>
+        <v>-7.99</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7063,10 +7066,10 @@
         <v>470</v>
       </c>
       <c r="B469">
-        <v>10.01</v>
+        <v>-2.28</v>
       </c>
       <c r="C469">
-        <v>11.06</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7074,10 +7077,10 @@
         <v>471</v>
       </c>
       <c r="B470">
-        <v>2.29</v>
+        <v>10</v>
       </c>
       <c r="C470">
-        <v>-0.52</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7085,10 +7088,10 @@
         <v>472</v>
       </c>
       <c r="B471">
-        <v>-0.5</v>
+        <v>2.3</v>
       </c>
       <c r="C471">
-        <v>-5.3</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7096,10 +7099,10 @@
         <v>473</v>
       </c>
       <c r="B472">
-        <v>-2.02</v>
+        <v>-0.5</v>
       </c>
       <c r="C472">
-        <v>3.77</v>
+        <v>-5.61</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7107,10 +7110,10 @@
         <v>474</v>
       </c>
       <c r="B473">
-        <v>-6.67</v>
+        <v>-2.02</v>
       </c>
       <c r="C473">
-        <v>0</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7118,10 +7121,10 @@
         <v>475</v>
       </c>
       <c r="B474">
-        <v>0</v>
+        <v>-6.67</v>
       </c>
       <c r="C474">
-        <v>-7.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7132,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="C475">
-        <v>-7.67</v>
+        <v>-8.039999999999999</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -7140,10 +7143,10 @@
         <v>477</v>
       </c>
       <c r="B476">
-        <v>-5.18</v>
+        <v>0</v>
       </c>
       <c r="C476">
-        <v>-7.28</v>
+        <v>-8.02</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -7151,10 +7154,10 @@
         <v>478</v>
       </c>
       <c r="B477">
-        <v>-3.83</v>
+        <v>-5.18</v>
       </c>
       <c r="C477">
-        <v>-2.75</v>
+        <v>-7.17</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -7162,10 +7165,10 @@
         <v>479</v>
       </c>
       <c r="B478">
-        <v>2.33</v>
+        <v>-3.83</v>
       </c>
       <c r="C478">
-        <v>0</v>
+        <v>-3.38</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -7173,10 +7176,10 @@
         <v>480</v>
       </c>
       <c r="B479">
-        <v>-6.05</v>
+        <v>2.33</v>
       </c>
       <c r="C479">
-        <v>-2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -7184,10 +7187,10 @@
         <v>481</v>
       </c>
       <c r="B480">
-        <v>0</v>
+        <v>-6.06</v>
       </c>
       <c r="C480">
-        <v>-8.029999999999999</v>
+        <v>-3.55</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -7195,10 +7198,10 @@
         <v>482</v>
       </c>
       <c r="B481">
-        <v>-7.03</v>
+        <v>0</v>
       </c>
       <c r="C481">
-        <v>0</v>
+        <v>-8.33</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -7206,10 +7209,10 @@
         <v>483</v>
       </c>
       <c r="B482">
-        <v>-8.85</v>
+        <v>-7.03</v>
       </c>
       <c r="C482">
-        <v>0.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -7217,10 +7220,10 @@
         <v>484</v>
       </c>
       <c r="B483">
-        <v>2.87</v>
+        <v>-8.859999999999999</v>
       </c>
       <c r="C483">
-        <v>4.13</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -7228,10 +7231,10 @@
         <v>485</v>
       </c>
       <c r="B484">
-        <v>-8.16</v>
+        <v>2.87</v>
       </c>
       <c r="C484">
-        <v>-5.16</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -7239,10 +7242,10 @@
         <v>486</v>
       </c>
       <c r="B485">
-        <v>-6.38</v>
+        <v>-8.17</v>
       </c>
       <c r="C485">
-        <v>-6.95</v>
+        <v>-5.37</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -7250,10 +7253,10 @@
         <v>487</v>
       </c>
       <c r="B486">
-        <v>8.550000000000001</v>
+        <v>-6.38</v>
       </c>
       <c r="C486">
-        <v>2.33</v>
+        <v>-7.27</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -7261,10 +7264,10 @@
         <v>488</v>
       </c>
       <c r="B487">
-        <v>0</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="C487">
-        <v>-7.53</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -7272,10 +7275,10 @@
         <v>489</v>
       </c>
       <c r="B488">
-        <v>5.44</v>
+        <v>0</v>
       </c>
       <c r="C488">
-        <v>5.8</v>
+        <v>-7.86</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -7283,10 +7286,10 @@
         <v>490</v>
       </c>
       <c r="B489">
-        <v>1.61</v>
+        <v>5.44</v>
       </c>
       <c r="C489">
-        <v>3.26</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -7294,10 +7297,10 @@
         <v>491</v>
       </c>
       <c r="B490">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="C490">
-        <v>-6.38</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -7305,10 +7308,10 @@
         <v>492</v>
       </c>
       <c r="B491">
-        <v>-5.46</v>
+        <v>0</v>
       </c>
       <c r="C491">
-        <v>-6.76</v>
+        <v>-6.67</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -7316,10 +7319,10 @@
         <v>493</v>
       </c>
       <c r="B492">
-        <v>15.11</v>
+        <v>-5.46</v>
       </c>
       <c r="C492">
-        <v>9.640000000000001</v>
+        <v>-7.05</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -7327,10 +7330,10 @@
         <v>494</v>
       </c>
       <c r="B493">
-        <v>-0.93</v>
+        <v>15.13</v>
       </c>
       <c r="C493">
-        <v>0</v>
+        <v>12.16</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -7338,10 +7341,10 @@
         <v>495</v>
       </c>
       <c r="B494">
-        <v>-7.48</v>
+        <v>-0.93</v>
       </c>
       <c r="C494">
-        <v>-7.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -7349,10 +7352,10 @@
         <v>496</v>
       </c>
       <c r="B495">
-        <v>-8.09</v>
+        <v>-7.48</v>
       </c>
       <c r="C495">
-        <v>-4.9</v>
+        <v>-7.69</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -7360,10 +7363,10 @@
         <v>497</v>
       </c>
       <c r="B496">
-        <v>2.49</v>
+        <v>-8.1</v>
       </c>
       <c r="C496">
-        <v>5.26</v>
+        <v>-5.2</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -7371,10 +7374,10 @@
         <v>498</v>
       </c>
       <c r="B497">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="C497">
-        <v>0.57</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -7382,10 +7385,10 @@
         <v>499</v>
       </c>
       <c r="B498">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C498">
-        <v>-7.12</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -7393,10 +7396,10 @@
         <v>500</v>
       </c>
       <c r="B499">
-        <v>-3.22</v>
+        <v>0</v>
       </c>
       <c r="C499">
-        <v>-5.51</v>
+        <v>-7.45</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -7404,10 +7407,10 @@
         <v>501</v>
       </c>
       <c r="B500">
-        <v>0</v>
+        <v>-3.22</v>
       </c>
       <c r="C500">
-        <v>-8.43</v>
+        <v>-5.81</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -7418,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="C501">
-        <v>-8.109999999999999</v>
+        <v>-8.800000000000001</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -7426,10 +7429,10 @@
         <v>503</v>
       </c>
       <c r="B502">
-        <v>-3.92</v>
+        <v>0</v>
       </c>
       <c r="C502">
-        <v>-1.13</v>
+        <v>-8.470000000000001</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -7437,10 +7440,10 @@
         <v>504</v>
       </c>
       <c r="B503">
-        <v>-2.61</v>
+        <v>-3.92</v>
       </c>
       <c r="C503">
-        <v>-3.24</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -7448,10 +7451,10 @@
         <v>505</v>
       </c>
       <c r="B504">
-        <v>-2.64</v>
+        <v>-2.61</v>
       </c>
       <c r="C504">
-        <v>-1.66</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -7459,10 +7462,10 @@
         <v>506</v>
       </c>
       <c r="B505">
-        <v>-1.46</v>
+        <v>-2.64</v>
       </c>
       <c r="C505">
-        <v>-3</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -7470,10 +7473,10 @@
         <v>507</v>
       </c>
       <c r="B506">
-        <v>3.52</v>
+        <v>-1.45</v>
       </c>
       <c r="C506">
-        <v>5.39</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -7481,10 +7484,10 @@
         <v>508</v>
       </c>
       <c r="B507">
-        <v>-6.65</v>
+        <v>3.52</v>
       </c>
       <c r="C507">
-        <v>-5.31</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -7492,10 +7495,10 @@
         <v>509</v>
       </c>
       <c r="B508">
-        <v>-4.46</v>
+        <v>-6.65</v>
       </c>
       <c r="C508">
-        <v>-0.18</v>
+        <v>-5.51</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -7503,10 +7506,21 @@
         <v>510</v>
       </c>
       <c r="B509">
-        <v>2.22</v>
+        <v>-4.47</v>
       </c>
       <c r="C509">
-        <v>1.93</v>
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" t="s">
+        <v>511</v>
+      </c>
+      <c r="B510">
+        <v>2.23</v>
+      </c>
+      <c r="C510">
+        <v>1.66</v>
       </c>
     </row>
   </sheetData>

--- a/data/merged_scores.xlsx
+++ b/data/merged_scores.xlsx
@@ -1929,7 +1929,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-9.449999999999999</v>
+        <v>-9.44</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="C6">
         <v>3.03</v>
@@ -1995,7 +1995,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-1.69</v>
+        <v>-1.68</v>
       </c>
       <c r="C8">
         <v>-1.14</v>
@@ -2006,7 +2006,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-4.39</v>
+        <v>-4.38</v>
       </c>
       <c r="C9">
         <v>0.62</v>
@@ -2028,7 +2028,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-9.02</v>
+        <v>-9.01</v>
       </c>
       <c r="C11">
         <v>-7.26</v>
@@ -2039,7 +2039,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>-6.71</v>
+        <v>-6.7</v>
       </c>
       <c r="C12">
         <v>-6.76</v>
@@ -2072,7 +2072,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>-4.35</v>
+        <v>-4.36</v>
       </c>
       <c r="C15">
         <v>-2.07</v>
@@ -2083,7 +2083,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="C16">
         <v>-2.38</v>
@@ -2105,7 +2105,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>-6.38</v>
+        <v>-6.37</v>
       </c>
       <c r="C18">
         <v>-5.23</v>
@@ -2127,7 +2127,7 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="C20">
         <v>2.62</v>
@@ -2138,7 +2138,7 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="C21">
         <v>3.98</v>
@@ -2149,7 +2149,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="C22">
         <v>-1.42</v>
@@ -2171,7 +2171,7 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.47</v>
+        <v>-0.45</v>
       </c>
       <c r="C24">
         <v>-0.33</v>
@@ -2182,7 +2182,7 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>-6.34</v>
+        <v>-6.33</v>
       </c>
       <c r="C25">
         <v>-5.04</v>
@@ -2215,7 +2215,7 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="C28">
         <v>2.08</v>
@@ -2237,7 +2237,7 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>14.07</v>
+        <v>14.09</v>
       </c>
       <c r="C30">
         <v>11.63</v>
@@ -2248,7 +2248,7 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>6.96</v>
+        <v>6.95</v>
       </c>
       <c r="C31">
         <v>4.41</v>
@@ -2259,7 +2259,7 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>-8.119999999999999</v>
+        <v>-8.109999999999999</v>
       </c>
       <c r="C32">
         <v>-7.31</v>
@@ -2281,7 +2281,7 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>-7.55</v>
+        <v>-7.54</v>
       </c>
       <c r="C34">
         <v>-5.58</v>
@@ -2325,7 +2325,7 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>4.89</v>
+        <v>4.91</v>
       </c>
       <c r="C38">
         <v>2.42</v>
@@ -2336,7 +2336,7 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>-7.29</v>
+        <v>-7.28</v>
       </c>
       <c r="C39">
         <v>-7.83</v>
@@ -2358,7 +2358,7 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.37</v>
+        <v>-0.36</v>
       </c>
       <c r="C41">
         <v>1.47</v>
@@ -2369,7 +2369,7 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>-1.36</v>
+        <v>-1.37</v>
       </c>
       <c r="C42">
         <v>-0.76</v>
@@ -2402,7 +2402,7 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="C45">
         <v>0.85</v>
@@ -2424,7 +2424,7 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="C47">
         <v>0.76</v>
@@ -2435,7 +2435,7 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>-2.43</v>
+        <v>-2.44</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>-5.35</v>
+        <v>-5.34</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>-3.41</v>
+        <v>-3.43</v>
       </c>
       <c r="C50">
         <v>-5.28</v>
@@ -2468,7 +2468,7 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>-9.18</v>
+        <v>-9.17</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="C52">
         <v>5.26</v>
@@ -2490,7 +2490,7 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="C53">
         <v>-1.68</v>
@@ -2523,7 +2523,7 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>-2.36</v>
+        <v>-2.33</v>
       </c>
       <c r="C56">
         <v>-4.3</v>
@@ -2545,7 +2545,7 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="C58">
         <v>-1.1</v>
@@ -2567,7 +2567,7 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>-3.4</v>
+        <v>-3.42</v>
       </c>
       <c r="C60">
         <v>-4.51</v>
@@ -2600,7 +2600,7 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="C63">
         <v>3.42</v>
@@ -2611,7 +2611,7 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.37</v>
+        <v>-0.36</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2677,7 +2677,7 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="C70">
         <v>6.02</v>
@@ -2688,7 +2688,7 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>6.4</v>
+        <v>6.38</v>
       </c>
       <c r="C71">
         <v>6.21</v>
@@ -2743,7 +2743,7 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="C76">
         <v>3.53</v>
@@ -2787,7 +2787,7 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>-1.3</v>
+        <v>-1.31</v>
       </c>
       <c r="C80">
         <v>1.27</v>
@@ -2798,7 +2798,7 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>-3.33</v>
+        <v>-3.34</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>-5.5</v>
+        <v>-5.49</v>
       </c>
       <c r="C83">
         <v>-6.63</v>
@@ -2864,7 +2864,7 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C87">
         <v>4.98</v>
@@ -2886,7 +2886,7 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>-3</v>
+        <v>-2.99</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>-9.369999999999999</v>
+        <v>-9.359999999999999</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="C91">
         <v>0.09</v>
@@ -2919,7 +2919,7 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="C92">
         <v>4.58</v>
@@ -2930,7 +2930,7 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>-4.13</v>
+        <v>-4.15</v>
       </c>
       <c r="C93">
         <v>-0.31</v>
@@ -2941,7 +2941,7 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>-6.77</v>
+        <v>-6.75</v>
       </c>
       <c r="C94">
         <v>-6.08</v>
@@ -2952,7 +2952,7 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>-9.19</v>
+        <v>-9.18</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>-3.45</v>
+        <v>-3.46</v>
       </c>
       <c r="C97">
         <v>-5.86</v>
@@ -2996,7 +2996,7 @@
         <v>100</v>
       </c>
       <c r="B99">
-        <v>-8.960000000000001</v>
+        <v>-8.949999999999999</v>
       </c>
       <c r="C99">
         <v>-6.6</v>
@@ -3051,7 +3051,7 @@
         <v>105</v>
       </c>
       <c r="B104">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="C104">
         <v>0.53</v>
@@ -3073,7 +3073,7 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>-7.46</v>
+        <v>-7.45</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -3084,7 +3084,7 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>-9.550000000000001</v>
+        <v>-9.539999999999999</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>112</v>
       </c>
       <c r="B111">
-        <v>9.16</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="C111">
         <v>8.039999999999999</v>
@@ -3150,7 +3150,7 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="C113">
         <v>0.28</v>
@@ -3161,7 +3161,7 @@
         <v>115</v>
       </c>
       <c r="B114">
-        <v>-1.73</v>
+        <v>-1.72</v>
       </c>
       <c r="C114">
         <v>-2.57</v>
@@ -3183,7 +3183,7 @@
         <v>117</v>
       </c>
       <c r="B116">
-        <v>-4.99</v>
+        <v>-4.98</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -3194,7 +3194,7 @@
         <v>118</v>
       </c>
       <c r="B117">
-        <v>-4.72</v>
+        <v>-4.71</v>
       </c>
       <c r="C117">
         <v>-8.220000000000001</v>
@@ -3205,7 +3205,7 @@
         <v>119</v>
       </c>
       <c r="B118">
-        <v>-8.83</v>
+        <v>-8.84</v>
       </c>
       <c r="C118">
         <v>-7.69</v>
@@ -3216,7 +3216,7 @@
         <v>120</v>
       </c>
       <c r="B119">
-        <v>3.76</v>
+        <v>3.75</v>
       </c>
       <c r="C119">
         <v>6.68</v>
@@ -3238,7 +3238,7 @@
         <v>122</v>
       </c>
       <c r="B121">
-        <v>-9.4</v>
+        <v>-9.390000000000001</v>
       </c>
       <c r="C121">
         <v>1.01</v>
@@ -3260,7 +3260,7 @@
         <v>124</v>
       </c>
       <c r="B123">
-        <v>-2.53</v>
+        <v>-2.52</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>127</v>
       </c>
       <c r="B126">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="C126">
         <v>-2.58</v>
@@ -3304,7 +3304,7 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>-7.25</v>
+        <v>-7.23</v>
       </c>
       <c r="C127">
         <v>-5.53</v>
@@ -3337,7 +3337,7 @@
         <v>131</v>
       </c>
       <c r="B130">
-        <v>2.66</v>
+        <v>2.69</v>
       </c>
       <c r="C130">
         <v>1.78</v>
@@ -3348,7 +3348,7 @@
         <v>132</v>
       </c>
       <c r="B131">
-        <v>3.87</v>
+        <v>3.86</v>
       </c>
       <c r="C131">
         <v>3.11</v>
@@ -3370,7 +3370,7 @@
         <v>134</v>
       </c>
       <c r="B133">
-        <v>-0.61</v>
+        <v>-0.6</v>
       </c>
       <c r="C133">
         <v>1.22</v>
@@ -3381,7 +3381,7 @@
         <v>135</v>
       </c>
       <c r="B134">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="C134">
         <v>6.37</v>
@@ -3392,7 +3392,7 @@
         <v>136</v>
       </c>
       <c r="B135">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="C135">
         <v>0.87</v>
@@ -3425,7 +3425,7 @@
         <v>139</v>
       </c>
       <c r="B138">
-        <v>4.94</v>
+        <v>4.92</v>
       </c>
       <c r="C138">
         <v>6.71</v>
@@ -3436,7 +3436,7 @@
         <v>140</v>
       </c>
       <c r="B139">
-        <v>4.98</v>
+        <v>4.97</v>
       </c>
       <c r="C139">
         <v>4.61</v>
@@ -3458,7 +3458,7 @@
         <v>142</v>
       </c>
       <c r="B141">
-        <v>-5.25</v>
+        <v>-5.24</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3491,7 +3491,7 @@
         <v>145</v>
       </c>
       <c r="B144">
-        <v>-2.49</v>
+        <v>-2.5</v>
       </c>
       <c r="C144">
         <v>-1.75</v>
@@ -3502,7 +3502,7 @@
         <v>146</v>
       </c>
       <c r="B145">
-        <v>-8.77</v>
+        <v>-8.76</v>
       </c>
       <c r="C145">
         <v>-7.47</v>
@@ -3513,7 +3513,7 @@
         <v>147</v>
       </c>
       <c r="B146">
-        <v>7.87</v>
+        <v>7.91</v>
       </c>
       <c r="C146">
         <v>8.56</v>
@@ -3524,7 +3524,7 @@
         <v>148</v>
       </c>
       <c r="B147">
-        <v>-8.9</v>
+        <v>-8.890000000000001</v>
       </c>
       <c r="C147">
         <v>-9.130000000000001</v>
@@ -3535,7 +3535,7 @@
         <v>149</v>
       </c>
       <c r="B148">
-        <v>-1.08</v>
+        <v>-1.07</v>
       </c>
       <c r="C148">
         <v>-1.19</v>
@@ -3546,7 +3546,7 @@
         <v>150</v>
       </c>
       <c r="B149">
-        <v>7.96</v>
+        <v>7.95</v>
       </c>
       <c r="C149">
         <v>4.41</v>
@@ -3601,7 +3601,7 @@
         <v>155</v>
       </c>
       <c r="B154">
-        <v>-4.18</v>
+        <v>-4.16</v>
       </c>
       <c r="C154">
         <v>-3.2</v>
@@ -3656,7 +3656,7 @@
         <v>160</v>
       </c>
       <c r="B159">
-        <v>-5.97</v>
+        <v>-5.95</v>
       </c>
       <c r="C159">
         <v>-7.35</v>
@@ -3700,7 +3700,7 @@
         <v>164</v>
       </c>
       <c r="B163">
-        <v>-6.91</v>
+        <v>-6.9</v>
       </c>
       <c r="C163">
         <v>-5.58</v>
@@ -3711,7 +3711,7 @@
         <v>165</v>
       </c>
       <c r="B164">
-        <v>-1.88</v>
+        <v>-1.89</v>
       </c>
       <c r="C164">
         <v>-4.26</v>
@@ -3722,7 +3722,7 @@
         <v>166</v>
       </c>
       <c r="B165">
-        <v>5.01</v>
+        <v>5.03</v>
       </c>
       <c r="C165">
         <v>6.37</v>
@@ -3744,7 +3744,7 @@
         <v>168</v>
       </c>
       <c r="B167">
-        <v>5.31</v>
+        <v>5.29</v>
       </c>
       <c r="C167">
         <v>1.96</v>
@@ -3755,7 +3755,7 @@
         <v>169</v>
       </c>
       <c r="B168">
-        <v>-3.5</v>
+        <v>-3.51</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3766,7 +3766,7 @@
         <v>170</v>
       </c>
       <c r="B169">
-        <v>-4.03</v>
+        <v>-4.04</v>
       </c>
       <c r="C169">
         <v>-6.26</v>
@@ -3810,7 +3810,7 @@
         <v>174</v>
       </c>
       <c r="B173">
-        <v>-4.05</v>
+        <v>-4.04</v>
       </c>
       <c r="C173">
         <v>-2.87</v>
@@ -3821,7 +3821,7 @@
         <v>175</v>
       </c>
       <c r="B174">
-        <v>-1.26</v>
+        <v>-1.27</v>
       </c>
       <c r="C174">
         <v>-4.12</v>
@@ -3832,7 +3832,7 @@
         <v>176</v>
       </c>
       <c r="B175">
-        <v>-3.89</v>
+        <v>-3.88</v>
       </c>
       <c r="C175">
         <v>-3.48</v>
@@ -3843,7 +3843,7 @@
         <v>177</v>
       </c>
       <c r="B176">
-        <v>12.62</v>
+        <v>12.67</v>
       </c>
       <c r="C176">
         <v>8.140000000000001</v>
@@ -3854,7 +3854,7 @@
         <v>178</v>
       </c>
       <c r="B177">
-        <v>-3.97</v>
+        <v>-3.96</v>
       </c>
       <c r="C177">
         <v>-4.41</v>
@@ -3865,7 +3865,7 @@
         <v>179</v>
       </c>
       <c r="B178">
-        <v>-2.75</v>
+        <v>-2.76</v>
       </c>
       <c r="C178">
         <v>5.06</v>
@@ -3898,7 +3898,7 @@
         <v>182</v>
       </c>
       <c r="B181">
-        <v>-5.56</v>
+        <v>-5.55</v>
       </c>
       <c r="C181">
         <v>0.75</v>
@@ -3909,7 +3909,7 @@
         <v>183</v>
       </c>
       <c r="B182">
-        <v>-8.43</v>
+        <v>-8.42</v>
       </c>
       <c r="C182">
         <v>-7.72</v>
@@ -3964,7 +3964,7 @@
         <v>188</v>
       </c>
       <c r="B187">
-        <v>4.28</v>
+        <v>4.26</v>
       </c>
       <c r="C187">
         <v>-0.51</v>
@@ -3986,7 +3986,7 @@
         <v>190</v>
       </c>
       <c r="B189">
-        <v>-4.23</v>
+        <v>-4.22</v>
       </c>
       <c r="C189">
         <v>-3.26</v>
@@ -3997,7 +3997,7 @@
         <v>191</v>
       </c>
       <c r="B190">
-        <v>-7.09</v>
+        <v>-7.08</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         <v>192</v>
       </c>
       <c r="B191">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>193</v>
       </c>
       <c r="B192">
-        <v>-1.86</v>
+        <v>-1.85</v>
       </c>
       <c r="C192">
         <v>-1.43</v>
@@ -4052,7 +4052,7 @@
         <v>196</v>
       </c>
       <c r="B195">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
       <c r="C195">
         <v>2.21</v>
@@ -4074,7 +4074,7 @@
         <v>198</v>
       </c>
       <c r="B197">
-        <v>5.36</v>
+        <v>5.35</v>
       </c>
       <c r="C197">
         <v>4.34</v>
@@ -4085,7 +4085,7 @@
         <v>199</v>
       </c>
       <c r="B198">
-        <v>-8.289999999999999</v>
+        <v>-8.279999999999999</v>
       </c>
       <c r="C198">
         <v>-7.91</v>
@@ -4107,7 +4107,7 @@
         <v>201</v>
       </c>
       <c r="B200">
-        <v>-5.69</v>
+        <v>-5.68</v>
       </c>
       <c r="C200">
         <v>-5.76</v>
@@ -4140,7 +4140,7 @@
         <v>204</v>
       </c>
       <c r="B203">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="C203">
         <v>2.05</v>
@@ -4206,7 +4206,7 @@
         <v>210</v>
       </c>
       <c r="B209">
-        <v>2.73</v>
+        <v>2.76</v>
       </c>
       <c r="C209">
         <v>5.59</v>
@@ -4228,7 +4228,7 @@
         <v>212</v>
       </c>
       <c r="B211">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="C211">
         <v>2.46</v>
@@ -4239,7 +4239,7 @@
         <v>213</v>
       </c>
       <c r="B212">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="C212">
         <v>2.9</v>
@@ -4250,7 +4250,7 @@
         <v>214</v>
       </c>
       <c r="B213">
-        <v>-11.52</v>
+        <v>-11.53</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -4261,7 +4261,7 @@
         <v>215</v>
       </c>
       <c r="B214">
-        <v>5.3</v>
+        <v>5.31</v>
       </c>
       <c r="C214">
         <v>3.98</v>
@@ -4272,7 +4272,7 @@
         <v>216</v>
       </c>
       <c r="B215">
-        <v>-7.08</v>
+        <v>-7.07</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -4294,7 +4294,7 @@
         <v>218</v>
       </c>
       <c r="B217">
-        <v>-3.25</v>
+        <v>-3.24</v>
       </c>
       <c r="C217">
         <v>-2.03</v>
@@ -4305,7 +4305,7 @@
         <v>219</v>
       </c>
       <c r="B218">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="C218">
         <v>7.18</v>
@@ -4316,7 +4316,7 @@
         <v>220</v>
       </c>
       <c r="B219">
-        <v>5.41</v>
+        <v>5.42</v>
       </c>
       <c r="C219">
         <v>4.7</v>
@@ -4327,7 +4327,7 @@
         <v>221</v>
       </c>
       <c r="B220">
-        <v>-7.15</v>
+        <v>-7.14</v>
       </c>
       <c r="C220">
         <v>-2.54</v>
@@ -4338,7 +4338,7 @@
         <v>222</v>
       </c>
       <c r="B221">
-        <v>-6.73</v>
+        <v>-6.72</v>
       </c>
       <c r="C221">
         <v>-4.99</v>
@@ -4349,7 +4349,7 @@
         <v>223</v>
       </c>
       <c r="B222">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="C222">
         <v>1.12</v>
@@ -4371,7 +4371,7 @@
         <v>225</v>
       </c>
       <c r="B224">
-        <v>11.07</v>
+        <v>11.03</v>
       </c>
       <c r="C224">
         <v>9.869999999999999</v>
@@ -4393,7 +4393,7 @@
         <v>227</v>
       </c>
       <c r="B226">
-        <v>-6.77</v>
+        <v>-6.75</v>
       </c>
       <c r="C226">
         <v>-5.41</v>
@@ -4404,7 +4404,7 @@
         <v>228</v>
       </c>
       <c r="B227">
-        <v>-5.41</v>
+        <v>-5.4</v>
       </c>
       <c r="C227">
         <v>-4.23</v>
@@ -4415,7 +4415,7 @@
         <v>229</v>
       </c>
       <c r="B228">
-        <v>-4.5</v>
+        <v>-4.51</v>
       </c>
       <c r="C228">
         <v>-4.59</v>
@@ -4459,7 +4459,7 @@
         <v>233</v>
       </c>
       <c r="B232">
-        <v>5.02</v>
+        <v>5.01</v>
       </c>
       <c r="C232">
         <v>3.49</v>
@@ -4470,7 +4470,7 @@
         <v>234</v>
       </c>
       <c r="B233">
-        <v>-1.19</v>
+        <v>-1.18</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -4481,7 +4481,7 @@
         <v>235</v>
       </c>
       <c r="B234">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="C234">
         <v>5.35</v>
@@ -4492,7 +4492,7 @@
         <v>236</v>
       </c>
       <c r="B235">
-        <v>-8.35</v>
+        <v>-8.34</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>238</v>
       </c>
       <c r="B237">
-        <v>-5.59</v>
+        <v>-5.57</v>
       </c>
       <c r="C237">
         <v>-2.42</v>
@@ -4525,7 +4525,7 @@
         <v>239</v>
       </c>
       <c r="B238">
-        <v>-0.93</v>
+        <v>-0.92</v>
       </c>
       <c r="C238">
         <v>1.2</v>
@@ -4536,7 +4536,7 @@
         <v>240</v>
       </c>
       <c r="B239">
-        <v>3.72</v>
+        <v>3.73</v>
       </c>
       <c r="C239">
         <v>4.2</v>
@@ -4569,7 +4569,7 @@
         <v>243</v>
       </c>
       <c r="B242">
-        <v>-5.4</v>
+        <v>-5.41</v>
       </c>
       <c r="C242">
         <v>-3.61</v>
@@ -4591,7 +4591,7 @@
         <v>245</v>
       </c>
       <c r="B244">
-        <v>-6.29</v>
+        <v>-6.28</v>
       </c>
       <c r="C244">
         <v>-7.09</v>
@@ -4602,7 +4602,7 @@
         <v>246</v>
       </c>
       <c r="B245">
-        <v>9.16</v>
+        <v>9.15</v>
       </c>
       <c r="C245">
         <v>9.93</v>
@@ -4635,7 +4635,7 @@
         <v>249</v>
       </c>
       <c r="B248">
-        <v>-7.52</v>
+        <v>-7.51</v>
       </c>
       <c r="C248">
         <v>-7.54</v>
@@ -4668,7 +4668,7 @@
         <v>252</v>
       </c>
       <c r="B251">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="C251">
         <v>0.99</v>
@@ -4679,7 +4679,7 @@
         <v>253</v>
       </c>
       <c r="B252">
-        <v>-4.79</v>
+        <v>-4.78</v>
       </c>
       <c r="C252">
         <v>-4.95</v>
@@ -4723,7 +4723,7 @@
         <v>257</v>
       </c>
       <c r="B256">
-        <v>-5.65</v>
+        <v>-5.64</v>
       </c>
       <c r="C256">
         <v>-4.9</v>
@@ -4756,7 +4756,7 @@
         <v>260</v>
       </c>
       <c r="B259">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="C259">
         <v>4.99</v>
@@ -4789,7 +4789,7 @@
         <v>263</v>
       </c>
       <c r="B262">
-        <v>-5.95</v>
+        <v>-5.94</v>
       </c>
       <c r="C262">
         <v>-10.02</v>
@@ -4811,7 +4811,7 @@
         <v>265</v>
       </c>
       <c r="B264">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="C264">
         <v>1.29</v>
@@ -4833,7 +4833,7 @@
         <v>267</v>
       </c>
       <c r="B266">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="C266">
         <v>-2.91</v>
@@ -4844,7 +4844,7 @@
         <v>268</v>
       </c>
       <c r="B267">
-        <v>-4.01</v>
+        <v>-3.99</v>
       </c>
       <c r="C267">
         <v>-1.31</v>
@@ -4855,7 +4855,7 @@
         <v>269</v>
       </c>
       <c r="B268">
-        <v>-0.67</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="C268">
         <v>-3.43</v>
@@ -4866,7 +4866,7 @@
         <v>270</v>
       </c>
       <c r="B269">
-        <v>-3.54</v>
+        <v>-3.55</v>
       </c>
       <c r="C269">
         <v>0.55</v>
@@ -4877,7 +4877,7 @@
         <v>271</v>
       </c>
       <c r="B270">
-        <v>-5.79</v>
+        <v>-5.78</v>
       </c>
       <c r="C270">
         <v>-6.33</v>
@@ -4899,7 +4899,7 @@
         <v>273</v>
       </c>
       <c r="B272">
-        <v>3.19</v>
+        <v>3.16</v>
       </c>
       <c r="C272">
         <v>10.5</v>
@@ -4910,7 +4910,7 @@
         <v>274</v>
       </c>
       <c r="B273">
-        <v>-7.11</v>
+        <v>-7.1</v>
       </c>
       <c r="C273">
         <v>-6.73</v>
@@ -4954,7 +4954,7 @@
         <v>278</v>
       </c>
       <c r="B277">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="C277">
         <v>4.02</v>
@@ -4987,7 +4987,7 @@
         <v>281</v>
       </c>
       <c r="B280">
-        <v>-1.47</v>
+        <v>-1.48</v>
       </c>
       <c r="C280">
         <v>-7.16</v>
@@ -5009,7 +5009,7 @@
         <v>283</v>
       </c>
       <c r="B282">
-        <v>-8.140000000000001</v>
+        <v>-8.130000000000001</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -5020,7 +5020,7 @@
         <v>284</v>
       </c>
       <c r="B283">
-        <v>-2.21</v>
+        <v>-2.22</v>
       </c>
       <c r="C283">
         <v>0.63</v>
@@ -5053,7 +5053,7 @@
         <v>287</v>
       </c>
       <c r="B286">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="C286">
         <v>4.2</v>
@@ -5075,7 +5075,7 @@
         <v>289</v>
       </c>
       <c r="B288">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="C288">
         <v>-1.16</v>
@@ -5086,7 +5086,7 @@
         <v>290</v>
       </c>
       <c r="B289">
-        <v>-7.5</v>
+        <v>-7.49</v>
       </c>
       <c r="C289">
         <v>-6.12</v>
@@ -5097,7 +5097,7 @@
         <v>291</v>
       </c>
       <c r="B290">
-        <v>-9.26</v>
+        <v>-9.24</v>
       </c>
       <c r="C290">
         <v>-4.92</v>
@@ -5141,7 +5141,7 @@
         <v>295</v>
       </c>
       <c r="B294">
-        <v>-3.99</v>
+        <v>-3.98</v>
       </c>
       <c r="C294">
         <v>-1.05</v>
@@ -5174,7 +5174,7 @@
         <v>298</v>
       </c>
       <c r="B297">
-        <v>-7.17</v>
+        <v>-7.16</v>
       </c>
       <c r="C297">
         <v>-7.99</v>
@@ -5196,7 +5196,7 @@
         <v>300</v>
       </c>
       <c r="B299">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -5207,7 +5207,7 @@
         <v>301</v>
       </c>
       <c r="B300">
-        <v>-0.13</v>
+        <v>-0.14</v>
       </c>
       <c r="C300">
         <v>-0.86</v>
@@ -5218,7 +5218,7 @@
         <v>302</v>
       </c>
       <c r="B301">
-        <v>-5.78</v>
+        <v>-5.77</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -5229,7 +5229,7 @@
         <v>303</v>
       </c>
       <c r="B302">
-        <v>-0.68</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="C302">
         <v>-1.11</v>
@@ -5240,7 +5240,7 @@
         <v>304</v>
       </c>
       <c r="B303">
-        <v>-5.87</v>
+        <v>-5.85</v>
       </c>
       <c r="C303">
         <v>-3.54</v>
@@ -5262,7 +5262,7 @@
         <v>306</v>
       </c>
       <c r="B305">
-        <v>-6.17</v>
+        <v>-6.18</v>
       </c>
       <c r="C305">
         <v>-4.53</v>
@@ -5328,7 +5328,7 @@
         <v>312</v>
       </c>
       <c r="B311">
-        <v>-6.52</v>
+        <v>-6.5</v>
       </c>
       <c r="C311">
         <v>-1.7</v>
@@ -5339,7 +5339,7 @@
         <v>313</v>
       </c>
       <c r="B312">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="C312">
         <v>0.59</v>
@@ -5350,7 +5350,7 @@
         <v>314</v>
       </c>
       <c r="B313">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -5361,7 +5361,7 @@
         <v>315</v>
       </c>
       <c r="B314">
-        <v>-6.58</v>
+        <v>-6.59</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -5372,7 +5372,7 @@
         <v>316</v>
       </c>
       <c r="B315">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="C315">
         <v>1.3</v>
@@ -5394,7 +5394,7 @@
         <v>318</v>
       </c>
       <c r="B317">
-        <v>-6.64</v>
+        <v>-6.65</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -5416,7 +5416,7 @@
         <v>320</v>
       </c>
       <c r="B319">
-        <v>-7.69</v>
+        <v>-7.68</v>
       </c>
       <c r="C319">
         <v>-6.35</v>
@@ -5449,7 +5449,7 @@
         <v>323</v>
       </c>
       <c r="B322">
-        <v>-5.56</v>
+        <v>-5.55</v>
       </c>
       <c r="C322">
         <v>-4.51</v>
@@ -5471,7 +5471,7 @@
         <v>325</v>
       </c>
       <c r="B324">
-        <v>-0.6</v>
+        <v>-0.61</v>
       </c>
       <c r="C324">
         <v>2</v>
@@ -5493,7 +5493,7 @@
         <v>327</v>
       </c>
       <c r="B326">
-        <v>-2.99</v>
+        <v>-2.39</v>
       </c>
       <c r="C326">
         <v>-0.76</v>
@@ -5504,7 +5504,7 @@
         <v>328</v>
       </c>
       <c r="B327">
-        <v>8.699999999999999</v>
+        <v>8.67</v>
       </c>
       <c r="C327">
         <v>8.859999999999999</v>
@@ -5515,7 +5515,7 @@
         <v>329</v>
       </c>
       <c r="B328">
-        <v>-2.84</v>
+        <v>-2.82</v>
       </c>
       <c r="C328">
         <v>-0.8100000000000001</v>
@@ -5537,7 +5537,7 @@
         <v>331</v>
       </c>
       <c r="B330">
-        <v>6.6</v>
+        <v>6.62</v>
       </c>
       <c r="C330">
         <v>5.67</v>
@@ -5548,7 +5548,7 @@
         <v>332</v>
       </c>
       <c r="B331">
-        <v>-5.21</v>
+        <v>-5.18</v>
       </c>
       <c r="C331">
         <v>0</v>
@@ -5581,7 +5581,7 @@
         <v>335</v>
       </c>
       <c r="B334">
-        <v>-3.65</v>
+        <v>-3.64</v>
       </c>
       <c r="C334">
         <v>-3.07</v>
@@ -5592,7 +5592,7 @@
         <v>336</v>
       </c>
       <c r="B335">
-        <v>-0.97</v>
+        <v>-0.98</v>
       </c>
       <c r="C335">
         <v>-3.48</v>
@@ -5603,7 +5603,7 @@
         <v>337</v>
       </c>
       <c r="B336">
-        <v>-0.19</v>
+        <v>-0.2</v>
       </c>
       <c r="C336">
         <v>1.89</v>
@@ -5625,7 +5625,7 @@
         <v>339</v>
       </c>
       <c r="B338">
-        <v>-8.44</v>
+        <v>-8.43</v>
       </c>
       <c r="C338">
         <v>-7.48</v>
@@ -5636,7 +5636,7 @@
         <v>340</v>
       </c>
       <c r="B339">
-        <v>-1.14</v>
+        <v>-1.13</v>
       </c>
       <c r="C339">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>341</v>
       </c>
       <c r="B340">
-        <v>-2.81</v>
+        <v>-2.8</v>
       </c>
       <c r="C340">
         <v>-0.41</v>
@@ -5713,7 +5713,7 @@
         <v>347</v>
       </c>
       <c r="B346">
-        <v>-2.85</v>
+        <v>-2.86</v>
       </c>
       <c r="C346">
         <v>-3.74</v>
@@ -5724,7 +5724,7 @@
         <v>348</v>
       </c>
       <c r="B347">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="C347">
         <v>-0.59</v>
@@ -5735,7 +5735,7 @@
         <v>349</v>
       </c>
       <c r="B348">
-        <v>-6.9</v>
+        <v>-6.89</v>
       </c>
       <c r="C348">
         <v>-7.18</v>
@@ -5746,7 +5746,7 @@
         <v>350</v>
       </c>
       <c r="B349">
-        <v>-3.67</v>
+        <v>-3.68</v>
       </c>
       <c r="C349">
         <v>-6.57</v>
@@ -5757,7 +5757,7 @@
         <v>351</v>
       </c>
       <c r="B350">
-        <v>-1.07</v>
+        <v>-1.08</v>
       </c>
       <c r="C350">
         <v>-2.88</v>
@@ -5768,7 +5768,7 @@
         <v>352</v>
       </c>
       <c r="B351">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -5779,7 +5779,7 @@
         <v>353</v>
       </c>
       <c r="B352">
-        <v>-4.48</v>
+        <v>-4.46</v>
       </c>
       <c r="C352">
         <v>-5.98</v>
@@ -5790,7 +5790,7 @@
         <v>354</v>
       </c>
       <c r="B353">
-        <v>-4.49</v>
+        <v>-4.47</v>
       </c>
       <c r="C353">
         <v>-4.55</v>
@@ -5812,7 +5812,7 @@
         <v>356</v>
       </c>
       <c r="B355">
-        <v>-2.66</v>
+        <v>-2.67</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -5823,7 +5823,7 @@
         <v>357</v>
       </c>
       <c r="B356">
-        <v>-7.67</v>
+        <v>-7.66</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -5845,7 +5845,7 @@
         <v>359</v>
       </c>
       <c r="B358">
-        <v>-0.83</v>
+        <v>-0.84</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -5889,7 +5889,7 @@
         <v>363</v>
       </c>
       <c r="B362">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="C362">
         <v>3.2</v>
@@ -5900,7 +5900,7 @@
         <v>364</v>
       </c>
       <c r="B363">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="C363">
         <v>0.24</v>
@@ -5933,7 +5933,7 @@
         <v>367</v>
       </c>
       <c r="B366">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="C366">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>370</v>
       </c>
       <c r="B369">
-        <v>-2.24</v>
+        <v>-2.22</v>
       </c>
       <c r="C369">
         <v>-1.36</v>
@@ -5977,7 +5977,7 @@
         <v>371</v>
       </c>
       <c r="B370">
-        <v>-4.06</v>
+        <v>-4.05</v>
       </c>
       <c r="C370">
         <v>-2.47</v>
@@ -6065,7 +6065,7 @@
         <v>379</v>
       </c>
       <c r="B378">
-        <v>-3.69</v>
+        <v>-3.67</v>
       </c>
       <c r="C378">
         <v>-3.23</v>
@@ -6076,7 +6076,7 @@
         <v>380</v>
       </c>
       <c r="B379">
-        <v>-0.43</v>
+        <v>-0.41</v>
       </c>
       <c r="C379">
         <v>2.93</v>
@@ -6098,7 +6098,7 @@
         <v>382</v>
       </c>
       <c r="B381">
-        <v>-1.72</v>
+        <v>-1.73</v>
       </c>
       <c r="C381">
         <v>-1.61</v>
@@ -6120,7 +6120,7 @@
         <v>384</v>
       </c>
       <c r="B383">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="C383">
         <v>0.8100000000000001</v>
@@ -6131,7 +6131,7 @@
         <v>385</v>
       </c>
       <c r="B384">
-        <v>-6.54</v>
+        <v>-6.53</v>
       </c>
       <c r="C384">
         <v>0</v>
@@ -6142,7 +6142,7 @@
         <v>386</v>
       </c>
       <c r="B385">
-        <v>15.09</v>
+        <v>15.07</v>
       </c>
       <c r="C385">
         <v>15.4</v>
@@ -6164,7 +6164,7 @@
         <v>388</v>
       </c>
       <c r="B387">
-        <v>4.25</v>
+        <v>4.26</v>
       </c>
       <c r="C387">
         <v>8.81</v>
@@ -6175,7 +6175,7 @@
         <v>389</v>
       </c>
       <c r="B388">
-        <v>-0.5</v>
+        <v>-0.49</v>
       </c>
       <c r="C388">
         <v>-4.42</v>
@@ -6186,7 +6186,7 @@
         <v>390</v>
       </c>
       <c r="B389">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="C389">
         <v>5.07</v>
@@ -6208,7 +6208,7 @@
         <v>392</v>
       </c>
       <c r="B391">
-        <v>-2.33</v>
+        <v>-2.32</v>
       </c>
       <c r="C391">
         <v>-0.49</v>
@@ -6219,7 +6219,7 @@
         <v>393</v>
       </c>
       <c r="B392">
-        <v>-5.47</v>
+        <v>-5.48</v>
       </c>
       <c r="C392">
         <v>2.65</v>
@@ -6230,7 +6230,7 @@
         <v>394</v>
       </c>
       <c r="B393">
-        <v>-8.9</v>
+        <v>-8.890000000000001</v>
       </c>
       <c r="C393">
         <v>-8.19</v>
@@ -6241,7 +6241,7 @@
         <v>395</v>
       </c>
       <c r="B394">
-        <v>3.15</v>
+        <v>3.17</v>
       </c>
       <c r="C394">
         <v>2.14</v>
@@ -6252,7 +6252,7 @@
         <v>396</v>
       </c>
       <c r="B395">
-        <v>-7.25</v>
+        <v>-7.24</v>
       </c>
       <c r="C395">
         <v>0</v>
@@ -6296,7 +6296,7 @@
         <v>400</v>
       </c>
       <c r="B399">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="C399">
         <v>1.19</v>
@@ -6318,7 +6318,7 @@
         <v>402</v>
       </c>
       <c r="B401">
-        <v>-8.869999999999999</v>
+        <v>-8.859999999999999</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>403</v>
       </c>
       <c r="B402">
-        <v>-8.52</v>
+        <v>-8.51</v>
       </c>
       <c r="C402">
         <v>-7.31</v>
@@ -6351,7 +6351,7 @@
         <v>405</v>
       </c>
       <c r="B404">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="C404">
         <v>4.47</v>
@@ -6395,7 +6395,7 @@
         <v>409</v>
       </c>
       <c r="B408">
-        <v>-1.19</v>
+        <v>-1.2</v>
       </c>
       <c r="C408">
         <v>-1.91</v>
@@ -6406,7 +6406,7 @@
         <v>410</v>
       </c>
       <c r="B409">
-        <v>-7.16</v>
+        <v>-7.17</v>
       </c>
       <c r="C409">
         <v>-4.61</v>
@@ -6417,7 +6417,7 @@
         <v>411</v>
       </c>
       <c r="B410">
-        <v>6.43</v>
+        <v>6.42</v>
       </c>
       <c r="C410">
         <v>0.14</v>
@@ -6428,7 +6428,7 @@
         <v>412</v>
       </c>
       <c r="B411">
-        <v>-3.05</v>
+        <v>-3.04</v>
       </c>
       <c r="C411">
         <v>-3.68</v>
@@ -6450,7 +6450,7 @@
         <v>414</v>
       </c>
       <c r="B413">
-        <v>-7.35</v>
+        <v>-7.34</v>
       </c>
       <c r="C413">
         <v>-1.94</v>
@@ -6472,7 +6472,7 @@
         <v>416</v>
       </c>
       <c r="B415">
-        <v>-4.49</v>
+        <v>-4.48</v>
       </c>
       <c r="C415">
         <v>0</v>
@@ -6516,7 +6516,7 @@
         <v>420</v>
       </c>
       <c r="B419">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="C419">
         <v>3.38</v>
@@ -6527,7 +6527,7 @@
         <v>421</v>
       </c>
       <c r="B420">
-        <v>-4.96</v>
+        <v>-4.95</v>
       </c>
       <c r="C420">
         <v>-3.87</v>
@@ -6560,7 +6560,7 @@
         <v>424</v>
       </c>
       <c r="B423">
-        <v>-5.97</v>
+        <v>-5.98</v>
       </c>
       <c r="C423">
         <v>-7.89</v>
@@ -6571,7 +6571,7 @@
         <v>425</v>
       </c>
       <c r="B424">
-        <v>-5.62</v>
+        <v>-5.61</v>
       </c>
       <c r="C424">
         <v>-8.699999999999999</v>
@@ -6582,7 +6582,7 @@
         <v>426</v>
       </c>
       <c r="B425">
-        <v>-8.789999999999999</v>
+        <v>-8.779999999999999</v>
       </c>
       <c r="C425">
         <v>-6.56</v>
@@ -6604,7 +6604,7 @@
         <v>428</v>
       </c>
       <c r="B427">
-        <v>-2.49</v>
+        <v>-2.46</v>
       </c>
       <c r="C427">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>430</v>
       </c>
       <c r="B429">
-        <v>-2.58</v>
+        <v>-2.59</v>
       </c>
       <c r="C429">
         <v>3.06</v>
@@ -6637,7 +6637,7 @@
         <v>431</v>
       </c>
       <c r="B430">
-        <v>3.94</v>
+        <v>3.96</v>
       </c>
       <c r="C430">
         <v>2.03</v>
@@ -6648,7 +6648,7 @@
         <v>432</v>
       </c>
       <c r="B431">
-        <v>-0.08</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="C431">
         <v>0.03</v>
@@ -6670,7 +6670,7 @@
         <v>434</v>
       </c>
       <c r="B433">
-        <v>-4.86</v>
+        <v>-4.85</v>
       </c>
       <c r="C433">
         <v>-3.46</v>
@@ -6725,7 +6725,7 @@
         <v>439</v>
       </c>
       <c r="B438">
-        <v>-8.83</v>
+        <v>-8.82</v>
       </c>
       <c r="C438">
         <v>-5.27</v>
@@ -6747,7 +6747,7 @@
         <v>441</v>
       </c>
       <c r="B440">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="C440">
         <v>-1.38</v>
@@ -6758,7 +6758,7 @@
         <v>442</v>
       </c>
       <c r="B441">
-        <v>8</v>
+        <v>7.99</v>
       </c>
       <c r="C441">
         <v>4.59</v>
@@ -6791,7 +6791,7 @@
         <v>445</v>
       </c>
       <c r="B444">
-        <v>-0.68</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="C444">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>448</v>
       </c>
       <c r="B447">
-        <v>-8.98</v>
+        <v>-8.970000000000001</v>
       </c>
       <c r="C447">
         <v>-7.59</v>
@@ -6846,7 +6846,7 @@
         <v>450</v>
       </c>
       <c r="B449">
-        <v>-4.21</v>
+        <v>-4.22</v>
       </c>
       <c r="C449">
         <v>-4.64</v>
@@ -6868,7 +6868,7 @@
         <v>452</v>
       </c>
       <c r="B451">
-        <v>9.130000000000001</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="C451">
         <v>8.289999999999999</v>
@@ -6890,7 +6890,7 @@
         <v>454</v>
       </c>
       <c r="B453">
-        <v>-3.44</v>
+        <v>-3.42</v>
       </c>
       <c r="C453">
         <v>-6.52</v>
@@ -6901,7 +6901,7 @@
         <v>455</v>
       </c>
       <c r="B454">
-        <v>-5.08</v>
+        <v>-5.09</v>
       </c>
       <c r="C454">
         <v>-3.28</v>
@@ -6912,7 +6912,7 @@
         <v>456</v>
       </c>
       <c r="B455">
-        <v>-0.6</v>
+        <v>-0.59</v>
       </c>
       <c r="C455">
         <v>-1.34</v>
@@ -6978,7 +6978,7 @@
         <v>462</v>
       </c>
       <c r="B461">
-        <v>-1.96</v>
+        <v>-1.95</v>
       </c>
       <c r="C461">
         <v>-4.71</v>
@@ -7000,7 +7000,7 @@
         <v>464</v>
       </c>
       <c r="B463">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C463">
         <v>2.24</v>
@@ -7011,7 +7011,7 @@
         <v>465</v>
       </c>
       <c r="B464">
-        <v>-5.32</v>
+        <v>-5.3</v>
       </c>
       <c r="C464">
         <v>-2.61</v>
@@ -7033,7 +7033,7 @@
         <v>467</v>
       </c>
       <c r="B466">
-        <v>-5.4</v>
+        <v>-5.41</v>
       </c>
       <c r="C466">
         <v>-0.73</v>
@@ -7077,7 +7077,7 @@
         <v>471</v>
       </c>
       <c r="B470">
-        <v>10</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="C470">
         <v>8.81</v>
@@ -7088,7 +7088,7 @@
         <v>472</v>
       </c>
       <c r="B471">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="C471">
         <v>-0.64</v>
@@ -7099,7 +7099,7 @@
         <v>473</v>
       </c>
       <c r="B472">
-        <v>-0.5</v>
+        <v>-0.51</v>
       </c>
       <c r="C472">
         <v>-5.61</v>
@@ -7110,7 +7110,7 @@
         <v>474</v>
       </c>
       <c r="B473">
-        <v>-2.02</v>
+        <v>-2.03</v>
       </c>
       <c r="C473">
         <v>3.17</v>
@@ -7121,7 +7121,7 @@
         <v>475</v>
       </c>
       <c r="B474">
-        <v>-6.67</v>
+        <v>-6.66</v>
       </c>
       <c r="C474">
         <v>0</v>
@@ -7154,7 +7154,7 @@
         <v>478</v>
       </c>
       <c r="B477">
-        <v>-5.18</v>
+        <v>-5.17</v>
       </c>
       <c r="C477">
         <v>-7.17</v>
@@ -7176,7 +7176,7 @@
         <v>480</v>
       </c>
       <c r="B479">
-        <v>2.33</v>
+        <v>2.32</v>
       </c>
       <c r="C479">
         <v>0</v>
@@ -7187,7 +7187,7 @@
         <v>481</v>
       </c>
       <c r="B480">
-        <v>-6.06</v>
+        <v>-6.05</v>
       </c>
       <c r="C480">
         <v>-3.55</v>
@@ -7220,7 +7220,7 @@
         <v>484</v>
       </c>
       <c r="B483">
-        <v>-8.859999999999999</v>
+        <v>-8.85</v>
       </c>
       <c r="C483">
         <v>0.01</v>
@@ -7231,7 +7231,7 @@
         <v>485</v>
       </c>
       <c r="B484">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="C484">
         <v>4.44</v>
@@ -7242,7 +7242,7 @@
         <v>486</v>
       </c>
       <c r="B485">
-        <v>-8.17</v>
+        <v>-8.16</v>
       </c>
       <c r="C485">
         <v>-5.37</v>
@@ -7253,7 +7253,7 @@
         <v>487</v>
       </c>
       <c r="B486">
-        <v>-6.38</v>
+        <v>-6.37</v>
       </c>
       <c r="C486">
         <v>-7.27</v>
@@ -7264,7 +7264,7 @@
         <v>488</v>
       </c>
       <c r="B487">
-        <v>8.550000000000001</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="C487">
         <v>2.59</v>
@@ -7286,7 +7286,7 @@
         <v>490</v>
       </c>
       <c r="B489">
-        <v>5.44</v>
+        <v>5.43</v>
       </c>
       <c r="C489">
         <v>5.67</v>
@@ -7319,7 +7319,7 @@
         <v>493</v>
       </c>
       <c r="B492">
-        <v>-5.46</v>
+        <v>-5.47</v>
       </c>
       <c r="C492">
         <v>-7.05</v>
@@ -7330,7 +7330,7 @@
         <v>494</v>
       </c>
       <c r="B493">
-        <v>15.13</v>
+        <v>14.6</v>
       </c>
       <c r="C493">
         <v>12.16</v>
@@ -7363,7 +7363,7 @@
         <v>497</v>
       </c>
       <c r="B496">
-        <v>-8.1</v>
+        <v>-8.09</v>
       </c>
       <c r="C496">
         <v>-5.2</v>
@@ -7374,7 +7374,7 @@
         <v>498</v>
       </c>
       <c r="B497">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="C497">
         <v>5.05</v>
@@ -7385,7 +7385,7 @@
         <v>499</v>
       </c>
       <c r="B498">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="C498">
         <v>0.39</v>
@@ -7407,7 +7407,7 @@
         <v>501</v>
       </c>
       <c r="B500">
-        <v>-3.22</v>
+        <v>-3.21</v>
       </c>
       <c r="C500">
         <v>-5.81</v>
@@ -7440,7 +7440,7 @@
         <v>504</v>
       </c>
       <c r="B503">
-        <v>-3.92</v>
+        <v>-3.91</v>
       </c>
       <c r="C503">
         <v>-1.5</v>
@@ -7451,7 +7451,7 @@
         <v>505</v>
       </c>
       <c r="B504">
-        <v>-2.61</v>
+        <v>-2.62</v>
       </c>
       <c r="C504">
         <v>-3.45</v>
@@ -7473,7 +7473,7 @@
         <v>507</v>
       </c>
       <c r="B506">
-        <v>-1.45</v>
+        <v>-1.43</v>
       </c>
       <c r="C506">
         <v>-1.13</v>
@@ -7495,7 +7495,7 @@
         <v>509</v>
       </c>
       <c r="B508">
-        <v>-6.65</v>
+        <v>-6.64</v>
       </c>
       <c r="C508">
         <v>-5.51</v>

--- a/data/merged_scores.xlsx
+++ b/data/merged_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="518">
   <si>
     <t>Player_Name</t>
   </si>
@@ -286,6 +286,9 @@
     <t>Christian Braun</t>
   </si>
   <si>
+    <t>Christian Koloko</t>
+  </si>
+  <si>
     <t>Christian Wood</t>
   </si>
   <si>
@@ -379,6 +382,9 @@
     <t>Darius Garland</t>
   </si>
   <si>
+    <t>David Duke Jr.</t>
+  </si>
+  <si>
     <t>David Jones</t>
   </si>
   <si>
@@ -571,6 +577,9 @@
     <t>Harrison Barnes</t>
   </si>
   <si>
+    <t>Harrison Ingram</t>
+  </si>
+  <si>
     <t>Haywood Highsmith</t>
   </si>
   <si>
@@ -622,6 +631,9 @@
     <t>Jabari Walker</t>
   </si>
   <si>
+    <t>Jack McVeigh</t>
+  </si>
+  <si>
     <t>Jacob Toppin</t>
   </si>
   <si>
@@ -1075,6 +1087,9 @@
     <t>Mark Williams</t>
   </si>
   <si>
+    <t>Markieff Morris</t>
+  </si>
+  <si>
     <t>Marvin Bagley III</t>
   </si>
   <si>
@@ -1295,6 +1310,9 @@
   </si>
   <si>
     <t>Ricky Council IV</t>
+  </si>
+  <si>
+    <t>Riley Minix</t>
   </si>
   <si>
     <t>Rob Dillingham</t>
@@ -1907,7 +1925,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C510"/>
+  <dimension ref="A1:C516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1929,7 +1947,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-9.44</v>
+        <v>-9.449999999999999</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1940,10 +1958,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-7.39</v>
+        <v>-7.4</v>
       </c>
       <c r="C3">
-        <v>-3.29</v>
+        <v>-3.22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1951,7 +1969,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-9.119999999999999</v>
+        <v>-9.130000000000001</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1965,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-8.039999999999999</v>
+        <v>-8.050000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1973,10 +1991,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.65</v>
+        <v>1.18</v>
       </c>
       <c r="C6">
-        <v>3.03</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1987,7 +2005,7 @@
         <v>-7.07</v>
       </c>
       <c r="C7">
-        <v>-4.76</v>
+        <v>-6.01</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1995,10 +2013,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-1.68</v>
+        <v>-1.7</v>
       </c>
       <c r="C8">
-        <v>-1.14</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2006,10 +2024,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-4.38</v>
+        <v>-4.39</v>
       </c>
       <c r="C9">
-        <v>0.62</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2020,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-6.33</v>
+        <v>-6.32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2028,7 +2046,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-9.01</v>
+        <v>-9.02</v>
       </c>
       <c r="C11">
         <v>-7.26</v>
@@ -2039,10 +2057,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>-6.7</v>
+        <v>-6.71</v>
       </c>
       <c r="C12">
-        <v>-6.76</v>
+        <v>-7.09</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2050,10 +2068,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>-8.85</v>
+        <v>-8.859999999999999</v>
       </c>
       <c r="C13">
-        <v>-4.69</v>
+        <v>-4.63</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2061,10 +2079,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>1.63</v>
+        <v>1.19</v>
       </c>
       <c r="C14">
-        <v>1.7</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2072,10 +2090,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>-4.36</v>
+        <v>-4.37</v>
       </c>
       <c r="C15">
-        <v>-2.07</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2083,10 +2101,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="C16">
-        <v>-2.38</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2097,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>-8.539999999999999</v>
+        <v>-8.56</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2105,10 +2123,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>-6.37</v>
+        <v>-6.38</v>
       </c>
       <c r="C18">
-        <v>-5.23</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2119,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>-6.67</v>
+        <v>-6.65</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2127,10 +2145,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="C20">
-        <v>2.62</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2138,10 +2156,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="C21">
-        <v>3.98</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2149,10 +2167,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="C22">
-        <v>-1.42</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2160,10 +2178,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>-5.49</v>
+        <v>-5.5</v>
       </c>
       <c r="C23">
-        <v>-2.48</v>
+        <v>-2.45</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2171,10 +2189,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.45</v>
+        <v>-0.46</v>
       </c>
       <c r="C24">
-        <v>-0.33</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2182,10 +2200,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>-6.33</v>
+        <v>-6.34</v>
       </c>
       <c r="C25">
-        <v>-5.04</v>
+        <v>-5.07</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2193,10 +2211,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>-1.27</v>
+        <v>-1.29</v>
       </c>
       <c r="C26">
-        <v>-2.7</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2204,10 +2222,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>-1.18</v>
+        <v>-1.2</v>
       </c>
       <c r="C27">
-        <v>1.46</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2215,10 +2233,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="C28">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2226,10 +2244,10 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>-3.44</v>
+        <v>-3.46</v>
       </c>
       <c r="C29">
-        <v>-1.78</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2237,10 +2255,10 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>14.09</v>
+        <v>14.07</v>
       </c>
       <c r="C30">
-        <v>11.63</v>
+        <v>11.87</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2248,10 +2266,10 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>6.95</v>
+        <v>6.93</v>
       </c>
       <c r="C31">
-        <v>4.41</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2262,7 +2280,7 @@
         <v>-8.109999999999999</v>
       </c>
       <c r="C32">
-        <v>-7.31</v>
+        <v>-7.33</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2273,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>-8.49</v>
+        <v>-8.52</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2281,10 +2299,10 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>-7.54</v>
+        <v>-7.55</v>
       </c>
       <c r="C34">
-        <v>-5.58</v>
+        <v>-5.57</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2292,7 +2310,7 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2303,10 +2321,10 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="C36">
-        <v>4.07</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2314,10 +2332,10 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>-1.97</v>
+        <v>-1.99</v>
       </c>
       <c r="C37">
-        <v>-0.77</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2325,10 +2343,10 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>4.91</v>
+        <v>4.88</v>
       </c>
       <c r="C38">
-        <v>2.42</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2336,10 +2354,10 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>-7.28</v>
+        <v>-7.29</v>
       </c>
       <c r="C39">
-        <v>-7.83</v>
+        <v>-7.84</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2347,10 +2365,10 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>-6.03</v>
+        <v>-6.04</v>
       </c>
       <c r="C40">
-        <v>-3.06</v>
+        <v>-3.05</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2358,10 +2376,10 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.36</v>
+        <v>-0.37</v>
       </c>
       <c r="C41">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2372,7 +2390,7 @@
         <v>-1.37</v>
       </c>
       <c r="C42">
-        <v>-0.76</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2380,10 +2398,10 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>2.92</v>
+        <v>2.89</v>
       </c>
       <c r="C43">
-        <v>3.29</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2391,10 +2409,10 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>-7.81</v>
+        <v>-7.82</v>
       </c>
       <c r="C44">
-        <v>-7.58</v>
+        <v>-7.52</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2402,10 +2420,10 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="C45">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2413,7 +2431,7 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>-6.14</v>
+        <v>-6.15</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2424,10 +2442,10 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="C47">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2435,7 +2453,7 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>-2.44</v>
+        <v>-2.45</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2446,7 +2464,7 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>-5.34</v>
+        <v>-5.35</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2457,10 +2475,10 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>-3.43</v>
+        <v>-3.44</v>
       </c>
       <c r="C50">
-        <v>-5.28</v>
+        <v>-5.38</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2468,7 +2486,7 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>-9.17</v>
+        <v>-9.18</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2479,10 +2497,10 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>3.62</v>
+        <v>3.6</v>
       </c>
       <c r="C52">
-        <v>5.26</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2490,10 +2508,10 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="C53">
-        <v>-1.68</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2501,7 +2519,7 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>-4.2</v>
+        <v>-2.81</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2515,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>-0.62</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2523,10 +2541,10 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>-2.33</v>
+        <v>-2.35</v>
       </c>
       <c r="C56">
-        <v>-4.3</v>
+        <v>-4.44</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2534,10 +2552,10 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="C57">
-        <v>6.66</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2545,10 +2563,10 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="C58">
-        <v>-1.1</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2559,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>-9.300000000000001</v>
+        <v>-8.16</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2570,7 +2588,7 @@
         <v>-3.42</v>
       </c>
       <c r="C60">
-        <v>-4.51</v>
+        <v>-4.49</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2592,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>-7.35</v>
+        <v>-7.33</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2600,10 +2618,10 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="C63">
-        <v>3.42</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2611,7 +2629,7 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.36</v>
+        <v>-0.38</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2622,10 +2640,10 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>-4.67</v>
+        <v>-4.66</v>
       </c>
       <c r="C65">
-        <v>-4.05</v>
+        <v>-4.69</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2633,7 +2651,7 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>-9.34</v>
+        <v>-9.35</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2647,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2655,7 +2673,7 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>-9.84</v>
+        <v>-9.85</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2666,10 +2684,10 @@
         <v>70</v>
       </c>
       <c r="B69">
-        <v>0.35</v>
+        <v>2.24</v>
       </c>
       <c r="C69">
-        <v>6.7</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2677,10 +2695,10 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="C70">
-        <v>6.02</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2688,10 +2706,10 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>6.38</v>
+        <v>6.37</v>
       </c>
       <c r="C71">
-        <v>6.21</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2699,10 +2717,10 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>-7.62</v>
+        <v>-7.63</v>
       </c>
       <c r="C72">
-        <v>-7.64</v>
+        <v>-7.65</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2710,10 +2728,10 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>-1.01</v>
+        <v>-1.02</v>
       </c>
       <c r="C73">
-        <v>-3.56</v>
+        <v>-4.18</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2732,10 +2750,10 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>-5.48</v>
+        <v>-5.49</v>
       </c>
       <c r="C75">
-        <v>-6.38</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2746,7 +2764,7 @@
         <v>1.93</v>
       </c>
       <c r="C76">
-        <v>3.53</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2754,10 +2772,10 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>-4.5</v>
+        <v>-4.52</v>
       </c>
       <c r="C77">
-        <v>-7.51</v>
+        <v>-7.28</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2765,10 +2783,10 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="C78">
-        <v>2.37</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2776,10 +2794,10 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>-5.35</v>
+        <v>-5.36</v>
       </c>
       <c r="C79">
-        <v>-4.16</v>
+        <v>-4.18</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2787,10 +2805,10 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>-1.31</v>
+        <v>-1.33</v>
       </c>
       <c r="C80">
-        <v>1.27</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2798,7 +2816,7 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>-3.34</v>
+        <v>-3.35</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2809,10 +2827,10 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>-2.2</v>
+        <v>-2.22</v>
       </c>
       <c r="C82">
-        <v>-0.39</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2820,10 +2838,10 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>-5.49</v>
+        <v>-5.5</v>
       </c>
       <c r="C83">
-        <v>-6.63</v>
+        <v>-5.17</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2831,10 +2849,10 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>8.19</v>
+        <v>8.16</v>
       </c>
       <c r="C84">
-        <v>8.52</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2842,10 +2860,10 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>-4.99</v>
+        <v>-5</v>
       </c>
       <c r="C85">
-        <v>-1.62</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2853,10 +2871,10 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>-6.46</v>
+        <v>-6.47</v>
       </c>
       <c r="C86">
-        <v>-5.7</v>
+        <v>-6.06</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2864,10 +2882,10 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="C87">
-        <v>4.98</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2875,10 +2893,10 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.88</v>
+        <v>-0.9</v>
       </c>
       <c r="C88">
-        <v>2.91</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2886,10 +2904,10 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>-2.99</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>-4.96</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2897,7 +2915,7 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>-9.359999999999999</v>
+        <v>-3</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2908,10 +2926,10 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>0.85</v>
+        <v>-9.369999999999999</v>
       </c>
       <c r="C91">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2919,10 +2937,10 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>2.29</v>
+        <v>0.82</v>
       </c>
       <c r="C92">
-        <v>4.58</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2930,10 +2948,10 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>-4.15</v>
+        <v>2.28</v>
       </c>
       <c r="C93">
-        <v>-0.31</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2941,10 +2959,10 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>-6.75</v>
+        <v>-4.16</v>
       </c>
       <c r="C94">
-        <v>-6.08</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2952,10 +2970,10 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>-9.18</v>
+        <v>-6.77</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>-6.14</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2963,10 +2981,10 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>-9.039999999999999</v>
+        <v>-9.19</v>
       </c>
       <c r="C96">
-        <v>-7.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2974,10 +2992,10 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>-3.46</v>
+        <v>-9.039999999999999</v>
       </c>
       <c r="C97">
-        <v>-5.86</v>
+        <v>-7.45</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2985,10 +3003,10 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>-3.46</v>
       </c>
       <c r="C98">
-        <v>-7.05</v>
+        <v>-5.93</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2996,10 +3014,10 @@
         <v>100</v>
       </c>
       <c r="B99">
-        <v>-8.949999999999999</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>-6.6</v>
+        <v>-7.45</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3007,10 +3025,10 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>1.49</v>
+        <v>-8.960000000000001</v>
       </c>
       <c r="C100">
-        <v>0.64</v>
+        <v>-6.59</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3018,10 +3036,10 @@
         <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.57</v>
+        <v>1.48</v>
       </c>
       <c r="C101">
-        <v>-3.33</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3029,10 +3047,10 @@
         <v>103</v>
       </c>
       <c r="B102">
-        <v>-7.35</v>
+        <v>-0.59</v>
       </c>
       <c r="C102">
-        <v>-6.53</v>
+        <v>-3.32</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3040,10 +3058,10 @@
         <v>104</v>
       </c>
       <c r="B103">
-        <v>-5.59</v>
+        <v>-7.35</v>
       </c>
       <c r="C103">
-        <v>-6.63</v>
+        <v>-6.53</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3051,10 +3069,10 @@
         <v>105</v>
       </c>
       <c r="B104">
-        <v>2.69</v>
+        <v>-5.6</v>
       </c>
       <c r="C104">
-        <v>0.53</v>
+        <v>-5.61</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3062,10 +3080,10 @@
         <v>106</v>
       </c>
       <c r="B105">
-        <v>-9.140000000000001</v>
+        <v>2.67</v>
       </c>
       <c r="C105">
-        <v>-6.89</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3073,10 +3091,10 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>-7.45</v>
+        <v>-9.140000000000001</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>-6.92</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3084,7 +3102,7 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>-9.539999999999999</v>
+        <v>-7.46</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -3095,10 +3113,10 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>-7.01</v>
+        <v>-9.550000000000001</v>
       </c>
       <c r="C108">
-        <v>-2.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3106,10 +3124,10 @@
         <v>110</v>
       </c>
       <c r="B109">
-        <v>-8</v>
+        <v>-7.01</v>
       </c>
       <c r="C109">
-        <v>-6.23</v>
+        <v>-2.93</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3117,10 +3135,10 @@
         <v>111</v>
       </c>
       <c r="B110">
-        <v>-4.83</v>
+        <v>-8.01</v>
       </c>
       <c r="C110">
-        <v>-3.73</v>
+        <v>-5.45</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3128,10 +3146,10 @@
         <v>112</v>
       </c>
       <c r="B111">
-        <v>9.130000000000001</v>
+        <v>-4.84</v>
       </c>
       <c r="C111">
-        <v>8.039999999999999</v>
+        <v>-3.94</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3139,10 +3157,10 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>-4.81</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="C112">
-        <v>-6.29</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3150,10 +3168,10 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>2.1</v>
+        <v>-4.82</v>
       </c>
       <c r="C113">
-        <v>0.28</v>
+        <v>-6.29</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3161,10 +3179,10 @@
         <v>115</v>
       </c>
       <c r="B114">
-        <v>-1.72</v>
+        <v>2.07</v>
       </c>
       <c r="C114">
-        <v>-2.57</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3172,10 +3190,10 @@
         <v>116</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>-1.73</v>
       </c>
       <c r="C115">
-        <v>-8.699999999999999</v>
+        <v>-3.35</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3183,10 +3201,10 @@
         <v>117</v>
       </c>
       <c r="B116">
-        <v>-4.98</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>-8.73</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3194,10 +3212,10 @@
         <v>118</v>
       </c>
       <c r="B117">
-        <v>-4.71</v>
+        <v>-4.99</v>
       </c>
       <c r="C117">
-        <v>-8.220000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3205,10 +3223,10 @@
         <v>119</v>
       </c>
       <c r="B118">
-        <v>-8.84</v>
+        <v>-4.72</v>
       </c>
       <c r="C118">
-        <v>-7.69</v>
+        <v>-8.27</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3216,10 +3234,10 @@
         <v>120</v>
       </c>
       <c r="B119">
-        <v>3.75</v>
+        <v>-8.85</v>
       </c>
       <c r="C119">
-        <v>6.68</v>
+        <v>-7.69</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3227,10 +3245,10 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>-7.23</v>
+        <v>3.73</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3238,10 +3256,10 @@
         <v>122</v>
       </c>
       <c r="B121">
-        <v>-9.390000000000001</v>
+        <v>0</v>
       </c>
       <c r="C121">
-        <v>1.01</v>
+        <v>-9.630000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3249,10 +3267,10 @@
         <v>123</v>
       </c>
       <c r="B122">
-        <v>-5.29</v>
+        <v>-7.23</v>
       </c>
       <c r="C122">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3260,10 +3278,10 @@
         <v>124</v>
       </c>
       <c r="B123">
-        <v>-2.52</v>
+        <v>-9.4</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3271,10 +3289,10 @@
         <v>125</v>
       </c>
       <c r="B124">
-        <v>5.22</v>
+        <v>-5.3</v>
       </c>
       <c r="C124">
-        <v>7.28</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3282,10 +3300,10 @@
         <v>126</v>
       </c>
       <c r="B125">
-        <v>-0.28</v>
+        <v>-2.54</v>
       </c>
       <c r="C125">
-        <v>4.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3293,10 +3311,10 @@
         <v>127</v>
       </c>
       <c r="B126">
-        <v>0.55</v>
+        <v>5.18</v>
       </c>
       <c r="C126">
-        <v>-2.58</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3304,10 +3322,10 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>-7.23</v>
+        <v>-0.28</v>
       </c>
       <c r="C127">
-        <v>-5.53</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3315,10 +3333,10 @@
         <v>129</v>
       </c>
       <c r="B128">
-        <v>5.03</v>
+        <v>0.53</v>
       </c>
       <c r="C128">
-        <v>7.99</v>
+        <v>-2.59</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3326,10 +3344,10 @@
         <v>130</v>
       </c>
       <c r="B129">
-        <v>-4.5</v>
+        <v>-7.25</v>
       </c>
       <c r="C129">
-        <v>-2.51</v>
+        <v>-5.49</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3337,10 +3355,10 @@
         <v>131</v>
       </c>
       <c r="B130">
-        <v>2.69</v>
+        <v>5.03</v>
       </c>
       <c r="C130">
-        <v>1.78</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3348,10 +3366,10 @@
         <v>132</v>
       </c>
       <c r="B131">
-        <v>3.86</v>
+        <v>-4.52</v>
       </c>
       <c r="C131">
-        <v>3.11</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3359,10 +3377,10 @@
         <v>133</v>
       </c>
       <c r="B132">
-        <v>-2.91</v>
+        <v>2.67</v>
       </c>
       <c r="C132">
-        <v>-5.65</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3370,10 +3388,10 @@
         <v>134</v>
       </c>
       <c r="B133">
-        <v>-0.6</v>
+        <v>3.84</v>
       </c>
       <c r="C133">
-        <v>1.22</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3381,10 +3399,10 @@
         <v>135</v>
       </c>
       <c r="B134">
-        <v>1.6</v>
+        <v>-2.92</v>
       </c>
       <c r="C134">
-        <v>6.37</v>
+        <v>-5.64</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3392,10 +3410,10 @@
         <v>136</v>
       </c>
       <c r="B135">
-        <v>2.47</v>
+        <v>-0.62</v>
       </c>
       <c r="C135">
-        <v>0.87</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3403,10 +3421,10 @@
         <v>137</v>
       </c>
       <c r="B136">
-        <v>-2.39</v>
+        <v>1.59</v>
       </c>
       <c r="C136">
-        <v>-0.88</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3414,10 +3432,10 @@
         <v>138</v>
       </c>
       <c r="B137">
-        <v>-6.94</v>
+        <v>2.43</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3425,10 +3443,10 @@
         <v>139</v>
       </c>
       <c r="B138">
-        <v>4.92</v>
+        <v>-2.41</v>
       </c>
       <c r="C138">
-        <v>6.71</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3436,10 +3454,10 @@
         <v>140</v>
       </c>
       <c r="B139">
-        <v>4.97</v>
+        <v>-6.94</v>
       </c>
       <c r="C139">
-        <v>4.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3447,10 +3465,10 @@
         <v>141</v>
       </c>
       <c r="B140">
-        <v>8</v>
+        <v>4.91</v>
       </c>
       <c r="C140">
-        <v>6.4</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3458,10 +3476,10 @@
         <v>142</v>
       </c>
       <c r="B141">
-        <v>-5.24</v>
+        <v>4.95</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3469,10 +3487,10 @@
         <v>143</v>
       </c>
       <c r="B142">
-        <v>2.52</v>
+        <v>7.99</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3480,7 +3498,7 @@
         <v>144</v>
       </c>
       <c r="B143">
-        <v>-7.19</v>
+        <v>-5.25</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3491,10 +3509,10 @@
         <v>145</v>
       </c>
       <c r="B144">
-        <v>-2.5</v>
+        <v>2.49</v>
       </c>
       <c r="C144">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3502,10 +3520,10 @@
         <v>146</v>
       </c>
       <c r="B145">
-        <v>-8.76</v>
+        <v>-7.2</v>
       </c>
       <c r="C145">
-        <v>-7.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3513,10 +3531,10 @@
         <v>147</v>
       </c>
       <c r="B146">
-        <v>7.91</v>
+        <v>-2.51</v>
       </c>
       <c r="C146">
-        <v>8.56</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3524,10 +3542,10 @@
         <v>148</v>
       </c>
       <c r="B147">
-        <v>-8.890000000000001</v>
+        <v>-8.76</v>
       </c>
       <c r="C147">
-        <v>-9.130000000000001</v>
+        <v>-7.49</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3535,10 +3553,10 @@
         <v>149</v>
       </c>
       <c r="B148">
-        <v>-1.07</v>
+        <v>7.87</v>
       </c>
       <c r="C148">
-        <v>-1.19</v>
+        <v>9.529999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3546,10 +3564,10 @@
         <v>150</v>
       </c>
       <c r="B149">
-        <v>7.95</v>
+        <v>-8.9</v>
       </c>
       <c r="C149">
-        <v>4.41</v>
+        <v>-9.18</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3557,10 +3575,10 @@
         <v>151</v>
       </c>
       <c r="B150">
-        <v>1.06</v>
+        <v>-1.09</v>
       </c>
       <c r="C150">
-        <v>-0.42</v>
+        <v>-1.12</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3568,10 +3586,10 @@
         <v>152</v>
       </c>
       <c r="B151">
-        <v>-2.99</v>
+        <v>7.93</v>
       </c>
       <c r="C151">
-        <v>0.79</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3579,10 +3597,10 @@
         <v>153</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="C152">
-        <v>-7.91</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3590,10 +3608,10 @@
         <v>154</v>
       </c>
       <c r="B153">
-        <v>2.44</v>
+        <v>-3.01</v>
       </c>
       <c r="C153">
-        <v>2.22</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3601,10 +3619,10 @@
         <v>155</v>
       </c>
       <c r="B154">
-        <v>-4.16</v>
+        <v>0</v>
       </c>
       <c r="C154">
-        <v>-3.2</v>
+        <v>-7.91</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3612,10 +3630,10 @@
         <v>156</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="C155">
-        <v>-5.28</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3623,10 +3641,10 @@
         <v>157</v>
       </c>
       <c r="B156">
-        <v>-6.76</v>
+        <v>-4.18</v>
       </c>
       <c r="C156">
-        <v>-5.32</v>
+        <v>-3.15</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3634,10 +3652,10 @@
         <v>158</v>
       </c>
       <c r="B157">
-        <v>-3.59</v>
+        <v>0</v>
       </c>
       <c r="C157">
-        <v>-5.45</v>
+        <v>-5.28</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3645,10 +3663,10 @@
         <v>159</v>
       </c>
       <c r="B158">
-        <v>-4.98</v>
+        <v>-6.77</v>
       </c>
       <c r="C158">
-        <v>-6.63</v>
+        <v>-5.31</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3656,10 +3674,10 @@
         <v>160</v>
       </c>
       <c r="B159">
-        <v>-5.95</v>
+        <v>-3.6</v>
       </c>
       <c r="C159">
-        <v>-7.35</v>
+        <v>-5.04</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3667,10 +3685,10 @@
         <v>161</v>
       </c>
       <c r="B160">
-        <v>0.16</v>
+        <v>-4.99</v>
       </c>
       <c r="C160">
-        <v>2.23</v>
+        <v>-6.63</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3678,10 +3696,10 @@
         <v>162</v>
       </c>
       <c r="B161">
-        <v>-8.44</v>
+        <v>-5.97</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>-5.99</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3689,10 +3707,10 @@
         <v>163</v>
       </c>
       <c r="B162">
-        <v>-9.699999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3700,10 +3718,10 @@
         <v>164</v>
       </c>
       <c r="B163">
-        <v>-6.9</v>
+        <v>-8.44</v>
       </c>
       <c r="C163">
-        <v>-5.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3711,10 +3729,10 @@
         <v>165</v>
       </c>
       <c r="B164">
-        <v>-1.89</v>
+        <v>-9.720000000000001</v>
       </c>
       <c r="C164">
-        <v>-4.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3722,10 +3740,10 @@
         <v>166</v>
       </c>
       <c r="B165">
-        <v>5.03</v>
+        <v>-6.91</v>
       </c>
       <c r="C165">
-        <v>6.37</v>
+        <v>-5.54</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3733,10 +3751,10 @@
         <v>167</v>
       </c>
       <c r="B166">
-        <v>4.21</v>
+        <v>-1.91</v>
       </c>
       <c r="C166">
-        <v>3.42</v>
+        <v>-5.06</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3744,10 +3762,10 @@
         <v>168</v>
       </c>
       <c r="B167">
-        <v>5.29</v>
+        <v>5</v>
       </c>
       <c r="C167">
-        <v>1.96</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3755,10 +3773,10 @@
         <v>169</v>
       </c>
       <c r="B168">
-        <v>-3.51</v>
+        <v>4.2</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3766,10 +3784,10 @@
         <v>170</v>
       </c>
       <c r="B169">
-        <v>-4.04</v>
+        <v>5.27</v>
       </c>
       <c r="C169">
-        <v>-6.26</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3777,10 +3795,10 @@
         <v>171</v>
       </c>
       <c r="B170">
-        <v>-7.89</v>
+        <v>-3.53</v>
       </c>
       <c r="C170">
-        <v>-6.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3788,10 +3806,10 @@
         <v>172</v>
       </c>
       <c r="B171">
-        <v>-5.33</v>
+        <v>-4.05</v>
       </c>
       <c r="C171">
-        <v>0.73</v>
+        <v>-6.75</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3799,10 +3817,10 @@
         <v>173</v>
       </c>
       <c r="B172">
-        <v>-5.09</v>
+        <v>-7.89</v>
       </c>
       <c r="C172">
-        <v>-5.28</v>
+        <v>-6.45</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3810,10 +3828,10 @@
         <v>174</v>
       </c>
       <c r="B173">
-        <v>-4.04</v>
+        <v>-5.34</v>
       </c>
       <c r="C173">
-        <v>-2.87</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3821,10 +3839,10 @@
         <v>175</v>
       </c>
       <c r="B174">
-        <v>-1.27</v>
+        <v>-5.1</v>
       </c>
       <c r="C174">
-        <v>-4.12</v>
+        <v>-5.28</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3832,10 +3850,10 @@
         <v>176</v>
       </c>
       <c r="B175">
-        <v>-3.88</v>
+        <v>-4.05</v>
       </c>
       <c r="C175">
-        <v>-3.48</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3843,10 +3861,10 @@
         <v>177</v>
       </c>
       <c r="B176">
-        <v>12.67</v>
+        <v>-1.29</v>
       </c>
       <c r="C176">
-        <v>8.140000000000001</v>
+        <v>-4.06</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3854,10 +3872,10 @@
         <v>178</v>
       </c>
       <c r="B177">
-        <v>-3.96</v>
+        <v>-3.9</v>
       </c>
       <c r="C177">
-        <v>-4.41</v>
+        <v>-3.44</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3865,10 +3883,10 @@
         <v>179</v>
       </c>
       <c r="B178">
-        <v>-2.76</v>
+        <v>12.63</v>
       </c>
       <c r="C178">
-        <v>5.06</v>
+        <v>8.42</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3876,10 +3894,10 @@
         <v>180</v>
       </c>
       <c r="B179">
-        <v>-2.81</v>
+        <v>-3.98</v>
       </c>
       <c r="C179">
-        <v>-0.2</v>
+        <v>-2.23</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3887,10 +3905,10 @@
         <v>181</v>
       </c>
       <c r="B180">
-        <v>0.2</v>
+        <v>-2.77</v>
       </c>
       <c r="C180">
-        <v>0.12</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3898,10 +3916,10 @@
         <v>182</v>
       </c>
       <c r="B181">
-        <v>-5.55</v>
+        <v>-2.83</v>
       </c>
       <c r="C181">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3909,10 +3927,10 @@
         <v>183</v>
       </c>
       <c r="B182">
-        <v>-8.42</v>
+        <v>0.19</v>
       </c>
       <c r="C182">
-        <v>-7.72</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3920,10 +3938,10 @@
         <v>184</v>
       </c>
       <c r="B183">
-        <v>-2.33</v>
+        <v>-5.56</v>
       </c>
       <c r="C183">
-        <v>-0.85</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3931,10 +3949,10 @@
         <v>185</v>
       </c>
       <c r="B184">
-        <v>-5.53</v>
+        <v>-8.43</v>
       </c>
       <c r="C184">
-        <v>-3.83</v>
+        <v>-7.74</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3942,10 +3960,10 @@
         <v>186</v>
       </c>
       <c r="B185">
-        <v>1.98</v>
+        <v>-2.34</v>
       </c>
       <c r="C185">
-        <v>-1.66</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3953,10 +3971,10 @@
         <v>187</v>
       </c>
       <c r="B186">
-        <v>-7.35</v>
+        <v>0</v>
       </c>
       <c r="C186">
-        <v>-5.22</v>
+        <v>-8.369999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3964,10 +3982,10 @@
         <v>188</v>
       </c>
       <c r="B187">
-        <v>4.26</v>
+        <v>-5.54</v>
       </c>
       <c r="C187">
-        <v>-0.51</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3975,10 +3993,10 @@
         <v>189</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="C188">
-        <v>-8.369999999999999</v>
+        <v>-1.66</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3986,10 +4004,10 @@
         <v>190</v>
       </c>
       <c r="B189">
-        <v>-4.22</v>
+        <v>-7.35</v>
       </c>
       <c r="C189">
-        <v>-3.26</v>
+        <v>-5.22</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3997,10 +4015,10 @@
         <v>191</v>
       </c>
       <c r="B190">
-        <v>-7.08</v>
+        <v>4.25</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4008,10 +4026,10 @@
         <v>192</v>
       </c>
       <c r="B191">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>-8.51</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4019,10 +4037,10 @@
         <v>193</v>
       </c>
       <c r="B192">
-        <v>-1.85</v>
+        <v>-4.24</v>
       </c>
       <c r="C192">
-        <v>-1.43</v>
+        <v>-3.14</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4030,10 +4048,10 @@
         <v>194</v>
       </c>
       <c r="B193">
-        <v>-3.61</v>
+        <v>-7.1</v>
       </c>
       <c r="C193">
-        <v>-2.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4041,10 +4059,10 @@
         <v>195</v>
       </c>
       <c r="B194">
-        <v>-3.75</v>
+        <v>2.53</v>
       </c>
       <c r="C194">
-        <v>0.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4052,10 +4070,10 @@
         <v>196</v>
       </c>
       <c r="B195">
-        <v>2.85</v>
+        <v>-1.87</v>
       </c>
       <c r="C195">
-        <v>2.21</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4063,10 +4081,10 @@
         <v>197</v>
       </c>
       <c r="B196">
-        <v>-8.83</v>
+        <v>-3.62</v>
       </c>
       <c r="C196">
-        <v>-8.08</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4074,10 +4092,10 @@
         <v>198</v>
       </c>
       <c r="B197">
-        <v>5.35</v>
+        <v>-3.76</v>
       </c>
       <c r="C197">
-        <v>4.34</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4085,10 +4103,10 @@
         <v>199</v>
       </c>
       <c r="B198">
-        <v>-8.279999999999999</v>
+        <v>2.82</v>
       </c>
       <c r="C198">
-        <v>-7.91</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4096,10 +4114,10 @@
         <v>200</v>
       </c>
       <c r="B199">
-        <v>2.29</v>
+        <v>-8.84</v>
       </c>
       <c r="C199">
-        <v>-0.26</v>
+        <v>-8.119999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4107,10 +4125,10 @@
         <v>201</v>
       </c>
       <c r="B200">
-        <v>-5.68</v>
+        <v>5.34</v>
       </c>
       <c r="C200">
-        <v>-5.76</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4118,10 +4136,10 @@
         <v>202</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>-8.289999999999999</v>
       </c>
       <c r="C201">
-        <v>-7.67</v>
+        <v>-7.79</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4129,10 +4147,10 @@
         <v>203</v>
       </c>
       <c r="B202">
-        <v>-6.05</v>
+        <v>2.28</v>
       </c>
       <c r="C202">
-        <v>-5.89</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4140,10 +4158,10 @@
         <v>204</v>
       </c>
       <c r="B203">
-        <v>0.53</v>
+        <v>-5.69</v>
       </c>
       <c r="C203">
-        <v>2.05</v>
+        <v>-5.75</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4151,10 +4169,10 @@
         <v>205</v>
       </c>
       <c r="B204">
-        <v>-1.78</v>
+        <v>0</v>
       </c>
       <c r="C204">
-        <v>-1.92</v>
+        <v>-10.05</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4162,10 +4180,10 @@
         <v>206</v>
       </c>
       <c r="B205">
-        <v>-5.4</v>
+        <v>0</v>
       </c>
       <c r="C205">
-        <v>-7.39</v>
+        <v>-7.68</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4173,10 +4191,10 @@
         <v>207</v>
       </c>
       <c r="B206">
-        <v>0</v>
+        <v>-6.06</v>
       </c>
       <c r="C206">
-        <v>-7.19</v>
+        <v>-5.83</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4184,10 +4202,10 @@
         <v>208</v>
       </c>
       <c r="B207">
-        <v>-0.92</v>
+        <v>0.5</v>
       </c>
       <c r="C207">
-        <v>-3.27</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4195,10 +4213,10 @@
         <v>209</v>
       </c>
       <c r="B208">
-        <v>-5.99</v>
+        <v>-1.8</v>
       </c>
       <c r="C208">
-        <v>-2.94</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4206,10 +4224,10 @@
         <v>210</v>
       </c>
       <c r="B209">
-        <v>2.76</v>
+        <v>-5.41</v>
       </c>
       <c r="C209">
-        <v>5.59</v>
+        <v>-7.43</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4217,10 +4235,10 @@
         <v>211</v>
       </c>
       <c r="B210">
-        <v>5.91</v>
+        <v>0</v>
       </c>
       <c r="C210">
-        <v>3.26</v>
+        <v>-8.199999999999999</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4228,10 +4246,10 @@
         <v>212</v>
       </c>
       <c r="B211">
-        <v>2.19</v>
+        <v>-0.93</v>
       </c>
       <c r="C211">
-        <v>2.46</v>
+        <v>-3.32</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4239,10 +4257,10 @@
         <v>213</v>
       </c>
       <c r="B212">
-        <v>1.87</v>
+        <v>-6</v>
       </c>
       <c r="C212">
-        <v>2.9</v>
+        <v>-2.44</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4250,10 +4268,10 @@
         <v>214</v>
       </c>
       <c r="B213">
-        <v>-11.53</v>
+        <v>2.74</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4261,10 +4279,10 @@
         <v>215</v>
       </c>
       <c r="B214">
-        <v>5.31</v>
+        <v>5.89</v>
       </c>
       <c r="C214">
-        <v>3.98</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4272,10 +4290,10 @@
         <v>216</v>
       </c>
       <c r="B215">
-        <v>-7.07</v>
+        <v>2.16</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4283,10 +4301,10 @@
         <v>217</v>
       </c>
       <c r="B216">
-        <v>-9.050000000000001</v>
+        <v>1.85</v>
       </c>
       <c r="C216">
-        <v>-8.369999999999999</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4294,10 +4312,10 @@
         <v>218</v>
       </c>
       <c r="B217">
-        <v>-3.24</v>
+        <v>-11.53</v>
       </c>
       <c r="C217">
-        <v>-2.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4305,10 +4323,10 @@
         <v>219</v>
       </c>
       <c r="B218">
-        <v>5.54</v>
+        <v>5.28</v>
       </c>
       <c r="C218">
-        <v>7.18</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4316,10 +4334,10 @@
         <v>220</v>
       </c>
       <c r="B219">
-        <v>5.42</v>
+        <v>-7.08</v>
       </c>
       <c r="C219">
-        <v>4.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4327,10 +4345,10 @@
         <v>221</v>
       </c>
       <c r="B220">
-        <v>-7.14</v>
+        <v>-9.06</v>
       </c>
       <c r="C220">
-        <v>-2.54</v>
+        <v>-8.390000000000001</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4338,10 +4356,10 @@
         <v>222</v>
       </c>
       <c r="B221">
-        <v>-6.72</v>
+        <v>-3.25</v>
       </c>
       <c r="C221">
-        <v>-4.99</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4349,10 +4367,10 @@
         <v>223</v>
       </c>
       <c r="B222">
-        <v>2.85</v>
+        <v>5.51</v>
       </c>
       <c r="C222">
-        <v>1.12</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4360,10 +4378,10 @@
         <v>224</v>
       </c>
       <c r="B223">
-        <v>-8</v>
+        <v>5.39</v>
       </c>
       <c r="C223">
-        <v>-2.91</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4371,10 +4389,10 @@
         <v>225</v>
       </c>
       <c r="B224">
-        <v>11.03</v>
+        <v>-7.15</v>
       </c>
       <c r="C224">
-        <v>9.869999999999999</v>
+        <v>-2.49</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4382,10 +4400,10 @@
         <v>226</v>
       </c>
       <c r="B225">
-        <v>0</v>
+        <v>-6.73</v>
       </c>
       <c r="C225">
-        <v>-4.55</v>
+        <v>-5.46</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4393,10 +4411,10 @@
         <v>227</v>
       </c>
       <c r="B226">
-        <v>-6.75</v>
+        <v>2.84</v>
       </c>
       <c r="C226">
-        <v>-5.41</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4404,10 +4422,10 @@
         <v>228</v>
       </c>
       <c r="B227">
-        <v>-5.4</v>
+        <v>-8</v>
       </c>
       <c r="C227">
-        <v>-4.23</v>
+        <v>-3.11</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4415,10 +4433,10 @@
         <v>229</v>
       </c>
       <c r="B228">
-        <v>-4.51</v>
+        <v>11.04</v>
       </c>
       <c r="C228">
-        <v>-4.59</v>
+        <v>9.609999999999999</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4426,10 +4444,10 @@
         <v>230</v>
       </c>
       <c r="B229">
-        <v>-5.45</v>
+        <v>0</v>
       </c>
       <c r="C229">
-        <v>-3.87</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4437,10 +4455,10 @@
         <v>231</v>
       </c>
       <c r="B230">
-        <v>-8.18</v>
+        <v>-6.77</v>
       </c>
       <c r="C230">
-        <v>-4.21</v>
+        <v>-5.36</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4448,10 +4466,10 @@
         <v>232</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>-5.42</v>
       </c>
       <c r="C231">
-        <v>-3.77</v>
+        <v>-4.25</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4459,10 +4477,10 @@
         <v>233</v>
       </c>
       <c r="B232">
-        <v>5.01</v>
+        <v>-4.51</v>
       </c>
       <c r="C232">
-        <v>3.49</v>
+        <v>-2.82</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4470,10 +4488,10 @@
         <v>234</v>
       </c>
       <c r="B233">
-        <v>-1.18</v>
+        <v>-5.47</v>
       </c>
       <c r="C233">
-        <v>0</v>
+        <v>-3.85</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4481,10 +4499,10 @@
         <v>235</v>
       </c>
       <c r="B234">
-        <v>3.58</v>
+        <v>-8.18</v>
       </c>
       <c r="C234">
-        <v>5.35</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4492,10 +4510,10 @@
         <v>236</v>
       </c>
       <c r="B235">
-        <v>-8.34</v>
+        <v>0</v>
       </c>
       <c r="C235">
-        <v>0</v>
+        <v>-3.77</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4503,10 +4521,10 @@
         <v>237</v>
       </c>
       <c r="B236">
-        <v>-0.5</v>
+        <v>4.99</v>
       </c>
       <c r="C236">
-        <v>-1.21</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4514,10 +4532,10 @@
         <v>238</v>
       </c>
       <c r="B237">
-        <v>-5.57</v>
+        <v>-1.2</v>
       </c>
       <c r="C237">
-        <v>-2.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4525,10 +4543,10 @@
         <v>239</v>
       </c>
       <c r="B238">
-        <v>-0.92</v>
+        <v>3.55</v>
       </c>
       <c r="C238">
-        <v>1.2</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4536,10 +4554,10 @@
         <v>240</v>
       </c>
       <c r="B239">
-        <v>3.73</v>
+        <v>-8.35</v>
       </c>
       <c r="C239">
-        <v>4.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4547,10 +4565,10 @@
         <v>241</v>
       </c>
       <c r="B240">
-        <v>0</v>
+        <v>-0.51</v>
       </c>
       <c r="C240">
-        <v>-6.99</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4558,10 +4576,10 @@
         <v>242</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>-5.58</v>
       </c>
       <c r="C241">
-        <v>-6.8</v>
+        <v>-2.14</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4569,10 +4587,10 @@
         <v>243</v>
       </c>
       <c r="B242">
-        <v>-5.41</v>
+        <v>-0.93</v>
       </c>
       <c r="C242">
-        <v>-3.61</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4580,10 +4598,10 @@
         <v>244</v>
       </c>
       <c r="B243">
-        <v>-5.23</v>
+        <v>3.69</v>
       </c>
       <c r="C243">
-        <v>0</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4591,10 +4609,10 @@
         <v>245</v>
       </c>
       <c r="B244">
-        <v>-6.28</v>
+        <v>0</v>
       </c>
       <c r="C244">
-        <v>-7.09</v>
+        <v>-6.98</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4602,10 +4620,10 @@
         <v>246</v>
       </c>
       <c r="B245">
-        <v>9.15</v>
+        <v>0</v>
       </c>
       <c r="C245">
-        <v>9.93</v>
+        <v>-6.85</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4613,10 +4631,10 @@
         <v>247</v>
       </c>
       <c r="B246">
-        <v>0</v>
+        <v>-5.42</v>
       </c>
       <c r="C246">
-        <v>-8.039999999999999</v>
+        <v>-3.01</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4624,10 +4642,10 @@
         <v>248</v>
       </c>
       <c r="B247">
-        <v>0</v>
+        <v>-5.24</v>
       </c>
       <c r="C247">
-        <v>-8.369999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4635,10 +4653,10 @@
         <v>249</v>
       </c>
       <c r="B248">
-        <v>-7.51</v>
+        <v>-6.29</v>
       </c>
       <c r="C248">
-        <v>-7.54</v>
+        <v>-7.1</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4646,10 +4664,10 @@
         <v>250</v>
       </c>
       <c r="B249">
-        <v>1.66</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="C249">
-        <v>3.04</v>
+        <v>9.960000000000001</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4657,10 +4675,10 @@
         <v>251</v>
       </c>
       <c r="B250">
-        <v>-6.62</v>
+        <v>0</v>
       </c>
       <c r="C250">
-        <v>-3.79</v>
+        <v>-6.98</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4668,10 +4686,10 @@
         <v>252</v>
       </c>
       <c r="B251">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="C251">
-        <v>0.99</v>
+        <v>-8.390000000000001</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4679,10 +4697,10 @@
         <v>253</v>
       </c>
       <c r="B252">
-        <v>-4.78</v>
+        <v>-7.52</v>
       </c>
       <c r="C252">
-        <v>-4.95</v>
+        <v>-5.11</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4690,10 +4708,10 @@
         <v>254</v>
       </c>
       <c r="B253">
-        <v>-8.85</v>
+        <v>1.64</v>
       </c>
       <c r="C253">
-        <v>-5.2</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4701,10 +4719,10 @@
         <v>255</v>
       </c>
       <c r="B254">
-        <v>-7.28</v>
+        <v>-6.62</v>
       </c>
       <c r="C254">
-        <v>-6.35</v>
+        <v>-3.74</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4712,10 +4730,10 @@
         <v>256</v>
       </c>
       <c r="B255">
-        <v>5.69</v>
+        <v>0.5</v>
       </c>
       <c r="C255">
-        <v>1.87</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4723,10 +4741,10 @@
         <v>257</v>
       </c>
       <c r="B256">
-        <v>-5.64</v>
+        <v>-4.79</v>
       </c>
       <c r="C256">
-        <v>-4.9</v>
+        <v>-5.81</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4734,10 +4752,10 @@
         <v>258</v>
       </c>
       <c r="B257">
-        <v>-5.28</v>
+        <v>-8.859999999999999</v>
       </c>
       <c r="C257">
-        <v>-7.37</v>
+        <v>-5.85</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4745,10 +4763,10 @@
         <v>259</v>
       </c>
       <c r="B258">
-        <v>12.46</v>
+        <v>-7.29</v>
       </c>
       <c r="C258">
-        <v>0</v>
+        <v>-5.27</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4756,10 +4774,10 @@
         <v>260</v>
       </c>
       <c r="B259">
-        <v>1.06</v>
+        <v>5.69</v>
       </c>
       <c r="C259">
-        <v>4.99</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4767,10 +4785,10 @@
         <v>261</v>
       </c>
       <c r="B260">
-        <v>-2.69</v>
+        <v>-5.64</v>
       </c>
       <c r="C260">
-        <v>-0.8100000000000001</v>
+        <v>-4.43</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4778,10 +4796,10 @@
         <v>262</v>
       </c>
       <c r="B261">
-        <v>-8.4</v>
+        <v>-5.29</v>
       </c>
       <c r="C261">
-        <v>-6.11</v>
+        <v>-7.38</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4789,10 +4807,10 @@
         <v>263</v>
       </c>
       <c r="B262">
-        <v>-5.94</v>
+        <v>12.47</v>
       </c>
       <c r="C262">
-        <v>-10.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4800,10 +4818,10 @@
         <v>264</v>
       </c>
       <c r="B263">
-        <v>-7.47</v>
+        <v>1.04</v>
       </c>
       <c r="C263">
-        <v>-3.37</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4811,10 +4829,10 @@
         <v>265</v>
       </c>
       <c r="B264">
-        <v>0.26</v>
+        <v>-2.7</v>
       </c>
       <c r="C264">
-        <v>1.29</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4822,10 +4840,10 @@
         <v>266</v>
       </c>
       <c r="B265">
-        <v>-1.13</v>
+        <v>-8.4</v>
       </c>
       <c r="C265">
-        <v>-3.67</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4833,10 +4851,10 @@
         <v>267</v>
       </c>
       <c r="B266">
-        <v>0.7</v>
+        <v>-5.95</v>
       </c>
       <c r="C266">
-        <v>-2.91</v>
+        <v>-10.05</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4844,10 +4862,10 @@
         <v>268</v>
       </c>
       <c r="B267">
-        <v>-3.99</v>
+        <v>-7.48</v>
       </c>
       <c r="C267">
-        <v>-1.31</v>
+        <v>-3.33</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4855,10 +4873,10 @@
         <v>269</v>
       </c>
       <c r="B268">
-        <v>-0.6899999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="C268">
-        <v>-3.43</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4866,10 +4884,10 @@
         <v>270</v>
       </c>
       <c r="B269">
-        <v>-3.55</v>
+        <v>-1.15</v>
       </c>
       <c r="C269">
-        <v>0.55</v>
+        <v>-3.46</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4877,10 +4895,10 @@
         <v>271</v>
       </c>
       <c r="B270">
-        <v>-5.78</v>
+        <v>0.67</v>
       </c>
       <c r="C270">
-        <v>-6.33</v>
+        <v>-2.93</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4888,10 +4906,10 @@
         <v>272</v>
       </c>
       <c r="B271">
-        <v>0</v>
+        <v>-4.01</v>
       </c>
       <c r="C271">
-        <v>-9.56</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4899,10 +4917,10 @@
         <v>273</v>
       </c>
       <c r="B272">
-        <v>3.16</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="C272">
-        <v>10.5</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4910,10 +4928,10 @@
         <v>274</v>
       </c>
       <c r="B273">
-        <v>-7.1</v>
+        <v>-3.56</v>
       </c>
       <c r="C273">
-        <v>-6.73</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4921,10 +4939,10 @@
         <v>275</v>
       </c>
       <c r="B274">
-        <v>-2.46</v>
+        <v>-5.79</v>
       </c>
       <c r="C274">
-        <v>0.38</v>
+        <v>-6.9</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4932,10 +4950,10 @@
         <v>276</v>
       </c>
       <c r="B275">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="C275">
-        <v>0.1</v>
+        <v>-9.18</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4943,10 +4961,10 @@
         <v>277</v>
       </c>
       <c r="B276">
-        <v>-2.17</v>
+        <v>3.15</v>
       </c>
       <c r="C276">
-        <v>-2.52</v>
+        <v>10.65</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4954,10 +4972,10 @@
         <v>278</v>
       </c>
       <c r="B277">
-        <v>1.49</v>
+        <v>-7.11</v>
       </c>
       <c r="C277">
-        <v>4.02</v>
+        <v>-6.64</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4965,10 +4983,10 @@
         <v>279</v>
       </c>
       <c r="B278">
-        <v>-4.66</v>
+        <v>-1.04</v>
       </c>
       <c r="C278">
-        <v>-6.92</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4976,10 +4994,10 @@
         <v>280</v>
       </c>
       <c r="B279">
-        <v>-5.39</v>
+        <v>2.83</v>
       </c>
       <c r="C279">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4987,10 +5005,10 @@
         <v>281</v>
       </c>
       <c r="B280">
-        <v>-1.48</v>
+        <v>-2.19</v>
       </c>
       <c r="C280">
-        <v>-7.16</v>
+        <v>-3.65</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4998,10 +5016,10 @@
         <v>282</v>
       </c>
       <c r="B281">
-        <v>2.65</v>
+        <v>1.47</v>
       </c>
       <c r="C281">
-        <v>0.38</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5009,10 +5027,10 @@
         <v>283</v>
       </c>
       <c r="B282">
-        <v>-8.130000000000001</v>
+        <v>-4.66</v>
       </c>
       <c r="C282">
-        <v>0</v>
+        <v>-6.94</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5020,10 +5038,10 @@
         <v>284</v>
       </c>
       <c r="B283">
-        <v>-2.22</v>
+        <v>-5.4</v>
       </c>
       <c r="C283">
-        <v>0.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5031,10 +5049,10 @@
         <v>285</v>
       </c>
       <c r="B284">
-        <v>-6.74</v>
+        <v>-1.49</v>
       </c>
       <c r="C284">
-        <v>-4.94</v>
+        <v>-7.17</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5042,10 +5060,10 @@
         <v>286</v>
       </c>
       <c r="B285">
-        <v>-2.82</v>
+        <v>2.62</v>
       </c>
       <c r="C285">
-        <v>-1.26</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5053,10 +5071,10 @@
         <v>287</v>
       </c>
       <c r="B286">
-        <v>1.51</v>
+        <v>-8.140000000000001</v>
       </c>
       <c r="C286">
-        <v>4.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5064,10 +5082,10 @@
         <v>288</v>
       </c>
       <c r="B287">
-        <v>0</v>
+        <v>-2.23</v>
       </c>
       <c r="C287">
-        <v>-6.83</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5075,10 +5093,10 @@
         <v>289</v>
       </c>
       <c r="B288">
-        <v>1.71</v>
+        <v>-6.75</v>
       </c>
       <c r="C288">
-        <v>-1.16</v>
+        <v>-5.67</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5086,10 +5104,10 @@
         <v>290</v>
       </c>
       <c r="B289">
-        <v>-7.49</v>
+        <v>-2.84</v>
       </c>
       <c r="C289">
-        <v>-6.12</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5097,10 +5115,10 @@
         <v>291</v>
       </c>
       <c r="B290">
-        <v>-9.24</v>
+        <v>1.49</v>
       </c>
       <c r="C290">
-        <v>-4.92</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5108,10 +5126,10 @@
         <v>292</v>
       </c>
       <c r="B291">
-        <v>8.19</v>
+        <v>0</v>
       </c>
       <c r="C291">
-        <v>7.58</v>
+        <v>-6.83</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5119,10 +5137,10 @@
         <v>293</v>
       </c>
       <c r="B292">
-        <v>-3.37</v>
+        <v>1.69</v>
       </c>
       <c r="C292">
-        <v>-5.83</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5130,10 +5148,10 @@
         <v>294</v>
       </c>
       <c r="B293">
-        <v>4.81</v>
+        <v>-7.49</v>
       </c>
       <c r="C293">
-        <v>0</v>
+        <v>-6.11</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5141,10 +5159,10 @@
         <v>295</v>
       </c>
       <c r="B294">
-        <v>-3.98</v>
+        <v>-9.26</v>
       </c>
       <c r="C294">
-        <v>-1.05</v>
+        <v>-5.11</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5152,10 +5170,10 @@
         <v>296</v>
       </c>
       <c r="B295">
-        <v>2.08</v>
+        <v>8.18</v>
       </c>
       <c r="C295">
-        <v>1.71</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5163,10 +5181,10 @@
         <v>297</v>
       </c>
       <c r="B296">
-        <v>-7.47</v>
+        <v>-3.38</v>
       </c>
       <c r="C296">
-        <v>0</v>
+        <v>-5.81</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5174,10 +5192,10 @@
         <v>298</v>
       </c>
       <c r="B297">
-        <v>-7.16</v>
+        <v>4.8</v>
       </c>
       <c r="C297">
-        <v>-7.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5185,10 +5203,10 @@
         <v>299</v>
       </c>
       <c r="B298">
-        <v>-1.98</v>
+        <v>-4</v>
       </c>
       <c r="C298">
-        <v>-1.75</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5196,10 +5214,10 @@
         <v>300</v>
       </c>
       <c r="B299">
-        <v>-0.11</v>
+        <v>2.05</v>
       </c>
       <c r="C299">
-        <v>0</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5207,10 +5225,10 @@
         <v>301</v>
       </c>
       <c r="B300">
-        <v>-0.14</v>
+        <v>-7.47</v>
       </c>
       <c r="C300">
-        <v>-0.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5218,10 +5236,10 @@
         <v>302</v>
       </c>
       <c r="B301">
-        <v>-5.77</v>
+        <v>-7.17</v>
       </c>
       <c r="C301">
-        <v>0</v>
+        <v>-5.05</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5229,10 +5247,10 @@
         <v>303</v>
       </c>
       <c r="B302">
-        <v>-0.6899999999999999</v>
+        <v>-1.99</v>
       </c>
       <c r="C302">
-        <v>-1.11</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5240,10 +5258,10 @@
         <v>304</v>
       </c>
       <c r="B303">
-        <v>-5.85</v>
+        <v>-0.12</v>
       </c>
       <c r="C303">
-        <v>-3.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5251,10 +5269,10 @@
         <v>305</v>
       </c>
       <c r="B304">
-        <v>-2.17</v>
+        <v>-0.16</v>
       </c>
       <c r="C304">
-        <v>0.68</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5262,10 +5280,10 @@
         <v>306</v>
       </c>
       <c r="B305">
-        <v>-6.18</v>
+        <v>-5.78</v>
       </c>
       <c r="C305">
-        <v>-4.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5273,10 +5291,10 @@
         <v>307</v>
       </c>
       <c r="B306">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="C306">
-        <v>-8.039999999999999</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5284,10 +5302,10 @@
         <v>308</v>
       </c>
       <c r="B307">
-        <v>9.390000000000001</v>
+        <v>-5.87</v>
       </c>
       <c r="C307">
-        <v>8.779999999999999</v>
+        <v>-2.98</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5295,10 +5313,10 @@
         <v>309</v>
       </c>
       <c r="B308">
-        <v>-1.06</v>
+        <v>-2.19</v>
       </c>
       <c r="C308">
-        <v>1.39</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5306,10 +5324,10 @@
         <v>310</v>
       </c>
       <c r="B309">
-        <v>-4.39</v>
+        <v>-6.19</v>
       </c>
       <c r="C309">
-        <v>0</v>
+        <v>-4.52</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5317,10 +5335,10 @@
         <v>311</v>
       </c>
       <c r="B310">
-        <v>-1.82</v>
+        <v>0</v>
       </c>
       <c r="C310">
-        <v>-3.71</v>
+        <v>-8.390000000000001</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5328,10 +5346,10 @@
         <v>312</v>
       </c>
       <c r="B311">
-        <v>-6.5</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="C311">
-        <v>-1.7</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5339,10 +5357,10 @@
         <v>313</v>
       </c>
       <c r="B312">
-        <v>0.59</v>
+        <v>-1.08</v>
       </c>
       <c r="C312">
-        <v>0.59</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5350,7 +5368,7 @@
         <v>314</v>
       </c>
       <c r="B313">
-        <v>1.61</v>
+        <v>-4.39</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -5361,10 +5379,10 @@
         <v>315</v>
       </c>
       <c r="B314">
-        <v>-6.59</v>
+        <v>-1.83</v>
       </c>
       <c r="C314">
-        <v>0</v>
+        <v>-4.36</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5372,10 +5390,10 @@
         <v>316</v>
       </c>
       <c r="B315">
-        <v>0.32</v>
+        <v>-6.51</v>
       </c>
       <c r="C315">
-        <v>1.3</v>
+        <v>-1.83</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5383,10 +5401,10 @@
         <v>317</v>
       </c>
       <c r="B316">
-        <v>-9.35</v>
+        <v>0.59</v>
       </c>
       <c r="C316">
-        <v>-7.19</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5394,7 +5412,7 @@
         <v>318</v>
       </c>
       <c r="B317">
-        <v>-6.65</v>
+        <v>1.59</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -5405,10 +5423,10 @@
         <v>319</v>
       </c>
       <c r="B318">
-        <v>-1.45</v>
+        <v>-6.59</v>
       </c>
       <c r="C318">
-        <v>-0.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5416,10 +5434,10 @@
         <v>320</v>
       </c>
       <c r="B319">
-        <v>-7.68</v>
+        <v>0.3</v>
       </c>
       <c r="C319">
-        <v>-6.35</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5427,10 +5445,10 @@
         <v>321</v>
       </c>
       <c r="B320">
-        <v>4.55</v>
+        <v>-9.359999999999999</v>
       </c>
       <c r="C320">
-        <v>0</v>
+        <v>-7.1</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5438,10 +5456,10 @@
         <v>322</v>
       </c>
       <c r="B321">
-        <v>-2.55</v>
+        <v>-6.66</v>
       </c>
       <c r="C321">
-        <v>-2.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5449,10 +5467,10 @@
         <v>323</v>
       </c>
       <c r="B322">
-        <v>-5.55</v>
+        <v>-1.47</v>
       </c>
       <c r="C322">
-        <v>-4.51</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5460,10 +5478,10 @@
         <v>324</v>
       </c>
       <c r="B323">
-        <v>1.52</v>
+        <v>-7.69</v>
       </c>
       <c r="C323">
-        <v>-1.15</v>
+        <v>-6.34</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5471,10 +5489,10 @@
         <v>325</v>
       </c>
       <c r="B324">
-        <v>-0.61</v>
+        <v>4.53</v>
       </c>
       <c r="C324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5482,10 +5500,10 @@
         <v>326</v>
       </c>
       <c r="B325">
-        <v>8.44</v>
+        <v>-2.56</v>
       </c>
       <c r="C325">
-        <v>6.56</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5493,10 +5511,10 @@
         <v>327</v>
       </c>
       <c r="B326">
-        <v>-2.39</v>
+        <v>-5.57</v>
       </c>
       <c r="C326">
-        <v>-0.76</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5504,10 +5522,10 @@
         <v>328</v>
       </c>
       <c r="B327">
-        <v>8.67</v>
+        <v>1.5</v>
       </c>
       <c r="C327">
-        <v>8.859999999999999</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5515,10 +5533,10 @@
         <v>329</v>
       </c>
       <c r="B328">
-        <v>-2.82</v>
+        <v>-0.63</v>
       </c>
       <c r="C328">
-        <v>-0.8100000000000001</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5526,10 +5544,10 @@
         <v>330</v>
       </c>
       <c r="B329">
-        <v>6.15</v>
+        <v>8.42</v>
       </c>
       <c r="C329">
-        <v>0.44</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5537,10 +5555,10 @@
         <v>331</v>
       </c>
       <c r="B330">
-        <v>6.62</v>
+        <v>-2.41</v>
       </c>
       <c r="C330">
-        <v>5.67</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5548,10 +5566,10 @@
         <v>332</v>
       </c>
       <c r="B331">
-        <v>-5.18</v>
+        <v>8.65</v>
       </c>
       <c r="C331">
-        <v>0</v>
+        <v>9.130000000000001</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5559,10 +5577,10 @@
         <v>333</v>
       </c>
       <c r="B332">
-        <v>0</v>
+        <v>-2.84</v>
       </c>
       <c r="C332">
-        <v>-7.85</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -5570,10 +5588,10 @@
         <v>334</v>
       </c>
       <c r="B333">
-        <v>0</v>
+        <v>6.14</v>
       </c>
       <c r="C333">
-        <v>-9.029999999999999</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -5581,10 +5599,10 @@
         <v>335</v>
       </c>
       <c r="B334">
-        <v>-3.64</v>
+        <v>6.58</v>
       </c>
       <c r="C334">
-        <v>-3.07</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5592,10 +5610,10 @@
         <v>336</v>
       </c>
       <c r="B335">
-        <v>-0.98</v>
+        <v>-5.2</v>
       </c>
       <c r="C335">
-        <v>-3.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -5603,10 +5621,10 @@
         <v>337</v>
       </c>
       <c r="B336">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="C336">
-        <v>1.89</v>
+        <v>-7.87</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5614,10 +5632,10 @@
         <v>338</v>
       </c>
       <c r="B337">
-        <v>14.35</v>
+        <v>0</v>
       </c>
       <c r="C337">
-        <v>5.96</v>
+        <v>-9.01</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5625,10 +5643,10 @@
         <v>339</v>
       </c>
       <c r="B338">
-        <v>-8.43</v>
+        <v>-3.66</v>
       </c>
       <c r="C338">
-        <v>-7.48</v>
+        <v>-3.56</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5636,10 +5654,10 @@
         <v>340</v>
       </c>
       <c r="B339">
-        <v>-1.13</v>
+        <v>-1</v>
       </c>
       <c r="C339">
-        <v>0</v>
+        <v>-3.46</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -5647,10 +5665,10 @@
         <v>341</v>
       </c>
       <c r="B340">
-        <v>-2.8</v>
+        <v>-0.22</v>
       </c>
       <c r="C340">
-        <v>-0.41</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -5658,10 +5676,10 @@
         <v>342</v>
       </c>
       <c r="B341">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="C341">
-        <v>-4.73</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -5669,10 +5687,10 @@
         <v>343</v>
       </c>
       <c r="B342">
-        <v>0</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="C342">
-        <v>-6.69</v>
+        <v>-7.49</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -5680,10 +5698,10 @@
         <v>344</v>
       </c>
       <c r="B343">
-        <v>-5.39</v>
+        <v>-1.15</v>
       </c>
       <c r="C343">
-        <v>-1.92</v>
+        <v>-6.44</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -5691,10 +5709,10 @@
         <v>345</v>
       </c>
       <c r="B344">
-        <v>-1.38</v>
+        <v>-2.81</v>
       </c>
       <c r="C344">
-        <v>0</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -5705,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="C345">
-        <v>-8.609999999999999</v>
+        <v>-4.68</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -5713,10 +5731,10 @@
         <v>347</v>
       </c>
       <c r="B346">
-        <v>-2.86</v>
+        <v>0</v>
       </c>
       <c r="C346">
-        <v>-3.74</v>
+        <v>-6.69</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -5724,10 +5742,10 @@
         <v>348</v>
       </c>
       <c r="B347">
-        <v>0.2</v>
+        <v>-5.4</v>
       </c>
       <c r="C347">
-        <v>-0.59</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -5735,10 +5753,10 @@
         <v>349</v>
       </c>
       <c r="B348">
-        <v>-6.89</v>
+        <v>-1.39</v>
       </c>
       <c r="C348">
-        <v>-7.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -5746,10 +5764,10 @@
         <v>350</v>
       </c>
       <c r="B349">
-        <v>-3.68</v>
+        <v>0</v>
       </c>
       <c r="C349">
-        <v>-6.57</v>
+        <v>-8.66</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -5757,10 +5775,10 @@
         <v>351</v>
       </c>
       <c r="B350">
-        <v>-1.08</v>
+        <v>-2.88</v>
       </c>
       <c r="C350">
-        <v>-2.88</v>
+        <v>-3.38</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -5768,10 +5786,10 @@
         <v>352</v>
       </c>
       <c r="B351">
-        <v>1.99</v>
+        <v>0.19</v>
       </c>
       <c r="C351">
-        <v>0</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -5779,10 +5797,10 @@
         <v>353</v>
       </c>
       <c r="B352">
-        <v>-4.46</v>
+        <v>-6.9</v>
       </c>
       <c r="C352">
-        <v>-5.98</v>
+        <v>-7.19</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -5790,10 +5808,10 @@
         <v>354</v>
       </c>
       <c r="B353">
-        <v>-4.47</v>
+        <v>-3.69</v>
       </c>
       <c r="C353">
-        <v>-4.55</v>
+        <v>-6.57</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -5801,10 +5819,10 @@
         <v>355</v>
       </c>
       <c r="B354">
-        <v>-4.92</v>
+        <v>-1.1</v>
       </c>
       <c r="C354">
-        <v>-8.18</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -5812,7 +5830,7 @@
         <v>356</v>
       </c>
       <c r="B355">
-        <v>-2.67</v>
+        <v>1.96</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -5823,10 +5841,10 @@
         <v>357</v>
       </c>
       <c r="B356">
-        <v>-7.66</v>
+        <v>0</v>
       </c>
       <c r="C356">
-        <v>0</v>
+        <v>-7.01</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -5834,10 +5852,10 @@
         <v>358</v>
       </c>
       <c r="B357">
-        <v>-4.73</v>
+        <v>-4.47</v>
       </c>
       <c r="C357">
-        <v>-4.77</v>
+        <v>-5.97</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -5845,10 +5863,10 @@
         <v>359</v>
       </c>
       <c r="B358">
-        <v>-0.84</v>
+        <v>-4.49</v>
       </c>
       <c r="C358">
-        <v>0</v>
+        <v>-4.39</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -5856,10 +5874,10 @@
         <v>360</v>
       </c>
       <c r="B359">
-        <v>-5.59</v>
+        <v>-4.93</v>
       </c>
       <c r="C359">
-        <v>-4.85</v>
+        <v>-6.3</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -5867,7 +5885,7 @@
         <v>361</v>
       </c>
       <c r="B360">
-        <v>-10.31</v>
+        <v>-2.69</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -5878,10 +5896,10 @@
         <v>362</v>
       </c>
       <c r="B361">
-        <v>1.74</v>
+        <v>-7.67</v>
       </c>
       <c r="C361">
-        <v>2.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -5889,10 +5907,10 @@
         <v>363</v>
       </c>
       <c r="B362">
-        <v>2.54</v>
+        <v>-4.74</v>
       </c>
       <c r="C362">
-        <v>3.2</v>
+        <v>-4.27</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -5900,10 +5918,10 @@
         <v>364</v>
       </c>
       <c r="B363">
-        <v>0.85</v>
+        <v>-0.86</v>
       </c>
       <c r="C363">
-        <v>0.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -5911,10 +5929,10 @@
         <v>365</v>
       </c>
       <c r="B364">
-        <v>0.85</v>
+        <v>-5.6</v>
       </c>
       <c r="C364">
-        <v>-0.99</v>
+        <v>-4.83</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -5922,10 +5940,10 @@
         <v>366</v>
       </c>
       <c r="B365">
-        <v>-1</v>
+        <v>-10.31</v>
       </c>
       <c r="C365">
-        <v>-0.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -5933,10 +5951,10 @@
         <v>367</v>
       </c>
       <c r="B366">
-        <v>0.63</v>
+        <v>1.72</v>
       </c>
       <c r="C366">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -5944,10 +5962,10 @@
         <v>368</v>
       </c>
       <c r="B367">
-        <v>-3.36</v>
+        <v>2.52</v>
       </c>
       <c r="C367">
-        <v>0</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -5955,10 +5973,10 @@
         <v>369</v>
       </c>
       <c r="B368">
-        <v>-5.49</v>
+        <v>0.84</v>
       </c>
       <c r="C368">
-        <v>-5.17</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -5966,10 +5984,10 @@
         <v>370</v>
       </c>
       <c r="B369">
-        <v>-2.22</v>
+        <v>0.84</v>
       </c>
       <c r="C369">
-        <v>-1.36</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -5977,10 +5995,10 @@
         <v>371</v>
       </c>
       <c r="B370">
-        <v>-4.05</v>
+        <v>-1.02</v>
       </c>
       <c r="C370">
-        <v>-2.47</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -5988,10 +6006,10 @@
         <v>372</v>
       </c>
       <c r="B371">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="C371">
-        <v>-8.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -5999,10 +6017,10 @@
         <v>373</v>
       </c>
       <c r="B372">
-        <v>-9.07</v>
+        <v>-3.37</v>
       </c>
       <c r="C372">
-        <v>-6.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6010,10 +6028,10 @@
         <v>374</v>
       </c>
       <c r="B373">
-        <v>4.02</v>
+        <v>-5.49</v>
       </c>
       <c r="C373">
-        <v>3.83</v>
+        <v>-5.18</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6021,10 +6039,10 @@
         <v>375</v>
       </c>
       <c r="B374">
-        <v>-3.45</v>
+        <v>-2.23</v>
       </c>
       <c r="C374">
-        <v>-1.47</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6032,10 +6050,10 @@
         <v>376</v>
       </c>
       <c r="B375">
-        <v>-7.59</v>
+        <v>-4.07</v>
       </c>
       <c r="C375">
-        <v>0</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6046,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="C376">
-        <v>-5.23</v>
+        <v>-8.199999999999999</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6054,10 +6072,10 @@
         <v>378</v>
       </c>
       <c r="B377">
-        <v>1.2</v>
+        <v>-9.07</v>
       </c>
       <c r="C377">
-        <v>4.08</v>
+        <v>-5.82</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6065,10 +6083,10 @@
         <v>379</v>
       </c>
       <c r="B378">
-        <v>-3.67</v>
+        <v>4</v>
       </c>
       <c r="C378">
-        <v>-3.23</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6076,10 +6094,10 @@
         <v>380</v>
       </c>
       <c r="B379">
-        <v>-0.41</v>
+        <v>-3.46</v>
       </c>
       <c r="C379">
-        <v>2.93</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6087,10 +6105,10 @@
         <v>381</v>
       </c>
       <c r="B380">
-        <v>-7.38</v>
+        <v>-7.59</v>
       </c>
       <c r="C380">
-        <v>-6.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6098,10 +6116,10 @@
         <v>382</v>
       </c>
       <c r="B381">
-        <v>-1.73</v>
+        <v>0</v>
       </c>
       <c r="C381">
-        <v>-1.61</v>
+        <v>-5.19</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6109,10 +6127,10 @@
         <v>383</v>
       </c>
       <c r="B382">
-        <v>-2.27</v>
+        <v>1.17</v>
       </c>
       <c r="C382">
-        <v>-3.23</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6120,10 +6138,10 @@
         <v>384</v>
       </c>
       <c r="B383">
-        <v>2.85</v>
+        <v>-1.5</v>
       </c>
       <c r="C383">
-        <v>0.8100000000000001</v>
+        <v>-2.92</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6131,10 +6149,10 @@
         <v>385</v>
       </c>
       <c r="B384">
-        <v>-6.53</v>
+        <v>-0.43</v>
       </c>
       <c r="C384">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6142,10 +6160,10 @@
         <v>386</v>
       </c>
       <c r="B385">
-        <v>15.07</v>
+        <v>-7.39</v>
       </c>
       <c r="C385">
-        <v>15.4</v>
+        <v>-6.54</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6153,10 +6171,10 @@
         <v>387</v>
       </c>
       <c r="B386">
-        <v>-1.43</v>
+        <v>-1.75</v>
       </c>
       <c r="C386">
-        <v>-2.53</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6164,10 +6182,10 @@
         <v>388</v>
       </c>
       <c r="B387">
-        <v>4.26</v>
+        <v>-2.28</v>
       </c>
       <c r="C387">
-        <v>8.81</v>
+        <v>-2.57</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6175,10 +6193,10 @@
         <v>389</v>
       </c>
       <c r="B388">
-        <v>-0.49</v>
+        <v>2.83</v>
       </c>
       <c r="C388">
-        <v>-4.42</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6186,10 +6204,10 @@
         <v>390</v>
       </c>
       <c r="B389">
-        <v>1.68</v>
+        <v>-6.54</v>
       </c>
       <c r="C389">
-        <v>5.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6197,10 +6215,10 @@
         <v>391</v>
       </c>
       <c r="B390">
-        <v>2.26</v>
+        <v>15.05</v>
       </c>
       <c r="C390">
-        <v>2.22</v>
+        <v>15.97</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -6208,10 +6226,10 @@
         <v>392</v>
       </c>
       <c r="B391">
-        <v>-2.32</v>
+        <v>-1.44</v>
       </c>
       <c r="C391">
-        <v>-0.49</v>
+        <v>-3.07</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6219,10 +6237,10 @@
         <v>393</v>
       </c>
       <c r="B392">
-        <v>-5.48</v>
+        <v>5.44</v>
       </c>
       <c r="C392">
-        <v>2.65</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6230,10 +6248,10 @@
         <v>394</v>
       </c>
       <c r="B393">
-        <v>-8.890000000000001</v>
+        <v>-0.51</v>
       </c>
       <c r="C393">
-        <v>-8.19</v>
+        <v>-4.42</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6241,10 +6259,10 @@
         <v>395</v>
       </c>
       <c r="B394">
-        <v>3.17</v>
+        <v>1.65</v>
       </c>
       <c r="C394">
-        <v>2.14</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6252,10 +6270,10 @@
         <v>396</v>
       </c>
       <c r="B395">
-        <v>-7.24</v>
+        <v>2.23</v>
       </c>
       <c r="C395">
-        <v>0</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6263,10 +6281,10 @@
         <v>397</v>
       </c>
       <c r="B396">
-        <v>0</v>
+        <v>-2.33</v>
       </c>
       <c r="C396">
-        <v>-6.14</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6274,10 +6292,10 @@
         <v>398</v>
       </c>
       <c r="B397">
-        <v>-7.65</v>
+        <v>-5.49</v>
       </c>
       <c r="C397">
-        <v>-2.97</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6285,10 +6303,10 @@
         <v>399</v>
       </c>
       <c r="B398">
-        <v>-8.51</v>
+        <v>-8.9</v>
       </c>
       <c r="C398">
-        <v>0</v>
+        <v>-8.17</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6296,10 +6314,10 @@
         <v>400</v>
       </c>
       <c r="B399">
-        <v>0.03</v>
+        <v>3.15</v>
       </c>
       <c r="C399">
-        <v>1.19</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6307,10 +6325,10 @@
         <v>401</v>
       </c>
       <c r="B400">
-        <v>-8.27</v>
+        <v>-7.25</v>
       </c>
       <c r="C400">
-        <v>-6.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6318,10 +6336,10 @@
         <v>402</v>
       </c>
       <c r="B401">
-        <v>-8.859999999999999</v>
+        <v>0</v>
       </c>
       <c r="C401">
-        <v>0</v>
+        <v>-6.12</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6329,10 +6347,10 @@
         <v>403</v>
       </c>
       <c r="B402">
-        <v>-8.51</v>
+        <v>-7.65</v>
       </c>
       <c r="C402">
-        <v>-7.31</v>
+        <v>-3.03</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6340,10 +6358,10 @@
         <v>404</v>
       </c>
       <c r="B403">
-        <v>2.85</v>
+        <v>-8.51</v>
       </c>
       <c r="C403">
-        <v>5.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6351,10 +6369,10 @@
         <v>405</v>
       </c>
       <c r="B404">
-        <v>3.05</v>
+        <v>0.01</v>
       </c>
       <c r="C404">
-        <v>4.47</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6362,10 +6380,10 @@
         <v>406</v>
       </c>
       <c r="B405">
-        <v>-4.27</v>
+        <v>-8.27</v>
       </c>
       <c r="C405">
-        <v>-4.3</v>
+        <v>-7.01</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6373,10 +6391,10 @@
         <v>407</v>
       </c>
       <c r="B406">
-        <v>0</v>
+        <v>-8.869999999999999</v>
       </c>
       <c r="C406">
-        <v>-7.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -6384,10 +6402,10 @@
         <v>408</v>
       </c>
       <c r="B407">
-        <v>0</v>
+        <v>-8.52</v>
       </c>
       <c r="C407">
-        <v>-4.78</v>
+        <v>-7.31</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6395,10 +6413,10 @@
         <v>409</v>
       </c>
       <c r="B408">
-        <v>-1.2</v>
+        <v>2.81</v>
       </c>
       <c r="C408">
-        <v>-1.91</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6406,10 +6424,10 @@
         <v>410</v>
       </c>
       <c r="B409">
-        <v>-7.17</v>
+        <v>3.02</v>
       </c>
       <c r="C409">
-        <v>-4.61</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -6417,10 +6435,10 @@
         <v>411</v>
       </c>
       <c r="B410">
-        <v>6.42</v>
+        <v>-4.28</v>
       </c>
       <c r="C410">
-        <v>0.14</v>
+        <v>-4.29</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -6428,10 +6446,10 @@
         <v>412</v>
       </c>
       <c r="B411">
-        <v>-3.04</v>
+        <v>0</v>
       </c>
       <c r="C411">
-        <v>-3.68</v>
+        <v>-7.44</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -6439,10 +6457,10 @@
         <v>413</v>
       </c>
       <c r="B412">
-        <v>-1.19</v>
+        <v>0</v>
       </c>
       <c r="C412">
-        <v>3.41</v>
+        <v>-4.75</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -6450,10 +6468,10 @@
         <v>414</v>
       </c>
       <c r="B413">
-        <v>-7.34</v>
+        <v>-1.21</v>
       </c>
       <c r="C413">
-        <v>-1.94</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -6461,10 +6479,10 @@
         <v>415</v>
       </c>
       <c r="B414">
-        <v>-2.56</v>
+        <v>-7.18</v>
       </c>
       <c r="C414">
-        <v>-3.48</v>
+        <v>-4.61</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -6472,10 +6490,10 @@
         <v>416</v>
       </c>
       <c r="B415">
-        <v>-4.48</v>
+        <v>6.4</v>
       </c>
       <c r="C415">
-        <v>0</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -6483,10 +6501,10 @@
         <v>417</v>
       </c>
       <c r="B416">
-        <v>-5.56</v>
+        <v>-3.05</v>
       </c>
       <c r="C416">
-        <v>-6.11</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -6494,10 +6512,10 @@
         <v>418</v>
       </c>
       <c r="B417">
-        <v>0</v>
+        <v>-1.21</v>
       </c>
       <c r="C417">
-        <v>-3.93</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -6505,10 +6523,10 @@
         <v>419</v>
       </c>
       <c r="B418">
-        <v>-8.44</v>
+        <v>-7.35</v>
       </c>
       <c r="C418">
-        <v>0</v>
+        <v>-3.09</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -6516,10 +6534,10 @@
         <v>420</v>
       </c>
       <c r="B419">
-        <v>0.45</v>
+        <v>-2.58</v>
       </c>
       <c r="C419">
-        <v>3.38</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -6527,10 +6545,10 @@
         <v>421</v>
       </c>
       <c r="B420">
-        <v>-4.95</v>
+        <v>-4.5</v>
       </c>
       <c r="C420">
-        <v>-3.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -6538,10 +6556,10 @@
         <v>422</v>
       </c>
       <c r="B421">
-        <v>0</v>
+        <v>-5.57</v>
       </c>
       <c r="C421">
-        <v>-6.18</v>
+        <v>-5.72</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -6549,10 +6567,10 @@
         <v>423</v>
       </c>
       <c r="B422">
-        <v>-1.26</v>
+        <v>0</v>
       </c>
       <c r="C422">
-        <v>-6.19</v>
+        <v>-3.91</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -6560,10 +6578,10 @@
         <v>424</v>
       </c>
       <c r="B423">
-        <v>-5.98</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="C423">
-        <v>-7.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -6571,10 +6589,10 @@
         <v>425</v>
       </c>
       <c r="B424">
-        <v>-5.61</v>
+        <v>0.42</v>
       </c>
       <c r="C424">
-        <v>-8.699999999999999</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -6582,10 +6600,10 @@
         <v>426</v>
       </c>
       <c r="B425">
-        <v>-8.779999999999999</v>
+        <v>-4.97</v>
       </c>
       <c r="C425">
-        <v>-6.56</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -6593,10 +6611,10 @@
         <v>427</v>
       </c>
       <c r="B426">
-        <v>-3.85</v>
+        <v>0</v>
       </c>
       <c r="C426">
-        <v>-6.69</v>
+        <v>-6.18</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -6604,10 +6622,10 @@
         <v>428</v>
       </c>
       <c r="B427">
-        <v>-2.46</v>
+        <v>-1.28</v>
       </c>
       <c r="C427">
-        <v>0</v>
+        <v>-5.92</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -6615,10 +6633,10 @@
         <v>429</v>
       </c>
       <c r="B428">
-        <v>-3.12</v>
+        <v>-5.98</v>
       </c>
       <c r="C428">
-        <v>-3.94</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -6626,10 +6644,10 @@
         <v>430</v>
       </c>
       <c r="B429">
-        <v>-2.59</v>
+        <v>-5.61</v>
       </c>
       <c r="C429">
-        <v>3.06</v>
+        <v>-8.73</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -6637,10 +6655,10 @@
         <v>431</v>
       </c>
       <c r="B430">
-        <v>3.96</v>
+        <v>-8.789999999999999</v>
       </c>
       <c r="C430">
-        <v>2.03</v>
+        <v>-6.09</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -6648,10 +6666,10 @@
         <v>432</v>
       </c>
       <c r="B431">
-        <v>-0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C431">
-        <v>0.03</v>
+        <v>-8.02</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -6659,10 +6677,10 @@
         <v>433</v>
       </c>
       <c r="B432">
-        <v>-2.49</v>
+        <v>-3.86</v>
       </c>
       <c r="C432">
-        <v>-0.5600000000000001</v>
+        <v>-6.69</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -6670,10 +6688,10 @@
         <v>434</v>
       </c>
       <c r="B433">
-        <v>-4.85</v>
+        <v>-2.48</v>
       </c>
       <c r="C433">
-        <v>-3.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -6681,10 +6699,10 @@
         <v>435</v>
       </c>
       <c r="B434">
-        <v>-8.06</v>
+        <v>-3.14</v>
       </c>
       <c r="C434">
-        <v>-6.87</v>
+        <v>-3.66</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -6692,10 +6710,10 @@
         <v>436</v>
       </c>
       <c r="B435">
-        <v>-4.05</v>
+        <v>-2.6</v>
       </c>
       <c r="C435">
-        <v>0</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -6703,10 +6721,10 @@
         <v>437</v>
       </c>
       <c r="B436">
-        <v>-2.08</v>
+        <v>3.94</v>
       </c>
       <c r="C436">
-        <v>-2.72</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -6714,10 +6732,10 @@
         <v>438</v>
       </c>
       <c r="B437">
-        <v>-5.63</v>
+        <v>-0.1</v>
       </c>
       <c r="C437">
-        <v>-1.8</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -6725,10 +6743,10 @@
         <v>439</v>
       </c>
       <c r="B438">
-        <v>-8.82</v>
+        <v>-2.51</v>
       </c>
       <c r="C438">
-        <v>-5.27</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -6736,10 +6754,10 @@
         <v>440</v>
       </c>
       <c r="B439">
-        <v>-2.4</v>
+        <v>-4.87</v>
       </c>
       <c r="C439">
-        <v>2.4</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -6747,10 +6765,10 @@
         <v>441</v>
       </c>
       <c r="B440">
-        <v>-0.2</v>
+        <v>-8.06</v>
       </c>
       <c r="C440">
-        <v>-1.38</v>
+        <v>-6.86</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -6758,10 +6776,10 @@
         <v>442</v>
       </c>
       <c r="B441">
-        <v>7.99</v>
+        <v>-4.06</v>
       </c>
       <c r="C441">
-        <v>4.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -6769,10 +6787,10 @@
         <v>443</v>
       </c>
       <c r="B442">
-        <v>-0.47</v>
+        <v>-2.1</v>
       </c>
       <c r="C442">
-        <v>2.49</v>
+        <v>-2.83</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -6780,10 +6798,10 @@
         <v>444</v>
       </c>
       <c r="B443">
-        <v>-2.45</v>
+        <v>-5.64</v>
       </c>
       <c r="C443">
-        <v>-2.29</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -6791,10 +6809,10 @@
         <v>445</v>
       </c>
       <c r="B444">
-        <v>-0.6899999999999999</v>
+        <v>-8.83</v>
       </c>
       <c r="C444">
-        <v>0</v>
+        <v>-3.61</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -6802,10 +6820,10 @@
         <v>446</v>
       </c>
       <c r="B445">
-        <v>14.19</v>
+        <v>-2.42</v>
       </c>
       <c r="C445">
-        <v>10.7</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -6813,10 +6831,10 @@
         <v>447</v>
       </c>
       <c r="B446">
-        <v>-6.18</v>
+        <v>-0.2</v>
       </c>
       <c r="C446">
-        <v>-6.68</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -6824,10 +6842,10 @@
         <v>448</v>
       </c>
       <c r="B447">
-        <v>-8.970000000000001</v>
+        <v>7.97</v>
       </c>
       <c r="C447">
-        <v>-7.59</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -6835,10 +6853,10 @@
         <v>449</v>
       </c>
       <c r="B448">
-        <v>-6.06</v>
+        <v>-0.5</v>
       </c>
       <c r="C448">
-        <v>-5.67</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -6846,10 +6864,10 @@
         <v>450</v>
       </c>
       <c r="B449">
-        <v>-4.22</v>
+        <v>-2.46</v>
       </c>
       <c r="C449">
-        <v>-4.64</v>
+        <v>-3.38</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -6857,10 +6875,10 @@
         <v>451</v>
       </c>
       <c r="B450">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="C450">
-        <v>-5.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -6868,10 +6886,10 @@
         <v>452</v>
       </c>
       <c r="B451">
-        <v>9.109999999999999</v>
+        <v>14.19</v>
       </c>
       <c r="C451">
-        <v>8.289999999999999</v>
+        <v>10.21</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -6879,10 +6897,10 @@
         <v>453</v>
       </c>
       <c r="B452">
-        <v>-3.93</v>
+        <v>-6.19</v>
       </c>
       <c r="C452">
-        <v>-5.88</v>
+        <v>-6.68</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -6890,10 +6908,10 @@
         <v>454</v>
       </c>
       <c r="B453">
-        <v>-3.42</v>
+        <v>-8.970000000000001</v>
       </c>
       <c r="C453">
-        <v>-6.52</v>
+        <v>-6.63</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -6901,10 +6919,10 @@
         <v>455</v>
       </c>
       <c r="B454">
-        <v>-5.09</v>
+        <v>-6.07</v>
       </c>
       <c r="C454">
-        <v>-3.28</v>
+        <v>-5.24</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -6912,10 +6930,10 @@
         <v>456</v>
       </c>
       <c r="B455">
-        <v>-0.59</v>
+        <v>-4.23</v>
       </c>
       <c r="C455">
-        <v>-1.34</v>
+        <v>-5.49</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -6923,10 +6941,10 @@
         <v>457</v>
       </c>
       <c r="B456">
-        <v>-9.109999999999999</v>
+        <v>0</v>
       </c>
       <c r="C456">
-        <v>-5.28</v>
+        <v>-5.85</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -6934,10 +6952,10 @@
         <v>458</v>
       </c>
       <c r="B457">
-        <v>0</v>
+        <v>9.09</v>
       </c>
       <c r="C457">
-        <v>-6.96</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -6945,10 +6963,10 @@
         <v>459</v>
       </c>
       <c r="B458">
-        <v>-0.57</v>
+        <v>-3.94</v>
       </c>
       <c r="C458">
-        <v>2.4</v>
+        <v>-5.45</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -6956,10 +6974,10 @@
         <v>460</v>
       </c>
       <c r="B459">
-        <v>-2.47</v>
+        <v>-3.43</v>
       </c>
       <c r="C459">
-        <v>0.3</v>
+        <v>-6.56</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -6967,10 +6985,10 @@
         <v>461</v>
       </c>
       <c r="B460">
-        <v>0.62</v>
+        <v>-5.1</v>
       </c>
       <c r="C460">
-        <v>-0.71</v>
+        <v>-3.29</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -6978,10 +6996,10 @@
         <v>462</v>
       </c>
       <c r="B461">
-        <v>-1.95</v>
+        <v>-0.61</v>
       </c>
       <c r="C461">
-        <v>-4.71</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -6989,10 +7007,10 @@
         <v>463</v>
       </c>
       <c r="B462">
-        <v>-7.9</v>
+        <v>-9.119999999999999</v>
       </c>
       <c r="C462">
-        <v>-8.369999999999999</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7000,10 +7018,10 @@
         <v>464</v>
       </c>
       <c r="B463">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="C463">
-        <v>2.24</v>
+        <v>-5.93</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7011,10 +7029,10 @@
         <v>465</v>
       </c>
       <c r="B464">
-        <v>-5.3</v>
+        <v>-0.59</v>
       </c>
       <c r="C464">
-        <v>-2.61</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -7022,10 +7040,10 @@
         <v>466</v>
       </c>
       <c r="B465">
-        <v>-6.24</v>
+        <v>-2.49</v>
       </c>
       <c r="C465">
-        <v>-5.84</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7033,10 +7051,10 @@
         <v>467</v>
       </c>
       <c r="B466">
-        <v>-5.41</v>
+        <v>0.6</v>
       </c>
       <c r="C466">
-        <v>-0.73</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -7044,10 +7062,10 @@
         <v>468</v>
       </c>
       <c r="B467">
-        <v>2.94</v>
+        <v>-1.97</v>
       </c>
       <c r="C467">
-        <v>2.18</v>
+        <v>-4.53</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7055,10 +7073,10 @@
         <v>469</v>
       </c>
       <c r="B468">
-        <v>-4.15</v>
+        <v>-7.9</v>
       </c>
       <c r="C468">
-        <v>-7.99</v>
+        <v>-8.390000000000001</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7066,10 +7084,10 @@
         <v>470</v>
       </c>
       <c r="B469">
-        <v>-2.28</v>
+        <v>0.93</v>
       </c>
       <c r="C469">
-        <v>1.17</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7077,10 +7095,10 @@
         <v>471</v>
       </c>
       <c r="B470">
-        <v>9.960000000000001</v>
+        <v>-5.31</v>
       </c>
       <c r="C470">
-        <v>8.81</v>
+        <v>-2.55</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7088,10 +7106,10 @@
         <v>472</v>
       </c>
       <c r="B471">
-        <v>2.33</v>
+        <v>-6.24</v>
       </c>
       <c r="C471">
-        <v>-0.64</v>
+        <v>-5.83</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7099,10 +7117,10 @@
         <v>473</v>
       </c>
       <c r="B472">
-        <v>-0.51</v>
+        <v>-5.42</v>
       </c>
       <c r="C472">
-        <v>-5.61</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7110,10 +7128,10 @@
         <v>474</v>
       </c>
       <c r="B473">
-        <v>-2.03</v>
+        <v>2.93</v>
       </c>
       <c r="C473">
-        <v>3.17</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7121,10 +7139,10 @@
         <v>475</v>
       </c>
       <c r="B474">
-        <v>-6.66</v>
+        <v>-4.16</v>
       </c>
       <c r="C474">
-        <v>0</v>
+        <v>-8.029999999999999</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7132,10 +7150,10 @@
         <v>476</v>
       </c>
       <c r="B475">
-        <v>0</v>
+        <v>-2.3</v>
       </c>
       <c r="C475">
-        <v>-8.039999999999999</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -7143,10 +7161,10 @@
         <v>477</v>
       </c>
       <c r="B476">
-        <v>0</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="C476">
-        <v>-8.02</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -7154,10 +7172,10 @@
         <v>478</v>
       </c>
       <c r="B477">
-        <v>-5.17</v>
+        <v>2.31</v>
       </c>
       <c r="C477">
-        <v>-7.17</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -7165,10 +7183,10 @@
         <v>479</v>
       </c>
       <c r="B478">
-        <v>-3.83</v>
+        <v>-0.52</v>
       </c>
       <c r="C478">
-        <v>-3.38</v>
+        <v>-5.67</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -7176,10 +7194,10 @@
         <v>480</v>
       </c>
       <c r="B479">
-        <v>2.32</v>
+        <v>-2.04</v>
       </c>
       <c r="C479">
-        <v>0</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -7187,10 +7205,10 @@
         <v>481</v>
       </c>
       <c r="B480">
-        <v>-6.05</v>
+        <v>-6.67</v>
       </c>
       <c r="C480">
-        <v>-3.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -7201,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="C481">
-        <v>-8.33</v>
+        <v>-8.050000000000001</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -7209,10 +7227,10 @@
         <v>483</v>
       </c>
       <c r="B482">
-        <v>-7.03</v>
+        <v>0</v>
       </c>
       <c r="C482">
-        <v>0</v>
+        <v>-8.029999999999999</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -7220,10 +7238,10 @@
         <v>484</v>
       </c>
       <c r="B483">
-        <v>-8.85</v>
+        <v>-5.17</v>
       </c>
       <c r="C483">
-        <v>0.01</v>
+        <v>-7.17</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -7231,10 +7249,10 @@
         <v>485</v>
       </c>
       <c r="B484">
-        <v>2.86</v>
+        <v>-3.84</v>
       </c>
       <c r="C484">
-        <v>4.44</v>
+        <v>-3.94</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -7242,10 +7260,10 @@
         <v>486</v>
       </c>
       <c r="B485">
-        <v>-8.16</v>
+        <v>2.3</v>
       </c>
       <c r="C485">
-        <v>-5.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -7253,10 +7271,10 @@
         <v>487</v>
       </c>
       <c r="B486">
-        <v>-6.37</v>
+        <v>-6.06</v>
       </c>
       <c r="C486">
-        <v>-7.27</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -7264,10 +7282,10 @@
         <v>488</v>
       </c>
       <c r="B487">
-        <v>8.529999999999999</v>
+        <v>0</v>
       </c>
       <c r="C487">
-        <v>2.59</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -7275,10 +7293,10 @@
         <v>489</v>
       </c>
       <c r="B488">
-        <v>0</v>
+        <v>-7.04</v>
       </c>
       <c r="C488">
-        <v>-7.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -7286,10 +7304,10 @@
         <v>490</v>
       </c>
       <c r="B489">
-        <v>5.43</v>
+        <v>-8.859999999999999</v>
       </c>
       <c r="C489">
-        <v>5.67</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -7297,10 +7315,10 @@
         <v>491</v>
       </c>
       <c r="B490">
-        <v>1.6</v>
+        <v>2.85</v>
       </c>
       <c r="C490">
-        <v>2.08</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -7308,10 +7326,10 @@
         <v>492</v>
       </c>
       <c r="B491">
-        <v>0</v>
+        <v>-8.16</v>
       </c>
       <c r="C491">
-        <v>-6.67</v>
+        <v>-5.01</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -7319,10 +7337,10 @@
         <v>493</v>
       </c>
       <c r="B492">
-        <v>-5.47</v>
+        <v>-6.38</v>
       </c>
       <c r="C492">
-        <v>-7.05</v>
+        <v>-7.26</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -7330,10 +7348,10 @@
         <v>494</v>
       </c>
       <c r="B493">
-        <v>14.6</v>
+        <v>8.51</v>
       </c>
       <c r="C493">
-        <v>12.16</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -7341,10 +7359,10 @@
         <v>495</v>
       </c>
       <c r="B494">
-        <v>-0.93</v>
+        <v>0</v>
       </c>
       <c r="C494">
-        <v>0</v>
+        <v>-7.87</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -7352,10 +7370,10 @@
         <v>496</v>
       </c>
       <c r="B495">
-        <v>-7.48</v>
+        <v>5.41</v>
       </c>
       <c r="C495">
-        <v>-7.69</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -7363,10 +7381,10 @@
         <v>497</v>
       </c>
       <c r="B496">
-        <v>-8.09</v>
+        <v>1.58</v>
       </c>
       <c r="C496">
-        <v>-5.2</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -7374,10 +7392,10 @@
         <v>498</v>
       </c>
       <c r="B497">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="C497">
-        <v>5.05</v>
+        <v>-6.65</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -7385,10 +7403,10 @@
         <v>499</v>
       </c>
       <c r="B498">
-        <v>0.12</v>
+        <v>-5.47</v>
       </c>
       <c r="C498">
-        <v>0.39</v>
+        <v>-7.04</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -7396,10 +7414,10 @@
         <v>500</v>
       </c>
       <c r="B499">
-        <v>0</v>
+        <v>14.59</v>
       </c>
       <c r="C499">
-        <v>-7.45</v>
+        <v>11.67</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -7407,10 +7425,10 @@
         <v>501</v>
       </c>
       <c r="B500">
-        <v>-3.21</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="C500">
-        <v>-5.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -7418,10 +7436,10 @@
         <v>502</v>
       </c>
       <c r="B501">
-        <v>0</v>
+        <v>-7.48</v>
       </c>
       <c r="C501">
-        <v>-8.800000000000001</v>
+        <v>-7.69</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -7429,10 +7447,10 @@
         <v>503</v>
       </c>
       <c r="B502">
-        <v>0</v>
+        <v>-8.1</v>
       </c>
       <c r="C502">
-        <v>-8.470000000000001</v>
+        <v>-5.23</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -7440,10 +7458,10 @@
         <v>504</v>
       </c>
       <c r="B503">
-        <v>-3.91</v>
+        <v>2.49</v>
       </c>
       <c r="C503">
-        <v>-1.5</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -7451,10 +7469,10 @@
         <v>505</v>
       </c>
       <c r="B504">
-        <v>-2.62</v>
+        <v>0.09</v>
       </c>
       <c r="C504">
-        <v>-3.45</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -7462,10 +7480,10 @@
         <v>506</v>
       </c>
       <c r="B505">
-        <v>-2.64</v>
+        <v>0</v>
       </c>
       <c r="C505">
-        <v>-1.9</v>
+        <v>-7.45</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -7473,10 +7491,10 @@
         <v>507</v>
       </c>
       <c r="B506">
-        <v>-1.43</v>
+        <v>-3.24</v>
       </c>
       <c r="C506">
-        <v>-1.13</v>
+        <v>-5.82</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -7484,10 +7502,10 @@
         <v>508</v>
       </c>
       <c r="B507">
-        <v>3.52</v>
+        <v>0</v>
       </c>
       <c r="C507">
-        <v>5.29</v>
+        <v>-8.84</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -7495,10 +7513,10 @@
         <v>509</v>
       </c>
       <c r="B508">
-        <v>-6.64</v>
+        <v>0</v>
       </c>
       <c r="C508">
-        <v>-5.51</v>
+        <v>-8.26</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -7506,10 +7524,10 @@
         <v>510</v>
       </c>
       <c r="B509">
-        <v>-4.47</v>
+        <v>-3.92</v>
       </c>
       <c r="C509">
-        <v>-0.58</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -7517,10 +7535,76 @@
         <v>511</v>
       </c>
       <c r="B510">
-        <v>2.23</v>
+        <v>-2.64</v>
       </c>
       <c r="C510">
-        <v>1.66</v>
+        <v>-1.83</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" t="s">
+        <v>512</v>
+      </c>
+      <c r="B511">
+        <v>-2.65</v>
+      </c>
+      <c r="C511">
+        <v>-2.3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" t="s">
+        <v>513</v>
+      </c>
+      <c r="B512">
+        <v>-1.45</v>
+      </c>
+      <c r="C512">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" t="s">
+        <v>514</v>
+      </c>
+      <c r="B513">
+        <v>3.5</v>
+      </c>
+      <c r="C513">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" t="s">
+        <v>515</v>
+      </c>
+      <c r="B514">
+        <v>-6.65</v>
+      </c>
+      <c r="C514">
+        <v>-6.28</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" t="s">
+        <v>516</v>
+      </c>
+      <c r="B515">
+        <v>-4.48</v>
+      </c>
+      <c r="C515">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" t="s">
+        <v>517</v>
+      </c>
+      <c r="B516">
+        <v>2.21</v>
+      </c>
+      <c r="C516">
+        <v>2.14</v>
       </c>
     </row>
   </sheetData>

--- a/data/merged_scores.xlsx
+++ b/data/merged_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="519">
   <si>
     <t>Player_Name</t>
   </si>
@@ -1388,6 +1388,9 @@
   </si>
   <si>
     <t>Spencer Jones</t>
+  </si>
+  <si>
+    <t>Stanley Umude</t>
   </si>
   <si>
     <t>Stephen Curry</t>
@@ -1925,7 +1928,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C516"/>
+  <dimension ref="A1:C517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1961,7 +1964,7 @@
         <v>-7.4</v>
       </c>
       <c r="C3">
-        <v>-3.22</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1983,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-8.050000000000001</v>
+        <v>-7.94</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1994,7 +1997,7 @@
         <v>1.18</v>
       </c>
       <c r="C6">
-        <v>3.16</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2005,7 +2008,7 @@
         <v>-7.07</v>
       </c>
       <c r="C7">
-        <v>-6.01</v>
+        <v>-5.89</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2016,7 +2019,7 @@
         <v>-1.7</v>
       </c>
       <c r="C8">
-        <v>-1.07</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2027,7 +2030,7 @@
         <v>-4.39</v>
       </c>
       <c r="C9">
-        <v>0.44</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2038,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-6.32</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2049,7 +2052,7 @@
         <v>-9.02</v>
       </c>
       <c r="C11">
-        <v>-7.26</v>
+        <v>-7.14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2060,7 +2063,7 @@
         <v>-6.71</v>
       </c>
       <c r="C12">
-        <v>-7.09</v>
+        <v>-6.97</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2071,7 +2074,7 @@
         <v>-8.859999999999999</v>
       </c>
       <c r="C13">
-        <v>-4.63</v>
+        <v>-4.52</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2082,7 +2085,7 @@
         <v>1.19</v>
       </c>
       <c r="C14">
-        <v>2.03</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2093,7 +2096,7 @@
         <v>-4.37</v>
       </c>
       <c r="C15">
-        <v>-2.04</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2104,7 +2107,7 @@
         <v>0.96</v>
       </c>
       <c r="C16">
-        <v>-1.65</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2115,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>-8.56</v>
+        <v>-8.449999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2126,7 +2129,7 @@
         <v>-6.38</v>
       </c>
       <c r="C18">
-        <v>-4.1</v>
+        <v>-3.99</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2137,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>-6.65</v>
+        <v>-6.53</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2148,7 +2151,7 @@
         <v>0.1</v>
       </c>
       <c r="C20">
-        <v>2.69</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2159,7 +2162,7 @@
         <v>4.05</v>
       </c>
       <c r="C21">
-        <v>4.11</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2170,7 +2173,7 @@
         <v>0.71</v>
       </c>
       <c r="C22">
-        <v>-1.03</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2181,7 +2184,7 @@
         <v>-5.5</v>
       </c>
       <c r="C23">
-        <v>-2.45</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2192,7 +2195,7 @@
         <v>-0.46</v>
       </c>
       <c r="C24">
-        <v>-0.38</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2203,7 +2206,7 @@
         <v>-6.34</v>
       </c>
       <c r="C25">
-        <v>-5.07</v>
+        <v>-3.48</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2214,7 +2217,7 @@
         <v>-1.29</v>
       </c>
       <c r="C26">
-        <v>-2.75</v>
+        <v>-2.63</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2225,7 +2228,7 @@
         <v>-1.2</v>
       </c>
       <c r="C27">
-        <v>-0.24</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2236,7 +2239,7 @@
         <v>2.69</v>
       </c>
       <c r="C28">
-        <v>2.22</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2247,7 +2250,7 @@
         <v>-3.46</v>
       </c>
       <c r="C29">
-        <v>-1.6</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2258,7 +2261,7 @@
         <v>14.07</v>
       </c>
       <c r="C30">
-        <v>11.87</v>
+        <v>12.07</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2269,7 +2272,7 @@
         <v>6.93</v>
       </c>
       <c r="C31">
-        <v>4.56</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2280,7 +2283,7 @@
         <v>-8.109999999999999</v>
       </c>
       <c r="C32">
-        <v>-7.33</v>
+        <v>-7.21</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2291,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>-8.52</v>
+        <v>-8.41</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2302,7 +2305,7 @@
         <v>-7.55</v>
       </c>
       <c r="C34">
-        <v>-5.57</v>
+        <v>-5.43</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2324,7 +2327,7 @@
         <v>4.27</v>
       </c>
       <c r="C36">
-        <v>4.22</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2335,7 +2338,7 @@
         <v>-1.99</v>
       </c>
       <c r="C37">
-        <v>-1.54</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2346,7 +2349,7 @@
         <v>4.88</v>
       </c>
       <c r="C38">
-        <v>2.94</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2357,7 +2360,7 @@
         <v>-7.29</v>
       </c>
       <c r="C39">
-        <v>-7.84</v>
+        <v>-7.71</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2368,7 +2371,7 @@
         <v>-6.04</v>
       </c>
       <c r="C40">
-        <v>-3.05</v>
+        <v>-2.91</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2379,7 +2382,7 @@
         <v>-0.37</v>
       </c>
       <c r="C41">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2390,7 +2393,7 @@
         <v>-1.37</v>
       </c>
       <c r="C42">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2401,7 +2404,7 @@
         <v>2.89</v>
       </c>
       <c r="C43">
-        <v>3.42</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2412,7 +2415,7 @@
         <v>-7.82</v>
       </c>
       <c r="C44">
-        <v>-7.52</v>
+        <v>-5.61</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2423,7 +2426,7 @@
         <v>0.21</v>
       </c>
       <c r="C45">
-        <v>0.93</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2445,7 +2448,7 @@
         <v>0.76</v>
       </c>
       <c r="C47">
-        <v>0.86</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2478,7 +2481,7 @@
         <v>-3.44</v>
       </c>
       <c r="C50">
-        <v>-5.38</v>
+        <v>-5.25</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2500,7 +2503,7 @@
         <v>3.6</v>
       </c>
       <c r="C52">
-        <v>4.86</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2511,7 +2514,7 @@
         <v>0.57</v>
       </c>
       <c r="C53">
-        <v>-1.69</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2533,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>-0.2</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2544,7 +2547,7 @@
         <v>-2.35</v>
       </c>
       <c r="C56">
-        <v>-4.44</v>
+        <v>-4.33</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2555,7 +2558,7 @@
         <v>2.79</v>
       </c>
       <c r="C57">
-        <v>6.6</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2566,7 +2569,7 @@
         <v>1.78</v>
       </c>
       <c r="C58">
-        <v>-0.22</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2577,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>-8.16</v>
+        <v>-8.06</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2588,7 +2591,7 @@
         <v>-3.42</v>
       </c>
       <c r="C60">
-        <v>-4.49</v>
+        <v>-4.21</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2610,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>-7.33</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2621,7 +2624,7 @@
         <v>1.53</v>
       </c>
       <c r="C63">
-        <v>3.5</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2643,7 +2646,7 @@
         <v>-4.66</v>
       </c>
       <c r="C65">
-        <v>-4.69</v>
+        <v>-4.53</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2665,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>1.21</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2687,7 +2690,7 @@
         <v>2.24</v>
       </c>
       <c r="C69">
-        <v>6.52</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2698,7 +2701,7 @@
         <v>1.95</v>
       </c>
       <c r="C70">
-        <v>6.08</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2709,7 +2712,7 @@
         <v>6.37</v>
       </c>
       <c r="C71">
-        <v>6.02</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2720,7 +2723,7 @@
         <v>-7.63</v>
       </c>
       <c r="C72">
-        <v>-7.65</v>
+        <v>-7.54</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2731,7 +2734,7 @@
         <v>-1.02</v>
       </c>
       <c r="C73">
-        <v>-4.18</v>
+        <v>-4.06</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2753,7 +2756,7 @@
         <v>-5.49</v>
       </c>
       <c r="C75">
-        <v>-2.6</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2764,7 +2767,7 @@
         <v>1.93</v>
       </c>
       <c r="C76">
-        <v>3.67</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2775,7 +2778,7 @@
         <v>-4.52</v>
       </c>
       <c r="C77">
-        <v>-7.28</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2786,7 +2789,7 @@
         <v>0.77</v>
       </c>
       <c r="C78">
-        <v>2.46</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2797,7 +2800,7 @@
         <v>-5.36</v>
       </c>
       <c r="C79">
-        <v>-4.18</v>
+        <v>-4.08</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2808,7 +2811,7 @@
         <v>-1.33</v>
       </c>
       <c r="C80">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2830,7 +2833,7 @@
         <v>-2.22</v>
       </c>
       <c r="C82">
-        <v>-1</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2841,7 +2844,7 @@
         <v>-5.5</v>
       </c>
       <c r="C83">
-        <v>-5.17</v>
+        <v>-5.8</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2852,7 +2855,7 @@
         <v>8.16</v>
       </c>
       <c r="C84">
-        <v>8.01</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2863,7 +2866,7 @@
         <v>-5</v>
       </c>
       <c r="C85">
-        <v>-1.3</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2874,7 +2877,7 @@
         <v>-6.47</v>
       </c>
       <c r="C86">
-        <v>-6.06</v>
+        <v>-6.64</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2885,7 +2888,7 @@
         <v>0.99</v>
       </c>
       <c r="C87">
-        <v>4.46</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2896,7 +2899,7 @@
         <v>-0.9</v>
       </c>
       <c r="C88">
-        <v>4.15</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2907,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>-4.96</v>
+        <v>-4.82</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2940,7 +2943,7 @@
         <v>0.82</v>
       </c>
       <c r="C92">
-        <v>0.52</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2951,7 +2954,7 @@
         <v>2.28</v>
       </c>
       <c r="C93">
-        <v>3.23</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2962,7 +2965,7 @@
         <v>-4.16</v>
       </c>
       <c r="C94">
-        <v>-0.25</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2973,7 +2976,7 @@
         <v>-6.77</v>
       </c>
       <c r="C95">
-        <v>-6.14</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2995,7 +2998,7 @@
         <v>-9.039999999999999</v>
       </c>
       <c r="C97">
-        <v>-7.45</v>
+        <v>-7.33</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3006,7 +3009,7 @@
         <v>-3.46</v>
       </c>
       <c r="C98">
-        <v>-5.93</v>
+        <v>-5.87</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3017,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>-7.45</v>
+        <v>-7.33</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3028,7 +3031,7 @@
         <v>-8.960000000000001</v>
       </c>
       <c r="C100">
-        <v>-6.59</v>
+        <v>-6.47</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3039,7 +3042,7 @@
         <v>1.48</v>
       </c>
       <c r="C101">
-        <v>0.73</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3050,7 +3053,7 @@
         <v>-0.59</v>
       </c>
       <c r="C102">
-        <v>-3.32</v>
+        <v>-3.19</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3061,7 +3064,7 @@
         <v>-7.35</v>
       </c>
       <c r="C103">
-        <v>-6.53</v>
+        <v>-6.41</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3072,7 +3075,7 @@
         <v>-5.6</v>
       </c>
       <c r="C104">
-        <v>-5.61</v>
+        <v>-5.48</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3083,7 +3086,7 @@
         <v>2.67</v>
       </c>
       <c r="C105">
-        <v>0.48</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3094,7 +3097,7 @@
         <v>-9.140000000000001</v>
       </c>
       <c r="C106">
-        <v>-6.92</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3127,7 +3130,7 @@
         <v>-7.01</v>
       </c>
       <c r="C109">
-        <v>-2.93</v>
+        <v>-3.95</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3138,7 +3141,7 @@
         <v>-8.01</v>
       </c>
       <c r="C110">
-        <v>-5.45</v>
+        <v>-4.94</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3149,7 +3152,7 @@
         <v>-4.84</v>
       </c>
       <c r="C111">
-        <v>-3.94</v>
+        <v>-3.79</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3160,7 +3163,7 @@
         <v>9.140000000000001</v>
       </c>
       <c r="C112">
-        <v>8.27</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3171,7 +3174,7 @@
         <v>-4.82</v>
       </c>
       <c r="C113">
-        <v>-6.29</v>
+        <v>-6.18</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3182,7 +3185,7 @@
         <v>2.07</v>
       </c>
       <c r="C114">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3193,7 +3196,7 @@
         <v>-1.73</v>
       </c>
       <c r="C115">
-        <v>-3.35</v>
+        <v>-3.22</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3204,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="C116">
-        <v>-8.73</v>
+        <v>-8.619999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3226,7 +3229,7 @@
         <v>-4.72</v>
       </c>
       <c r="C118">
-        <v>-8.27</v>
+        <v>-8.18</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3237,7 +3240,7 @@
         <v>-8.85</v>
       </c>
       <c r="C119">
-        <v>-7.69</v>
+        <v>-7.57</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3248,7 +3251,7 @@
         <v>3.73</v>
       </c>
       <c r="C120">
-        <v>6.75</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3259,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="C121">
-        <v>-9.630000000000001</v>
+        <v>-9.609999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3281,7 +3284,7 @@
         <v>-9.4</v>
       </c>
       <c r="C123">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3292,7 +3295,7 @@
         <v>-5.3</v>
       </c>
       <c r="C124">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3314,7 +3317,7 @@
         <v>5.18</v>
       </c>
       <c r="C126">
-        <v>6.46</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3325,7 +3328,7 @@
         <v>-0.28</v>
       </c>
       <c r="C127">
-        <v>4.43</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3336,7 +3339,7 @@
         <v>0.53</v>
       </c>
       <c r="C128">
-        <v>-2.59</v>
+        <v>-2.49</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3347,7 +3350,7 @@
         <v>-7.25</v>
       </c>
       <c r="C129">
-        <v>-5.49</v>
+        <v>-5.36</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3358,7 +3361,7 @@
         <v>5.03</v>
       </c>
       <c r="C130">
-        <v>7.84</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3369,7 +3372,7 @@
         <v>-4.52</v>
       </c>
       <c r="C131">
-        <v>-2.54</v>
+        <v>-2.49</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3380,7 +3383,7 @@
         <v>2.67</v>
       </c>
       <c r="C132">
-        <v>1.87</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3391,7 +3394,7 @@
         <v>3.84</v>
       </c>
       <c r="C133">
-        <v>3.24</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3402,7 +3405,7 @@
         <v>-2.92</v>
       </c>
       <c r="C134">
-        <v>-5.64</v>
+        <v>-5.52</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3413,7 +3416,7 @@
         <v>-0.62</v>
       </c>
       <c r="C135">
-        <v>1.26</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3424,7 +3427,7 @@
         <v>1.59</v>
       </c>
       <c r="C136">
-        <v>6.52</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3435,7 +3438,7 @@
         <v>2.43</v>
       </c>
       <c r="C137">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3446,7 +3449,7 @@
         <v>-2.41</v>
       </c>
       <c r="C138">
-        <v>-0.39</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3468,7 +3471,7 @@
         <v>4.91</v>
       </c>
       <c r="C140">
-        <v>7.28</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3479,7 +3482,7 @@
         <v>4.95</v>
       </c>
       <c r="C141">
-        <v>4.75</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3490,7 +3493,7 @@
         <v>7.99</v>
       </c>
       <c r="C142">
-        <v>6.34</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3534,7 +3537,7 @@
         <v>-2.51</v>
       </c>
       <c r="C146">
-        <v>-1.86</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3545,7 +3548,7 @@
         <v>-8.76</v>
       </c>
       <c r="C147">
-        <v>-7.49</v>
+        <v>-7.39</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3556,7 +3559,7 @@
         <v>7.87</v>
       </c>
       <c r="C148">
-        <v>9.529999999999999</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3567,7 +3570,7 @@
         <v>-8.9</v>
       </c>
       <c r="C149">
-        <v>-9.18</v>
+        <v>-9.109999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3578,7 +3581,7 @@
         <v>-1.09</v>
       </c>
       <c r="C150">
-        <v>-1.12</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3589,7 +3592,7 @@
         <v>7.93</v>
       </c>
       <c r="C151">
-        <v>5.06</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3600,7 +3603,7 @@
         <v>1.03</v>
       </c>
       <c r="C152">
-        <v>-0.41</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3611,7 +3614,7 @@
         <v>-3.01</v>
       </c>
       <c r="C153">
-        <v>0.8100000000000001</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3622,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="C154">
-        <v>-7.91</v>
+        <v>-7.82</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3633,7 +3636,7 @@
         <v>2.42</v>
       </c>
       <c r="C155">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3644,7 +3647,7 @@
         <v>-4.18</v>
       </c>
       <c r="C156">
-        <v>-3.15</v>
+        <v>-2.91</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3655,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="C157">
-        <v>-5.28</v>
+        <v>-5.15</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3666,7 +3669,7 @@
         <v>-6.77</v>
       </c>
       <c r="C158">
-        <v>-5.31</v>
+        <v>-5.17</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3677,7 +3680,7 @@
         <v>-3.6</v>
       </c>
       <c r="C159">
-        <v>-5.04</v>
+        <v>-4.91</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3688,7 +3691,7 @@
         <v>-4.99</v>
       </c>
       <c r="C160">
-        <v>-6.63</v>
+        <v>-6.87</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3699,7 +3702,7 @@
         <v>-5.97</v>
       </c>
       <c r="C161">
-        <v>-5.99</v>
+        <v>-5.89</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3710,7 +3713,7 @@
         <v>0.13</v>
       </c>
       <c r="C162">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3743,7 +3746,7 @@
         <v>-6.91</v>
       </c>
       <c r="C165">
-        <v>-5.54</v>
+        <v>-5.37</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3754,7 +3757,7 @@
         <v>-1.91</v>
       </c>
       <c r="C166">
-        <v>-5.06</v>
+        <v>-4.94</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3765,7 +3768,7 @@
         <v>5</v>
       </c>
       <c r="C167">
-        <v>5.71</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3776,7 +3779,7 @@
         <v>4.2</v>
       </c>
       <c r="C168">
-        <v>3.09</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3787,7 +3790,7 @@
         <v>5.27</v>
       </c>
       <c r="C169">
-        <v>2.88</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3809,7 +3812,7 @@
         <v>-4.05</v>
       </c>
       <c r="C171">
-        <v>-6.75</v>
+        <v>-6.65</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3820,7 +3823,7 @@
         <v>-7.89</v>
       </c>
       <c r="C172">
-        <v>-6.45</v>
+        <v>-6.33</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3831,7 +3834,7 @@
         <v>-5.34</v>
       </c>
       <c r="C173">
-        <v>0.84</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3842,7 +3845,7 @@
         <v>-5.1</v>
       </c>
       <c r="C174">
-        <v>-5.28</v>
+        <v>-5.16</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3853,7 +3856,7 @@
         <v>-4.05</v>
       </c>
       <c r="C175">
-        <v>-2.42</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3864,7 +3867,7 @@
         <v>-1.29</v>
       </c>
       <c r="C176">
-        <v>-4.06</v>
+        <v>-4.51</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3875,7 +3878,7 @@
         <v>-3.9</v>
       </c>
       <c r="C177">
-        <v>-3.44</v>
+        <v>-3.33</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3886,7 +3889,7 @@
         <v>12.63</v>
       </c>
       <c r="C178">
-        <v>8.42</v>
+        <v>8.449999999999999</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3897,7 +3900,7 @@
         <v>-3.98</v>
       </c>
       <c r="C179">
-        <v>-2.23</v>
+        <v>-2.12</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3908,7 +3911,7 @@
         <v>-2.77</v>
       </c>
       <c r="C180">
-        <v>3.69</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3919,7 +3922,7 @@
         <v>-2.83</v>
       </c>
       <c r="C181">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3930,7 +3933,7 @@
         <v>0.19</v>
       </c>
       <c r="C182">
-        <v>-0.8</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3941,7 +3944,7 @@
         <v>-5.56</v>
       </c>
       <c r="C183">
-        <v>-0.31</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3952,7 +3955,7 @@
         <v>-8.43</v>
       </c>
       <c r="C184">
-        <v>-7.74</v>
+        <v>-7.64</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3963,7 +3966,7 @@
         <v>-2.34</v>
       </c>
       <c r="C185">
-        <v>-1.48</v>
+        <v>-2.06</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3974,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="C186">
-        <v>-8.369999999999999</v>
+        <v>-8.26</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3985,7 +3988,7 @@
         <v>-5.54</v>
       </c>
       <c r="C187">
-        <v>-1.22</v>
+        <v>-1.09</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3996,7 +3999,7 @@
         <v>1.96</v>
       </c>
       <c r="C188">
-        <v>-1.66</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4007,7 +4010,7 @@
         <v>-7.35</v>
       </c>
       <c r="C189">
-        <v>-5.22</v>
+        <v>-5.08</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4018,7 +4021,7 @@
         <v>4.25</v>
       </c>
       <c r="C190">
-        <v>-0.48</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4029,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="C191">
-        <v>-8.51</v>
+        <v>-8.390000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4040,7 +4043,7 @@
         <v>-4.24</v>
       </c>
       <c r="C192">
-        <v>-3.14</v>
+        <v>-3.04</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4051,7 +4054,7 @@
         <v>-7.1</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>-8.119999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4073,7 +4076,7 @@
         <v>-1.87</v>
       </c>
       <c r="C195">
-        <v>-1.34</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4084,7 +4087,7 @@
         <v>-3.62</v>
       </c>
       <c r="C196">
-        <v>-2.52</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4095,7 +4098,7 @@
         <v>-3.76</v>
       </c>
       <c r="C197">
-        <v>-0.02</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4106,7 +4109,7 @@
         <v>2.82</v>
       </c>
       <c r="C198">
-        <v>2.51</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4117,7 +4120,7 @@
         <v>-8.84</v>
       </c>
       <c r="C199">
-        <v>-8.119999999999999</v>
+        <v>-8.039999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4128,7 +4131,7 @@
         <v>5.34</v>
       </c>
       <c r="C200">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4139,7 +4142,7 @@
         <v>-8.289999999999999</v>
       </c>
       <c r="C201">
-        <v>-7.79</v>
+        <v>-7.71</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4150,7 +4153,7 @@
         <v>2.28</v>
       </c>
       <c r="C202">
-        <v>-0.22</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4161,7 +4164,7 @@
         <v>-5.69</v>
       </c>
       <c r="C203">
-        <v>-5.75</v>
+        <v>-5.52</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4172,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="C204">
-        <v>-10.05</v>
+        <v>-9.94</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4183,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="C205">
-        <v>-7.68</v>
+        <v>-7.56</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4194,7 +4197,7 @@
         <v>-6.06</v>
       </c>
       <c r="C206">
-        <v>-5.83</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4205,7 +4208,7 @@
         <v>0.5</v>
       </c>
       <c r="C207">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4216,7 +4219,7 @@
         <v>-1.8</v>
       </c>
       <c r="C208">
-        <v>-1.89</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4227,7 +4230,7 @@
         <v>-5.41</v>
       </c>
       <c r="C209">
-        <v>-7.43</v>
+        <v>-7.34</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4238,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="C210">
-        <v>-8.199999999999999</v>
+        <v>-8.15</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4249,7 +4252,7 @@
         <v>-0.93</v>
       </c>
       <c r="C211">
-        <v>-3.32</v>
+        <v>-3.29</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4260,7 +4263,7 @@
         <v>-6</v>
       </c>
       <c r="C212">
-        <v>-2.44</v>
+        <v>-2.31</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4271,7 +4274,7 @@
         <v>2.74</v>
       </c>
       <c r="C213">
-        <v>5.31</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4282,7 +4285,7 @@
         <v>5.89</v>
       </c>
       <c r="C214">
-        <v>2.76</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4293,7 +4296,7 @@
         <v>2.16</v>
       </c>
       <c r="C215">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4304,7 +4307,7 @@
         <v>1.85</v>
       </c>
       <c r="C216">
-        <v>3.13</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4326,7 +4329,7 @@
         <v>5.28</v>
       </c>
       <c r="C218">
-        <v>4.74</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4348,7 +4351,7 @@
         <v>-9.06</v>
       </c>
       <c r="C220">
-        <v>-8.390000000000001</v>
+        <v>-8.279999999999999</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4359,7 +4362,7 @@
         <v>-3.25</v>
       </c>
       <c r="C221">
-        <v>-2.48</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4370,7 +4373,7 @@
         <v>5.51</v>
       </c>
       <c r="C222">
-        <v>7.21</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4381,7 +4384,7 @@
         <v>5.39</v>
       </c>
       <c r="C223">
-        <v>5.93</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4392,7 +4395,7 @@
         <v>-7.15</v>
       </c>
       <c r="C224">
-        <v>-2.49</v>
+        <v>-2.34</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4403,7 +4406,7 @@
         <v>-6.73</v>
       </c>
       <c r="C225">
-        <v>-5.46</v>
+        <v>-5.35</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4414,7 +4417,7 @@
         <v>2.84</v>
       </c>
       <c r="C226">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4425,7 +4428,7 @@
         <v>-8</v>
       </c>
       <c r="C227">
-        <v>-3.11</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4436,7 +4439,7 @@
         <v>11.04</v>
       </c>
       <c r="C228">
-        <v>9.609999999999999</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4447,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="C229">
-        <v>-4.5</v>
+        <v>-4.36</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4458,7 +4461,7 @@
         <v>-6.77</v>
       </c>
       <c r="C230">
-        <v>-5.36</v>
+        <v>-5.17</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4469,7 +4472,7 @@
         <v>-5.42</v>
       </c>
       <c r="C231">
-        <v>-4.25</v>
+        <v>-4.13</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4480,7 +4483,7 @@
         <v>-4.51</v>
       </c>
       <c r="C232">
-        <v>-2.82</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4491,7 +4494,7 @@
         <v>-5.47</v>
       </c>
       <c r="C233">
-        <v>-3.85</v>
+        <v>-3.74</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4502,7 +4505,7 @@
         <v>-8.18</v>
       </c>
       <c r="C234">
-        <v>-4.1</v>
+        <v>-3.94</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4513,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="C235">
-        <v>-3.77</v>
+        <v>-3.64</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4524,7 +4527,7 @@
         <v>4.99</v>
       </c>
       <c r="C236">
-        <v>4.33</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4546,7 +4549,7 @@
         <v>3.55</v>
       </c>
       <c r="C238">
-        <v>5.94</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4568,7 +4571,7 @@
         <v>-0.51</v>
       </c>
       <c r="C240">
-        <v>-0.61</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4579,7 +4582,7 @@
         <v>-5.58</v>
       </c>
       <c r="C241">
-        <v>-2.14</v>
+        <v>-1.99</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4590,7 +4593,7 @@
         <v>-0.93</v>
       </c>
       <c r="C242">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4601,7 +4604,7 @@
         <v>3.69</v>
       </c>
       <c r="C243">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4612,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="C244">
-        <v>-6.98</v>
+        <v>-6.86</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4623,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="C245">
-        <v>-6.85</v>
+        <v>-6.78</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4634,7 +4637,7 @@
         <v>-5.42</v>
       </c>
       <c r="C246">
-        <v>-3.01</v>
+        <v>-2.92</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4656,7 +4659,7 @@
         <v>-6.29</v>
       </c>
       <c r="C248">
-        <v>-7.1</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4667,7 +4670,7 @@
         <v>9.140000000000001</v>
       </c>
       <c r="C249">
-        <v>9.960000000000001</v>
+        <v>10.11</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4678,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="C250">
-        <v>-6.98</v>
+        <v>-6.86</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4689,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="C251">
-        <v>-8.390000000000001</v>
+        <v>-8.279999999999999</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4700,7 +4703,7 @@
         <v>-7.52</v>
       </c>
       <c r="C252">
-        <v>-5.11</v>
+        <v>-4.98</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4711,7 +4714,7 @@
         <v>1.64</v>
       </c>
       <c r="C253">
-        <v>3.18</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4722,7 +4725,7 @@
         <v>-6.62</v>
       </c>
       <c r="C254">
-        <v>-3.74</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4733,7 +4736,7 @@
         <v>0.5</v>
       </c>
       <c r="C255">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4744,7 +4747,7 @@
         <v>-4.79</v>
       </c>
       <c r="C256">
-        <v>-5.81</v>
+        <v>-5.72</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4755,7 +4758,7 @@
         <v>-8.859999999999999</v>
       </c>
       <c r="C257">
-        <v>-5.85</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4766,7 +4769,7 @@
         <v>-7.29</v>
       </c>
       <c r="C258">
-        <v>-5.27</v>
+        <v>-5.94</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4777,7 +4780,7 @@
         <v>5.69</v>
       </c>
       <c r="C259">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4788,7 +4791,7 @@
         <v>-5.64</v>
       </c>
       <c r="C260">
-        <v>-4.43</v>
+        <v>-4.31</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4799,7 +4802,7 @@
         <v>-5.29</v>
       </c>
       <c r="C261">
-        <v>-7.38</v>
+        <v>-7.26</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4821,7 +4824,7 @@
         <v>1.04</v>
       </c>
       <c r="C263">
-        <v>5.15</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4832,7 +4835,7 @@
         <v>-2.7</v>
       </c>
       <c r="C264">
-        <v>-0.75</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4843,7 +4846,7 @@
         <v>-8.4</v>
       </c>
       <c r="C265">
-        <v>-6.1</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4854,7 +4857,7 @@
         <v>-5.95</v>
       </c>
       <c r="C266">
-        <v>-10.05</v>
+        <v>-9.94</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4865,7 +4868,7 @@
         <v>-7.48</v>
       </c>
       <c r="C267">
-        <v>-3.33</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4876,7 +4879,7 @@
         <v>0.24</v>
       </c>
       <c r="C268">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4887,7 +4890,7 @@
         <v>-1.15</v>
       </c>
       <c r="C269">
-        <v>-3.46</v>
+        <v>-3.38</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4898,7 +4901,7 @@
         <v>0.67</v>
       </c>
       <c r="C270">
-        <v>-2.93</v>
+        <v>-2.89</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4909,7 +4912,7 @@
         <v>-4.01</v>
       </c>
       <c r="C271">
-        <v>-1.55</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4920,7 +4923,7 @@
         <v>-0.6899999999999999</v>
       </c>
       <c r="C272">
-        <v>-3.45</v>
+        <v>-2.24</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4931,7 +4934,7 @@
         <v>-3.56</v>
       </c>
       <c r="C273">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4942,7 +4945,7 @@
         <v>-5.79</v>
       </c>
       <c r="C274">
-        <v>-6.9</v>
+        <v>-6.79</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4953,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="C275">
-        <v>-9.18</v>
+        <v>-9.109999999999999</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4964,7 +4967,7 @@
         <v>3.15</v>
       </c>
       <c r="C276">
-        <v>10.65</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4975,7 +4978,7 @@
         <v>-7.11</v>
       </c>
       <c r="C277">
-        <v>-6.64</v>
+        <v>-6.54</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4986,7 +4989,7 @@
         <v>-1.04</v>
       </c>
       <c r="C278">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4997,7 +5000,7 @@
         <v>2.83</v>
       </c>
       <c r="C279">
-        <v>-0.15</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5008,7 +5011,7 @@
         <v>-2.19</v>
       </c>
       <c r="C280">
-        <v>-3.65</v>
+        <v>-3.55</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5019,7 +5022,7 @@
         <v>1.47</v>
       </c>
       <c r="C281">
-        <v>4.83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5030,7 +5033,7 @@
         <v>-4.66</v>
       </c>
       <c r="C282">
-        <v>-6.94</v>
+        <v>-7.18</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5052,7 +5055,7 @@
         <v>-1.49</v>
       </c>
       <c r="C284">
-        <v>-7.17</v>
+        <v>-7.05</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5063,7 +5066,7 @@
         <v>2.62</v>
       </c>
       <c r="C285">
-        <v>-0.2</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5085,7 +5088,7 @@
         <v>-2.23</v>
       </c>
       <c r="C287">
-        <v>0.51</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5096,7 +5099,7 @@
         <v>-6.75</v>
       </c>
       <c r="C288">
-        <v>-5.67</v>
+        <v>-5.48</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5107,7 +5110,7 @@
         <v>-2.84</v>
       </c>
       <c r="C289">
-        <v>-1.41</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5118,7 +5121,7 @@
         <v>1.49</v>
       </c>
       <c r="C290">
-        <v>4.35</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5129,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="C291">
-        <v>-6.83</v>
+        <v>-6.71</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5140,7 +5143,7 @@
         <v>1.69</v>
       </c>
       <c r="C292">
-        <v>0.77</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5151,7 +5154,7 @@
         <v>-7.49</v>
       </c>
       <c r="C293">
-        <v>-6.11</v>
+        <v>-5.99</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5162,7 +5165,7 @@
         <v>-9.26</v>
       </c>
       <c r="C294">
-        <v>-5.11</v>
+        <v>-4.99</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5173,7 +5176,7 @@
         <v>8.18</v>
       </c>
       <c r="C295">
-        <v>9.48</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5184,7 +5187,7 @@
         <v>-3.38</v>
       </c>
       <c r="C296">
-        <v>-5.81</v>
+        <v>-5.68</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5206,7 +5209,7 @@
         <v>-4</v>
       </c>
       <c r="C298">
-        <v>-1.71</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5217,7 +5220,7 @@
         <v>2.05</v>
       </c>
       <c r="C299">
-        <v>2.41</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5239,7 +5242,7 @@
         <v>-7.17</v>
       </c>
       <c r="C301">
-        <v>-5.05</v>
+        <v>-4.93</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5250,7 +5253,7 @@
         <v>-1.99</v>
       </c>
       <c r="C302">
-        <v>-1.27</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5272,7 +5275,7 @@
         <v>-0.16</v>
       </c>
       <c r="C304">
-        <v>-0.32</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5294,7 +5297,7 @@
         <v>-0.7</v>
       </c>
       <c r="C306">
-        <v>-0.97</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5305,7 +5308,7 @@
         <v>-5.87</v>
       </c>
       <c r="C307">
-        <v>-2.98</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5316,7 +5319,7 @@
         <v>-2.19</v>
       </c>
       <c r="C308">
-        <v>0.66</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5327,7 +5330,7 @@
         <v>-6.19</v>
       </c>
       <c r="C309">
-        <v>-4.52</v>
+        <v>-4.39</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5338,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="C310">
-        <v>-8.390000000000001</v>
+        <v>-8.279999999999999</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5349,7 +5352,7 @@
         <v>9.369999999999999</v>
       </c>
       <c r="C311">
-        <v>9.49</v>
+        <v>9.69</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5360,7 +5363,7 @@
         <v>-1.08</v>
       </c>
       <c r="C312">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5382,7 +5385,7 @@
         <v>-1.83</v>
       </c>
       <c r="C314">
-        <v>-4.36</v>
+        <v>-4.26</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5393,7 +5396,7 @@
         <v>-6.51</v>
       </c>
       <c r="C315">
-        <v>-1.83</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5404,7 +5407,7 @@
         <v>0.59</v>
       </c>
       <c r="C316">
-        <v>0.6899999999999999</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5437,7 +5440,7 @@
         <v>0.3</v>
       </c>
       <c r="C319">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5448,7 +5451,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="C320">
-        <v>-7.1</v>
+        <v>-6.98</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5470,7 +5473,7 @@
         <v>-1.47</v>
       </c>
       <c r="C322">
-        <v>-0.75</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5481,7 +5484,7 @@
         <v>-7.69</v>
       </c>
       <c r="C323">
-        <v>-6.34</v>
+        <v>-6.69</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5503,7 +5506,7 @@
         <v>-2.56</v>
       </c>
       <c r="C325">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5514,7 +5517,7 @@
         <v>-5.57</v>
       </c>
       <c r="C326">
-        <v>-4.5</v>
+        <v>-5.18</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5525,7 +5528,7 @@
         <v>1.5</v>
       </c>
       <c r="C327">
-        <v>-1.08</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5536,7 +5539,7 @@
         <v>-0.63</v>
       </c>
       <c r="C328">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5547,7 +5550,7 @@
         <v>8.42</v>
       </c>
       <c r="C329">
-        <v>6.89</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5558,7 +5561,7 @@
         <v>-2.41</v>
       </c>
       <c r="C330">
-        <v>-0.73</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5569,7 +5572,7 @@
         <v>8.65</v>
       </c>
       <c r="C331">
-        <v>9.130000000000001</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5580,7 +5583,7 @@
         <v>-2.84</v>
       </c>
       <c r="C332">
-        <v>-0.73</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -5591,7 +5594,7 @@
         <v>6.14</v>
       </c>
       <c r="C333">
-        <v>0.53</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -5602,7 +5605,7 @@
         <v>6.58</v>
       </c>
       <c r="C334">
-        <v>7.03</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5624,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="C336">
-        <v>-7.87</v>
+        <v>-7.76</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5635,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="C337">
-        <v>-9.01</v>
+        <v>-9.34</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5646,7 +5649,7 @@
         <v>-3.66</v>
       </c>
       <c r="C338">
-        <v>-3.56</v>
+        <v>-3.42</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5657,7 +5660,7 @@
         <v>-1</v>
       </c>
       <c r="C339">
-        <v>-3.46</v>
+        <v>-3.33</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -5668,7 +5671,7 @@
         <v>-0.22</v>
       </c>
       <c r="C340">
-        <v>3.21</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -5679,7 +5682,7 @@
         <v>14.3</v>
       </c>
       <c r="C341">
-        <v>7.46</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -5690,7 +5693,7 @@
         <v>-8.449999999999999</v>
       </c>
       <c r="C342">
-        <v>-7.49</v>
+        <v>-7.89</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -5701,7 +5704,7 @@
         <v>-1.15</v>
       </c>
       <c r="C343">
-        <v>-6.44</v>
+        <v>-6.41</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -5712,7 +5715,7 @@
         <v>-2.81</v>
       </c>
       <c r="C344">
-        <v>-0.74</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -5723,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="C345">
-        <v>-4.68</v>
+        <v>-4.51</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -5734,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="C346">
-        <v>-6.69</v>
+        <v>-6.57</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -5745,7 +5748,7 @@
         <v>-5.4</v>
       </c>
       <c r="C347">
-        <v>-2.29</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -5767,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="C349">
-        <v>-8.66</v>
+        <v>-8.57</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -5778,7 +5781,7 @@
         <v>-2.88</v>
       </c>
       <c r="C350">
-        <v>-3.38</v>
+        <v>-3.26</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -5789,7 +5792,7 @@
         <v>0.19</v>
       </c>
       <c r="C351">
-        <v>-0.45</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -5800,7 +5803,7 @@
         <v>-6.9</v>
       </c>
       <c r="C352">
-        <v>-7.19</v>
+        <v>-6.95</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -5811,7 +5814,7 @@
         <v>-3.69</v>
       </c>
       <c r="C353">
-        <v>-6.57</v>
+        <v>-6.45</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -5822,7 +5825,7 @@
         <v>-1.1</v>
       </c>
       <c r="C354">
-        <v>-2.84</v>
+        <v>-2.69</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -5844,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="C356">
-        <v>-7.01</v>
+        <v>-6.9</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -5855,7 +5858,7 @@
         <v>-4.47</v>
       </c>
       <c r="C357">
-        <v>-5.97</v>
+        <v>-5.86</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -5866,7 +5869,7 @@
         <v>-4.49</v>
       </c>
       <c r="C358">
-        <v>-4.39</v>
+        <v>-4.34</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -5877,7 +5880,7 @@
         <v>-4.93</v>
       </c>
       <c r="C359">
-        <v>-6.3</v>
+        <v>-5.19</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -5910,7 +5913,7 @@
         <v>-4.74</v>
       </c>
       <c r="C362">
-        <v>-4.27</v>
+        <v>-4.12</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -5932,7 +5935,7 @@
         <v>-5.6</v>
       </c>
       <c r="C364">
-        <v>-4.83</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -5954,7 +5957,7 @@
         <v>1.72</v>
       </c>
       <c r="C366">
-        <v>3.28</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -5965,7 +5968,7 @@
         <v>2.52</v>
       </c>
       <c r="C367">
-        <v>2.59</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -5976,7 +5979,7 @@
         <v>0.84</v>
       </c>
       <c r="C368">
-        <v>0.27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -5987,7 +5990,7 @@
         <v>0.84</v>
       </c>
       <c r="C369">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -5998,7 +6001,7 @@
         <v>-1.02</v>
       </c>
       <c r="C370">
-        <v>0.49</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6031,7 +6034,7 @@
         <v>-5.49</v>
       </c>
       <c r="C373">
-        <v>-5.18</v>
+        <v>-5.06</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6042,7 +6045,7 @@
         <v>-2.23</v>
       </c>
       <c r="C374">
-        <v>-1.29</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6053,7 +6056,7 @@
         <v>-4.07</v>
       </c>
       <c r="C375">
-        <v>-1.94</v>
+        <v>-1.83</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6064,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="C376">
-        <v>-8.199999999999999</v>
+        <v>-8.08</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6075,7 +6078,7 @@
         <v>-9.07</v>
       </c>
       <c r="C377">
-        <v>-5.82</v>
+        <v>-5.76</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6086,7 +6089,7 @@
         <v>4</v>
       </c>
       <c r="C378">
-        <v>3.86</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6097,7 +6100,7 @@
         <v>-3.46</v>
       </c>
       <c r="C379">
-        <v>-1.32</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6119,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="C381">
-        <v>-5.19</v>
+        <v>-5.07</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6130,7 +6133,7 @@
         <v>1.17</v>
       </c>
       <c r="C382">
-        <v>4.27</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6141,7 +6144,7 @@
         <v>-1.5</v>
       </c>
       <c r="C383">
-        <v>-2.92</v>
+        <v>-2.78</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6152,7 +6155,7 @@
         <v>-0.43</v>
       </c>
       <c r="C384">
-        <v>3.1</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6163,7 +6166,7 @@
         <v>-7.39</v>
       </c>
       <c r="C385">
-        <v>-6.54</v>
+        <v>-6.43</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6174,7 +6177,7 @@
         <v>-1.75</v>
       </c>
       <c r="C386">
-        <v>-1.58</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6185,7 +6188,7 @@
         <v>-2.28</v>
       </c>
       <c r="C387">
-        <v>-2.57</v>
+        <v>-2.45</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6196,7 +6199,7 @@
         <v>2.83</v>
       </c>
       <c r="C388">
-        <v>0.9399999999999999</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6218,7 +6221,7 @@
         <v>15.05</v>
       </c>
       <c r="C390">
-        <v>15.97</v>
+        <v>16.17</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -6229,7 +6232,7 @@
         <v>-1.44</v>
       </c>
       <c r="C391">
-        <v>-3.07</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6240,7 +6243,7 @@
         <v>5.44</v>
       </c>
       <c r="C392">
-        <v>8.56</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6251,7 +6254,7 @@
         <v>-0.51</v>
       </c>
       <c r="C393">
-        <v>-4.42</v>
+        <v>-4.29</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6262,7 +6265,7 @@
         <v>1.65</v>
       </c>
       <c r="C394">
-        <v>6.41</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6273,7 +6276,7 @@
         <v>2.23</v>
       </c>
       <c r="C395">
-        <v>2.17</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6284,7 +6287,7 @@
         <v>-2.33</v>
       </c>
       <c r="C396">
-        <v>-1.05</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6295,7 +6298,7 @@
         <v>-5.49</v>
       </c>
       <c r="C397">
-        <v>2.18</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6306,7 +6309,7 @@
         <v>-8.9</v>
       </c>
       <c r="C398">
-        <v>-8.17</v>
+        <v>-8.050000000000001</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6317,7 +6320,7 @@
         <v>3.15</v>
       </c>
       <c r="C399">
-        <v>1.46</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6339,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="C401">
-        <v>-6.12</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6350,7 +6353,7 @@
         <v>-7.65</v>
       </c>
       <c r="C402">
-        <v>-3.03</v>
+        <v>-2.91</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6372,7 +6375,7 @@
         <v>0.01</v>
       </c>
       <c r="C404">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6383,7 +6386,7 @@
         <v>-8.27</v>
       </c>
       <c r="C405">
-        <v>-7.01</v>
+        <v>-7.37</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6405,7 +6408,7 @@
         <v>-8.52</v>
       </c>
       <c r="C407">
-        <v>-7.31</v>
+        <v>-7.19</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6416,7 +6419,7 @@
         <v>2.81</v>
       </c>
       <c r="C408">
-        <v>5.41</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6427,7 +6430,7 @@
         <v>3.02</v>
       </c>
       <c r="C409">
-        <v>4.16</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -6438,7 +6441,7 @@
         <v>-4.28</v>
       </c>
       <c r="C410">
-        <v>-4.29</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -6449,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="C411">
-        <v>-7.44</v>
+        <v>-7.32</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -6460,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="C412">
-        <v>-4.75</v>
+        <v>-4.63</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -6471,7 +6474,7 @@
         <v>-1.21</v>
       </c>
       <c r="C413">
-        <v>-1.79</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -6482,7 +6485,7 @@
         <v>-7.18</v>
       </c>
       <c r="C414">
-        <v>-4.61</v>
+        <v>-4.02</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -6493,7 +6496,7 @@
         <v>6.4</v>
       </c>
       <c r="C415">
-        <v>5.64</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -6504,7 +6507,7 @@
         <v>-3.05</v>
       </c>
       <c r="C416">
-        <v>-1.38</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -6515,7 +6518,7 @@
         <v>-1.21</v>
       </c>
       <c r="C417">
-        <v>3.03</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -6526,7 +6529,7 @@
         <v>-7.35</v>
       </c>
       <c r="C418">
-        <v>-3.09</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -6537,7 +6540,7 @@
         <v>-2.58</v>
       </c>
       <c r="C419">
-        <v>-3.31</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -6559,7 +6562,7 @@
         <v>-5.57</v>
       </c>
       <c r="C421">
-        <v>-5.72</v>
+        <v>-5.62</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -6570,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="C422">
-        <v>-3.91</v>
+        <v>-3.72</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -6592,7 +6595,7 @@
         <v>0.42</v>
       </c>
       <c r="C424">
-        <v>3.32</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -6603,7 +6606,7 @@
         <v>-4.97</v>
       </c>
       <c r="C425">
-        <v>-3.86</v>
+        <v>-4.31</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -6614,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="C426">
-        <v>-6.18</v>
+        <v>-6.06</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -6625,7 +6628,7 @@
         <v>-1.28</v>
       </c>
       <c r="C427">
-        <v>-5.92</v>
+        <v>-5.8</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -6636,7 +6639,7 @@
         <v>-5.98</v>
       </c>
       <c r="C428">
-        <v>-7.3</v>
+        <v>-7.19</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -6647,7 +6650,7 @@
         <v>-5.61</v>
       </c>
       <c r="C429">
-        <v>-8.73</v>
+        <v>-8.619999999999999</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -6658,7 +6661,7 @@
         <v>-8.789999999999999</v>
       </c>
       <c r="C430">
-        <v>-6.09</v>
+        <v>-5.94</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -6669,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="C431">
-        <v>-8.02</v>
+        <v>-7.9</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -6680,7 +6683,7 @@
         <v>-3.86</v>
       </c>
       <c r="C432">
-        <v>-6.69</v>
+        <v>-6.84</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -6702,7 +6705,7 @@
         <v>-3.14</v>
       </c>
       <c r="C434">
-        <v>-3.66</v>
+        <v>-3.51</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -6713,7 +6716,7 @@
         <v>-2.6</v>
       </c>
       <c r="C435">
-        <v>3.02</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -6724,7 +6727,7 @@
         <v>3.94</v>
       </c>
       <c r="C436">
-        <v>2.14</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -6735,7 +6738,7 @@
         <v>-0.1</v>
       </c>
       <c r="C437">
-        <v>0.09</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -6746,7 +6749,7 @@
         <v>-2.51</v>
       </c>
       <c r="C438">
-        <v>-0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -6757,7 +6760,7 @@
         <v>-4.87</v>
       </c>
       <c r="C439">
-        <v>-3.31</v>
+        <v>-3.19</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -6768,7 +6771,7 @@
         <v>-8.06</v>
       </c>
       <c r="C440">
-        <v>-6.86</v>
+        <v>-6.17</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -6790,7 +6793,7 @@
         <v>-2.1</v>
       </c>
       <c r="C442">
-        <v>-2.83</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -6801,7 +6804,7 @@
         <v>-5.64</v>
       </c>
       <c r="C443">
-        <v>-1.87</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -6812,7 +6815,7 @@
         <v>-8.83</v>
       </c>
       <c r="C444">
-        <v>-3.61</v>
+        <v>-3.26</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -6823,7 +6826,7 @@
         <v>-2.42</v>
       </c>
       <c r="C445">
-        <v>2.68</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -6834,7 +6837,7 @@
         <v>-0.2</v>
       </c>
       <c r="C446">
-        <v>-1.36</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -6845,7 +6848,7 @@
         <v>7.97</v>
       </c>
       <c r="C447">
-        <v>4.63</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -6856,7 +6859,7 @@
         <v>-0.5</v>
       </c>
       <c r="C448">
-        <v>2.61</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -6867,7 +6870,7 @@
         <v>-2.46</v>
       </c>
       <c r="C449">
-        <v>-3.38</v>
+        <v>-3.28</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -6878,7 +6881,7 @@
         <v>-0.7</v>
       </c>
       <c r="C450">
-        <v>0</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -6889,7 +6892,7 @@
         <v>14.19</v>
       </c>
       <c r="C451">
-        <v>10.21</v>
+        <v>10.49</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -6900,7 +6903,7 @@
         <v>-6.19</v>
       </c>
       <c r="C452">
-        <v>-6.68</v>
+        <v>-6.55</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -6911,7 +6914,7 @@
         <v>-8.970000000000001</v>
       </c>
       <c r="C453">
-        <v>-6.63</v>
+        <v>-6.74</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -6922,7 +6925,7 @@
         <v>-6.07</v>
       </c>
       <c r="C454">
-        <v>-5.24</v>
+        <v>-5.13</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -6933,7 +6936,7 @@
         <v>-4.23</v>
       </c>
       <c r="C455">
-        <v>-5.49</v>
+        <v>-5.38</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -6944,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="C456">
-        <v>-5.85</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -6952,10 +6955,10 @@
         <v>458</v>
       </c>
       <c r="B457">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="C457">
-        <v>10.8</v>
+        <v>-5.79</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -6963,10 +6966,10 @@
         <v>459</v>
       </c>
       <c r="B458">
-        <v>-3.94</v>
+        <v>9.09</v>
       </c>
       <c r="C458">
-        <v>-5.45</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -6974,10 +6977,10 @@
         <v>460</v>
       </c>
       <c r="B459">
-        <v>-3.43</v>
+        <v>-3.94</v>
       </c>
       <c r="C459">
-        <v>-6.56</v>
+        <v>-4.85</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -6985,10 +6988,10 @@
         <v>461</v>
       </c>
       <c r="B460">
-        <v>-5.1</v>
+        <v>-3.43</v>
       </c>
       <c r="C460">
-        <v>-3.29</v>
+        <v>-6.5</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -6996,10 +6999,10 @@
         <v>462</v>
       </c>
       <c r="B461">
-        <v>-0.61</v>
+        <v>-5.1</v>
       </c>
       <c r="C461">
-        <v>-0.51</v>
+        <v>-3.17</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -7007,10 +7010,10 @@
         <v>463</v>
       </c>
       <c r="B462">
-        <v>-9.119999999999999</v>
+        <v>-0.61</v>
       </c>
       <c r="C462">
-        <v>-3.3</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7018,10 +7021,10 @@
         <v>464</v>
       </c>
       <c r="B463">
-        <v>0</v>
+        <v>-9.119999999999999</v>
       </c>
       <c r="C463">
-        <v>-5.93</v>
+        <v>-3.15</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7029,10 +7032,10 @@
         <v>465</v>
       </c>
       <c r="B464">
-        <v>-0.59</v>
+        <v>0</v>
       </c>
       <c r="C464">
-        <v>2.31</v>
+        <v>-5.47</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -7040,10 +7043,10 @@
         <v>466</v>
       </c>
       <c r="B465">
-        <v>-2.49</v>
+        <v>-0.59</v>
       </c>
       <c r="C465">
-        <v>0.37</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7051,10 +7054,10 @@
         <v>467</v>
       </c>
       <c r="B466">
-        <v>0.6</v>
+        <v>-2.49</v>
       </c>
       <c r="C466">
-        <v>-0.66</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -7062,10 +7065,10 @@
         <v>468</v>
       </c>
       <c r="B467">
-        <v>-1.97</v>
+        <v>0.6</v>
       </c>
       <c r="C467">
-        <v>-4.53</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7073,10 +7076,10 @@
         <v>469</v>
       </c>
       <c r="B468">
-        <v>-7.9</v>
+        <v>-1.97</v>
       </c>
       <c r="C468">
-        <v>-8.390000000000001</v>
+        <v>-4.43</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7084,10 +7087,10 @@
         <v>470</v>
       </c>
       <c r="B469">
-        <v>0.93</v>
+        <v>-7.9</v>
       </c>
       <c r="C469">
-        <v>1.89</v>
+        <v>-6.91</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7095,10 +7098,10 @@
         <v>471</v>
       </c>
       <c r="B470">
-        <v>-5.31</v>
+        <v>0.93</v>
       </c>
       <c r="C470">
-        <v>-2.55</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7106,10 +7109,10 @@
         <v>472</v>
       </c>
       <c r="B471">
-        <v>-6.24</v>
+        <v>-5.31</v>
       </c>
       <c r="C471">
-        <v>-5.83</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7117,10 +7120,10 @@
         <v>473</v>
       </c>
       <c r="B472">
-        <v>-5.42</v>
+        <v>-6.24</v>
       </c>
       <c r="C472">
-        <v>-0.58</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7128,10 +7131,10 @@
         <v>474</v>
       </c>
       <c r="B473">
-        <v>2.93</v>
+        <v>-5.42</v>
       </c>
       <c r="C473">
-        <v>2.32</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7139,10 +7142,10 @@
         <v>475</v>
       </c>
       <c r="B474">
-        <v>-4.16</v>
+        <v>2.93</v>
       </c>
       <c r="C474">
-        <v>-8.029999999999999</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7150,10 +7153,10 @@
         <v>476</v>
       </c>
       <c r="B475">
-        <v>-2.3</v>
+        <v>-4.16</v>
       </c>
       <c r="C475">
-        <v>1.2</v>
+        <v>-7.92</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -7161,10 +7164,10 @@
         <v>477</v>
       </c>
       <c r="B476">
-        <v>9.970000000000001</v>
+        <v>-2.3</v>
       </c>
       <c r="C476">
-        <v>8.41</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -7172,10 +7175,10 @@
         <v>478</v>
       </c>
       <c r="B477">
-        <v>2.31</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="C477">
-        <v>-1.02</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -7183,10 +7186,10 @@
         <v>479</v>
       </c>
       <c r="B478">
-        <v>-0.52</v>
+        <v>2.31</v>
       </c>
       <c r="C478">
-        <v>-5.67</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -7194,10 +7197,10 @@
         <v>480</v>
       </c>
       <c r="B479">
-        <v>-2.04</v>
+        <v>-0.52</v>
       </c>
       <c r="C479">
-        <v>2.41</v>
+        <v>-5.57</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -7205,10 +7208,10 @@
         <v>481</v>
       </c>
       <c r="B480">
-        <v>-6.67</v>
+        <v>-2.04</v>
       </c>
       <c r="C480">
-        <v>0</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -7216,10 +7219,10 @@
         <v>482</v>
       </c>
       <c r="B481">
-        <v>0</v>
+        <v>-6.67</v>
       </c>
       <c r="C481">
-        <v>-8.050000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -7230,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="C482">
-        <v>-8.029999999999999</v>
+        <v>-7.94</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -7238,10 +7241,10 @@
         <v>484</v>
       </c>
       <c r="B483">
-        <v>-5.17</v>
+        <v>0</v>
       </c>
       <c r="C483">
-        <v>-7.17</v>
+        <v>-7.92</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -7249,10 +7252,10 @@
         <v>485</v>
       </c>
       <c r="B484">
-        <v>-3.84</v>
+        <v>-5.17</v>
       </c>
       <c r="C484">
-        <v>-3.94</v>
+        <v>-7.05</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -7260,10 +7263,10 @@
         <v>486</v>
       </c>
       <c r="B485">
-        <v>2.3</v>
+        <v>-3.84</v>
       </c>
       <c r="C485">
-        <v>0</v>
+        <v>-3.79</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -7271,10 +7274,10 @@
         <v>487</v>
       </c>
       <c r="B486">
-        <v>-6.06</v>
+        <v>2.3</v>
       </c>
       <c r="C486">
-        <v>-3.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -7282,10 +7285,10 @@
         <v>488</v>
       </c>
       <c r="B487">
-        <v>0</v>
+        <v>-6.06</v>
       </c>
       <c r="C487">
-        <v>-8.300000000000001</v>
+        <v>-3.73</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -7293,10 +7296,10 @@
         <v>489</v>
       </c>
       <c r="B488">
-        <v>-7.04</v>
+        <v>0</v>
       </c>
       <c r="C488">
-        <v>0</v>
+        <v>-8.18</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -7304,10 +7307,10 @@
         <v>490</v>
       </c>
       <c r="B489">
-        <v>-8.859999999999999</v>
+        <v>-7.04</v>
       </c>
       <c r="C489">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -7315,10 +7318,10 @@
         <v>491</v>
       </c>
       <c r="B490">
-        <v>2.85</v>
+        <v>-8.859999999999999</v>
       </c>
       <c r="C490">
-        <v>5.49</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -7326,10 +7329,10 @@
         <v>492</v>
       </c>
       <c r="B491">
-        <v>-8.16</v>
+        <v>2.85</v>
       </c>
       <c r="C491">
-        <v>-5.01</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -7337,10 +7340,10 @@
         <v>493</v>
       </c>
       <c r="B492">
-        <v>-6.38</v>
+        <v>-8.16</v>
       </c>
       <c r="C492">
-        <v>-7.26</v>
+        <v>-4.85</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -7348,10 +7351,10 @@
         <v>494</v>
       </c>
       <c r="B493">
-        <v>8.51</v>
+        <v>-6.38</v>
       </c>
       <c r="C493">
-        <v>2.93</v>
+        <v>-7.38</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -7359,10 +7362,10 @@
         <v>495</v>
       </c>
       <c r="B494">
-        <v>0</v>
+        <v>8.51</v>
       </c>
       <c r="C494">
-        <v>-7.87</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -7370,10 +7373,10 @@
         <v>496</v>
       </c>
       <c r="B495">
-        <v>5.41</v>
+        <v>0</v>
       </c>
       <c r="C495">
-        <v>4.4</v>
+        <v>-7.76</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -7381,10 +7384,10 @@
         <v>497</v>
       </c>
       <c r="B496">
-        <v>1.58</v>
+        <v>5.41</v>
       </c>
       <c r="C496">
-        <v>1.58</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -7392,10 +7395,10 @@
         <v>498</v>
       </c>
       <c r="B497">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C497">
-        <v>-6.65</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -7403,10 +7406,10 @@
         <v>499</v>
       </c>
       <c r="B498">
-        <v>-5.47</v>
+        <v>0</v>
       </c>
       <c r="C498">
-        <v>-7.04</v>
+        <v>-6.53</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -7414,10 +7417,10 @@
         <v>500</v>
       </c>
       <c r="B499">
-        <v>14.59</v>
+        <v>-5.47</v>
       </c>
       <c r="C499">
-        <v>11.67</v>
+        <v>-6.91</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -7425,10 +7428,10 @@
         <v>501</v>
       </c>
       <c r="B500">
-        <v>-0.9399999999999999</v>
+        <v>14.59</v>
       </c>
       <c r="C500">
-        <v>0</v>
+        <v>11.57</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -7436,10 +7439,10 @@
         <v>502</v>
       </c>
       <c r="B501">
-        <v>-7.48</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="C501">
-        <v>-7.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -7447,10 +7450,10 @@
         <v>503</v>
       </c>
       <c r="B502">
-        <v>-8.1</v>
+        <v>-7.48</v>
       </c>
       <c r="C502">
-        <v>-5.23</v>
+        <v>-7.57</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -7458,10 +7461,10 @@
         <v>504</v>
       </c>
       <c r="B503">
-        <v>2.49</v>
+        <v>-8.1</v>
       </c>
       <c r="C503">
-        <v>5.17</v>
+        <v>-5.17</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -7469,10 +7472,10 @@
         <v>505</v>
       </c>
       <c r="B504">
-        <v>0.09</v>
+        <v>2.49</v>
       </c>
       <c r="C504">
-        <v>0.43</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -7480,10 +7483,10 @@
         <v>506</v>
       </c>
       <c r="B505">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="C505">
-        <v>-7.45</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -7491,10 +7494,10 @@
         <v>507</v>
       </c>
       <c r="B506">
-        <v>-3.24</v>
+        <v>0</v>
       </c>
       <c r="C506">
-        <v>-5.82</v>
+        <v>-7.33</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -7502,10 +7505,10 @@
         <v>508</v>
       </c>
       <c r="B507">
-        <v>0</v>
+        <v>-3.24</v>
       </c>
       <c r="C507">
-        <v>-8.84</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -7516,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="C508">
-        <v>-8.26</v>
+        <v>-8.77</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -7524,10 +7527,10 @@
         <v>510</v>
       </c>
       <c r="B509">
-        <v>-3.92</v>
+        <v>0</v>
       </c>
       <c r="C509">
-        <v>-1.34</v>
+        <v>-8.130000000000001</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -7535,10 +7538,10 @@
         <v>511</v>
       </c>
       <c r="B510">
-        <v>-2.64</v>
+        <v>-3.92</v>
       </c>
       <c r="C510">
-        <v>-1.83</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -7546,10 +7549,10 @@
         <v>512</v>
       </c>
       <c r="B511">
-        <v>-2.65</v>
+        <v>-2.64</v>
       </c>
       <c r="C511">
-        <v>-2.3</v>
+        <v>-1.76</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -7557,10 +7560,10 @@
         <v>513</v>
       </c>
       <c r="B512">
-        <v>-1.45</v>
+        <v>-2.65</v>
       </c>
       <c r="C512">
-        <v>-1.3</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -7568,10 +7571,10 @@
         <v>514</v>
       </c>
       <c r="B513">
-        <v>3.5</v>
+        <v>-1.45</v>
       </c>
       <c r="C513">
-        <v>5.44</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -7579,10 +7582,10 @@
         <v>515</v>
       </c>
       <c r="B514">
-        <v>-6.65</v>
+        <v>3.5</v>
       </c>
       <c r="C514">
-        <v>-6.28</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -7590,10 +7593,10 @@
         <v>516</v>
       </c>
       <c r="B515">
-        <v>-4.48</v>
+        <v>-6.65</v>
       </c>
       <c r="C515">
-        <v>-0.52</v>
+        <v>-6.17</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -7601,10 +7604,21 @@
         <v>517</v>
       </c>
       <c r="B516">
+        <v>-4.48</v>
+      </c>
+      <c r="C516">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" t="s">
+        <v>518</v>
+      </c>
+      <c r="B517">
         <v>2.21</v>
       </c>
-      <c r="C516">
-        <v>2.14</v>
+      <c r="C517">
+        <v>2.29</v>
       </c>
     </row>
   </sheetData>

--- a/data/merged_scores.xlsx
+++ b/data/merged_scores.xlsx
@@ -1950,7 +1950,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-9.449999999999999</v>
+        <v>-9.44</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1961,10 +1961,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-7.4</v>
+        <v>-7.36</v>
       </c>
       <c r="C3">
-        <v>-2.35</v>
+        <v>-2.66</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1972,7 +1972,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-9.130000000000001</v>
+        <v>-9.109999999999999</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-7.94</v>
+        <v>-8.279999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1994,10 +1994,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="C6">
-        <v>3.34</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2005,10 +2005,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-7.07</v>
+        <v>-7.04</v>
       </c>
       <c r="C7">
-        <v>-5.89</v>
+        <v>-5.93</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2016,10 +2016,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-1.7</v>
+        <v>-1.69</v>
       </c>
       <c r="C8">
-        <v>-0.92</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2027,10 +2027,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-4.39</v>
+        <v>-4.38</v>
       </c>
       <c r="C9">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-6.2</v>
+        <v>-6.51</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2049,10 +2049,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-9.02</v>
+        <v>-9.01</v>
       </c>
       <c r="C11">
-        <v>-7.14</v>
+        <v>-7.47</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2060,10 +2060,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>-6.71</v>
+        <v>-6.69</v>
       </c>
       <c r="C12">
-        <v>-6.97</v>
+        <v>-6.79</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2071,10 +2071,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>-8.859999999999999</v>
+        <v>-8.84</v>
       </c>
       <c r="C13">
-        <v>-4.52</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2082,10 +2082,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="C14">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2093,10 +2093,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>-4.37</v>
+        <v>-4.35</v>
       </c>
       <c r="C15">
-        <v>-1.9</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2104,10 +2104,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C16">
-        <v>-1.53</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>-8.449999999999999</v>
+        <v>-8.800000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2126,10 +2126,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>-6.38</v>
+        <v>-6.35</v>
       </c>
       <c r="C18">
-        <v>-3.99</v>
+        <v>-4.63</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>-6.53</v>
+        <v>-6.83</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2151,7 +2151,7 @@
         <v>0.1</v>
       </c>
       <c r="C20">
-        <v>2.87</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2159,10 +2159,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="C21">
-        <v>4.22</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2170,10 +2170,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C22">
-        <v>-0.93</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2181,10 +2181,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>-5.5</v>
+        <v>-5.48</v>
       </c>
       <c r="C23">
-        <v>-2.33</v>
+        <v>-2.26</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2195,7 +2195,7 @@
         <v>-0.46</v>
       </c>
       <c r="C24">
-        <v>-0.24</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2203,10 +2203,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>-6.34</v>
+        <v>-6.31</v>
       </c>
       <c r="C25">
-        <v>-3.48</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2214,10 +2214,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>-1.29</v>
+        <v>-1.28</v>
       </c>
       <c r="C26">
-        <v>-2.63</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2228,7 +2228,7 @@
         <v>-1.2</v>
       </c>
       <c r="C27">
-        <v>-0.14</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2236,10 +2236,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="C28">
-        <v>2.48</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2250,7 +2250,7 @@
         <v>-3.46</v>
       </c>
       <c r="C29">
-        <v>-1.5</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2258,10 +2258,10 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>14.07</v>
+        <v>14.01</v>
       </c>
       <c r="C30">
-        <v>12.07</v>
+        <v>12.43</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2269,10 +2269,10 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>6.93</v>
+        <v>6.9</v>
       </c>
       <c r="C31">
-        <v>5.67</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2280,10 +2280,10 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>-8.109999999999999</v>
+        <v>-8.08</v>
       </c>
       <c r="C32">
-        <v>-7.21</v>
+        <v>-6.67</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>-8.41</v>
+        <v>-8.119999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2302,10 +2302,10 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>-7.55</v>
+        <v>-7.53</v>
       </c>
       <c r="C34">
-        <v>-5.43</v>
+        <v>-6.25</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2313,7 +2313,7 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.02</v>
+        <v>-0.04</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2324,10 +2324,10 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="C36">
-        <v>4.35</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2335,10 +2335,10 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>-1.99</v>
+        <v>-1.98</v>
       </c>
       <c r="C37">
-        <v>-1.4</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2346,10 +2346,10 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>4.88</v>
+        <v>4.85</v>
       </c>
       <c r="C38">
-        <v>3.01</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2357,10 +2357,10 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>-7.29</v>
+        <v>-7.26</v>
       </c>
       <c r="C39">
-        <v>-7.71</v>
+        <v>-8.06</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2368,10 +2368,10 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>-6.04</v>
+        <v>-6.02</v>
       </c>
       <c r="C40">
-        <v>-2.91</v>
+        <v>-3.78</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2379,10 +2379,10 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.37</v>
+        <v>-0.38</v>
       </c>
       <c r="C41">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2393,7 +2393,7 @@
         <v>-1.37</v>
       </c>
       <c r="C42">
-        <v>0.59</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2401,10 +2401,10 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>2.89</v>
+        <v>2.87</v>
       </c>
       <c r="C43">
-        <v>3.58</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2412,10 +2412,10 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>-7.82</v>
+        <v>-7.8</v>
       </c>
       <c r="C44">
-        <v>-5.61</v>
+        <v>-5.94</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2423,10 +2423,10 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="C45">
-        <v>0.8100000000000001</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2434,7 +2434,7 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>-6.15</v>
+        <v>-6.13</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0.76</v>
       </c>
       <c r="C47">
-        <v>1.09</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2456,7 +2456,7 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>-2.45</v>
+        <v>-2.44</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>-5.35</v>
+        <v>-5.32</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>-3.44</v>
+        <v>-3.42</v>
       </c>
       <c r="C50">
-        <v>-5.25</v>
+        <v>-5.56</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2489,7 +2489,7 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>-9.18</v>
+        <v>-9.140000000000001</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2500,10 +2500,10 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>3.6</v>
+        <v>3.59</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2514,7 +2514,7 @@
         <v>0.57</v>
       </c>
       <c r="C53">
-        <v>-1.6</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2522,7 +2522,7 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>-2.81</v>
+        <v>-1.99</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>-0.06</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2547,7 +2547,7 @@
         <v>-2.35</v>
       </c>
       <c r="C56">
-        <v>-4.33</v>
+        <v>-4.34</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2555,10 +2555,10 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
       <c r="C57">
-        <v>6.79</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2569,7 +2569,7 @@
         <v>1.78</v>
       </c>
       <c r="C58">
-        <v>-0.04</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>-8.06</v>
+        <v>-8.42</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2588,10 +2588,10 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>-3.42</v>
+        <v>-3.4</v>
       </c>
       <c r="C60">
-        <v>-4.21</v>
+        <v>-4.51</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2599,7 +2599,7 @@
         <v>62</v>
       </c>
       <c r="B61">
-        <v>-8.449999999999999</v>
+        <v>-8.43</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>-7.2</v>
+        <v>-7.78</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2621,10 +2621,10 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="C63">
-        <v>3.21</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2643,10 +2643,10 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>-4.66</v>
+        <v>-4.63</v>
       </c>
       <c r="C65">
-        <v>-4.53</v>
+        <v>-4.84</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2654,7 +2654,7 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>-9.35</v>
+        <v>-9.34</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>1.4</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2676,7 +2676,7 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>-9.85</v>
+        <v>-9.83</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>2.24</v>
       </c>
       <c r="C69">
-        <v>6.69</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2701,7 +2701,7 @@
         <v>1.95</v>
       </c>
       <c r="C70">
-        <v>6.2</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2709,10 +2709,10 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>6.37</v>
+        <v>6.36</v>
       </c>
       <c r="C71">
-        <v>6.16</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2720,10 +2720,10 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>-7.63</v>
+        <v>-7.59</v>
       </c>
       <c r="C72">
-        <v>-7.54</v>
+        <v>-7.61</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2734,7 +2734,7 @@
         <v>-1.02</v>
       </c>
       <c r="C73">
-        <v>-4.06</v>
+        <v>-3.61</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2742,7 +2742,7 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>-8.48</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2753,10 +2753,10 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>-5.49</v>
+        <v>-5.47</v>
       </c>
       <c r="C75">
-        <v>-2.48</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2767,7 +2767,7 @@
         <v>1.93</v>
       </c>
       <c r="C76">
-        <v>3.93</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2775,10 +2775,10 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>-4.52</v>
+        <v>-4.51</v>
       </c>
       <c r="C77">
-        <v>-7.2</v>
+        <v>-7.55</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2786,10 +2786,10 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="C78">
-        <v>2.61</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2797,10 +2797,10 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>-5.36</v>
+        <v>-5.34</v>
       </c>
       <c r="C79">
-        <v>-4.08</v>
+        <v>-4.42</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2811,7 +2811,7 @@
         <v>-1.33</v>
       </c>
       <c r="C80">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2819,7 +2819,7 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>-3.35</v>
+        <v>-3.33</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2830,10 +2830,10 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>-2.22</v>
+        <v>-2.21</v>
       </c>
       <c r="C82">
-        <v>-0.86</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2841,10 +2841,10 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>-5.5</v>
+        <v>-5.47</v>
       </c>
       <c r="C83">
-        <v>-5.8</v>
+        <v>-6.11</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2852,10 +2852,10 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>8.16</v>
+        <v>8.15</v>
       </c>
       <c r="C84">
-        <v>8.17</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2863,10 +2863,10 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>-5</v>
+        <v>-4.98</v>
       </c>
       <c r="C85">
-        <v>-1.19</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2874,10 +2874,10 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>-6.47</v>
+        <v>-6.44</v>
       </c>
       <c r="C86">
-        <v>-6.64</v>
+        <v>-6.96</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2888,7 +2888,7 @@
         <v>0.99</v>
       </c>
       <c r="C87">
-        <v>4.17</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2899,7 +2899,7 @@
         <v>-0.9</v>
       </c>
       <c r="C88">
-        <v>4.35</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>-4.82</v>
+        <v>-6.26</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2918,7 +2918,7 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>-3</v>
+        <v>-2.99</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>-9.369999999999999</v>
+        <v>-9.359999999999999</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2943,7 +2943,7 @@
         <v>0.82</v>
       </c>
       <c r="C92">
-        <v>0.67</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2954,7 +2954,7 @@
         <v>2.28</v>
       </c>
       <c r="C93">
-        <v>3.72</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2965,7 +2965,7 @@
         <v>-4.16</v>
       </c>
       <c r="C94">
-        <v>-0.11</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2973,10 +2973,10 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>-6.77</v>
+        <v>-6.74</v>
       </c>
       <c r="C95">
-        <v>-5.4</v>
+        <v>-5.75</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2984,7 +2984,7 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>-9.19</v>
+        <v>-9.18</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>-9.039999999999999</v>
+        <v>-9.01</v>
       </c>
       <c r="C97">
-        <v>-7.33</v>
+        <v>-7.66</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3006,10 +3006,10 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>-3.46</v>
+        <v>-3.44</v>
       </c>
       <c r="C98">
-        <v>-5.87</v>
+        <v>-5.69</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>-7.33</v>
+        <v>-7.55</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3028,10 +3028,10 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>-8.960000000000001</v>
+        <v>-8.93</v>
       </c>
       <c r="C100">
-        <v>-6.47</v>
+        <v>-6.79</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3042,7 +3042,7 @@
         <v>1.48</v>
       </c>
       <c r="C101">
-        <v>1.07</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3050,10 +3050,10 @@
         <v>103</v>
       </c>
       <c r="B102">
-        <v>-0.59</v>
+        <v>-0.58</v>
       </c>
       <c r="C102">
-        <v>-3.19</v>
+        <v>-3.57</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3061,10 +3061,10 @@
         <v>104</v>
       </c>
       <c r="B103">
-        <v>-7.35</v>
+        <v>-7.32</v>
       </c>
       <c r="C103">
-        <v>-6.41</v>
+        <v>-6.67</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3072,10 +3072,10 @@
         <v>105</v>
       </c>
       <c r="B104">
-        <v>-5.6</v>
+        <v>-5.58</v>
       </c>
       <c r="C104">
-        <v>-5.48</v>
+        <v>-5.96</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3083,10 +3083,10 @@
         <v>106</v>
       </c>
       <c r="B105">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="C105">
-        <v>0.65</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3094,10 +3094,10 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>-9.140000000000001</v>
+        <v>-9.109999999999999</v>
       </c>
       <c r="C106">
-        <v>-6.8</v>
+        <v>-7.15</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3105,7 +3105,7 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>-7.46</v>
+        <v>-7.44</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -3116,7 +3116,7 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>-9.550000000000001</v>
+        <v>-9.51</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>110</v>
       </c>
       <c r="B109">
-        <v>-7.01</v>
+        <v>-6.99</v>
       </c>
       <c r="C109">
-        <v>-3.95</v>
+        <v>-3.35</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3138,10 +3138,10 @@
         <v>111</v>
       </c>
       <c r="B110">
-        <v>-8.01</v>
+        <v>-7.98</v>
       </c>
       <c r="C110">
-        <v>-4.94</v>
+        <v>-5.25</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3149,10 +3149,10 @@
         <v>112</v>
       </c>
       <c r="B111">
-        <v>-4.84</v>
+        <v>-4.82</v>
       </c>
       <c r="C111">
-        <v>-3.79</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3160,10 +3160,10 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>9.140000000000001</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="C112">
-        <v>9.82</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3171,10 +3171,10 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>-4.82</v>
+        <v>-4.79</v>
       </c>
       <c r="C113">
-        <v>-6.18</v>
+        <v>-6.52</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3182,10 +3182,10 @@
         <v>115</v>
       </c>
       <c r="B114">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="C114">
-        <v>1.56</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3193,10 +3193,10 @@
         <v>116</v>
       </c>
       <c r="B115">
-        <v>-1.73</v>
+        <v>-1.72</v>
       </c>
       <c r="C115">
-        <v>-3.22</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="C116">
-        <v>-8.619999999999999</v>
+        <v>-8.98</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3215,7 +3215,7 @@
         <v>118</v>
       </c>
       <c r="B117">
-        <v>-4.99</v>
+        <v>-4.96</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -3226,10 +3226,10 @@
         <v>119</v>
       </c>
       <c r="B118">
-        <v>-4.72</v>
+        <v>-4.7</v>
       </c>
       <c r="C118">
-        <v>-8.18</v>
+        <v>-8.539999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3237,10 +3237,10 @@
         <v>120</v>
       </c>
       <c r="B119">
-        <v>-8.85</v>
+        <v>-8.84</v>
       </c>
       <c r="C119">
-        <v>-7.57</v>
+        <v>-7.91</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3248,10 +3248,10 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>3.73</v>
+        <v>3.72</v>
       </c>
       <c r="C120">
-        <v>6.95</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="C121">
-        <v>-9.609999999999999</v>
+        <v>-10.01</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3270,7 +3270,7 @@
         <v>123</v>
       </c>
       <c r="B122">
-        <v>-7.23</v>
+        <v>-7.21</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -3281,10 +3281,10 @@
         <v>124</v>
       </c>
       <c r="B123">
-        <v>-9.4</v>
+        <v>-9.390000000000001</v>
       </c>
       <c r="C123">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3292,10 +3292,10 @@
         <v>125</v>
       </c>
       <c r="B124">
-        <v>-5.3</v>
+        <v>-5.28</v>
       </c>
       <c r="C124">
-        <v>1.3</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3303,7 +3303,7 @@
         <v>126</v>
       </c>
       <c r="B125">
-        <v>-2.54</v>
+        <v>-2.53</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>127</v>
       </c>
       <c r="B126">
-        <v>5.18</v>
+        <v>5.14</v>
       </c>
       <c r="C126">
-        <v>6.67</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3328,7 +3328,7 @@
         <v>-0.28</v>
       </c>
       <c r="C127">
-        <v>4.72</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3336,10 +3336,10 @@
         <v>129</v>
       </c>
       <c r="B128">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="C128">
-        <v>-2.49</v>
+        <v>-3.13</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3347,10 +3347,10 @@
         <v>130</v>
       </c>
       <c r="B129">
-        <v>-7.25</v>
+        <v>-7.22</v>
       </c>
       <c r="C129">
-        <v>-5.36</v>
+        <v>-5.64</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3358,10 +3358,10 @@
         <v>131</v>
       </c>
       <c r="B130">
-        <v>5.03</v>
+        <v>5</v>
       </c>
       <c r="C130">
-        <v>8.09</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3369,10 +3369,10 @@
         <v>132</v>
       </c>
       <c r="B131">
-        <v>-4.52</v>
+        <v>-4.5</v>
       </c>
       <c r="C131">
-        <v>-2.49</v>
+        <v>-2.26</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3383,7 +3383,7 @@
         <v>2.67</v>
       </c>
       <c r="C132">
-        <v>2.81</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3391,10 +3391,10 @@
         <v>134</v>
       </c>
       <c r="B133">
-        <v>3.84</v>
+        <v>3.82</v>
       </c>
       <c r="C133">
-        <v>3.46</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3402,10 +3402,10 @@
         <v>135</v>
       </c>
       <c r="B134">
-        <v>-2.92</v>
+        <v>-2.93</v>
       </c>
       <c r="C134">
-        <v>-5.52</v>
+        <v>-5.84</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3413,10 +3413,10 @@
         <v>136</v>
       </c>
       <c r="B135">
-        <v>-0.62</v>
+        <v>-0.63</v>
       </c>
       <c r="C135">
-        <v>0.52</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3427,7 +3427,7 @@
         <v>1.59</v>
       </c>
       <c r="C136">
-        <v>6.69</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3438,7 +3438,7 @@
         <v>2.43</v>
       </c>
       <c r="C137">
-        <v>1.02</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3446,10 +3446,10 @@
         <v>139</v>
       </c>
       <c r="B138">
-        <v>-2.41</v>
+        <v>-2.4</v>
       </c>
       <c r="C138">
-        <v>-0.26</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3457,7 +3457,7 @@
         <v>140</v>
       </c>
       <c r="B139">
-        <v>-6.94</v>
+        <v>-6.91</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>4.91</v>
       </c>
       <c r="C140">
-        <v>7.49</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3482,7 +3482,7 @@
         <v>4.95</v>
       </c>
       <c r="C141">
-        <v>4.95</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3490,10 +3490,10 @@
         <v>143</v>
       </c>
       <c r="B142">
-        <v>7.99</v>
+        <v>7.97</v>
       </c>
       <c r="C142">
-        <v>6.59</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3501,7 +3501,7 @@
         <v>144</v>
       </c>
       <c r="B143">
-        <v>-5.25</v>
+        <v>-5.24</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>145</v>
       </c>
       <c r="B144">
-        <v>2.49</v>
+        <v>2.48</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>146</v>
       </c>
       <c r="B145">
-        <v>-7.2</v>
+        <v>-7.17</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>-2.51</v>
       </c>
       <c r="C146">
-        <v>-1.69</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3545,10 +3545,10 @@
         <v>148</v>
       </c>
       <c r="B147">
-        <v>-8.76</v>
+        <v>-8.73</v>
       </c>
       <c r="C147">
-        <v>-7.39</v>
+        <v>-7.34</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3556,10 +3556,10 @@
         <v>149</v>
       </c>
       <c r="B148">
-        <v>7.87</v>
+        <v>7.84</v>
       </c>
       <c r="C148">
-        <v>9.75</v>
+        <v>9.65</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3567,10 +3567,10 @@
         <v>150</v>
       </c>
       <c r="B149">
-        <v>-8.9</v>
+        <v>-8.890000000000001</v>
       </c>
       <c r="C149">
-        <v>-9.109999999999999</v>
+        <v>-9.470000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3578,10 +3578,10 @@
         <v>151</v>
       </c>
       <c r="B150">
-        <v>-1.09</v>
+        <v>-1.07</v>
       </c>
       <c r="C150">
-        <v>-1.41</v>
+        <v>-1.76</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3589,10 +3589,10 @@
         <v>152</v>
       </c>
       <c r="B151">
-        <v>7.93</v>
+        <v>7.9</v>
       </c>
       <c r="C151">
-        <v>5.21</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3600,10 +3600,10 @@
         <v>153</v>
       </c>
       <c r="B152">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C152">
-        <v>0.7</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3611,10 +3611,10 @@
         <v>154</v>
       </c>
       <c r="B153">
-        <v>-3.01</v>
+        <v>-2.99</v>
       </c>
       <c r="C153">
-        <v>0.9</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="C154">
-        <v>-7.82</v>
+        <v>-8.17</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3636,7 +3636,7 @@
         <v>2.42</v>
       </c>
       <c r="C155">
-        <v>1.76</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3644,10 +3644,10 @@
         <v>157</v>
       </c>
       <c r="B156">
-        <v>-4.18</v>
+        <v>-4.16</v>
       </c>
       <c r="C156">
-        <v>-2.91</v>
+        <v>-3.19</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="C157">
-        <v>-5.15</v>
+        <v>-5.46</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3666,10 +3666,10 @@
         <v>159</v>
       </c>
       <c r="B158">
-        <v>-6.77</v>
+        <v>-6.74</v>
       </c>
       <c r="C158">
-        <v>-5.17</v>
+        <v>-5.48</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3677,10 +3677,10 @@
         <v>160</v>
       </c>
       <c r="B159">
-        <v>-3.6</v>
+        <v>-3.58</v>
       </c>
       <c r="C159">
-        <v>-4.91</v>
+        <v>-3.64</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3688,10 +3688,10 @@
         <v>161</v>
       </c>
       <c r="B160">
-        <v>-4.99</v>
+        <v>-4.97</v>
       </c>
       <c r="C160">
-        <v>-6.87</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3699,10 +3699,10 @@
         <v>162</v>
       </c>
       <c r="B161">
-        <v>-5.97</v>
+        <v>-5.95</v>
       </c>
       <c r="C161">
-        <v>-5.89</v>
+        <v>-5.35</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3710,10 +3710,10 @@
         <v>163</v>
       </c>
       <c r="B162">
-        <v>0.13</v>
+        <v>1.24</v>
       </c>
       <c r="C162">
-        <v>1.55</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3721,7 +3721,7 @@
         <v>164</v>
       </c>
       <c r="B163">
-        <v>-8.44</v>
+        <v>-8.41</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>165</v>
       </c>
       <c r="B164">
-        <v>-9.720000000000001</v>
+        <v>-9.710000000000001</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3743,10 +3743,10 @@
         <v>166</v>
       </c>
       <c r="B165">
-        <v>-6.91</v>
+        <v>-6.9</v>
       </c>
       <c r="C165">
-        <v>-5.37</v>
+        <v>-6.3</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3754,10 +3754,10 @@
         <v>167</v>
       </c>
       <c r="B166">
-        <v>-1.91</v>
+        <v>-1.9</v>
       </c>
       <c r="C166">
-        <v>-4.94</v>
+        <v>-5.27</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3765,10 +3765,10 @@
         <v>168</v>
       </c>
       <c r="B167">
-        <v>5</v>
+        <v>4.99</v>
       </c>
       <c r="C167">
-        <v>5.89</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3776,10 +3776,10 @@
         <v>169</v>
       </c>
       <c r="B168">
-        <v>4.2</v>
+        <v>4.18</v>
       </c>
       <c r="C168">
-        <v>3.23</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3787,10 +3787,10 @@
         <v>170</v>
       </c>
       <c r="B169">
-        <v>5.27</v>
+        <v>5.24</v>
       </c>
       <c r="C169">
-        <v>3.04</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3798,7 +3798,7 @@
         <v>171</v>
       </c>
       <c r="B170">
-        <v>-3.53</v>
+        <v>-3.51</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3809,10 +3809,10 @@
         <v>172</v>
       </c>
       <c r="B171">
-        <v>-4.05</v>
+        <v>-4.04</v>
       </c>
       <c r="C171">
-        <v>-6.65</v>
+        <v>-6.96</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3820,10 +3820,10 @@
         <v>173</v>
       </c>
       <c r="B172">
-        <v>-7.89</v>
+        <v>-7.86</v>
       </c>
       <c r="C172">
-        <v>-6.33</v>
+        <v>-6.66</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3831,10 +3831,10 @@
         <v>174</v>
       </c>
       <c r="B173">
-        <v>-5.34</v>
+        <v>-5.32</v>
       </c>
       <c r="C173">
-        <v>0.99</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3842,10 +3842,10 @@
         <v>175</v>
       </c>
       <c r="B174">
-        <v>-5.1</v>
+        <v>-5.09</v>
       </c>
       <c r="C174">
-        <v>-5.16</v>
+        <v>-5.11</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3853,10 +3853,10 @@
         <v>176</v>
       </c>
       <c r="B175">
-        <v>-4.05</v>
+        <v>-4.04</v>
       </c>
       <c r="C175">
-        <v>-2.28</v>
+        <v>-2.82</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3864,10 +3864,10 @@
         <v>177</v>
       </c>
       <c r="B176">
-        <v>-1.29</v>
+        <v>-1.3</v>
       </c>
       <c r="C176">
-        <v>-4.51</v>
+        <v>-4.84</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3875,10 +3875,10 @@
         <v>178</v>
       </c>
       <c r="B177">
-        <v>-3.9</v>
+        <v>-3.87</v>
       </c>
       <c r="C177">
-        <v>-3.33</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3886,10 +3886,10 @@
         <v>179</v>
       </c>
       <c r="B178">
-        <v>12.63</v>
+        <v>12.61</v>
       </c>
       <c r="C178">
-        <v>8.449999999999999</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3897,10 +3897,10 @@
         <v>180</v>
       </c>
       <c r="B179">
-        <v>-3.98</v>
+        <v>-3.97</v>
       </c>
       <c r="C179">
-        <v>-2.12</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3908,10 +3908,10 @@
         <v>181</v>
       </c>
       <c r="B180">
-        <v>-2.77</v>
+        <v>-2.76</v>
       </c>
       <c r="C180">
-        <v>3.9</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3919,10 +3919,10 @@
         <v>182</v>
       </c>
       <c r="B181">
-        <v>-2.83</v>
+        <v>-2.81</v>
       </c>
       <c r="C181">
-        <v>0.91</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3930,10 +3930,10 @@
         <v>183</v>
       </c>
       <c r="B182">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="C182">
-        <v>-0.62</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3941,10 +3941,10 @@
         <v>184</v>
       </c>
       <c r="B183">
-        <v>-5.56</v>
+        <v>-5.54</v>
       </c>
       <c r="C183">
-        <v>-0.18</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3952,10 +3952,10 @@
         <v>185</v>
       </c>
       <c r="B184">
-        <v>-8.43</v>
+        <v>-8.41</v>
       </c>
       <c r="C184">
-        <v>-7.64</v>
+        <v>-7.53</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3963,10 +3963,10 @@
         <v>186</v>
       </c>
       <c r="B185">
-        <v>-2.34</v>
+        <v>-2.33</v>
       </c>
       <c r="C185">
-        <v>-2.06</v>
+        <v>-2.32</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="C186">
-        <v>-8.26</v>
+        <v>-8.619999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3985,10 +3985,10 @@
         <v>188</v>
       </c>
       <c r="B187">
-        <v>-5.54</v>
+        <v>-5.52</v>
       </c>
       <c r="C187">
-        <v>-1.09</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3996,10 +3996,10 @@
         <v>189</v>
       </c>
       <c r="B188">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="C188">
-        <v>-1.55</v>
+        <v>-1.83</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4007,10 +4007,10 @@
         <v>190</v>
       </c>
       <c r="B189">
-        <v>-7.35</v>
+        <v>-7.34</v>
       </c>
       <c r="C189">
-        <v>-5.08</v>
+        <v>-4.98</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4018,10 +4018,10 @@
         <v>191</v>
       </c>
       <c r="B190">
-        <v>4.25</v>
+        <v>4.24</v>
       </c>
       <c r="C190">
-        <v>-0.38</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="C191">
-        <v>-8.390000000000001</v>
+        <v>-8.75</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4040,10 +4040,10 @@
         <v>193</v>
       </c>
       <c r="B192">
-        <v>-4.24</v>
+        <v>-4.23</v>
       </c>
       <c r="C192">
-        <v>-3.04</v>
+        <v>-2.55</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4051,10 +4051,10 @@
         <v>194</v>
       </c>
       <c r="B193">
-        <v>-7.1</v>
+        <v>-7.09</v>
       </c>
       <c r="C193">
-        <v>-8.119999999999999</v>
+        <v>-8.48</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4062,7 +4062,7 @@
         <v>195</v>
       </c>
       <c r="B194">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>-1.87</v>
       </c>
       <c r="C195">
-        <v>-1.17</v>
+        <v>-1.39</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4084,10 +4084,10 @@
         <v>197</v>
       </c>
       <c r="B196">
-        <v>-3.62</v>
+        <v>-3.6</v>
       </c>
       <c r="C196">
-        <v>-2.42</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4095,10 +4095,10 @@
         <v>198</v>
       </c>
       <c r="B197">
-        <v>-3.76</v>
+        <v>-3.74</v>
       </c>
       <c r="C197">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4109,7 +4109,7 @@
         <v>2.82</v>
       </c>
       <c r="C198">
-        <v>2.66</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4117,10 +4117,10 @@
         <v>200</v>
       </c>
       <c r="B199">
-        <v>-8.84</v>
+        <v>-8.83</v>
       </c>
       <c r="C199">
-        <v>-8.039999999999999</v>
+        <v>-8.390000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4128,10 +4128,10 @@
         <v>201</v>
       </c>
       <c r="B200">
-        <v>5.34</v>
+        <v>5.31</v>
       </c>
       <c r="C200">
-        <v>4.6</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4139,10 +4139,10 @@
         <v>202</v>
       </c>
       <c r="B201">
-        <v>-8.289999999999999</v>
+        <v>-8.26</v>
       </c>
       <c r="C201">
-        <v>-7.71</v>
+        <v>-8.08</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4153,7 +4153,7 @@
         <v>2.28</v>
       </c>
       <c r="C202">
-        <v>-0.07000000000000001</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4161,10 +4161,10 @@
         <v>204</v>
       </c>
       <c r="B203">
-        <v>-5.69</v>
+        <v>-5.66</v>
       </c>
       <c r="C203">
-        <v>-5.52</v>
+        <v>-6.03</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="C204">
-        <v>-9.94</v>
+        <v>-8.23</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="C205">
-        <v>-7.56</v>
+        <v>-7.89</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4194,10 +4194,10 @@
         <v>207</v>
       </c>
       <c r="B206">
-        <v>-6.06</v>
+        <v>-6.03</v>
       </c>
       <c r="C206">
-        <v>-5.7</v>
+        <v>-6.25</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4208,7 +4208,7 @@
         <v>0.5</v>
       </c>
       <c r="C207">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4216,10 +4216,10 @@
         <v>209</v>
       </c>
       <c r="B208">
-        <v>-1.8</v>
+        <v>-1.79</v>
       </c>
       <c r="C208">
-        <v>-0.64</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4227,10 +4227,10 @@
         <v>210</v>
       </c>
       <c r="B209">
-        <v>-5.41</v>
+        <v>-5.4</v>
       </c>
       <c r="C209">
-        <v>-7.34</v>
+        <v>-7.68</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="C210">
-        <v>-8.15</v>
+        <v>-7.03</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4252,7 +4252,7 @@
         <v>-0.93</v>
       </c>
       <c r="C211">
-        <v>-3.29</v>
+        <v>-3.58</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4260,10 +4260,10 @@
         <v>213</v>
       </c>
       <c r="B212">
-        <v>-6</v>
+        <v>-5.98</v>
       </c>
       <c r="C212">
-        <v>-2.31</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4274,7 +4274,7 @@
         <v>2.74</v>
       </c>
       <c r="C213">
-        <v>5.45</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4282,10 +4282,10 @@
         <v>215</v>
       </c>
       <c r="B214">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="C214">
-        <v>2.91</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4296,7 +4296,7 @@
         <v>2.16</v>
       </c>
       <c r="C215">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4304,10 +4304,10 @@
         <v>217</v>
       </c>
       <c r="B216">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="C216">
-        <v>3.31</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4315,10 +4315,10 @@
         <v>218</v>
       </c>
       <c r="B217">
-        <v>-11.53</v>
+        <v>-11.51</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>-8.27</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4326,10 +4326,10 @@
         <v>219</v>
       </c>
       <c r="B218">
-        <v>5.28</v>
+        <v>5.26</v>
       </c>
       <c r="C218">
-        <v>4.8</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4337,7 +4337,7 @@
         <v>220</v>
       </c>
       <c r="B219">
-        <v>-7.08</v>
+        <v>-7.05</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -4348,10 +4348,10 @@
         <v>221</v>
       </c>
       <c r="B220">
-        <v>-9.06</v>
+        <v>-9.039999999999999</v>
       </c>
       <c r="C220">
-        <v>-8.279999999999999</v>
+        <v>-8.630000000000001</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4359,10 +4359,10 @@
         <v>222</v>
       </c>
       <c r="B221">
-        <v>-3.25</v>
+        <v>-3.23</v>
       </c>
       <c r="C221">
-        <v>-2.15</v>
+        <v>-2.43</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4370,10 +4370,10 @@
         <v>223</v>
       </c>
       <c r="B222">
-        <v>5.51</v>
+        <v>5.47</v>
       </c>
       <c r="C222">
-        <v>7.43</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4381,10 +4381,10 @@
         <v>224</v>
       </c>
       <c r="B223">
-        <v>5.39</v>
+        <v>5.37</v>
       </c>
       <c r="C223">
-        <v>6.01</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4392,10 +4392,10 @@
         <v>225</v>
       </c>
       <c r="B224">
-        <v>-7.15</v>
+        <v>-4.75</v>
       </c>
       <c r="C224">
-        <v>-2.34</v>
+        <v>-3.24</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4403,10 +4403,10 @@
         <v>226</v>
       </c>
       <c r="B225">
-        <v>-6.73</v>
+        <v>-6.71</v>
       </c>
       <c r="C225">
-        <v>-5.35</v>
+        <v>-6.14</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4417,7 +4417,7 @@
         <v>2.84</v>
       </c>
       <c r="C226">
-        <v>1.46</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4425,10 +4425,10 @@
         <v>228</v>
       </c>
       <c r="B227">
-        <v>-8</v>
+        <v>-7.98</v>
       </c>
       <c r="C227">
-        <v>-2.97</v>
+        <v>-3.29</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4436,10 +4436,10 @@
         <v>229</v>
       </c>
       <c r="B228">
-        <v>11.04</v>
+        <v>11.01</v>
       </c>
       <c r="C228">
-        <v>9.83</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="C229">
-        <v>-4.36</v>
+        <v>-6.81</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4458,10 +4458,10 @@
         <v>231</v>
       </c>
       <c r="B230">
-        <v>-6.77</v>
+        <v>-6.76</v>
       </c>
       <c r="C230">
-        <v>-5.17</v>
+        <v>-5.46</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4469,10 +4469,10 @@
         <v>232</v>
       </c>
       <c r="B231">
-        <v>-5.42</v>
+        <v>-5.41</v>
       </c>
       <c r="C231">
-        <v>-4.13</v>
+        <v>-4.43</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4480,10 +4480,10 @@
         <v>233</v>
       </c>
       <c r="B232">
-        <v>-4.51</v>
+        <v>-4.49</v>
       </c>
       <c r="C232">
-        <v>-2.7</v>
+        <v>-3.01</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4491,10 +4491,10 @@
         <v>234</v>
       </c>
       <c r="B233">
-        <v>-5.47</v>
+        <v>-5.46</v>
       </c>
       <c r="C233">
-        <v>-3.74</v>
+        <v>-4.17</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4502,10 +4502,10 @@
         <v>235</v>
       </c>
       <c r="B234">
-        <v>-8.18</v>
+        <v>-8.15</v>
       </c>
       <c r="C234">
-        <v>-3.94</v>
+        <v>-3.69</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4516,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="C235">
-        <v>-3.64</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4524,10 +4524,10 @@
         <v>237</v>
       </c>
       <c r="B236">
-        <v>4.99</v>
+        <v>4.97</v>
       </c>
       <c r="C236">
-        <v>4.44</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4535,7 +4535,7 @@
         <v>238</v>
       </c>
       <c r="B237">
-        <v>-1.2</v>
+        <v>-1.21</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -4546,10 +4546,10 @@
         <v>239</v>
       </c>
       <c r="B238">
-        <v>3.55</v>
+        <v>3.54</v>
       </c>
       <c r="C238">
-        <v>6.08</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4557,7 +4557,7 @@
         <v>240</v>
       </c>
       <c r="B239">
-        <v>-8.35</v>
+        <v>-8.31</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -4568,10 +4568,10 @@
         <v>241</v>
       </c>
       <c r="B240">
-        <v>-0.51</v>
+        <v>-0.52</v>
       </c>
       <c r="C240">
-        <v>-0.44</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4579,10 +4579,10 @@
         <v>242</v>
       </c>
       <c r="B241">
-        <v>-5.58</v>
+        <v>-5.57</v>
       </c>
       <c r="C241">
-        <v>-1.99</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4590,10 +4590,10 @@
         <v>243</v>
       </c>
       <c r="B242">
-        <v>-0.93</v>
+        <v>-0.91</v>
       </c>
       <c r="C242">
-        <v>1.43</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4601,10 +4601,10 @@
         <v>244</v>
       </c>
       <c r="B243">
-        <v>3.69</v>
+        <v>3.67</v>
       </c>
       <c r="C243">
-        <v>4.5</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="C244">
-        <v>-6.86</v>
+        <v>-7.18</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="C245">
-        <v>-6.78</v>
+        <v>-6.46</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4634,10 +4634,10 @@
         <v>247</v>
       </c>
       <c r="B246">
-        <v>-5.42</v>
+        <v>-5.4</v>
       </c>
       <c r="C246">
-        <v>-2.92</v>
+        <v>-3.17</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4645,7 +4645,7 @@
         <v>248</v>
       </c>
       <c r="B247">
-        <v>-5.24</v>
+        <v>-5.21</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -4656,10 +4656,10 @@
         <v>249</v>
       </c>
       <c r="B248">
-        <v>-6.29</v>
+        <v>-6.27</v>
       </c>
       <c r="C248">
-        <v>-7</v>
+        <v>-7.81</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4667,10 +4667,10 @@
         <v>250</v>
       </c>
       <c r="B249">
-        <v>9.140000000000001</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="C249">
-        <v>10.11</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="C250">
-        <v>-6.86</v>
+        <v>-7.18</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="C251">
-        <v>-8.279999999999999</v>
+        <v>-8.24</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4700,10 +4700,10 @@
         <v>253</v>
       </c>
       <c r="B252">
-        <v>-7.52</v>
+        <v>-7.49</v>
       </c>
       <c r="C252">
-        <v>-4.98</v>
+        <v>-5.63</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4711,10 +4711,10 @@
         <v>254</v>
       </c>
       <c r="B253">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="C253">
-        <v>2.45</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4722,10 +4722,10 @@
         <v>255</v>
       </c>
       <c r="B254">
-        <v>-6.62</v>
+        <v>-6.6</v>
       </c>
       <c r="C254">
-        <v>-3.6</v>
+        <v>-3.34</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4736,7 +4736,7 @@
         <v>0.5</v>
       </c>
       <c r="C255">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4744,10 +4744,10 @@
         <v>257</v>
       </c>
       <c r="B256">
-        <v>-4.79</v>
+        <v>-4.76</v>
       </c>
       <c r="C256">
-        <v>-5.72</v>
+        <v>-5.45</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4755,10 +4755,10 @@
         <v>258</v>
       </c>
       <c r="B257">
-        <v>-8.859999999999999</v>
+        <v>-8.83</v>
       </c>
       <c r="C257">
-        <v>-5.73</v>
+        <v>-6.25</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4766,10 +4766,10 @@
         <v>259</v>
       </c>
       <c r="B258">
-        <v>-7.29</v>
+        <v>-7.26</v>
       </c>
       <c r="C258">
-        <v>-5.94</v>
+        <v>-6.25</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4777,10 +4777,10 @@
         <v>260</v>
       </c>
       <c r="B259">
-        <v>5.69</v>
+        <v>5.66</v>
       </c>
       <c r="C259">
-        <v>2.04</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4788,10 +4788,10 @@
         <v>261</v>
       </c>
       <c r="B260">
-        <v>-5.64</v>
+        <v>-5.62</v>
       </c>
       <c r="C260">
-        <v>-4.31</v>
+        <v>-6.01</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4799,10 +4799,10 @@
         <v>262</v>
       </c>
       <c r="B261">
-        <v>-5.29</v>
+        <v>-5.26</v>
       </c>
       <c r="C261">
-        <v>-7.26</v>
+        <v>-7.61</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4810,7 +4810,7 @@
         <v>263</v>
       </c>
       <c r="B262">
-        <v>12.47</v>
+        <v>12.44</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -4821,10 +4821,10 @@
         <v>264</v>
       </c>
       <c r="B263">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="C263">
-        <v>4.54</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4832,10 +4832,10 @@
         <v>265</v>
       </c>
       <c r="B264">
-        <v>-2.7</v>
+        <v>-2.69</v>
       </c>
       <c r="C264">
-        <v>-0.61</v>
+        <v>-1.12</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4843,10 +4843,10 @@
         <v>266</v>
       </c>
       <c r="B265">
-        <v>-8.4</v>
+        <v>-8.380000000000001</v>
       </c>
       <c r="C265">
-        <v>-6</v>
+        <v>-6.54</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4854,10 +4854,10 @@
         <v>267</v>
       </c>
       <c r="B266">
-        <v>-5.95</v>
+        <v>-5.93</v>
       </c>
       <c r="C266">
-        <v>-9.94</v>
+        <v>-9.51</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4865,10 +4865,10 @@
         <v>268</v>
       </c>
       <c r="B267">
-        <v>-7.48</v>
+        <v>-7.45</v>
       </c>
       <c r="C267">
-        <v>-1.89</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4876,10 +4876,10 @@
         <v>269</v>
       </c>
       <c r="B268">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="C268">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4890,7 +4890,7 @@
         <v>-1.15</v>
       </c>
       <c r="C269">
-        <v>-3.38</v>
+        <v>-3.29</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4898,10 +4898,10 @@
         <v>271</v>
       </c>
       <c r="B270">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="C270">
-        <v>-2.89</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4909,10 +4909,10 @@
         <v>272</v>
       </c>
       <c r="B271">
-        <v>-4.01</v>
+        <v>-4</v>
       </c>
       <c r="C271">
-        <v>-1.45</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4920,10 +4920,10 @@
         <v>273</v>
       </c>
       <c r="B272">
-        <v>-0.6899999999999999</v>
+        <v>-0.68</v>
       </c>
       <c r="C272">
-        <v>-2.24</v>
+        <v>-2.56</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4931,10 +4931,10 @@
         <v>274</v>
       </c>
       <c r="B273">
-        <v>-3.56</v>
+        <v>-3.54</v>
       </c>
       <c r="C273">
-        <v>0.5</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4942,10 +4942,10 @@
         <v>275</v>
       </c>
       <c r="B274">
-        <v>-5.79</v>
+        <v>-5.77</v>
       </c>
       <c r="C274">
-        <v>-6.79</v>
+        <v>-7.13</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="C275">
-        <v>-9.109999999999999</v>
+        <v>-9.470000000000001</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4967,7 +4967,7 @@
         <v>3.15</v>
       </c>
       <c r="C276">
-        <v>10.9</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4975,10 +4975,10 @@
         <v>278</v>
       </c>
       <c r="B277">
+        <v>-7.09</v>
+      </c>
+      <c r="C277">
         <v>-7.11</v>
-      </c>
-      <c r="C277">
-        <v>-6.54</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4986,10 +4986,10 @@
         <v>279</v>
       </c>
       <c r="B278">
-        <v>-1.04</v>
+        <v>-1.05</v>
       </c>
       <c r="C278">
-        <v>2.04</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5000,7 +5000,7 @@
         <v>2.83</v>
       </c>
       <c r="C279">
-        <v>-0.33</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5011,7 +5011,7 @@
         <v>-2.19</v>
       </c>
       <c r="C280">
-        <v>-3.55</v>
+        <v>-4.11</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5022,7 +5022,7 @@
         <v>1.47</v>
       </c>
       <c r="C281">
-        <v>5</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5030,10 +5030,10 @@
         <v>283</v>
       </c>
       <c r="B282">
-        <v>-4.66</v>
+        <v>-4.64</v>
       </c>
       <c r="C282">
-        <v>-7.18</v>
+        <v>-7.02</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5041,10 +5041,10 @@
         <v>284</v>
       </c>
       <c r="B283">
-        <v>-5.4</v>
+        <v>-5.39</v>
       </c>
       <c r="C283">
-        <v>0</v>
+        <v>-7.41</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5052,10 +5052,10 @@
         <v>285</v>
       </c>
       <c r="B284">
-        <v>-1.49</v>
+        <v>-1.48</v>
       </c>
       <c r="C284">
-        <v>-7.05</v>
+        <v>-3.74</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5066,7 +5066,7 @@
         <v>2.62</v>
       </c>
       <c r="C285">
-        <v>-0.07000000000000001</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5074,7 +5074,7 @@
         <v>287</v>
       </c>
       <c r="B286">
-        <v>-8.140000000000001</v>
+        <v>-8.109999999999999</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -5085,10 +5085,10 @@
         <v>288</v>
       </c>
       <c r="B287">
-        <v>-2.23</v>
+        <v>0.02</v>
       </c>
       <c r="C287">
-        <v>0.82</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5096,10 +5096,10 @@
         <v>289</v>
       </c>
       <c r="B288">
-        <v>-6.75</v>
+        <v>-6.73</v>
       </c>
       <c r="C288">
-        <v>-5.48</v>
+        <v>-5.81</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5107,10 +5107,10 @@
         <v>290</v>
       </c>
       <c r="B289">
-        <v>-2.84</v>
+        <v>-2.83</v>
       </c>
       <c r="C289">
-        <v>-1.29</v>
+        <v>-2.06</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5121,7 +5121,7 @@
         <v>1.49</v>
       </c>
       <c r="C290">
-        <v>5.04</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="C291">
-        <v>-6.71</v>
+        <v>-7.04</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5143,7 +5143,7 @@
         <v>1.69</v>
       </c>
       <c r="C292">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5151,10 +5151,10 @@
         <v>294</v>
       </c>
       <c r="B293">
-        <v>-7.49</v>
+        <v>-7.46</v>
       </c>
       <c r="C293">
-        <v>-5.99</v>
+        <v>-6.31</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5162,10 +5162,10 @@
         <v>295</v>
       </c>
       <c r="B294">
-        <v>-9.26</v>
+        <v>-9.25</v>
       </c>
       <c r="C294">
-        <v>-4.99</v>
+        <v>-5.29</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5173,10 +5173,10 @@
         <v>296</v>
       </c>
       <c r="B295">
-        <v>8.18</v>
+        <v>8.17</v>
       </c>
       <c r="C295">
-        <v>9.74</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5184,10 +5184,10 @@
         <v>297</v>
       </c>
       <c r="B296">
-        <v>-3.38</v>
+        <v>-3.36</v>
       </c>
       <c r="C296">
-        <v>-5.68</v>
+        <v>-5.98</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5195,7 +5195,7 @@
         <v>298</v>
       </c>
       <c r="B297">
-        <v>4.8</v>
+        <v>4.78</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -5206,10 +5206,10 @@
         <v>299</v>
       </c>
       <c r="B298">
-        <v>-4</v>
+        <v>-3.98</v>
       </c>
       <c r="C298">
-        <v>-1.56</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5220,7 +5220,7 @@
         <v>2.05</v>
       </c>
       <c r="C299">
-        <v>2.56</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5228,7 +5228,7 @@
         <v>301</v>
       </c>
       <c r="B300">
-        <v>-7.47</v>
+        <v>-7.44</v>
       </c>
       <c r="C300">
         <v>0</v>
@@ -5239,10 +5239,10 @@
         <v>302</v>
       </c>
       <c r="B301">
-        <v>-7.17</v>
+        <v>-7.15</v>
       </c>
       <c r="C301">
-        <v>-4.93</v>
+        <v>-6.06</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5250,10 +5250,10 @@
         <v>303</v>
       </c>
       <c r="B302">
-        <v>-1.99</v>
+        <v>-1.98</v>
       </c>
       <c r="C302">
-        <v>-0.87</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5272,10 +5272,10 @@
         <v>305</v>
       </c>
       <c r="B304">
-        <v>-0.16</v>
+        <v>-0.17</v>
       </c>
       <c r="C304">
-        <v>-0.21</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5283,7 +5283,7 @@
         <v>306</v>
       </c>
       <c r="B305">
-        <v>-5.78</v>
+        <v>-5.76</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -5294,10 +5294,10 @@
         <v>307</v>
       </c>
       <c r="B306">
-        <v>-0.7</v>
+        <v>-0.71</v>
       </c>
       <c r="C306">
-        <v>-0.79</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5305,10 +5305,10 @@
         <v>308</v>
       </c>
       <c r="B307">
-        <v>-5.87</v>
+        <v>-5.85</v>
       </c>
       <c r="C307">
-        <v>-2.84</v>
+        <v>-2.39</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5319,7 +5319,7 @@
         <v>-2.19</v>
       </c>
       <c r="C308">
-        <v>0.8100000000000001</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5327,10 +5327,10 @@
         <v>310</v>
       </c>
       <c r="B309">
-        <v>-6.19</v>
+        <v>-6.18</v>
       </c>
       <c r="C309">
-        <v>-4.39</v>
+        <v>-5.02</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="C310">
-        <v>-8.279999999999999</v>
+        <v>-8.75</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5349,10 +5349,10 @@
         <v>312</v>
       </c>
       <c r="B311">
-        <v>9.369999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="C311">
-        <v>9.69</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5360,10 +5360,10 @@
         <v>313</v>
       </c>
       <c r="B312">
-        <v>-1.08</v>
+        <v>-1.07</v>
       </c>
       <c r="C312">
-        <v>1.24</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5371,7 +5371,7 @@
         <v>314</v>
       </c>
       <c r="B313">
-        <v>-4.39</v>
+        <v>-4.36</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -5385,7 +5385,7 @@
         <v>-1.83</v>
       </c>
       <c r="C314">
-        <v>-4.26</v>
+        <v>-4.47</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5393,10 +5393,10 @@
         <v>316</v>
       </c>
       <c r="B315">
-        <v>-6.51</v>
+        <v>-6.49</v>
       </c>
       <c r="C315">
-        <v>-1.75</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5407,7 +5407,7 @@
         <v>0.59</v>
       </c>
       <c r="C316">
-        <v>0.09</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5415,7 +5415,7 @@
         <v>318</v>
       </c>
       <c r="B317">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -5426,7 +5426,7 @@
         <v>319</v>
       </c>
       <c r="B318">
-        <v>-6.59</v>
+        <v>-6.57</v>
       </c>
       <c r="C318">
         <v>0</v>
@@ -5437,10 +5437,10 @@
         <v>320</v>
       </c>
       <c r="B319">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="C319">
-        <v>1.45</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5448,10 +5448,10 @@
         <v>321</v>
       </c>
       <c r="B320">
-        <v>-9.359999999999999</v>
+        <v>-9.34</v>
       </c>
       <c r="C320">
-        <v>-6.98</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5459,7 +5459,7 @@
         <v>322</v>
       </c>
       <c r="B321">
-        <v>-6.66</v>
+        <v>-6.64</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -5473,7 +5473,7 @@
         <v>-1.47</v>
       </c>
       <c r="C322">
-        <v>-0.67</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5481,10 +5481,10 @@
         <v>324</v>
       </c>
       <c r="B323">
-        <v>-7.69</v>
+        <v>-7.67</v>
       </c>
       <c r="C323">
-        <v>-6.69</v>
+        <v>-6.74</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5506,7 +5506,7 @@
         <v>-2.56</v>
       </c>
       <c r="C325">
-        <v>-1.3</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5514,10 +5514,10 @@
         <v>327</v>
       </c>
       <c r="B326">
-        <v>-5.57</v>
+        <v>-5.55</v>
       </c>
       <c r="C326">
-        <v>-5.18</v>
+        <v>-5.49</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5525,10 +5525,10 @@
         <v>328</v>
       </c>
       <c r="B327">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="C327">
-        <v>-0.97</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5536,10 +5536,10 @@
         <v>329</v>
       </c>
       <c r="B328">
-        <v>-0.63</v>
+        <v>-0.62</v>
       </c>
       <c r="C328">
-        <v>1.15</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5547,10 +5547,10 @@
         <v>330</v>
       </c>
       <c r="B329">
-        <v>8.42</v>
+        <v>8.4</v>
       </c>
       <c r="C329">
-        <v>7.07</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5558,10 +5558,10 @@
         <v>331</v>
       </c>
       <c r="B330">
-        <v>-2.41</v>
+        <v>-2.4</v>
       </c>
       <c r="C330">
-        <v>-0.6</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5569,10 +5569,10 @@
         <v>332</v>
       </c>
       <c r="B331">
-        <v>8.65</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="C331">
-        <v>9.32</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5580,10 +5580,10 @@
         <v>333</v>
       </c>
       <c r="B332">
-        <v>-2.84</v>
+        <v>-2.83</v>
       </c>
       <c r="C332">
-        <v>-0.59</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -5591,10 +5591,10 @@
         <v>334</v>
       </c>
       <c r="B333">
-        <v>6.14</v>
+        <v>6.13</v>
       </c>
       <c r="C333">
-        <v>0.63</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -5602,10 +5602,10 @@
         <v>335</v>
       </c>
       <c r="B334">
-        <v>6.58</v>
+        <v>6.56</v>
       </c>
       <c r="C334">
-        <v>7.18</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5613,7 +5613,7 @@
         <v>336</v>
       </c>
       <c r="B335">
-        <v>-5.2</v>
+        <v>-5.17</v>
       </c>
       <c r="C335">
         <v>0</v>
@@ -5627,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="C336">
-        <v>-7.76</v>
+        <v>-6.86</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5638,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="C337">
-        <v>-9.34</v>
+        <v>-9.369999999999999</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5646,10 +5646,10 @@
         <v>339</v>
       </c>
       <c r="B338">
-        <v>-3.66</v>
+        <v>-3.63</v>
       </c>
       <c r="C338">
-        <v>-3.42</v>
+        <v>-4.27</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5657,10 +5657,10 @@
         <v>340</v>
       </c>
       <c r="B339">
-        <v>-1</v>
+        <v>-0.99</v>
       </c>
       <c r="C339">
-        <v>-3.33</v>
+        <v>-3.65</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -5671,7 +5671,7 @@
         <v>-0.22</v>
       </c>
       <c r="C340">
-        <v>3.39</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -5679,10 +5679,10 @@
         <v>342</v>
       </c>
       <c r="B341">
-        <v>14.3</v>
+        <v>14.25</v>
       </c>
       <c r="C341">
-        <v>7.61</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -5690,10 +5690,10 @@
         <v>343</v>
       </c>
       <c r="B342">
-        <v>-8.449999999999999</v>
+        <v>-8.44</v>
       </c>
       <c r="C342">
-        <v>-7.89</v>
+        <v>-8.6</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -5701,10 +5701,10 @@
         <v>344</v>
       </c>
       <c r="B343">
-        <v>-1.15</v>
+        <v>-1.14</v>
       </c>
       <c r="C343">
-        <v>-6.41</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -5712,10 +5712,10 @@
         <v>345</v>
       </c>
       <c r="B344">
-        <v>-2.81</v>
+        <v>-2.78</v>
       </c>
       <c r="C344">
-        <v>-0.55</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="C345">
-        <v>-4.51</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -5737,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="C346">
-        <v>-6.57</v>
+        <v>-6.9</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -5745,10 +5745,10 @@
         <v>348</v>
       </c>
       <c r="B347">
-        <v>-5.4</v>
+        <v>-5.37</v>
       </c>
       <c r="C347">
-        <v>-1.52</v>
+        <v>-1.78</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -5756,7 +5756,7 @@
         <v>349</v>
       </c>
       <c r="B348">
-        <v>-1.39</v>
+        <v>-1.38</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -5770,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="C349">
-        <v>-8.57</v>
+        <v>-9.140000000000001</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -5778,10 +5778,10 @@
         <v>351</v>
       </c>
       <c r="B350">
-        <v>-2.88</v>
+        <v>-2.86</v>
       </c>
       <c r="C350">
-        <v>-3.26</v>
+        <v>-3.84</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -5789,10 +5789,10 @@
         <v>352</v>
       </c>
       <c r="B351">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="C351">
-        <v>-0.32</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -5800,10 +5800,10 @@
         <v>353</v>
       </c>
       <c r="B352">
-        <v>-6.9</v>
+        <v>-6.87</v>
       </c>
       <c r="C352">
-        <v>-6.95</v>
+        <v>-7.22</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -5811,10 +5811,10 @@
         <v>354</v>
       </c>
       <c r="B353">
-        <v>-3.69</v>
+        <v>-3.67</v>
       </c>
       <c r="C353">
-        <v>-6.45</v>
+        <v>-6.77</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -5822,10 +5822,10 @@
         <v>355</v>
       </c>
       <c r="B354">
-        <v>-1.1</v>
+        <v>-1.11</v>
       </c>
       <c r="C354">
-        <v>-2.69</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -5833,7 +5833,7 @@
         <v>356</v>
       </c>
       <c r="B355">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -5847,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="C356">
-        <v>-6.9</v>
+        <v>-7.25</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -5855,10 +5855,10 @@
         <v>358</v>
       </c>
       <c r="B357">
-        <v>-4.47</v>
+        <v>-4.45</v>
       </c>
       <c r="C357">
-        <v>-5.86</v>
+        <v>-6.17</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -5866,10 +5866,10 @@
         <v>359</v>
       </c>
       <c r="B358">
-        <v>-4.49</v>
+        <v>-4.48</v>
       </c>
       <c r="C358">
-        <v>-4.34</v>
+        <v>-5.09</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -5877,10 +5877,10 @@
         <v>360</v>
       </c>
       <c r="B359">
-        <v>-4.93</v>
+        <v>-4.91</v>
       </c>
       <c r="C359">
-        <v>-5.19</v>
+        <v>-5.52</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -5899,10 +5899,10 @@
         <v>362</v>
       </c>
       <c r="B361">
-        <v>-7.67</v>
+        <v>-7.63</v>
       </c>
       <c r="C361">
-        <v>0</v>
+        <v>-6.79</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -5910,10 +5910,10 @@
         <v>363</v>
       </c>
       <c r="B362">
-        <v>-4.74</v>
+        <v>-4.72</v>
       </c>
       <c r="C362">
-        <v>-4.12</v>
+        <v>-5.16</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -5921,7 +5921,7 @@
         <v>364</v>
       </c>
       <c r="B363">
-        <v>-0.86</v>
+        <v>-0.85</v>
       </c>
       <c r="C363">
         <v>0</v>
@@ -5932,10 +5932,10 @@
         <v>365</v>
       </c>
       <c r="B364">
-        <v>-5.6</v>
+        <v>-5.57</v>
       </c>
       <c r="C364">
-        <v>-4.7</v>
+        <v>-5.01</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -5943,10 +5943,10 @@
         <v>366</v>
       </c>
       <c r="B365">
-        <v>-10.31</v>
+        <v>-10.3</v>
       </c>
       <c r="C365">
-        <v>0</v>
+        <v>-8.27</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -5954,10 +5954,10 @@
         <v>367</v>
       </c>
       <c r="B366">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="C366">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -5965,10 +5965,10 @@
         <v>368</v>
       </c>
       <c r="B367">
-        <v>2.52</v>
+        <v>3.25</v>
       </c>
       <c r="C367">
-        <v>2.68</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -5979,7 +5979,7 @@
         <v>0.84</v>
       </c>
       <c r="C368">
-        <v>1</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -5990,7 +5990,7 @@
         <v>0.84</v>
       </c>
       <c r="C369">
-        <v>0.36</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6001,7 +6001,7 @@
         <v>-1.02</v>
       </c>
       <c r="C370">
-        <v>0.62</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6020,7 +6020,7 @@
         <v>373</v>
       </c>
       <c r="B372">
-        <v>-3.37</v>
+        <v>-3.35</v>
       </c>
       <c r="C372">
         <v>0</v>
@@ -6031,10 +6031,10 @@
         <v>374</v>
       </c>
       <c r="B373">
-        <v>-5.49</v>
+        <v>-5.47</v>
       </c>
       <c r="C373">
-        <v>-5.06</v>
+        <v>-5.39</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6042,10 +6042,10 @@
         <v>375</v>
       </c>
       <c r="B374">
-        <v>-2.23</v>
+        <v>-2.22</v>
       </c>
       <c r="C374">
-        <v>-1.14</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6053,10 +6053,10 @@
         <v>376</v>
       </c>
       <c r="B375">
-        <v>-4.07</v>
+        <v>-4.05</v>
       </c>
       <c r="C375">
-        <v>-1.83</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="C376">
-        <v>-8.08</v>
+        <v>-8.43</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6075,10 +6075,10 @@
         <v>378</v>
       </c>
       <c r="B377">
-        <v>-9.07</v>
+        <v>-9.039999999999999</v>
       </c>
       <c r="C377">
-        <v>-5.76</v>
+        <v>-4.93</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6089,7 +6089,7 @@
         <v>4</v>
       </c>
       <c r="C378">
-        <v>3.99</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6097,10 +6097,10 @@
         <v>380</v>
       </c>
       <c r="B379">
-        <v>-3.46</v>
+        <v>-3.45</v>
       </c>
       <c r="C379">
-        <v>-1.17</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6108,7 +6108,7 @@
         <v>381</v>
       </c>
       <c r="B380">
-        <v>-7.59</v>
+        <v>-7.56</v>
       </c>
       <c r="C380">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="C381">
-        <v>-5.07</v>
+        <v>-5.35</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6133,7 +6133,7 @@
         <v>1.17</v>
       </c>
       <c r="C382">
-        <v>3.15</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6141,10 +6141,10 @@
         <v>384</v>
       </c>
       <c r="B383">
-        <v>-1.5</v>
+        <v>-0.41</v>
       </c>
       <c r="C383">
-        <v>-2.78</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6152,10 +6152,10 @@
         <v>385</v>
       </c>
       <c r="B384">
-        <v>-0.43</v>
+        <v>-0.42</v>
       </c>
       <c r="C384">
-        <v>3.28</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6163,10 +6163,10 @@
         <v>386</v>
       </c>
       <c r="B385">
-        <v>-7.39</v>
+        <v>-7.35</v>
       </c>
       <c r="C385">
-        <v>-6.43</v>
+        <v>-7.58</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6174,10 +6174,10 @@
         <v>387</v>
       </c>
       <c r="B386">
-        <v>-1.75</v>
+        <v>-1.74</v>
       </c>
       <c r="C386">
-        <v>-1.89</v>
+        <v>-1.46</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6185,10 +6185,10 @@
         <v>388</v>
       </c>
       <c r="B387">
-        <v>-2.28</v>
+        <v>-2.27</v>
       </c>
       <c r="C387">
-        <v>-2.45</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6199,7 +6199,7 @@
         <v>2.83</v>
       </c>
       <c r="C388">
-        <v>1.1</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6207,7 +6207,7 @@
         <v>390</v>
       </c>
       <c r="B389">
-        <v>-6.54</v>
+        <v>-6.53</v>
       </c>
       <c r="C389">
         <v>0</v>
@@ -6218,10 +6218,10 @@
         <v>391</v>
       </c>
       <c r="B390">
-        <v>15.05</v>
+        <v>15.01</v>
       </c>
       <c r="C390">
-        <v>16.17</v>
+        <v>16.93</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -6232,7 +6232,7 @@
         <v>-1.44</v>
       </c>
       <c r="C391">
-        <v>-2.97</v>
+        <v>-2.34</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6243,7 +6243,7 @@
         <v>5.44</v>
       </c>
       <c r="C392">
-        <v>8.109999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6254,7 +6254,7 @@
         <v>-0.51</v>
       </c>
       <c r="C393">
-        <v>-4.29</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6262,10 +6262,10 @@
         <v>395</v>
       </c>
       <c r="B394">
-        <v>1.65</v>
+        <v>2.14</v>
       </c>
       <c r="C394">
-        <v>6.61</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6273,10 +6273,10 @@
         <v>396</v>
       </c>
       <c r="B395">
-        <v>2.23</v>
+        <v>2.38</v>
       </c>
       <c r="C395">
-        <v>2.3</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6284,10 +6284,10 @@
         <v>397</v>
       </c>
       <c r="B396">
-        <v>-2.33</v>
+        <v>-2.31</v>
       </c>
       <c r="C396">
-        <v>-0.9</v>
+        <v>-1.76</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6295,10 +6295,10 @@
         <v>398</v>
       </c>
       <c r="B397">
-        <v>-5.49</v>
+        <v>-5.46</v>
       </c>
       <c r="C397">
-        <v>2.29</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6306,10 +6306,10 @@
         <v>399</v>
       </c>
       <c r="B398">
-        <v>-8.9</v>
+        <v>-8.869999999999999</v>
       </c>
       <c r="C398">
-        <v>-8.050000000000001</v>
+        <v>-8.42</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6320,7 +6320,7 @@
         <v>3.15</v>
       </c>
       <c r="C399">
-        <v>1.64</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6328,7 +6328,7 @@
         <v>401</v>
       </c>
       <c r="B400">
-        <v>-7.25</v>
+        <v>-7.22</v>
       </c>
       <c r="C400">
         <v>0</v>
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="C401">
-        <v>-6</v>
+        <v>-6.31</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6350,10 +6350,10 @@
         <v>403</v>
       </c>
       <c r="B402">
-        <v>-7.65</v>
+        <v>-7.62</v>
       </c>
       <c r="C402">
-        <v>-2.91</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6361,7 +6361,7 @@
         <v>404</v>
       </c>
       <c r="B403">
-        <v>-8.51</v>
+        <v>-8.48</v>
       </c>
       <c r="C403">
         <v>0</v>
@@ -6372,10 +6372,10 @@
         <v>405</v>
       </c>
       <c r="B404">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C404">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6383,10 +6383,10 @@
         <v>406</v>
       </c>
       <c r="B405">
-        <v>-8.27</v>
+        <v>-8.24</v>
       </c>
       <c r="C405">
-        <v>-7.37</v>
+        <v>-7.22</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6394,7 +6394,7 @@
         <v>407</v>
       </c>
       <c r="B406">
-        <v>-8.869999999999999</v>
+        <v>-8.859999999999999</v>
       </c>
       <c r="C406">
         <v>0</v>
@@ -6405,10 +6405,10 @@
         <v>408</v>
       </c>
       <c r="B407">
-        <v>-8.52</v>
+        <v>-8.48</v>
       </c>
       <c r="C407">
-        <v>-7.19</v>
+        <v>-7.64</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6416,10 +6416,10 @@
         <v>409</v>
       </c>
       <c r="B408">
-        <v>2.81</v>
+        <v>2.78</v>
       </c>
       <c r="C408">
-        <v>5.56</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6427,10 +6427,10 @@
         <v>410</v>
       </c>
       <c r="B409">
-        <v>3.02</v>
+        <v>3</v>
       </c>
       <c r="C409">
-        <v>4.29</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -6438,10 +6438,10 @@
         <v>411</v>
       </c>
       <c r="B410">
-        <v>-4.28</v>
+        <v>-4.26</v>
       </c>
       <c r="C410">
-        <v>-4.62</v>
+        <v>-5.43</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="C411">
-        <v>-7.32</v>
+        <v>-7.64</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -6463,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="C412">
-        <v>-4.63</v>
+        <v>-5.91</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -6474,7 +6474,7 @@
         <v>-1.21</v>
       </c>
       <c r="C413">
-        <v>-1.35</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -6482,10 +6482,10 @@
         <v>415</v>
       </c>
       <c r="B414">
-        <v>-7.18</v>
+        <v>-7.15</v>
       </c>
       <c r="C414">
-        <v>-4.02</v>
+        <v>-4.34</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -6493,10 +6493,10 @@
         <v>416</v>
       </c>
       <c r="B415">
-        <v>6.4</v>
+        <v>6.38</v>
       </c>
       <c r="C415">
-        <v>5.85</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -6504,10 +6504,10 @@
         <v>417</v>
       </c>
       <c r="B416">
-        <v>-3.05</v>
+        <v>-3.04</v>
       </c>
       <c r="C416">
-        <v>-1.25</v>
+        <v>-2.45</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -6515,10 +6515,10 @@
         <v>418</v>
       </c>
       <c r="B417">
-        <v>-1.21</v>
+        <v>-1.2</v>
       </c>
       <c r="C417">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -6526,10 +6526,10 @@
         <v>419</v>
       </c>
       <c r="B418">
-        <v>-7.35</v>
+        <v>-7.32</v>
       </c>
       <c r="C418">
-        <v>-2.99</v>
+        <v>-4.27</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -6537,10 +6537,10 @@
         <v>420</v>
       </c>
       <c r="B419">
-        <v>-2.58</v>
+        <v>-2.57</v>
       </c>
       <c r="C419">
-        <v>-3.2</v>
+        <v>-2.57</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -6548,7 +6548,7 @@
         <v>421</v>
       </c>
       <c r="B420">
-        <v>-4.5</v>
+        <v>-4.48</v>
       </c>
       <c r="C420">
         <v>0</v>
@@ -6559,10 +6559,10 @@
         <v>422</v>
       </c>
       <c r="B421">
-        <v>-5.57</v>
+        <v>-5.55</v>
       </c>
       <c r="C421">
-        <v>-5.62</v>
+        <v>-6.12</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -6573,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="C422">
-        <v>-3.72</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -6581,7 +6581,7 @@
         <v>424</v>
       </c>
       <c r="B423">
-        <v>-8.449999999999999</v>
+        <v>-8.43</v>
       </c>
       <c r="C423">
         <v>0</v>
@@ -6592,10 +6592,10 @@
         <v>425</v>
       </c>
       <c r="B424">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="C424">
-        <v>3.38</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -6603,10 +6603,10 @@
         <v>426</v>
       </c>
       <c r="B425">
-        <v>-4.97</v>
+        <v>-4.96</v>
       </c>
       <c r="C425">
-        <v>-4.31</v>
+        <v>-4.84</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -6617,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="C426">
-        <v>-6.06</v>
+        <v>-6.37</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -6636,10 +6636,10 @@
         <v>429</v>
       </c>
       <c r="B428">
-        <v>-5.98</v>
+        <v>-5.96</v>
       </c>
       <c r="C428">
-        <v>-7.19</v>
+        <v>-7.48</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -6647,10 +6647,10 @@
         <v>430</v>
       </c>
       <c r="B429">
-        <v>-5.61</v>
+        <v>-5.59</v>
       </c>
       <c r="C429">
-        <v>-8.619999999999999</v>
+        <v>-7.36</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -6658,10 +6658,10 @@
         <v>431</v>
       </c>
       <c r="B430">
-        <v>-8.789999999999999</v>
+        <v>-8.76</v>
       </c>
       <c r="C430">
-        <v>-5.94</v>
+        <v>-6.45</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="C431">
-        <v>-7.9</v>
+        <v>-8.25</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -6680,10 +6680,10 @@
         <v>433</v>
       </c>
       <c r="B432">
-        <v>-3.86</v>
+        <v>-3.85</v>
       </c>
       <c r="C432">
-        <v>-6.84</v>
+        <v>-5.8</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -6691,10 +6691,10 @@
         <v>434</v>
       </c>
       <c r="B433">
-        <v>-2.48</v>
+        <v>-2.47</v>
       </c>
       <c r="C433">
-        <v>0</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -6702,10 +6702,10 @@
         <v>435</v>
       </c>
       <c r="B434">
-        <v>-3.14</v>
+        <v>-3.15</v>
       </c>
       <c r="C434">
-        <v>-3.51</v>
+        <v>-4.16</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -6713,10 +6713,10 @@
         <v>436</v>
       </c>
       <c r="B435">
-        <v>-2.6</v>
+        <v>-2.59</v>
       </c>
       <c r="C435">
-        <v>3.2</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -6727,7 +6727,7 @@
         <v>3.94</v>
       </c>
       <c r="C436">
-        <v>3.15</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -6738,7 +6738,7 @@
         <v>-0.1</v>
       </c>
       <c r="C437">
-        <v>0.24</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -6746,10 +6746,10 @@
         <v>439</v>
       </c>
       <c r="B438">
-        <v>-2.51</v>
+        <v>-2.52</v>
       </c>
       <c r="C438">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -6757,10 +6757,10 @@
         <v>440</v>
       </c>
       <c r="B439">
-        <v>-4.87</v>
+        <v>-4.86</v>
       </c>
       <c r="C439">
-        <v>-3.19</v>
+        <v>-3.48</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -6768,10 +6768,10 @@
         <v>441</v>
       </c>
       <c r="B440">
-        <v>-8.06</v>
+        <v>-8.039999999999999</v>
       </c>
       <c r="C440">
-        <v>-6.17</v>
+        <v>-5.95</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -6779,7 +6779,7 @@
         <v>442</v>
       </c>
       <c r="B441">
-        <v>-4.06</v>
+        <v>-4.04</v>
       </c>
       <c r="C441">
         <v>0</v>
@@ -6790,10 +6790,10 @@
         <v>443</v>
       </c>
       <c r="B442">
-        <v>-2.1</v>
+        <v>-2.08</v>
       </c>
       <c r="C442">
-        <v>-2.7</v>
+        <v>-2.67</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -6801,10 +6801,10 @@
         <v>444</v>
       </c>
       <c r="B443">
-        <v>-5.64</v>
+        <v>-5.61</v>
       </c>
       <c r="C443">
-        <v>-1.73</v>
+        <v>-2.34</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -6812,10 +6812,10 @@
         <v>445</v>
       </c>
       <c r="B444">
-        <v>-8.83</v>
+        <v>-8.82</v>
       </c>
       <c r="C444">
-        <v>-3.26</v>
+        <v>-3.52</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -6823,10 +6823,10 @@
         <v>446</v>
       </c>
       <c r="B445">
-        <v>-2.42</v>
+        <v>-2.41</v>
       </c>
       <c r="C445">
-        <v>2.86</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -6834,10 +6834,10 @@
         <v>447</v>
       </c>
       <c r="B446">
-        <v>-0.2</v>
+        <v>-0.21</v>
       </c>
       <c r="C446">
-        <v>-1.35</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -6845,10 +6845,10 @@
         <v>448</v>
       </c>
       <c r="B447">
-        <v>7.97</v>
+        <v>7.94</v>
       </c>
       <c r="C447">
-        <v>4.73</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -6856,10 +6856,10 @@
         <v>449</v>
       </c>
       <c r="B448">
-        <v>-0.5</v>
+        <v>0.73</v>
       </c>
       <c r="C448">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -6867,10 +6867,10 @@
         <v>450</v>
       </c>
       <c r="B449">
-        <v>-2.46</v>
+        <v>-2.45</v>
       </c>
       <c r="C449">
-        <v>-3.28</v>
+        <v>-4.15</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -6881,7 +6881,7 @@
         <v>-0.7</v>
       </c>
       <c r="C450">
-        <v>0.64</v>
+        <v>-4.51</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -6889,10 +6889,10 @@
         <v>452</v>
       </c>
       <c r="B451">
-        <v>14.19</v>
+        <v>14.13</v>
       </c>
       <c r="C451">
-        <v>10.49</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -6900,10 +6900,10 @@
         <v>453</v>
       </c>
       <c r="B452">
-        <v>-6.19</v>
+        <v>-6.16</v>
       </c>
       <c r="C452">
-        <v>-6.55</v>
+        <v>-6.88</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -6911,10 +6911,10 @@
         <v>454</v>
       </c>
       <c r="B453">
-        <v>-8.970000000000001</v>
+        <v>-8.94</v>
       </c>
       <c r="C453">
-        <v>-6.74</v>
+        <v>-7.07</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -6922,10 +6922,10 @@
         <v>455</v>
       </c>
       <c r="B454">
-        <v>-6.07</v>
+        <v>-6.04</v>
       </c>
       <c r="C454">
-        <v>-5.13</v>
+        <v>-4.99</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -6933,10 +6933,10 @@
         <v>456</v>
       </c>
       <c r="B455">
-        <v>-4.23</v>
+        <v>-4.21</v>
       </c>
       <c r="C455">
-        <v>-5.38</v>
+        <v>-5.21</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="C456">
-        <v>-5.73</v>
+        <v>-6.05</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -6958,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="C457">
-        <v>-5.79</v>
+        <v>-9.27</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -6969,7 +6969,7 @@
         <v>9.09</v>
       </c>
       <c r="C458">
-        <v>11.1</v>
+        <v>9.18</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -6977,10 +6977,10 @@
         <v>460</v>
       </c>
       <c r="B459">
-        <v>-3.94</v>
+        <v>-3.93</v>
       </c>
       <c r="C459">
-        <v>-4.85</v>
+        <v>-5.2</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -6988,10 +6988,10 @@
         <v>461</v>
       </c>
       <c r="B460">
-        <v>-3.43</v>
+        <v>-3.41</v>
       </c>
       <c r="C460">
-        <v>-6.5</v>
+        <v>-6.23</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -6999,10 +6999,10 @@
         <v>462</v>
       </c>
       <c r="B461">
-        <v>-5.1</v>
+        <v>-5.09</v>
       </c>
       <c r="C461">
-        <v>-3.17</v>
+        <v>-3.49</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -7013,7 +7013,7 @@
         <v>-0.61</v>
       </c>
       <c r="C462">
-        <v>-0.39</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7021,10 +7021,10 @@
         <v>464</v>
       </c>
       <c r="B463">
-        <v>-9.119999999999999</v>
+        <v>-9.1</v>
       </c>
       <c r="C463">
-        <v>-3.15</v>
+        <v>-3.84</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="C464">
-        <v>-5.47</v>
+        <v>-5.79</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -7043,10 +7043,10 @@
         <v>466</v>
       </c>
       <c r="B465">
-        <v>-0.59</v>
+        <v>-0.6</v>
       </c>
       <c r="C465">
-        <v>2.41</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7054,10 +7054,10 @@
         <v>467</v>
       </c>
       <c r="B466">
-        <v>-2.49</v>
+        <v>-2.47</v>
       </c>
       <c r="C466">
-        <v>0.26</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -7065,10 +7065,10 @@
         <v>468</v>
       </c>
       <c r="B467">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="C467">
-        <v>-0.52</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7076,10 +7076,10 @@
         <v>469</v>
       </c>
       <c r="B468">
-        <v>-1.97</v>
+        <v>-2.89</v>
       </c>
       <c r="C468">
-        <v>-4.43</v>
+        <v>-4.76</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7087,10 +7087,10 @@
         <v>470</v>
       </c>
       <c r="B469">
-        <v>-7.9</v>
+        <v>-7.87</v>
       </c>
       <c r="C469">
-        <v>-6.91</v>
+        <v>-6.12</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7101,7 +7101,7 @@
         <v>0.93</v>
       </c>
       <c r="C470">
-        <v>2.06</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7109,10 +7109,10 @@
         <v>472</v>
       </c>
       <c r="B471">
-        <v>-5.31</v>
+        <v>-5.28</v>
       </c>
       <c r="C471">
-        <v>-2.38</v>
+        <v>-3.37</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7120,10 +7120,10 @@
         <v>473</v>
       </c>
       <c r="B472">
-        <v>-6.24</v>
+        <v>-6.23</v>
       </c>
       <c r="C472">
-        <v>-5.73</v>
+        <v>-6.35</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7131,10 +7131,10 @@
         <v>474</v>
       </c>
       <c r="B473">
-        <v>-5.42</v>
+        <v>-5.39</v>
       </c>
       <c r="C473">
-        <v>-0.41</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7145,7 +7145,7 @@
         <v>2.93</v>
       </c>
       <c r="C474">
-        <v>2.5</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7153,10 +7153,10 @@
         <v>476</v>
       </c>
       <c r="B475">
-        <v>-4.16</v>
+        <v>-4.14</v>
       </c>
       <c r="C475">
-        <v>-7.92</v>
+        <v>-8.26</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -7167,7 +7167,7 @@
         <v>-2.3</v>
       </c>
       <c r="C476">
-        <v>0.58</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -7175,10 +7175,10 @@
         <v>478</v>
       </c>
       <c r="B477">
-        <v>9.970000000000001</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="C477">
-        <v>8.68</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -7189,7 +7189,7 @@
         <v>2.31</v>
       </c>
       <c r="C478">
-        <v>-0.89</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -7197,10 +7197,10 @@
         <v>480</v>
       </c>
       <c r="B479">
-        <v>-0.52</v>
+        <v>-0.51</v>
       </c>
       <c r="C479">
-        <v>-5.57</v>
+        <v>-5.94</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -7211,7 +7211,7 @@
         <v>-2.04</v>
       </c>
       <c r="C480">
-        <v>2.61</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -7219,7 +7219,7 @@
         <v>482</v>
       </c>
       <c r="B481">
-        <v>-6.67</v>
+        <v>-6.64</v>
       </c>
       <c r="C481">
         <v>0</v>
@@ -7233,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="C482">
-        <v>-7.94</v>
+        <v>-8.27</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="C483">
-        <v>-7.92</v>
+        <v>-8.26</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -7252,10 +7252,10 @@
         <v>485</v>
       </c>
       <c r="B484">
-        <v>-5.17</v>
+        <v>-5.14</v>
       </c>
       <c r="C484">
-        <v>-7.05</v>
+        <v>-7.45</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -7263,10 +7263,10 @@
         <v>486</v>
       </c>
       <c r="B485">
-        <v>-3.84</v>
+        <v>-3.82</v>
       </c>
       <c r="C485">
-        <v>-3.79</v>
+        <v>-4.48</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -7285,10 +7285,10 @@
         <v>488</v>
       </c>
       <c r="B487">
-        <v>-6.06</v>
+        <v>-6.03</v>
       </c>
       <c r="C487">
-        <v>-3.73</v>
+        <v>-4.58</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -7299,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="C488">
-        <v>-8.18</v>
+        <v>-9.02</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -7307,7 +7307,7 @@
         <v>490</v>
       </c>
       <c r="B489">
-        <v>-7.04</v>
+        <v>-7.01</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -7318,10 +7318,10 @@
         <v>491</v>
       </c>
       <c r="B490">
-        <v>-8.859999999999999</v>
+        <v>-8.85</v>
       </c>
       <c r="C490">
-        <v>0.27</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -7329,10 +7329,10 @@
         <v>492</v>
       </c>
       <c r="B491">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="C491">
-        <v>5.66</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -7340,10 +7340,10 @@
         <v>493</v>
       </c>
       <c r="B492">
-        <v>-8.16</v>
+        <v>-8.130000000000001</v>
       </c>
       <c r="C492">
-        <v>-4.85</v>
+        <v>-4.34</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -7351,10 +7351,10 @@
         <v>494</v>
       </c>
       <c r="B493">
-        <v>-6.38</v>
+        <v>-6.36</v>
       </c>
       <c r="C493">
-        <v>-7.38</v>
+        <v>-6.67</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -7362,10 +7362,10 @@
         <v>495</v>
       </c>
       <c r="B494">
-        <v>8.51</v>
+        <v>8.48</v>
       </c>
       <c r="C494">
-        <v>3.03</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="C495">
-        <v>-7.76</v>
+        <v>-8.09</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -7384,10 +7384,10 @@
         <v>497</v>
       </c>
       <c r="B496">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="C496">
-        <v>4.59</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -7398,7 +7398,7 @@
         <v>1.58</v>
       </c>
       <c r="C497">
-        <v>1.73</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="C498">
-        <v>-6.53</v>
+        <v>-6.83</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -7417,10 +7417,10 @@
         <v>500</v>
       </c>
       <c r="B499">
-        <v>-5.47</v>
+        <v>-5.45</v>
       </c>
       <c r="C499">
-        <v>-6.91</v>
+        <v>-7.22</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -7428,10 +7428,10 @@
         <v>501</v>
       </c>
       <c r="B500">
-        <v>14.59</v>
+        <v>14.56</v>
       </c>
       <c r="C500">
-        <v>11.57</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -7450,10 +7450,10 @@
         <v>503</v>
       </c>
       <c r="B502">
-        <v>-7.48</v>
+        <v>-7.45</v>
       </c>
       <c r="C502">
-        <v>-7.57</v>
+        <v>-7.91</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -7461,10 +7461,10 @@
         <v>504</v>
       </c>
       <c r="B503">
-        <v>-8.1</v>
+        <v>-8.06</v>
       </c>
       <c r="C503">
-        <v>-5.17</v>
+        <v>-5.49</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -7475,7 +7475,7 @@
         <v>2.49</v>
       </c>
       <c r="C504">
-        <v>5.06</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -7486,7 +7486,7 @@
         <v>0.09</v>
       </c>
       <c r="C505">
-        <v>0.55</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -7497,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="C506">
-        <v>-7.33</v>
+        <v>-7.65</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -7508,7 +7508,7 @@
         <v>-3.24</v>
       </c>
       <c r="C507">
-        <v>-5.71</v>
+        <v>-6.49</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -7519,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="C508">
-        <v>-8.77</v>
+        <v>-9.119999999999999</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -7530,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="C509">
-        <v>-8.130000000000001</v>
+        <v>-8.17</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -7538,10 +7538,10 @@
         <v>511</v>
       </c>
       <c r="B510">
-        <v>-3.92</v>
+        <v>-3.9</v>
       </c>
       <c r="C510">
-        <v>-1.24</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -7552,7 +7552,7 @@
         <v>-2.64</v>
       </c>
       <c r="C511">
-        <v>-1.76</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -7560,10 +7560,10 @@
         <v>513</v>
       </c>
       <c r="B512">
-        <v>-2.65</v>
+        <v>-2.63</v>
       </c>
       <c r="C512">
-        <v>-1.9</v>
+        <v>-2.18</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -7571,10 +7571,10 @@
         <v>514</v>
       </c>
       <c r="B513">
-        <v>-1.45</v>
+        <v>-1.43</v>
       </c>
       <c r="C513">
-        <v>-1.24</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -7585,7 +7585,7 @@
         <v>3.5</v>
       </c>
       <c r="C514">
-        <v>5.61</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -7593,10 +7593,10 @@
         <v>516</v>
       </c>
       <c r="B515">
-        <v>-6.65</v>
+        <v>-6.62</v>
       </c>
       <c r="C515">
-        <v>-6.17</v>
+        <v>-6.79</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -7604,10 +7604,10 @@
         <v>517</v>
       </c>
       <c r="B516">
-        <v>-4.48</v>
+        <v>-4.46</v>
       </c>
       <c r="C516">
-        <v>-0.39</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -7618,7 +7618,7 @@
         <v>2.21</v>
       </c>
       <c r="C517">
-        <v>2.29</v>
+        <v>2.05</v>
       </c>
     </row>
   </sheetData>

--- a/data/merged_scores.xlsx
+++ b/data/merged_scores.xlsx
@@ -1964,7 +1964,7 @@
         <v>-7.36</v>
       </c>
       <c r="C3">
-        <v>-2.66</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-8.279999999999999</v>
+        <v>-8.32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1997,7 +1997,7 @@
         <v>1.17</v>
       </c>
       <c r="C6">
-        <v>3.14</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2008,7 +2008,7 @@
         <v>-7.04</v>
       </c>
       <c r="C7">
-        <v>-5.93</v>
+        <v>-5.96</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2019,7 +2019,7 @@
         <v>-1.69</v>
       </c>
       <c r="C8">
-        <v>-1.17</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2030,7 +2030,7 @@
         <v>-4.38</v>
       </c>
       <c r="C9">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-6.51</v>
+        <v>-6.55</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2052,7 +2052,7 @@
         <v>-9.01</v>
       </c>
       <c r="C11">
-        <v>-7.47</v>
+        <v>-7.51</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2063,7 +2063,7 @@
         <v>-6.69</v>
       </c>
       <c r="C12">
-        <v>-6.79</v>
+        <v>-6.83</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2074,7 +2074,7 @@
         <v>-8.84</v>
       </c>
       <c r="C13">
-        <v>-3.3</v>
+        <v>-3.34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2085,7 +2085,7 @@
         <v>1.2</v>
       </c>
       <c r="C14">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2096,7 +2096,7 @@
         <v>-4.35</v>
       </c>
       <c r="C15">
-        <v>-2.17</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2107,7 +2107,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="C16">
-        <v>-1.54</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>-8.800000000000001</v>
+        <v>-8.84</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2129,7 +2129,7 @@
         <v>-6.35</v>
       </c>
       <c r="C18">
-        <v>-4.63</v>
+        <v>-4.66</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>-6.83</v>
+        <v>-6.88</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2151,7 +2151,7 @@
         <v>0.1</v>
       </c>
       <c r="C20">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2162,7 +2162,7 @@
         <v>4.04</v>
       </c>
       <c r="C21">
-        <v>3.22</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2173,7 +2173,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="C22">
-        <v>-1.13</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2184,7 +2184,7 @@
         <v>-5.48</v>
       </c>
       <c r="C23">
-        <v>-2.26</v>
+        <v>-3.04</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2195,7 +2195,7 @@
         <v>-0.46</v>
       </c>
       <c r="C24">
-        <v>-0.13</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2206,7 +2206,7 @@
         <v>-6.31</v>
       </c>
       <c r="C25">
-        <v>-3.8</v>
+        <v>-3.82</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2217,7 +2217,7 @@
         <v>-1.28</v>
       </c>
       <c r="C26">
-        <v>-2.96</v>
+        <v>-2.98</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2228,7 +2228,7 @@
         <v>-1.2</v>
       </c>
       <c r="C27">
-        <v>-0.47</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2239,7 +2239,7 @@
         <v>2.71</v>
       </c>
       <c r="C28">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2250,7 +2250,7 @@
         <v>-3.46</v>
       </c>
       <c r="C29">
-        <v>-1.71</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2261,7 +2261,7 @@
         <v>14.01</v>
       </c>
       <c r="C30">
-        <v>12.43</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2272,7 +2272,7 @@
         <v>6.9</v>
       </c>
       <c r="C31">
-        <v>6.79</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2283,7 +2283,7 @@
         <v>-8.08</v>
       </c>
       <c r="C32">
-        <v>-6.67</v>
+        <v>-6.71</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>-8.119999999999999</v>
+        <v>-8.15</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2305,7 +2305,7 @@
         <v>-7.53</v>
       </c>
       <c r="C34">
-        <v>-6.25</v>
+        <v>-6.29</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2327,7 +2327,7 @@
         <v>4.26</v>
       </c>
       <c r="C36">
-        <v>4.54</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2338,7 +2338,7 @@
         <v>-1.98</v>
       </c>
       <c r="C37">
-        <v>-1.7</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2349,7 +2349,7 @@
         <v>4.85</v>
       </c>
       <c r="C38">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2360,7 +2360,7 @@
         <v>-7.26</v>
       </c>
       <c r="C39">
-        <v>-8.06</v>
+        <v>-8.1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2371,7 +2371,7 @@
         <v>-6.02</v>
       </c>
       <c r="C40">
-        <v>-3.78</v>
+        <v>-3.81</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2382,7 +2382,7 @@
         <v>-0.38</v>
       </c>
       <c r="C41">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2393,7 +2393,7 @@
         <v>-1.37</v>
       </c>
       <c r="C42">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2404,7 +2404,7 @@
         <v>2.87</v>
       </c>
       <c r="C43">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2415,7 +2415,7 @@
         <v>-7.8</v>
       </c>
       <c r="C44">
-        <v>-5.94</v>
+        <v>-5.85</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2426,7 +2426,7 @@
         <v>0.23</v>
       </c>
       <c r="C45">
-        <v>-0.55</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2448,7 +2448,7 @@
         <v>0.76</v>
       </c>
       <c r="C47">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2481,7 +2481,7 @@
         <v>-3.42</v>
       </c>
       <c r="C50">
-        <v>-5.56</v>
+        <v>-5.6</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2503,7 +2503,7 @@
         <v>3.59</v>
       </c>
       <c r="C52">
-        <v>3.58</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2547,7 +2547,7 @@
         <v>-2.35</v>
       </c>
       <c r="C56">
-        <v>-4.34</v>
+        <v>-4.38</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2558,7 +2558,7 @@
         <v>2.78</v>
       </c>
       <c r="C57">
-        <v>5.63</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2569,7 +2569,7 @@
         <v>1.78</v>
       </c>
       <c r="C58">
-        <v>2.84</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>-8.42</v>
+        <v>-8.449999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2591,7 +2591,7 @@
         <v>-3.4</v>
       </c>
       <c r="C60">
-        <v>-4.51</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>-7.78</v>
+        <v>-7.82</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2624,7 +2624,7 @@
         <v>1.54</v>
       </c>
       <c r="C63">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2646,7 +2646,7 @@
         <v>-4.63</v>
       </c>
       <c r="C65">
-        <v>-4.84</v>
+        <v>-4.63</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2690,7 +2690,7 @@
         <v>2.24</v>
       </c>
       <c r="C69">
-        <v>5.14</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2701,7 +2701,7 @@
         <v>1.95</v>
       </c>
       <c r="C70">
-        <v>5.98</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2712,7 +2712,7 @@
         <v>6.36</v>
       </c>
       <c r="C71">
-        <v>6.57</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2723,7 +2723,7 @@
         <v>-7.59</v>
       </c>
       <c r="C72">
-        <v>-7.61</v>
+        <v>-7.64</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2734,7 +2734,7 @@
         <v>-1.02</v>
       </c>
       <c r="C73">
-        <v>-3.61</v>
+        <v>-3.63</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2756,7 +2756,7 @@
         <v>-5.47</v>
       </c>
       <c r="C75">
-        <v>-1.8</v>
+        <v>-1.83</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2767,7 +2767,7 @@
         <v>1.93</v>
       </c>
       <c r="C76">
-        <v>3.62</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2778,7 +2778,7 @@
         <v>-4.51</v>
       </c>
       <c r="C77">
-        <v>-7.55</v>
+        <v>-7.57</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2789,7 +2789,7 @@
         <v>0.76</v>
       </c>
       <c r="C78">
-        <v>2.42</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2800,7 +2800,7 @@
         <v>-5.34</v>
       </c>
       <c r="C79">
-        <v>-4.42</v>
+        <v>-4.44</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2811,7 +2811,7 @@
         <v>-1.33</v>
       </c>
       <c r="C80">
-        <v>2.55</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2833,7 +2833,7 @@
         <v>-2.21</v>
       </c>
       <c r="C82">
-        <v>-1</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2844,7 +2844,7 @@
         <v>-5.47</v>
       </c>
       <c r="C83">
-        <v>-6.11</v>
+        <v>-6.15</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2855,7 +2855,7 @@
         <v>8.15</v>
       </c>
       <c r="C84">
-        <v>8.66</v>
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2866,7 +2866,7 @@
         <v>-4.98</v>
       </c>
       <c r="C85">
-        <v>-1.45</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2877,7 +2877,7 @@
         <v>-6.44</v>
       </c>
       <c r="C86">
-        <v>-6.96</v>
+        <v>-6.99</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2888,7 +2888,7 @@
         <v>0.99</v>
       </c>
       <c r="C87">
-        <v>3.93</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2899,7 +2899,7 @@
         <v>-0.9</v>
       </c>
       <c r="C88">
-        <v>4.26</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>-6.26</v>
+        <v>-6.3</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2943,7 +2943,7 @@
         <v>0.82</v>
       </c>
       <c r="C92">
-        <v>-0.66</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2954,7 +2954,7 @@
         <v>2.28</v>
       </c>
       <c r="C93">
-        <v>3.48</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2965,7 +2965,7 @@
         <v>-4.16</v>
       </c>
       <c r="C94">
-        <v>-0.05</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2976,7 +2976,7 @@
         <v>-6.74</v>
       </c>
       <c r="C95">
-        <v>-5.75</v>
+        <v>-5.86</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2998,7 +2998,7 @@
         <v>-9.01</v>
       </c>
       <c r="C97">
-        <v>-7.66</v>
+        <v>-7.7</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>-7.55</v>
+        <v>-7.59</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3031,7 +3031,7 @@
         <v>-8.93</v>
       </c>
       <c r="C100">
-        <v>-6.79</v>
+        <v>-6.83</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3042,7 +3042,7 @@
         <v>1.48</v>
       </c>
       <c r="C101">
-        <v>0.8100000000000001</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3053,7 +3053,7 @@
         <v>-0.58</v>
       </c>
       <c r="C102">
-        <v>-3.57</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3064,7 +3064,7 @@
         <v>-7.32</v>
       </c>
       <c r="C103">
-        <v>-6.67</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3072,10 +3072,10 @@
         <v>105</v>
       </c>
       <c r="B104">
-        <v>-5.58</v>
+        <v>-5.57</v>
       </c>
       <c r="C104">
-        <v>-5.96</v>
+        <v>-5.99</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3086,7 +3086,7 @@
         <v>2.66</v>
       </c>
       <c r="C105">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3097,7 +3097,7 @@
         <v>-9.109999999999999</v>
       </c>
       <c r="C106">
-        <v>-7.15</v>
+        <v>-7.18</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3130,7 +3130,7 @@
         <v>-6.99</v>
       </c>
       <c r="C109">
-        <v>-3.35</v>
+        <v>-3.36</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3141,7 +3141,7 @@
         <v>-7.98</v>
       </c>
       <c r="C110">
-        <v>-5.25</v>
+        <v>-4.67</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3152,7 +3152,7 @@
         <v>-4.82</v>
       </c>
       <c r="C111">
-        <v>-4.92</v>
+        <v>-4.96</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3163,7 +3163,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="C112">
-        <v>8.76</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3174,7 +3174,7 @@
         <v>-4.79</v>
       </c>
       <c r="C113">
-        <v>-6.52</v>
+        <v>-6.54</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3185,7 +3185,7 @@
         <v>2.06</v>
       </c>
       <c r="C114">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3196,7 +3196,7 @@
         <v>-1.72</v>
       </c>
       <c r="C115">
-        <v>-3.86</v>
+        <v>-3.89</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="C116">
-        <v>-8.98</v>
+        <v>-9.02</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3229,7 +3229,7 @@
         <v>-4.7</v>
       </c>
       <c r="C118">
-        <v>-8.539999999999999</v>
+        <v>-8.57</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3240,7 +3240,7 @@
         <v>-8.84</v>
       </c>
       <c r="C119">
-        <v>-7.91</v>
+        <v>-7.94</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3251,7 +3251,7 @@
         <v>3.72</v>
       </c>
       <c r="C120">
-        <v>7.38</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3284,7 +3284,7 @@
         <v>-9.390000000000001</v>
       </c>
       <c r="C123">
-        <v>0.09</v>
+        <v>-1.12</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3295,7 +3295,7 @@
         <v>-5.28</v>
       </c>
       <c r="C124">
-        <v>1.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3317,7 +3317,7 @@
         <v>5.14</v>
       </c>
       <c r="C126">
-        <v>6.45</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3328,7 +3328,7 @@
         <v>-0.28</v>
       </c>
       <c r="C127">
-        <v>4.51</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3339,7 +3339,7 @@
         <v>0.52</v>
       </c>
       <c r="C128">
-        <v>-3.13</v>
+        <v>-3.15</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3350,7 +3350,7 @@
         <v>-7.22</v>
       </c>
       <c r="C129">
-        <v>-5.64</v>
+        <v>-5.67</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3361,7 +3361,7 @@
         <v>5</v>
       </c>
       <c r="C130">
-        <v>6.85</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3372,7 +3372,7 @@
         <v>-4.5</v>
       </c>
       <c r="C131">
-        <v>-2.26</v>
+        <v>-2.63</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3383,7 +3383,7 @@
         <v>2.67</v>
       </c>
       <c r="C132">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3394,7 +3394,7 @@
         <v>3.82</v>
       </c>
       <c r="C133">
-        <v>3.22</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3405,7 +3405,7 @@
         <v>-2.93</v>
       </c>
       <c r="C134">
-        <v>-5.84</v>
+        <v>-5.87</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3416,7 +3416,7 @@
         <v>-0.63</v>
       </c>
       <c r="C135">
-        <v>-0.53</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3427,7 +3427,7 @@
         <v>1.59</v>
       </c>
       <c r="C136">
-        <v>6.2</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3438,7 +3438,7 @@
         <v>2.43</v>
       </c>
       <c r="C137">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3449,7 +3449,7 @@
         <v>-2.4</v>
       </c>
       <c r="C138">
-        <v>-0.06</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3471,7 +3471,7 @@
         <v>4.91</v>
       </c>
       <c r="C140">
-        <v>7.02</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3482,7 +3482,7 @@
         <v>4.95</v>
       </c>
       <c r="C141">
-        <v>4.76</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3493,7 +3493,7 @@
         <v>7.97</v>
       </c>
       <c r="C142">
-        <v>5.83</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3515,7 +3515,7 @@
         <v>2.48</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3537,7 +3537,7 @@
         <v>-2.51</v>
       </c>
       <c r="C146">
-        <v>-1.64</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3548,7 +3548,7 @@
         <v>-8.73</v>
       </c>
       <c r="C147">
-        <v>-7.34</v>
+        <v>-7.37</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3559,7 +3559,7 @@
         <v>7.84</v>
       </c>
       <c r="C148">
-        <v>9.65</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3570,7 +3570,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="C149">
-        <v>-9.470000000000001</v>
+        <v>-9.49</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3581,7 +3581,7 @@
         <v>-1.07</v>
       </c>
       <c r="C150">
-        <v>-1.76</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3592,7 +3592,7 @@
         <v>7.9</v>
       </c>
       <c r="C151">
-        <v>4.37</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3603,7 +3603,7 @@
         <v>1.02</v>
       </c>
       <c r="C152">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3614,7 +3614,7 @@
         <v>-2.99</v>
       </c>
       <c r="C153">
-        <v>0.29</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="C154">
-        <v>-8.17</v>
+        <v>-8.19</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3636,7 +3636,7 @@
         <v>2.42</v>
       </c>
       <c r="C155">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3647,7 +3647,7 @@
         <v>-4.16</v>
       </c>
       <c r="C156">
-        <v>-3.19</v>
+        <v>-3.23</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="C157">
-        <v>-5.46</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3669,7 +3669,7 @@
         <v>-6.74</v>
       </c>
       <c r="C158">
-        <v>-5.48</v>
+        <v>-5.52</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3680,7 +3680,7 @@
         <v>-3.58</v>
       </c>
       <c r="C159">
-        <v>-3.64</v>
+        <v>-3.66</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3691,7 +3691,7 @@
         <v>-4.97</v>
       </c>
       <c r="C160">
-        <v>-7.2</v>
+        <v>-7.24</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3702,7 +3702,7 @@
         <v>-5.95</v>
       </c>
       <c r="C161">
-        <v>-5.35</v>
+        <v>-5.39</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3713,7 +3713,7 @@
         <v>1.24</v>
       </c>
       <c r="C162">
-        <v>3.22</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3746,7 +3746,7 @@
         <v>-6.9</v>
       </c>
       <c r="C165">
-        <v>-6.3</v>
+        <v>-6.35</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3757,7 +3757,7 @@
         <v>-1.9</v>
       </c>
       <c r="C166">
-        <v>-5.27</v>
+        <v>-5.29</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3768,7 +3768,7 @@
         <v>4.99</v>
       </c>
       <c r="C167">
-        <v>6.13</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3779,7 +3779,7 @@
         <v>4.18</v>
       </c>
       <c r="C168">
-        <v>3.71</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3790,7 +3790,7 @@
         <v>5.24</v>
       </c>
       <c r="C169">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3812,7 +3812,7 @@
         <v>-4.04</v>
       </c>
       <c r="C171">
-        <v>-6.96</v>
+        <v>-6.98</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3823,7 +3823,7 @@
         <v>-7.86</v>
       </c>
       <c r="C172">
-        <v>-6.66</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3834,7 +3834,7 @@
         <v>-5.32</v>
       </c>
       <c r="C173">
-        <v>0.35</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3845,7 +3845,7 @@
         <v>-5.09</v>
       </c>
       <c r="C174">
-        <v>-5.11</v>
+        <v>-5.14</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3856,7 +3856,7 @@
         <v>-4.04</v>
       </c>
       <c r="C175">
-        <v>-2.82</v>
+        <v>-2.86</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3867,7 +3867,7 @@
         <v>-1.3</v>
       </c>
       <c r="C176">
-        <v>-4.84</v>
+        <v>-4.89</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3878,7 +3878,7 @@
         <v>-3.87</v>
       </c>
       <c r="C177">
-        <v>-3.45</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3889,7 +3889,7 @@
         <v>12.61</v>
       </c>
       <c r="C178">
-        <v>7.9</v>
+        <v>7.85</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3900,7 +3900,7 @@
         <v>-3.97</v>
       </c>
       <c r="C179">
-        <v>-0.57</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3911,7 +3911,7 @@
         <v>-2.76</v>
       </c>
       <c r="C180">
-        <v>3.68</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3922,7 +3922,7 @@
         <v>-2.81</v>
       </c>
       <c r="C181">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3933,7 +3933,7 @@
         <v>0.2</v>
       </c>
       <c r="C182">
-        <v>-1.58</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3944,7 +3944,7 @@
         <v>-5.54</v>
       </c>
       <c r="C183">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3955,7 +3955,7 @@
         <v>-8.41</v>
       </c>
       <c r="C184">
-        <v>-7.53</v>
+        <v>-7.57</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3966,7 +3966,7 @@
         <v>-2.33</v>
       </c>
       <c r="C185">
-        <v>-2.32</v>
+        <v>-2.26</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="C186">
-        <v>-8.619999999999999</v>
+        <v>-8.65</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3988,7 +3988,7 @@
         <v>-5.52</v>
       </c>
       <c r="C187">
-        <v>-1.24</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3999,7 +3999,7 @@
         <v>1.94</v>
       </c>
       <c r="C188">
-        <v>-1.83</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4010,7 +4010,7 @@
         <v>-7.34</v>
       </c>
       <c r="C189">
-        <v>-4.98</v>
+        <v>-5.03</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4021,7 +4021,7 @@
         <v>4.24</v>
       </c>
       <c r="C190">
-        <v>-0.66</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="C191">
-        <v>-8.75</v>
+        <v>-8.779999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4043,7 +4043,7 @@
         <v>-4.23</v>
       </c>
       <c r="C192">
-        <v>-2.55</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4054,7 +4054,7 @@
         <v>-7.09</v>
       </c>
       <c r="C193">
-        <v>-8.48</v>
+        <v>-6.79</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4076,7 +4076,7 @@
         <v>-1.87</v>
       </c>
       <c r="C195">
-        <v>-1.39</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4087,7 +4087,7 @@
         <v>-3.6</v>
       </c>
       <c r="C196">
-        <v>-2.28</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4098,7 +4098,7 @@
         <v>-3.74</v>
       </c>
       <c r="C197">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4109,7 +4109,7 @@
         <v>2.82</v>
       </c>
       <c r="C198">
-        <v>2.97</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4120,7 +4120,7 @@
         <v>-8.83</v>
       </c>
       <c r="C199">
-        <v>-8.390000000000001</v>
+        <v>-8.42</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4131,7 +4131,7 @@
         <v>5.31</v>
       </c>
       <c r="C200">
-        <v>4.34</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4142,7 +4142,7 @@
         <v>-8.26</v>
       </c>
       <c r="C201">
-        <v>-8.08</v>
+        <v>-8.09</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4153,7 +4153,7 @@
         <v>2.28</v>
       </c>
       <c r="C202">
-        <v>-1.58</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4164,7 +4164,7 @@
         <v>-5.66</v>
       </c>
       <c r="C203">
-        <v>-6.03</v>
+        <v>-6.06</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="C204">
-        <v>-8.23</v>
+        <v>-8.26</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="C205">
-        <v>-7.89</v>
+        <v>-7.93</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4197,7 +4197,7 @@
         <v>-6.03</v>
       </c>
       <c r="C206">
-        <v>-6.25</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4208,7 +4208,7 @@
         <v>0.5</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4219,7 +4219,7 @@
         <v>-1.79</v>
       </c>
       <c r="C208">
-        <v>-1.08</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4230,7 +4230,7 @@
         <v>-5.4</v>
       </c>
       <c r="C209">
-        <v>-7.68</v>
+        <v>-7.71</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="C210">
-        <v>-7.03</v>
+        <v>-7.05</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4252,7 +4252,7 @@
         <v>-0.93</v>
       </c>
       <c r="C211">
-        <v>-3.58</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4263,7 +4263,7 @@
         <v>-5.98</v>
       </c>
       <c r="C212">
-        <v>-2.48</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4274,7 +4274,7 @@
         <v>2.74</v>
       </c>
       <c r="C213">
-        <v>5.29</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4285,7 +4285,7 @@
         <v>5.88</v>
       </c>
       <c r="C214">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4296,7 +4296,7 @@
         <v>2.16</v>
       </c>
       <c r="C215">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4307,7 +4307,7 @@
         <v>1.84</v>
       </c>
       <c r="C216">
-        <v>2.43</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4318,7 +4318,7 @@
         <v>-11.51</v>
       </c>
       <c r="C217">
-        <v>-8.27</v>
+        <v>-8.31</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4329,7 +4329,7 @@
         <v>5.26</v>
       </c>
       <c r="C218">
-        <v>4.25</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4351,7 +4351,7 @@
         <v>-9.039999999999999</v>
       </c>
       <c r="C220">
-        <v>-8.630000000000001</v>
+        <v>-8.66</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4362,7 +4362,7 @@
         <v>-3.23</v>
       </c>
       <c r="C221">
-        <v>-2.43</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4373,7 +4373,7 @@
         <v>5.47</v>
       </c>
       <c r="C222">
-        <v>6.64</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4395,7 +4395,7 @@
         <v>-4.75</v>
       </c>
       <c r="C224">
-        <v>-3.24</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4406,7 +4406,7 @@
         <v>-6.71</v>
       </c>
       <c r="C225">
-        <v>-6.14</v>
+        <v>-6.17</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4417,7 +4417,7 @@
         <v>2.84</v>
       </c>
       <c r="C226">
-        <v>2.48</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4428,7 +4428,7 @@
         <v>-7.98</v>
       </c>
       <c r="C227">
-        <v>-3.29</v>
+        <v>-3.75</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4439,7 +4439,7 @@
         <v>11.01</v>
       </c>
       <c r="C228">
-        <v>9.68</v>
+        <v>9.73</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="C229">
-        <v>-6.81</v>
+        <v>-6.85</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4461,7 +4461,7 @@
         <v>-6.76</v>
       </c>
       <c r="C230">
-        <v>-5.46</v>
+        <v>-5.53</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4472,7 +4472,7 @@
         <v>-5.41</v>
       </c>
       <c r="C231">
-        <v>-4.43</v>
+        <v>-4.97</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4483,7 +4483,7 @@
         <v>-4.49</v>
       </c>
       <c r="C232">
-        <v>-3.01</v>
+        <v>-3.04</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4494,7 +4494,7 @@
         <v>-5.46</v>
       </c>
       <c r="C233">
-        <v>-4.17</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4505,7 +4505,7 @@
         <v>-8.15</v>
       </c>
       <c r="C234">
-        <v>-3.69</v>
+        <v>-3.74</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4516,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="C235">
-        <v>-6.28</v>
+        <v>-6.32</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4527,7 +4527,7 @@
         <v>4.97</v>
       </c>
       <c r="C236">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4549,7 +4549,7 @@
         <v>3.54</v>
       </c>
       <c r="C238">
-        <v>5.54</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4571,7 +4571,7 @@
         <v>-0.52</v>
       </c>
       <c r="C240">
-        <v>-1.52</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4582,7 +4582,7 @@
         <v>-5.57</v>
       </c>
       <c r="C241">
-        <v>-1.56</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4593,7 +4593,7 @@
         <v>-0.91</v>
       </c>
       <c r="C242">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4604,7 +4604,7 @@
         <v>3.67</v>
       </c>
       <c r="C243">
-        <v>4.31</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="C244">
-        <v>-7.18</v>
+        <v>-7.22</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="C245">
-        <v>-6.46</v>
+        <v>-6.48</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4637,7 +4637,7 @@
         <v>-5.4</v>
       </c>
       <c r="C246">
-        <v>-3.17</v>
+        <v>-3.18</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4659,7 +4659,7 @@
         <v>-6.27</v>
       </c>
       <c r="C248">
-        <v>-7.81</v>
+        <v>-7.84</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4670,7 +4670,7 @@
         <v>9.109999999999999</v>
       </c>
       <c r="C249">
-        <v>10.22</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="C250">
-        <v>-7.18</v>
+        <v>-7.22</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="C251">
-        <v>-8.24</v>
+        <v>-8.27</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4703,7 +4703,7 @@
         <v>-7.49</v>
       </c>
       <c r="C252">
-        <v>-5.63</v>
+        <v>-5.67</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4714,7 +4714,7 @@
         <v>1.63</v>
       </c>
       <c r="C253">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4725,7 +4725,7 @@
         <v>-6.6</v>
       </c>
       <c r="C254">
-        <v>-3.34</v>
+        <v>-3.38</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4736,7 +4736,7 @@
         <v>0.5</v>
       </c>
       <c r="C255">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4747,7 +4747,7 @@
         <v>-4.76</v>
       </c>
       <c r="C256">
-        <v>-5.45</v>
+        <v>-5.47</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4758,7 +4758,7 @@
         <v>-8.83</v>
       </c>
       <c r="C257">
-        <v>-6.25</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4769,7 +4769,7 @@
         <v>-7.26</v>
       </c>
       <c r="C258">
-        <v>-6.25</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4780,7 +4780,7 @@
         <v>5.66</v>
       </c>
       <c r="C259">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4791,7 +4791,7 @@
         <v>-5.62</v>
       </c>
       <c r="C260">
-        <v>-6.01</v>
+        <v>-6.03</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4802,7 +4802,7 @@
         <v>-5.26</v>
       </c>
       <c r="C261">
-        <v>-7.61</v>
+        <v>-7.64</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4824,7 +4824,7 @@
         <v>1.05</v>
       </c>
       <c r="C263">
-        <v>4.35</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4835,7 +4835,7 @@
         <v>-2.69</v>
       </c>
       <c r="C264">
-        <v>-1.12</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4846,7 +4846,7 @@
         <v>-8.380000000000001</v>
       </c>
       <c r="C265">
-        <v>-6.54</v>
+        <v>-6.57</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4857,7 +4857,7 @@
         <v>-5.93</v>
       </c>
       <c r="C266">
-        <v>-9.51</v>
+        <v>-9.539999999999999</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4868,7 +4868,7 @@
         <v>-7.45</v>
       </c>
       <c r="C267">
-        <v>-2.17</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4879,7 +4879,7 @@
         <v>0.26</v>
       </c>
       <c r="C268">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4890,7 +4890,7 @@
         <v>-1.15</v>
       </c>
       <c r="C269">
-        <v>-3.29</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4912,7 +4912,7 @@
         <v>-4</v>
       </c>
       <c r="C271">
-        <v>-1.73</v>
+        <v>-2.06</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4923,7 +4923,7 @@
         <v>-0.68</v>
       </c>
       <c r="C272">
-        <v>-2.56</v>
+        <v>-2.08</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4934,7 +4934,7 @@
         <v>-3.54</v>
       </c>
       <c r="C273">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4945,7 +4945,7 @@
         <v>-5.77</v>
       </c>
       <c r="C274">
-        <v>-7.13</v>
+        <v>-7.16</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="C275">
-        <v>-9.470000000000001</v>
+        <v>-9.49</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4967,7 +4967,7 @@
         <v>3.15</v>
       </c>
       <c r="C276">
-        <v>8.43</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4978,7 +4978,7 @@
         <v>-7.09</v>
       </c>
       <c r="C277">
-        <v>-7.11</v>
+        <v>-7.14</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4989,7 +4989,7 @@
         <v>-1.05</v>
       </c>
       <c r="C278">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5000,7 +5000,7 @@
         <v>2.83</v>
       </c>
       <c r="C279">
-        <v>-0.62</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5011,7 +5011,7 @@
         <v>-2.19</v>
       </c>
       <c r="C280">
-        <v>-4.11</v>
+        <v>-4.13</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5022,7 +5022,7 @@
         <v>1.47</v>
       </c>
       <c r="C281">
-        <v>4.81</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5033,7 +5033,7 @@
         <v>-4.64</v>
       </c>
       <c r="C282">
-        <v>-7.02</v>
+        <v>-7.05</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5044,7 +5044,7 @@
         <v>-5.39</v>
       </c>
       <c r="C283">
-        <v>-7.41</v>
+        <v>-7.42</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5055,7 +5055,7 @@
         <v>-1.48</v>
       </c>
       <c r="C284">
-        <v>-3.74</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5066,7 +5066,7 @@
         <v>2.62</v>
       </c>
       <c r="C285">
-        <v>-0.19</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5088,7 +5088,7 @@
         <v>0.02</v>
       </c>
       <c r="C287">
-        <v>0.57</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5099,7 +5099,7 @@
         <v>-6.73</v>
       </c>
       <c r="C288">
-        <v>-5.81</v>
+        <v>-4.98</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5110,7 +5110,7 @@
         <v>-2.83</v>
       </c>
       <c r="C289">
-        <v>-2.06</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5121,7 +5121,7 @@
         <v>1.49</v>
       </c>
       <c r="C290">
-        <v>4.61</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="C291">
-        <v>-7.04</v>
+        <v>-7.07</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5143,7 +5143,7 @@
         <v>1.69</v>
       </c>
       <c r="C292">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5154,7 +5154,7 @@
         <v>-7.46</v>
       </c>
       <c r="C293">
-        <v>-6.31</v>
+        <v>-6.34</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5165,7 +5165,7 @@
         <v>-9.25</v>
       </c>
       <c r="C294">
-        <v>-5.29</v>
+        <v>-5.68</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5176,7 +5176,7 @@
         <v>8.17</v>
       </c>
       <c r="C295">
-        <v>9.84</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5187,7 +5187,7 @@
         <v>-3.36</v>
       </c>
       <c r="C296">
-        <v>-5.98</v>
+        <v>-6.02</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5209,7 +5209,7 @@
         <v>-3.98</v>
       </c>
       <c r="C298">
-        <v>-2.09</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5220,7 +5220,7 @@
         <v>2.05</v>
       </c>
       <c r="C299">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5242,7 +5242,7 @@
         <v>-7.15</v>
       </c>
       <c r="C301">
-        <v>-6.06</v>
+        <v>-6.09</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5253,7 +5253,7 @@
         <v>-1.98</v>
       </c>
       <c r="C302">
-        <v>-1.14</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5275,7 +5275,7 @@
         <v>-0.17</v>
       </c>
       <c r="C304">
-        <v>-1.77</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5297,7 +5297,7 @@
         <v>-0.71</v>
       </c>
       <c r="C306">
-        <v>-0.47</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5308,7 +5308,7 @@
         <v>-5.85</v>
       </c>
       <c r="C307">
-        <v>-2.39</v>
+        <v>-2.44</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5319,7 +5319,7 @@
         <v>-2.19</v>
       </c>
       <c r="C308">
-        <v>-0.27</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5330,7 +5330,7 @@
         <v>-6.18</v>
       </c>
       <c r="C309">
-        <v>-5.02</v>
+        <v>-5.29</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="C310">
-        <v>-8.75</v>
+        <v>-8.779999999999999</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5352,7 +5352,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="C311">
-        <v>9.98</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5363,7 +5363,7 @@
         <v>-1.07</v>
       </c>
       <c r="C312">
-        <v>-0.09</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5385,7 +5385,7 @@
         <v>-1.83</v>
       </c>
       <c r="C314">
-        <v>-4.47</v>
+        <v>-4.26</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5396,7 +5396,7 @@
         <v>-6.49</v>
       </c>
       <c r="C315">
-        <v>-1.68</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5407,7 +5407,7 @@
         <v>0.59</v>
       </c>
       <c r="C316">
-        <v>-0.17</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5440,7 +5440,7 @@
         <v>0.32</v>
       </c>
       <c r="C319">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5451,7 +5451,7 @@
         <v>-9.34</v>
       </c>
       <c r="C320">
-        <v>-7.3</v>
+        <v>-7.34</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5473,7 +5473,7 @@
         <v>-1.47</v>
       </c>
       <c r="C322">
-        <v>-1.75</v>
+        <v>-1.63</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5506,7 +5506,7 @@
         <v>-2.56</v>
       </c>
       <c r="C325">
-        <v>-2.01</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5517,7 +5517,7 @@
         <v>-5.55</v>
       </c>
       <c r="C326">
-        <v>-5.49</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5528,7 +5528,7 @@
         <v>1.51</v>
       </c>
       <c r="C327">
-        <v>-1.22</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5539,7 +5539,7 @@
         <v>-0.62</v>
       </c>
       <c r="C328">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5550,7 +5550,7 @@
         <v>8.4</v>
       </c>
       <c r="C329">
-        <v>7.4</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5561,7 +5561,7 @@
         <v>-2.4</v>
       </c>
       <c r="C330">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5572,7 +5572,7 @@
         <v>8.630000000000001</v>
       </c>
       <c r="C331">
-        <v>8.33</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5583,7 +5583,7 @@
         <v>-2.83</v>
       </c>
       <c r="C332">
-        <v>-0.08</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -5594,7 +5594,7 @@
         <v>6.13</v>
       </c>
       <c r="C333">
-        <v>0.35</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -5605,7 +5605,7 @@
         <v>6.56</v>
       </c>
       <c r="C334">
-        <v>8.359999999999999</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5627,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="C336">
-        <v>-6.86</v>
+        <v>-6.91</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5638,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="C337">
-        <v>-9.369999999999999</v>
+        <v>-9.41</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5649,7 +5649,7 @@
         <v>-3.63</v>
       </c>
       <c r="C338">
-        <v>-4.27</v>
+        <v>-4.31</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5660,7 +5660,7 @@
         <v>-0.99</v>
       </c>
       <c r="C339">
-        <v>-3.65</v>
+        <v>-3.68</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -5671,7 +5671,7 @@
         <v>-0.22</v>
       </c>
       <c r="C340">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -5682,7 +5682,7 @@
         <v>14.25</v>
       </c>
       <c r="C341">
-        <v>7.37</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -5693,7 +5693,7 @@
         <v>-8.44</v>
       </c>
       <c r="C342">
-        <v>-8.6</v>
+        <v>-8.619999999999999</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -5704,7 +5704,7 @@
         <v>-1.14</v>
       </c>
       <c r="C343">
-        <v>-3.45</v>
+        <v>-3.46</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -5715,7 +5715,7 @@
         <v>-2.78</v>
       </c>
       <c r="C344">
-        <v>-0.8</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="C345">
-        <v>-4.8</v>
+        <v>-4.85</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -5737,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="C346">
-        <v>-6.9</v>
+        <v>-6.94</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -5748,7 +5748,7 @@
         <v>-5.37</v>
       </c>
       <c r="C347">
-        <v>-1.78</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -5770,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="C349">
-        <v>-9.140000000000001</v>
+        <v>-9.16</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -5781,7 +5781,7 @@
         <v>-2.86</v>
       </c>
       <c r="C350">
-        <v>-3.84</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -5792,7 +5792,7 @@
         <v>0.2</v>
       </c>
       <c r="C351">
-        <v>-0.01</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -5803,7 +5803,7 @@
         <v>-6.87</v>
       </c>
       <c r="C352">
-        <v>-7.22</v>
+        <v>-7.26</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -5814,7 +5814,7 @@
         <v>-3.67</v>
       </c>
       <c r="C353">
-        <v>-6.77</v>
+        <v>-6.81</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -5825,7 +5825,7 @@
         <v>-1.11</v>
       </c>
       <c r="C354">
-        <v>-2.96</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -5847,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="C356">
-        <v>-7.25</v>
+        <v>-7.28</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -5858,7 +5858,7 @@
         <v>-4.45</v>
       </c>
       <c r="C357">
-        <v>-6.17</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -5869,7 +5869,7 @@
         <v>-4.48</v>
       </c>
       <c r="C358">
-        <v>-5.09</v>
+        <v>-5.13</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -5880,7 +5880,7 @@
         <v>-4.91</v>
       </c>
       <c r="C359">
-        <v>-5.52</v>
+        <v>-6.44</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -5902,7 +5902,7 @@
         <v>-7.63</v>
       </c>
       <c r="C361">
-        <v>-6.79</v>
+        <v>-6.83</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -5913,7 +5913,7 @@
         <v>-4.72</v>
       </c>
       <c r="C362">
-        <v>-5.16</v>
+        <v>-5.19</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -5935,7 +5935,7 @@
         <v>-5.57</v>
       </c>
       <c r="C364">
-        <v>-5.01</v>
+        <v>-5.04</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -5946,7 +5946,7 @@
         <v>-10.3</v>
       </c>
       <c r="C365">
-        <v>-8.27</v>
+        <v>-8.31</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -5957,7 +5957,7 @@
         <v>1.73</v>
       </c>
       <c r="C366">
-        <v>3.8</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -5968,7 +5968,7 @@
         <v>3.25</v>
       </c>
       <c r="C367">
-        <v>2.34</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -5979,7 +5979,7 @@
         <v>0.84</v>
       </c>
       <c r="C368">
-        <v>-0.33</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -5990,7 +5990,7 @@
         <v>0.84</v>
       </c>
       <c r="C369">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6001,7 +6001,7 @@
         <v>-1.02</v>
       </c>
       <c r="C370">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6034,7 +6034,7 @@
         <v>-5.47</v>
       </c>
       <c r="C373">
-        <v>-5.39</v>
+        <v>-5.42</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6045,7 +6045,7 @@
         <v>-2.22</v>
       </c>
       <c r="C374">
-        <v>-1.1</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6056,7 +6056,7 @@
         <v>-4.05</v>
       </c>
       <c r="C375">
-        <v>-2.46</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="C376">
-        <v>-8.43</v>
+        <v>-8.470000000000001</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6078,7 +6078,7 @@
         <v>-9.039999999999999</v>
       </c>
       <c r="C377">
-        <v>-4.93</v>
+        <v>-4.95</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6100,7 +6100,7 @@
         <v>-3.45</v>
       </c>
       <c r="C379">
-        <v>-1.11</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="C381">
-        <v>-5.35</v>
+        <v>-5.39</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6133,7 +6133,7 @@
         <v>1.17</v>
       </c>
       <c r="C382">
-        <v>2.83</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6144,7 +6144,7 @@
         <v>-0.41</v>
       </c>
       <c r="C383">
-        <v>-2.46</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6155,7 +6155,7 @@
         <v>-0.42</v>
       </c>
       <c r="C384">
-        <v>3.13</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6166,7 +6166,7 @@
         <v>-7.35</v>
       </c>
       <c r="C385">
-        <v>-7.58</v>
+        <v>-7.62</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6177,7 +6177,7 @@
         <v>-1.74</v>
       </c>
       <c r="C386">
-        <v>-1.46</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6188,7 +6188,7 @@
         <v>-2.27</v>
       </c>
       <c r="C387">
-        <v>-3.31</v>
+        <v>-3.02</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6199,7 +6199,7 @@
         <v>2.83</v>
       </c>
       <c r="C388">
-        <v>0.83</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6221,7 +6221,7 @@
         <v>15.01</v>
       </c>
       <c r="C390">
-        <v>16.93</v>
+        <v>16.89</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -6232,7 +6232,7 @@
         <v>-1.44</v>
       </c>
       <c r="C391">
-        <v>-2.34</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6243,7 +6243,7 @@
         <v>5.44</v>
       </c>
       <c r="C392">
-        <v>8</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6254,7 +6254,7 @@
         <v>-0.51</v>
       </c>
       <c r="C393">
-        <v>-4.62</v>
+        <v>-4.3</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6265,7 +6265,7 @@
         <v>2.14</v>
       </c>
       <c r="C394">
-        <v>6.51</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6276,7 +6276,7 @@
         <v>2.38</v>
       </c>
       <c r="C395">
-        <v>2.81</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6287,7 +6287,7 @@
         <v>-2.31</v>
       </c>
       <c r="C396">
-        <v>-1.76</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6298,7 +6298,7 @@
         <v>-5.46</v>
       </c>
       <c r="C397">
-        <v>2.08</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6309,7 +6309,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="C398">
-        <v>-8.42</v>
+        <v>-8.460000000000001</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6320,7 +6320,7 @@
         <v>3.15</v>
       </c>
       <c r="C399">
-        <v>1.06</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="C401">
-        <v>-6.31</v>
+        <v>-6.34</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6353,7 +6353,7 @@
         <v>-7.62</v>
       </c>
       <c r="C402">
-        <v>-3.8</v>
+        <v>-3.83</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6386,7 +6386,7 @@
         <v>-8.24</v>
       </c>
       <c r="C405">
-        <v>-7.22</v>
+        <v>-7.25</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6408,7 +6408,7 @@
         <v>-8.48</v>
       </c>
       <c r="C407">
-        <v>-7.64</v>
+        <v>-7.68</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6419,7 +6419,7 @@
         <v>2.78</v>
       </c>
       <c r="C408">
-        <v>5.39</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6430,7 +6430,7 @@
         <v>3</v>
       </c>
       <c r="C409">
-        <v>4.49</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -6441,7 +6441,7 @@
         <v>-4.26</v>
       </c>
       <c r="C410">
-        <v>-5.43</v>
+        <v>-5.46</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="C411">
-        <v>-7.64</v>
+        <v>-7.68</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -6463,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="C412">
-        <v>-5.91</v>
+        <v>-5.95</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -6474,7 +6474,7 @@
         <v>-1.21</v>
       </c>
       <c r="C413">
-        <v>-1.65</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -6485,7 +6485,7 @@
         <v>-7.15</v>
       </c>
       <c r="C414">
-        <v>-4.34</v>
+        <v>-4.66</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -6496,7 +6496,7 @@
         <v>6.38</v>
       </c>
       <c r="C415">
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -6507,7 +6507,7 @@
         <v>-3.04</v>
       </c>
       <c r="C416">
-        <v>-2.45</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -6518,7 +6518,7 @@
         <v>-1.2</v>
       </c>
       <c r="C417">
-        <v>3.13</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -6529,7 +6529,7 @@
         <v>-7.32</v>
       </c>
       <c r="C418">
-        <v>-4.27</v>
+        <v>-4.29</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -6540,7 +6540,7 @@
         <v>-2.57</v>
       </c>
       <c r="C419">
-        <v>-2.57</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -6562,7 +6562,7 @@
         <v>-5.55</v>
       </c>
       <c r="C421">
-        <v>-6.12</v>
+        <v>-6.14</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -6573,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="C422">
-        <v>-4.54</v>
+        <v>-4.58</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -6595,7 +6595,7 @@
         <v>0.41</v>
       </c>
       <c r="C424">
-        <v>3.11</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -6606,7 +6606,7 @@
         <v>-4.96</v>
       </c>
       <c r="C425">
-        <v>-4.84</v>
+        <v>-4.87</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -6617,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="C426">
-        <v>-6.37</v>
+        <v>-6.41</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -6628,7 +6628,7 @@
         <v>-1.28</v>
       </c>
       <c r="C427">
-        <v>-5.8</v>
+        <v>-5.83</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -6639,7 +6639,7 @@
         <v>-5.96</v>
       </c>
       <c r="C428">
-        <v>-7.48</v>
+        <v>-7.51</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -6650,7 +6650,7 @@
         <v>-5.59</v>
       </c>
       <c r="C429">
-        <v>-7.36</v>
+        <v>-7.4</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -6661,7 +6661,7 @@
         <v>-8.76</v>
       </c>
       <c r="C430">
-        <v>-6.45</v>
+        <v>-6.5</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="C431">
-        <v>-8.25</v>
+        <v>-8.279999999999999</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -6683,7 +6683,7 @@
         <v>-3.85</v>
       </c>
       <c r="C432">
-        <v>-5.8</v>
+        <v>-5.84</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -6694,7 +6694,7 @@
         <v>-2.47</v>
       </c>
       <c r="C433">
-        <v>7.74</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -6705,7 +6705,7 @@
         <v>-3.15</v>
       </c>
       <c r="C434">
-        <v>-4.16</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -6716,7 +6716,7 @@
         <v>-2.59</v>
       </c>
       <c r="C435">
-        <v>2.99</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -6727,7 +6727,7 @@
         <v>3.94</v>
       </c>
       <c r="C436">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -6738,7 +6738,7 @@
         <v>-0.1</v>
       </c>
       <c r="C437">
-        <v>-0.35</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -6749,7 +6749,7 @@
         <v>-2.52</v>
       </c>
       <c r="C438">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -6760,7 +6760,7 @@
         <v>-4.86</v>
       </c>
       <c r="C439">
-        <v>-3.48</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -6771,7 +6771,7 @@
         <v>-8.039999999999999</v>
       </c>
       <c r="C440">
-        <v>-5.95</v>
+        <v>-5.99</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -6793,7 +6793,7 @@
         <v>-2.08</v>
       </c>
       <c r="C442">
-        <v>-2.67</v>
+        <v>-2.69</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -6815,7 +6815,7 @@
         <v>-8.82</v>
       </c>
       <c r="C444">
-        <v>-3.52</v>
+        <v>-4.14</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -6826,7 +6826,7 @@
         <v>-2.41</v>
       </c>
       <c r="C445">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -6837,7 +6837,7 @@
         <v>-0.21</v>
       </c>
       <c r="C446">
-        <v>-1.49</v>
+        <v>-1.51</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -6859,7 +6859,7 @@
         <v>0.73</v>
       </c>
       <c r="C448">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -6870,7 +6870,7 @@
         <v>-2.45</v>
       </c>
       <c r="C449">
-        <v>-4.15</v>
+        <v>-4.18</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -6881,7 +6881,7 @@
         <v>-0.7</v>
       </c>
       <c r="C450">
-        <v>-4.51</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -6892,7 +6892,7 @@
         <v>14.13</v>
       </c>
       <c r="C451">
-        <v>10.54</v>
+        <v>10.47</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -6903,7 +6903,7 @@
         <v>-6.16</v>
       </c>
       <c r="C452">
-        <v>-6.88</v>
+        <v>-6.5</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -6914,7 +6914,7 @@
         <v>-8.94</v>
       </c>
       <c r="C453">
-        <v>-7.07</v>
+        <v>-7.1</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -6925,7 +6925,7 @@
         <v>-6.04</v>
       </c>
       <c r="C454">
-        <v>-4.99</v>
+        <v>-5.02</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -6936,7 +6936,7 @@
         <v>-4.21</v>
       </c>
       <c r="C455">
-        <v>-5.21</v>
+        <v>-5.23</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="C456">
-        <v>-6.05</v>
+        <v>-6.08</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -6958,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="C457">
-        <v>-9.27</v>
+        <v>-9.300000000000001</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -6969,7 +6969,7 @@
         <v>9.09</v>
       </c>
       <c r="C458">
-        <v>9.18</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -6980,7 +6980,7 @@
         <v>-3.93</v>
       </c>
       <c r="C459">
-        <v>-5.2</v>
+        <v>-4.18</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -6991,7 +6991,7 @@
         <v>-3.41</v>
       </c>
       <c r="C460">
-        <v>-6.23</v>
+        <v>-6.26</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7002,7 +7002,7 @@
         <v>-5.09</v>
       </c>
       <c r="C461">
-        <v>-3.49</v>
+        <v>-3.51</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -7013,7 +7013,7 @@
         <v>-0.61</v>
       </c>
       <c r="C462">
-        <v>-0.64</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7024,7 +7024,7 @@
         <v>-9.1</v>
       </c>
       <c r="C463">
-        <v>-3.84</v>
+        <v>-3.88</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="C464">
-        <v>-5.79</v>
+        <v>-5.81</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -7046,7 +7046,7 @@
         <v>-0.6</v>
       </c>
       <c r="C465">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7057,7 +7057,7 @@
         <v>-2.47</v>
       </c>
       <c r="C466">
-        <v>-0.53</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -7068,7 +7068,7 @@
         <v>0.61</v>
       </c>
       <c r="C467">
-        <v>-0.75</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7079,7 +7079,7 @@
         <v>-2.89</v>
       </c>
       <c r="C468">
-        <v>-4.76</v>
+        <v>-4.84</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7090,7 +7090,7 @@
         <v>-7.87</v>
       </c>
       <c r="C469">
-        <v>-6.12</v>
+        <v>-6.16</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7101,7 +7101,7 @@
         <v>0.93</v>
       </c>
       <c r="C470">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7112,7 +7112,7 @@
         <v>-5.28</v>
       </c>
       <c r="C471">
-        <v>-3.37</v>
+        <v>-3.41</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7123,7 +7123,7 @@
         <v>-6.23</v>
       </c>
       <c r="C472">
-        <v>-6.35</v>
+        <v>-6.37</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7134,7 +7134,7 @@
         <v>-5.39</v>
       </c>
       <c r="C473">
-        <v>-0.62</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7145,7 +7145,7 @@
         <v>2.93</v>
       </c>
       <c r="C474">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7156,7 +7156,7 @@
         <v>-4.14</v>
       </c>
       <c r="C475">
-        <v>-8.26</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -7167,7 +7167,7 @@
         <v>-2.3</v>
       </c>
       <c r="C476">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -7178,7 +7178,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C477">
-        <v>9.119999999999999</v>
+        <v>8.550000000000001</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -7189,7 +7189,7 @@
         <v>2.31</v>
       </c>
       <c r="C478">
-        <v>-1.04</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -7200,7 +7200,7 @@
         <v>-0.51</v>
       </c>
       <c r="C479">
-        <v>-5.94</v>
+        <v>-5.96</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -7211,7 +7211,7 @@
         <v>-2.04</v>
       </c>
       <c r="C480">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -7233,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="C482">
-        <v>-8.27</v>
+        <v>-8.31</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="C483">
-        <v>-8.26</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -7255,7 +7255,7 @@
         <v>-5.14</v>
       </c>
       <c r="C484">
-        <v>-7.45</v>
+        <v>-7.49</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -7266,7 +7266,7 @@
         <v>-3.82</v>
       </c>
       <c r="C485">
-        <v>-4.48</v>
+        <v>-4.51</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -7288,7 +7288,7 @@
         <v>-6.03</v>
       </c>
       <c r="C487">
-        <v>-4.58</v>
+        <v>-4.61</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -7299,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="C488">
-        <v>-9.02</v>
+        <v>-9.06</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -7321,7 +7321,7 @@
         <v>-8.85</v>
       </c>
       <c r="C490">
-        <v>0.72</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -7332,7 +7332,7 @@
         <v>2.86</v>
       </c>
       <c r="C491">
-        <v>5.9</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -7343,7 +7343,7 @@
         <v>-8.130000000000001</v>
       </c>
       <c r="C492">
-        <v>-4.34</v>
+        <v>-4.39</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -7354,7 +7354,7 @@
         <v>-6.36</v>
       </c>
       <c r="C493">
-        <v>-6.67</v>
+        <v>-6.71</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -7365,7 +7365,7 @@
         <v>8.48</v>
       </c>
       <c r="C494">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="C495">
-        <v>-8.09</v>
+        <v>-8.130000000000001</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -7387,7 +7387,7 @@
         <v>5.4</v>
       </c>
       <c r="C496">
-        <v>4.39</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -7398,7 +7398,7 @@
         <v>1.58</v>
       </c>
       <c r="C497">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="C498">
-        <v>-6.83</v>
+        <v>-6.88</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -7420,7 +7420,7 @@
         <v>-5.45</v>
       </c>
       <c r="C499">
-        <v>-7.22</v>
+        <v>-7.25</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -7431,7 +7431,7 @@
         <v>14.56</v>
       </c>
       <c r="C500">
-        <v>11.43</v>
+        <v>12.48</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -7453,7 +7453,7 @@
         <v>-7.45</v>
       </c>
       <c r="C502">
-        <v>-7.91</v>
+        <v>-7.94</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -7464,7 +7464,7 @@
         <v>-8.06</v>
       </c>
       <c r="C503">
-        <v>-5.49</v>
+        <v>-5.51</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -7475,7 +7475,7 @@
         <v>2.49</v>
       </c>
       <c r="C504">
-        <v>4.91</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -7486,7 +7486,7 @@
         <v>0.09</v>
       </c>
       <c r="C505">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -7497,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="C506">
-        <v>-7.65</v>
+        <v>-7.69</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -7508,7 +7508,7 @@
         <v>-3.24</v>
       </c>
       <c r="C507">
-        <v>-6.49</v>
+        <v>-6.52</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -7519,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="C508">
-        <v>-9.119999999999999</v>
+        <v>-9.140000000000001</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -7530,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="C509">
-        <v>-8.17</v>
+        <v>-8.199999999999999</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -7541,7 +7541,7 @@
         <v>-3.9</v>
       </c>
       <c r="C510">
-        <v>-1.77</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -7552,7 +7552,7 @@
         <v>-2.64</v>
       </c>
       <c r="C511">
-        <v>-2.3</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -7563,7 +7563,7 @@
         <v>-2.63</v>
       </c>
       <c r="C512">
-        <v>-2.18</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -7574,7 +7574,7 @@
         <v>-1.43</v>
       </c>
       <c r="C513">
-        <v>-0.43</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -7585,7 +7585,7 @@
         <v>3.5</v>
       </c>
       <c r="C514">
-        <v>5.43</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -7596,7 +7596,7 @@
         <v>-6.62</v>
       </c>
       <c r="C515">
-        <v>-6.79</v>
+        <v>-6.82</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -7607,7 +7607,7 @@
         <v>-4.46</v>
       </c>
       <c r="C516">
-        <v>-1.31</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -7618,7 +7618,7 @@
         <v>2.21</v>
       </c>
       <c r="C517">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
   </sheetData>

--- a/data/merged_scores.xlsx
+++ b/data/merged_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="472">
   <si>
     <t>Player_Name</t>
   </si>
@@ -28,21 +28,51 @@
     <t>AJ Green</t>
   </si>
   <si>
+    <t>AJ Johnson</t>
+  </si>
+  <si>
     <t>Aaron Gordon</t>
   </si>
   <si>
+    <t>Aaron Holiday</t>
+  </si>
+  <si>
     <t>Aaron Nesmith</t>
   </si>
   <si>
     <t>Aaron Wiggins</t>
   </si>
   <si>
+    <t>Adam Flagler</t>
+  </si>
+  <si>
+    <t>Adama Sanogo</t>
+  </si>
+  <si>
+    <t>Adem Bona</t>
+  </si>
+  <si>
+    <t>Ajay Mitchell</t>
+  </si>
+  <si>
     <t>Al Horford</t>
   </si>
   <si>
+    <t>Alec Burks</t>
+  </si>
+  <si>
     <t>Alex Caruso</t>
   </si>
   <si>
+    <t>Alex Ducas</t>
+  </si>
+  <si>
+    <t>Alex Len</t>
+  </si>
+  <si>
+    <t>Alex Reese</t>
+  </si>
+  <si>
     <t>Alexandre Sarr</t>
   </si>
   <si>
@@ -52,9 +82,15 @@
     <t>Amen Thompson</t>
   </si>
   <si>
+    <t>Amir Coffey</t>
+  </si>
+  <si>
     <t>Andre Drummond</t>
   </si>
   <si>
+    <t>Andre Jackson Jr.</t>
+  </si>
+  <si>
     <t>Andrew Nembhard</t>
   </si>
   <si>
@@ -73,6 +109,15 @@
     <t>Anthony Edwards</t>
   </si>
   <si>
+    <t>Anthony Gill</t>
+  </si>
+  <si>
+    <t>Antonio Reeves</t>
+  </si>
+  <si>
+    <t>Ariel Hukporti</t>
+  </si>
+  <si>
     <t>Ausar Thompson</t>
   </si>
   <si>
@@ -85,6 +130,12 @@
     <t>Bam Adebayo</t>
   </si>
   <si>
+    <t>Baylor Scheierman</t>
+  </si>
+  <si>
+    <t>Ben Sheppard</t>
+  </si>
+  <si>
     <t>Ben Simmons</t>
   </si>
   <si>
@@ -94,12 +145,18 @@
     <t>Bilal Coulibaly</t>
   </si>
   <si>
+    <t>Blake Wesley</t>
+  </si>
+  <si>
     <t>Bobby Portis</t>
   </si>
   <si>
     <t>Bogdan Bogdanovic</t>
   </si>
   <si>
+    <t>Bones Hyland</t>
+  </si>
+  <si>
     <t>Bradley Beal</t>
   </si>
   <si>
@@ -109,18 +166,33 @@
     <t>Brandon Boston Jr.</t>
   </si>
   <si>
+    <t>Brandon Clarke</t>
+  </si>
+  <si>
     <t>Brandon Ingram</t>
   </si>
   <si>
     <t>Brandon Miller</t>
   </si>
   <si>
+    <t>Brandon Williams</t>
+  </si>
+  <si>
+    <t>Brice Sensabaugh</t>
+  </si>
+  <si>
+    <t>Bronny James Jr.</t>
+  </si>
+  <si>
     <t>Brook Lopez</t>
   </si>
   <si>
     <t>Bruce Brown</t>
   </si>
   <si>
+    <t>Bruno Fernando</t>
+  </si>
+  <si>
     <t>Bub Carrington</t>
   </si>
   <si>
@@ -133,6 +205,9 @@
     <t>Cade Cunningham</t>
   </si>
   <si>
+    <t>Caleb Houstan</t>
+  </si>
+  <si>
     <t>Caleb Martin</t>
   </si>
   <si>
@@ -142,27 +217,42 @@
     <t>Cam Thomas</t>
   </si>
   <si>
+    <t>Cam Whitmore</t>
+  </si>
+  <si>
     <t>Cameron Johnson</t>
   </si>
   <si>
+    <t>Cameron Payne</t>
+  </si>
+  <si>
     <t>Caris LeVert</t>
   </si>
   <si>
     <t>Cason Wallace</t>
   </si>
   <si>
+    <t>Charles Bassey</t>
+  </si>
+  <si>
     <t>Chet Holmgren</t>
   </si>
   <si>
     <t>Chris Boucher</t>
   </si>
   <si>
+    <t>Chris Duarte</t>
+  </si>
+  <si>
     <t>Chris Paul</t>
   </si>
   <si>
     <t>Christian Braun</t>
   </si>
   <si>
+    <t>Christian Koloko</t>
+  </si>
+  <si>
     <t>Clint Capela</t>
   </si>
   <si>
@@ -172,27 +262,75 @@
     <t>Cody Martin</t>
   </si>
   <si>
+    <t>Cody Williams</t>
+  </si>
+  <si>
+    <t>Colby Jones</t>
+  </si>
+  <si>
+    <t>Cole Anthony</t>
+  </si>
+  <si>
+    <t>Colin Castleton</t>
+  </si>
+  <si>
+    <t>Collin Gillespie</t>
+  </si>
+  <si>
     <t>Collin Sexton</t>
   </si>
   <si>
     <t>Corey Kispert</t>
   </si>
   <si>
+    <t>Cory Joseph</t>
+  </si>
+  <si>
+    <t>Craig Porter Jr.</t>
+  </si>
+  <si>
     <t>D'Angelo Russell</t>
   </si>
   <si>
+    <t>D.J. Carton</t>
+  </si>
+  <si>
+    <t>Dalano Banton</t>
+  </si>
+  <si>
+    <t>Dalen Terry</t>
+  </si>
+  <si>
+    <t>Dalton Knecht</t>
+  </si>
+  <si>
     <t>Damian Lillard</t>
   </si>
   <si>
+    <t>Damion Lee</t>
+  </si>
+  <si>
     <t>Daniel Gafford</t>
   </si>
   <si>
     <t>Daniel Theis</t>
   </si>
   <si>
+    <t>Daniss Jenkins</t>
+  </si>
+  <si>
+    <t>Dario Saric</t>
+  </si>
+  <si>
+    <t>Dariq Whitehead</t>
+  </si>
+  <si>
     <t>Darius Garland</t>
   </si>
   <si>
+    <t>David Duke Jr.</t>
+  </si>
+  <si>
     <t>David Roddy</t>
   </si>
   <si>
@@ -208,15 +346,24 @@
     <t>De'Anthony Melton</t>
   </si>
   <si>
+    <t>DeAndre Jordan</t>
+  </si>
+  <si>
     <t>DeMar DeRozan</t>
   </si>
   <si>
+    <t>Dean Wade</t>
+  </si>
+  <si>
     <t>Deandre Ayton</t>
   </si>
   <si>
     <t>Dejounte Murray</t>
   </si>
   <si>
+    <t>Delon Wright</t>
+  </si>
+  <si>
     <t>Deni Avdija</t>
   </si>
   <si>
@@ -244,9 +391,15 @@
     <t>Dillon Brooks</t>
   </si>
   <si>
+    <t>Dillon Jones</t>
+  </si>
+  <si>
     <t>Domantas Sabonis</t>
   </si>
   <si>
+    <t>Dominick Barlow</t>
+  </si>
+  <si>
     <t>Donovan Clingan</t>
   </si>
   <si>
@@ -259,12 +412,36 @@
     <t>Dorian Finney-Smith</t>
   </si>
   <si>
+    <t>Doug McDermott</t>
+  </si>
+  <si>
     <t>Draymond Green</t>
   </si>
   <si>
+    <t>Drew Eubanks</t>
+  </si>
+  <si>
+    <t>Drew Peterson</t>
+  </si>
+  <si>
+    <t>Dru Smith</t>
+  </si>
+  <si>
+    <t>Duncan Robinson</t>
+  </si>
+  <si>
+    <t>Duop Reath</t>
+  </si>
+  <si>
+    <t>Dwight Powell</t>
+  </si>
+  <si>
     <t>Dyson Daniels</t>
   </si>
   <si>
+    <t>Enrique Freeman</t>
+  </si>
+  <si>
     <t>Eric Gordon</t>
   </si>
   <si>
@@ -277,12 +454,27 @@
     <t>Fred VanVleet</t>
   </si>
   <si>
+    <t>Gabe Vincent</t>
+  </si>
+  <si>
+    <t>Garrett Temple</t>
+  </si>
+  <si>
     <t>Garrison Mathews</t>
   </si>
   <si>
+    <t>Gary Harris</t>
+  </si>
+  <si>
+    <t>Gary Payton II</t>
+  </si>
+  <si>
     <t>Gary Trent Jr.</t>
   </si>
   <si>
+    <t>Georges Niang</t>
+  </si>
+  <si>
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
@@ -301,39 +493,87 @@
     <t>Guerschon Yabusele</t>
   </si>
   <si>
+    <t>Gui Santos</t>
+  </si>
+  <si>
+    <t>Harrison Barnes</t>
+  </si>
+  <si>
+    <t>Harrison Ingram</t>
+  </si>
+  <si>
     <t>Haywood Highsmith</t>
   </si>
   <si>
     <t>Herbert Jones</t>
   </si>
   <si>
+    <t>Hunter Tyson</t>
+  </si>
+  <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
+    <t>Isaac Jones</t>
+  </si>
+  <si>
+    <t>Isaac Okoro</t>
+  </si>
+  <si>
+    <t>Isaiah Collier</t>
+  </si>
+  <si>
     <t>Isaiah Hartenstein</t>
   </si>
   <si>
     <t>Isaiah Jackson</t>
   </si>
   <si>
+    <t>Isaiah Joe</t>
+  </si>
+  <si>
     <t>Isaiah Stewart</t>
   </si>
   <si>
     <t>Ivica Zubac</t>
   </si>
   <si>
+    <t>JD Davison</t>
+  </si>
+  <si>
     <t>Ja Morant</t>
   </si>
   <si>
+    <t>Ja'Kobe Walter</t>
+  </si>
+  <si>
     <t>Jabari Smith Jr.</t>
   </si>
   <si>
+    <t>Jabari Walker</t>
+  </si>
+  <si>
+    <t>Jack McVeigh</t>
+  </si>
+  <si>
+    <t>Jacob Toppin</t>
+  </si>
+  <si>
+    <t>Jaden Hardy</t>
+  </si>
+  <si>
     <t>Jaden Ivey</t>
   </si>
   <si>
     <t>Jaden McDaniels</t>
   </si>
   <si>
+    <t>Jaden Springer</t>
+  </si>
+  <si>
+    <t>Jae'Sean Tate</t>
+  </si>
+  <si>
     <t>Jaime Jaquez Jr.</t>
   </si>
   <si>
@@ -352,21 +592,60 @@
     <t>Jalen Green</t>
   </si>
   <si>
+    <t>Jalen Hood-Schifino</t>
+  </si>
+  <si>
     <t>Jalen Johnson</t>
   </si>
   <si>
+    <t>Jalen Pickett</t>
+  </si>
+  <si>
+    <t>Jalen Smith</t>
+  </si>
+  <si>
     <t>Jalen Suggs</t>
   </si>
   <si>
     <t>Jalen Williams</t>
   </si>
   <si>
+    <t>Jalen Wilson</t>
+  </si>
+  <si>
+    <t>Jamal Cain</t>
+  </si>
+  <si>
     <t>Jamal Murray</t>
   </si>
   <si>
+    <t>Jamal Shead</t>
+  </si>
+  <si>
     <t>James Harden</t>
   </si>
   <si>
+    <t>James Johnson</t>
+  </si>
+  <si>
+    <t>James Wiseman</t>
+  </si>
+  <si>
+    <t>Jamison Battle</t>
+  </si>
+  <si>
+    <t>Jarace Walker</t>
+  </si>
+  <si>
+    <t>Jared Butler</t>
+  </si>
+  <si>
+    <t>Jared McCain</t>
+  </si>
+  <si>
+    <t>Jared Rhoden</t>
+  </si>
+  <si>
     <t>Jaren Jackson Jr.</t>
   </si>
   <si>
@@ -388,18 +667,57 @@
     <t>Jaylen Brown</t>
   </si>
   <si>
+    <t>Jaylen Martin</t>
+  </si>
+  <si>
+    <t>Jaylen Nowell</t>
+  </si>
+  <si>
+    <t>Jaylen Wells</t>
+  </si>
+  <si>
+    <t>Jaylon Tyson</t>
+  </si>
+  <si>
     <t>Jayson Tatum</t>
   </si>
   <si>
+    <t>Jazian Gortman</t>
+  </si>
+  <si>
+    <t>Jeff Dowtin Jr.</t>
+  </si>
+  <si>
+    <t>Jeff Green</t>
+  </si>
+  <si>
     <t>Jerami Grant</t>
   </si>
   <si>
+    <t>Jeremiah Robinson-Earl</t>
+  </si>
+  <si>
     <t>Jeremy Sochan</t>
   </si>
   <si>
+    <t>Jericho Sims</t>
+  </si>
+  <si>
+    <t>Jett Howard</t>
+  </si>
+  <si>
+    <t>Jevon Carter</t>
+  </si>
+  <si>
     <t>Jimmy Butler</t>
   </si>
   <si>
+    <t>Jock Landale</t>
+  </si>
+  <si>
+    <t>Joe Ingles</t>
+  </si>
+  <si>
     <t>Joel Embiid</t>
   </si>
   <si>
@@ -409,6 +727,12 @@
     <t>John Konchar</t>
   </si>
   <si>
+    <t>Johnny Davis</t>
+  </si>
+  <si>
+    <t>Johnny Furphy</t>
+  </si>
+  <si>
     <t>Johnny Juzang</t>
   </si>
   <si>
@@ -421,24 +745,45 @@
     <t>Jonathan Kuminga</t>
   </si>
   <si>
+    <t>Jonathan Mogbo</t>
+  </si>
+  <si>
     <t>Jordan Clarkson</t>
   </si>
   <si>
     <t>Jordan Hawkins</t>
   </si>
   <si>
+    <t>Jordan McLaughlin</t>
+  </si>
+  <si>
+    <t>Jordan Miller</t>
+  </si>
+  <si>
     <t>Jordan Poole</t>
   </si>
   <si>
+    <t>Jordan Walsh</t>
+  </si>
+  <si>
     <t>Jose Alvarado</t>
   </si>
   <si>
     <t>Josh Giddey</t>
   </si>
   <si>
+    <t>Josh Green</t>
+  </si>
+  <si>
     <t>Josh Hart</t>
   </si>
   <si>
+    <t>Josh Minott</t>
+  </si>
+  <si>
+    <t>Josh Okogie</t>
+  </si>
+  <si>
     <t>Josh Richardson</t>
   </si>
   <si>
@@ -448,21 +793,45 @@
     <t>Julian Champagnie</t>
   </si>
   <si>
+    <t>Julian Phillips</t>
+  </si>
+  <si>
+    <t>Julian Strawther</t>
+  </si>
+  <si>
     <t>Julius Randle</t>
   </si>
   <si>
+    <t>Justin Champagnie</t>
+  </si>
+  <si>
     <t>Jusuf Nurkic</t>
   </si>
   <si>
+    <t>KJ Simpson</t>
+  </si>
+  <si>
+    <t>Kai Jones</t>
+  </si>
+  <si>
     <t>Karl-Anthony Towns</t>
   </si>
   <si>
+    <t>Karlo Matkovic</t>
+  </si>
+  <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
+    <t>Keaton Wallace</t>
+  </si>
+  <si>
     <t>Keegan Murray</t>
   </si>
   <si>
+    <t>Kel'el Ware</t>
+  </si>
+  <si>
     <t>Keldon Johnson</t>
   </si>
   <si>
@@ -475,9 +844,18 @@
     <t>Kentavious Caldwell-Pope</t>
   </si>
   <si>
+    <t>Kenyon Martin Jr.</t>
+  </si>
+  <si>
     <t>Keon Ellis</t>
   </si>
   <si>
+    <t>Keon Johnson</t>
+  </si>
+  <si>
+    <t>Kessler Edwards</t>
+  </si>
+  <si>
     <t>Kevin Durant</t>
   </si>
   <si>
@@ -502,12 +880,24 @@
     <t>Klay Thompson</t>
   </si>
   <si>
+    <t>Kobe Brown</t>
+  </si>
+  <si>
     <t>Kris Dunn</t>
   </si>
   <si>
+    <t>Kris Murray</t>
+  </si>
+  <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
+    <t>Kyle Anderson</t>
+  </si>
+  <si>
+    <t>Kyle Filipowski</t>
+  </si>
+  <si>
     <t>Kyle Kuzma</t>
   </si>
   <si>
@@ -532,6 +922,15 @@
     <t>LeBron James</t>
   </si>
   <si>
+    <t>Lester Quinones</t>
+  </si>
+  <si>
+    <t>Liam Robbins</t>
+  </si>
+  <si>
+    <t>Lindy Waters III</t>
+  </si>
+  <si>
     <t>Lonzo Ball</t>
   </si>
   <si>
@@ -541,27 +940,75 @@
     <t>Luka Doncic</t>
   </si>
   <si>
+    <t>Luka Garza</t>
+  </si>
+  <si>
     <t>Luke Kennard</t>
   </si>
   <si>
     <t>Luke Kornet</t>
   </si>
   <si>
+    <t>Luke Travers</t>
+  </si>
+  <si>
+    <t>Mac McClung</t>
+  </si>
+  <si>
+    <t>Malaki Branham</t>
+  </si>
+  <si>
     <t>Malcolm Brogdon</t>
   </si>
   <si>
+    <t>Malevy Leons</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
     <t>Malik Monk</t>
   </si>
   <si>
+    <t>MarJon Beauchamp</t>
+  </si>
+  <si>
+    <t>Marcus Sasser</t>
+  </si>
+  <si>
     <t>Marcus Smart</t>
   </si>
   <si>
     <t>Mark Williams</t>
   </si>
   <si>
+    <t>Markieff Morris</t>
+  </si>
+  <si>
+    <t>Marvin Bagley III</t>
+  </si>
+  <si>
+    <t>Mason Plumlee</t>
+  </si>
+  <si>
+    <t>Matas Buzelis</t>
+  </si>
+  <si>
+    <t>Matt Ryan</t>
+  </si>
+  <si>
+    <t>Max Christie</t>
+  </si>
+  <si>
     <t>Max Strus</t>
   </si>
   <si>
+    <t>Maxi Kleber</t>
+  </si>
+  <si>
+    <t>Maxwell Lewis</t>
+  </si>
+  <si>
     <t>Michael Porter Jr.</t>
   </si>
   <si>
@@ -580,15 +1027,30 @@
     <t>Mitchell Robinson</t>
   </si>
   <si>
+    <t>Monte Morris</t>
+  </si>
+  <si>
     <t>Moritz Wagner</t>
   </si>
   <si>
+    <t>Moses Moody</t>
+  </si>
+  <si>
+    <t>Mouhamed Gueye</t>
+  </si>
+  <si>
+    <t>Moussa Diabate</t>
+  </si>
+  <si>
     <t>Myles Turner</t>
   </si>
   <si>
     <t>Naji Marshall</t>
   </si>
   <si>
+    <t>Nate Williams</t>
+  </si>
+  <si>
     <t>Naz Reid</t>
   </si>
   <si>
@@ -598,9 +1060,15 @@
     <t>Nick Richards</t>
   </si>
   <si>
+    <t>Nick Smith Jr.</t>
+  </si>
+  <si>
     <t>Nickeil Alexander-Walker</t>
   </si>
   <si>
+    <t>Nicolas Batum</t>
+  </si>
+  <si>
     <t>Nicolas Claxton</t>
   </si>
   <si>
@@ -622,39 +1090,108 @@
     <t>OG Anunoby</t>
   </si>
   <si>
+    <t>Obi Toppin</t>
+  </si>
+  <si>
     <t>Ochai Agbaji</t>
   </si>
   <si>
+    <t>Olivier-Maxence Prosper</t>
+  </si>
+  <si>
     <t>Onyeka Okongwu</t>
   </si>
   <si>
+    <t>Oso Ighodaro</t>
+  </si>
+  <si>
+    <t>Ousmane Dieng</t>
+  </si>
+  <si>
     <t>P.J. Washington</t>
   </si>
   <si>
+    <t>PJ Dozier</t>
+  </si>
+  <si>
+    <t>Pacome Dadiet</t>
+  </si>
+  <si>
     <t>Paolo Banchero</t>
   </si>
   <si>
     <t>Pascal Siakam</t>
   </si>
   <si>
+    <t>Pat Connaughton</t>
+  </si>
+  <si>
+    <t>Pat Spencer</t>
+  </si>
+  <si>
+    <t>Patrick Baldwin Jr.</t>
+  </si>
+  <si>
     <t>Patrick Williams</t>
   </si>
   <si>
+    <t>Patty Mills</t>
+  </si>
+  <si>
     <t>Paul George</t>
   </si>
   <si>
+    <t>Paul Reed</t>
+  </si>
+  <si>
     <t>Payton Pritchard</t>
   </si>
   <si>
+    <t>Pelle Larsson</t>
+  </si>
+  <si>
+    <t>Peyton Watson</t>
+  </si>
+  <si>
+    <t>Quentin Grimes</t>
+  </si>
+  <si>
+    <t>Quenton Jackson</t>
+  </si>
+  <si>
     <t>RJ Barrett</t>
   </si>
   <si>
+    <t>Rayan Rupert</t>
+  </si>
+  <si>
+    <t>Reece Beekman</t>
+  </si>
+  <si>
     <t>Reed Sheppard</t>
   </si>
   <si>
+    <t>Reggie Jackson</t>
+  </si>
+  <si>
+    <t>Richaun Holmes</t>
+  </si>
+  <si>
+    <t>Ricky Council IV</t>
+  </si>
+  <si>
+    <t>Riley Minix</t>
+  </si>
+  <si>
+    <t>Rob Dillingham</t>
+  </si>
+  <si>
     <t>Robert Williams III</t>
   </si>
   <si>
+    <t>Ron Holland II</t>
+  </si>
+  <si>
     <t>Royce O'Neale</t>
   </si>
   <si>
@@ -667,6 +1204,21 @@
     <t>Russell Westbrook</t>
   </si>
   <si>
+    <t>Ryan Dunn</t>
+  </si>
+  <si>
+    <t>Ryan Rollins</t>
+  </si>
+  <si>
+    <t>Sam Hauser</t>
+  </si>
+  <si>
+    <t>Sam Merrill</t>
+  </si>
+  <si>
+    <t>Sandro Mamukelashvili</t>
+  </si>
+  <si>
     <t>Santi Aldama</t>
   </si>
   <si>
@@ -679,18 +1231,54 @@
     <t>Scotty Pippen Jr.</t>
   </si>
   <si>
+    <t>Seth Curry</t>
+  </si>
+  <si>
     <t>Shaedon Sharpe</t>
   </si>
   <si>
     <t>Shai Gilgeous-Alexander</t>
   </si>
   <si>
+    <t>Shake Milton</t>
+  </si>
+  <si>
+    <t>Sidy Cissoko</t>
+  </si>
+  <si>
+    <t>Simone Fontecchio</t>
+  </si>
+  <si>
+    <t>Spencer Dinwiddie</t>
+  </si>
+  <si>
+    <t>Spencer Jones</t>
+  </si>
+  <si>
+    <t>Stanley Umude</t>
+  </si>
+  <si>
     <t>Stephen Curry</t>
   </si>
   <si>
+    <t>Stephon Castle</t>
+  </si>
+  <si>
+    <t>Steven Adams</t>
+  </si>
+  <si>
+    <t>Svi Mykhailiuk</t>
+  </si>
+  <si>
     <t>T.J. McConnell</t>
   </si>
   <si>
+    <t>Taj Gibson</t>
+  </si>
+  <si>
+    <t>Talen Horton-Tucker</t>
+  </si>
+  <si>
     <t>Tari Eason</t>
   </si>
   <si>
@@ -700,15 +1288,30 @@
     <t>Taylor Hendricks</t>
   </si>
   <si>
+    <t>Terance Mann</t>
+  </si>
+  <si>
+    <t>Terrence Shannon Jr.</t>
+  </si>
+  <si>
     <t>Terry Rozier</t>
   </si>
   <si>
+    <t>Thomas Bryant</t>
+  </si>
+  <si>
+    <t>Tidjane Salaun</t>
+  </si>
+  <si>
     <t>Tim Hardaway Jr.</t>
   </si>
   <si>
     <t>Tobias Harris</t>
   </si>
   <si>
+    <t>Torrey Craig</t>
+  </si>
+  <si>
     <t>Toumani Camara</t>
   </si>
   <si>
@@ -724,40 +1327,106 @@
     <t>Tre Mann</t>
   </si>
   <si>
+    <t>Trevelin Queen</t>
+  </si>
+  <si>
+    <t>Trey Alexander</t>
+  </si>
+  <si>
+    <t>Trey Jemison</t>
+  </si>
+  <si>
+    <t>Trey Lyles</t>
+  </si>
+  <si>
     <t>Trey Murphy III</t>
   </si>
   <si>
+    <t>Tristan Da Silva</t>
+  </si>
+  <si>
+    <t>Tristan Thompson</t>
+  </si>
+  <si>
     <t>Ty Jerome</t>
   </si>
   <si>
     <t>Tyler Herro</t>
   </si>
   <si>
+    <t>Tyler Kolek</t>
+  </si>
+  <si>
+    <t>Tyler Smith</t>
+  </si>
+  <si>
     <t>Tyrese Haliburton</t>
   </si>
   <si>
+    <t>Tyrese Martin</t>
+  </si>
+  <si>
     <t>Tyrese Maxey</t>
   </si>
   <si>
     <t>Tyus Jones</t>
   </si>
   <si>
+    <t>Ulrich Chomche</t>
+  </si>
+  <si>
+    <t>Vasilije Micic</t>
+  </si>
+  <si>
     <t>Victor Wembanyama</t>
   </si>
   <si>
     <t>Vince Williams Jr.</t>
   </si>
   <si>
+    <t>Vlatko Cancar</t>
+  </si>
+  <si>
+    <t>Vít Krejcí</t>
+  </si>
+  <si>
     <t>Walker Kessler</t>
   </si>
   <si>
     <t>Wendell Carter Jr.</t>
   </si>
   <si>
+    <t>Wendell Moore Jr.</t>
+  </si>
+  <si>
+    <t>Xavier Tillman Sr.</t>
+  </si>
+  <si>
+    <t>Yongxi Cui</t>
+  </si>
+  <si>
+    <t>Yuki Kawamura</t>
+  </si>
+  <si>
+    <t>Yves Missi</t>
+  </si>
+  <si>
+    <t>Zaccharie Risacher</t>
+  </si>
+  <si>
+    <t>Zach Collins</t>
+  </si>
+  <si>
     <t>Zach Edey</t>
   </si>
   <si>
     <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Zeke Nnaji</t>
+  </si>
+  <si>
+    <t>Ziaire Williams</t>
   </si>
   <si>
     <t>Zion Williamson</t>
@@ -1118,7 +1787,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C247"/>
+  <dimension ref="A1:C470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1143,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.56</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1151,10 +1820,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3.11</v>
+        <v>-7.92</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1162,10 +1831,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-1.68</v>
+        <v>1.18</v>
       </c>
       <c r="C4">
-        <v>-1.09</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1176,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.19</v>
+        <v>-5.54</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1184,10 +1853,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1.21</v>
+        <v>-1.68</v>
       </c>
       <c r="C6">
-        <v>2.1</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1195,10 +1864,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1206,10 +1875,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2.16</v>
+        <v>-6.14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1217,10 +1886,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>4.06</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>3.31</v>
+        <v>-7.12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1228,10 +1897,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>-1.08</v>
+        <v>-6.43</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1239,10 +1908,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.45</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>-2.67</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1250,10 +1919,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>-1.28</v>
+        <v>1.21</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1261,10 +1930,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>-1.19</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.6899999999999999</v>
+        <v>-1.76</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1272,10 +1941,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>2.71</v>
+        <v>0.96</v>
       </c>
       <c r="C14">
-        <v>0.06</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1286,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>-1.39</v>
+        <v>-8.44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1294,10 +1963,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>14.04</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>11.74</v>
+        <v>-4.24</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1305,10 +1974,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>6.91</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>5.53</v>
+        <v>-6.49</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1316,10 +1985,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>-0.02</v>
+        <v>0.12</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1327,10 +1996,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>4.27</v>
+        <v>4.06</v>
       </c>
       <c r="C19">
-        <v>4.66</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1338,10 +2007,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="C20">
-        <v>-0.84</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1349,10 +2018,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>4.87</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>2.32</v>
+        <v>-2.62</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1360,10 +2029,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.37</v>
+        <v>-0.45</v>
       </c>
       <c r="C22">
-        <v>0.95</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1371,10 +2040,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>-1.36</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>2.35</v>
+        <v>-4.21</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1382,10 +2051,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>2.88</v>
+        <v>-1.28</v>
       </c>
       <c r="C24">
-        <v>4.68</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1393,10 +2062,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>0.24</v>
+        <v>-1.19</v>
       </c>
       <c r="C25">
-        <v>-0.41</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1404,10 +2073,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>0.77</v>
+        <v>2.71</v>
       </c>
       <c r="C26">
-        <v>0.64</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1415,10 +2084,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>4.07</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1426,10 +2095,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>0.57</v>
+        <v>14.04</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>12.44</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1437,10 +2106,10 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>6.91</v>
       </c>
       <c r="C29">
-        <v>1.35</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1448,10 +2117,10 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>2.79</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>5.13</v>
+        <v>-6.61</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1459,10 +2128,10 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>4.03</v>
+        <v>-7.72</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1470,10 +2139,10 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>1.67</v>
+        <v>-5.87</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1481,7 +2150,7 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.37</v>
+        <v>-0.02</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1492,10 +2161,10 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>4.27</v>
       </c>
       <c r="C34">
-        <v>0.91</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1503,10 +2172,10 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>4.29</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1514,10 +2183,10 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>1.96</v>
+        <v>4.87</v>
       </c>
       <c r="C36">
-        <v>5.88</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1525,10 +2194,10 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>6.38</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>5.4</v>
+        <v>-7.67</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1536,10 +2205,10 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>-1.01</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>-3.65</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1547,10 +2216,10 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>-0.37</v>
       </c>
       <c r="C39">
-        <v>-1.38</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1558,10 +2227,10 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>1.93</v>
+        <v>-1.36</v>
       </c>
       <c r="C40">
-        <v>3.23</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1569,10 +2238,10 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>0.77</v>
+        <v>2.88</v>
       </c>
       <c r="C41">
-        <v>3.07</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1580,10 +2249,10 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>-1.32</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>2.74</v>
+        <v>-5.43</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1591,10 +2260,10 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="C43">
-        <v>-0.85</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1602,10 +2271,10 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>6.11</v>
+        <v>0.77</v>
       </c>
       <c r="C44">
-        <v>6.64</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1616,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>-0.99</v>
+        <v>-5.16</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1624,10 +2293,10 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="C46">
-        <v>3.02</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1635,10 +2304,10 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.89</v>
+        <v>0.57</v>
       </c>
       <c r="C47">
-        <v>3.61</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1646,10 +2315,10 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>-0.17</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1657,10 +2326,10 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>3.61</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1668,10 +2337,10 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="C50">
-        <v>0.16</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1679,10 +2348,10 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>1.49</v>
+        <v>1.79</v>
       </c>
       <c r="C51">
-        <v>0.82</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1690,10 +2359,10 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>-0.57</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-8.06</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1701,10 +2370,10 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>2.67</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>0.13</v>
+        <v>-4.11</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1712,10 +2381,10 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>9.140000000000001</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>7.94</v>
+        <v>-7.42</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1723,10 +2392,10 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>2.09</v>
+        <v>1.56</v>
       </c>
       <c r="C55">
-        <v>1.91</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1734,7 +2403,7 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>-1.7</v>
+        <v>-0.37</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1745,10 +2414,10 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>3.73</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>7.12</v>
+        <v>-4.22</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1759,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>-1.14</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1767,10 +2436,10 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="C59">
-        <v>-0.72</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1778,10 +2447,10 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>5.15</v>
+        <v>1.96</v>
       </c>
       <c r="C60">
-        <v>5.39</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1789,10 +2458,10 @@
         <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.27</v>
+        <v>6.38</v>
       </c>
       <c r="C61">
-        <v>4.9</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1800,10 +2469,10 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>-1.28</v>
+        <v>-7.57</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1811,10 +2480,10 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>5.01</v>
+        <v>-1.01</v>
       </c>
       <c r="C63">
-        <v>6.67</v>
+        <v>-2.79</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1822,10 +2491,10 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>2.69</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>1.45</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1833,10 +2502,10 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>3.83</v>
+        <v>1.93</v>
       </c>
       <c r="C65">
-        <v>0.77</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1844,10 +2513,10 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.62</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>-1.31</v>
+        <v>-7.17</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1855,10 +2524,10 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>1.6</v>
+        <v>0.77</v>
       </c>
       <c r="C67">
-        <v>5.73</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1866,10 +2535,10 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>0.75</v>
+        <v>-4.01</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1877,10 +2546,10 @@
         <v>70</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>-1.32</v>
       </c>
       <c r="C69">
-        <v>-0.55</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1888,10 +2557,10 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>4.92</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>7</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1899,10 +2568,10 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>4.96</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>4.64</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1910,10 +2579,10 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>7.99</v>
+        <v>6.11</v>
       </c>
       <c r="C72">
-        <v>5.9</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1921,10 +2590,10 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>2.66</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1935,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>-1.61</v>
+        <v>-6.61</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1943,10 +2612,10 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>7.86</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>8.6</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1954,10 +2623,10 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>-1.05</v>
+        <v>-0.89</v>
       </c>
       <c r="C76">
-        <v>-1.25</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1965,10 +2634,10 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>7.91</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>4.3</v>
+        <v>-5.89</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1976,10 +2645,10 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>1.03</v>
+        <v>0.84</v>
       </c>
       <c r="C78">
-        <v>0.99</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1987,10 +2656,10 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="C79">
-        <v>-0.09</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1998,10 +2667,10 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>1.28</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2009,10 +2678,10 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>3.5</v>
+        <v>-5.41</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2020,10 +2689,10 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>-1.89</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2031,10 +2700,10 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>5.01</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>6.5</v>
+        <v>-4.15</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2042,10 +2711,10 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>4.19</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>3.67</v>
+        <v>-6.58</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2053,10 +2722,10 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>1.73</v>
+        <v>-6.43</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2064,10 +2733,10 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="C86">
-        <v>0.02</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2075,10 +2744,10 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>-1.29</v>
+        <v>-0.57</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>-3.72</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2086,10 +2755,10 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>12.64</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>2.37</v>
+        <v>-6.15</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2100,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>0.02</v>
+        <v>-5.59</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2108,10 +2777,10 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="C90">
-        <v>2.79</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2122,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>1.07</v>
+        <v>-6.74</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2130,10 +2799,10 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2144,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>-0.2</v>
+        <v>-4.23</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2155,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>-0.5600000000000001</v>
+        <v>-4.47</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2163,10 +2832,10 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>1.96</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2174,10 +2843,10 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>-0.98</v>
+        <v>-6.14</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2185,10 +2854,10 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>2.66</v>
+        <v>2.09</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2196,10 +2865,10 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>-1.85</v>
+        <v>-1.7</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2210,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>0.92</v>
+        <v>-8.609999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2218,10 +2887,10 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>3.07</v>
+        <v>-8.15</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2229,10 +2898,10 @@
         <v>102</v>
       </c>
       <c r="B101">
-        <v>4.46</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>3.54</v>
+        <v>-7.55</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2240,10 +2909,10 @@
         <v>103</v>
       </c>
       <c r="B102">
-        <v>2.3</v>
+        <v>3.73</v>
       </c>
       <c r="C102">
-        <v>-1.45</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2251,10 +2920,10 @@
         <v>104</v>
       </c>
       <c r="B103">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>0.33</v>
+        <v>-9.67</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2262,10 +2931,10 @@
         <v>105</v>
       </c>
       <c r="B104">
-        <v>-1.78</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>-1.23</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2273,10 +2942,10 @@
         <v>106</v>
       </c>
       <c r="B105">
-        <v>-0.93</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2284,10 +2953,10 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="C106">
-        <v>-1.08</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2295,10 +2964,10 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>2.76</v>
+        <v>-0.27</v>
       </c>
       <c r="C107">
-        <v>4.03</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2306,10 +2975,10 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>5.89</v>
+        <v>0.53</v>
       </c>
       <c r="C108">
-        <v>3.06</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2317,10 +2986,10 @@
         <v>110</v>
       </c>
       <c r="B109">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>0.97</v>
+        <v>-5.25</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2328,10 +2997,10 @@
         <v>111</v>
       </c>
       <c r="B110">
-        <v>1.85</v>
+        <v>5.01</v>
       </c>
       <c r="C110">
-        <v>2.11</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2339,10 +3008,10 @@
         <v>112</v>
       </c>
       <c r="B111">
-        <v>5.28</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>4.14</v>
+        <v>-2.18</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2350,10 +3019,10 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>5.49</v>
+        <v>2.69</v>
       </c>
       <c r="C112">
-        <v>5</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2361,10 +3030,10 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>5.39</v>
+        <v>3.83</v>
       </c>
       <c r="C113">
-        <v>5.65</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2372,10 +3041,10 @@
         <v>115</v>
       </c>
       <c r="B114">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>1.03</v>
+        <v>-5.45</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2383,10 +3052,10 @@
         <v>116</v>
       </c>
       <c r="B115">
-        <v>11.03</v>
+        <v>-0.62</v>
       </c>
       <c r="C115">
-        <v>8.19</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2394,10 +3063,10 @@
         <v>117</v>
       </c>
       <c r="B116">
-        <v>4.99</v>
+        <v>1.6</v>
       </c>
       <c r="C116">
-        <v>5.18</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2405,10 +3074,10 @@
         <v>118</v>
       </c>
       <c r="B117">
-        <v>-1.2</v>
+        <v>2.45</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2416,10 +3085,10 @@
         <v>119</v>
       </c>
       <c r="B118">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>4.69</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2427,10 +3096,10 @@
         <v>120</v>
       </c>
       <c r="B119">
-        <v>-0.51</v>
+        <v>4.92</v>
       </c>
       <c r="C119">
-        <v>-1.3</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2438,10 +3107,10 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>4.96</v>
       </c>
       <c r="C120">
-        <v>-1.5</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2449,10 +3118,10 @@
         <v>122</v>
       </c>
       <c r="B121">
-        <v>-0.9</v>
+        <v>7.99</v>
       </c>
       <c r="C121">
-        <v>3.06</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2460,10 +3129,10 @@
         <v>123</v>
       </c>
       <c r="B122">
-        <v>3.69</v>
+        <v>2.49</v>
       </c>
       <c r="C122">
-        <v>2.81</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2471,10 +3140,10 @@
         <v>124</v>
       </c>
       <c r="B123">
-        <v>9.119999999999999</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>9.42</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2482,10 +3151,10 @@
         <v>125</v>
       </c>
       <c r="B124">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>1.49</v>
+        <v>-7.28</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2493,10 +3162,10 @@
         <v>126</v>
       </c>
       <c r="B125">
-        <v>0.51</v>
+        <v>7.86</v>
       </c>
       <c r="C125">
-        <v>0.58</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2504,10 +3173,10 @@
         <v>127</v>
       </c>
       <c r="B126">
-        <v>5.67</v>
+        <v>0</v>
       </c>
       <c r="C126">
-        <v>0.72</v>
+        <v>-9.130000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2515,10 +3184,10 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>12.46</v>
+        <v>-1.05</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2526,10 +3195,10 @@
         <v>129</v>
       </c>
       <c r="B128">
-        <v>1.06</v>
+        <v>7.91</v>
       </c>
       <c r="C128">
-        <v>4.31</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2537,10 +3206,10 @@
         <v>130</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="C129">
-        <v>-1.56</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2551,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="C130">
-        <v>-1.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2559,10 +3228,10 @@
         <v>132</v>
       </c>
       <c r="B131">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="C131">
-        <v>2.01</v>
+        <v>-7.53</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2570,10 +3239,10 @@
         <v>133</v>
       </c>
       <c r="B132">
-        <v>-1.13</v>
+        <v>2.43</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2581,10 +3250,10 @@
         <v>134</v>
       </c>
       <c r="B133">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>-2.79</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2592,10 +3261,10 @@
         <v>135</v>
       </c>
       <c r="B134">
-        <v>-0.68</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>-5.05</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2606,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="C135">
-        <v>0.15</v>
+        <v>-5.09</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2614,10 +3283,10 @@
         <v>137</v>
       </c>
       <c r="B136">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>7.05</v>
+        <v>-3.18</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2625,10 +3294,10 @@
         <v>138</v>
       </c>
       <c r="B137">
-        <v>-1.04</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>1.84</v>
+        <v>-7.31</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2636,10 +3305,10 @@
         <v>139</v>
       </c>
       <c r="B138">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="C138">
-        <v>-0.45</v>
+        <v>-4.94</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2647,10 +3316,10 @@
         <v>140</v>
       </c>
       <c r="B139">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="C139">
-        <v>4.68</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2658,10 +3327,10 @@
         <v>141</v>
       </c>
       <c r="B140">
-        <v>-1.48</v>
+        <v>0</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>-5.93</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2669,10 +3338,10 @@
         <v>142</v>
       </c>
       <c r="B141">
-        <v>2.63</v>
+        <v>-1.89</v>
       </c>
       <c r="C141">
-        <v>0.13</v>
+        <v>-5.16</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2680,10 +3349,10 @@
         <v>143</v>
       </c>
       <c r="B142">
-        <v>0.03</v>
+        <v>5.01</v>
       </c>
       <c r="C142">
-        <v>0.23</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2691,10 +3360,10 @@
         <v>144</v>
       </c>
       <c r="B143">
-        <v>1.5</v>
+        <v>4.19</v>
       </c>
       <c r="C143">
-        <v>3.92</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2702,10 +3371,10 @@
         <v>145</v>
       </c>
       <c r="B144">
-        <v>1.71</v>
+        <v>5.25</v>
       </c>
       <c r="C144">
-        <v>-0.43</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2713,10 +3382,10 @@
         <v>146</v>
       </c>
       <c r="B145">
-        <v>8.19</v>
+        <v>0</v>
       </c>
       <c r="C145">
-        <v>9.31</v>
+        <v>-6.43</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2724,10 +3393,10 @@
         <v>147</v>
       </c>
       <c r="B146">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2735,10 +3404,10 @@
         <v>148</v>
       </c>
       <c r="B147">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="C147">
-        <v>1.88</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2749,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="C148">
-        <v>-0.29</v>
+        <v>-4.77</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2757,10 +3426,10 @@
         <v>150</v>
       </c>
       <c r="B149">
-        <v>-0.11</v>
+        <v>0</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>-2.66</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2768,10 +3437,10 @@
         <v>151</v>
       </c>
       <c r="B150">
-        <v>-0.16</v>
+        <v>-1.29</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>-4.39</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2779,10 +3448,10 @@
         <v>152</v>
       </c>
       <c r="B151">
-        <v>-0.7</v>
+        <v>0</v>
       </c>
       <c r="C151">
-        <v>-0.43</v>
+        <v>-2.77</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2790,10 +3459,10 @@
         <v>153</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>12.64</v>
       </c>
       <c r="C152">
-        <v>-0.24</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2801,10 +3470,10 @@
         <v>154</v>
       </c>
       <c r="B153">
-        <v>9.380000000000001</v>
+        <v>0</v>
       </c>
       <c r="C153">
-        <v>9.460000000000001</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2812,10 +3481,10 @@
         <v>155</v>
       </c>
       <c r="B154">
-        <v>-1.07</v>
+        <v>0</v>
       </c>
       <c r="C154">
-        <v>1.43</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2826,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="C155">
-        <v>-0.36</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2834,10 +3503,10 @@
         <v>157</v>
       </c>
       <c r="B156">
-        <v>-1.83</v>
+        <v>0.2</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>-1.74</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2848,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="C157">
-        <v>-1.54</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2856,10 +3525,10 @@
         <v>159</v>
       </c>
       <c r="B158">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>-7.18</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2867,10 +3536,10 @@
         <v>160</v>
       </c>
       <c r="B159">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2878,10 +3547,10 @@
         <v>161</v>
       </c>
       <c r="B160">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="C160">
-        <v>0.01</v>
+        <v>-8.24</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2889,10 +3558,10 @@
         <v>162</v>
       </c>
       <c r="B161">
-        <v>-1.46</v>
+        <v>0</v>
       </c>
       <c r="C161">
-        <v>-1.59</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2900,10 +3569,10 @@
         <v>163</v>
       </c>
       <c r="B162">
-        <v>4.55</v>
+        <v>1.96</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2911,10 +3580,10 @@
         <v>164</v>
       </c>
       <c r="B163">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>-4.59</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2922,10 +3591,10 @@
         <v>165</v>
       </c>
       <c r="B164">
-        <v>-0.61</v>
+        <v>4.25</v>
       </c>
       <c r="C164">
-        <v>0.61</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2933,10 +3602,10 @@
         <v>166</v>
       </c>
       <c r="B165">
-        <v>8.42</v>
+        <v>0</v>
       </c>
       <c r="C165">
-        <v>8.960000000000001</v>
+        <v>-8.380000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2947,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="C166">
-        <v>0.85</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2955,10 +3624,10 @@
         <v>168</v>
       </c>
       <c r="B167">
-        <v>8.640000000000001</v>
+        <v>0</v>
       </c>
       <c r="C167">
-        <v>8.050000000000001</v>
+        <v>-6.34</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2966,10 +3635,10 @@
         <v>169</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="C168">
-        <v>-0.8100000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2977,10 +3646,10 @@
         <v>170</v>
       </c>
       <c r="B169">
-        <v>6.15</v>
+        <v>-1.85</v>
       </c>
       <c r="C169">
-        <v>0.98</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2988,10 +3657,10 @@
         <v>171</v>
       </c>
       <c r="B170">
-        <v>6.58</v>
+        <v>0</v>
       </c>
       <c r="C170">
-        <v>8.18</v>
+        <v>-1.78</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2999,10 +3668,10 @@
         <v>172</v>
       </c>
       <c r="B171">
-        <v>-0.99</v>
+        <v>0</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3010,10 +3679,10 @@
         <v>173</v>
       </c>
       <c r="B172">
-        <v>-0.21</v>
+        <v>2.84</v>
       </c>
       <c r="C172">
-        <v>2.36</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3021,10 +3690,10 @@
         <v>174</v>
       </c>
       <c r="B173">
-        <v>14.27</v>
+        <v>0</v>
       </c>
       <c r="C173">
-        <v>6.78</v>
+        <v>-8.02</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3032,10 +3701,10 @@
         <v>175</v>
       </c>
       <c r="B174">
-        <v>-1.13</v>
+        <v>4.46</v>
       </c>
       <c r="C174">
-        <v>-1.25</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3046,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="C175">
-        <v>-1.45</v>
+        <v>-7.69</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3054,10 +3723,10 @@
         <v>177</v>
       </c>
       <c r="B176">
-        <v>-1.37</v>
+        <v>2.3</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3065,10 +3734,10 @@
         <v>178</v>
       </c>
       <c r="B177">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C177">
-        <v>-0.13</v>
+        <v>-5.55</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3076,10 +3745,10 @@
         <v>179</v>
       </c>
       <c r="B178">
-        <v>-1.11</v>
+        <v>0</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>-7.85</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3087,10 +3756,10 @@
         <v>180</v>
       </c>
       <c r="B179">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>-7.54</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3098,10 +3767,10 @@
         <v>181</v>
       </c>
       <c r="B180">
-        <v>-0.84</v>
+        <v>0</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>-5.99</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3109,10 +3778,10 @@
         <v>182</v>
       </c>
       <c r="B181">
-        <v>1.74</v>
+        <v>0.51</v>
       </c>
       <c r="C181">
-        <v>4.3</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3120,10 +3789,10 @@
         <v>183</v>
       </c>
       <c r="B182">
-        <v>3.26</v>
+        <v>-1.78</v>
       </c>
       <c r="C182">
-        <v>1.72</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3131,10 +3800,10 @@
         <v>184</v>
       </c>
       <c r="B183">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="C183">
-        <v>-0.43</v>
+        <v>-7.29</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3142,10 +3811,10 @@
         <v>185</v>
       </c>
       <c r="B184">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>-6.67</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3153,10 +3822,10 @@
         <v>186</v>
       </c>
       <c r="B185">
-        <v>-1.02</v>
+        <v>-0.93</v>
       </c>
       <c r="C185">
-        <v>-0.1</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3164,10 +3833,10 @@
         <v>187</v>
       </c>
       <c r="B186">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3175,10 +3844,10 @@
         <v>188</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="C187">
-        <v>-1.63</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3186,10 +3855,10 @@
         <v>189</v>
       </c>
       <c r="B188">
-        <v>4.03</v>
+        <v>5.89</v>
       </c>
       <c r="C188">
-        <v>3.3</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3197,10 +3866,10 @@
         <v>190</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="C189">
-        <v>-0.67</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3208,10 +3877,10 @@
         <v>191</v>
       </c>
       <c r="B190">
-        <v>1.19</v>
+        <v>1.85</v>
       </c>
       <c r="C190">
-        <v>2.53</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3219,10 +3888,10 @@
         <v>192</v>
       </c>
       <c r="B191">
-        <v>-0.39</v>
+        <v>0</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>-7.92</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3230,10 +3899,10 @@
         <v>193</v>
       </c>
       <c r="B192">
-        <v>-0.4</v>
+        <v>5.28</v>
       </c>
       <c r="C192">
-        <v>2.31</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3241,10 +3910,10 @@
         <v>194</v>
       </c>
       <c r="B193">
-        <v>-1.73</v>
+        <v>0</v>
       </c>
       <c r="C193">
-        <v>-0.97</v>
+        <v>-8.27</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3252,10 +3921,10 @@
         <v>195</v>
       </c>
       <c r="B194">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="C194">
-        <v>-0.52</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3263,10 +3932,10 @@
         <v>196</v>
       </c>
       <c r="B195">
-        <v>15.03</v>
+        <v>5.49</v>
       </c>
       <c r="C195">
-        <v>17.51</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3274,10 +3943,10 @@
         <v>197</v>
       </c>
       <c r="B196">
-        <v>-1.43</v>
+        <v>5.39</v>
       </c>
       <c r="C196">
-        <v>0</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3285,10 +3954,10 @@
         <v>198</v>
       </c>
       <c r="B197">
-        <v>5.46</v>
+        <v>0</v>
       </c>
       <c r="C197">
-        <v>7.95</v>
+        <v>-3.15</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3296,10 +3965,10 @@
         <v>199</v>
       </c>
       <c r="B198">
-        <v>-0.49</v>
+        <v>0</v>
       </c>
       <c r="C198">
-        <v>0</v>
+        <v>-5.77</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3307,10 +3976,10 @@
         <v>200</v>
       </c>
       <c r="B199">
-        <v>2.15</v>
+        <v>2.85</v>
       </c>
       <c r="C199">
-        <v>6.26</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3318,10 +3987,10 @@
         <v>201</v>
       </c>
       <c r="B200">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="C200">
-        <v>3.96</v>
+        <v>-3.68</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3329,10 +3998,10 @@
         <v>202</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>11.03</v>
       </c>
       <c r="C201">
-        <v>3.13</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3340,10 +4009,10 @@
         <v>203</v>
       </c>
       <c r="B202">
-        <v>3.17</v>
+        <v>0</v>
       </c>
       <c r="C202">
-        <v>0.79</v>
+        <v>-6.45</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3351,10 +4020,10 @@
         <v>204</v>
       </c>
       <c r="B203">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C203">
-        <v>1.1</v>
+        <v>-5.08</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3362,10 +4031,10 @@
         <v>205</v>
       </c>
       <c r="B204">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="C204">
-        <v>1.81</v>
+        <v>-4.77</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3373,10 +4042,10 @@
         <v>206</v>
       </c>
       <c r="B205">
-        <v>3.01</v>
+        <v>0</v>
       </c>
       <c r="C205">
-        <v>4</v>
+        <v>-2.39</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3384,10 +4053,10 @@
         <v>207</v>
       </c>
       <c r="B206">
-        <v>-1.19</v>
+        <v>0</v>
       </c>
       <c r="C206">
-        <v>-0.96</v>
+        <v>-4.19</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3395,10 +4064,10 @@
         <v>208</v>
       </c>
       <c r="B207">
-        <v>6.39</v>
+        <v>0</v>
       </c>
       <c r="C207">
-        <v>1.85</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3406,10 +4075,10 @@
         <v>209</v>
       </c>
       <c r="B208">
-        <v>-1.19</v>
+        <v>0</v>
       </c>
       <c r="C208">
-        <v>3.11</v>
+        <v>-5.89</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3417,10 +4086,10 @@
         <v>210</v>
       </c>
       <c r="B209">
-        <v>0.42</v>
+        <v>4.99</v>
       </c>
       <c r="C209">
-        <v>0.93</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3428,7 +4097,7 @@
         <v>211</v>
       </c>
       <c r="B210">
-        <v>-1.28</v>
+        <v>-1.2</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -3439,10 +4108,10 @@
         <v>212</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="C211">
-        <v>2.09</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3450,10 +4119,10 @@
         <v>213</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>-0.51</v>
       </c>
       <c r="C212">
-        <v>2.5</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3461,10 +4130,10 @@
         <v>214</v>
       </c>
       <c r="B213">
-        <v>3.97</v>
+        <v>0</v>
       </c>
       <c r="C213">
-        <v>3.71</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3472,10 +4141,10 @@
         <v>215</v>
       </c>
       <c r="B214">
-        <v>-0.08</v>
+        <v>-0.9</v>
       </c>
       <c r="C214">
-        <v>-0.8</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3483,10 +4152,10 @@
         <v>216</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>3.69</v>
       </c>
       <c r="C215">
-        <v>-0.74</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3497,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="C216">
-        <v>2.56</v>
+        <v>-6.82</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3505,10 +4174,10 @@
         <v>218</v>
       </c>
       <c r="B217">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>-6.06</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3516,10 +4185,10 @@
         <v>219</v>
       </c>
       <c r="B218">
-        <v>7.96</v>
+        <v>0</v>
       </c>
       <c r="C218">
-        <v>3.83</v>
+        <v>-2.22</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3527,10 +4196,10 @@
         <v>220</v>
       </c>
       <c r="B219">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="C219">
-        <v>2.62</v>
+        <v>-7.45</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3538,10 +4207,10 @@
         <v>221</v>
       </c>
       <c r="B220">
-        <v>-0.6899999999999999</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="C220">
-        <v>0</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3549,10 +4218,10 @@
         <v>222</v>
       </c>
       <c r="B221">
-        <v>14.15</v>
+        <v>0</v>
       </c>
       <c r="C221">
-        <v>9.16</v>
+        <v>-6.82</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3560,10 +4229,10 @@
         <v>223</v>
       </c>
       <c r="B222">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="C222">
-        <v>9.69</v>
+        <v>-5.83</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3571,10 +4240,10 @@
         <v>224</v>
       </c>
       <c r="B223">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="C223">
-        <v>-1.18</v>
+        <v>-5.26</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3582,10 +4251,10 @@
         <v>225</v>
       </c>
       <c r="B224">
-        <v>-0.58</v>
+        <v>1.65</v>
       </c>
       <c r="C224">
-        <v>2.77</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3596,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="C225">
-        <v>0.02</v>
+        <v>-2.92</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3604,10 +4273,10 @@
         <v>227</v>
       </c>
       <c r="B226">
-        <v>0.62</v>
+        <v>0.51</v>
       </c>
       <c r="C226">
-        <v>-0.77</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3615,10 +4284,10 @@
         <v>228</v>
       </c>
       <c r="B227">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="C227">
-        <v>1.9</v>
+        <v>-5.45</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3629,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="C228">
-        <v>-0.54</v>
+        <v>-5.37</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3637,10 +4306,10 @@
         <v>230</v>
       </c>
       <c r="B229">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="C229">
-        <v>2.85</v>
+        <v>-6.78</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3648,10 +4317,10 @@
         <v>231</v>
       </c>
       <c r="B230">
-        <v>0</v>
+        <v>5.67</v>
       </c>
       <c r="C230">
-        <v>-0.08</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3659,10 +4328,10 @@
         <v>232</v>
       </c>
       <c r="B231">
-        <v>9.65</v>
+        <v>0</v>
       </c>
       <c r="C231">
-        <v>7.6</v>
+        <v>-6.14</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3670,10 +4339,10 @@
         <v>233</v>
       </c>
       <c r="B232">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="C232">
-        <v>0</v>
+        <v>-7.25</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3681,7 +4350,7 @@
         <v>234</v>
       </c>
       <c r="B233">
-        <v>-0.51</v>
+        <v>12.46</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -3692,10 +4361,10 @@
         <v>235</v>
       </c>
       <c r="B234">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="C234">
-        <v>0.83</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3703,10 +4372,10 @@
         <v>236</v>
       </c>
       <c r="B235">
-        <v>2.31</v>
+        <v>0</v>
       </c>
       <c r="C235">
-        <v>0</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3717,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="C236">
-        <v>0.72</v>
+        <v>-6.65</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3725,10 +4394,10 @@
         <v>238</v>
       </c>
       <c r="B237">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="C237">
-        <v>5.2</v>
+        <v>-9.050000000000001</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3736,10 +4405,10 @@
         <v>239</v>
       </c>
       <c r="B238">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="C238">
-        <v>3.7</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3747,10 +4416,10 @@
         <v>240</v>
       </c>
       <c r="B239">
-        <v>5.41</v>
+        <v>0.27</v>
       </c>
       <c r="C239">
-        <v>4.01</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3758,10 +4427,10 @@
         <v>241</v>
       </c>
       <c r="B240">
-        <v>1.58</v>
+        <v>-1.13</v>
       </c>
       <c r="C240">
-        <v>2.33</v>
+        <v>-3.03</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3769,10 +4438,10 @@
         <v>242</v>
       </c>
       <c r="B241">
-        <v>14.6</v>
+        <v>0.68</v>
       </c>
       <c r="C241">
-        <v>12.06</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3780,10 +4449,10 @@
         <v>243</v>
       </c>
       <c r="B242">
-        <v>-0.93</v>
+        <v>0</v>
       </c>
       <c r="C242">
-        <v>0</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3791,10 +4460,10 @@
         <v>244</v>
       </c>
       <c r="B243">
-        <v>2.52</v>
+        <v>-0.68</v>
       </c>
       <c r="C243">
-        <v>3.77</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3802,10 +4471,10 @@
         <v>245</v>
       </c>
       <c r="B244">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C244">
-        <v>0.51</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3813,10 +4482,10 @@
         <v>246</v>
       </c>
       <c r="B245">
-        <v>-1.42</v>
+        <v>0</v>
       </c>
       <c r="C245">
-        <v>0.03</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3824,10 +4493,10 @@
         <v>247</v>
       </c>
       <c r="B246">
-        <v>3.51</v>
+        <v>0</v>
       </c>
       <c r="C246">
-        <v>4.52</v>
+        <v>-9.130000000000001</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3835,10 +4504,2463 @@
         <v>248</v>
       </c>
       <c r="B247">
+        <v>3.15</v>
+      </c>
+      <c r="C247">
+        <v>7.96</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>249</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>-6.72</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>250</v>
+      </c>
+      <c r="B249">
+        <v>-1.04</v>
+      </c>
+      <c r="C249">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>251</v>
+      </c>
+      <c r="B250">
+        <v>2.84</v>
+      </c>
+      <c r="C250">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>252</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>-3.82</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>253</v>
+      </c>
+      <c r="B252">
+        <v>1.48</v>
+      </c>
+      <c r="C252">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>254</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>-6.66</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>255</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>-3.02</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>256</v>
+      </c>
+      <c r="B255">
+        <v>-1.48</v>
+      </c>
+      <c r="C255">
+        <v>-3.74</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>257</v>
+      </c>
+      <c r="B256">
+        <v>2.63</v>
+      </c>
+      <c r="C256">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>258</v>
+      </c>
+      <c r="B257">
+        <v>0.03</v>
+      </c>
+      <c r="C257">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>259</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>-4.54</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>260</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <v>-1.32</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>261</v>
+      </c>
+      <c r="B260">
+        <v>1.5</v>
+      </c>
+      <c r="C260">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>262</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>-6.68</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>263</v>
+      </c>
+      <c r="B262">
+        <v>1.71</v>
+      </c>
+      <c r="C262">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>264</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>-5.94</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>265</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>-5.29</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>266</v>
+      </c>
+      <c r="B265">
+        <v>8.19</v>
+      </c>
+      <c r="C265">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>267</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>-5.61</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>268</v>
+      </c>
+      <c r="B267">
+        <v>4.8</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>269</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>-1.89</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>270</v>
+      </c>
+      <c r="B269">
+        <v>2.07</v>
+      </c>
+      <c r="C269">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>271</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>-4.66</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>272</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>273</v>
+      </c>
+      <c r="B272">
+        <v>-0.11</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>274</v>
+      </c>
+      <c r="B273">
+        <v>-0.16</v>
+      </c>
+      <c r="C273">
+        <v>-2.24</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>275</v>
+      </c>
+      <c r="B274">
+        <v>-0.7</v>
+      </c>
+      <c r="C274">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>276</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>277</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>278</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>-4.85</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>279</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>-8.380000000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>280</v>
+      </c>
+      <c r="B279">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="C279">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>281</v>
+      </c>
+      <c r="B280">
+        <v>-1.07</v>
+      </c>
+      <c r="C280">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>282</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>283</v>
+      </c>
+      <c r="B282">
+        <v>-1.83</v>
+      </c>
+      <c r="C282">
+        <v>-3.81</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>284</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>-1.24</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>285</v>
+      </c>
+      <c r="B284">
+        <v>0.6</v>
+      </c>
+      <c r="C284">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>286</v>
+      </c>
+      <c r="B285">
+        <v>1.6</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>287</v>
+      </c>
+      <c r="B286">
+        <v>0.33</v>
+      </c>
+      <c r="C286">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>288</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>-6.95</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>289</v>
+      </c>
+      <c r="B288">
+        <v>-1.46</v>
+      </c>
+      <c r="C288">
+        <v>-1.19</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>290</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>-6.22</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>291</v>
+      </c>
+      <c r="B290">
+        <v>4.55</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>292</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>-1.49</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>293</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+      <c r="C292">
+        <v>-4.92</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
+        <v>294</v>
+      </c>
+      <c r="B293">
+        <v>1.52</v>
+      </c>
+      <c r="C293">
+        <v>-0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>295</v>
+      </c>
+      <c r="B294">
+        <v>-0.61</v>
+      </c>
+      <c r="C294">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
+        <v>296</v>
+      </c>
+      <c r="B295">
+        <v>8.42</v>
+      </c>
+      <c r="C295">
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
+        <v>297</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
+        <v>298</v>
+      </c>
+      <c r="B297">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="C297">
+        <v>9.390000000000001</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
+        <v>299</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
+        <v>300</v>
+      </c>
+      <c r="B299">
+        <v>6.15</v>
+      </c>
+      <c r="C299">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
+        <v>301</v>
+      </c>
+      <c r="B300">
+        <v>6.58</v>
+      </c>
+      <c r="C300">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
+        <v>302</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+      <c r="C301">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
+        <v>303</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+      <c r="C302">
+        <v>-9.02</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
+        <v>304</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <v>-3.88</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
+        <v>305</v>
+      </c>
+      <c r="B304">
+        <v>-0.99</v>
+      </c>
+      <c r="C304">
+        <v>-3.26</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="s">
+        <v>306</v>
+      </c>
+      <c r="B305">
+        <v>-0.21</v>
+      </c>
+      <c r="C305">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="s">
+        <v>307</v>
+      </c>
+      <c r="B306">
+        <v>14.27</v>
+      </c>
+      <c r="C306">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="s">
+        <v>308</v>
+      </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
+      <c r="C307">
+        <v>-8.24</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" t="s">
+        <v>309</v>
+      </c>
+      <c r="B308">
+        <v>-1.13</v>
+      </c>
+      <c r="C308">
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" t="s">
+        <v>310</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+      <c r="C309">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" t="s">
+        <v>311</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+      <c r="C310">
+        <v>-4.43</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" t="s">
+        <v>312</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+      <c r="C311">
+        <v>-6.55</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="s">
+        <v>313</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+      <c r="C312">
+        <v>-1.37</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
+        <v>314</v>
+      </c>
+      <c r="B313">
+        <v>-1.37</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
+        <v>315</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+      <c r="C314">
+        <v>-8.789999999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" t="s">
+        <v>316</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+      <c r="C315">
+        <v>-3.24</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" t="s">
+        <v>317</v>
+      </c>
+      <c r="B316">
+        <v>0.2</v>
+      </c>
+      <c r="C316">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
+        <v>318</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <v>-6.84</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" t="s">
+        <v>319</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+      <c r="C318">
+        <v>-6.4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" t="s">
+        <v>320</v>
+      </c>
+      <c r="B319">
+        <v>-1.11</v>
+      </c>
+      <c r="C319">
+        <v>-2.51</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="s">
+        <v>321</v>
+      </c>
+      <c r="B320">
+        <v>1.97</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" t="s">
+        <v>322</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <v>-6.87</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" t="s">
+        <v>323</v>
+      </c>
+      <c r="B322">
+        <v>0</v>
+      </c>
+      <c r="C322">
+        <v>-5.98</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" t="s">
+        <v>324</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+      <c r="C323">
+        <v>-4.09</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
+        <v>325</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+      <c r="C324">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
+        <v>326</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>-6.43</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="s">
+        <v>327</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+      <c r="C326">
+        <v>-4.48</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
+        <v>328</v>
+      </c>
+      <c r="B327">
+        <v>-0.84</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
+        <v>329</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+      <c r="C328">
+        <v>-4.63</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
+        <v>330</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>-7.92</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
+        <v>331</v>
+      </c>
+      <c r="B330">
+        <v>1.74</v>
+      </c>
+      <c r="C330">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
+        <v>332</v>
+      </c>
+      <c r="B331">
+        <v>3.26</v>
+      </c>
+      <c r="C331">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
+        <v>333</v>
+      </c>
+      <c r="B332">
+        <v>0.84</v>
+      </c>
+      <c r="C332">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="s">
+        <v>334</v>
+      </c>
+      <c r="B333">
+        <v>0.85</v>
+      </c>
+      <c r="C333">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
+        <v>335</v>
+      </c>
+      <c r="B334">
+        <v>-1.02</v>
+      </c>
+      <c r="C334">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="s">
+        <v>336</v>
+      </c>
+      <c r="B335">
+        <v>0.63</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="s">
+        <v>337</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+      <c r="C336">
+        <v>-4.99</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="s">
+        <v>338</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>-1.05</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" t="s">
+        <v>339</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+      <c r="C338">
+        <v>-2.51</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" t="s">
+        <v>340</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>-8.06</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" t="s">
+        <v>341</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>-4.39</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" t="s">
+        <v>342</v>
+      </c>
+      <c r="B341">
+        <v>4.03</v>
+      </c>
+      <c r="C341">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
+        <v>343</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+      <c r="C342">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="s">
+        <v>344</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+      <c r="C343">
+        <v>-4.99</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="s">
+        <v>345</v>
+      </c>
+      <c r="B344">
+        <v>1.19</v>
+      </c>
+      <c r="C344">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="s">
+        <v>346</v>
+      </c>
+      <c r="B345">
+        <v>-0.39</v>
+      </c>
+      <c r="C345">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
+        <v>347</v>
+      </c>
+      <c r="B346">
+        <v>-0.4</v>
+      </c>
+      <c r="C346">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
+        <v>348</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>-7.19</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="s">
+        <v>349</v>
+      </c>
+      <c r="B348">
+        <v>-1.73</v>
+      </c>
+      <c r="C348">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="s">
+        <v>350</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>-2.57</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" t="s">
+        <v>351</v>
+      </c>
+      <c r="B350">
+        <v>2.86</v>
+      </c>
+      <c r="C350">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" t="s">
+        <v>352</v>
+      </c>
+      <c r="B351">
+        <v>15.03</v>
+      </c>
+      <c r="C351">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" t="s">
+        <v>353</v>
+      </c>
+      <c r="B352">
+        <v>-1.43</v>
+      </c>
+      <c r="C352">
+        <v>-1.32</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" t="s">
+        <v>354</v>
+      </c>
+      <c r="B353">
+        <v>5.46</v>
+      </c>
+      <c r="C353">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" t="s">
+        <v>355</v>
+      </c>
+      <c r="B354">
+        <v>-0.49</v>
+      </c>
+      <c r="C354">
+        <v>-3.83</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" t="s">
+        <v>356</v>
+      </c>
+      <c r="B355">
+        <v>2.15</v>
+      </c>
+      <c r="C355">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" t="s">
+        <v>357</v>
+      </c>
+      <c r="B356">
+        <v>2.4</v>
+      </c>
+      <c r="C356">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" t="s">
+        <v>358</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+      <c r="C357">
+        <v>-1.35</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" t="s">
+        <v>359</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+      <c r="C358">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" t="s">
+        <v>360</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <v>-7.96</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" t="s">
+        <v>361</v>
+      </c>
+      <c r="B360">
+        <v>3.17</v>
+      </c>
+      <c r="C360">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" t="s">
+        <v>362</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>-5.89</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" t="s">
+        <v>363</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+      <c r="C362">
+        <v>-3.74</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" t="s">
+        <v>364</v>
+      </c>
+      <c r="B363">
+        <v>0.02</v>
+      </c>
+      <c r="C363">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" t="s">
+        <v>365</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+      <c r="C364">
+        <v>-6.85</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" t="s">
+        <v>366</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>-7.28</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" t="s">
+        <v>367</v>
+      </c>
+      <c r="B366">
+        <v>2.8</v>
+      </c>
+      <c r="C366">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="s">
+        <v>368</v>
+      </c>
+      <c r="B367">
+        <v>3.01</v>
+      </c>
+      <c r="C367">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" t="s">
+        <v>369</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+      <c r="C368">
+        <v>-4.76</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" t="s">
+        <v>370</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369">
+        <v>-7.29</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="s">
+        <v>371</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+      <c r="C370">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" t="s">
+        <v>372</v>
+      </c>
+      <c r="B371">
+        <v>-1.19</v>
+      </c>
+      <c r="C371">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="s">
+        <v>373</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+      <c r="C372">
+        <v>-4.21</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="s">
+        <v>374</v>
+      </c>
+      <c r="B373">
+        <v>6.39</v>
+      </c>
+      <c r="C373">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="s">
+        <v>375</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+      <c r="C374">
+        <v>-1.71</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="s">
+        <v>376</v>
+      </c>
+      <c r="B375">
+        <v>-1.19</v>
+      </c>
+      <c r="C375">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="s">
+        <v>377</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+      <c r="C376">
+        <v>-4.23</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" t="s">
+        <v>378</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>-1.38</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" t="s">
+        <v>379</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+      <c r="C378">
+        <v>-5.72</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="s">
+        <v>380</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>-4.45</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" t="s">
+        <v>381</v>
+      </c>
+      <c r="B380">
+        <v>0.42</v>
+      </c>
+      <c r="C380">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
+        <v>382</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>-4.73</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="s">
+        <v>383</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+      <c r="C382">
+        <v>-5.99</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="s">
+        <v>384</v>
+      </c>
+      <c r="B383">
+        <v>-1.28</v>
+      </c>
+      <c r="C383">
+        <v>-5.16</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" t="s">
+        <v>385</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+      <c r="C384">
+        <v>-7.08</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="s">
+        <v>386</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="s">
+        <v>387</v>
+      </c>
+      <c r="B386">
+        <v>0</v>
+      </c>
+      <c r="C386">
+        <v>-6.07</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="s">
+        <v>388</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+      <c r="C387">
+        <v>-7.87</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" t="s">
+        <v>389</v>
+      </c>
+      <c r="B388">
+        <v>0</v>
+      </c>
+      <c r="C388">
+        <v>-5.46</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" t="s">
+        <v>390</v>
+      </c>
+      <c r="B389">
+        <v>0</v>
+      </c>
+      <c r="C389">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" t="s">
+        <v>391</v>
+      </c>
+      <c r="B390">
+        <v>0</v>
+      </c>
+      <c r="C390">
+        <v>-4.26</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" t="s">
+        <v>392</v>
+      </c>
+      <c r="B391">
+        <v>0</v>
+      </c>
+      <c r="C391">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" t="s">
+        <v>393</v>
+      </c>
+      <c r="B392">
+        <v>3.97</v>
+      </c>
+      <c r="C392">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" t="s">
+        <v>394</v>
+      </c>
+      <c r="B393">
+        <v>-0.08</v>
+      </c>
+      <c r="C393">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" t="s">
+        <v>395</v>
+      </c>
+      <c r="B394">
+        <v>0</v>
+      </c>
+      <c r="C394">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" t="s">
+        <v>396</v>
+      </c>
+      <c r="B395">
+        <v>0</v>
+      </c>
+      <c r="C395">
+        <v>-3.19</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" t="s">
+        <v>397</v>
+      </c>
+      <c r="B396">
+        <v>0</v>
+      </c>
+      <c r="C396">
+        <v>-4.96</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" t="s">
+        <v>398</v>
+      </c>
+      <c r="B397">
+        <v>0</v>
+      </c>
+      <c r="C397">
+        <v>-2.58</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" t="s">
+        <v>399</v>
+      </c>
+      <c r="B398">
+        <v>0</v>
+      </c>
+      <c r="C398">
+        <v>-1.87</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" t="s">
+        <v>400</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+      <c r="C399">
+        <v>-3.72</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" t="s">
+        <v>401</v>
+      </c>
+      <c r="B400">
+        <v>0</v>
+      </c>
+      <c r="C400">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" t="s">
+        <v>402</v>
+      </c>
+      <c r="B401">
+        <v>-0.2</v>
+      </c>
+      <c r="C401">
+        <v>-1.19</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" t="s">
+        <v>403</v>
+      </c>
+      <c r="B402">
+        <v>7.96</v>
+      </c>
+      <c r="C402">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" t="s">
+        <v>404</v>
+      </c>
+      <c r="B403">
+        <v>0.74</v>
+      </c>
+      <c r="C403">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" t="s">
+        <v>405</v>
+      </c>
+      <c r="B404">
+        <v>0</v>
+      </c>
+      <c r="C404">
+        <v>-3.94</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" t="s">
+        <v>406</v>
+      </c>
+      <c r="B405">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="C405">
+        <v>-6.25</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" t="s">
+        <v>407</v>
+      </c>
+      <c r="B406">
+        <v>14.15</v>
+      </c>
+      <c r="C406">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" t="s">
+        <v>408</v>
+      </c>
+      <c r="B407">
+        <v>0</v>
+      </c>
+      <c r="C407">
+        <v>-6.08</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" t="s">
+        <v>409</v>
+      </c>
+      <c r="B408">
+        <v>0</v>
+      </c>
+      <c r="C408">
+        <v>-6.71</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" t="s">
+        <v>410</v>
+      </c>
+      <c r="B409">
+        <v>0</v>
+      </c>
+      <c r="C409">
+        <v>-4.45</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" t="s">
+        <v>411</v>
+      </c>
+      <c r="B410">
+        <v>0</v>
+      </c>
+      <c r="C410">
+        <v>-5.19</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" t="s">
+        <v>412</v>
+      </c>
+      <c r="B411">
+        <v>0</v>
+      </c>
+      <c r="C411">
+        <v>-5.63</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" t="s">
+        <v>413</v>
+      </c>
+      <c r="B412">
+        <v>0</v>
+      </c>
+      <c r="C412">
+        <v>-8.9</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" t="s">
+        <v>414</v>
+      </c>
+      <c r="B413">
+        <v>9.1</v>
+      </c>
+      <c r="C413">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" t="s">
+        <v>415</v>
+      </c>
+      <c r="B414">
+        <v>0</v>
+      </c>
+      <c r="C414">
+        <v>-3.73</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" t="s">
+        <v>416</v>
+      </c>
+      <c r="B415">
+        <v>0</v>
+      </c>
+      <c r="C415">
+        <v>-5.84</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" t="s">
+        <v>417</v>
+      </c>
+      <c r="B416">
+        <v>0</v>
+      </c>
+      <c r="C416">
+        <v>-3.04</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" t="s">
+        <v>418</v>
+      </c>
+      <c r="B417">
+        <v>-0.6</v>
+      </c>
+      <c r="C417">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" t="s">
+        <v>419</v>
+      </c>
+      <c r="B418">
+        <v>0</v>
+      </c>
+      <c r="C418">
+        <v>-3.86</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" t="s">
+        <v>420</v>
+      </c>
+      <c r="B419">
+        <v>0</v>
+      </c>
+      <c r="C419">
+        <v>-5.43</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" t="s">
+        <v>421</v>
+      </c>
+      <c r="B420">
+        <v>-0.58</v>
+      </c>
+      <c r="C420">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" t="s">
+        <v>422</v>
+      </c>
+      <c r="B421">
+        <v>0</v>
+      </c>
+      <c r="C421">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" t="s">
+        <v>423</v>
+      </c>
+      <c r="B422">
+        <v>0.62</v>
+      </c>
+      <c r="C422">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" t="s">
+        <v>424</v>
+      </c>
+      <c r="B423">
+        <v>0</v>
+      </c>
+      <c r="C423">
+        <v>-4.4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" t="s">
+        <v>425</v>
+      </c>
+      <c r="B424">
+        <v>0</v>
+      </c>
+      <c r="C424">
+        <v>-5.73</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" t="s">
+        <v>426</v>
+      </c>
+      <c r="B425">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C425">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" t="s">
+        <v>427</v>
+      </c>
+      <c r="B426">
+        <v>0</v>
+      </c>
+      <c r="C426">
+        <v>-2.97</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" t="s">
+        <v>428</v>
+      </c>
+      <c r="B427">
+        <v>0</v>
+      </c>
+      <c r="C427">
+        <v>-5.71</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" t="s">
+        <v>429</v>
+      </c>
+      <c r="B428">
+        <v>0</v>
+      </c>
+      <c r="C428">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" t="s">
+        <v>430</v>
+      </c>
+      <c r="B429">
+        <v>2.94</v>
+      </c>
+      <c r="C429">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" t="s">
+        <v>431</v>
+      </c>
+      <c r="B430">
+        <v>0</v>
+      </c>
+      <c r="C430">
+        <v>-7.9</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" t="s">
+        <v>432</v>
+      </c>
+      <c r="B431">
+        <v>0</v>
+      </c>
+      <c r="C431">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" t="s">
+        <v>433</v>
+      </c>
+      <c r="B432">
+        <v>9.65</v>
+      </c>
+      <c r="C432">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" t="s">
+        <v>434</v>
+      </c>
+      <c r="B433">
+        <v>2.34</v>
+      </c>
+      <c r="C433">
+        <v>-1.41</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" t="s">
+        <v>435</v>
+      </c>
+      <c r="B434">
+        <v>-0.51</v>
+      </c>
+      <c r="C434">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" t="s">
+        <v>436</v>
+      </c>
+      <c r="B435">
+        <v>0</v>
+      </c>
+      <c r="C435">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" t="s">
+        <v>437</v>
+      </c>
+      <c r="B436">
+        <v>0</v>
+      </c>
+      <c r="C436">
+        <v>-7.92</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" t="s">
+        <v>438</v>
+      </c>
+      <c r="B437">
+        <v>0</v>
+      </c>
+      <c r="C437">
+        <v>-7.9</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" t="s">
+        <v>439</v>
+      </c>
+      <c r="B438">
+        <v>0</v>
+      </c>
+      <c r="C438">
+        <v>-7.08</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" t="s">
+        <v>440</v>
+      </c>
+      <c r="B439">
+        <v>0</v>
+      </c>
+      <c r="C439">
+        <v>-4.12</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" t="s">
+        <v>441</v>
+      </c>
+      <c r="B440">
+        <v>2.31</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" t="s">
+        <v>442</v>
+      </c>
+      <c r="B441">
+        <v>0</v>
+      </c>
+      <c r="C441">
+        <v>-3.43</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" t="s">
+        <v>443</v>
+      </c>
+      <c r="B442">
+        <v>0</v>
+      </c>
+      <c r="C442">
+        <v>-8.67</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" t="s">
+        <v>444</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+      <c r="C443">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" t="s">
+        <v>445</v>
+      </c>
+      <c r="B444">
+        <v>2.86</v>
+      </c>
+      <c r="C444">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" t="s">
+        <v>446</v>
+      </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
+      <c r="C445">
+        <v>-4.45</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" t="s">
+        <v>447</v>
+      </c>
+      <c r="B446">
+        <v>0</v>
+      </c>
+      <c r="C446">
+        <v>-6.32</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" t="s">
+        <v>448</v>
+      </c>
+      <c r="B447">
+        <v>8.5</v>
+      </c>
+      <c r="C447">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" t="s">
+        <v>449</v>
+      </c>
+      <c r="B448">
+        <v>0</v>
+      </c>
+      <c r="C448">
+        <v>-7.73</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" t="s">
+        <v>450</v>
+      </c>
+      <c r="B449">
+        <v>5.41</v>
+      </c>
+      <c r="C449">
+        <v>4.89</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" t="s">
+        <v>451</v>
+      </c>
+      <c r="B450">
+        <v>1.58</v>
+      </c>
+      <c r="C450">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" t="s">
+        <v>452</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+      <c r="C451">
+        <v>-6.49</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" t="s">
+        <v>453</v>
+      </c>
+      <c r="B452">
+        <v>0</v>
+      </c>
+      <c r="C452">
+        <v>-6.83</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" t="s">
+        <v>454</v>
+      </c>
+      <c r="B453">
+        <v>14.6</v>
+      </c>
+      <c r="C453">
+        <v>13.15</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" t="s">
+        <v>455</v>
+      </c>
+      <c r="B454">
+        <v>-0.93</v>
+      </c>
+      <c r="C454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" t="s">
+        <v>456</v>
+      </c>
+      <c r="B455">
+        <v>0</v>
+      </c>
+      <c r="C455">
+        <v>-7.55</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" t="s">
+        <v>457</v>
+      </c>
+      <c r="B456">
+        <v>0</v>
+      </c>
+      <c r="C456">
+        <v>-5.09</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" t="s">
+        <v>458</v>
+      </c>
+      <c r="B457">
+        <v>2.52</v>
+      </c>
+      <c r="C457">
+        <v>4.35</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" t="s">
+        <v>459</v>
+      </c>
+      <c r="B458">
+        <v>0.1</v>
+      </c>
+      <c r="C458">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" t="s">
+        <v>460</v>
+      </c>
+      <c r="B459">
+        <v>0</v>
+      </c>
+      <c r="C459">
+        <v>-7.3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" t="s">
+        <v>461</v>
+      </c>
+      <c r="B460">
+        <v>0</v>
+      </c>
+      <c r="C460">
+        <v>-6.41</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" t="s">
+        <v>462</v>
+      </c>
+      <c r="B461">
+        <v>0</v>
+      </c>
+      <c r="C461">
+        <v>-8.779999999999999</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" t="s">
+        <v>463</v>
+      </c>
+      <c r="B462">
+        <v>0</v>
+      </c>
+      <c r="C462">
+        <v>-7.76</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" t="s">
+        <v>464</v>
+      </c>
+      <c r="B463">
+        <v>0</v>
+      </c>
+      <c r="C463">
+        <v>-1.35</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" t="s">
+        <v>465</v>
+      </c>
+      <c r="B464">
+        <v>0</v>
+      </c>
+      <c r="C464">
+        <v>-1.94</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" t="s">
+        <v>466</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+      <c r="C465">
+        <v>-1.74</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" t="s">
+        <v>467</v>
+      </c>
+      <c r="B466">
+        <v>-1.42</v>
+      </c>
+      <c r="C466">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" t="s">
+        <v>468</v>
+      </c>
+      <c r="B467">
+        <v>3.51</v>
+      </c>
+      <c r="C467">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" t="s">
+        <v>469</v>
+      </c>
+      <c r="B468">
+        <v>0</v>
+      </c>
+      <c r="C468">
+        <v>-7.34</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" t="s">
+        <v>470</v>
+      </c>
+      <c r="B469">
+        <v>0</v>
+      </c>
+      <c r="C469">
+        <v>-1.42</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" t="s">
+        <v>471</v>
+      </c>
+      <c r="B470">
         <v>2.23</v>
       </c>
-      <c r="C247">
-        <v>-0.32</v>
+      <c r="C470">
+        <v>2.51</v>
       </c>
     </row>
   </sheetData>

--- a/data/merged_scores.xlsx
+++ b/data/merged_scores.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ibrahimkucukkaya/Desktop/Streamlit/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668205A0-9E9F-AA40-864C-6D3E0EA2A1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="880" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1582,8 +1588,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1646,13 +1652,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1690,7 +1704,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1724,6 +1738,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1758,9 +1773,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1933,14 +1949,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C519"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1951,40 +1970,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-9.449999999999999</v>
+        <v>-9.43</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-4.18</v>
+        <v>-4.12</v>
       </c>
       <c r="C3">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>-2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-9.119999999999999</v>
+        <v>-9.1</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1992,54 +2011,54 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-7.92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-8.14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="C6">
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-7.04</v>
+        <v>-7.01</v>
       </c>
       <c r="C7">
-        <v>-4.87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-1.69</v>
+        <v>-1.65</v>
       </c>
       <c r="C8">
-        <v>-0.96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-4.38</v>
+        <v>-4.3499999999999996</v>
       </c>
       <c r="C9">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2047,76 +2066,76 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-6.34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-6.55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-9.02</v>
+        <v>-9</v>
       </c>
       <c r="C11">
-        <v>-7.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-7.31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>-6.68</v>
+        <v>-6.66</v>
       </c>
       <c r="C12">
-        <v>-6.77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-6.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>-8.85</v>
+        <v>-8.83</v>
       </c>
       <c r="C13">
-        <v>-3.37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-3.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="C14">
-        <v>1.84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
-        <v>-4.35</v>
+        <v>-4.3</v>
       </c>
       <c r="C15">
-        <v>-1.97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-2.16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="C16">
-        <v>-1.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-1.96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2124,21 +2143,21 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>-8.609999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-8.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
-        <v>-6.34</v>
+        <v>-6.33</v>
       </c>
       <c r="C18">
-        <v>-4.77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-4.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2146,153 +2165,153 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>-6.68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>-6.89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="C20">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
-        <v>4.05</v>
+        <v>3.44</v>
       </c>
       <c r="C21">
-        <v>4.88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0.6899999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="C22">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
-        <v>-5.48</v>
+        <v>-5.44</v>
       </c>
       <c r="C23">
-        <v>-2.31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-2.73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.46</v>
+        <v>-0.43</v>
       </c>
       <c r="C24">
-        <v>-0.79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25">
-        <v>-6.31</v>
+        <v>-6.28</v>
       </c>
       <c r="C25">
-        <v>-4.12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-4.28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26">
-        <v>-1.29</v>
+        <v>-1.24</v>
       </c>
       <c r="C26">
-        <v>-2.72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-2.94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27">
-        <v>-1.2</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="C27">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="C28">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29">
-        <v>-3.46</v>
+        <v>-3.43</v>
       </c>
       <c r="C29">
-        <v>-1.12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30">
-        <v>14.04</v>
+        <v>14.09</v>
       </c>
       <c r="C30">
-        <v>12.13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>12.07</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31">
-        <v>6.89</v>
+        <v>6.98</v>
       </c>
       <c r="C31">
-        <v>6.55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32">
-        <v>-8.07</v>
+        <v>-8.0500000000000007</v>
       </c>
       <c r="C32">
-        <v>-6.97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-7.19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -2300,241 +2319,241 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>-7.12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-7.22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34">
-        <v>-7.51</v>
+        <v>-7.5</v>
       </c>
       <c r="C34">
-        <v>-6.06</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-6.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="C36">
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37">
-        <v>-1.98</v>
+        <v>-1.93</v>
       </c>
       <c r="C37">
-        <v>-0.76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38">
-        <v>4.86</v>
+        <v>4.91</v>
       </c>
       <c r="C38">
-        <v>2.73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39">
-        <v>-7.25</v>
+        <v>-7.22</v>
       </c>
       <c r="C39">
-        <v>-7.84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40">
-        <v>-6.02</v>
+        <v>-5.98</v>
       </c>
       <c r="C40">
-        <v>-3.84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-3.78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.38</v>
+        <v>-0.34</v>
       </c>
       <c r="C41">
-        <v>2.19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42">
-        <v>-1.36</v>
+        <v>-1.3</v>
       </c>
       <c r="C42">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="C43">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44">
-        <v>-7.8</v>
+        <v>-7.77</v>
       </c>
       <c r="C44">
-        <v>-5.78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-5.35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45">
-        <v>0.23</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C45">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46">
-        <v>-6.12</v>
+        <v>-6.09</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="C47">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48">
-        <v>-2.44</v>
+        <v>-2.37</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49">
-        <v>-5.31</v>
+        <v>-5.28</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50">
-        <v>-3.43</v>
+        <v>-3.37</v>
       </c>
       <c r="C50">
-        <v>-5.36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-5.85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51">
-        <v>-9.140000000000001</v>
+        <v>-9.1199999999999992</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52">
-        <v>3.58</v>
+        <v>3.65</v>
       </c>
       <c r="C52">
-        <v>5.05</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53">
-        <v>0.5600000000000001</v>
+        <v>-0.99</v>
       </c>
       <c r="C53">
-        <v>-2.05</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-2.27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.23</v>
+        <v>-0.18</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -2542,43 +2561,43 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56">
-        <v>-2.34</v>
+        <v>-2.3199999999999998</v>
       </c>
       <c r="C56">
-        <v>-3.8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-4.01</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57">
-        <v>2.79</v>
+        <v>2.85</v>
       </c>
       <c r="C57">
-        <v>5.62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="C58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -2586,32 +2605,32 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>-8.220000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-8.4600000000000009</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60">
-        <v>-3.39</v>
+        <v>-3.34</v>
       </c>
       <c r="C60">
-        <v>-4.84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-5.04</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61">
-        <v>-8.42</v>
+        <v>-8.4</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -2619,54 +2638,54 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>-7.6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-7.82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="C63">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.38</v>
+        <v>-0.34</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65">
-        <v>-4.62</v>
+        <v>-4.59</v>
       </c>
       <c r="C65">
-        <v>-3.51</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-3.68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66">
-        <v>-9.34</v>
+        <v>-9.32</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -2674,219 +2693,219 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>2.21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="B68">
-        <v>-9.84</v>
+        <v>-9.82</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69">
-        <v>2.23</v>
+        <v>2.31</v>
       </c>
       <c r="C69">
-        <v>4.08</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70">
-        <v>1.95</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C70">
-        <v>6.27</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71">
-        <v>6.37</v>
+        <v>6.47</v>
       </c>
       <c r="C71">
-        <v>6.99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72">
-        <v>-7.59</v>
+        <v>-7.56</v>
       </c>
       <c r="C72">
-        <v>-7.69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-7.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73">
-        <v>-1.02</v>
+        <v>-0.97</v>
       </c>
       <c r="C73">
-        <v>-1.63</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>75</v>
       </c>
       <c r="B74">
-        <v>-8.44</v>
+        <v>-8.42</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75">
-        <v>-5.47</v>
+        <v>-5.44</v>
       </c>
       <c r="C75">
-        <v>-1.37</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-1.55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>77</v>
       </c>
       <c r="B76">
-        <v>1.93</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C76">
-        <v>3.69</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>78</v>
       </c>
       <c r="B77">
-        <v>-4.51</v>
+        <v>-7.33</v>
       </c>
       <c r="C77">
-        <v>-7.34</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-7.57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>79</v>
       </c>
       <c r="B78">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
       <c r="C78">
-        <v>3.08</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>80</v>
       </c>
       <c r="B79">
-        <v>-5.34</v>
+        <v>-5.29</v>
       </c>
       <c r="C79">
-        <v>-4.4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-2.77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>81</v>
       </c>
       <c r="B80">
-        <v>-1.33</v>
+        <v>-1.28</v>
       </c>
       <c r="C80">
-        <v>2.49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>82</v>
       </c>
       <c r="B81">
-        <v>-3.33</v>
+        <v>-3.27</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82">
-        <v>-2.22</v>
+        <v>-2.1800000000000002</v>
       </c>
       <c r="C82">
-        <v>-1.07</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>84</v>
       </c>
       <c r="B83">
-        <v>-5.46</v>
+        <v>-5.45</v>
       </c>
       <c r="C83">
-        <v>-5.78</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-5.97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>85</v>
       </c>
       <c r="B84">
-        <v>6.11</v>
+        <v>6.15</v>
       </c>
       <c r="C84">
-        <v>7.11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>7.02</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>86</v>
       </c>
       <c r="B85">
-        <v>-4.97</v>
+        <v>-4.9400000000000004</v>
       </c>
       <c r="C85">
-        <v>-1.01</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>87</v>
       </c>
       <c r="B86">
-        <v>-6.44</v>
+        <v>-6.4</v>
       </c>
       <c r="C86">
-        <v>-6.79</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-7.02</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -2894,32 +2913,32 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>-8.779999999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-9.01</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>89</v>
       </c>
       <c r="B88">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="C88">
-        <v>4.08</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.9</v>
+        <v>-0.85</v>
       </c>
       <c r="C89">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -2927,109 +2946,109 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>-6.09</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-6.28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>92</v>
       </c>
       <c r="B91">
-        <v>-2.97</v>
+        <v>-2.94</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>93</v>
       </c>
       <c r="B92">
-        <v>-9.369999999999999</v>
+        <v>-9.35</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>94</v>
       </c>
       <c r="B93">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="C93">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>95</v>
       </c>
       <c r="B94">
-        <v>2.27</v>
+        <v>2.36</v>
       </c>
       <c r="C94">
-        <v>5.35</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>96</v>
       </c>
       <c r="B95">
-        <v>-4.16</v>
+        <v>-4.12</v>
       </c>
       <c r="C95">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>97</v>
       </c>
       <c r="B96">
-        <v>-6.74</v>
+        <v>-6.71</v>
       </c>
       <c r="C96">
-        <v>-5.7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-5.93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>98</v>
       </c>
       <c r="B97">
-        <v>-9.19</v>
+        <v>-9.17</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>99</v>
       </c>
       <c r="B98">
-        <v>-9.01</v>
+        <v>-8.98</v>
       </c>
       <c r="C98">
-        <v>-7.69</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-7.9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>100</v>
       </c>
       <c r="B99">
-        <v>-3.44</v>
+        <v>-3.39</v>
       </c>
       <c r="C99">
-        <v>-4.39</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -3037,186 +3056,186 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <v>-6.77</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-6.96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>102</v>
       </c>
       <c r="B101">
-        <v>-8.92</v>
+        <v>-8.9</v>
       </c>
       <c r="C101">
-        <v>-6.61</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-6.83</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>103</v>
       </c>
       <c r="B102">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="C102">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>104</v>
       </c>
       <c r="B103">
-        <v>-0.58</v>
+        <v>-2.63</v>
       </c>
       <c r="C103">
-        <v>-3.25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>-2.87</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>105</v>
       </c>
       <c r="B104">
-        <v>-7.32</v>
+        <v>-7.29</v>
       </c>
       <c r="C104">
-        <v>-6.37</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>-6.58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>106</v>
       </c>
       <c r="B105">
-        <v>-5.57</v>
+        <v>-5.54</v>
       </c>
       <c r="C105">
-        <v>-5.79</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>-6.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>107</v>
       </c>
       <c r="B106">
-        <v>2.65</v>
+        <v>2.73</v>
       </c>
       <c r="C106">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>108</v>
       </c>
       <c r="B107">
-        <v>-9.109999999999999</v>
+        <v>-9.08</v>
       </c>
       <c r="C107">
-        <v>-6.93</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>-7.15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>109</v>
       </c>
       <c r="B108">
-        <v>-7.43</v>
+        <v>-7.41</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>110</v>
       </c>
       <c r="B109">
-        <v>-9.5</v>
+        <v>-9.48</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>111</v>
       </c>
       <c r="B110">
-        <v>-6.98</v>
+        <v>-6.95</v>
       </c>
       <c r="C110">
-        <v>-2.49</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>-2.7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>112</v>
       </c>
       <c r="B111">
-        <v>-7.98</v>
+        <v>-7.96</v>
       </c>
       <c r="C111">
-        <v>-4.39</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>-5.03</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>113</v>
       </c>
       <c r="B112">
-        <v>-4.81</v>
+        <v>-4.7699999999999996</v>
       </c>
       <c r="C112">
-        <v>-4.65</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>-4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>114</v>
       </c>
       <c r="B113">
-        <v>9.130000000000001</v>
+        <v>9.26</v>
       </c>
       <c r="C113">
-        <v>8.529999999999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>115</v>
       </c>
       <c r="B114">
-        <v>-4.79</v>
+        <v>-4.75</v>
       </c>
       <c r="C114">
-        <v>-6.31</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>-6.53</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>116</v>
       </c>
       <c r="B115">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="C115">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>117</v>
       </c>
       <c r="B116">
-        <v>-1.7</v>
+        <v>-1.67</v>
       </c>
       <c r="C116">
-        <v>-3.82</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>-4.01</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -3224,54 +3243,54 @@
         <v>0</v>
       </c>
       <c r="C117">
-        <v>-8.779999999999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>-9.01</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>119</v>
       </c>
       <c r="B118">
-        <v>-4.96</v>
+        <v>-4.93</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>120</v>
       </c>
       <c r="B119">
-        <v>-4.69</v>
+        <v>-4.6500000000000004</v>
       </c>
       <c r="C119">
-        <v>-8.32</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>-8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>121</v>
       </c>
       <c r="B120">
-        <v>-8.85</v>
+        <v>-8.82</v>
       </c>
       <c r="C120">
-        <v>-7.73</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>-7.94</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>122</v>
       </c>
       <c r="B121">
-        <v>3.71</v>
+        <v>3.8</v>
       </c>
       <c r="C121">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -3279,362 +3298,362 @@
         <v>0</v>
       </c>
       <c r="C122">
-        <v>-9.81</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>-10.09</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>124</v>
       </c>
       <c r="B123">
-        <v>-7.21</v>
+        <v>-7.18</v>
       </c>
       <c r="C123">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>125</v>
       </c>
       <c r="B124">
-        <v>-9.4</v>
+        <v>-9.3800000000000008</v>
       </c>
       <c r="C124">
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>-1.68</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>126</v>
       </c>
       <c r="B125">
-        <v>-4.68</v>
+        <v>-4.63</v>
       </c>
       <c r="C125">
-        <v>-0.66</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>-0.88</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>127</v>
       </c>
       <c r="B126">
-        <v>-2.51</v>
+        <v>-2.5</v>
       </c>
       <c r="C126">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>128</v>
       </c>
       <c r="B127">
-        <v>5.12</v>
+        <v>5.21</v>
       </c>
       <c r="C127">
-        <v>6.13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>129</v>
       </c>
       <c r="B128">
-        <v>-0.27</v>
+        <v>-0.21</v>
       </c>
       <c r="C128">
-        <v>4.81</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>130</v>
       </c>
       <c r="B129">
-        <v>0.5</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C129">
-        <v>-0.53</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>131</v>
       </c>
       <c r="B130">
-        <v>-7.21</v>
+        <v>-7.2</v>
       </c>
       <c r="C130">
-        <v>-5.44</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>-5.61</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>132</v>
       </c>
       <c r="B131">
-        <v>5</v>
+        <v>5.08</v>
       </c>
       <c r="C131">
-        <v>7.16</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>133</v>
       </c>
       <c r="B132">
-        <v>-4.5</v>
+        <v>-4.47</v>
       </c>
       <c r="C132">
-        <v>-2.67</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>-3.04</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>134</v>
       </c>
       <c r="B133">
-        <v>2.69</v>
+        <v>2.73</v>
       </c>
       <c r="C133">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>135</v>
       </c>
       <c r="B134">
-        <v>3.81</v>
+        <v>3.9</v>
       </c>
       <c r="C134">
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>136</v>
       </c>
       <c r="B135">
-        <v>-2.94</v>
+        <v>-2.9</v>
       </c>
       <c r="C135">
-        <v>-4.63</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>-4.7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>137</v>
       </c>
       <c r="B136">
-        <v>-0.62</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="C136">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>-0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>138</v>
       </c>
       <c r="B137">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="C137">
-        <v>5.63</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>139</v>
       </c>
       <c r="B138">
-        <v>2.44</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="C138">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>140</v>
       </c>
       <c r="B139">
-        <v>-2.4</v>
+        <v>-2.37</v>
       </c>
       <c r="C139">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>141</v>
       </c>
       <c r="B140">
-        <v>-6.9</v>
+        <v>-6.87</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>142</v>
       </c>
       <c r="B141">
-        <v>4.91</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="C141">
-        <v>7.86</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>143</v>
       </c>
       <c r="B142">
-        <v>4.94</v>
+        <v>5.03</v>
       </c>
       <c r="C142">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>144</v>
       </c>
       <c r="B143">
-        <v>7.97</v>
+        <v>8.07</v>
       </c>
       <c r="C143">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>145</v>
       </c>
       <c r="B144">
-        <v>-5.24</v>
+        <v>-5.21</v>
       </c>
       <c r="C144">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>146</v>
       </c>
       <c r="B145">
-        <v>2.48</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="C145">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>147</v>
       </c>
       <c r="B146">
-        <v>-7.17</v>
+        <v>-7.13</v>
       </c>
       <c r="C146">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>148</v>
       </c>
       <c r="B147">
-        <v>-2.51</v>
+        <v>-2.4500000000000002</v>
       </c>
       <c r="C147">
-        <v>-1.71</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+        <v>-1.54</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>149</v>
       </c>
       <c r="B148">
-        <v>-8.720000000000001</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="C148">
-        <v>-7.48</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>-7.8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>150</v>
       </c>
       <c r="B149">
-        <v>7.86</v>
+        <v>7.9</v>
       </c>
       <c r="C149">
-        <v>9.19</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>9.07</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>151</v>
       </c>
       <c r="B150">
-        <v>-8.890000000000001</v>
+        <v>-8.8800000000000008</v>
       </c>
       <c r="C150">
-        <v>-9.289999999999999</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <v>-9.5399999999999991</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>152</v>
       </c>
       <c r="B151">
-        <v>-1.04</v>
+        <v>-1.03</v>
       </c>
       <c r="C151">
-        <v>-1.15</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>-1.29</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>153</v>
       </c>
       <c r="B152">
-        <v>7.88</v>
+        <v>7.98</v>
       </c>
       <c r="C152">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>154</v>
       </c>
       <c r="B153">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="C153">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>155</v>
       </c>
       <c r="B154">
-        <v>-2.99</v>
+        <v>-2.95</v>
       </c>
       <c r="C154">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>156</v>
       </c>
@@ -3642,32 +3661,32 @@
         <v>0</v>
       </c>
       <c r="C155">
-        <v>-7.81</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+        <v>-8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>157</v>
       </c>
       <c r="B156">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="C156">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>158</v>
       </c>
       <c r="B157">
-        <v>-4.14</v>
+        <v>-4.13</v>
       </c>
       <c r="C157">
-        <v>-3.32</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <v>-3.49</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>159</v>
       </c>
@@ -3675,318 +3694,318 @@
         <v>0</v>
       </c>
       <c r="C158">
-        <v>-5.26</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <v>-6.25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>160</v>
       </c>
       <c r="B159">
-        <v>-6.74</v>
+        <v>-6.72</v>
       </c>
       <c r="C159">
-        <v>-5.29</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+        <v>-5.46</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>161</v>
       </c>
       <c r="B160">
-        <v>-3.58</v>
+        <v>-3.53</v>
       </c>
       <c r="C160">
-        <v>-2.49</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>-2.7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>162</v>
       </c>
       <c r="B161">
-        <v>-4.96</v>
+        <v>-4.93</v>
       </c>
       <c r="C161">
-        <v>-7.49</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>-7.7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>163</v>
       </c>
       <c r="B162">
-        <v>-5.95</v>
+        <v>-5.93</v>
       </c>
       <c r="C162">
-        <v>-5.14</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>-5.34</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>164</v>
       </c>
       <c r="B163">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="C163">
-        <v>4.63</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>165</v>
       </c>
       <c r="B164">
-        <v>-8.4</v>
+        <v>-8.3800000000000008</v>
       </c>
       <c r="C164">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>166</v>
       </c>
       <c r="B165">
-        <v>-9.710000000000001</v>
+        <v>-9.68</v>
       </c>
       <c r="C165">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>167</v>
       </c>
       <c r="B166">
-        <v>-6.9</v>
+        <v>-6.88</v>
       </c>
       <c r="C166">
-        <v>-6.13</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>-7.02</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>168</v>
       </c>
       <c r="B167">
-        <v>-1.9</v>
+        <v>-1.85</v>
       </c>
       <c r="C167">
-        <v>-5.34</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>-5.33</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>169</v>
       </c>
       <c r="B168">
-        <v>5</v>
+        <v>5.04</v>
       </c>
       <c r="C168">
-        <v>6.71</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>170</v>
       </c>
       <c r="B169">
-        <v>4.18</v>
+        <v>4.25</v>
       </c>
       <c r="C169">
-        <v>4.74</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>171</v>
       </c>
       <c r="B170">
-        <v>5.23</v>
+        <v>3.28</v>
       </c>
       <c r="C170">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>172</v>
       </c>
       <c r="B171">
-        <v>-3.51</v>
+        <v>-3.46</v>
       </c>
       <c r="C171">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>173</v>
       </c>
       <c r="B172">
-        <v>-4.05</v>
+        <v>-4</v>
       </c>
       <c r="C172">
-        <v>-6.61</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <v>-6.84</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>174</v>
       </c>
       <c r="B173">
-        <v>-7.86</v>
+        <v>-7.83</v>
       </c>
       <c r="C173">
-        <v>-7.18</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+        <v>-7.4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>175</v>
       </c>
       <c r="B174">
-        <v>-5.32</v>
+        <v>-5.28</v>
       </c>
       <c r="C174">
-        <v>-0.24</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>176</v>
       </c>
       <c r="B175">
-        <v>-5.09</v>
+        <v>-5.05</v>
       </c>
       <c r="C175">
-        <v>-4.77</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <v>-4.97</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>177</v>
       </c>
       <c r="B176">
-        <v>-4.05</v>
+        <v>-4.0199999999999996</v>
       </c>
       <c r="C176">
-        <v>-3.42</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+        <v>-3.61</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>178</v>
       </c>
       <c r="B177">
-        <v>-2.85</v>
+        <v>-2.79</v>
       </c>
       <c r="C177">
-        <v>-5.17</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+        <v>-4.54</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>179</v>
       </c>
       <c r="B178">
-        <v>-3.87</v>
+        <v>-3.82</v>
       </c>
       <c r="C178">
-        <v>-2.82</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+        <v>-3.16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>180</v>
       </c>
       <c r="B179">
-        <v>12.62</v>
+        <v>12.69</v>
       </c>
       <c r="C179">
-        <v>8.859999999999999</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+        <v>10.210000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>181</v>
       </c>
       <c r="B180">
-        <v>-3.95</v>
+        <v>-3.94</v>
       </c>
       <c r="C180">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>182</v>
       </c>
       <c r="B181">
-        <v>-2.76</v>
+        <v>-2.7</v>
       </c>
       <c r="C181">
-        <v>3.23</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>183</v>
       </c>
       <c r="B182">
-        <v>-2.81</v>
+        <v>-2.77</v>
       </c>
       <c r="C182">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>184</v>
       </c>
       <c r="B183">
-        <v>0.19</v>
+        <v>-0.61</v>
       </c>
       <c r="C183">
-        <v>-2.21</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+        <v>-2.42</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>185</v>
       </c>
       <c r="B184">
-        <v>-5.54</v>
+        <v>-5.51</v>
       </c>
       <c r="C184">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+        <v>-0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>186</v>
       </c>
       <c r="B185">
-        <v>-8.42</v>
+        <v>-8.4</v>
       </c>
       <c r="C185">
-        <v>-7.36</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <v>-7.58</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>187</v>
       </c>
       <c r="B186">
-        <v>-2.33</v>
+        <v>-2.2799999999999998</v>
       </c>
       <c r="C186">
-        <v>-1.82</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+        <v>-1.41</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>188</v>
       </c>
@@ -3994,54 +4013,54 @@
         <v>0</v>
       </c>
       <c r="C187">
-        <v>-8.41</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+        <v>-8.64</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>189</v>
       </c>
       <c r="B188">
-        <v>-5.52</v>
+        <v>-5.5</v>
       </c>
       <c r="C188">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>190</v>
       </c>
       <c r="B189">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="C189">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>191</v>
       </c>
       <c r="B190">
-        <v>-7.35</v>
+        <v>-7.32</v>
       </c>
       <c r="C190">
-        <v>-4.8</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>-4.99</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>192</v>
       </c>
       <c r="B191">
-        <v>4.23</v>
+        <v>4.32</v>
       </c>
       <c r="C191">
-        <v>-0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>193</v>
       </c>
@@ -4049,142 +4068,142 @@
         <v>0</v>
       </c>
       <c r="C192">
-        <v>-8.44</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <v>-8.66</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>194</v>
       </c>
       <c r="B193">
-        <v>-4.23</v>
+        <v>-4.2</v>
       </c>
       <c r="C193">
-        <v>-3.21</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+        <v>-3.03</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>195</v>
       </c>
       <c r="B194">
-        <v>-7.09</v>
+        <v>-7.06</v>
       </c>
       <c r="C194">
-        <v>-6.86</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+        <v>-7.06</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>196</v>
       </c>
       <c r="B195">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="C195">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>197</v>
       </c>
       <c r="B196">
-        <v>-1.85</v>
+        <v>-1.84</v>
       </c>
       <c r="C196">
-        <v>-1.21</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+        <v>-1.34</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>198</v>
       </c>
       <c r="B197">
-        <v>-1.07</v>
+        <v>-1.01</v>
       </c>
       <c r="C197">
-        <v>-1.41</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+        <v>-1.99</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>199</v>
       </c>
       <c r="B198">
-        <v>-3.73</v>
+        <v>-3.69</v>
       </c>
       <c r="C198">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>200</v>
       </c>
       <c r="B199">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="C199">
-        <v>4.07</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>201</v>
       </c>
       <c r="B200">
-        <v>-8.83</v>
+        <v>-8.81</v>
       </c>
       <c r="C200">
-        <v>-8.199999999999999</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+        <v>-8.44</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>202</v>
       </c>
       <c r="B201">
-        <v>4.46</v>
+        <v>4.55</v>
       </c>
       <c r="C201">
-        <v>4.57</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>203</v>
       </c>
       <c r="B202">
-        <v>-8.26</v>
+        <v>-8.23</v>
       </c>
       <c r="C202">
-        <v>-7.84</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+        <v>-8.08</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>204</v>
       </c>
       <c r="B203">
-        <v>2.29</v>
+        <v>-0.4</v>
       </c>
       <c r="C203">
-        <v>-1.19</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>205</v>
       </c>
       <c r="B204">
-        <v>-5.66</v>
+        <v>-5.63</v>
       </c>
       <c r="C204">
-        <v>-5.74</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+        <v>-5.94</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>206</v>
       </c>
@@ -4192,10 +4211,10 @@
         <v>0</v>
       </c>
       <c r="C205">
-        <v>-8.039999999999999</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+        <v>-8.26</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>207</v>
       </c>
@@ -4203,54 +4222,54 @@
         <v>0</v>
       </c>
       <c r="C206">
-        <v>-7.72</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+        <v>-7.94</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>208</v>
       </c>
       <c r="B207">
-        <v>-6.03</v>
+        <v>-5.99</v>
       </c>
       <c r="C207">
-        <v>-5.63</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+        <v>-5.84</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>209</v>
       </c>
       <c r="B208">
-        <v>0.5</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C208">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>210</v>
       </c>
       <c r="B209">
-        <v>-1.79</v>
+        <v>-1.75</v>
       </c>
       <c r="C209">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>211</v>
       </c>
       <c r="B210">
-        <v>-5.4</v>
+        <v>-5.37</v>
       </c>
       <c r="C210">
-        <v>-7.48</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <v>-7.71</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>212</v>
       </c>
@@ -4258,208 +4277,208 @@
         <v>0</v>
       </c>
       <c r="C211">
-        <v>-7.12</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
+        <v>-7.36</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>213</v>
       </c>
       <c r="B212">
-        <v>-0.9399999999999999</v>
+        <v>-0.89</v>
       </c>
       <c r="C212">
-        <v>-1.78</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
+        <v>-2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>214</v>
       </c>
       <c r="B213">
-        <v>-5.97</v>
+        <v>-5.94</v>
       </c>
       <c r="C213">
-        <v>-0.76</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
+        <v>-0.99</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>215</v>
       </c>
       <c r="B214">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="C214">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>216</v>
       </c>
       <c r="B215">
-        <v>5.87</v>
+        <v>5.97</v>
       </c>
       <c r="C215">
-        <v>3.42</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>217</v>
       </c>
       <c r="B216">
-        <v>2.18</v>
+        <v>2.21</v>
       </c>
       <c r="C216">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>218</v>
       </c>
       <c r="B217">
-        <v>1.84</v>
+        <v>1.26</v>
       </c>
       <c r="C217">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>219</v>
       </c>
       <c r="B218">
-        <v>-11.5</v>
+        <v>-11.48</v>
       </c>
       <c r="C218">
-        <v>-8.1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
+        <v>-8.32</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>220</v>
       </c>
       <c r="B219">
-        <v>5.27</v>
+        <v>5.86</v>
       </c>
       <c r="C219">
-        <v>5.64</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>221</v>
       </c>
       <c r="B220">
-        <v>-7.05</v>
+        <v>-7.02</v>
       </c>
       <c r="C220">
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>222</v>
       </c>
       <c r="B221">
-        <v>-9.029999999999999</v>
+        <v>-9.01</v>
       </c>
       <c r="C221">
-        <v>-8.44</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
+        <v>-8.66</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>223</v>
       </c>
       <c r="B222">
-        <v>-3.22</v>
+        <v>-3.19</v>
       </c>
       <c r="C222">
-        <v>-2.1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
+        <v>-2.86</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>224</v>
       </c>
       <c r="B223">
-        <v>5.45</v>
+        <v>5.53</v>
       </c>
       <c r="C223">
-        <v>5.85</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>225</v>
       </c>
       <c r="B224">
-        <v>5.37</v>
+        <v>5.44</v>
       </c>
       <c r="C224">
-        <v>6.94</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>226</v>
       </c>
       <c r="B225">
-        <v>-4.75</v>
+        <v>-4.71</v>
       </c>
       <c r="C225">
-        <v>-3.39</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
+        <v>-3.1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>227</v>
       </c>
       <c r="B226">
-        <v>-6.71</v>
+        <v>-6.68</v>
       </c>
       <c r="C226">
-        <v>-5.95</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
+        <v>-5.18</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>228</v>
       </c>
       <c r="B227">
-        <v>2.83</v>
+        <v>2.91</v>
       </c>
       <c r="C227">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>229</v>
       </c>
       <c r="B228">
-        <v>-7.97</v>
+        <v>-7.95</v>
       </c>
       <c r="C228">
-        <v>-4.1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
+        <v>-4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>230</v>
       </c>
       <c r="B229">
-        <v>11.01</v>
+        <v>11.12</v>
       </c>
       <c r="C229">
-        <v>9.42</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>231</v>
       </c>
@@ -4467,65 +4486,65 @@
         <v>0</v>
       </c>
       <c r="C230">
-        <v>-6.64</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
+        <v>-6.84</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>232</v>
       </c>
       <c r="B231">
-        <v>-6.77</v>
+        <v>-6.75</v>
       </c>
       <c r="C231">
-        <v>-5.28</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
+        <v>-5.46</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>233</v>
       </c>
       <c r="B232">
-        <v>-5.42</v>
+        <v>-5.38</v>
       </c>
       <c r="C232">
-        <v>-5.05</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
+        <v>-5.27</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>234</v>
       </c>
       <c r="B233">
-        <v>-4.49</v>
+        <v>-4.46</v>
       </c>
       <c r="C233">
-        <v>-2.61</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
+        <v>-2.27</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>235</v>
       </c>
       <c r="B234">
-        <v>-5.46</v>
+        <v>-5.44</v>
       </c>
       <c r="C234">
-        <v>-4.58</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
+        <v>-4.79</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>236</v>
       </c>
       <c r="B235">
-        <v>-8.140000000000001</v>
+        <v>-8.1199999999999992</v>
       </c>
       <c r="C235">
-        <v>-1.85</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>237</v>
       </c>
@@ -4533,98 +4552,98 @@
         <v>0</v>
       </c>
       <c r="C236">
-        <v>-7.25</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
+        <v>-7.47</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>238</v>
       </c>
       <c r="B237">
-        <v>4.98</v>
+        <v>5.04</v>
       </c>
       <c r="C237">
-        <v>5.58</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>239</v>
       </c>
       <c r="B238">
-        <v>-1.21</v>
+        <v>-1.18</v>
       </c>
       <c r="C238">
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>240</v>
       </c>
       <c r="B239">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="C239">
-        <v>4.08</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>241</v>
       </c>
       <c r="B240">
-        <v>-8.31</v>
+        <v>-8.2799999999999994</v>
       </c>
       <c r="C240">
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>242</v>
       </c>
       <c r="B241">
-        <v>-0.53</v>
+        <v>-0.5</v>
       </c>
       <c r="C241">
-        <v>-0.8100000000000001</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
+        <v>-2.48</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>243</v>
       </c>
       <c r="B242">
-        <v>-5.56</v>
+        <v>-5.55</v>
       </c>
       <c r="C242">
-        <v>-1.44</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
+        <v>-1.59</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>244</v>
       </c>
       <c r="B243">
-        <v>-0.9</v>
+        <v>-0.87</v>
       </c>
       <c r="C243">
-        <v>3.08</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>245</v>
       </c>
       <c r="B244">
-        <v>3.67</v>
+        <v>3.74</v>
       </c>
       <c r="C244">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>246</v>
       </c>
@@ -4632,10 +4651,10 @@
         <v>0</v>
       </c>
       <c r="C245">
-        <v>-7.01</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
+        <v>-7.23</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>247</v>
       </c>
@@ -4643,54 +4662,54 @@
         <v>0</v>
       </c>
       <c r="C246">
-        <v>-4.49</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
+        <v>-5.73</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>248</v>
       </c>
       <c r="B247">
-        <v>-5.39</v>
+        <v>-5.34</v>
       </c>
       <c r="C247">
-        <v>-2.4</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
+        <v>-2.62</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>249</v>
       </c>
       <c r="B248">
-        <v>-5.21</v>
+        <v>-5.18</v>
       </c>
       <c r="C248">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>250</v>
       </c>
       <c r="B249">
-        <v>-6.26</v>
+        <v>-6.23</v>
       </c>
       <c r="C249">
-        <v>-7.62</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
+        <v>-7.85</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>251</v>
       </c>
       <c r="B250">
-        <v>9.109999999999999</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="C250">
-        <v>10.42</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>252</v>
       </c>
@@ -4698,10 +4717,10 @@
         <v>0</v>
       </c>
       <c r="C251">
-        <v>-7.01</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
+        <v>-7.23</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>253</v>
       </c>
@@ -4709,263 +4728,263 @@
         <v>0</v>
       </c>
       <c r="C252">
-        <v>-6.16</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
+        <v>-6.73</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>254</v>
       </c>
       <c r="B253">
-        <v>-7.48</v>
+        <v>-7.45</v>
       </c>
       <c r="C253">
-        <v>-5.47</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
+        <v>-5.67</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>255</v>
       </c>
       <c r="B254">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="C254">
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>256</v>
       </c>
       <c r="B255">
-        <v>-6.59</v>
+        <v>-6.56</v>
       </c>
       <c r="C255">
-        <v>-2.62</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
+        <v>-2.97</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>257</v>
       </c>
       <c r="B256">
-        <v>0.51</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C256">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>258</v>
       </c>
       <c r="B257">
-        <v>-4.75</v>
+        <v>-4.7300000000000004</v>
       </c>
       <c r="C257">
-        <v>-5.36</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
+        <v>-5.49</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>259</v>
       </c>
       <c r="B258">
-        <v>-8.82</v>
+        <v>-8.7899999999999991</v>
       </c>
       <c r="C258">
-        <v>-5.6</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
+        <v>-5.64</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>260</v>
       </c>
       <c r="B259">
-        <v>-7.26</v>
+        <v>-7.23</v>
       </c>
       <c r="C259">
-        <v>-6.97</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
+        <v>-7.19</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>261</v>
       </c>
       <c r="B260">
-        <v>5.66</v>
+        <v>5.73</v>
       </c>
       <c r="C260">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>262</v>
       </c>
       <c r="B261">
-        <v>-5.61</v>
+        <v>-5.58</v>
       </c>
       <c r="C261">
-        <v>-6.32</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
+        <v>-4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>263</v>
       </c>
       <c r="B262">
-        <v>-5.26</v>
+        <v>-5.23</v>
       </c>
       <c r="C262">
-        <v>-7.43</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
+        <v>-7.65</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>264</v>
       </c>
       <c r="B263">
-        <v>12.46</v>
+        <v>12.54</v>
       </c>
       <c r="C263">
-        <v>4.13</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>265</v>
       </c>
       <c r="B264">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C264">
-        <v>6.17</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>266</v>
       </c>
       <c r="B265">
-        <v>-2.7</v>
+        <v>-2.66</v>
       </c>
       <c r="C265">
-        <v>-1.48</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
+        <v>-1.64</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>267</v>
       </c>
       <c r="B266">
-        <v>-8.369999999999999</v>
+        <v>-8.35</v>
       </c>
       <c r="C266">
-        <v>-6.57</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
+        <v>-6.79</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>268</v>
       </c>
       <c r="B267">
-        <v>-5.93</v>
+        <v>-5.9</v>
       </c>
       <c r="C267">
-        <v>-9.210000000000001</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
+        <v>-7.92</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>269</v>
       </c>
       <c r="B268">
-        <v>-7.44</v>
+        <v>-7.4</v>
       </c>
       <c r="C268">
-        <v>-2.19</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
+        <v>-2.37</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>270</v>
       </c>
       <c r="B269">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="C269">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>271</v>
       </c>
       <c r="B270">
-        <v>-1.14</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="C270">
-        <v>-2.47</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
+        <v>-1.82</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>272</v>
       </c>
       <c r="B271">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="C271">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
+        <v>-1.63</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>273</v>
       </c>
       <c r="B272">
-        <v>-3.99</v>
+        <v>-3.97</v>
       </c>
       <c r="C272">
-        <v>-2.29</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
+        <v>-2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>274</v>
       </c>
       <c r="B273">
-        <v>-0.68</v>
+        <v>-0.6</v>
       </c>
       <c r="C273">
-        <v>-0.59</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
+        <v>-0.82</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>275</v>
       </c>
       <c r="B274">
-        <v>-3.53</v>
+        <v>-3.48</v>
       </c>
       <c r="C274">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>276</v>
       </c>
       <c r="B275">
-        <v>-5.78</v>
+        <v>-5.75</v>
       </c>
       <c r="C275">
-        <v>-6.64</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
+        <v>-6.86</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>277</v>
       </c>
@@ -4973,175 +4992,175 @@
         <v>0</v>
       </c>
       <c r="C276">
-        <v>-9.289999999999999</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
+        <v>-8.0299999999999994</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>278</v>
       </c>
       <c r="B277">
-        <v>3.14</v>
+        <v>3.23</v>
       </c>
       <c r="C277">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>279</v>
       </c>
       <c r="B278">
-        <v>-7.09</v>
+        <v>-7.07</v>
       </c>
       <c r="C278">
-        <v>-6.95</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
+        <v>-6.77</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>280</v>
       </c>
       <c r="B279">
-        <v>-1.07</v>
+        <v>-1.01</v>
       </c>
       <c r="C279">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>281</v>
       </c>
       <c r="B280">
-        <v>2.84</v>
+        <v>2.91</v>
       </c>
       <c r="C280">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>282</v>
       </c>
       <c r="B281">
-        <v>-2.19</v>
+        <v>-2.15</v>
       </c>
       <c r="C281">
-        <v>-4.49</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
+        <v>-4.7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>283</v>
       </c>
       <c r="B282">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="C282">
-        <v>5.85</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>284</v>
       </c>
       <c r="B283">
-        <v>-4.63</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="C283">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
+        <v>-7.21</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>285</v>
       </c>
       <c r="B284">
-        <v>-5.39</v>
+        <v>-5.36</v>
       </c>
       <c r="C284">
-        <v>-4.12</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
+        <v>-4.34</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>286</v>
       </c>
       <c r="B285">
-        <v>-1.49</v>
+        <v>-1.43</v>
       </c>
       <c r="C285">
-        <v>-4.21</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
+        <v>-4.42</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>287</v>
       </c>
       <c r="B286">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="C286">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>288</v>
       </c>
       <c r="B287">
-        <v>-8.109999999999999</v>
+        <v>-8.09</v>
       </c>
       <c r="C287">
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>289</v>
       </c>
       <c r="B288">
-        <v>0.02</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C288">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>290</v>
       </c>
       <c r="B289">
-        <v>-6.74</v>
+        <v>-6.7</v>
       </c>
       <c r="C289">
-        <v>-4.8</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3">
+        <v>-4.99</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>291</v>
       </c>
       <c r="B290">
-        <v>-2.84</v>
+        <v>-2.78</v>
       </c>
       <c r="C290">
-        <v>-1.54</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
+        <v>-1.73</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>292</v>
       </c>
       <c r="B291">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="C291">
-        <v>3.74</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>293</v>
       </c>
@@ -5149,208 +5168,208 @@
         <v>0</v>
       </c>
       <c r="C292">
-        <v>-6.86</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
+        <v>-7.69</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>294</v>
       </c>
       <c r="B293">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="C293">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>295</v>
       </c>
       <c r="B294">
-        <v>-7.46</v>
+        <v>-7.43</v>
       </c>
       <c r="C294">
-        <v>-6.13</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
+        <v>-6.33</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>296</v>
       </c>
       <c r="B295">
-        <v>-9.25</v>
+        <v>-9.23</v>
       </c>
       <c r="C295">
-        <v>-5.48</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
+        <v>-5.67</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>297</v>
       </c>
       <c r="B296">
-        <v>8.19</v>
+        <v>8.26</v>
       </c>
       <c r="C296">
-        <v>9.49</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
+        <v>9.67</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>298</v>
       </c>
       <c r="B297">
-        <v>-3.35</v>
+        <v>-3.32</v>
       </c>
       <c r="C297">
-        <v>-5.81</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3">
+        <v>-5.99</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>299</v>
       </c>
       <c r="B298">
-        <v>4.78</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="C298">
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>300</v>
       </c>
       <c r="B299">
-        <v>-3.98</v>
+        <v>-3.94</v>
       </c>
       <c r="C299">
-        <v>-2.58</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3">
+        <v>-2.77</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>301</v>
       </c>
       <c r="B300">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="C300">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>302</v>
       </c>
       <c r="B301">
-        <v>-7.44</v>
+        <v>-7.41</v>
       </c>
       <c r="C301">
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>303</v>
       </c>
       <c r="B302">
-        <v>-7.13</v>
+        <v>-7.12</v>
       </c>
       <c r="C302">
-        <v>-4.99</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3">
+        <v>-5.18</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>304</v>
       </c>
       <c r="B303">
-        <v>-1.98</v>
+        <v>-1.92</v>
       </c>
       <c r="C303">
-        <v>-0.38</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3">
+        <v>-1.17</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>305</v>
       </c>
       <c r="B304">
-        <v>-0.12</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="C304">
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>306</v>
       </c>
       <c r="B305">
-        <v>-1.15</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="C305">
-        <v>-2.23</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>307</v>
       </c>
       <c r="B306">
-        <v>-5.76</v>
+        <v>-5.73</v>
       </c>
       <c r="C306">
-        <v>-6.11</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3">
+        <v>-3.94</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>308</v>
       </c>
       <c r="B307">
-        <v>-1.34</v>
+        <v>-1.29</v>
       </c>
       <c r="C307">
-        <v>-0.64</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3">
+        <v>-0.91</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>309</v>
       </c>
       <c r="B308">
-        <v>-5.84</v>
+        <v>-5.82</v>
       </c>
       <c r="C308">
-        <v>-2.23</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3">
+        <v>-3.33</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>310</v>
       </c>
       <c r="B309">
-        <v>-2.2</v>
+        <v>-2.16</v>
       </c>
       <c r="C309">
-        <v>-0.66</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3">
+        <v>-0.83</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>311</v>
       </c>
       <c r="B310">
-        <v>-6.18</v>
+        <v>-6.14</v>
       </c>
       <c r="C310">
-        <v>-4.95</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3">
+        <v>-4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>312</v>
       </c>
@@ -5358,285 +5377,285 @@
         <v>0</v>
       </c>
       <c r="C311">
-        <v>-8.56</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3">
+        <v>-8.7799999999999994</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>313</v>
       </c>
       <c r="B312">
-        <v>9.369999999999999</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="C312">
-        <v>10.16</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>314</v>
       </c>
       <c r="B313">
-        <v>-1.08</v>
+        <v>-1.02</v>
       </c>
       <c r="C313">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>315</v>
       </c>
       <c r="B314">
-        <v>-4.36</v>
+        <v>-4.3099999999999996</v>
       </c>
       <c r="C314">
-        <v>-3.84</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3">
+        <v>-4.05</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>316</v>
       </c>
       <c r="B315">
-        <v>-1.84</v>
+        <v>-1.78</v>
       </c>
       <c r="C315">
-        <v>-3.93</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3">
+        <v>-4.41</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>317</v>
       </c>
       <c r="B316">
-        <v>-6.48</v>
+        <v>-6.46</v>
       </c>
       <c r="C316">
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>318</v>
       </c>
       <c r="B317">
-        <v>0.59</v>
+        <v>0.67</v>
       </c>
       <c r="C317">
-        <v>-0.79</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3">
+        <v>-1.01</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>319</v>
       </c>
       <c r="B318">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="C318">
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>320</v>
       </c>
       <c r="B319">
-        <v>-6.57</v>
+        <v>-6.53</v>
       </c>
       <c r="C319">
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>321</v>
       </c>
       <c r="B320">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="C320">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>322</v>
       </c>
       <c r="B321">
-        <v>-9.35</v>
+        <v>-9.33</v>
       </c>
       <c r="C321">
-        <v>-7.14</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3">
+        <v>-6.86</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>323</v>
       </c>
       <c r="B322">
-        <v>-6.64</v>
+        <v>-6.6</v>
       </c>
       <c r="C322">
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>324</v>
       </c>
       <c r="B323">
-        <v>-1.47</v>
+        <v>-1.43</v>
       </c>
       <c r="C323">
-        <v>-1.39</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3">
+        <v>-1.04</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>325</v>
       </c>
       <c r="B324">
-        <v>-7.66</v>
+        <v>-7.64</v>
       </c>
       <c r="C324">
-        <v>-6.4</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3">
+        <v>-6.65</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>326</v>
       </c>
       <c r="B325">
-        <v>4.55</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="C325">
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>327</v>
       </c>
       <c r="B326">
-        <v>-2.55</v>
+        <v>-2.52</v>
       </c>
       <c r="C326">
-        <v>-1.7</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>328</v>
       </c>
       <c r="B327">
-        <v>-5.54</v>
+        <v>-5.52</v>
       </c>
       <c r="C327">
-        <v>-3.85</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3">
+        <v>-4.07</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>329</v>
       </c>
       <c r="B328">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="C328">
-        <v>-0.66</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3">
+        <v>-1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>330</v>
       </c>
       <c r="B329">
-        <v>-0.63</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="C329">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>331</v>
       </c>
       <c r="B330">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="C330">
-        <v>8.77</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3">
+        <v>8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>332</v>
       </c>
       <c r="B331">
-        <v>-2.41</v>
+        <v>-2.36</v>
       </c>
       <c r="C331">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>333</v>
       </c>
       <c r="B332">
-        <v>8.609999999999999</v>
+        <v>8.73</v>
       </c>
       <c r="C332">
-        <v>9.449999999999999</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3">
+        <v>9.2799999999999994</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>334</v>
       </c>
       <c r="B333">
-        <v>-2.83</v>
+        <v>-2.81</v>
       </c>
       <c r="C333">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>335</v>
       </c>
       <c r="B334">
-        <v>6.14</v>
+        <v>6.22</v>
       </c>
       <c r="C334">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>336</v>
       </c>
       <c r="B335">
-        <v>6.57</v>
+        <v>6.64</v>
       </c>
       <c r="C335">
-        <v>8.789999999999999</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>337</v>
       </c>
       <c r="B336">
-        <v>-5.17</v>
+        <v>-5.15</v>
       </c>
       <c r="C336">
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>338</v>
       </c>
@@ -5644,10 +5663,10 @@
         <v>0</v>
       </c>
       <c r="C337">
-        <v>-6.68</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3">
+        <v>-6.89</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>339</v>
       </c>
@@ -5655,87 +5674,87 @@
         <v>0</v>
       </c>
       <c r="C338">
-        <v>-9.199999999999999</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3">
+        <v>-9.42</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>340</v>
       </c>
       <c r="B339">
-        <v>-3.64</v>
+        <v>-3.6</v>
       </c>
       <c r="C339">
-        <v>-4.07</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3">
+        <v>-4.28</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>341</v>
       </c>
       <c r="B340">
-        <v>-1</v>
+        <v>-0.95</v>
       </c>
       <c r="C340">
-        <v>-3.43</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3">
+        <v>-3.64</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>342</v>
       </c>
       <c r="B341">
-        <v>-0.22</v>
+        <v>-0.17</v>
       </c>
       <c r="C341">
-        <v>2.61</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>343</v>
       </c>
       <c r="B342">
-        <v>14.24</v>
+        <v>14.36</v>
       </c>
       <c r="C342">
-        <v>8.119999999999999</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>344</v>
       </c>
       <c r="B343">
-        <v>-8.449999999999999</v>
+        <v>-8.42</v>
       </c>
       <c r="C343">
-        <v>-8.41</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3">
+        <v>-8.65</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>345</v>
       </c>
       <c r="B344">
-        <v>-1.14</v>
+        <v>-2.69</v>
       </c>
       <c r="C344">
-        <v>-0.98</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3">
+        <v>-1.19</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>346</v>
       </c>
       <c r="B345">
-        <v>-2.77</v>
+        <v>-2.75</v>
       </c>
       <c r="C345">
-        <v>-1.86</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>347</v>
       </c>
@@ -5743,10 +5762,10 @@
         <v>0</v>
       </c>
       <c r="C346">
-        <v>-4.63</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3">
+        <v>-4.8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>348</v>
       </c>
@@ -5754,32 +5773,32 @@
         <v>0</v>
       </c>
       <c r="C347">
-        <v>-6.73</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3">
+        <v>-6.95</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>349</v>
       </c>
       <c r="B348">
-        <v>-5.37</v>
+        <v>-5.32</v>
       </c>
       <c r="C348">
-        <v>-1.58</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3">
+        <v>-2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>350</v>
       </c>
       <c r="B349">
-        <v>-1.38</v>
+        <v>-1.32</v>
       </c>
       <c r="C349">
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>351</v>
       </c>
@@ -5787,76 +5806,76 @@
         <v>0</v>
       </c>
       <c r="C350">
-        <v>-8.960000000000001</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3">
+        <v>-9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>352</v>
       </c>
       <c r="B351">
-        <v>-2.87</v>
+        <v>-2.81</v>
       </c>
       <c r="C351">
-        <v>-2.83</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3">
+        <v>-2.12</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>353</v>
       </c>
       <c r="B352">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="C352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>354</v>
       </c>
       <c r="B353">
-        <v>-6.87</v>
+        <v>-6.84</v>
       </c>
       <c r="C353">
-        <v>-7.09</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3">
+        <v>-7.3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>355</v>
       </c>
       <c r="B354">
-        <v>-3.67</v>
+        <v>-3.62</v>
       </c>
       <c r="C354">
-        <v>-6.6</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3">
+        <v>-5.16</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>356</v>
       </c>
       <c r="B355">
-        <v>-1.13</v>
+        <v>-1.07</v>
       </c>
       <c r="C355">
-        <v>-2.75</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3">
+        <v>-2.92</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>357</v>
       </c>
       <c r="B356">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="C356">
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>358</v>
       </c>
@@ -5864,21 +5883,21 @@
         <v>0</v>
       </c>
       <c r="C357">
-        <v>-7.04</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3">
+        <v>-7.26</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>359</v>
       </c>
       <c r="B358">
-        <v>-4.44</v>
+        <v>-4.41</v>
       </c>
       <c r="C358">
-        <v>-6.44</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3">
+        <v>-6.65</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>360</v>
       </c>
@@ -5886,208 +5905,208 @@
         <v>0</v>
       </c>
       <c r="C359">
-        <v>-8.1</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3">
+        <v>-8.32</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>361</v>
       </c>
       <c r="B360">
-        <v>-4.47</v>
+        <v>-4.45</v>
       </c>
       <c r="C360">
-        <v>-3.65</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3">
+        <v>-3.87</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>362</v>
       </c>
       <c r="B361">
-        <v>-4.9</v>
+        <v>-4.87</v>
       </c>
       <c r="C361">
-        <v>-6.39</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3">
+        <v>-6.14</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>363</v>
       </c>
       <c r="B362">
-        <v>-2.71</v>
+        <v>-2.68</v>
       </c>
       <c r="C362">
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>364</v>
       </c>
       <c r="B363">
-        <v>-7.63</v>
+        <v>-7.6</v>
       </c>
       <c r="C363">
-        <v>-8.380000000000001</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3">
+        <v>-8.75</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>365</v>
       </c>
       <c r="B364">
-        <v>-4.71</v>
+        <v>-4.67</v>
       </c>
       <c r="C364">
-        <v>-4.68</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3">
+        <v>-4.87</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>366</v>
       </c>
       <c r="B365">
-        <v>-0.85</v>
+        <v>-0.79</v>
       </c>
       <c r="C365">
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>367</v>
       </c>
       <c r="B366">
-        <v>-5.56</v>
+        <v>-5.54</v>
       </c>
       <c r="C366">
-        <v>-4.81</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3">
+        <v>-5.01</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>368</v>
       </c>
       <c r="B367">
-        <v>-10.31</v>
+        <v>-10.29</v>
       </c>
       <c r="C367">
-        <v>-8.1</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3">
+        <v>-8.32</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>369</v>
       </c>
       <c r="B368">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="C368">
-        <v>4.51</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>370</v>
       </c>
       <c r="B369">
-        <v>3.24</v>
+        <v>3.31</v>
       </c>
       <c r="C369">
-        <v>2.24</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>371</v>
       </c>
       <c r="B370">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="C370">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>372</v>
       </c>
       <c r="B371">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="C371">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>373</v>
       </c>
       <c r="B372">
-        <v>-0.46</v>
+        <v>-0.39</v>
       </c>
       <c r="C372">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>374</v>
       </c>
       <c r="B373">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="C373">
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>375</v>
       </c>
       <c r="B374">
-        <v>-3.34</v>
+        <v>-3.31</v>
       </c>
       <c r="C374">
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>376</v>
       </c>
       <c r="B375">
-        <v>-5.47</v>
+        <v>-5.43</v>
       </c>
       <c r="C375">
-        <v>-5.33</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3">
+        <v>-5.55</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>377</v>
       </c>
       <c r="B376">
-        <v>-2.21</v>
+        <v>-2.1800000000000002</v>
       </c>
       <c r="C376">
-        <v>-0.14</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3">
+        <v>-0.81</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>378</v>
       </c>
       <c r="B377">
-        <v>-4.05</v>
+        <v>-4.01</v>
       </c>
       <c r="C377">
-        <v>-2.56</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3">
+        <v>-2.76</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>379</v>
       </c>
@@ -6095,54 +6114,54 @@
         <v>0</v>
       </c>
       <c r="C378">
-        <v>-8.23</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3">
+        <v>-8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>380</v>
       </c>
       <c r="B379">
-        <v>-9.029999999999999</v>
+        <v>-9.02</v>
       </c>
       <c r="C379">
-        <v>-3.11</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3">
+        <v>-3.3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>381</v>
       </c>
       <c r="B380">
-        <v>4.03</v>
+        <v>4.07</v>
       </c>
       <c r="C380">
-        <v>3.98</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>382</v>
       </c>
       <c r="B381">
-        <v>-3.45</v>
+        <v>-3.41</v>
       </c>
       <c r="C381">
-        <v>-0.77</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3">
+        <v>-0.95</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>383</v>
       </c>
       <c r="B382">
-        <v>-7.55</v>
+        <v>-7.53</v>
       </c>
       <c r="C382">
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>384</v>
       </c>
@@ -6150,219 +6169,219 @@
         <v>0</v>
       </c>
       <c r="C383">
-        <v>-5.18</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3">
+        <v>-5.39</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>385</v>
       </c>
       <c r="B384">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="C384">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>386</v>
       </c>
       <c r="B385">
-        <v>-0.39</v>
+        <v>-0.38</v>
       </c>
       <c r="C385">
-        <v>-2.19</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3">
+        <v>-2.25</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>387</v>
       </c>
       <c r="B386">
-        <v>-0.39</v>
+        <v>-0.38</v>
       </c>
       <c r="C386">
-        <v>3.31</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>388</v>
       </c>
       <c r="B387">
-        <v>-7.35</v>
+        <v>-7.31</v>
       </c>
       <c r="C387">
-        <v>-7.4</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3">
+        <v>-7.62</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>389</v>
       </c>
       <c r="B388">
-        <v>-1.75</v>
+        <v>-1.7</v>
       </c>
       <c r="C388">
-        <v>-0.52</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>390</v>
       </c>
       <c r="B389">
-        <v>-2.27</v>
+        <v>-2.23</v>
       </c>
       <c r="C389">
-        <v>-2.95</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3">
+        <v>-3.24</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>391</v>
       </c>
       <c r="B390">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="C390">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>392</v>
       </c>
       <c r="B391">
-        <v>-6.53</v>
+        <v>-6.49</v>
       </c>
       <c r="C391">
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>393</v>
       </c>
       <c r="B392">
-        <v>15.01</v>
+        <v>15.1</v>
       </c>
       <c r="C392">
-        <v>18.38</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3">
+        <v>18.309999999999999</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>394</v>
       </c>
       <c r="B393">
-        <v>-1.44</v>
+        <v>-1.38</v>
       </c>
       <c r="C393">
-        <v>-1.99</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3">
+        <v>-2.19</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>395</v>
       </c>
       <c r="B394">
-        <v>5.46</v>
+        <v>5.52</v>
       </c>
       <c r="C394">
-        <v>7.86</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3">
+        <v>8.09</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>396</v>
       </c>
       <c r="B395">
-        <v>-0.49</v>
+        <v>-0.46</v>
       </c>
       <c r="C395">
-        <v>-3.24</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3">
+        <v>-3.62</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>397</v>
       </c>
       <c r="B396">
-        <v>2.13</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C396">
-        <v>7.35</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>398</v>
       </c>
       <c r="B397">
-        <v>2.37</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="C397">
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>399</v>
       </c>
       <c r="B398">
-        <v>-2.31</v>
+        <v>-2.27</v>
       </c>
       <c r="C398">
-        <v>-1.57</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3">
+        <v>-1.93</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>400</v>
       </c>
       <c r="B399">
-        <v>-5.46</v>
+        <v>-5.42</v>
       </c>
       <c r="C399">
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>401</v>
       </c>
       <c r="B400">
-        <v>-8.859999999999999</v>
+        <v>-8.84</v>
       </c>
       <c r="C400">
-        <v>-8.130000000000001</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3">
+        <v>-8.35</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>402</v>
       </c>
       <c r="B401">
-        <v>3.17</v>
+        <v>3.2</v>
       </c>
       <c r="C401">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>403</v>
       </c>
       <c r="B402">
-        <v>-7.21</v>
+        <v>-7.19</v>
       </c>
       <c r="C402">
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>404</v>
       </c>
@@ -6370,109 +6389,109 @@
         <v>0</v>
       </c>
       <c r="C403">
-        <v>-4.71</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3">
+        <v>-4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>405</v>
       </c>
       <c r="B404">
-        <v>-7.61</v>
+        <v>-7.58</v>
       </c>
       <c r="C404">
-        <v>-3.94</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3">
+        <v>-4.37</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>406</v>
       </c>
       <c r="B405">
-        <v>-8.470000000000001</v>
+        <v>-8.4499999999999993</v>
       </c>
       <c r="C405">
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>407</v>
       </c>
       <c r="B406">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C406">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>408</v>
       </c>
       <c r="B407">
-        <v>-8.23</v>
+        <v>-8.2100000000000009</v>
       </c>
       <c r="C407">
-        <v>-7.04</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3">
+        <v>-7.27</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>409</v>
       </c>
       <c r="B408">
-        <v>-8.869999999999999</v>
+        <v>-8.85</v>
       </c>
       <c r="C408">
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>410</v>
       </c>
       <c r="B409">
-        <v>-8.48</v>
+        <v>-8.4600000000000009</v>
       </c>
       <c r="C409">
-        <v>-7.45</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3">
+        <v>-7.67</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>411</v>
       </c>
       <c r="B410">
-        <v>2.79</v>
+        <v>2.86</v>
       </c>
       <c r="C410">
-        <v>5.61</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>412</v>
       </c>
       <c r="B411">
-        <v>3</v>
+        <v>3.06</v>
       </c>
       <c r="C411">
-        <v>4.22</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>413</v>
       </c>
       <c r="B412">
-        <v>-4.26</v>
+        <v>-4.22</v>
       </c>
       <c r="C412">
-        <v>-4.92</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3">
+        <v>-4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>414</v>
       </c>
@@ -6480,10 +6499,10 @@
         <v>0</v>
       </c>
       <c r="C413">
-        <v>-7.48</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3">
+        <v>-7.69</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>415</v>
       </c>
@@ -6491,109 +6510,109 @@
         <v>0</v>
       </c>
       <c r="C414">
-        <v>-6.61</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3">
+        <v>-6.83</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>416</v>
       </c>
       <c r="B415">
-        <v>-1.2</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="C415">
-        <v>-0.14</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>417</v>
       </c>
       <c r="B416">
-        <v>-7.16</v>
+        <v>-7.13</v>
       </c>
       <c r="C416">
-        <v>-4.41</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3">
+        <v>-4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>418</v>
       </c>
       <c r="B417">
-        <v>6.37</v>
+        <v>6.46</v>
       </c>
       <c r="C417">
-        <v>5.68</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>419</v>
       </c>
       <c r="B418">
-        <v>-3.03</v>
+        <v>-3.01</v>
       </c>
       <c r="C418">
-        <v>-1.95</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3">
+        <v>-2.99</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>420</v>
       </c>
       <c r="B419">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="C419">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>421</v>
       </c>
       <c r="B420">
-        <v>-7.32</v>
+        <v>-7.29</v>
       </c>
       <c r="C420">
-        <v>-4.97</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3">
+        <v>-5.2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>422</v>
       </c>
       <c r="B421">
-        <v>-2.56</v>
+        <v>-2.5299999999999998</v>
       </c>
       <c r="C421">
-        <v>-1.59</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3">
+        <v>-1.78</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>423</v>
       </c>
       <c r="B422">
-        <v>-4.47</v>
+        <v>-4.45</v>
       </c>
       <c r="C422">
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>424</v>
       </c>
       <c r="B423">
-        <v>-5.55</v>
+        <v>-5.51</v>
       </c>
       <c r="C423">
-        <v>-5.23</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3">
+        <v>-5.44</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>425</v>
       </c>
@@ -6601,43 +6620,43 @@
         <v>0</v>
       </c>
       <c r="C424">
-        <v>-4.65</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3">
+        <v>-4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>426</v>
       </c>
       <c r="B425">
-        <v>-8.44</v>
+        <v>-8.42</v>
       </c>
       <c r="C425">
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>427</v>
       </c>
       <c r="B426">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="C426">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>428</v>
       </c>
       <c r="B427">
-        <v>-4.96</v>
+        <v>-4.9400000000000004</v>
       </c>
       <c r="C427">
-        <v>-5.09</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3">
+        <v>-5.3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>429</v>
       </c>
@@ -6645,54 +6664,54 @@
         <v>0</v>
       </c>
       <c r="C428">
-        <v>-6.2</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3">
+        <v>-6.41</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>430</v>
       </c>
       <c r="B429">
-        <v>-1.3</v>
+        <v>-2.75</v>
       </c>
       <c r="C429">
-        <v>-5.06</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3">
+        <v>-5.4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>431</v>
       </c>
       <c r="B430">
-        <v>-5.95</v>
+        <v>-5.91</v>
       </c>
       <c r="C430">
-        <v>-7.24</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3">
+        <v>-5.21</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>432</v>
       </c>
       <c r="B431">
-        <v>-5.57</v>
+        <v>-5.55</v>
       </c>
       <c r="C431">
-        <v>-7.19</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3">
+        <v>-7.4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>433</v>
       </c>
       <c r="B432">
-        <v>-8.76</v>
+        <v>-8.73</v>
       </c>
       <c r="C432">
-        <v>-6.48</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3">
+        <v>-7.18</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>434</v>
       </c>
@@ -6700,274 +6719,274 @@
         <v>0</v>
       </c>
       <c r="C433">
-        <v>-8.039999999999999</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3">
+        <v>-8.26</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>435</v>
       </c>
       <c r="B434">
-        <v>-3.86</v>
+        <v>-3.81</v>
       </c>
       <c r="C434">
-        <v>-5.65</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3">
+        <v>-5.86</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>436</v>
       </c>
       <c r="B435">
-        <v>-2.45</v>
+        <v>-2.44</v>
       </c>
       <c r="C435">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>437</v>
       </c>
       <c r="B436">
-        <v>-3.15</v>
+        <v>-3.12</v>
       </c>
       <c r="C436">
-        <v>-4.64</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3">
+        <v>-4.88</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>438</v>
       </c>
       <c r="B437">
-        <v>-2.58</v>
+        <v>-2.54</v>
       </c>
       <c r="C437">
-        <v>2.61</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>439</v>
       </c>
       <c r="B438">
-        <v>3.97</v>
+        <v>3.99</v>
       </c>
       <c r="C438">
-        <v>4.03</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>440</v>
       </c>
       <c r="B439">
-        <v>-0.09</v>
+        <v>-0.04</v>
       </c>
       <c r="C439">
-        <v>-0.66</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3">
+        <v>-0.86</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>441</v>
       </c>
       <c r="B440">
-        <v>-2.52</v>
+        <v>-2.4700000000000002</v>
       </c>
       <c r="C440">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>442</v>
       </c>
       <c r="B441">
-        <v>-4.85</v>
+        <v>-4.83</v>
       </c>
       <c r="C441">
-        <v>-3.01</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3">
+        <v>-3.21</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>443</v>
       </c>
       <c r="B442">
-        <v>-8.029999999999999</v>
+        <v>-8.01</v>
       </c>
       <c r="C442">
-        <v>-3.9</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3">
+        <v>-4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>444</v>
       </c>
       <c r="B443">
-        <v>-4.04</v>
+        <v>-3.99</v>
       </c>
       <c r="C443">
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>445</v>
       </c>
       <c r="B444">
-        <v>-2.08</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="C444">
-        <v>-2.67</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3">
+        <v>-2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>446</v>
       </c>
       <c r="B445">
-        <v>-5.61</v>
+        <v>-5.56</v>
       </c>
       <c r="C445">
-        <v>-2.58</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3">
+        <v>-2.78</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>447</v>
       </c>
       <c r="B446">
-        <v>-8.83</v>
+        <v>-8.81</v>
       </c>
       <c r="C446">
-        <v>-3.82</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3">
+        <v>-4.01</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>448</v>
       </c>
       <c r="B447">
-        <v>-2.4</v>
+        <v>-2.36</v>
       </c>
       <c r="C447">
-        <v>2.86</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>449</v>
       </c>
       <c r="B448">
-        <v>-0.21</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="C448">
-        <v>-0.85</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3">
+        <v>-1.06</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>450</v>
       </c>
       <c r="B449">
-        <v>7.95</v>
+        <v>8.02</v>
       </c>
       <c r="C449">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>451</v>
       </c>
       <c r="B450">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="C450">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>452</v>
       </c>
       <c r="B451">
-        <v>-2.45</v>
+        <v>-2.4</v>
       </c>
       <c r="C451">
-        <v>-4.55</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3">
+        <v>-4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>453</v>
       </c>
       <c r="B452">
-        <v>-1.85</v>
+        <v>-1.79</v>
       </c>
       <c r="C452">
-        <v>-3.19</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3">
+        <v>-3.42</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>454</v>
       </c>
       <c r="B453">
-        <v>14.12</v>
+        <v>14.22</v>
       </c>
       <c r="C453">
-        <v>11.97</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>455</v>
       </c>
       <c r="B454">
-        <v>-6.15</v>
+        <v>-6.12</v>
       </c>
       <c r="C454">
-        <v>-6.26</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3">
+        <v>-5.92</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>456</v>
       </c>
       <c r="B455">
-        <v>-8.94</v>
+        <v>-8.92</v>
       </c>
       <c r="C455">
-        <v>-7.07</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3">
+        <v>-7.29</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>457</v>
       </c>
       <c r="B456">
-        <v>-6.04</v>
+        <v>-6</v>
       </c>
       <c r="C456">
-        <v>-4.36</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3">
+        <v>-4.57</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>458</v>
       </c>
       <c r="B457">
-        <v>-4.21</v>
+        <v>-4.16</v>
       </c>
       <c r="C457">
-        <v>-5.64</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3">
+        <v>-5.86</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>459</v>
       </c>
@@ -6975,10 +6994,10 @@
         <v>0</v>
       </c>
       <c r="C458">
-        <v>-5.84</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3">
+        <v>-6.05</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>460</v>
       </c>
@@ -6986,76 +7005,76 @@
         <v>0</v>
       </c>
       <c r="C459">
-        <v>-8.529999999999999</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3">
+        <v>-8.7799999999999994</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>461</v>
       </c>
       <c r="B460">
-        <v>9.08</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C460">
-        <v>11.29</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3">
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>462</v>
       </c>
       <c r="B461">
-        <v>-3.93</v>
+        <v>-3.89</v>
       </c>
       <c r="C461">
-        <v>-3.37</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>463</v>
       </c>
       <c r="B462">
-        <v>-3.4</v>
+        <v>-3.38</v>
       </c>
       <c r="C462">
-        <v>-6.21</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3">
+        <v>-6.41</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>464</v>
       </c>
       <c r="B463">
-        <v>-5.11</v>
+        <v>-5.05</v>
       </c>
       <c r="C463">
-        <v>-3.23</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3">
+        <v>-3.46</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>465</v>
       </c>
       <c r="B464">
-        <v>-0.61</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="C464">
-        <v>-0.85</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3">
+        <v>-1.27</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>466</v>
       </c>
       <c r="B465">
-        <v>-9.109999999999999</v>
+        <v>-9.09</v>
       </c>
       <c r="C465">
-        <v>-4.16</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3">
+        <v>-4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>467</v>
       </c>
@@ -7063,197 +7082,197 @@
         <v>0</v>
       </c>
       <c r="C466">
-        <v>-5.88</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3">
+        <v>-6.1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>468</v>
       </c>
       <c r="B467">
-        <v>-0.6</v>
+        <v>1.02</v>
       </c>
       <c r="C467">
-        <v>3.26</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>469</v>
       </c>
       <c r="B468">
-        <v>-2.48</v>
+        <v>-2.4300000000000002</v>
       </c>
       <c r="C468">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>470</v>
       </c>
       <c r="B469">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="C469">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>471</v>
       </c>
       <c r="B470">
-        <v>-2.89</v>
+        <v>-2.85</v>
       </c>
       <c r="C470">
-        <v>-4.77</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3">
+        <v>-3.61</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>472</v>
       </c>
       <c r="B471">
-        <v>-7.87</v>
+        <v>-7.84</v>
       </c>
       <c r="C471">
-        <v>-5.94</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3">
+        <v>-6.14</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>473</v>
       </c>
       <c r="B472">
-        <v>0.93</v>
+        <v>1.01</v>
       </c>
       <c r="C472">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>474</v>
       </c>
       <c r="B473">
-        <v>-5.27</v>
+        <v>-5.25</v>
       </c>
       <c r="C473">
-        <v>-3.17</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3">
+        <v>-3.33</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>475</v>
       </c>
       <c r="B474">
-        <v>-6.23</v>
+        <v>-6.2</v>
       </c>
       <c r="C474">
-        <v>-6.66</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3">
+        <v>-6.91</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>476</v>
       </c>
       <c r="B475">
-        <v>-5.39</v>
+        <v>-5.34</v>
       </c>
       <c r="C475">
-        <v>-0.6</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>477</v>
       </c>
       <c r="B476">
-        <v>2.93</v>
+        <v>3</v>
       </c>
       <c r="C476">
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>478</v>
       </c>
       <c r="B477">
-        <v>-4.13</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="C477">
-        <v>-8.07</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3">
+        <v>-8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>479</v>
       </c>
       <c r="B478">
-        <v>-2.31</v>
+        <v>-2.27</v>
       </c>
       <c r="C478">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>480</v>
       </c>
       <c r="B479">
-        <v>9.630000000000001</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="C479">
-        <v>8.84</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3">
+        <v>8.7100000000000009</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>481</v>
       </c>
       <c r="B480">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="C480">
-        <v>-1.93</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3">
+        <v>-2.12</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>482</v>
       </c>
       <c r="B481">
-        <v>-0.52</v>
+        <v>-0.46</v>
       </c>
       <c r="C481">
-        <v>-5.69</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3">
+        <v>-5.93</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>483</v>
       </c>
       <c r="B482">
-        <v>-2.05</v>
+        <v>-1.99</v>
       </c>
       <c r="C482">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>484</v>
       </c>
       <c r="B483">
-        <v>-6.64</v>
+        <v>-6.61</v>
       </c>
       <c r="C483">
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>485</v>
       </c>
@@ -7261,10 +7280,10 @@
         <v>0</v>
       </c>
       <c r="C484">
-        <v>-7.7</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3">
+        <v>-7.92</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>486</v>
       </c>
@@ -7272,54 +7291,54 @@
         <v>0</v>
       </c>
       <c r="C485">
-        <v>-8.08</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3">
+        <v>-8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>487</v>
       </c>
       <c r="B486">
-        <v>-5.13</v>
+        <v>-5.1100000000000003</v>
       </c>
       <c r="C486">
-        <v>-6.2</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3">
+        <v>-5.65</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>488</v>
       </c>
       <c r="B487">
-        <v>-3.81</v>
+        <v>-3.77</v>
       </c>
       <c r="C487">
-        <v>-3.95</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3">
+        <v>-4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>489</v>
       </c>
       <c r="B488">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="C488">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>490</v>
       </c>
       <c r="B489">
-        <v>-6.03</v>
+        <v>-6</v>
       </c>
       <c r="C489">
-        <v>-2.92</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3">
+        <v>-3.9</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>491</v>
       </c>
@@ -7327,76 +7346,76 @@
         <v>0</v>
       </c>
       <c r="C490">
-        <v>-8.859999999999999</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3">
+        <v>-9.06</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>492</v>
       </c>
       <c r="B491">
-        <v>-7</v>
+        <v>-6.97</v>
       </c>
       <c r="C491">
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>493</v>
       </c>
       <c r="B492">
-        <v>-8.859999999999999</v>
+        <v>-8.83</v>
       </c>
       <c r="C492">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>494</v>
       </c>
       <c r="B493">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="C493">
-        <v>7.78</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>495</v>
       </c>
       <c r="B494">
-        <v>-8.130000000000001</v>
+        <v>-8.1</v>
       </c>
       <c r="C494">
-        <v>-4.66</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3">
+        <v>-4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>496</v>
       </c>
       <c r="B495">
-        <v>-6.35</v>
+        <v>-6.32</v>
       </c>
       <c r="C495">
-        <v>-6.25</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3">
+        <v>-6.45</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>497</v>
       </c>
       <c r="B496">
-        <v>8.470000000000001</v>
+        <v>8.57</v>
       </c>
       <c r="C496">
-        <v>4.09</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>498</v>
       </c>
@@ -7404,32 +7423,32 @@
         <v>0</v>
       </c>
       <c r="C497">
-        <v>-7.92</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3">
+        <v>-7.67</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>499</v>
       </c>
       <c r="B498">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="C498">
-        <v>4.64</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>500</v>
       </c>
       <c r="B499">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="C499">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>501</v>
       </c>
@@ -7437,87 +7456,87 @@
         <v>0</v>
       </c>
       <c r="C500">
-        <v>-6.68</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3">
+        <v>-6.89</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>502</v>
       </c>
       <c r="B501">
-        <v>-5.45</v>
+        <v>-5.41</v>
       </c>
       <c r="C501">
-        <v>-7.65</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3">
+        <v>-7.88</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>503</v>
       </c>
       <c r="B502">
-        <v>14.6</v>
+        <v>14.66</v>
       </c>
       <c r="C502">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3">
+        <v>14.37</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>504</v>
       </c>
       <c r="B503">
-        <v>-0.9399999999999999</v>
+        <v>-0.89</v>
       </c>
       <c r="C503">
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>505</v>
       </c>
       <c r="B504">
-        <v>-7.44</v>
+        <v>-7.42</v>
       </c>
       <c r="C504">
-        <v>-7.73</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3">
+        <v>-7.94</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>506</v>
       </c>
       <c r="B505">
-        <v>-8.06</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="C505">
-        <v>-5.29</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3">
+        <v>-5.52</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>507</v>
       </c>
       <c r="B506">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="C506">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>508</v>
       </c>
       <c r="B507">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C507">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>509</v>
       </c>
@@ -7525,21 +7544,21 @@
         <v>0</v>
       </c>
       <c r="C508">
-        <v>-7.49</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3">
+        <v>-6.2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>510</v>
       </c>
       <c r="B509">
-        <v>-3.24</v>
+        <v>-3.21</v>
       </c>
       <c r="C509">
-        <v>-6.58</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3">
+        <v>-6.91</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>511</v>
       </c>
@@ -7547,10 +7566,10 @@
         <v>0</v>
       </c>
       <c r="C510">
-        <v>-8.949999999999999</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3">
+        <v>-9.19</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>512</v>
       </c>
@@ -7558,95 +7577,95 @@
         <v>0</v>
       </c>
       <c r="C511">
-        <v>-7.94</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3">
+        <v>-8.16</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>513</v>
       </c>
       <c r="B512">
-        <v>-3.88</v>
+        <v>-3.87</v>
       </c>
       <c r="C512">
-        <v>-0.75</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3">
+        <v>-0.73</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>514</v>
       </c>
       <c r="B513">
+        <v>-2.17</v>
+      </c>
+      <c r="C513">
         <v>-2.64</v>
       </c>
-      <c r="C513">
-        <v>-2.4</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3">
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>515</v>
       </c>
       <c r="B514">
-        <v>-2.62</v>
+        <v>-2.59</v>
       </c>
       <c r="C514">
-        <v>-2.17</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3">
+        <v>-2.15</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>516</v>
       </c>
       <c r="B515">
-        <v>-1.41</v>
+        <v>-1.39</v>
       </c>
       <c r="C515">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>517</v>
       </c>
       <c r="B516">
-        <v>3.5</v>
+        <v>3.59</v>
       </c>
       <c r="C516">
-        <v>5.14</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>518</v>
       </c>
       <c r="B517">
-        <v>-6.61</v>
+        <v>-6.6</v>
       </c>
       <c r="C517">
-        <v>-7.52</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3">
+        <v>-7.75</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>519</v>
       </c>
       <c r="B518">
-        <v>-4.46</v>
+        <v>-4.42</v>
       </c>
       <c r="C518">
-        <v>-1.23</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3">
+        <v>-0.85</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>520</v>
       </c>
       <c r="B519">
-        <v>2.23</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="C519">
-        <v>2.29</v>
+        <v>2.14</v>
       </c>
     </row>
   </sheetData>

--- a/data/merged_scores.xlsx
+++ b/data/merged_scores.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ibrahimkucukkaya/Desktop/Streamlit/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668205A0-9E9F-AA40-864C-6D3E0EA2A1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="880" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="523">
   <si>
     <t>Player_Name</t>
   </si>
@@ -670,6 +664,9 @@
     <t>Jakob Poeltl</t>
   </si>
   <si>
+    <t>Jalen Bridges</t>
+  </si>
+  <si>
     <t>Jalen Brunson</t>
   </si>
   <si>
@@ -1502,6 +1499,9 @@
   </si>
   <si>
     <t>Ty Jerome</t>
+  </si>
+  <si>
+    <t>TyTy Washington Jr.</t>
   </si>
   <si>
     <t>Tyler Herro</t>
@@ -1588,8 +1588,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1652,21 +1652,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1704,7 +1696,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1738,7 +1730,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1773,10 +1764,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1949,17 +1939,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C519"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1970,7 +1957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1981,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1989,10 +1976,10 @@
         <v>-4.12</v>
       </c>
       <c r="C3">
-        <v>-2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2003,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2011,10 +1998,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-8.14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.279999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2022,10 +2009,10 @@
         <v>1.22</v>
       </c>
       <c r="C6">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2033,10 +2020,10 @@
         <v>-7.01</v>
       </c>
       <c r="C7">
-        <v>-5.0599999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2044,21 +2031,21 @@
         <v>-1.65</v>
       </c>
       <c r="C8">
-        <v>-1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-4.3499999999999996</v>
+        <v>-4.35</v>
       </c>
       <c r="C9">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2066,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-6.55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2077,10 +2064,10 @@
         <v>-9</v>
       </c>
       <c r="C11">
-        <v>-7.31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2088,10 +2075,10 @@
         <v>-6.66</v>
       </c>
       <c r="C12">
-        <v>-6.22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2099,10 +2086,10 @@
         <v>-8.83</v>
       </c>
       <c r="C13">
-        <v>-3.18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2110,10 +2097,10 @@
         <v>1.24</v>
       </c>
       <c r="C14">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2121,10 +2108,10 @@
         <v>-4.3</v>
       </c>
       <c r="C15">
-        <v>-2.16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2132,10 +2119,10 @@
         <v>0.97</v>
       </c>
       <c r="C16">
-        <v>-1.96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2143,10 +2130,10 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>-8.84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2154,10 +2141,10 @@
         <v>-6.33</v>
       </c>
       <c r="C18">
-        <v>-4.95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2165,10 +2152,10 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>-6.89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2176,10 +2163,10 @@
         <v>0.15</v>
       </c>
       <c r="C20">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2187,10 +2174,10 @@
         <v>3.44</v>
       </c>
       <c r="C21">
-        <v>5.23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2198,10 +2185,10 @@
         <v>0.73</v>
       </c>
       <c r="C22">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2209,10 +2196,10 @@
         <v>-5.44</v>
       </c>
       <c r="C23">
-        <v>-2.73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2220,10 +2207,10 @@
         <v>-0.43</v>
       </c>
       <c r="C24">
-        <v>-0.95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2231,10 +2218,10 @@
         <v>-6.28</v>
       </c>
       <c r="C25">
-        <v>-4.28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2242,21 +2229,21 @@
         <v>-1.24</v>
       </c>
       <c r="C26">
-        <v>-2.94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.09</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27">
-        <v>-1.1399999999999999</v>
+        <v>-1.14</v>
       </c>
       <c r="C27">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -2264,10 +2251,10 @@
         <v>2.8</v>
       </c>
       <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -2275,10 +2262,10 @@
         <v>-3.43</v>
       </c>
       <c r="C29">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -2286,10 +2273,10 @@
         <v>14.09</v>
       </c>
       <c r="C30">
-        <v>12.07</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11.78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2297,21 +2284,21 @@
         <v>6.98</v>
       </c>
       <c r="C31">
-        <v>6.33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32">
-        <v>-8.0500000000000007</v>
+        <v>-8.050000000000001</v>
       </c>
       <c r="C32">
-        <v>-7.19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -2319,10 +2306,10 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>-7.22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -2330,10 +2317,10 @@
         <v>-7.5</v>
       </c>
       <c r="C34">
-        <v>-6.25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -2344,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -2352,10 +2339,10 @@
         <v>4.33</v>
       </c>
       <c r="C36">
-        <v>4.97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2363,10 +2350,10 @@
         <v>-1.93</v>
       </c>
       <c r="C37">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -2374,10 +2361,10 @@
         <v>4.91</v>
       </c>
       <c r="C38">
-        <v>2.5299999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -2385,10 +2372,10 @@
         <v>-7.22</v>
       </c>
       <c r="C39">
-        <v>-8.0500000000000007</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.199999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2396,10 +2383,10 @@
         <v>-5.98</v>
       </c>
       <c r="C40">
-        <v>-3.78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -2407,10 +2394,10 @@
         <v>-0.34</v>
       </c>
       <c r="C41">
-        <v>2.02</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -2418,10 +2405,10 @@
         <v>-1.3</v>
       </c>
       <c r="C42">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2429,10 +2416,10 @@
         <v>2.92</v>
       </c>
       <c r="C43">
-        <v>3.28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2440,21 +2427,21 @@
         <v>-7.77</v>
       </c>
       <c r="C44">
-        <v>-5.35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="C45">
-        <v>-0.44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -2465,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -2473,10 +2460,10 @@
         <v>0.83</v>
       </c>
       <c r="C47">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -2487,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -2495,10 +2482,10 @@
         <v>-5.28</v>
       </c>
       <c r="C49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.08</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -2506,21 +2493,21 @@
         <v>-3.37</v>
       </c>
       <c r="C50">
-        <v>-5.85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51">
-        <v>-9.1199999999999992</v>
+        <v>-9.119999999999999</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -2528,10 +2515,10 @@
         <v>3.65</v>
       </c>
       <c r="C52">
-        <v>4.8899999999999997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -2539,10 +2526,10 @@
         <v>-0.99</v>
       </c>
       <c r="C53">
-        <v>-2.27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -2553,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -2561,21 +2548,21 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56">
-        <v>-2.3199999999999998</v>
+        <v>-2.32</v>
       </c>
       <c r="C56">
-        <v>-4.01</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -2583,10 +2570,10 @@
         <v>2.85</v>
       </c>
       <c r="C57">
-        <v>5.35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2594,10 +2581,10 @@
         <v>1.85</v>
       </c>
       <c r="C58">
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -2605,10 +2592,10 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>-8.4600000000000009</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -2616,10 +2603,10 @@
         <v>-3.34</v>
       </c>
       <c r="C60">
-        <v>-5.04</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -2630,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -2638,10 +2625,10 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>-7.82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -2649,10 +2636,10 @@
         <v>1.6</v>
       </c>
       <c r="C63">
-        <v>3.98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -2663,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -2671,10 +2658,10 @@
         <v>-4.59</v>
       </c>
       <c r="C65">
-        <v>-3.68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -2685,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -2693,10 +2680,10 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -2707,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -2715,21 +2702,21 @@
         <v>2.31</v>
       </c>
       <c r="C69">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="C70">
-        <v>6.09</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -2737,10 +2724,10 @@
         <v>6.47</v>
       </c>
       <c r="C71">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -2748,10 +2735,10 @@
         <v>-7.56</v>
       </c>
       <c r="C72">
-        <v>-7.9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.050000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -2759,10 +2746,10 @@
         <v>-0.97</v>
       </c>
       <c r="C73">
-        <v>-1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -2773,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -2781,21 +2768,21 @@
         <v>-5.44</v>
       </c>
       <c r="C75">
-        <v>-1.55</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>77</v>
       </c>
       <c r="B76">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="C76">
-        <v>3.52</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -2803,10 +2790,10 @@
         <v>-7.33</v>
       </c>
       <c r="C77">
-        <v>-7.57</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -2814,10 +2801,10 @@
         <v>0.82</v>
       </c>
       <c r="C78">
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -2825,10 +2812,10 @@
         <v>-5.29</v>
       </c>
       <c r="C79">
-        <v>-2.77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -2836,10 +2823,10 @@
         <v>-1.28</v>
       </c>
       <c r="C80">
-        <v>1.97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -2850,18 +2837,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82">
-        <v>-2.1800000000000002</v>
+        <v>-2.18</v>
       </c>
       <c r="C82">
-        <v>-0.98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -2869,10 +2856,10 @@
         <v>-5.45</v>
       </c>
       <c r="C83">
-        <v>-5.97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -2880,21 +2867,21 @@
         <v>6.15</v>
       </c>
       <c r="C84">
-        <v>7.02</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>86</v>
       </c>
       <c r="B85">
-        <v>-4.9400000000000004</v>
+        <v>-4.94</v>
       </c>
       <c r="C85">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -2902,10 +2889,10 @@
         <v>-6.4</v>
       </c>
       <c r="C86">
-        <v>-7.02</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -2913,10 +2900,10 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>-9.01</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-9.16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -2924,10 +2911,10 @@
         <v>1.04</v>
       </c>
       <c r="C88">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2935,10 +2922,10 @@
         <v>-0.85</v>
       </c>
       <c r="C89">
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -2946,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>-6.28</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -2960,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -2971,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -2979,10 +2966,10 @@
         <v>0.86</v>
       </c>
       <c r="C93">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -2990,10 +2977,10 @@
         <v>2.36</v>
       </c>
       <c r="C94">
-        <v>5.21</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -3001,10 +2988,10 @@
         <v>-4.12</v>
       </c>
       <c r="C95">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -3012,10 +2999,10 @@
         <v>-6.71</v>
       </c>
       <c r="C96">
-        <v>-5.93</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -3026,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -3034,10 +3021,10 @@
         <v>-8.98</v>
       </c>
       <c r="C98">
-        <v>-7.9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -3045,10 +3032,10 @@
         <v>-3.39</v>
       </c>
       <c r="C99">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -3056,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <v>-6.96</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -3067,10 +3054,10 @@
         <v>-8.9</v>
       </c>
       <c r="C101">
-        <v>-6.83</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -3078,10 +3065,10 @@
         <v>1.55</v>
       </c>
       <c r="C102">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -3089,10 +3076,10 @@
         <v>-2.63</v>
       </c>
       <c r="C103">
-        <v>-2.87</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.02</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -3100,10 +3087,10 @@
         <v>-7.29</v>
       </c>
       <c r="C104">
-        <v>-6.58</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -3111,10 +3098,10 @@
         <v>-5.54</v>
       </c>
       <c r="C105">
-        <v>-6.2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.34</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -3122,10 +3109,10 @@
         <v>2.73</v>
       </c>
       <c r="C106">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -3133,10 +3120,10 @@
         <v>-9.08</v>
       </c>
       <c r="C107">
-        <v>-7.15</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -3147,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -3158,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -3166,10 +3153,10 @@
         <v>-6.95</v>
       </c>
       <c r="C110">
-        <v>-2.7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -3177,21 +3164,21 @@
         <v>-7.96</v>
       </c>
       <c r="C111">
-        <v>-5.03</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>113</v>
       </c>
       <c r="B112">
-        <v>-4.7699999999999996</v>
+        <v>-4.77</v>
       </c>
       <c r="C112">
-        <v>-4.8600000000000003</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.73</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -3199,10 +3186,10 @@
         <v>9.26</v>
       </c>
       <c r="C113">
-        <v>8.41</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -3210,10 +3197,10 @@
         <v>-4.75</v>
       </c>
       <c r="C114">
-        <v>-6.53</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.95</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -3221,10 +3208,10 @@
         <v>2.09</v>
       </c>
       <c r="C115">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -3232,10 +3219,10 @@
         <v>-1.67</v>
       </c>
       <c r="C116">
-        <v>-4.01</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -3243,10 +3230,10 @@
         <v>0</v>
       </c>
       <c r="C117">
-        <v>-9.01</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-9.16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -3257,18 +3244,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>120</v>
       </c>
       <c r="B119">
-        <v>-4.6500000000000004</v>
+        <v>-4.65</v>
       </c>
       <c r="C119">
-        <v>-8.5500000000000007</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.710000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -3276,10 +3263,10 @@
         <v>-8.82</v>
       </c>
       <c r="C120">
-        <v>-7.94</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.08</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -3287,10 +3274,10 @@
         <v>3.8</v>
       </c>
       <c r="C121">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -3298,10 +3285,10 @@
         <v>0</v>
       </c>
       <c r="C122">
-        <v>-10.09</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-10.24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -3312,18 +3299,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>125</v>
       </c>
       <c r="B124">
-        <v>-9.3800000000000008</v>
+        <v>-9.380000000000001</v>
       </c>
       <c r="C124">
-        <v>-1.68</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.82</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -3331,10 +3318,10 @@
         <v>-4.63</v>
       </c>
       <c r="C125">
-        <v>-0.88</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.02</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -3345,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -3353,10 +3340,10 @@
         <v>5.21</v>
       </c>
       <c r="C127">
-        <v>5.98</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -3364,21 +3351,21 @@
         <v>-0.21</v>
       </c>
       <c r="C128">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>130</v>
       </c>
       <c r="B129">
-        <v>0.56000000000000005</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C129">
-        <v>-0.75</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -3386,10 +3373,10 @@
         <v>-7.2</v>
       </c>
       <c r="C130">
-        <v>-5.61</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -3397,10 +3384,10 @@
         <v>5.08</v>
       </c>
       <c r="C131">
-        <v>7.04</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -3408,10 +3395,10 @@
         <v>-4.47</v>
       </c>
       <c r="C132">
-        <v>-3.04</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.19</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>134</v>
       </c>
@@ -3419,10 +3406,10 @@
         <v>2.73</v>
       </c>
       <c r="C133">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -3430,10 +3417,10 @@
         <v>3.9</v>
       </c>
       <c r="C134">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -3441,21 +3428,21 @@
         <v>-2.9</v>
       </c>
       <c r="C135">
-        <v>-4.7</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.85</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>137</v>
       </c>
       <c r="B136">
-        <v>-0.57999999999999996</v>
+        <v>-0.58</v>
       </c>
       <c r="C136">
-        <v>-0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -3463,21 +3450,21 @@
         <v>1.67</v>
       </c>
       <c r="C137">
-        <v>4.9800000000000004</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>139</v>
       </c>
       <c r="B138">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="C138">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>140</v>
       </c>
@@ -3485,10 +3472,10 @@
         <v>-2.37</v>
       </c>
       <c r="C139">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -3499,18 +3486,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>142</v>
       </c>
       <c r="B141">
-        <v>4.9800000000000004</v>
+        <v>4.98</v>
       </c>
       <c r="C141">
-        <v>6.86</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>143</v>
       </c>
@@ -3518,10 +3505,10 @@
         <v>5.03</v>
       </c>
       <c r="C142">
-        <v>4.8499999999999996</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -3529,10 +3516,10 @@
         <v>8.07</v>
       </c>
       <c r="C143">
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>145</v>
       </c>
@@ -3543,18 +3530,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>146</v>
       </c>
       <c r="B145">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="C145">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -3565,29 +3552,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>148</v>
       </c>
       <c r="B147">
-        <v>-2.4500000000000002</v>
+        <v>-2.45</v>
       </c>
       <c r="C147">
-        <v>-1.54</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.69</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>149</v>
       </c>
       <c r="B148">
-        <v>-8.6999999999999993</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="C148">
-        <v>-7.8</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.95</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>150</v>
       </c>
@@ -3595,21 +3582,21 @@
         <v>7.9</v>
       </c>
       <c r="C149">
-        <v>9.07</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9.210000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>151</v>
       </c>
       <c r="B150">
-        <v>-8.8800000000000008</v>
+        <v>-8.880000000000001</v>
       </c>
       <c r="C150">
-        <v>-9.5399999999999991</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-9.68</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -3617,10 +3604,10 @@
         <v>-1.03</v>
       </c>
       <c r="C151">
-        <v>-1.29</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -3628,10 +3615,10 @@
         <v>7.98</v>
       </c>
       <c r="C152">
-        <v>6.06</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>154</v>
       </c>
@@ -3639,10 +3626,10 @@
         <v>1.07</v>
       </c>
       <c r="C153">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>155</v>
       </c>
@@ -3650,10 +3637,10 @@
         <v>-2.95</v>
       </c>
       <c r="C154">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>156</v>
       </c>
@@ -3661,10 +3648,10 @@
         <v>0</v>
       </c>
       <c r="C155">
-        <v>-8.0500000000000007</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>157</v>
       </c>
@@ -3672,10 +3659,10 @@
         <v>2.46</v>
       </c>
       <c r="C156">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>158</v>
       </c>
@@ -3683,10 +3670,10 @@
         <v>-4.13</v>
       </c>
       <c r="C157">
-        <v>-3.49</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.43</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>159</v>
       </c>
@@ -3694,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="C158">
-        <v>-6.25</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>160</v>
       </c>
@@ -3705,10 +3692,10 @@
         <v>-6.72</v>
       </c>
       <c r="C159">
-        <v>-5.46</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.62</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -3716,10 +3703,10 @@
         <v>-3.53</v>
       </c>
       <c r="C160">
-        <v>-2.7</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.85</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -3727,10 +3714,10 @@
         <v>-4.93</v>
       </c>
       <c r="C161">
-        <v>-7.7</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>163</v>
       </c>
@@ -3738,10 +3725,10 @@
         <v>-5.93</v>
       </c>
       <c r="C162">
-        <v>-5.34</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.02</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>164</v>
       </c>
@@ -3749,21 +3736,21 @@
         <v>2.85</v>
       </c>
       <c r="C163">
-        <v>4.43</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>165</v>
       </c>
       <c r="B164">
-        <v>-8.3800000000000008</v>
+        <v>-8.380000000000001</v>
       </c>
       <c r="C164">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>166</v>
       </c>
@@ -3774,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>167</v>
       </c>
@@ -3782,10 +3769,10 @@
         <v>-6.88</v>
       </c>
       <c r="C166">
-        <v>-7.02</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -3793,10 +3780,10 @@
         <v>-1.85</v>
       </c>
       <c r="C167">
-        <v>-5.33</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.47</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>169</v>
       </c>
@@ -3804,10 +3791,10 @@
         <v>5.04</v>
       </c>
       <c r="C168">
-        <v>6.16</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>170</v>
       </c>
@@ -3815,10 +3802,10 @@
         <v>4.25</v>
       </c>
       <c r="C169">
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>171</v>
       </c>
@@ -3826,10 +3813,10 @@
         <v>3.28</v>
       </c>
       <c r="C170">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>172</v>
       </c>
@@ -3840,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>173</v>
       </c>
@@ -3848,10 +3835,10 @@
         <v>-4</v>
       </c>
       <c r="C172">
-        <v>-6.84</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.59</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>174</v>
       </c>
@@ -3859,10 +3846,10 @@
         <v>-7.83</v>
       </c>
       <c r="C173">
-        <v>-7.4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.54</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>175</v>
       </c>
@@ -3870,10 +3857,10 @@
         <v>-5.28</v>
       </c>
       <c r="C174">
-        <v>-0.43</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>176</v>
       </c>
@@ -3881,21 +3868,21 @@
         <v>-5.05</v>
       </c>
       <c r="C175">
-        <v>-4.97</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>177</v>
       </c>
       <c r="B176">
-        <v>-4.0199999999999996</v>
+        <v>-4.02</v>
       </c>
       <c r="C176">
-        <v>-3.61</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.75</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>178</v>
       </c>
@@ -3903,10 +3890,10 @@
         <v>-2.79</v>
       </c>
       <c r="C177">
-        <v>-4.54</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.71</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>179</v>
       </c>
@@ -3914,10 +3901,10 @@
         <v>-3.82</v>
       </c>
       <c r="C178">
-        <v>-3.16</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>180</v>
       </c>
@@ -3925,10 +3912,10 @@
         <v>12.69</v>
       </c>
       <c r="C179">
-        <v>10.210000000000001</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>181</v>
       </c>
@@ -3936,10 +3923,10 @@
         <v>-3.94</v>
       </c>
       <c r="C180">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>182</v>
       </c>
@@ -3947,10 +3934,10 @@
         <v>-2.7</v>
       </c>
       <c r="C181">
-        <v>3.07</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>183</v>
       </c>
@@ -3958,10 +3945,10 @@
         <v>-2.77</v>
       </c>
       <c r="C182">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>184</v>
       </c>
@@ -3969,10 +3956,10 @@
         <v>-0.61</v>
       </c>
       <c r="C183">
-        <v>-2.42</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.58</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>185</v>
       </c>
@@ -3980,10 +3967,10 @@
         <v>-5.51</v>
       </c>
       <c r="C184">
-        <v>-0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>186</v>
       </c>
@@ -3991,21 +3978,21 @@
         <v>-8.4</v>
       </c>
       <c r="C185">
-        <v>-7.58</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.72</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>187</v>
       </c>
       <c r="B186">
-        <v>-2.2799999999999998</v>
+        <v>-2.28</v>
       </c>
       <c r="C186">
-        <v>-1.41</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.54</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>188</v>
       </c>
@@ -4013,10 +4000,10 @@
         <v>0</v>
       </c>
       <c r="C187">
-        <v>-8.64</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.779999999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>189</v>
       </c>
@@ -4024,10 +4011,10 @@
         <v>-5.5</v>
       </c>
       <c r="C188">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>190</v>
       </c>
@@ -4035,10 +4022,10 @@
         <v>1.98</v>
       </c>
       <c r="C189">
-        <v>-1.8</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.95</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>191</v>
       </c>
@@ -4046,10 +4033,10 @@
         <v>-7.32</v>
       </c>
       <c r="C190">
-        <v>-4.99</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>192</v>
       </c>
@@ -4057,10 +4044,10 @@
         <v>4.32</v>
       </c>
       <c r="C191">
-        <v>-0.9</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.05</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>193</v>
       </c>
@@ -4068,10 +4055,10 @@
         <v>0</v>
       </c>
       <c r="C192">
-        <v>-8.66</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.24</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>194</v>
       </c>
@@ -4079,10 +4066,10 @@
         <v>-4.2</v>
       </c>
       <c r="C193">
-        <v>-3.03</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.18</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>195</v>
       </c>
@@ -4090,10 +4077,10 @@
         <v>-7.06</v>
       </c>
       <c r="C194">
-        <v>-7.06</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.32</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>196</v>
       </c>
@@ -4104,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>197</v>
       </c>
@@ -4112,10 +4099,10 @@
         <v>-1.84</v>
       </c>
       <c r="C196">
-        <v>-1.34</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.48</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>198</v>
       </c>
@@ -4123,10 +4110,10 @@
         <v>-1.01</v>
       </c>
       <c r="C197">
-        <v>-1.99</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.14</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>199</v>
       </c>
@@ -4134,10 +4121,10 @@
         <v>-3.69</v>
       </c>
       <c r="C198">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>200</v>
       </c>
@@ -4145,10 +4132,10 @@
         <v>2.88</v>
       </c>
       <c r="C199">
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>201</v>
       </c>
@@ -4156,10 +4143,10 @@
         <v>-8.81</v>
       </c>
       <c r="C200">
-        <v>-8.44</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.58</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>202</v>
       </c>
@@ -4167,10 +4154,10 @@
         <v>4.55</v>
       </c>
       <c r="C201">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>203</v>
       </c>
@@ -4178,10 +4165,10 @@
         <v>-8.23</v>
       </c>
       <c r="C202">
-        <v>-8.08</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.23</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>204</v>
       </c>
@@ -4189,10 +4176,10 @@
         <v>-0.4</v>
       </c>
       <c r="C203">
-        <v>-1.7</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.86</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
         <v>205</v>
       </c>
@@ -4200,10 +4187,10 @@
         <v>-5.63</v>
       </c>
       <c r="C204">
-        <v>-5.94</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.21</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>206</v>
       </c>
@@ -4211,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="C205">
-        <v>-8.26</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.41</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>207</v>
       </c>
@@ -4222,10 +4209,10 @@
         <v>0</v>
       </c>
       <c r="C206">
-        <v>-7.94</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.08</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>208</v>
       </c>
@@ -4233,21 +4220,21 @@
         <v>-5.99</v>
       </c>
       <c r="C207">
-        <v>-5.84</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.47</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
         <v>209</v>
       </c>
       <c r="B208">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="C208">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>210</v>
       </c>
@@ -4255,10 +4242,10 @@
         <v>-1.75</v>
       </c>
       <c r="C209">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>211</v>
       </c>
@@ -4266,10 +4253,10 @@
         <v>-5.37</v>
       </c>
       <c r="C210">
-        <v>-7.71</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.86</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>212</v>
       </c>
@@ -4277,10 +4264,10 @@
         <v>0</v>
       </c>
       <c r="C211">
-        <v>-7.36</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.49</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
         <v>213</v>
       </c>
@@ -4288,10 +4275,10 @@
         <v>-0.89</v>
       </c>
       <c r="C212">
-        <v>-2.0099999999999998</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.16</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>214</v>
       </c>
@@ -4299,10 +4286,10 @@
         <v>-5.94</v>
       </c>
       <c r="C213">
-        <v>-0.99</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.33</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
         <v>215</v>
       </c>
@@ -4310,351 +4297,351 @@
         <v>2.78</v>
       </c>
       <c r="C214">
-        <v>4.6100000000000003</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
         <v>216</v>
       </c>
       <c r="B215">
-        <v>5.97</v>
+        <v>0</v>
       </c>
       <c r="C215">
-        <v>2.96</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-11.23</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
         <v>217</v>
       </c>
       <c r="B216">
-        <v>2.21</v>
+        <v>5.97</v>
       </c>
       <c r="C216">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
         <v>218</v>
       </c>
       <c r="B217">
-        <v>1.26</v>
+        <v>2.21</v>
       </c>
       <c r="C217">
-        <v>2.48</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
         <v>219</v>
       </c>
       <c r="B218">
-        <v>-11.48</v>
+        <v>1.26</v>
       </c>
       <c r="C218">
-        <v>-8.32</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
         <v>220</v>
       </c>
       <c r="B219">
-        <v>5.86</v>
+        <v>-11.48</v>
       </c>
       <c r="C219">
-        <v>5.45</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.460000000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
         <v>221</v>
       </c>
       <c r="B220">
-        <v>-7.02</v>
+        <v>5.86</v>
       </c>
       <c r="C220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
         <v>222</v>
       </c>
       <c r="B221">
-        <v>-9.01</v>
+        <v>-7.02</v>
       </c>
       <c r="C221">
-        <v>-8.66</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
         <v>223</v>
       </c>
       <c r="B222">
-        <v>-3.19</v>
+        <v>-9.01</v>
       </c>
       <c r="C222">
-        <v>-2.86</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.81</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
         <v>224</v>
       </c>
       <c r="B223">
-        <v>5.53</v>
+        <v>-3.19</v>
       </c>
       <c r="C223">
-        <v>5.1100000000000003</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
         <v>225</v>
       </c>
       <c r="B224">
-        <v>5.44</v>
+        <v>5.53</v>
       </c>
       <c r="C224">
-        <v>8.31</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
         <v>226</v>
       </c>
       <c r="B225">
-        <v>-4.71</v>
+        <v>5.44</v>
       </c>
       <c r="C225">
-        <v>-3.1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
         <v>227</v>
       </c>
       <c r="B226">
-        <v>-6.68</v>
+        <v>-4.71</v>
       </c>
       <c r="C226">
-        <v>-5.18</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.24</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
         <v>228</v>
       </c>
       <c r="B227">
-        <v>2.91</v>
+        <v>-6.68</v>
       </c>
       <c r="C227">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.32</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
         <v>229</v>
       </c>
       <c r="B228">
-        <v>-7.95</v>
+        <v>2.91</v>
       </c>
       <c r="C228">
-        <v>-4.3099999999999996</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
         <v>230</v>
       </c>
       <c r="B229">
-        <v>11.12</v>
+        <v>-7.95</v>
       </c>
       <c r="C229">
-        <v>9.18</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.46</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
         <v>231</v>
       </c>
       <c r="B230">
-        <v>0</v>
+        <v>11.12</v>
       </c>
       <c r="C230">
-        <v>-6.84</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
         <v>232</v>
       </c>
       <c r="B231">
-        <v>-6.75</v>
+        <v>0</v>
       </c>
       <c r="C231">
-        <v>-5.46</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.98</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
         <v>233</v>
       </c>
       <c r="B232">
-        <v>-5.38</v>
+        <v>-6.75</v>
       </c>
       <c r="C232">
-        <v>-5.27</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.59</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
         <v>234</v>
       </c>
       <c r="B233">
-        <v>-4.46</v>
+        <v>-5.38</v>
       </c>
       <c r="C233">
-        <v>-2.27</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.41</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
         <v>235</v>
       </c>
       <c r="B234">
-        <v>-5.44</v>
+        <v>-4.46</v>
       </c>
       <c r="C234">
-        <v>-4.79</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.42</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
         <v>236</v>
       </c>
       <c r="B235">
-        <v>-8.1199999999999992</v>
+        <v>-5.44</v>
       </c>
       <c r="C235">
-        <v>-0.43</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.94</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
         <v>237</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>-8.119999999999999</v>
       </c>
       <c r="C236">
-        <v>-7.47</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
         <v>238</v>
       </c>
       <c r="B237">
-        <v>5.04</v>
+        <v>0</v>
       </c>
       <c r="C237">
-        <v>5.43</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.62</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
         <v>239</v>
       </c>
       <c r="B238">
-        <v>-1.18</v>
+        <v>5.04</v>
       </c>
       <c r="C238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
         <v>240</v>
       </c>
       <c r="B239">
-        <v>3.59</v>
+        <v>-1.18</v>
       </c>
       <c r="C239">
-        <v>3.61</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
         <v>241</v>
       </c>
       <c r="B240">
-        <v>-8.2799999999999994</v>
+        <v>3.59</v>
       </c>
       <c r="C240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>242</v>
       </c>
       <c r="B241">
-        <v>-0.5</v>
+        <v>-8.279999999999999</v>
       </c>
       <c r="C241">
-        <v>-2.48</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
         <v>243</v>
       </c>
       <c r="B242">
-        <v>-5.55</v>
+        <v>-0.5</v>
       </c>
       <c r="C242">
-        <v>-1.59</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.64</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>244</v>
       </c>
       <c r="B243">
-        <v>-0.87</v>
+        <v>-5.55</v>
       </c>
       <c r="C243">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.72</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
         <v>245</v>
       </c>
       <c r="B244">
-        <v>3.74</v>
+        <v>-0.87</v>
       </c>
       <c r="C244">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
         <v>246</v>
       </c>
       <c r="B245">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="C245">
-        <v>-7.23</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
         <v>247</v>
       </c>
@@ -4662,65 +4649,65 @@
         <v>0</v>
       </c>
       <c r="C246">
-        <v>-5.73</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.36</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
         <v>248</v>
       </c>
       <c r="B247">
-        <v>-5.34</v>
+        <v>0</v>
       </c>
       <c r="C247">
-        <v>-2.62</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.87</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
         <v>249</v>
       </c>
       <c r="B248">
-        <v>-5.18</v>
+        <v>-5.34</v>
       </c>
       <c r="C248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.88</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
         <v>250</v>
       </c>
       <c r="B249">
-        <v>-6.23</v>
+        <v>-5.18</v>
       </c>
       <c r="C249">
-        <v>-7.85</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
         <v>251</v>
       </c>
       <c r="B250">
-        <v>9.2100000000000009</v>
+        <v>-6.23</v>
       </c>
       <c r="C250">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.99</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
         <v>252</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="C251">
-        <v>-7.23</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
         <v>253</v>
       </c>
@@ -4728,945 +4715,945 @@
         <v>0</v>
       </c>
       <c r="C252">
-        <v>-6.73</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.36</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
         <v>254</v>
       </c>
       <c r="B253">
-        <v>-7.45</v>
+        <v>0</v>
       </c>
       <c r="C253">
-        <v>-5.67</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.88</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
         <v>255</v>
       </c>
       <c r="B254">
-        <v>0.22</v>
+        <v>-7.45</v>
       </c>
       <c r="C254">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
         <v>256</v>
       </c>
       <c r="B255">
-        <v>-6.56</v>
+        <v>0.22</v>
       </c>
       <c r="C255">
-        <v>-2.97</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
         <v>257</v>
       </c>
       <c r="B256">
-        <v>0.56000000000000005</v>
+        <v>-6.56</v>
       </c>
       <c r="C256">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.11</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
         <v>258</v>
       </c>
       <c r="B257">
-        <v>-4.7300000000000004</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C257">
-        <v>-5.49</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
         <v>259</v>
       </c>
       <c r="B258">
-        <v>-8.7899999999999991</v>
+        <v>-4.73</v>
       </c>
       <c r="C258">
-        <v>-5.64</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.63</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
         <v>260</v>
       </c>
       <c r="B259">
-        <v>-7.23</v>
+        <v>-8.789999999999999</v>
       </c>
       <c r="C259">
-        <v>-7.19</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.78</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
       <c r="A260" t="s">
         <v>261</v>
       </c>
       <c r="B260">
-        <v>5.73</v>
+        <v>-7.23</v>
       </c>
       <c r="C260">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.33</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
       <c r="A261" t="s">
         <v>262</v>
       </c>
       <c r="B261">
-        <v>-5.58</v>
+        <v>5.73</v>
       </c>
       <c r="C261">
-        <v>-4.9800000000000004</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
       <c r="A262" t="s">
         <v>263</v>
       </c>
       <c r="B262">
-        <v>-5.23</v>
+        <v>-5.58</v>
       </c>
       <c r="C262">
-        <v>-7.65</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
       <c r="A263" t="s">
         <v>264</v>
       </c>
       <c r="B263">
-        <v>12.54</v>
+        <v>-5.23</v>
       </c>
       <c r="C263">
-        <v>4.1100000000000003</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.79</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
       <c r="A264" t="s">
         <v>265</v>
       </c>
       <c r="B264">
-        <v>1.1000000000000001</v>
+        <v>12.54</v>
       </c>
       <c r="C264">
-        <v>6.06</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
       <c r="A265" t="s">
         <v>266</v>
       </c>
       <c r="B265">
-        <v>-2.66</v>
+        <v>1.1</v>
       </c>
       <c r="C265">
-        <v>-1.64</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
       <c r="A266" t="s">
         <v>267</v>
       </c>
       <c r="B266">
-        <v>-8.35</v>
+        <v>-2.66</v>
       </c>
       <c r="C266">
-        <v>-6.79</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.74</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
       <c r="A267" t="s">
         <v>268</v>
       </c>
       <c r="B267">
-        <v>-5.9</v>
+        <v>-8.35</v>
       </c>
       <c r="C267">
-        <v>-7.92</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.92</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
       <c r="A268" t="s">
         <v>269</v>
       </c>
       <c r="B268">
-        <v>-7.4</v>
+        <v>-5.9</v>
       </c>
       <c r="C268">
-        <v>-2.37</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.07</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
       <c r="A269" t="s">
         <v>270</v>
       </c>
       <c r="B269">
-        <v>0.32</v>
+        <v>-7.4</v>
       </c>
       <c r="C269">
-        <v>2.78</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.24</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
       <c r="A270" t="s">
         <v>271</v>
       </c>
       <c r="B270">
-        <v>-1.1200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="C270">
-        <v>-1.82</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
       <c r="A271" t="s">
         <v>272</v>
       </c>
       <c r="B271">
-        <v>0.71</v>
+        <v>-1.12</v>
       </c>
       <c r="C271">
-        <v>-1.63</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.97</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
       <c r="A272" t="s">
         <v>273</v>
       </c>
       <c r="B272">
-        <v>-3.97</v>
+        <v>0.71</v>
       </c>
       <c r="C272">
-        <v>-2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.76</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
       <c r="A273" t="s">
         <v>274</v>
       </c>
       <c r="B273">
-        <v>-0.6</v>
+        <v>-3.97</v>
       </c>
       <c r="C273">
-        <v>-0.82</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.63</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
       <c r="A274" t="s">
         <v>275</v>
       </c>
       <c r="B274">
-        <v>-3.48</v>
+        <v>-0.6</v>
       </c>
       <c r="C274">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
       <c r="A275" t="s">
         <v>276</v>
       </c>
       <c r="B275">
-        <v>-5.75</v>
+        <v>-3.48</v>
       </c>
       <c r="C275">
-        <v>-6.86</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
       <c r="A276" t="s">
         <v>277</v>
       </c>
       <c r="B276">
-        <v>0</v>
+        <v>-5.75</v>
       </c>
       <c r="C276">
-        <v>-8.0299999999999994</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.11</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
       <c r="A277" t="s">
         <v>278</v>
       </c>
       <c r="B277">
-        <v>3.23</v>
+        <v>0</v>
       </c>
       <c r="C277">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.17</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
       <c r="A278" t="s">
         <v>279</v>
       </c>
       <c r="B278">
-        <v>-7.07</v>
+        <v>3.23</v>
       </c>
       <c r="C278">
-        <v>-6.77</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8.550000000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
       <c r="A279" t="s">
         <v>280</v>
       </c>
       <c r="B279">
-        <v>-1.01</v>
+        <v>-7.07</v>
       </c>
       <c r="C279">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.92</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
       <c r="A280" t="s">
         <v>281</v>
       </c>
       <c r="B280">
-        <v>2.91</v>
+        <v>-1.01</v>
       </c>
       <c r="C280">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
       <c r="A281" t="s">
         <v>282</v>
       </c>
       <c r="B281">
-        <v>-2.15</v>
+        <v>2.91</v>
       </c>
       <c r="C281">
-        <v>-4.7</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
       <c r="A282" t="s">
         <v>283</v>
       </c>
       <c r="B282">
-        <v>1.51</v>
+        <v>-2.15</v>
       </c>
       <c r="C282">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.85</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
       <c r="A283" t="s">
         <v>284</v>
       </c>
       <c r="B283">
-        <v>-4.5999999999999996</v>
+        <v>1.51</v>
       </c>
       <c r="C283">
-        <v>-7.21</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
       <c r="A284" t="s">
         <v>285</v>
       </c>
       <c r="B284">
-        <v>-5.36</v>
+        <v>-4.6</v>
       </c>
       <c r="C284">
-        <v>-4.34</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.49</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
       <c r="A285" t="s">
         <v>286</v>
       </c>
       <c r="B285">
-        <v>-1.43</v>
+        <v>-5.36</v>
       </c>
       <c r="C285">
-        <v>-4.42</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.08</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
       <c r="A286" t="s">
         <v>287</v>
       </c>
       <c r="B286">
-        <v>2.68</v>
+        <v>-1.43</v>
       </c>
       <c r="C286">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.58</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
       <c r="A287" t="s">
         <v>288</v>
       </c>
       <c r="B287">
-        <v>-8.09</v>
+        <v>2.68</v>
       </c>
       <c r="C287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
       <c r="A288" t="s">
         <v>289</v>
       </c>
       <c r="B288">
-        <v>7.0000000000000007E-2</v>
+        <v>-8.09</v>
       </c>
       <c r="C288">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
       <c r="A289" t="s">
         <v>290</v>
       </c>
       <c r="B289">
-        <v>-6.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C289">
-        <v>-4.99</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
       <c r="A290" t="s">
         <v>291</v>
       </c>
       <c r="B290">
-        <v>-2.78</v>
+        <v>-6.7</v>
       </c>
       <c r="C290">
-        <v>-1.73</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.13</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
       <c r="A291" t="s">
         <v>292</v>
       </c>
       <c r="B291">
-        <v>1.57</v>
+        <v>-2.78</v>
       </c>
       <c r="C291">
-        <v>3.57</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.88</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
       <c r="A292" t="s">
         <v>293</v>
       </c>
       <c r="B292">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="C292">
-        <v>-7.69</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
       <c r="A293" t="s">
         <v>294</v>
       </c>
       <c r="B293">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="C293">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.83</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
       <c r="A294" t="s">
         <v>295</v>
       </c>
       <c r="B294">
-        <v>-7.43</v>
+        <v>1.74</v>
       </c>
       <c r="C294">
-        <v>-6.33</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
       <c r="A295" t="s">
         <v>296</v>
       </c>
       <c r="B295">
-        <v>-9.23</v>
+        <v>-7.43</v>
       </c>
       <c r="C295">
-        <v>-5.67</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.47</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
       <c r="A296" t="s">
         <v>297</v>
       </c>
       <c r="B296">
-        <v>8.26</v>
+        <v>-9.23</v>
       </c>
       <c r="C296">
-        <v>9.67</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.81</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
       <c r="A297" t="s">
         <v>298</v>
       </c>
       <c r="B297">
-        <v>-3.32</v>
+        <v>8.26</v>
       </c>
       <c r="C297">
-        <v>-5.99</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9.550000000000001</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
       <c r="A298" t="s">
         <v>299</v>
       </c>
       <c r="B298">
-        <v>4.8499999999999996</v>
+        <v>-3.32</v>
       </c>
       <c r="C298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.13</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
       <c r="A299" t="s">
         <v>300</v>
       </c>
       <c r="B299">
-        <v>-3.94</v>
+        <v>4.85</v>
       </c>
       <c r="C299">
-        <v>-2.77</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
       <c r="A300" t="s">
         <v>301</v>
       </c>
       <c r="B300">
-        <v>2.11</v>
+        <v>-3.94</v>
       </c>
       <c r="C300">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.92</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
       <c r="A301" t="s">
         <v>302</v>
       </c>
       <c r="B301">
-        <v>-7.41</v>
+        <v>2.11</v>
       </c>
       <c r="C301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
       <c r="A302" t="s">
         <v>303</v>
       </c>
       <c r="B302">
-        <v>-7.12</v>
+        <v>-7.41</v>
       </c>
       <c r="C302">
-        <v>-5.18</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
       <c r="A303" t="s">
         <v>304</v>
       </c>
       <c r="B303">
-        <v>-1.92</v>
+        <v>-7.12</v>
       </c>
       <c r="C303">
-        <v>-1.17</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.32</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
       <c r="A304" t="s">
         <v>305</v>
       </c>
       <c r="B304">
-        <v>-7.0000000000000007E-2</v>
+        <v>-1.92</v>
       </c>
       <c r="C304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.31</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
       <c r="A305" t="s">
         <v>306</v>
       </c>
       <c r="B305">
-        <v>-1.0900000000000001</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="C305">
-        <v>-1.8</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
       <c r="A306" t="s">
         <v>307</v>
       </c>
       <c r="B306">
-        <v>-5.73</v>
+        <v>-1.09</v>
       </c>
       <c r="C306">
-        <v>-3.94</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.96</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
       <c r="A307" t="s">
         <v>308</v>
       </c>
       <c r="B307">
-        <v>-1.29</v>
+        <v>-5.73</v>
       </c>
       <c r="C307">
-        <v>-0.91</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.07</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
       <c r="A308" t="s">
         <v>309</v>
       </c>
       <c r="B308">
-        <v>-5.82</v>
+        <v>-1.29</v>
       </c>
       <c r="C308">
-        <v>-3.33</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.08</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
       <c r="A309" t="s">
         <v>310</v>
       </c>
       <c r="B309">
-        <v>-2.16</v>
+        <v>-5.82</v>
       </c>
       <c r="C309">
-        <v>-0.83</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.47</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
       <c r="A310" t="s">
         <v>311</v>
       </c>
       <c r="B310">
-        <v>-6.14</v>
+        <v>-2.16</v>
       </c>
       <c r="C310">
-        <v>-4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
       <c r="A311" t="s">
         <v>312</v>
       </c>
       <c r="B311">
-        <v>0</v>
+        <v>-6.14</v>
       </c>
       <c r="C311">
-        <v>-8.7799999999999994</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
       <c r="A312" t="s">
         <v>313</v>
       </c>
       <c r="B312">
-        <v>9.4499999999999993</v>
+        <v>0</v>
       </c>
       <c r="C312">
-        <v>10.07</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.93</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
       <c r="A313" t="s">
         <v>314</v>
       </c>
       <c r="B313">
-        <v>-1.02</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C313">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9.960000000000001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
       <c r="A314" t="s">
         <v>315</v>
       </c>
       <c r="B314">
-        <v>-4.3099999999999996</v>
+        <v>-1.02</v>
       </c>
       <c r="C314">
-        <v>-4.05</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
       <c r="A315" t="s">
         <v>316</v>
       </c>
       <c r="B315">
-        <v>-1.78</v>
+        <v>-4.31</v>
       </c>
       <c r="C315">
-        <v>-4.41</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.21</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
       <c r="A316" t="s">
         <v>317</v>
       </c>
       <c r="B316">
-        <v>-6.46</v>
+        <v>-1.78</v>
       </c>
       <c r="C316">
-        <v>-1.7</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.56</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
       <c r="A317" t="s">
         <v>318</v>
       </c>
       <c r="B317">
-        <v>0.67</v>
+        <v>-6.46</v>
       </c>
       <c r="C317">
-        <v>-1.01</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.85</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
       <c r="A318" t="s">
         <v>319</v>
       </c>
       <c r="B318">
-        <v>1.66</v>
+        <v>0.67</v>
       </c>
       <c r="C318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
       <c r="A319" t="s">
         <v>320</v>
       </c>
       <c r="B319">
-        <v>-6.53</v>
+        <v>1.66</v>
       </c>
       <c r="C319">
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3">
       <c r="A320" t="s">
         <v>321</v>
       </c>
       <c r="B320">
-        <v>0.4</v>
+        <v>-6.53</v>
       </c>
       <c r="C320">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
       <c r="A321" t="s">
         <v>322</v>
       </c>
       <c r="B321">
-        <v>-9.33</v>
+        <v>0.4</v>
       </c>
       <c r="C321">
-        <v>-6.86</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
       <c r="A322" t="s">
         <v>323</v>
       </c>
       <c r="B322">
-        <v>-6.6</v>
+        <v>-9.33</v>
       </c>
       <c r="C322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.99</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
       <c r="A323" t="s">
         <v>324</v>
       </c>
       <c r="B323">
-        <v>-1.43</v>
+        <v>-6.6</v>
       </c>
       <c r="C323">
-        <v>-1.04</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
       <c r="A324" t="s">
         <v>325</v>
       </c>
       <c r="B324">
-        <v>-7.64</v>
+        <v>-1.43</v>
       </c>
       <c r="C324">
-        <v>-6.65</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.18</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
       <c r="A325" t="s">
         <v>326</v>
       </c>
       <c r="B325">
-        <v>4.6100000000000003</v>
+        <v>-7.64</v>
       </c>
       <c r="C325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
       <c r="A326" t="s">
         <v>327</v>
       </c>
       <c r="B326">
-        <v>-2.52</v>
+        <v>4.61</v>
       </c>
       <c r="C326">
-        <v>-1.9</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
       <c r="A327" t="s">
         <v>328</v>
       </c>
       <c r="B327">
-        <v>-5.52</v>
+        <v>-2.52</v>
       </c>
       <c r="C327">
-        <v>-4.07</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.06</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
       <c r="A328" t="s">
         <v>329</v>
       </c>
       <c r="B328">
-        <v>1.59</v>
+        <v>-5.52</v>
       </c>
       <c r="C328">
-        <v>-1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.09</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
       <c r="A329" t="s">
         <v>330</v>
       </c>
       <c r="B329">
-        <v>-0.56999999999999995</v>
+        <v>1.59</v>
       </c>
       <c r="C329">
-        <v>-0.46</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.26</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
       <c r="A330" t="s">
         <v>331</v>
       </c>
       <c r="B330">
-        <v>8.5</v>
+        <v>-0.57</v>
       </c>
       <c r="C330">
-        <v>8.6300000000000008</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
       <c r="A331" t="s">
         <v>332</v>
       </c>
       <c r="B331">
-        <v>-2.36</v>
+        <v>8.5</v>
       </c>
       <c r="C331">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
       <c r="A332" t="s">
         <v>333</v>
       </c>
       <c r="B332">
-        <v>8.73</v>
+        <v>-2.36</v>
       </c>
       <c r="C332">
-        <v>9.2799999999999994</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
       <c r="A333" t="s">
         <v>334</v>
       </c>
       <c r="B333">
-        <v>-2.81</v>
+        <v>8.73</v>
       </c>
       <c r="C333">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9.140000000000001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
       <c r="A334" t="s">
         <v>335</v>
       </c>
       <c r="B334">
-        <v>6.22</v>
+        <v>-2.81</v>
       </c>
       <c r="C334">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
       <c r="A335" t="s">
         <v>336</v>
       </c>
       <c r="B335">
-        <v>6.64</v>
+        <v>6.22</v>
       </c>
       <c r="C335">
-        <v>8.65</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
       <c r="A336" t="s">
         <v>337</v>
       </c>
       <c r="B336">
-        <v>-5.15</v>
+        <v>6.64</v>
       </c>
       <c r="C336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
       <c r="A337" t="s">
         <v>338</v>
       </c>
       <c r="B337">
-        <v>0</v>
+        <v>-5.15</v>
       </c>
       <c r="C337">
-        <v>-6.89</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
       <c r="A338" t="s">
         <v>339</v>
       </c>
@@ -5674,98 +5661,98 @@
         <v>0</v>
       </c>
       <c r="C338">
-        <v>-9.42</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.02</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
       <c r="A339" t="s">
         <v>340</v>
       </c>
       <c r="B339">
-        <v>-3.6</v>
+        <v>0</v>
       </c>
       <c r="C339">
-        <v>-4.28</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-9.550000000000001</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
       <c r="A340" t="s">
         <v>341</v>
       </c>
       <c r="B340">
-        <v>-0.95</v>
+        <v>-3.6</v>
       </c>
       <c r="C340">
-        <v>-3.64</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.41</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
       <c r="A341" t="s">
         <v>342</v>
       </c>
       <c r="B341">
-        <v>-0.17</v>
+        <v>-0.95</v>
       </c>
       <c r="C341">
-        <v>2.33</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.79</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
       <c r="A342" t="s">
         <v>343</v>
       </c>
       <c r="B342">
-        <v>14.36</v>
+        <v>-0.17</v>
       </c>
       <c r="C342">
-        <v>7.93</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
       <c r="A343" t="s">
         <v>344</v>
       </c>
       <c r="B343">
-        <v>-8.42</v>
+        <v>14.36</v>
       </c>
       <c r="C343">
-        <v>-8.65</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8.279999999999999</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
       <c r="A344" t="s">
         <v>345</v>
       </c>
       <c r="B344">
-        <v>-2.69</v>
+        <v>-8.42</v>
       </c>
       <c r="C344">
-        <v>-1.19</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.789999999999999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
       <c r="A345" t="s">
         <v>346</v>
       </c>
       <c r="B345">
-        <v>-2.75</v>
+        <v>-2.69</v>
       </c>
       <c r="C345">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
       <c r="A346" t="s">
         <v>347</v>
       </c>
       <c r="B346">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="C346">
-        <v>-4.8</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.75</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
       <c r="A347" t="s">
         <v>348</v>
       </c>
@@ -5773,428 +5760,428 @@
         <v>0</v>
       </c>
       <c r="C347">
-        <v>-6.95</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.94</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
       <c r="A348" t="s">
         <v>349</v>
       </c>
       <c r="B348">
-        <v>-5.32</v>
+        <v>0</v>
       </c>
       <c r="C348">
-        <v>-2.0299999999999998</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.08</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
       <c r="A349" t="s">
         <v>350</v>
       </c>
       <c r="B349">
-        <v>-1.32</v>
+        <v>-5.32</v>
       </c>
       <c r="C349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.16</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
       <c r="A350" t="s">
         <v>351</v>
       </c>
       <c r="B350">
-        <v>0</v>
+        <v>-1.32</v>
       </c>
       <c r="C350">
-        <v>-9.0500000000000007</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
       <c r="A351" t="s">
         <v>352</v>
       </c>
       <c r="B351">
-        <v>-2.81</v>
+        <v>0</v>
       </c>
       <c r="C351">
-        <v>-2.12</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-9.19</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
       <c r="A352" t="s">
         <v>353</v>
       </c>
       <c r="B352">
-        <v>0.27</v>
+        <v>-2.81</v>
       </c>
       <c r="C352">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.27</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
       <c r="A353" t="s">
         <v>354</v>
       </c>
       <c r="B353">
-        <v>-6.84</v>
+        <v>0.27</v>
       </c>
       <c r="C353">
-        <v>-7.3</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
       <c r="A354" t="s">
         <v>355</v>
       </c>
       <c r="B354">
-        <v>-3.62</v>
+        <v>-6.84</v>
       </c>
       <c r="C354">
-        <v>-5.16</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.44</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
       <c r="A355" t="s">
         <v>356</v>
       </c>
       <c r="B355">
-        <v>-1.07</v>
+        <v>-3.62</v>
       </c>
       <c r="C355">
-        <v>-2.92</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
       <c r="A356" t="s">
         <v>357</v>
       </c>
       <c r="B356">
-        <v>1.99</v>
+        <v>-1.07</v>
       </c>
       <c r="C356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.61</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
       <c r="A357" t="s">
         <v>358</v>
       </c>
       <c r="B357">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="C357">
-        <v>-7.26</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
       <c r="A358" t="s">
         <v>359</v>
       </c>
       <c r="B358">
-        <v>-4.41</v>
+        <v>0</v>
       </c>
       <c r="C358">
-        <v>-6.65</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.41</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
       <c r="A359" t="s">
         <v>360</v>
       </c>
       <c r="B359">
-        <v>0</v>
+        <v>-4.41</v>
       </c>
       <c r="C359">
-        <v>-8.32</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.78</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
       <c r="A360" t="s">
         <v>361</v>
       </c>
       <c r="B360">
-        <v>-4.45</v>
+        <v>0</v>
       </c>
       <c r="C360">
-        <v>-3.87</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.46</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
       <c r="A361" t="s">
         <v>362</v>
       </c>
       <c r="B361">
-        <v>-4.87</v>
+        <v>-4.45</v>
       </c>
       <c r="C361">
-        <v>-6.14</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.56</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
       <c r="A362" t="s">
         <v>363</v>
       </c>
       <c r="B362">
-        <v>-2.68</v>
+        <v>-4.87</v>
       </c>
       <c r="C362">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.29</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
       <c r="A363" t="s">
         <v>364</v>
       </c>
       <c r="B363">
-        <v>-7.6</v>
+        <v>-2.68</v>
       </c>
       <c r="C363">
-        <v>-8.75</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
       <c r="A364" t="s">
         <v>365</v>
       </c>
       <c r="B364">
-        <v>-4.67</v>
+        <v>-7.6</v>
       </c>
       <c r="C364">
-        <v>-4.87</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.9</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
       <c r="A365" t="s">
         <v>366</v>
       </c>
       <c r="B365">
-        <v>-0.79</v>
+        <v>-4.67</v>
       </c>
       <c r="C365">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.03</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
       <c r="A366" t="s">
         <v>367</v>
       </c>
       <c r="B366">
-        <v>-5.54</v>
+        <v>-0.79</v>
       </c>
       <c r="C366">
-        <v>-5.01</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
       <c r="A367" t="s">
         <v>368</v>
       </c>
       <c r="B367">
-        <v>-10.29</v>
+        <v>-5.54</v>
       </c>
       <c r="C367">
-        <v>-8.32</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.79</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
       <c r="A368" t="s">
         <v>369</v>
       </c>
       <c r="B368">
-        <v>1.8</v>
+        <v>-10.29</v>
       </c>
       <c r="C368">
-        <v>4.32</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.460000000000001</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
       <c r="A369" t="s">
         <v>370</v>
       </c>
       <c r="B369">
-        <v>3.31</v>
+        <v>1.8</v>
       </c>
       <c r="C369">
-        <v>2.33</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
       <c r="A370" t="s">
         <v>371</v>
       </c>
       <c r="B370">
-        <v>0.89</v>
+        <v>3.31</v>
       </c>
       <c r="C370">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
       <c r="A371" t="s">
         <v>372</v>
       </c>
       <c r="B371">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="C371">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
       <c r="A372" t="s">
         <v>373</v>
       </c>
       <c r="B372">
-        <v>-0.39</v>
+        <v>0.91</v>
       </c>
       <c r="C372">
-        <v>-0.38</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
       <c r="A373" t="s">
         <v>374</v>
       </c>
       <c r="B373">
-        <v>0.64</v>
+        <v>-0.39</v>
       </c>
       <c r="C373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
       <c r="A374" t="s">
         <v>375</v>
       </c>
       <c r="B374">
-        <v>-3.31</v>
+        <v>0.64</v>
       </c>
       <c r="C374">
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3">
       <c r="A375" t="s">
         <v>376</v>
       </c>
       <c r="B375">
-        <v>-5.43</v>
+        <v>-3.31</v>
       </c>
       <c r="C375">
-        <v>-5.55</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
       <c r="A376" t="s">
         <v>377</v>
       </c>
       <c r="B376">
-        <v>-2.1800000000000002</v>
+        <v>-5.43</v>
       </c>
       <c r="C376">
-        <v>-0.81</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.99</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
       <c r="A377" t="s">
         <v>378</v>
       </c>
       <c r="B377">
-        <v>-4.01</v>
+        <v>-2.18</v>
       </c>
       <c r="C377">
-        <v>-2.76</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
       <c r="A378" t="s">
         <v>379</v>
       </c>
       <c r="B378">
-        <v>0</v>
+        <v>-4.01</v>
       </c>
       <c r="C378">
-        <v>-8.4499999999999993</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.9</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
       <c r="A379" t="s">
         <v>380</v>
       </c>
       <c r="B379">
-        <v>-9.02</v>
+        <v>0</v>
       </c>
       <c r="C379">
-        <v>-3.3</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.6</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
       <c r="A380" t="s">
         <v>381</v>
       </c>
       <c r="B380">
-        <v>4.07</v>
+        <v>-9.02</v>
       </c>
       <c r="C380">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.43</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
       <c r="A381" t="s">
         <v>382</v>
       </c>
       <c r="B381">
-        <v>-3.41</v>
+        <v>4.07</v>
       </c>
       <c r="C381">
-        <v>-0.95</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
       <c r="A382" t="s">
         <v>383</v>
       </c>
       <c r="B382">
-        <v>-7.53</v>
+        <v>-3.41</v>
       </c>
       <c r="C382">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
       <c r="A383" t="s">
         <v>384</v>
       </c>
       <c r="B383">
-        <v>0</v>
+        <v>-7.53</v>
       </c>
       <c r="C383">
-        <v>-5.39</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
       <c r="A384" t="s">
         <v>385</v>
       </c>
       <c r="B384">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="C384">
-        <v>3.42</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.51</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
       <c r="A385" t="s">
         <v>386</v>
       </c>
       <c r="B385">
-        <v>-0.38</v>
+        <v>1.23</v>
       </c>
       <c r="C385">
-        <v>-2.25</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
       <c r="A386" t="s">
         <v>387</v>
       </c>
@@ -6202,307 +6189,307 @@
         <v>-0.38</v>
       </c>
       <c r="C386">
-        <v>3.23</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.38</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
       <c r="A387" t="s">
         <v>388</v>
       </c>
       <c r="B387">
-        <v>-7.31</v>
+        <v>-0.38</v>
       </c>
       <c r="C387">
-        <v>-7.62</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
       <c r="A388" t="s">
         <v>389</v>
       </c>
       <c r="B388">
-        <v>-1.7</v>
+        <v>-7.31</v>
       </c>
       <c r="C388">
-        <v>-0.72</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.77</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
       <c r="A389" t="s">
         <v>390</v>
       </c>
       <c r="B389">
-        <v>-2.23</v>
+        <v>-1.7</v>
       </c>
       <c r="C389">
-        <v>-3.24</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
       <c r="A390" t="s">
         <v>391</v>
       </c>
       <c r="B390">
-        <v>2.88</v>
+        <v>-2.23</v>
       </c>
       <c r="C390">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
       <c r="A391" t="s">
         <v>392</v>
       </c>
       <c r="B391">
-        <v>-6.49</v>
+        <v>2.88</v>
       </c>
       <c r="C391">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
       <c r="A392" t="s">
         <v>393</v>
       </c>
       <c r="B392">
-        <v>15.1</v>
+        <v>-6.49</v>
       </c>
       <c r="C392">
-        <v>18.309999999999999</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
       <c r="A393" t="s">
         <v>394</v>
       </c>
       <c r="B393">
-        <v>-1.38</v>
+        <v>15.1</v>
       </c>
       <c r="C393">
-        <v>-2.19</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
       <c r="A394" t="s">
         <v>395</v>
       </c>
       <c r="B394">
-        <v>5.52</v>
+        <v>-1.38</v>
       </c>
       <c r="C394">
-        <v>8.09</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.34</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
       <c r="A395" t="s">
         <v>396</v>
       </c>
       <c r="B395">
-        <v>-0.46</v>
+        <v>5.52</v>
       </c>
       <c r="C395">
-        <v>-3.62</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
       <c r="A396" t="s">
         <v>397</v>
       </c>
       <c r="B396">
-        <v>2.2000000000000002</v>
+        <v>-0.46</v>
       </c>
       <c r="C396">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.77</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
       <c r="A397" t="s">
         <v>398</v>
       </c>
       <c r="B397">
-        <v>2.4300000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="C397">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
       <c r="A398" t="s">
         <v>399</v>
       </c>
       <c r="B398">
-        <v>-2.27</v>
+        <v>2.43</v>
       </c>
       <c r="C398">
-        <v>-1.93</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
       <c r="A399" t="s">
         <v>400</v>
       </c>
       <c r="B399">
-        <v>-5.42</v>
+        <v>-2.27</v>
       </c>
       <c r="C399">
-        <v>3.05</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.07</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
       <c r="A400" t="s">
         <v>401</v>
       </c>
       <c r="B400">
-        <v>-8.84</v>
+        <v>-5.42</v>
       </c>
       <c r="C400">
-        <v>-8.35</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
       <c r="A401" t="s">
         <v>402</v>
       </c>
       <c r="B401">
-        <v>3.2</v>
+        <v>-8.84</v>
       </c>
       <c r="C401">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
       <c r="A402" t="s">
         <v>403</v>
       </c>
       <c r="B402">
-        <v>-7.19</v>
+        <v>3.2</v>
       </c>
       <c r="C402">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
       <c r="A403" t="s">
         <v>404</v>
       </c>
       <c r="B403">
-        <v>0</v>
+        <v>-7.19</v>
       </c>
       <c r="C403">
-        <v>-4.8899999999999997</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
       <c r="A404" t="s">
         <v>405</v>
       </c>
       <c r="B404">
-        <v>-7.58</v>
+        <v>0</v>
       </c>
       <c r="C404">
-        <v>-4.37</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.65</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
       <c r="A405" t="s">
         <v>406</v>
       </c>
       <c r="B405">
-        <v>-8.4499999999999993</v>
+        <v>-7.58</v>
       </c>
       <c r="C405">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.52</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
       <c r="A406" t="s">
         <v>407</v>
       </c>
       <c r="B406">
-        <v>0.05</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="C406">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
       <c r="A407" t="s">
         <v>408</v>
       </c>
       <c r="B407">
-        <v>-8.2100000000000009</v>
+        <v>0.05</v>
       </c>
       <c r="C407">
-        <v>-7.27</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
       <c r="A408" t="s">
         <v>409</v>
       </c>
       <c r="B408">
-        <v>-8.85</v>
+        <v>-8.210000000000001</v>
       </c>
       <c r="C408">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.41</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
       <c r="A409" t="s">
         <v>410</v>
       </c>
       <c r="B409">
-        <v>-8.4600000000000009</v>
+        <v>-8.85</v>
       </c>
       <c r="C409">
-        <v>-7.67</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
       <c r="A410" t="s">
         <v>411</v>
       </c>
       <c r="B410">
-        <v>2.86</v>
+        <v>-8.460000000000001</v>
       </c>
       <c r="C410">
-        <v>5.45</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.81</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
       <c r="A411" t="s">
         <v>412</v>
       </c>
       <c r="B411">
-        <v>3.06</v>
+        <v>2.86</v>
       </c>
       <c r="C411">
-        <v>4.6100000000000003</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
       <c r="A412" t="s">
         <v>413</v>
       </c>
       <c r="B412">
-        <v>-4.22</v>
+        <v>3.06</v>
       </c>
       <c r="C412">
-        <v>-4.8899999999999997</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
       <c r="A413" t="s">
         <v>414</v>
       </c>
       <c r="B413">
-        <v>0</v>
+        <v>-4.22</v>
       </c>
       <c r="C413">
-        <v>-7.69</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.04</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
       <c r="A414" t="s">
         <v>415</v>
       </c>
@@ -6510,494 +6497,494 @@
         <v>0</v>
       </c>
       <c r="C414">
-        <v>-6.83</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.83</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
       <c r="A415" t="s">
         <v>416</v>
       </c>
       <c r="B415">
-        <v>-1.1599999999999999</v>
+        <v>0</v>
       </c>
       <c r="C415">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.98</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
       <c r="A416" t="s">
         <v>417</v>
       </c>
       <c r="B416">
-        <v>-7.13</v>
+        <v>-1.16</v>
       </c>
       <c r="C416">
-        <v>-4.6100000000000003</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
       <c r="A417" t="s">
         <v>418</v>
       </c>
       <c r="B417">
-        <v>6.46</v>
+        <v>-7.13</v>
       </c>
       <c r="C417">
-        <v>5.51</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.76</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
       <c r="A418" t="s">
         <v>419</v>
       </c>
       <c r="B418">
-        <v>-3.01</v>
+        <v>6.46</v>
       </c>
       <c r="C418">
-        <v>-2.99</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
       <c r="A419" t="s">
         <v>420</v>
       </c>
       <c r="B419">
-        <v>0.22</v>
+        <v>-3.01</v>
       </c>
       <c r="C419">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.13</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
       <c r="A420" t="s">
         <v>421</v>
       </c>
       <c r="B420">
-        <v>-7.29</v>
+        <v>0.22</v>
       </c>
       <c r="C420">
-        <v>-5.2</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
       <c r="A421" t="s">
         <v>422</v>
       </c>
       <c r="B421">
-        <v>-2.5299999999999998</v>
+        <v>-7.29</v>
       </c>
       <c r="C421">
-        <v>-1.78</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.34</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
       <c r="A422" t="s">
         <v>423</v>
       </c>
       <c r="B422">
-        <v>-4.45</v>
+        <v>-2.53</v>
       </c>
       <c r="C422">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.94</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
       <c r="A423" t="s">
         <v>424</v>
       </c>
       <c r="B423">
-        <v>-5.51</v>
+        <v>-4.45</v>
       </c>
       <c r="C423">
-        <v>-5.44</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
       <c r="A424" t="s">
         <v>425</v>
       </c>
       <c r="B424">
-        <v>0</v>
+        <v>-5.51</v>
       </c>
       <c r="C424">
-        <v>-4.8499999999999996</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.97</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
       <c r="A425" t="s">
         <v>426</v>
       </c>
       <c r="B425">
-        <v>-8.42</v>
+        <v>0</v>
       </c>
       <c r="C425">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.98</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
       <c r="A426" t="s">
         <v>427</v>
       </c>
       <c r="B426">
-        <v>0.48</v>
+        <v>-8.42</v>
       </c>
       <c r="C426">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
       <c r="A427" t="s">
         <v>428</v>
       </c>
       <c r="B427">
-        <v>-4.9400000000000004</v>
+        <v>0.48</v>
       </c>
       <c r="C427">
-        <v>-5.3</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
       <c r="A428" t="s">
         <v>429</v>
       </c>
       <c r="B428">
-        <v>0</v>
+        <v>-4.94</v>
       </c>
       <c r="C428">
-        <v>-6.41</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.57</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
       <c r="A429" t="s">
         <v>430</v>
       </c>
       <c r="B429">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="C429">
-        <v>-5.4</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.55</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
       <c r="A430" t="s">
         <v>431</v>
       </c>
       <c r="B430">
-        <v>-5.91</v>
+        <v>-2.75</v>
       </c>
       <c r="C430">
-        <v>-5.21</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.54</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
       <c r="A431" t="s">
         <v>432</v>
       </c>
       <c r="B431">
-        <v>-5.55</v>
+        <v>-5.91</v>
       </c>
       <c r="C431">
-        <v>-7.4</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.36</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
       <c r="A432" t="s">
         <v>433</v>
       </c>
       <c r="B432">
-        <v>-8.73</v>
+        <v>-5.55</v>
       </c>
       <c r="C432">
-        <v>-7.18</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.53</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
       <c r="A433" t="s">
         <v>434</v>
       </c>
       <c r="B433">
-        <v>0</v>
+        <v>-8.73</v>
       </c>
       <c r="C433">
-        <v>-8.26</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.33</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
       <c r="A434" t="s">
         <v>435</v>
       </c>
       <c r="B434">
-        <v>-3.81</v>
+        <v>0</v>
       </c>
       <c r="C434">
-        <v>-5.86</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.41</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
       <c r="A435" t="s">
         <v>436</v>
       </c>
       <c r="B435">
-        <v>-2.44</v>
+        <v>-3.81</v>
       </c>
       <c r="C435">
-        <v>7.64</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.22</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
       <c r="A436" t="s">
         <v>437</v>
       </c>
       <c r="B436">
-        <v>-3.12</v>
+        <v>-2.44</v>
       </c>
       <c r="C436">
-        <v>-4.88</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
       <c r="A437" t="s">
         <v>438</v>
       </c>
       <c r="B437">
-        <v>-2.54</v>
+        <v>-3.12</v>
       </c>
       <c r="C437">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.02</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
       <c r="A438" t="s">
         <v>439</v>
       </c>
       <c r="B438">
-        <v>3.99</v>
+        <v>-2.54</v>
       </c>
       <c r="C438">
-        <v>3.92</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
       <c r="A439" t="s">
         <v>440</v>
       </c>
       <c r="B439">
-        <v>-0.04</v>
+        <v>3.99</v>
       </c>
       <c r="C439">
-        <v>-0.86</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
       <c r="A440" t="s">
         <v>441</v>
       </c>
       <c r="B440">
-        <v>-2.4700000000000002</v>
+        <v>-0.04</v>
       </c>
       <c r="C440">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
       <c r="A441" t="s">
         <v>442</v>
       </c>
       <c r="B441">
-        <v>-4.83</v>
+        <v>-2.47</v>
       </c>
       <c r="C441">
-        <v>-3.21</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
       <c r="A442" t="s">
         <v>443</v>
       </c>
       <c r="B442">
-        <v>-8.01</v>
+        <v>-4.83</v>
       </c>
       <c r="C442">
-        <v>-4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.44</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
       <c r="A443" t="s">
         <v>444</v>
       </c>
       <c r="B443">
-        <v>-3.99</v>
+        <v>-8.01</v>
       </c>
       <c r="C443">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.25</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
       <c r="A444" t="s">
         <v>445</v>
       </c>
       <c r="B444">
-        <v>-2.0299999999999998</v>
+        <v>-3.99</v>
       </c>
       <c r="C444">
-        <v>-2.5099999999999998</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
       <c r="A445" t="s">
         <v>446</v>
       </c>
       <c r="B445">
-        <v>-5.56</v>
+        <v>-2.03</v>
       </c>
       <c r="C445">
-        <v>-2.78</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.66</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
       <c r="A446" t="s">
         <v>447</v>
       </c>
       <c r="B446">
-        <v>-8.81</v>
+        <v>-5.56</v>
       </c>
       <c r="C446">
-        <v>-4.01</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.93</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
       <c r="A447" t="s">
         <v>448</v>
       </c>
       <c r="B447">
-        <v>-2.36</v>
+        <v>-8.81</v>
       </c>
       <c r="C447">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.14</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
       <c r="A448" t="s">
         <v>449</v>
       </c>
       <c r="B448">
-        <v>-0.14000000000000001</v>
+        <v>-2.36</v>
       </c>
       <c r="C448">
-        <v>-1.06</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
       <c r="A449" t="s">
         <v>450</v>
       </c>
       <c r="B449">
-        <v>8.02</v>
+        <v>-0.14</v>
       </c>
       <c r="C449">
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
       <c r="A450" t="s">
         <v>451</v>
       </c>
       <c r="B450">
-        <v>0.78</v>
+        <v>8.02</v>
       </c>
       <c r="C450">
-        <v>2.99</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
       <c r="A451" t="s">
         <v>452</v>
       </c>
       <c r="B451">
-        <v>-2.4</v>
+        <v>0.78</v>
       </c>
       <c r="C451">
-        <v>-4.7699999999999996</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
       <c r="A452" t="s">
         <v>453</v>
       </c>
       <c r="B452">
-        <v>-1.79</v>
+        <v>-2.4</v>
       </c>
       <c r="C452">
-        <v>-3.42</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.91</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
       <c r="A453" t="s">
         <v>454</v>
       </c>
       <c r="B453">
-        <v>14.22</v>
+        <v>-1.79</v>
       </c>
       <c r="C453">
-        <v>11.94</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.94</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
       <c r="A454" t="s">
         <v>455</v>
       </c>
       <c r="B454">
-        <v>-6.12</v>
+        <v>14.22</v>
       </c>
       <c r="C454">
-        <v>-5.92</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11.79</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
       <c r="A455" t="s">
         <v>456</v>
       </c>
       <c r="B455">
-        <v>-8.92</v>
+        <v>-6.12</v>
       </c>
       <c r="C455">
-        <v>-7.29</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.06</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
       <c r="A456" t="s">
         <v>457</v>
       </c>
       <c r="B456">
-        <v>-6</v>
+        <v>-8.92</v>
       </c>
       <c r="C456">
-        <v>-4.57</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.42</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
       <c r="A457" t="s">
         <v>458</v>
       </c>
       <c r="B457">
-        <v>-4.16</v>
+        <v>-6</v>
       </c>
       <c r="C457">
-        <v>-5.86</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.71</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
       <c r="A458" t="s">
         <v>459</v>
       </c>
       <c r="B458">
-        <v>0</v>
+        <v>-4.16</v>
       </c>
       <c r="C458">
-        <v>-6.05</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.59</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
       <c r="A459" t="s">
         <v>460</v>
       </c>
@@ -7005,285 +6992,285 @@
         <v>0</v>
       </c>
       <c r="C459">
-        <v>-8.7799999999999994</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
       <c r="A460" t="s">
         <v>461</v>
       </c>
       <c r="B460">
-        <v>9.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="C460">
-        <v>11.17</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.92</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
       <c r="A461" t="s">
         <v>462</v>
       </c>
       <c r="B461">
-        <v>-3.89</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C461">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11.03</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
       <c r="A462" t="s">
         <v>463</v>
       </c>
       <c r="B462">
-        <v>-3.38</v>
+        <v>-3.89</v>
       </c>
       <c r="C462">
-        <v>-6.41</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.65</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
       <c r="A463" t="s">
         <v>464</v>
       </c>
       <c r="B463">
-        <v>-5.05</v>
+        <v>-3.38</v>
       </c>
       <c r="C463">
-        <v>-3.46</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.54</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
       <c r="A464" t="s">
         <v>465</v>
       </c>
       <c r="B464">
-        <v>-0.56999999999999995</v>
+        <v>-5.05</v>
       </c>
       <c r="C464">
-        <v>-1.27</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.61</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
       <c r="A465" t="s">
         <v>466</v>
       </c>
       <c r="B465">
-        <v>-9.09</v>
+        <v>-0.57</v>
       </c>
       <c r="C465">
-        <v>-4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
       <c r="A466" t="s">
         <v>467</v>
       </c>
       <c r="B466">
-        <v>0</v>
+        <v>-9.09</v>
       </c>
       <c r="C466">
-        <v>-6.1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.49</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
       <c r="A467" t="s">
         <v>468</v>
       </c>
       <c r="B467">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="C467">
-        <v>3.52</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.23</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
       <c r="A468" t="s">
         <v>469</v>
       </c>
       <c r="B468">
-        <v>-2.4300000000000002</v>
+        <v>1.02</v>
       </c>
       <c r="C468">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
       <c r="A469" t="s">
         <v>470</v>
       </c>
       <c r="B469">
-        <v>0.65</v>
+        <v>-2.43</v>
       </c>
       <c r="C469">
-        <v>-0.65</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
       <c r="A470" t="s">
         <v>471</v>
       </c>
       <c r="B470">
-        <v>-2.85</v>
+        <v>0.65</v>
       </c>
       <c r="C470">
-        <v>-3.61</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
       <c r="A471" t="s">
         <v>472</v>
       </c>
       <c r="B471">
-        <v>-7.84</v>
+        <v>-2.85</v>
       </c>
       <c r="C471">
-        <v>-6.14</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.76</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
       <c r="A472" t="s">
         <v>473</v>
       </c>
       <c r="B472">
-        <v>1.01</v>
+        <v>-7.84</v>
       </c>
       <c r="C472">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.28</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
       <c r="A473" t="s">
         <v>474</v>
       </c>
       <c r="B473">
-        <v>-5.25</v>
+        <v>1.01</v>
       </c>
       <c r="C473">
-        <v>-3.33</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
       <c r="A474" t="s">
         <v>475</v>
       </c>
       <c r="B474">
-        <v>-6.2</v>
+        <v>-5.25</v>
       </c>
       <c r="C474">
-        <v>-6.91</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.48</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
       <c r="A475" t="s">
         <v>476</v>
       </c>
       <c r="B475">
-        <v>-5.34</v>
+        <v>-6.2</v>
       </c>
       <c r="C475">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.06</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
       <c r="A476" t="s">
         <v>477</v>
       </c>
       <c r="B476">
-        <v>3</v>
+        <v>-5.34</v>
       </c>
       <c r="C476">
-        <v>2.84</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.93</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
       <c r="A477" t="s">
         <v>478</v>
       </c>
       <c r="B477">
-        <v>-4.0999999999999996</v>
+        <v>3</v>
       </c>
       <c r="C477">
-        <v>-8.2899999999999991</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
       <c r="A478" t="s">
         <v>479</v>
       </c>
       <c r="B478">
-        <v>-2.27</v>
+        <v>-4.1</v>
       </c>
       <c r="C478">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.43</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
       <c r="A479" t="s">
         <v>480</v>
       </c>
       <c r="B479">
-        <v>9.7200000000000006</v>
+        <v>-2.27</v>
       </c>
       <c r="C479">
-        <v>8.7100000000000009</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
       <c r="A480" t="s">
         <v>481</v>
       </c>
       <c r="B480">
-        <v>2.36</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="C480">
-        <v>-2.12</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
       <c r="A481" t="s">
         <v>482</v>
       </c>
       <c r="B481">
-        <v>-0.46</v>
+        <v>2.36</v>
       </c>
       <c r="C481">
-        <v>-5.93</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.24</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
       <c r="A482" t="s">
         <v>483</v>
       </c>
       <c r="B482">
-        <v>-1.99</v>
+        <v>-0.46</v>
       </c>
       <c r="C482">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.09</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
       <c r="A483" t="s">
         <v>484</v>
       </c>
       <c r="B483">
-        <v>-6.61</v>
+        <v>-1.99</v>
       </c>
       <c r="C483">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
       <c r="A484" t="s">
         <v>485</v>
       </c>
       <c r="B484">
-        <v>0</v>
+        <v>-6.61</v>
       </c>
       <c r="C484">
-        <v>-7.92</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
       <c r="A485" t="s">
         <v>486</v>
       </c>
@@ -7291,274 +7278,274 @@
         <v>0</v>
       </c>
       <c r="C485">
-        <v>-8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.06</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
       <c r="A486" t="s">
         <v>487</v>
       </c>
       <c r="B486">
-        <v>-5.1100000000000003</v>
+        <v>0</v>
       </c>
       <c r="C486">
-        <v>-5.65</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.44</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
       <c r="A487" t="s">
         <v>488</v>
       </c>
       <c r="B487">
-        <v>-3.77</v>
+        <v>-5.11</v>
       </c>
       <c r="C487">
-        <v>-4.1399999999999997</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.8</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
       <c r="A488" t="s">
         <v>489</v>
       </c>
       <c r="B488">
-        <v>2.36</v>
+        <v>-3.77</v>
       </c>
       <c r="C488">
-        <v>-0.42</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.55</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
       <c r="A489" t="s">
         <v>490</v>
       </c>
       <c r="B489">
-        <v>-6</v>
+        <v>2.36</v>
       </c>
       <c r="C489">
-        <v>-3.9</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
       <c r="A490" t="s">
         <v>491</v>
       </c>
       <c r="B490">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="C490">
-        <v>-9.06</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.05</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
       <c r="A491" t="s">
         <v>492</v>
       </c>
       <c r="B491">
-        <v>-6.97</v>
+        <v>0</v>
       </c>
       <c r="C491">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-9.199999999999999</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
       <c r="A492" t="s">
         <v>493</v>
       </c>
       <c r="B492">
-        <v>-8.83</v>
+        <v>-6.97</v>
       </c>
       <c r="C492">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
       <c r="A493" t="s">
         <v>494</v>
       </c>
       <c r="B493">
-        <v>2.95</v>
+        <v>-8.83</v>
       </c>
       <c r="C493">
-        <v>7.61</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
       <c r="A494" t="s">
         <v>495</v>
       </c>
       <c r="B494">
-        <v>-8.1</v>
+        <v>0</v>
       </c>
       <c r="C494">
-        <v>-4.8499999999999996</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.23</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
       <c r="A495" t="s">
         <v>496</v>
       </c>
       <c r="B495">
-        <v>-6.32</v>
+        <v>2.95</v>
       </c>
       <c r="C495">
-        <v>-6.45</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
       <c r="A496" t="s">
         <v>497</v>
       </c>
       <c r="B496">
-        <v>8.57</v>
+        <v>-8.1</v>
       </c>
       <c r="C496">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.98</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
       <c r="A497" t="s">
         <v>498</v>
       </c>
       <c r="B497">
-        <v>0</v>
+        <v>-6.32</v>
       </c>
       <c r="C497">
-        <v>-7.67</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.59</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
       <c r="A498" t="s">
         <v>499</v>
       </c>
       <c r="B498">
-        <v>5.5</v>
+        <v>8.57</v>
       </c>
       <c r="C498">
-        <v>4.4800000000000004</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
       <c r="A499" t="s">
         <v>500</v>
       </c>
       <c r="B499">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="C499">
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.81</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
       <c r="A500" t="s">
         <v>501</v>
       </c>
       <c r="B500">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="C500">
-        <v>-6.89</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
       <c r="A501" t="s">
         <v>502</v>
       </c>
       <c r="B501">
-        <v>-5.41</v>
+        <v>1.63</v>
       </c>
       <c r="C501">
-        <v>-7.88</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
       <c r="A502" t="s">
         <v>503</v>
       </c>
       <c r="B502">
-        <v>14.66</v>
+        <v>0</v>
       </c>
       <c r="C502">
-        <v>14.37</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.02</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
       <c r="A503" t="s">
         <v>504</v>
       </c>
       <c r="B503">
-        <v>-0.89</v>
+        <v>-5.41</v>
       </c>
       <c r="C503">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.02</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
       <c r="A504" t="s">
         <v>505</v>
       </c>
       <c r="B504">
-        <v>-7.42</v>
+        <v>14.66</v>
       </c>
       <c r="C504">
-        <v>-7.94</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14.19</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
       <c r="A505" t="s">
         <v>506</v>
       </c>
       <c r="B505">
-        <v>-8.0299999999999994</v>
+        <v>-0.89</v>
       </c>
       <c r="C505">
-        <v>-5.52</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
       <c r="A506" t="s">
         <v>507</v>
       </c>
       <c r="B506">
-        <v>2.5299999999999998</v>
+        <v>-7.42</v>
       </c>
       <c r="C506">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.08</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
       <c r="A507" t="s">
         <v>508</v>
       </c>
       <c r="B507">
-        <v>0.14000000000000001</v>
+        <v>-8.029999999999999</v>
       </c>
       <c r="C507">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.67</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
       <c r="A508" t="s">
         <v>509</v>
       </c>
       <c r="B508">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="C508">
-        <v>-6.2</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
       <c r="A509" t="s">
         <v>510</v>
       </c>
       <c r="B509">
-        <v>-3.21</v>
+        <v>0.14</v>
       </c>
       <c r="C509">
-        <v>-6.91</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
       <c r="A510" t="s">
         <v>511</v>
       </c>
@@ -7566,106 +7553,128 @@
         <v>0</v>
       </c>
       <c r="C510">
-        <v>-9.19</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.33</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
       <c r="A511" t="s">
         <v>512</v>
       </c>
       <c r="B511">
-        <v>0</v>
+        <v>-3.21</v>
       </c>
       <c r="C511">
-        <v>-8.16</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.06</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
       <c r="A512" t="s">
         <v>513</v>
       </c>
       <c r="B512">
-        <v>-3.87</v>
+        <v>0</v>
       </c>
       <c r="C512">
-        <v>-0.73</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-9.33</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
       <c r="A513" t="s">
         <v>514</v>
       </c>
       <c r="B513">
-        <v>-2.17</v>
+        <v>0</v>
       </c>
       <c r="C513">
-        <v>-2.64</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.31</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
       <c r="A514" t="s">
         <v>515</v>
       </c>
       <c r="B514">
-        <v>-2.59</v>
+        <v>-3.87</v>
       </c>
       <c r="C514">
-        <v>-2.15</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.87</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
       <c r="A515" t="s">
         <v>516</v>
       </c>
       <c r="B515">
-        <v>-1.39</v>
+        <v>-2.17</v>
       </c>
       <c r="C515">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
       <c r="A516" t="s">
         <v>517</v>
       </c>
       <c r="B516">
-        <v>3.59</v>
+        <v>-2.59</v>
       </c>
       <c r="C516">
-        <v>5.58</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.29</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
       <c r="A517" t="s">
         <v>518</v>
       </c>
       <c r="B517">
-        <v>-6.6</v>
+        <v>-1.39</v>
       </c>
       <c r="C517">
-        <v>-7.75</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
       <c r="A518" t="s">
         <v>519</v>
       </c>
       <c r="B518">
-        <v>-4.42</v>
+        <v>3.59</v>
       </c>
       <c r="C518">
-        <v>-0.85</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
       <c r="A519" t="s">
         <v>520</v>
       </c>
       <c r="B519">
-        <v>2.2799999999999998</v>
+        <v>-6.6</v>
       </c>
       <c r="C519">
-        <v>2.14</v>
+        <v>-7.88</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" t="s">
+        <v>521</v>
+      </c>
+      <c r="B520">
+        <v>-4.42</v>
+      </c>
+      <c r="C520">
+        <v>-0.99</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" t="s">
+        <v>522</v>
+      </c>
+      <c r="B521">
+        <v>2.28</v>
+      </c>
+      <c r="C521">
+        <v>1.99</v>
       </c>
     </row>
   </sheetData>

--- a/data/merged_scores.xlsx
+++ b/data/merged_scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C521"/>
+  <dimension ref="A1:C522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-9.48</v>
+        <v>-9.5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4.17</v>
+        <v>-4.15</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.29</v>
+        <v>-2.73</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-9.140000000000001</v>
+        <v>-9.17</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-8.220000000000001</v>
+        <v>-8.289999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="C6" t="n">
-        <v>3.16</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>-7.05</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.87</v>
+        <v>-4.93</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.69</v>
+        <v>-1.66</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.2</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.39</v>
+        <v>-4.38</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.48</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.03</v>
+        <v>-7.1</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9.039999999999999</v>
+        <v>-9.07</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.37</v>
+        <v>-7.44</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-6.71</v>
+        <v>-6.7</v>
       </c>
       <c r="C12" t="n">
-        <v>-6.62</v>
+        <v>-6.69</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.869999999999999</v>
+        <v>-8.9</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.36</v>
+        <v>-3.42</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="C14" t="n">
-        <v>1.6</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.33</v>
+        <v>-4.31</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.23</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="16">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.11</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-8.94</v>
+        <v>-9.01</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         <v>-6.37</v>
       </c>
       <c r="C18" t="n">
-        <v>-5.44</v>
+        <v>-4.99</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-6.92</v>
+        <v>-6.99</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="C20" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="21">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.42</v>
+        <v>3.47</v>
       </c>
       <c r="C21" t="n">
-        <v>5.8</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="22">
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="C22" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-5.48</v>
+        <v>-5.47</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.58</v>
+        <v>-2.63</v>
       </c>
     </row>
     <row r="24">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.49</v>
+        <v>-0.46</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.6</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="25">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-6.33</v>
+        <v>-6.32</v>
       </c>
       <c r="C25" t="n">
-        <v>-4.35</v>
+        <v>-4.05</v>
       </c>
     </row>
     <row r="26">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.26</v>
+        <v>-1.23</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.05</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="27">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1.18</v>
+        <v>-1.14</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.15</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="28">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.79</v>
+        <v>2.84</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.17</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="29">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-3.46</v>
+        <v>-3.43</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.17</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="30">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>14.08</v>
+        <v>14.15</v>
       </c>
       <c r="C30" t="n">
-        <v>12.28</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="31">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.98</v>
+        <v>7.04</v>
       </c>
       <c r="C31" t="n">
-        <v>6.8</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="32">
@@ -850,7 +850,7 @@
         <v>-8.09</v>
       </c>
       <c r="C32" t="n">
-        <v>-7.24</v>
+        <v>-7.31</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>-7.33</v>
+        <v>-7.39</v>
       </c>
     </row>
     <row r="34">
@@ -873,761 +873,761 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-7.55</v>
+        <v>-7.54</v>
       </c>
       <c r="C34" t="n">
-        <v>-4.82</v>
+        <v>-4.88</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ausar Thompson</t>
+          <t>Armel Traore</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.04</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-8.81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
+          <t>Ausar Thompson</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.31</v>
+        <v>-0.01</v>
       </c>
       <c r="C36" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Ayo Dosunmu</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1.97</v>
+        <v>4.36</v>
       </c>
       <c r="C37" t="n">
-        <v>0.09</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bam Adebayo</t>
+          <t>Ayo Dosunmu</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.38</v>
+        <v>-1.94</v>
       </c>
       <c r="C38" t="n">
-        <v>4.22</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Baylor Scheierman</t>
+          <t>Bam Adebayo</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-7.27</v>
+        <v>3.43</v>
       </c>
       <c r="C39" t="n">
-        <v>-8.18</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ben Sheppard</t>
+          <t>Baylor Scheierman</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-6.02</v>
+        <v>-7.26</v>
       </c>
       <c r="C40" t="n">
-        <v>-3.43</v>
+        <v>-8.25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ben Simmons</t>
+          <t>Ben Sheppard</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.37</v>
+        <v>-6.02</v>
       </c>
       <c r="C41" t="n">
-        <v>1.52</v>
+        <v>-3.48</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bennedict Mathurin</t>
+          <t>Ben Simmons</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.39</v>
+        <v>-0.33</v>
       </c>
       <c r="C42" t="n">
-        <v>1.88</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bilal Coulibaly</t>
+          <t>Bennedict Mathurin</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.9</v>
+        <v>-0.36</v>
       </c>
       <c r="C43" t="n">
-        <v>2.91</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Blake Wesley</t>
+          <t>Bilal Coulibaly</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-7.8</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>-5.73</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bobby Portis</t>
+          <t>Blake Wesley</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.23</v>
+        <v>-7.79</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.52</v>
+        <v>-5.79</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Bobi Klintman</t>
+          <t>Bobby Portis</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-6.13</v>
+        <v>0.27</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Bogdan Bogdanovic</t>
+          <t>Bobi Klintman</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.8</v>
+        <v>-6.13</v>
       </c>
       <c r="C47" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Bojan Bogdanovic</t>
+          <t>Bogdan Bogdanovic</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-2.4</v>
+        <v>0.84</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Bol Bol</t>
+          <t>Bojan Bogdanovic</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-5.33</v>
+        <v>-2.37</v>
       </c>
       <c r="C49" t="n">
-        <v>-6.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Bones Hyland</t>
+          <t>Bol Bol</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-3.4</v>
+        <v>-5.33</v>
       </c>
       <c r="C50" t="n">
-        <v>-4.67</v>
+        <v>-6.51</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Boogie Ellis</t>
+          <t>Bones Hyland</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-9.16</v>
+        <v>-3.37</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>-4.72</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Bradley Beal</t>
+          <t>Boogie Ellis</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3.63</v>
+        <v>-9.16</v>
       </c>
       <c r="C52" t="n">
-        <v>4.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Brandin Podziemski</t>
+          <t>Bradley Beal</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-1.03</v>
+        <v>3.68</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.73</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Brandon Boston Jr</t>
+          <t>Brandin Podziemski</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.2</v>
+        <v>-0.99</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Brandon Boston Jr.</t>
+          <t>Brandon Boston Jr</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>-0.17</v>
       </c>
       <c r="C55" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Brandon Clarke</t>
+          <t>Brandon Boston Jr.</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-2.36</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>-4.15</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Brandon Ingram</t>
+          <t>Brandon Clarke</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.84</v>
+        <v>-2.34</v>
       </c>
       <c r="C57" t="n">
-        <v>5.58</v>
+        <v>-4.21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Brandon Miller</t>
+          <t>Brandon Ingram</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.82</v>
+        <v>2.89</v>
       </c>
       <c r="C58" t="n">
-        <v>2.72</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Brandon Williams</t>
+          <t>Brandon Miller</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="C59" t="n">
-        <v>-8.550000000000001</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Brice Sensabaugh</t>
+          <t>Brandon Williams</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-3.37</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>-5.13</v>
+        <v>-8.76</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Bronny James</t>
+          <t>Brice Sensabaugh</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-8.44</v>
+        <v>-3.35</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>-5.19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Bronny James Jr.</t>
+          <t>Bronny James</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>-8.44</v>
       </c>
       <c r="C62" t="n">
-        <v>-7.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Brook Lopez</t>
+          <t>Bronny James Jr.</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>3.81</v>
+        <v>-7.99</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Bruce Brown</t>
+          <t>Brook Lopez</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.37</v>
+        <v>1.59</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Bruno Fernando</t>
+          <t>Bruce Brown</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-4.64</v>
+        <v>-0.34</v>
       </c>
       <c r="C65" t="n">
-        <v>-4.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Bryce McGowens</t>
+          <t>Bruno Fernando</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-9.369999999999999</v>
+        <v>-4.64</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>-4.56</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Bub Carrington</t>
+          <t>Bryce McGowens</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>-9.4</v>
       </c>
       <c r="C67" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Buddy Boeheim</t>
+          <t>Bub Carrington</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-9.859999999999999</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Buddy Hield</t>
+          <t>Buddy Boeheim</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2.27</v>
+        <v>-9.890000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>3.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CJ McCollum</t>
+          <t>Buddy Hield</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="C70" t="n">
-        <v>5.99</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Cade Cunningham</t>
+          <t>CJ McCollum</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>6.47</v>
+        <v>2.05</v>
       </c>
       <c r="C71" t="n">
-        <v>6.77</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Caleb Houstan</t>
+          <t>Cade Cunningham</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-7.6</v>
+        <v>6.53</v>
       </c>
       <c r="C72" t="n">
-        <v>-8.08</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Caleb Martin</t>
+          <t>Caleb Houstan</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-1.01</v>
+        <v>-7.6</v>
       </c>
       <c r="C73" t="n">
-        <v>-1.37</v>
+        <v>-8.140000000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Cam Christie</t>
+          <t>Caleb Martin</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-8.460000000000001</v>
+        <v>-0.98</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Cam Reddish</t>
+          <t>Cam Christie</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-5.48</v>
+        <v>-8.460000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>-3.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Cam Thomas</t>
+          <t>Cam Reddish</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2.01</v>
+        <v>-5.47</v>
       </c>
       <c r="C76" t="n">
-        <v>4.41</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Cam Whitmore</t>
+          <t>Cam Thomas</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-7.38</v>
+        <v>2.06</v>
       </c>
       <c r="C77" t="n">
-        <v>-7.66</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Cameron Johnson</t>
+          <t>Cam Whitmore</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.79</v>
+        <v>-7.37</v>
       </c>
       <c r="C78" t="n">
-        <v>2.71</v>
+        <v>-7.72</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Cameron Payne</t>
+          <t>Cameron Johnson</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-5.33</v>
+        <v>0.82</v>
       </c>
       <c r="C79" t="n">
-        <v>-3.18</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Caris LeVert</t>
+          <t>Cameron Payne</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-1.3</v>
+        <v>-5.31</v>
       </c>
       <c r="C80" t="n">
-        <v>2.51</v>
+        <v>-3.23</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Carlton Carrington</t>
+          <t>Caris LeVert</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-3.3</v>
+        <v>-1.26</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Cason Wallace</t>
+          <t>Carlton Carrington</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-2.22</v>
+        <v>-3.27</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.9399999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Charles Bassey</t>
+          <t>Cason Wallace</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-5.5</v>
+        <v>-2.2</v>
       </c>
       <c r="C83" t="n">
-        <v>-6.04</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Chet Holmgren</t>
+          <t>Charles Bassey</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>6.11</v>
+        <v>-5.49</v>
       </c>
       <c r="C84" t="n">
-        <v>6.93</v>
+        <v>-5.25</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Chris Boucher</t>
+          <t>Chet Holmgren</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-4.99</v>
+        <v>6.16</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.3</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Chris Duarte</t>
+          <t>Chris Boucher</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-6.44</v>
+        <v>-4.97</v>
       </c>
       <c r="C86" t="n">
-        <v>-7.11</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Chris Livingston</t>
+          <t>Chris Duarte</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>-6.43</v>
       </c>
       <c r="C87" t="n">
-        <v>-9.119999999999999</v>
+        <v>-7.18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Chris Paul</t>
+          <t>Chris Livingston</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>4.4</v>
+        <v>-9.19</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Christian Braun</t>
+          <t>Chris Paul</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-0.89</v>
+        <v>1.07</v>
       </c>
       <c r="C89" t="n">
-        <v>4.15</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Christian Koloko</t>
+          <t>Christian Braun</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>-0.86</v>
       </c>
       <c r="C90" t="n">
-        <v>-5.95</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Christian Wood</t>
+          <t>Christian Koloko</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-2.98</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>-4.83</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Chuma Okeke</t>
+          <t>Christian Wood</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-9.390000000000001</v>
+        <v>-2.96</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -1636,219 +1636,219 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Clint Capela</t>
+          <t>Chuma Okeke</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.8100000000000001</v>
+        <v>-9.42</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Coby White</t>
+          <t>Clint Capela</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2.34</v>
+        <v>0.84</v>
       </c>
       <c r="C94" t="n">
-        <v>5.71</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Cody Martin</t>
+          <t>Coby White</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-4.15</v>
+        <v>2.39</v>
       </c>
       <c r="C95" t="n">
-        <v>0.09</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Cody Williams</t>
+          <t>Cody Martin</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-6.75</v>
+        <v>-4.12</v>
       </c>
       <c r="C96" t="n">
-        <v>-6.3</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Cody Zeller</t>
+          <t>Cody Williams</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-9.220000000000001</v>
+        <v>-6.75</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>-6.43</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Colby Jones</t>
+          <t>Cody Zeller</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-9.029999999999999</v>
+        <v>-9.24</v>
       </c>
       <c r="C98" t="n">
-        <v>-7.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Cole Anthony</t>
+          <t>Colby Jones</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-3.42</v>
+        <v>-9.029999999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>-5.36</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Colin Castleton</t>
+          <t>Cole Anthony</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>-3.4</v>
       </c>
       <c r="C100" t="n">
-        <v>-7.06</v>
+        <v>-5.42</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Collin Gillespie</t>
+          <t>Colin Castleton</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-8.949999999999999</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>-6.89</v>
+        <v>-7.13</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Collin Sexton</t>
+          <t>Collin Gillespie</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1.54</v>
+        <v>-8.949999999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>1.36</v>
+        <v>-6.95</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Corey Kispert</t>
+          <t>Collin Sexton</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-2.66</v>
+        <v>1.58</v>
       </c>
       <c r="C103" t="n">
-        <v>-2.56</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Cory Joseph</t>
+          <t>Corey Kispert</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-7.32</v>
+        <v>-2.64</v>
       </c>
       <c r="C104" t="n">
-        <v>-6.96</v>
+        <v>-2.59</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Craig Porter Jr.</t>
+          <t>Cory Joseph</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-5.58</v>
+        <v>-7.31</v>
       </c>
       <c r="C105" t="n">
-        <v>-6.57</v>
+        <v>-7.02</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>D'Angelo Russell</t>
+          <t>Craig Porter Jr.</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2.71</v>
+        <v>-5.56</v>
       </c>
       <c r="C106" t="n">
-        <v>0.17</v>
+        <v>-6.64</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>D.J. Carton</t>
+          <t>D'Angelo Russell</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-9.119999999999999</v>
+        <v>2.77</v>
       </c>
       <c r="C107" t="n">
-        <v>-7.27</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>DaRon Holmes II</t>
+          <t>D.J. Carton</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-7.45</v>
+        <v>-9.130000000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>-7.33</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Daishen Nix</t>
+          <t>DaRon Holmes II</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-9.529999999999999</v>
+        <v>-7.44</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1857,2741 +1857,2741 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Dalano Banton</t>
+          <t>Daishen Nix</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-6.99</v>
+        <v>-9.529999999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>-2.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Dalen Terry</t>
+          <t>Dalano Banton</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-8</v>
+        <v>-6.98</v>
       </c>
       <c r="C111" t="n">
-        <v>-4.92</v>
+        <v>-2.19</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Dalton Knecht</t>
+          <t>Dalen Terry</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-4.81</v>
+        <v>-7.99</v>
       </c>
       <c r="C112" t="n">
-        <v>-3.67</v>
+        <v>-4.98</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Damian Lillard</t>
+          <t>Dalton Knecht</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>9.27</v>
+        <v>-4.79</v>
       </c>
       <c r="C113" t="n">
-        <v>8.25</v>
+        <v>-2.39</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Damion Lee</t>
+          <t>Damian Lillard</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-4.79</v>
+        <v>9.33</v>
       </c>
       <c r="C114" t="n">
-        <v>-5.37</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Daniel Gafford</t>
+          <t>Damion Lee</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2.04</v>
+        <v>-4.77</v>
       </c>
       <c r="C115" t="n">
-        <v>1.16</v>
+        <v>-5.43</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Daniel Theis</t>
+          <t>Daniel Gafford</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-1.72</v>
+        <v>2.07</v>
       </c>
       <c r="C116" t="n">
-        <v>-4.09</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Daniss Jenkins</t>
+          <t>Daniel Theis</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>-3.28</v>
       </c>
       <c r="C117" t="n">
-        <v>-9.119999999999999</v>
+        <v>-4.15</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Dante Exum</t>
+          <t>Daniss Jenkins</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-4.96</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>-9.19</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Dario Saric</t>
+          <t>Dante Exum</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-4.69</v>
+        <v>-4.95</v>
       </c>
       <c r="C119" t="n">
-        <v>-7.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Dariq Whitehead</t>
+          <t>Dario Saric</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-8.859999999999999</v>
+        <v>-4.68</v>
       </c>
       <c r="C120" t="n">
-        <v>-8.01</v>
+        <v>-7.17</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Darius Garland</t>
+          <t>Dariq Whitehead</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>3.79</v>
+        <v>-8.869999999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>7.36</v>
+        <v>-8.09</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>David Duke Jr.</t>
+          <t>Darius Garland</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="C122" t="n">
-        <v>-10.16</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>David Jones</t>
+          <t>David Duke Jr.</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-7.22</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>David Roddy</t>
+          <t>David Jones</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-9.42</v>
+        <v>-7.22</v>
       </c>
       <c r="C124" t="n">
-        <v>-1.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Davion Mitchell</t>
+          <t>David Roddy</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-4.66</v>
+        <v>-9.449999999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.74</v>
+        <v>-1.78</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Day'Ron Sharpe</t>
+          <t>Davion Mitchell</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-2.54</v>
+        <v>-4.64</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>De'Aaron Fox</t>
+          <t>Day'Ron Sharpe</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>5.21</v>
+        <v>-2.51</v>
       </c>
       <c r="C127" t="n">
-        <v>8.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>De'Andre Hunter</t>
+          <t>De'Aaron Fox</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-0.23</v>
+        <v>5.28</v>
       </c>
       <c r="C128" t="n">
-        <v>2.71</v>
+        <v>8.57</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>De'Anthony Melton</t>
+          <t>De'Andre Hunter</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.52</v>
+        <v>-0.21</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.84</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>DeAndre Jordan</t>
+          <t>De'Anthony Melton</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-7.25</v>
+        <v>0.55</v>
       </c>
       <c r="C130" t="n">
-        <v>-5.67</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>DeMar DeRozan</t>
+          <t>DeAndre Jordan</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>5.07</v>
+        <v>-7.24</v>
       </c>
       <c r="C131" t="n">
-        <v>6.73</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Dean Wade</t>
+          <t>DeMar DeRozan</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-4.51</v>
+        <v>5.11</v>
       </c>
       <c r="C132" t="n">
-        <v>-2.65</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Deandre Ayton</t>
+          <t>Dean Wade</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2.68</v>
+        <v>-4.5</v>
       </c>
       <c r="C133" t="n">
-        <v>1.57</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Dejounte Murray</t>
+          <t>Deandre Ayton</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>3.88</v>
+        <v>2.72</v>
       </c>
       <c r="C134" t="n">
-        <v>3.21</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Delon Wright</t>
+          <t>Dejounte Murray</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-2.94</v>
+        <v>3.94</v>
       </c>
       <c r="C135" t="n">
-        <v>-4.81</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Deni Avdija</t>
+          <t>Delon Wright</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-0.61</v>
+        <v>-2.92</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.39</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Dennis Schröder</t>
+          <t>Deni Avdija</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1.66</v>
+        <v>-0.57</v>
       </c>
       <c r="C137" t="n">
-        <v>4.74</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Dereck Lively II</t>
+          <t>Dennis Schröder</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2.39</v>
+        <v>1.71</v>
       </c>
       <c r="C138" t="n">
-        <v>0.87</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Derrick Jones Jr.</t>
+          <t>Dereck Lively II</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-2.41</v>
+        <v>2.43</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Derrick Rose</t>
+          <t>Derrick Jones Jr.</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-6.9</v>
+        <v>-2.38</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Derrick White</t>
+          <t>Derrick Rose</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>4.95</v>
+        <v>-6.89</v>
       </c>
       <c r="C141" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>Derrick White</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>5.01</v>
+        <v>5</v>
       </c>
       <c r="C142" t="n">
-        <v>4.55</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Devin Booker</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>8.07</v>
+        <v>5.07</v>
       </c>
       <c r="C143" t="n">
-        <v>5.94</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Devin Carter</t>
+          <t>Devin Booker</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-5.25</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Devin Vassell</t>
+          <t>Devin Carter</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2.53</v>
+        <v>-5.23</v>
       </c>
       <c r="C145" t="n">
-        <v>2.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Devonte' Graham</t>
+          <t>Devin Vassell</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-7.17</v>
+        <v>2.58</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Dillon Brooks</t>
+          <t>Devonte' Graham</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-2.48</v>
+        <v>-7.16</v>
       </c>
       <c r="C147" t="n">
-        <v>-1.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Dillon Jones</t>
+          <t>Dillon Brooks</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-8.74</v>
+        <v>-2.45</v>
       </c>
       <c r="C148" t="n">
-        <v>-7.56</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Dillon Jones</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>7.89</v>
+        <v>-8.75</v>
       </c>
       <c r="C149" t="n">
-        <v>9.67</v>
+        <v>-7.62</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Dominick Barlow</t>
+          <t>Domantas Sabonis</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-8.92</v>
+        <v>7.97</v>
       </c>
       <c r="C150" t="n">
-        <v>-9.6</v>
+        <v>9.630000000000001</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Donovan Clingan</t>
+          <t>Dominick Barlow</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-1.08</v>
+        <v>-8.949999999999999</v>
       </c>
       <c r="C151" t="n">
-        <v>0.4</v>
+        <v>-9.67</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Donovan Clingan</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>7.97</v>
+        <v>-1.06</v>
       </c>
       <c r="C152" t="n">
-        <v>6.65</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1.03</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.73</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Dorian Finney-Smith</t>
+          <t>Donte DiVincenzo</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-2.99</v>
+        <v>1.08</v>
       </c>
       <c r="C154" t="n">
-        <v>0.04</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Doug McDermott</t>
+          <t>Dorian Finney-Smith</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>-2.97</v>
       </c>
       <c r="C155" t="n">
-        <v>-7.58</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Draymond Green</t>
+          <t>Doug McDermott</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>2.68</v>
+        <v>-7.34</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Drew Eubanks</t>
+          <t>Draymond Green</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-4.17</v>
+        <v>2.48</v>
       </c>
       <c r="C157" t="n">
-        <v>-3.35</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Drew Peterson</t>
+          <t>Drew Eubanks</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>-4.16</v>
       </c>
       <c r="C158" t="n">
-        <v>-6.36</v>
+        <v>-3.89</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Dru Smith</t>
+          <t>Drew Peterson</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-6.76</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>-5.58</v>
+        <v>-6.42</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Duncan Robinson</t>
+          <t>Dru Smith</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-3.57</v>
+        <v>-6.76</v>
       </c>
       <c r="C160" t="n">
-        <v>-2.93</v>
+        <v>-5.64</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Duop Reath</t>
+          <t>Duncan Robinson</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-4.97</v>
+        <v>-3.54</v>
       </c>
       <c r="C161" t="n">
-        <v>-8.050000000000001</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Dwight Powell</t>
+          <t>Duop Reath</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-5.97</v>
+        <v>-4.96</v>
       </c>
       <c r="C162" t="n">
-        <v>-4.94</v>
+        <v>-8.119999999999999</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Dyson Daniels</t>
+          <t>Dwight Powell</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>3.37</v>
+        <v>-5.96</v>
       </c>
       <c r="C163" t="n">
-        <v>5.96</v>
+        <v>-5.03</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>EJ Liddell</t>
+          <t>Dyson Daniels</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-8.43</v>
+        <v>3.41</v>
       </c>
       <c r="C164" t="n">
-        <v>-8.390000000000001</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Emoni Bates</t>
+          <t>EJ Liddell</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-9.720000000000001</v>
+        <v>-8.43</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>-8.460000000000001</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Enrique Freeman</t>
+          <t>Emoni Bates</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-6.93</v>
+        <v>-9.74</v>
       </c>
       <c r="C166" t="n">
-        <v>-6.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Eric Gordon</t>
+          <t>Enrique Freeman</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-1.88</v>
+        <v>-6.96</v>
       </c>
       <c r="C167" t="n">
-        <v>-5.23</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Evan Mobley</t>
+          <t>Eric Gordon</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>5</v>
+        <v>-1.85</v>
       </c>
       <c r="C168" t="n">
-        <v>6.14</v>
+        <v>-5.28</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Franz Wagner</t>
+          <t>Evan Mobley</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>4.23</v>
+        <v>5.05</v>
       </c>
       <c r="C169" t="n">
-        <v>5.52</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Fred VanVleet</t>
+          <t>Franz Wagner</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>3.27</v>
+        <v>4.28</v>
       </c>
       <c r="C170" t="n">
-        <v>2.35</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>GG Jackson II</t>
+          <t>Fred VanVleet</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-3.49</v>
+        <v>3.32</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Gabe Vincent</t>
+          <t>GG Jackson II</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-4.03</v>
+        <v>-3.46</v>
       </c>
       <c r="C172" t="n">
-        <v>-6.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Garrett Temple</t>
+          <t>Gabe Vincent</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-7.88</v>
+        <v>-4.01</v>
       </c>
       <c r="C173" t="n">
-        <v>-7.55</v>
+        <v>-7.19</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Garrison Mathews</t>
+          <t>Garrett Temple</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-5.32</v>
+        <v>-7.88</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.3</v>
+        <v>-7.62</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Gary Harris</t>
+          <t>Garrison Mathews</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-5.1</v>
+        <v>-5.31</v>
       </c>
       <c r="C175" t="n">
-        <v>-5.42</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Gary Payton II</t>
+          <t>Gary Harris</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-4.07</v>
+        <v>-5.08</v>
       </c>
       <c r="C176" t="n">
-        <v>-3.7</v>
+        <v>-5.47</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Gary Trent Jr.</t>
+          <t>Gary Payton II</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-2.83</v>
+        <v>-4.06</v>
       </c>
       <c r="C177" t="n">
-        <v>-4.72</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Georges Niang</t>
+          <t>Gary Trent Jr.</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-3.87</v>
+        <v>-2.8</v>
       </c>
       <c r="C178" t="n">
-        <v>-2.74</v>
+        <v>-4.18</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Georges Niang</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>12.64</v>
+        <v>-3.85</v>
       </c>
       <c r="C179" t="n">
-        <v>10.39</v>
+        <v>-2.78</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Goga Bitadze</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-1.04</v>
+        <v>12.73</v>
       </c>
       <c r="C180" t="n">
-        <v>0.6899999999999999</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Gradey Dick</t>
+          <t>Goga Bitadze</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-2.74</v>
+        <v>-1.01</v>
       </c>
       <c r="C181" t="n">
-        <v>2.47</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Grant Williams</t>
+          <t>Gradey Dick</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-2.81</v>
+        <v>-2.71</v>
       </c>
       <c r="C182" t="n">
-        <v>1.17</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Grayson Allen</t>
+          <t>Grant Williams</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-0.64</v>
+        <v>-2.78</v>
       </c>
       <c r="C183" t="n">
-        <v>-2.58</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Guerschon Yabusele</t>
+          <t>Grayson Allen</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-2.53</v>
+        <v>-0.61</v>
       </c>
       <c r="C184" t="n">
-        <v>-1.09</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Gui Santos</t>
+          <t>Guerschon Yabusele</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-8.449999999999999</v>
+        <v>-2.49</v>
       </c>
       <c r="C185" t="n">
-        <v>-7.63</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Harrison Barnes</t>
+          <t>Gui Santos</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-2.31</v>
+        <v>-8.470000000000001</v>
       </c>
       <c r="C186" t="n">
-        <v>-1.79</v>
+        <v>-7.7</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Harrison Ingram</t>
+          <t>Harrison Barnes</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>-2.29</v>
       </c>
       <c r="C187" t="n">
-        <v>-8.74</v>
+        <v>-2.31</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Haywood Highsmith</t>
+          <t>Harrison Ingram</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-5.54</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>0.16</v>
+        <v>-8.81</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Herbert Jones</t>
+          <t>Haywood Highsmith</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1.94</v>
+        <v>-5.53</v>
       </c>
       <c r="C189" t="n">
-        <v>-1.88</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Hunter Tyson</t>
+          <t>Herbert Jones</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-7.35</v>
+        <v>1.97</v>
       </c>
       <c r="C190" t="n">
-        <v>-5.81</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Immanuel Quickley</t>
+          <t>Hunter Tyson</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>4.31</v>
+        <v>-7.38</v>
       </c>
       <c r="C191" t="n">
-        <v>-1.07</v>
+        <v>-5.87</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Isaac Jones</t>
+          <t>Immanuel Quickley</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>4.37</v>
       </c>
       <c r="C192" t="n">
-        <v>-8.17</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Isaac Okoro</t>
+          <t>Isaac Jones</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-4.24</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>-2.77</v>
+        <v>-7.08</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Isaiah Collier</t>
+          <t>Isaac Okoro</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-7.09</v>
+        <v>-4.22</v>
       </c>
       <c r="C194" t="n">
-        <v>-5.22</v>
+        <v>-2.82</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Isaiah Hartenstein</t>
+          <t>Isaiah Collier</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>2.62</v>
+        <v>-7.08</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>-4.47</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Isaiah Jackson</t>
+          <t>Isaiah Hartenstein</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-1.88</v>
+        <v>2.66</v>
       </c>
       <c r="C196" t="n">
-        <v>-1.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Isaiah Joe</t>
+          <t>Isaiah Jackson</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-1.05</v>
+        <v>-1.86</v>
       </c>
       <c r="C197" t="n">
-        <v>-1.93</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Isaiah Stewart</t>
+          <t>Isaiah Joe</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-3.73</v>
+        <v>-1.02</v>
       </c>
       <c r="C198" t="n">
-        <v>0.85</v>
+        <v>-1.96</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Ivica Zubac</t>
+          <t>Isaiah Stewart</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>2.84</v>
+        <v>-3.71</v>
       </c>
       <c r="C199" t="n">
-        <v>2.94</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>JD Davison</t>
+          <t>Ivica Zubac</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-8.859999999999999</v>
+        <v>2.88</v>
       </c>
       <c r="C200" t="n">
-        <v>-8.51</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Ja Morant</t>
+          <t>JD Davison</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>4.57</v>
+        <v>-8.880000000000001</v>
       </c>
       <c r="C201" t="n">
-        <v>4.3</v>
+        <v>-8.58</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Ja'Kobe Walter</t>
+          <t>Ja Morant</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-8.27</v>
+        <v>4.64</v>
       </c>
       <c r="C202" t="n">
-        <v>-8.199999999999999</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Jabari Smith Jr.</t>
+          <t>Ja'Kobe Walter</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-0.45</v>
+        <v>-8.27</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.42</v>
+        <v>-8.26</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Jabari Walker</t>
+          <t>Jabari Smith Jr.</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-5.67</v>
+        <v>-0.42</v>
       </c>
       <c r="C204" t="n">
-        <v>-6.16</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Jack McVeigh</t>
+          <t>Jabari Walker</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>-5.66</v>
       </c>
       <c r="C205" t="n">
-        <v>-8.359999999999999</v>
+        <v>-6.22</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Jacob Toppin</t>
+          <t>Jack McVeigh</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>-8.01</v>
+        <v>-8.43</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Jaden Hardy</t>
+          <t>Jacob Toppin</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-6.02</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>-5.43</v>
+        <v>-8.08</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Jaden Ivey</t>
+          <t>Jaden Hardy</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.5600000000000001</v>
+        <v>-6.01</v>
       </c>
       <c r="C208" t="n">
-        <v>0.84</v>
+        <v>-5.08</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Jaden McDaniels</t>
+          <t>Jaden Ivey</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-1.79</v>
+        <v>0.61</v>
       </c>
       <c r="C209" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Jaden Springer</t>
+          <t>Jaden McDaniels</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>-5.41</v>
+        <v>-1.77</v>
       </c>
       <c r="C210" t="n">
-        <v>-7.8</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Jae'Sean Tate</t>
+          <t>Jaden Springer</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>-5.4</v>
       </c>
       <c r="C211" t="n">
-        <v>-7.27</v>
+        <v>-7.86</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Jaime Jaquez Jr.</t>
+          <t>Jae'Sean Tate</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>-0.92</v>
+        <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>-2.03</v>
+        <v>-7.34</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Jake LaRavia</t>
+          <t>Jaime Jaquez Jr.</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>-5.98</v>
+        <v>-0.89</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.6</v>
+        <v>-2.07</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Jakob Poeltl</t>
+          <t>Jake LaRavia</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>2.73</v>
+        <v>-5.97</v>
       </c>
       <c r="C214" t="n">
-        <v>4.85</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Jalen Bridges</t>
+          <t>Jakob Poeltl</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="C215" t="n">
-        <v>-9.779999999999999</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>Jalen Bridges</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>5.97</v>
+        <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>3.44</v>
+        <v>-9.85</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Jalen Duren</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>2.16</v>
+        <v>6.04</v>
       </c>
       <c r="C217" t="n">
-        <v>1.21</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Jalen Green</t>
+          <t>Jalen Duren</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1.24</v>
+        <v>2.2</v>
       </c>
       <c r="C218" t="n">
-        <v>1.84</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Jalen Hood-Schifino</t>
+          <t>Jalen Green</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>-11.51</v>
+        <v>1.29</v>
       </c>
       <c r="C219" t="n">
-        <v>-8.390000000000001</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Jalen Johnson</t>
+          <t>Jalen Hood-Schifino</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>5.83</v>
+        <v>-11.51</v>
       </c>
       <c r="C220" t="n">
-        <v>6.23</v>
+        <v>-8.460000000000001</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Jalen McDaniels</t>
+          <t>Jalen Johnson</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>-7.06</v>
+        <v>5.89</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Jalen Pickett</t>
+          <t>Jalen McDaniels</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>-9.050000000000001</v>
+        <v>-7.06</v>
       </c>
       <c r="C222" t="n">
-        <v>-8.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Jalen Smith</t>
+          <t>Jalen Pickett</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-3.24</v>
+        <v>-9.06</v>
       </c>
       <c r="C223" t="n">
-        <v>-2.88</v>
+        <v>-8.82</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Jalen Suggs</t>
+          <t>Jalen Smith</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>5.5</v>
+        <v>-3.22</v>
       </c>
       <c r="C224" t="n">
-        <v>5.07</v>
+        <v>-2.92</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Jalen Williams</t>
+          <t>Jalen Suggs</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>5.42</v>
+        <v>5.56</v>
       </c>
       <c r="C225" t="n">
-        <v>8.119999999999999</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Jalen Wilson</t>
+          <t>Jalen Williams</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>-4.75</v>
+        <v>5.47</v>
       </c>
       <c r="C226" t="n">
-        <v>-3.32</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Jamal Cain</t>
+          <t>Jalen Wilson</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>-6.72</v>
+        <v>-4.73</v>
       </c>
       <c r="C227" t="n">
-        <v>-5.46</v>
+        <v>-3.37</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Jamal Murray</t>
+          <t>Jamal Cain</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>2.9</v>
+        <v>-6.72</v>
       </c>
       <c r="C228" t="n">
-        <v>1.5</v>
+        <v>-5.35</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Jamal Shead</t>
+          <t>Jamal Murray</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>-7.99</v>
+        <v>2.95</v>
       </c>
       <c r="C229" t="n">
-        <v>-4.56</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Jamal Shead</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>10.53</v>
+        <v>-7.99</v>
       </c>
       <c r="C230" t="n">
-        <v>8.51</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>James Johnson</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="C231" t="n">
-        <v>-6.92</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>James Wiseman</t>
+          <t>James Johnson</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>-6.79</v>
+        <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>-5.56</v>
+        <v>-6.99</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Jamison Battle</t>
+          <t>James Wiseman</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>-5.43</v>
+        <v>-6.81</v>
       </c>
       <c r="C233" t="n">
-        <v>-5.05</v>
+        <v>-5.63</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Jarace Walker</t>
+          <t>Jamison Battle</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>-4.5</v>
+        <v>-5.44</v>
       </c>
       <c r="C234" t="n">
-        <v>-1.65</v>
+        <v>-5.14</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Jared Butler</t>
+          <t>Jarace Walker</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>-5.47</v>
+        <v>-4.48</v>
       </c>
       <c r="C235" t="n">
-        <v>-4.86</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Jared McCain</t>
+          <t>Jared Butler</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>-0.22</v>
+        <v>-5.45</v>
       </c>
       <c r="C236" t="n">
-        <v>0.11</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Jared Rhoden</t>
+          <t>Jared McCain</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>-0.19</v>
       </c>
       <c r="C237" t="n">
-        <v>-7.58</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>Jared Rhoden</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>5.01</v>
+        <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>6.69</v>
+        <v>-7.64</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Jarred Vanderbilt</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>-1.22</v>
+        <v>5.06</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Jarrett Allen</t>
+          <t>Jarred Vanderbilt</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>3.54</v>
+        <v>-1.19</v>
       </c>
       <c r="C240" t="n">
-        <v>4.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Jason Preston</t>
+          <t>Jarrett Allen</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>-8.32</v>
+        <v>3.59</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Javonte Green</t>
+          <t>Jason Preston</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>-0.55</v>
+        <v>-8.31</v>
       </c>
       <c r="C242" t="n">
-        <v>-2.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Jaxson Hayes</t>
+          <t>Javonte Green</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>-5.59</v>
+        <v>-0.53</v>
       </c>
       <c r="C243" t="n">
-        <v>-1.62</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Jay Huff</t>
+          <t>Jaxson Hayes</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>-0.91</v>
+        <v>-5.58</v>
       </c>
       <c r="C244" t="n">
-        <v>1.39</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Jay Huff</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>3.72</v>
+        <v>-0.9</v>
       </c>
       <c r="C245" t="n">
-        <v>2.67</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Jaylen Martin</t>
+          <t>Jaylen Brown</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>3.78</v>
       </c>
       <c r="C246" t="n">
-        <v>-7.28</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Jaylen Nowell</t>
+          <t>Jaylen Martin</t>
         </is>
       </c>
       <c r="B247" t="n">
         <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>-5.81</v>
+        <v>-7.35</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Jaylen Wells</t>
+          <t>Jaylen Nowell</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>-5.38</v>
+        <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>-2.84</v>
+        <v>-5.23</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Jaylin Williams</t>
+          <t>Jaylen Wells</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>-5.22</v>
+        <v>-5.35</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Jaylon Tyson</t>
+          <t>Jaylin Williams</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>-6.27</v>
+        <v>-5.21</v>
       </c>
       <c r="C250" t="n">
-        <v>-7.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Jaylon Tyson</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>9.199999999999999</v>
+        <v>-6.26</v>
       </c>
       <c r="C251" t="n">
-        <v>10.43</v>
+        <v>-7.98</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Jazian Gortman</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>9.27</v>
       </c>
       <c r="C252" t="n">
-        <v>-7.28</v>
+        <v>10.49</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Jeff Dowtin Jr.</t>
+          <t>Jazian Gortman</t>
         </is>
       </c>
       <c r="B253" t="n">
         <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>-7.2</v>
+        <v>-7.35</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Jeff Green</t>
+          <t>Jeff Dowtin Jr.</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>-7.49</v>
+        <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>-5.71</v>
+        <v>-7.26</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Jerami Grant</t>
+          <t>Jeff Green</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.2</v>
+        <v>-7.49</v>
       </c>
       <c r="C255" t="n">
-        <v>1.11</v>
+        <v>-5.77</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Jeremiah Robinson-Earl</t>
+          <t>Jerami Grant</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>-6.61</v>
+        <v>0.24</v>
       </c>
       <c r="C256" t="n">
-        <v>-3.07</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Jeremy Sochan</t>
+          <t>Jeremiah Robinson-Earl</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.52</v>
+        <v>-6.6</v>
       </c>
       <c r="C257" t="n">
-        <v>0.9</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Jericho Sims</t>
+          <t>Jeremy Sochan</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>-4.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C258" t="n">
-        <v>-5.48</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Jett Howard</t>
+          <t>Jericho Sims</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>-8.84</v>
+        <v>-4.78</v>
       </c>
       <c r="C259" t="n">
-        <v>-5.44</v>
+        <v>-5.54</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Jevon Carter</t>
+          <t>Jett Howard</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>-7.27</v>
+        <v>-8.83</v>
       </c>
       <c r="C260" t="n">
-        <v>-7.28</v>
+        <v>-5.49</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>Jevon Carter</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>4.27</v>
+        <v>-7.26</v>
       </c>
       <c r="C261" t="n">
-        <v>0.84</v>
+        <v>-7.34</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Jock Landale</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>-5.63</v>
+        <v>4.31</v>
       </c>
       <c r="C262" t="n">
-        <v>-5.67</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Joe Ingles</t>
+          <t>Jock Landale</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>-5.27</v>
+        <v>-5.62</v>
       </c>
       <c r="C263" t="n">
-        <v>-7.86</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Joel Embiid</t>
+          <t>Joe Ingles</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>12.53</v>
+        <v>-5.25</v>
       </c>
       <c r="C264" t="n">
-        <v>5.69</v>
+        <v>-7.94</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Joel Embiid</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>1.06</v>
+        <v>12.59</v>
       </c>
       <c r="C265" t="n">
-        <v>6.42</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>John Konchar</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>-2.71</v>
+        <v>1.09</v>
       </c>
       <c r="C266" t="n">
-        <v>-2.68</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Johnny Davis</t>
+          <t>John Konchar</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>-8.390000000000001</v>
+        <v>-2.69</v>
       </c>
       <c r="C267" t="n">
-        <v>-6.75</v>
+        <v>-2.73</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Johnny Furphy</t>
+          <t>Johnny Davis</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>-5.94</v>
+        <v>-8.380000000000001</v>
       </c>
       <c r="C268" t="n">
-        <v>-7.53</v>
+        <v>-6.82</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Johnny Juzang</t>
+          <t>Johnny Furphy</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>-7.45</v>
+        <v>-5.93</v>
       </c>
       <c r="C269" t="n">
-        <v>-3.21</v>
+        <v>-7.59</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Jonas Valanciunas</t>
+          <t>Johnny Juzang</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.27</v>
+        <v>-7.44</v>
       </c>
       <c r="C270" t="n">
-        <v>2.05</v>
+        <v>-3.96</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Jonathan Isaac</t>
+          <t>Jonas Valanciunas</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>-1.17</v>
+        <v>0.3</v>
       </c>
       <c r="C271" t="n">
-        <v>-1.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Jonathan Kuminga</t>
+          <t>Jonathan Isaac</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.6899999999999999</v>
+        <v>-1.15</v>
       </c>
       <c r="C272" t="n">
-        <v>-2.69</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Jonathan Mogbo</t>
+          <t>Jonathan Kuminga</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>-4.01</v>
+        <v>0.72</v>
       </c>
       <c r="C273" t="n">
-        <v>-2.94</v>
+        <v>-2.73</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Jordan Clarkson</t>
+          <t>Jonathan Mogbo</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>-0.61</v>
+        <v>-4</v>
       </c>
       <c r="C274" t="n">
-        <v>-0.57</v>
+        <v>-3.34</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Jordan Hawkins</t>
+          <t>Jordan Clarkson</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>-3.51</v>
+        <v>-0.57</v>
       </c>
       <c r="C275" t="n">
-        <v>0.19</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Jordan McLaughlin</t>
+          <t>Jordan Hawkins</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>-5.78</v>
+        <v>-3.49</v>
       </c>
       <c r="C276" t="n">
-        <v>-6.33</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Jordan Miller</t>
+          <t>Jordan McLaughlin</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>-5.77</v>
       </c>
       <c r="C277" t="n">
-        <v>-6.64</v>
+        <v>-5.99</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Jordan Poole</t>
+          <t>Jordan Miller</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>3.23</v>
+        <v>0</v>
       </c>
       <c r="C278" t="n">
-        <v>8.49</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Jordan Walsh</t>
+          <t>Jordan Poole</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>-7.12</v>
+        <v>3.28</v>
       </c>
       <c r="C279" t="n">
-        <v>-6.87</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Jose Alvarado</t>
+          <t>Jordan Walsh</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>-1.04</v>
+        <v>-7.11</v>
       </c>
       <c r="C280" t="n">
-        <v>0.93</v>
+        <v>-6.88</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Josh Giddey</t>
+          <t>Jose Alvarado</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>2.88</v>
+        <v>-1</v>
       </c>
       <c r="C281" t="n">
-        <v>0.05</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Josh Green</t>
+          <t>Josh Giddey</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>-2.18</v>
+        <v>2.94</v>
       </c>
       <c r="C282" t="n">
-        <v>-4.79</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Josh Hart</t>
+          <t>Josh Green</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>1.48</v>
+        <v>-3.06</v>
       </c>
       <c r="C283" t="n">
-        <v>5.71</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Josh Minott</t>
+          <t>Josh Hart</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>-4.65</v>
+        <v>1.52</v>
       </c>
       <c r="C284" t="n">
-        <v>-7.42</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Josh Okogie</t>
+          <t>Josh Minott</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>-5.4</v>
+        <v>-4.64</v>
       </c>
       <c r="C285" t="n">
-        <v>-1.84</v>
+        <v>-7.49</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Josh Richardson</t>
+          <t>Josh Okogie</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>-1.47</v>
+        <v>-5.38</v>
       </c>
       <c r="C286" t="n">
-        <v>-4.48</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Jrue Holiday</t>
+          <t>Josh Richardson</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>2.65</v>
+        <v>-1.44</v>
       </c>
       <c r="C287" t="n">
-        <v>0.78</v>
+        <v>-4.52</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Juan Nunez</t>
+          <t>Jrue Holiday</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>-8.130000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Julian Champagnie</t>
+          <t>Juan Nunez</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.03</v>
+        <v>-8.119999999999999</v>
       </c>
       <c r="C289" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Julian Phillips</t>
+          <t>Julian Champagnie</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>-6.75</v>
+        <v>0.06</v>
       </c>
       <c r="C290" t="n">
-        <v>-5.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Julian Strawther</t>
+          <t>Julian Phillips</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>-2.82</v>
+        <v>-6.74</v>
       </c>
       <c r="C291" t="n">
-        <v>-2.22</v>
+        <v>-5.17</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Julius Randle</t>
+          <t>Julian Strawther</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1.55</v>
+        <v>-2.79</v>
       </c>
       <c r="C292" t="n">
-        <v>3.47</v>
+        <v>-2.27</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Justin Champagnie</t>
+          <t>Julius Randle</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="C293" t="n">
-        <v>-7.76</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Jusuf Nurkic</t>
+          <t>Justin Champagnie</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>-1.67</v>
+        <v>-7.83</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>KJ Simpson</t>
+          <t>Jusuf Nurkic</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>-7.47</v>
+        <v>0.02</v>
       </c>
       <c r="C295" t="n">
-        <v>-6.39</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Kai Jones</t>
+          <t>KJ Simpson</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>-9.279999999999999</v>
+        <v>-7.47</v>
       </c>
       <c r="C296" t="n">
-        <v>-5.45</v>
+        <v>-6.46</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Karl-Anthony Towns</t>
+          <t>Kai Jones</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>10.06</v>
+        <v>-9.279999999999999</v>
       </c>
       <c r="C297" t="n">
-        <v>9.68</v>
+        <v>-5.52</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Karlo Matkovic</t>
+          <t>Karl-Anthony Towns</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>-3.37</v>
+        <v>10.12</v>
       </c>
       <c r="C298" t="n">
-        <v>-6.06</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Kawhi Leonard</t>
+          <t>Karlo Matkovic</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>4.83</v>
+        <v>-3.35</v>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>-6.12</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Keaton Wallace</t>
+          <t>Kawhi Leonard</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>-3.99</v>
+        <v>4.87</v>
       </c>
       <c r="C300" t="n">
-        <v>-3.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Keegan Murray</t>
+          <t>Keaton Wallace</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>2.07</v>
+        <v>-3.98</v>
       </c>
       <c r="C301" t="n">
-        <v>1.3</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Keita Bates-Diop</t>
+          <t>Keegan Murray</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>-7.46</v>
+        <v>2.11</v>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Kel'el Ware</t>
+          <t>Keita Bates-Diop</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>-7.16</v>
+        <v>-7.46</v>
       </c>
       <c r="C303" t="n">
-        <v>-5.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Keldon Johnson</t>
+          <t>Kel'el Ware</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>-1.95</v>
+        <v>-7.15</v>
       </c>
       <c r="C304" t="n">
-        <v>-1.17</v>
+        <v>-5.72</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Kelly Olynyk</t>
+          <t>Keldon Johnson</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>-0.1</v>
+        <v>-1.92</v>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Kelly Oubre Jr.</t>
+          <t>Kelly Olynyk</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>-1.12</v>
+        <v>-0.08</v>
       </c>
       <c r="C306" t="n">
-        <v>-2.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Kenrich Williams</t>
+          <t>Kelly Oubre Jr.</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>-5.78</v>
+        <v>-1.09</v>
       </c>
       <c r="C307" t="n">
-        <v>-2.31</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Kentavious Caldwell-Pope</t>
+          <t>Kenrich Williams</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>-1.32</v>
+        <v>-5.76</v>
       </c>
       <c r="C308" t="n">
-        <v>-1.04</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Kenyon Martin Jr.</t>
+          <t>Kentavious Caldwell-Pope</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>-5.86</v>
+        <v>-1.3</v>
       </c>
       <c r="C309" t="n">
-        <v>-3.99</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Keon Ellis</t>
+          <t>Kenyon Martin Jr.</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>-2.21</v>
+        <v>-5.85</v>
       </c>
       <c r="C310" t="n">
-        <v>-0.96</v>
+        <v>-4.06</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Keon Johnson</t>
+          <t>Keon Ellis</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>-6.17</v>
+        <v>-2.18</v>
       </c>
       <c r="C311" t="n">
-        <v>-4.44</v>
+        <v>-1.66</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Kessler Edwards</t>
+          <t>Keon Johnson</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0</v>
+        <v>-6.15</v>
       </c>
       <c r="C312" t="n">
-        <v>-8.880000000000001</v>
+        <v>-4.49</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Kevin Durant</t>
+          <t>Kessler Edwards</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>9.44</v>
+        <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>10.07</v>
+        <v>-8.949999999999999</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Kevin Huerter</t>
+          <t>Kevin Durant</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>-1.06</v>
+        <v>9.5</v>
       </c>
       <c r="C314" t="n">
-        <v>0.53</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Kevin Love</t>
+          <t>Kevin Huerter</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>-4.35</v>
+        <v>-1.03</v>
       </c>
       <c r="C315" t="n">
-        <v>0.93</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Kevin Porter Jr.</t>
+          <t>Kevin Love</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>-1.8</v>
+        <v>-4.33</v>
       </c>
       <c r="C316" t="n">
-        <v>-4.94</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Kevon Looney</t>
+          <t>Kevin Porter Jr.</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>-6.51</v>
+        <v>-1.77</v>
       </c>
       <c r="C317" t="n">
-        <v>-2.17</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Keyonte George</t>
+          <t>Kevon Looney</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.66</v>
+        <v>-6.5</v>
       </c>
       <c r="C318" t="n">
-        <v>-0.59</v>
+        <v>-2.22</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Keyonte George</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>1.64</v>
+        <v>0.71</v>
       </c>
       <c r="C319" t="n">
-        <v>0</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Killian Hayes</t>
+          <t>Khris Middleton</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>-6.56</v>
+        <v>1.68</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -4600,713 +4600,713 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Klay Thompson</t>
+          <t>Killian Hayes</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0.36</v>
+        <v>-6.55</v>
       </c>
       <c r="C321" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Kobe Brown</t>
+          <t>Klay Thompson</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>-9.380000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="C322" t="n">
-        <v>-7.14</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Kobe Bufkin</t>
+          <t>Kobe Brown</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>-6.63</v>
+        <v>-9.390000000000001</v>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Kris Dunn</t>
+          <t>Kobe Bufkin</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>-1.46</v>
+        <v>-6.61</v>
       </c>
       <c r="C324" t="n">
-        <v>-1.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Kris Murray</t>
+          <t>Kris Dunn</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>-7.68</v>
+        <v>-1.43</v>
       </c>
       <c r="C325" t="n">
-        <v>-6.09</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Kristaps Porzingis</t>
+          <t>Kris Murray</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>4.57</v>
+        <v>-7.68</v>
       </c>
       <c r="C326" t="n">
-        <v>0</v>
+        <v>-6.15</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Kyle Anderson</t>
+          <t>Kristaps Porzingis</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>-2.55</v>
+        <v>4.62</v>
       </c>
       <c r="C327" t="n">
-        <v>-1.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Kyle Filipowski</t>
+          <t>Kyle Anderson</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>-5.56</v>
+        <v>-2.53</v>
       </c>
       <c r="C328" t="n">
-        <v>-3.93</v>
+        <v>-1.76</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Kyle Kuzma</t>
+          <t>Kyle Filipowski</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>1.57</v>
+        <v>-5.54</v>
       </c>
       <c r="C329" t="n">
-        <v>-0.93</v>
+        <v>-3.96</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Kyle Lowry</t>
+          <t>Kyle Kuzma</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>-0.6</v>
+        <v>0.85</v>
       </c>
       <c r="C330" t="n">
-        <v>-0.6</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Kyrie Irving</t>
+          <t>Kyle Lowry</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>8.470000000000001</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="C331" t="n">
-        <v>8.640000000000001</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Kyshawn George</t>
+          <t>Kyrie Irving</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>-2.4</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="C332" t="n">
-        <v>0.12</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>LaMelo Ball</t>
+          <t>Kyshawn George</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>8.720000000000001</v>
+        <v>-2.38</v>
       </c>
       <c r="C333" t="n">
-        <v>9.18</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Larry Nance Jr.</t>
+          <t>LaMelo Ball</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>-2.85</v>
+        <v>8.81</v>
       </c>
       <c r="C334" t="n">
-        <v>-0.31</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>Larry Nance Jr.</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>6.19</v>
+        <v>-2.83</v>
       </c>
       <c r="C335" t="n">
-        <v>0.71</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>6.63</v>
+        <v>6.24</v>
       </c>
       <c r="C336" t="n">
-        <v>8.94</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Leonard Miller</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>-5.19</v>
+        <v>6.71</v>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>8.130000000000001</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Lester Quinones</t>
+          <t>Leonard Miller</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0</v>
+        <v>-5.18</v>
       </c>
       <c r="C338" t="n">
-        <v>-6.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Liam Robbins</t>
+          <t>Lester Quinones</t>
         </is>
       </c>
       <c r="B339" t="n">
         <v>0</v>
       </c>
       <c r="C339" t="n">
-        <v>-9.470000000000001</v>
+        <v>-7.03</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Lindy Waters III</t>
+          <t>Liam Robbins</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>-3.64</v>
+        <v>0</v>
       </c>
       <c r="C340" t="n">
-        <v>-3.92</v>
+        <v>-9.539999999999999</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Lonzo Ball</t>
+          <t>Lindy Waters III</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>-0.99</v>
+        <v>-3.62</v>
       </c>
       <c r="C341" t="n">
-        <v>-3.73</v>
+        <v>-3.97</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Luguentz Dort</t>
+          <t>Lonzo Ball</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>-0.2</v>
+        <v>-0.96</v>
       </c>
       <c r="C342" t="n">
-        <v>2.29</v>
+        <v>-3.79</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Luka Doncic</t>
+          <t>Luguentz Dort</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>14.38</v>
+        <v>-0.17</v>
       </c>
       <c r="C343" t="n">
-        <v>8.31</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Luka Garza</t>
+          <t>Luka Doncic</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>-8.470000000000001</v>
+        <v>11.52</v>
       </c>
       <c r="C344" t="n">
-        <v>-8.710000000000001</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Luke Kennard</t>
+          <t>Luka Garza</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>-2.73</v>
+        <v>-8.49</v>
       </c>
       <c r="C345" t="n">
-        <v>-2.26</v>
+        <v>-8.779999999999999</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Luke Kornet</t>
+          <t>Luke Kennard</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>-2.8</v>
+        <v>-2.71</v>
       </c>
       <c r="C346" t="n">
-        <v>-1.69</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Luke Travers</t>
+          <t>Luke Kornet</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0</v>
+        <v>-2.79</v>
       </c>
       <c r="C347" t="n">
-        <v>-4.89</v>
+        <v>-1.88</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Mac McClung</t>
+          <t>Luke Travers</t>
         </is>
       </c>
       <c r="B348" t="n">
         <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>-7.01</v>
+        <v>-4.95</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Malaki Branham</t>
+          <t>Mac McClung</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>-5.36</v>
+        <v>0</v>
       </c>
       <c r="C349" t="n">
-        <v>-2.51</v>
+        <v>-7.08</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Malcolm Brogdon</t>
+          <t>Malaki Branham</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>-1.35</v>
+        <v>-5.34</v>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>-3.17</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Malevy Leons</t>
+          <t>Malcolm Brogdon</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0</v>
+        <v>-1.32</v>
       </c>
       <c r="C351" t="n">
-        <v>-8.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Malik Beasley</t>
+          <t>Malevy Leons</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>-2.85</v>
+        <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>-1.93</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Malik Monk</t>
+          <t>Malik Beasley</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0.25</v>
+        <v>-2.82</v>
       </c>
       <c r="C353" t="n">
-        <v>-0.29</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>MarJon Beauchamp</t>
+          <t>Malik Monk</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>-6.88</v>
+        <v>0.29</v>
       </c>
       <c r="C354" t="n">
-        <v>-7.4</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Marcus Sasser</t>
+          <t>MarJon Beauchamp</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>-3.65</v>
+        <v>-6.87</v>
       </c>
       <c r="C355" t="n">
-        <v>-4.73</v>
+        <v>-7.47</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Marcus Smart</t>
+          <t>Marcus Sasser</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>-1.1</v>
+        <v>-3.63</v>
       </c>
       <c r="C356" t="n">
-        <v>-1.25</v>
+        <v>-4.79</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Mark Williams</t>
+          <t>Marcus Smart</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>1.94</v>
+        <v>-1.06</v>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Markieff Morris</t>
+          <t>Mark Williams</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="C358" t="n">
-        <v>-7.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Marvin Bagley III</t>
+          <t>Markieff Morris</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>-4.46</v>
+        <v>0</v>
       </c>
       <c r="C359" t="n">
-        <v>-6.7</v>
+        <v>-8.470000000000001</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Mason Jones</t>
+          <t>Marvin Bagley III</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0</v>
+        <v>-4.44</v>
       </c>
       <c r="C360" t="n">
-        <v>-7.39</v>
+        <v>-6.77</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Mason Plumlee</t>
+          <t>Mason Jones</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>-4.49</v>
+        <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>-4.4</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Matas Buzelis</t>
+          <t>Mason Plumlee</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>-4.92</v>
+        <v>-4.47</v>
       </c>
       <c r="C362" t="n">
-        <v>-5.58</v>
+        <v>-4.46</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Matisse Thybulle</t>
+          <t>Matas Buzelis</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>-2.72</v>
+        <v>-4.9</v>
       </c>
       <c r="C363" t="n">
-        <v>0</v>
+        <v>-5.64</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Matt Ryan</t>
+          <t>Matisse Thybulle</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>-7.64</v>
+        <v>-2.71</v>
       </c>
       <c r="C364" t="n">
-        <v>-8.869999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Max Christie</t>
+          <t>Matt Ryan</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>-4.72</v>
+        <v>-7.64</v>
       </c>
       <c r="C365" t="n">
-        <v>-4.18</v>
+        <v>-8.93</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Max Strus</t>
+          <t>Max Christie</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>-0.82</v>
+        <v>-4.7</v>
       </c>
       <c r="C366" t="n">
-        <v>0</v>
+        <v>-4.16</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Maxi Kleber</t>
+          <t>Max Strus</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>-5.58</v>
+        <v>-0.78</v>
       </c>
       <c r="C367" t="n">
-        <v>-6.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Maxwell Lewis</t>
+          <t>Maxi Kleber</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>-10.33</v>
+        <v>-5.57</v>
       </c>
       <c r="C368" t="n">
-        <v>-8.390000000000001</v>
+        <v>-6.52</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Michael Porter Jr.</t>
+          <t>Maxwell Lewis</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>1.76</v>
+        <v>-10.36</v>
       </c>
       <c r="C369" t="n">
-        <v>4.41</v>
+        <v>-8.460000000000001</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Mikal Bridges</t>
+          <t>Michael Porter Jr.</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>3.28</v>
+        <v>1.8</v>
       </c>
       <c r="C370" t="n">
-        <v>2.94</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Mike Conley</t>
+          <t>Mikal Bridges</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>-0.59</v>
+        <v>3.32</v>
       </c>
       <c r="C371" t="n">
-        <v>0.57</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Miles Bridges</t>
+          <t>Mike Conley</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0.88</v>
+        <v>-0.55</v>
       </c>
       <c r="C372" t="n">
-        <v>0.04</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Miles McBride</t>
+          <t>Miles Bridges</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>-1.22</v>
+        <v>0.92</v>
       </c>
       <c r="C373" t="n">
-        <v>-0.48</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Mitchell Robinson</t>
+          <t>Miles McBride</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0.58</v>
+        <v>-1.19</v>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Mo Bamba</t>
+          <t>Mitchell Robinson</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>-3.36</v>
+        <v>0.6</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -5315,1899 +5315,1912 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Monte Morris</t>
+          <t>Mo Bamba</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>-5.47</v>
+        <v>-3.34</v>
       </c>
       <c r="C376" t="n">
-        <v>-4.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Moritz Wagner</t>
+          <t>Monte Morris</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>-2.21</v>
+        <v>-5.45</v>
       </c>
       <c r="C377" t="n">
-        <v>-0.73</v>
+        <v>-4.89</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Moses Moody</t>
+          <t>Moritz Wagner</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>-4.05</v>
+        <v>-2.2</v>
       </c>
       <c r="C378" t="n">
-        <v>-3.03</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Mouhamed Gueye</t>
+          <t>Moses Moody</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0</v>
+        <v>-4.03</v>
       </c>
       <c r="C379" t="n">
-        <v>-8.56</v>
+        <v>-3.07</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Moussa Diabate</t>
+          <t>Mouhamed Gueye</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>-9.06</v>
+        <v>0</v>
       </c>
       <c r="C380" t="n">
-        <v>-3.31</v>
+        <v>-8.619999999999999</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Myles Turner</t>
+          <t>Moussa Diabate</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>4.02</v>
+        <v>-4.11</v>
       </c>
       <c r="C381" t="n">
-        <v>3</v>
+        <v>-2.24</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Naji Marshall</t>
+          <t>Myles Turner</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>-3.44</v>
+        <v>4.07</v>
       </c>
       <c r="C382" t="n">
-        <v>-0.2</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Nassir Little</t>
+          <t>Naji Marshall</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>-7.57</v>
+        <v>-3.42</v>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Nate Williams</t>
+          <t>Nassir Little</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>-7.57</v>
       </c>
       <c r="C384" t="n">
-        <v>-5.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Naz Reid</t>
+          <t>Nate Williams</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>2.97</v>
+        <v>-5.47</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Neemias Queta</t>
+          <t>Naz Reid</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>-0.43</v>
+        <v>1.23</v>
       </c>
       <c r="C386" t="n">
-        <v>-2.28</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Nick Richards</t>
+          <t>Neemias Queta</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>-0.42</v>
+        <v>-1.35</v>
       </c>
       <c r="C387" t="n">
-        <v>3.2</v>
+        <v>-1.97</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Nick Smith Jr.</t>
+          <t>Nick Richards</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>-7.35</v>
+        <v>-0.4</v>
       </c>
       <c r="C388" t="n">
-        <v>-7.72</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Nickeil Alexander-Walker</t>
+          <t>Nick Smith Jr.</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>-1.73</v>
+        <v>-7.34</v>
       </c>
       <c r="C389" t="n">
-        <v>-0.18</v>
+        <v>-7.79</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Nicolas Batum</t>
+          <t>Nickeil Alexander-Walker</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>-2.28</v>
+        <v>-1.7</v>
       </c>
       <c r="C390" t="n">
-        <v>-3.5</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Nicolas Claxton</t>
+          <t>Nicolas Batum</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>2.83</v>
+        <v>-2.25</v>
       </c>
       <c r="C391" t="n">
-        <v>-0.03</v>
+        <v>-3.55</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Nikola Djurisic</t>
+          <t>Nicolas Claxton</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>-6.53</v>
+        <v>2.86</v>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Nikola Jokic</t>
+          <t>Nikola Djurisic</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>15.1</v>
+        <v>-6.51</v>
       </c>
       <c r="C393" t="n">
-        <v>18.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Nikola Jovic</t>
+          <t>Nikola Jokic</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>-1.42</v>
+        <v>15.2</v>
       </c>
       <c r="C394" t="n">
-        <v>-1.96</v>
+        <v>18.36</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Nikola Vucevic</t>
+          <t>Nikola Jovic</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>5.47</v>
+        <v>-1.39</v>
       </c>
       <c r="C395" t="n">
-        <v>8.1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Noah Clowney</t>
+          <t>Nikola Vucevic</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>-0.51</v>
+        <v>5.52</v>
       </c>
       <c r="C396" t="n">
-        <v>-3.84</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Norman Powell</t>
+          <t>Noah Clowney</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>2.18</v>
+        <v>-0.48</v>
       </c>
       <c r="C397" t="n">
-        <v>4.94</v>
+        <v>-3.88</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>OG Anunoby</t>
+          <t>Norman Powell</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>2.61</v>
+        <v>2.22</v>
       </c>
       <c r="C398" t="n">
-        <v>4.5</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Obi Toppin</t>
+          <t>OG Anunoby</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>-2.32</v>
+        <v>2.66</v>
       </c>
       <c r="C399" t="n">
-        <v>-1.14</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Ochai Agbaji</t>
+          <t>Obi Toppin</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>-5.46</v>
+        <v>-2.29</v>
       </c>
       <c r="C400" t="n">
-        <v>2.36</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Olivier-Maxence Prosper</t>
+          <t>Ochai Agbaji</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>-8.880000000000001</v>
+        <v>-5.45</v>
       </c>
       <c r="C401" t="n">
-        <v>-8.449999999999999</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Onyeka Okongwu</t>
+          <t>Olivier-Maxence Prosper</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>3.15</v>
+        <v>-8.869999999999999</v>
       </c>
       <c r="C402" t="n">
-        <v>1.16</v>
+        <v>-8.039999999999999</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Orlando Robinson</t>
+          <t>Onyeka Okongwu</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>-7.24</v>
+        <v>3.18</v>
       </c>
       <c r="C403" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Oso Ighodaro</t>
+          <t>Orlando Robinson</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0</v>
+        <v>-7.23</v>
       </c>
       <c r="C404" t="n">
-        <v>-3.72</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Ousmane Dieng</t>
+          <t>Oso Ighodaro</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>-7.63</v>
+        <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>-4.39</v>
+        <v>-3.78</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>P.J. Tucker</t>
+          <t>Ousmane Dieng</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>-8.5</v>
+        <v>-7.62</v>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
+        <v>-4.44</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>P.J. Washington</t>
+          <t>P.J. Tucker</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>0.02</v>
+        <v>-8.5</v>
       </c>
       <c r="C407" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>PJ Dozier</t>
+          <t>P.J. Washington</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>-8.25</v>
+        <v>0.05</v>
       </c>
       <c r="C408" t="n">
-        <v>-7.32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>PJ Hall</t>
+          <t>PJ Dozier</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>-8.890000000000001</v>
+        <v>-8.25</v>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>-7.39</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Pacome Dadiet</t>
+          <t>PJ Hall</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>-8.5</v>
+        <v>-8.92</v>
       </c>
       <c r="C410" t="n">
-        <v>-6.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Paolo Banchero</t>
+          <t>Pacome Dadiet</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>2.86</v>
+        <v>-8.5</v>
       </c>
       <c r="C411" t="n">
-        <v>2.88</v>
+        <v>-6.09</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Pascal Siakam</t>
+          <t>Paolo Banchero</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>3.04</v>
+        <v>2.93</v>
       </c>
       <c r="C412" t="n">
-        <v>4.19</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Pat Connaughton</t>
+          <t>Pascal Siakam</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>-4.26</v>
+        <v>3.09</v>
       </c>
       <c r="C413" t="n">
-        <v>-5</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Pat Spencer</t>
+          <t>Pat Connaughton</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>0</v>
+        <v>-4.24</v>
       </c>
       <c r="C414" t="n">
-        <v>-7.75</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Patrick Baldwin Jr.</t>
+          <t>Pat Spencer</t>
         </is>
       </c>
       <c r="B415" t="n">
         <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>-6.91</v>
+        <v>-7.82</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Patrick Williams</t>
+          <t>Patrick Baldwin Jr.</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>0.92</v>
+        <v>-6.97</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Patty Mills</t>
+          <t>Patrick Williams</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>-7.17</v>
+        <v>-1.18</v>
       </c>
       <c r="C417" t="n">
-        <v>-4.73</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Paul George</t>
+          <t>Patty Mills</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>6.44</v>
+        <v>-7.16</v>
       </c>
       <c r="C418" t="n">
-        <v>4.69</v>
+        <v>-4.78</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Paul Reed</t>
+          <t>Paul George</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>-3.06</v>
+        <v>6.49</v>
       </c>
       <c r="C419" t="n">
-        <v>-3.05</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Payton Pritchard</t>
+          <t>Paul Reed</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0.18</v>
+        <v>-3.04</v>
       </c>
       <c r="C420" t="n">
-        <v>3.44</v>
+        <v>-3.11</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Pelle Larsson</t>
+          <t>Payton Pritchard</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>-7.33</v>
+        <v>0.22</v>
       </c>
       <c r="C421" t="n">
-        <v>-5.23</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Peyton Watson</t>
+          <t>Pelle Larsson</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>-2.57</v>
+        <v>-7.32</v>
       </c>
       <c r="C422" t="n">
-        <v>-1.73</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Precious Achiuwa</t>
+          <t>Peyton Watson</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>-4.49</v>
+        <v>-2.55</v>
       </c>
       <c r="C423" t="n">
-        <v>0</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Quentin Grimes</t>
+          <t>Precious Achiuwa</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>-5.55</v>
+        <v>-4.47</v>
       </c>
       <c r="C424" t="n">
-        <v>-4.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Quenton Jackson</t>
+          <t>Quentin Grimes</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>0</v>
+        <v>-5.54</v>
       </c>
       <c r="C425" t="n">
-        <v>-3.88</v>
+        <v>-4.75</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Quinten Post</t>
+          <t>Quenton Jackson</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>-8.470000000000001</v>
+        <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>0</v>
+        <v>-3.94</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Quinten Post</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>0.47</v>
+        <v>-8.49</v>
       </c>
       <c r="C427" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Rayan Rupert</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>-4.99</v>
+        <v>0.52</v>
       </c>
       <c r="C428" t="n">
-        <v>-5.49</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Reece Beekman</t>
+          <t>Rayan Rupert</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0</v>
+        <v>-4.98</v>
       </c>
       <c r="C429" t="n">
-        <v>-6.47</v>
+        <v>-5.55</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Reed Sheppard</t>
+          <t>Reece Beekman</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>-2.79</v>
+        <v>0</v>
       </c>
       <c r="C430" t="n">
-        <v>-5.68</v>
+        <v>-6.54</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Reggie Jackson</t>
+          <t>Reed Sheppard</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>-5.94</v>
+        <v>-2.77</v>
       </c>
       <c r="C431" t="n">
-        <v>-5.31</v>
+        <v>-5.74</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Richaun Holmes</t>
+          <t>Reggie Jackson</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>-5.6</v>
+        <v>-5.93</v>
       </c>
       <c r="C432" t="n">
-        <v>-7.46</v>
+        <v>-5.36</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Ricky Council IV</t>
+          <t>Richaun Holmes</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>-8.77</v>
+        <v>-5.59</v>
       </c>
       <c r="C433" t="n">
-        <v>-7.42</v>
+        <v>-7.53</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Riley Minix</t>
+          <t>Ricky Council IV</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0</v>
+        <v>-8.77</v>
       </c>
       <c r="C434" t="n">
-        <v>-8.369999999999999</v>
+        <v>-7.48</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Rob Dillingham</t>
+          <t>Riley Minix</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>-3.84</v>
+        <v>0</v>
       </c>
       <c r="C435" t="n">
-        <v>-6.5</v>
+        <v>-8.43</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Robert Williams III</t>
+          <t>Rob Dillingham</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>-2.49</v>
+        <v>-3.81</v>
       </c>
       <c r="C436" t="n">
-        <v>7.62</v>
+        <v>-6.57</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Ron Holland II</t>
+          <t>Robert Williams III</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>-3.14</v>
+        <v>-2.48</v>
       </c>
       <c r="C437" t="n">
-        <v>-4.68</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Royce O'Neale</t>
+          <t>Ron Holland II</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>-2.58</v>
+        <v>-3.12</v>
       </c>
       <c r="C438" t="n">
-        <v>1.39</v>
+        <v>-4.73</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
+          <t>Royce O'Neale</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>3.93</v>
+        <v>-2.55</v>
       </c>
       <c r="C439" t="n">
-        <v>3.82</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Rui Hachimura</t>
+          <t>Rudy Gobert</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>-0.08</v>
+        <v>3.97</v>
       </c>
       <c r="C440" t="n">
-        <v>0.12</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
+          <t>Rui Hachimura</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>-2.49</v>
+        <v>-0.04</v>
       </c>
       <c r="C441" t="n">
-        <v>-0.91</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Ryan Dunn</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>-4.88</v>
+        <v>-2.45</v>
       </c>
       <c r="C442" t="n">
-        <v>-3.33</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Ryan Rollins</t>
+          <t>Ryan Dunn</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>-8.050000000000001</v>
+        <v>-4.87</v>
       </c>
       <c r="C443" t="n">
-        <v>-4.19</v>
+        <v>-3.38</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Saddiq Bey</t>
+          <t>Ryan Rollins</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>-4.03</v>
+        <v>-8.050000000000001</v>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>-4.25</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Sam Hauser</t>
+          <t>Saddiq Bey</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>-2.08</v>
+        <v>-4.01</v>
       </c>
       <c r="C445" t="n">
-        <v>-2.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Sam Merrill</t>
+          <t>Sam Hauser</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>-5.61</v>
+        <v>-2.05</v>
       </c>
       <c r="C446" t="n">
-        <v>-2.89</v>
+        <v>-2.55</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Sandro Mamukelashvili</t>
+          <t>Sam Merrill</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>-8.85</v>
+        <v>-5.59</v>
       </c>
       <c r="C447" t="n">
-        <v>-4.31</v>
+        <v>-2.93</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Santi Aldama</t>
+          <t>Sandro Mamukelashvili</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>-2.41</v>
+        <v>-8.880000000000001</v>
       </c>
       <c r="C448" t="n">
-        <v>1.92</v>
+        <v>-3.42</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Scoot Henderson</t>
+          <t>Santi Aldama</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>-0.14</v>
+        <v>-2.38</v>
       </c>
       <c r="C449" t="n">
-        <v>-0.9</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Scottie Barnes</t>
+          <t>Scoot Henderson</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>8</v>
+        <v>-0.1</v>
       </c>
       <c r="C450" t="n">
-        <v>4.5</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Scotty Pippen Jr.</t>
+          <t>Scottie Barnes</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>0.76</v>
+        <v>8.07</v>
       </c>
       <c r="C451" t="n">
-        <v>2.36</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Seth Curry</t>
+          <t>Scotty Pippen Jr.</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>-2.44</v>
+        <v>-0.02</v>
       </c>
       <c r="C452" t="n">
-        <v>-4.84</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Shaedon Sharpe</t>
+          <t>Seth Curry</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>-1.82</v>
+        <v>-5.11</v>
       </c>
       <c r="C453" t="n">
-        <v>-1.86</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Shaedon Sharpe</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>14.23</v>
+        <v>-1.79</v>
       </c>
       <c r="C454" t="n">
-        <v>11.26</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Shake Milton</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>-6.15</v>
+        <v>14.29</v>
       </c>
       <c r="C455" t="n">
-        <v>-6.19</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Sidy Cissoko</t>
+          <t>Shake Milton</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>-8.960000000000001</v>
+        <v>-6.14</v>
       </c>
       <c r="C456" t="n">
-        <v>-7.35</v>
+        <v>-6.25</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Simone Fontecchio</t>
+          <t>Sidy Cissoko</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>-6.05</v>
+        <v>-8.970000000000001</v>
       </c>
       <c r="C457" t="n">
-        <v>-4.67</v>
+        <v>-8.289999999999999</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Spencer Dinwiddie</t>
+          <t>Simone Fontecchio</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>-4.18</v>
+        <v>-6.03</v>
       </c>
       <c r="C458" t="n">
-        <v>-5.54</v>
+        <v>-4.72</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Spencer Jones</t>
+          <t>Spencer Dinwiddie</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>0</v>
+        <v>-4.16</v>
       </c>
       <c r="C459" t="n">
-        <v>-6.14</v>
+        <v>-5.88</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Stanley Umude</t>
+          <t>Spencer Jones</t>
         </is>
       </c>
       <c r="B460" t="n">
         <v>0</v>
       </c>
       <c r="C460" t="n">
-        <v>-8.81</v>
+        <v>-6.21</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Stanley Umude</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>9.18</v>
+        <v>0</v>
       </c>
       <c r="C461" t="n">
-        <v>11.03</v>
+        <v>-8.880000000000001</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Stephon Castle</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>-3.92</v>
+        <v>9.25</v>
       </c>
       <c r="C462" t="n">
-        <v>-3.19</v>
+        <v>11.03</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Steven Adams</t>
+          <t>Stephon Castle</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>-3.43</v>
+        <v>-3.9</v>
       </c>
       <c r="C463" t="n">
-        <v>-6.56</v>
+        <v>-2.83</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Svi Mykhailiuk</t>
+          <t>Steven Adams</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>-5.09</v>
+        <v>-3.41</v>
       </c>
       <c r="C464" t="n">
-        <v>-3.58</v>
+        <v>-6.63</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>T.J. McConnell</t>
+          <t>Svi Mykhailiuk</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>-0.59</v>
+        <v>-5.07</v>
       </c>
       <c r="C465" t="n">
-        <v>-1.19</v>
+        <v>-6.04</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Taj Gibson</t>
+          <t>T.J. McConnell</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>-9.140000000000001</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="C466" t="n">
-        <v>-4.4</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Talen Horton-Tucker</t>
+          <t>Taj Gibson</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>0</v>
+        <v>-9.17</v>
       </c>
       <c r="C467" t="n">
-        <v>-6.38</v>
+        <v>-4.46</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Tari Eason</t>
+          <t>Talen Horton-Tucker</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="C468" t="n">
-        <v>3.52</v>
+        <v>-6.45</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Taurean Prince</t>
+          <t>Tari Eason</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>-2.47</v>
+        <v>1.01</v>
       </c>
       <c r="C469" t="n">
-        <v>-0.16</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Taylor Hendricks</t>
+          <t>Taurean Prince</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0.6</v>
+        <v>-2.44</v>
       </c>
       <c r="C470" t="n">
-        <v>-0.77</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Terance Mann</t>
+          <t>Taylor Hendricks</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>-2.88</v>
+        <v>0.63</v>
       </c>
       <c r="C471" t="n">
-        <v>-4.31</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Terrence Shannon Jr.</t>
+          <t>Terance Mann</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>-7.88</v>
+        <v>-2.86</v>
       </c>
       <c r="C472" t="n">
-        <v>-6.22</v>
+        <v>-4.36</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Terry Rozier</t>
+          <t>Terrence Shannon Jr.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>-0.24</v>
+        <v>-7.88</v>
       </c>
       <c r="C473" t="n">
-        <v>1.07</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Thomas Bryant</t>
+          <t>Terry Rozier</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>-5.3</v>
+        <v>-0.2</v>
       </c>
       <c r="C474" t="n">
-        <v>-3.43</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Tidjane Salaun</t>
+          <t>Thomas Bryant</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>-6.24</v>
+        <v>-5.29</v>
       </c>
       <c r="C475" t="n">
-        <v>-7.01</v>
+        <v>-3.48</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Tim Hardaway Jr.</t>
+          <t>Tidjane Salaun</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>-5.38</v>
+        <v>-6.23</v>
       </c>
       <c r="C476" t="n">
-        <v>-0.87</v>
+        <v>-7.02</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Tim Hardaway Jr.</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>2.96</v>
+        <v>-5.36</v>
       </c>
       <c r="C477" t="n">
-        <v>2.54</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Torrey Craig</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>-4.15</v>
+        <v>3</v>
       </c>
       <c r="C478" t="n">
-        <v>-8.380000000000001</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Toumani Camara</t>
+          <t>Torrey Craig</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>-2.32</v>
+        <v>-4.13</v>
       </c>
       <c r="C479" t="n">
-        <v>0.64</v>
+        <v>-8.449999999999999</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Toumani Camara</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>9.75</v>
+        <v>-2.3</v>
       </c>
       <c r="C480" t="n">
-        <v>8.300000000000001</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Trayce Jackson-Davis</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>2.3</v>
+        <v>9.83</v>
       </c>
       <c r="C481" t="n">
-        <v>-2.06</v>
+        <v>8.279999999999999</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Tre Jones</t>
+          <t>Trayce Jackson-Davis</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>-0.48</v>
+        <v>2.33</v>
       </c>
       <c r="C482" t="n">
-        <v>-6.06</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Tre Mann</t>
+          <t>Tre Jones</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>-2.02</v>
+        <v>-0.45</v>
       </c>
       <c r="C483" t="n">
-        <v>0.95</v>
+        <v>-6.05</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Trendon Watford</t>
+          <t>Tre Mann</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>-6.65</v>
+        <v>-1.99</v>
       </c>
       <c r="C484" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Trevelin Queen</t>
+          <t>Trendon Watford</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>0</v>
+        <v>-6.65</v>
       </c>
       <c r="C485" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Trey Alexander</t>
+          <t>Trevelin Queen</t>
         </is>
       </c>
       <c r="B486" t="n">
         <v>0</v>
       </c>
       <c r="C486" t="n">
-        <v>-8.380000000000001</v>
+        <v>-8.07</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Trey Jemison</t>
+          <t>Trey Alexander</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>-5.16</v>
+        <v>0</v>
       </c>
       <c r="C487" t="n">
-        <v>-5.21</v>
+        <v>-8.449999999999999</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Trey Lyles</t>
+          <t>Trey Jemison</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>-3.81</v>
+        <v>-5.15</v>
       </c>
       <c r="C488" t="n">
-        <v>-3.59</v>
+        <v>-4.66</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Trey Murphy III</t>
+          <t>Trey Lyles</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>2.32</v>
+        <v>-3.79</v>
       </c>
       <c r="C489" t="n">
-        <v>-0.01</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Tristan Da Silva</t>
+          <t>Trey Murphy III</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>-6.04</v>
+        <v>2.36</v>
       </c>
       <c r="C490" t="n">
-        <v>-3.89</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Tristan Thompson</t>
+          <t>Tristan Da Silva</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>0</v>
+        <v>-6.03</v>
       </c>
       <c r="C491" t="n">
-        <v>-9.130000000000001</v>
+        <v>-3.94</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Tristan Vukcevic</t>
+          <t>Tristan Thompson</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>-7.02</v>
+        <v>0</v>
       </c>
       <c r="C492" t="n">
-        <v>0</v>
+        <v>-9.210000000000001</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Ty Jerome</t>
+          <t>Tristan Vukcevic</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>-8.880000000000001</v>
+        <v>-7.01</v>
       </c>
       <c r="C493" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>TyTy Washington Jr.</t>
+          <t>Ty Jerome</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>0</v>
+        <v>-8.9</v>
       </c>
       <c r="C494" t="n">
-        <v>-5.08</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Tyler Herro</t>
+          <t>TyTy Washington Jr.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="C495" t="n">
-        <v>7.07</v>
+        <v>-5.14</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Tyler Kolek</t>
+          <t>Tyler Herro</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>-8.140000000000001</v>
+        <v>2.97</v>
       </c>
       <c r="C496" t="n">
-        <v>-5.41</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Tyler Smith</t>
+          <t>Tyler Kolek</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>-6.37</v>
+        <v>-8.140000000000001</v>
       </c>
       <c r="C497" t="n">
-        <v>-6.5</v>
+        <v>-5.47</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Tyler Smith</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>8.58</v>
+        <v>-6.36</v>
       </c>
       <c r="C498" t="n">
-        <v>3.27</v>
+        <v>-6.57</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Tyrese Martin</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>0</v>
+        <v>8.65</v>
       </c>
       <c r="C499" t="n">
-        <v>-7.75</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Tyrese Maxey</t>
+          <t>Tyrese Martin</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>5.49</v>
+        <v>0</v>
       </c>
       <c r="C500" t="n">
-        <v>4.39</v>
+        <v>-7.82</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Tyus Jones</t>
+          <t>Tyrese Maxey</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>1.61</v>
+        <v>5.56</v>
       </c>
       <c r="C501" t="n">
-        <v>0.68</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Ulrich Chomche</t>
+          <t>Tyus Jones</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="C502" t="n">
-        <v>-6.92</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Vasilije Micic</t>
+          <t>Ulrich Chomche</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>-5.43</v>
+        <v>0</v>
       </c>
       <c r="C503" t="n">
-        <v>-7.92</v>
+        <v>-6.99</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Vasilije Micic</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>14.63</v>
+        <v>-5.42</v>
       </c>
       <c r="C504" t="n">
-        <v>14.19</v>
+        <v>-7.98</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Vince Williams Jr.</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>-0.93</v>
+        <v>14.7</v>
       </c>
       <c r="C505" t="n">
-        <v>-1.48</v>
+        <v>14.21</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Vlatko Cancar</t>
+          <t>Vince Williams Jr.</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>-7.46</v>
+        <v>-0.9</v>
       </c>
       <c r="C506" t="n">
-        <v>-6.61</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Vít Krejcí</t>
+          <t>Vlatko Cancar</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>-8.08</v>
+        <v>-7.46</v>
       </c>
       <c r="C507" t="n">
-        <v>-5.58</v>
+        <v>-6.68</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Walker Kessler</t>
+          <t>Vít Krejcí</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>2.47</v>
+        <v>-8.08</v>
       </c>
       <c r="C508" t="n">
-        <v>4.01</v>
+        <v>-5.64</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Wendell Carter Jr.</t>
+          <t>Walker Kessler</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>0.1</v>
+        <v>2.51</v>
       </c>
       <c r="C509" t="n">
-        <v>0.3</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Wendell Moore Jr.</t>
+          <t>Wendell Carter Jr.</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="C510" t="n">
-        <v>-5.28</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Xavier Tillman Sr.</t>
+          <t>Wendell Moore Jr.</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>-3.26</v>
+        <v>0</v>
       </c>
       <c r="C511" t="n">
-        <v>-7.01</v>
+        <v>-5.35</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Yongxi Cui</t>
+          <t>Xavier Tillman Sr.</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>0</v>
+        <v>-3.23</v>
       </c>
       <c r="C512" t="n">
-        <v>-9.24</v>
+        <v>-7.07</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Yuki Kawamura</t>
+          <t>Yongxi Cui</t>
         </is>
       </c>
       <c r="B513" t="n">
         <v>0</v>
       </c>
       <c r="C513" t="n">
-        <v>-8.26</v>
+        <v>-9.31</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Yves Missi</t>
+          <t>Yuki Kawamura</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>-3.92</v>
+        <v>0</v>
       </c>
       <c r="C514" t="n">
-        <v>-0.84</v>
+        <v>-8.33</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Zaccharie Risacher</t>
+          <t>Yves Missi</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>-2.21</v>
+        <v>-3.91</v>
       </c>
       <c r="C515" t="n">
-        <v>-3.32</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Zach Collins</t>
+          <t>Zaccharie Risacher</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>-2.62</v>
+        <v>-2.18</v>
       </c>
       <c r="C516" t="n">
-        <v>-2.37</v>
+        <v>-3.35</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Zach Edey</t>
+          <t>Zach Collins</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>-1.44</v>
+        <v>-2.6</v>
       </c>
       <c r="C517" t="n">
-        <v>0.96</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
+          <t>Zach Edey</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>3.57</v>
+        <v>-1.41</v>
       </c>
       <c r="C518" t="n">
-        <v>4.67</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Zeke Nnaji</t>
+          <t>Zach LaVine</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>-6.64</v>
+        <v>3.62</v>
       </c>
       <c r="C519" t="n">
-        <v>-7.8</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Ziaire Williams</t>
+          <t>Zeke Nnaji</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>-4.46</v>
+        <v>-6.63</v>
       </c>
       <c r="C520" t="n">
-        <v>-0.97</v>
+        <v>-7.87</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
+          <t>Ziaire Williams</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>-4.44</v>
+      </c>
+      <c r="C521" t="n">
+        <v>-1.01</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
           <t>Zion Williamson</t>
         </is>
       </c>
-      <c r="B521" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="C521" t="n">
-        <v>2.05</v>
+      <c r="B522" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C522" t="n">
+        <v>2.02</v>
       </c>
     </row>
   </sheetData>

--- a/data/merged_scores.xlsx
+++ b/data/merged_scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C522"/>
+  <dimension ref="A1:C523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-9.5</v>
+        <v>-9.550000000000001</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4.15</v>
+        <v>-4.19</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.73</v>
+        <v>-2.87</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-9.17</v>
+        <v>-9.210000000000001</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-8.289999999999999</v>
+        <v>-8.470000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="C6" t="n">
-        <v>3.13</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.05</v>
+        <v>-7.12</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.93</v>
+        <v>-6.05</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.66</v>
+        <v>-1.72</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.25</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.38</v>
+        <v>-4.45</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.52</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.1</v>
+        <v>-7.26</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9.07</v>
+        <v>-9.119999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.44</v>
+        <v>-7.61</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-6.7</v>
+        <v>-6.78</v>
       </c>
       <c r="C12" t="n">
-        <v>-6.69</v>
+        <v>-6.84</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.9</v>
+        <v>-8.949999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.42</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="C14" t="n">
-        <v>2.18</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.31</v>
+        <v>-4.36</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.28</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="16">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.15</v>
+        <v>-2.27</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-9.01</v>
+        <v>-9.19</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6.37</v>
+        <v>-6.45</v>
       </c>
       <c r="C18" t="n">
-        <v>-4.99</v>
+        <v>-5.15</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-6.99</v>
+        <v>-7.15</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="C20" t="n">
-        <v>1.76</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="21">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.47</v>
+        <v>3.38</v>
       </c>
       <c r="C21" t="n">
-        <v>5.78</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="22">
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="C22" t="n">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="23">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-5.47</v>
+        <v>-5.53</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.63</v>
+        <v>-2.85</v>
       </c>
     </row>
     <row r="24">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.46</v>
+        <v>-0.53</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.64</v>
+        <v>-1.74</v>
       </c>
     </row>
     <row r="25">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-6.32</v>
+        <v>-6.4</v>
       </c>
       <c r="C25" t="n">
-        <v>-4.05</v>
+        <v>-4.21</v>
       </c>
     </row>
     <row r="26">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.23</v>
+        <v>-1.32</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.1</v>
+        <v>-3.27</v>
       </c>
     </row>
     <row r="27">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1.14</v>
+        <v>-1.2</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.18</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="28">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.84</v>
+        <v>2.79</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.21</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="29">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-3.43</v>
+        <v>-3.51</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.22</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="30">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>14.15</v>
+        <v>13.84</v>
       </c>
       <c r="C30" t="n">
-        <v>12.3</v>
+        <v>12.32</v>
       </c>
     </row>
     <row r="31">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.04</v>
+        <v>6.99</v>
       </c>
       <c r="C31" t="n">
-        <v>6.79</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="32">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-8.09</v>
+        <v>-8.17</v>
       </c>
       <c r="C32" t="n">
-        <v>-7.31</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>-7.39</v>
+        <v>-7.56</v>
       </c>
     </row>
     <row r="34">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-7.54</v>
+        <v>-7.62</v>
       </c>
       <c r="C34" t="n">
-        <v>-4.88</v>
+        <v>-5.03</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-8.81</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="36">
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.01</v>
+        <v>-0.09</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -912,10 +912,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.36</v>
+        <v>4.29</v>
       </c>
       <c r="C37" t="n">
-        <v>3.74</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="38">
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1.94</v>
+        <v>-2.02</v>
       </c>
       <c r="C38" t="n">
-        <v>0.05</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="39">
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.43</v>
+        <v>3.34</v>
       </c>
       <c r="C39" t="n">
-        <v>4.2</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="40">
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-7.26</v>
+        <v>-7.33</v>
       </c>
       <c r="C40" t="n">
-        <v>-8.25</v>
+        <v>-8.42</v>
       </c>
     </row>
     <row r="41">
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-6.02</v>
+        <v>-6.08</v>
       </c>
       <c r="C41" t="n">
-        <v>-3.48</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="42">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.33</v>
+        <v>-0.44</v>
       </c>
       <c r="C42" t="n">
-        <v>1.47</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="43">
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.36</v>
+        <v>-0.41</v>
       </c>
       <c r="C43" t="n">
-        <v>1.84</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="44">
@@ -1003,10 +1003,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="C44" t="n">
-        <v>2.87</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="45">
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-7.79</v>
+        <v>-7.88</v>
       </c>
       <c r="C45" t="n">
-        <v>-5.79</v>
+        <v>-5.94</v>
       </c>
     </row>
     <row r="46">
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.82</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="47">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-6.13</v>
+        <v>-6.19</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1055,10 +1055,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="C48" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="49">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-2.37</v>
+        <v>-2.42</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-5.33</v>
+        <v>-5.4</v>
       </c>
       <c r="C50" t="n">
-        <v>-6.51</v>
+        <v>-6.69</v>
       </c>
     </row>
     <row r="51">
@@ -1094,10 +1094,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-3.37</v>
+        <v>-3.43</v>
       </c>
       <c r="C51" t="n">
-        <v>-4.72</v>
+        <v>-4.84</v>
       </c>
     </row>
     <row r="52">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-9.16</v>
+        <v>-9.23</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3.68</v>
+        <v>3.61</v>
       </c>
       <c r="C53" t="n">
-        <v>4.79</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="54">
@@ -1133,10 +1133,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.99</v>
+        <v>-1.07</v>
       </c>
       <c r="C54" t="n">
-        <v>-1.77</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="55">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.17</v>
+        <v>-0.24</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="57">
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-2.34</v>
+        <v>-2.43</v>
       </c>
       <c r="C57" t="n">
-        <v>-4.21</v>
+        <v>-4.16</v>
       </c>
     </row>
     <row r="58">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.89</v>
+        <v>2.81</v>
       </c>
       <c r="C58" t="n">
-        <v>6.05</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="59">
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="C59" t="n">
-        <v>2.61</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="60">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>-8.76</v>
+        <v>-8.970000000000001</v>
       </c>
     </row>
     <row r="61">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-3.35</v>
+        <v>-3.4</v>
       </c>
       <c r="C61" t="n">
-        <v>-5.19</v>
+        <v>-5.33</v>
       </c>
     </row>
     <row r="62">
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-8.44</v>
+        <v>-8.51</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>-7.99</v>
+        <v>-8.15</v>
       </c>
     </row>
     <row r="64">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="C64" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="65">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.34</v>
+        <v>-0.41</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-4.64</v>
+        <v>-4.71</v>
       </c>
       <c r="C66" t="n">
-        <v>-4.56</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="67">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-9.4</v>
+        <v>-9.44</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="69">
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-9.890000000000001</v>
+        <v>-9.93</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="C70" t="n">
-        <v>3.39</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="71">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>5.98</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="72">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>6.53</v>
+        <v>6.98</v>
       </c>
       <c r="C72" t="n">
-        <v>6.75</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="73">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-7.6</v>
+        <v>-7.66</v>
       </c>
       <c r="C73" t="n">
-        <v>-8.140000000000001</v>
+        <v>-8.32</v>
       </c>
     </row>
     <row r="74">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-0.98</v>
+        <v>-1.04</v>
       </c>
       <c r="C74" t="n">
-        <v>-1.41</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="75">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-8.460000000000001</v>
+        <v>-8.529999999999999</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-5.47</v>
+        <v>-5.53</v>
       </c>
       <c r="C76" t="n">
-        <v>-3.6</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="77">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="C77" t="n">
-        <v>4.39</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="78">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-7.37</v>
+        <v>-7.43</v>
       </c>
       <c r="C78" t="n">
-        <v>-7.72</v>
+        <v>-7.93</v>
       </c>
     </row>
     <row r="79">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="C79" t="n">
-        <v>2.68</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="80">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-5.31</v>
+        <v>-5.38</v>
       </c>
       <c r="C80" t="n">
-        <v>-3.23</v>
+        <v>-3.35</v>
       </c>
     </row>
     <row r="81">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-1.26</v>
+        <v>-1.33</v>
       </c>
       <c r="C81" t="n">
-        <v>2.47</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="82">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-3.27</v>
+        <v>-3.34</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-2.2</v>
+        <v>-2.26</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.98</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="84">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-5.49</v>
+        <v>-5.57</v>
       </c>
       <c r="C84" t="n">
-        <v>-5.25</v>
+        <v>-5.38</v>
       </c>
     </row>
     <row r="85">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>6.16</v>
+        <v>6.1</v>
       </c>
       <c r="C85" t="n">
-        <v>6.92</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="86">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-4.97</v>
+        <v>-5.04</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.18</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="87">
@@ -1562,10 +1562,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-6.43</v>
+        <v>-6.49</v>
       </c>
       <c r="C87" t="n">
-        <v>-7.18</v>
+        <v>-7.03</v>
       </c>
     </row>
     <row r="88">
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>-9.19</v>
+        <v>-9.380000000000001</v>
       </c>
     </row>
     <row r="89">
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1.07</v>
+        <v>0.98</v>
       </c>
       <c r="C89" t="n">
-        <v>4.16</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="90">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.86</v>
+        <v>-0.93</v>
       </c>
       <c r="C90" t="n">
-        <v>4.12</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="91">
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>-4.83</v>
+        <v>-4.96</v>
       </c>
     </row>
     <row r="92">
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-2.96</v>
+        <v>-3.03</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-9.42</v>
+        <v>-9.460000000000001</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.3</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="95">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2.39</v>
+        <v>2.33</v>
       </c>
       <c r="C95" t="n">
-        <v>5.7</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="96">
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-4.12</v>
+        <v>-4.2</v>
       </c>
       <c r="C96" t="n">
         <v>-1.03</v>
@@ -1692,10 +1692,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-6.75</v>
+        <v>-6.82</v>
       </c>
       <c r="C97" t="n">
-        <v>-6.43</v>
+        <v>-6.17</v>
       </c>
     </row>
     <row r="98">
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-9.24</v>
+        <v>-9.289999999999999</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -1718,10 +1718,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-9.029999999999999</v>
+        <v>-9.1</v>
       </c>
       <c r="C99" t="n">
-        <v>-7.5</v>
+        <v>-7.66</v>
       </c>
     </row>
     <row r="100">
@@ -1731,10 +1731,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-3.4</v>
+        <v>-3.47</v>
       </c>
       <c r="C100" t="n">
-        <v>-5.42</v>
+        <v>-5.6</v>
       </c>
     </row>
     <row r="101">
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>-7.13</v>
+        <v>-7.44</v>
       </c>
     </row>
     <row r="102">
@@ -1757,10 +1757,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-8.949999999999999</v>
+        <v>-9.02</v>
       </c>
       <c r="C102" t="n">
-        <v>-6.95</v>
+        <v>-7.12</v>
       </c>
     </row>
     <row r="103">
@@ -1770,10 +1770,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="104">
@@ -1783,10 +1783,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-2.64</v>
+        <v>-2.69</v>
       </c>
       <c r="C104" t="n">
-        <v>-2.59</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="105">
@@ -1796,10 +1796,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-7.31</v>
+        <v>-7.39</v>
       </c>
       <c r="C105" t="n">
-        <v>-7.02</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="106">
@@ -1809,10 +1809,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-5.56</v>
+        <v>-5.65</v>
       </c>
       <c r="C106" t="n">
-        <v>-6.64</v>
+        <v>-5.93</v>
       </c>
     </row>
     <row r="107">
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="108">
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-9.130000000000001</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>-7.33</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="109">
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-7.44</v>
+        <v>-7.52</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-9.529999999999999</v>
+        <v>-9.609999999999999</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-6.98</v>
+        <v>-7.05</v>
       </c>
       <c r="C111" t="n">
-        <v>-2.19</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="112">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-7.99</v>
+        <v>-8.07</v>
       </c>
       <c r="C112" t="n">
-        <v>-4.98</v>
+        <v>-5.07</v>
       </c>
     </row>
     <row r="113">
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-4.79</v>
+        <v>-1.81</v>
       </c>
       <c r="C113" t="n">
-        <v>-2.39</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="114">
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>9.33</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="C114" t="n">
         <v>8.24</v>
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-4.77</v>
+        <v>-4.83</v>
       </c>
       <c r="C115" t="n">
-        <v>-5.43</v>
+        <v>-5.56</v>
       </c>
     </row>
     <row r="116">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="C116" t="n">
-        <v>2.23</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="117">
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-3.28</v>
+        <v>-3.35</v>
       </c>
       <c r="C117" t="n">
-        <v>-4.15</v>
+        <v>-4.3</v>
       </c>
     </row>
     <row r="118">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>-9.19</v>
+        <v>-9.380000000000001</v>
       </c>
     </row>
     <row r="119">
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-4.95</v>
+        <v>-5.03</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1991,10 +1991,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-4.68</v>
+        <v>-4.75</v>
       </c>
       <c r="C120" t="n">
-        <v>-7.17</v>
+        <v>-5.85</v>
       </c>
     </row>
     <row r="121">
@@ -2004,10 +2004,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-8.869999999999999</v>
+        <v>-8.93</v>
       </c>
       <c r="C121" t="n">
-        <v>-8.09</v>
+        <v>-8.26</v>
       </c>
     </row>
     <row r="122">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>3.85</v>
+        <v>3.77</v>
       </c>
       <c r="C122" t="n">
-        <v>7.34</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="123">
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>-10.23</v>
+        <v>-10.52</v>
       </c>
     </row>
     <row r="124">
@@ -2043,7 +2043,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-7.22</v>
+        <v>-7.29</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-9.449999999999999</v>
+        <v>-8.210000000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>-1.78</v>
+        <v>-1.91</v>
       </c>
     </row>
     <row r="126">
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-4.64</v>
+        <v>-4.71</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.49</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="127">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-2.51</v>
+        <v>-2.6</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>5.28</v>
+        <v>5.21</v>
       </c>
       <c r="C128" t="n">
-        <v>8.57</v>
+        <v>8.550000000000001</v>
       </c>
     </row>
     <row r="129">
@@ -2108,10 +2108,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-0.21</v>
+        <v>-0.25</v>
       </c>
       <c r="C129" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="130">
@@ -2121,10 +2121,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.87</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="131">
@@ -2134,10 +2134,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-7.24</v>
+        <v>-7.32</v>
       </c>
       <c r="C131" t="n">
-        <v>-5.73</v>
+        <v>-6.58</v>
       </c>
     </row>
     <row r="132">
@@ -2147,10 +2147,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>5.11</v>
+        <v>5.05</v>
       </c>
       <c r="C132" t="n">
-        <v>6.7</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="133">
@@ -2160,10 +2160,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-4.5</v>
+        <v>-4.56</v>
       </c>
       <c r="C133" t="n">
-        <v>-2.7</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="134">
@@ -2173,10 +2173,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="C134" t="n">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="135">
@@ -2186,10 +2186,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>3.94</v>
+        <v>3.86</v>
       </c>
       <c r="C135" t="n">
-        <v>3.17</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="136">
@@ -2199,10 +2199,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-2.92</v>
+        <v>-3</v>
       </c>
       <c r="C136" t="n">
-        <v>-4.54</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="137">
@@ -2212,10 +2212,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-0.57</v>
+        <v>-0.65</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.42</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="138">
@@ -2225,10 +2225,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="C138" t="n">
-        <v>4.72</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="139">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2.43</v>
+        <v>2.34</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="140">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-2.38</v>
+        <v>-2.45</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.44</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="141">
@@ -2264,7 +2264,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-6.89</v>
+        <v>-6.97</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -2277,10 +2277,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>5</v>
+        <v>4.95</v>
       </c>
       <c r="C142" t="n">
-        <v>6.24</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="143">
@@ -2290,10 +2290,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>5.07</v>
+        <v>5.01</v>
       </c>
       <c r="C143" t="n">
-        <v>4.53</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="144">
@@ -2303,10 +2303,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>8.130000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="C144" t="n">
-        <v>5.92</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="145">
@@ -2316,7 +2316,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-5.23</v>
+        <v>-5.3</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>2.58</v>
+        <v>2.53</v>
       </c>
       <c r="C146" t="n">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="147">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-7.16</v>
+        <v>-7.23</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -2355,10 +2355,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-2.45</v>
+        <v>-2.51</v>
       </c>
       <c r="C148" t="n">
-        <v>-1.6</v>
+        <v>-1.88</v>
       </c>
     </row>
     <row r="149">
@@ -2368,10 +2368,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-8.75</v>
+        <v>-8.82</v>
       </c>
       <c r="C149" t="n">
-        <v>-7.62</v>
+        <v>-7.29</v>
       </c>
     </row>
     <row r="150">
@@ -2381,10 +2381,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>7.97</v>
+        <v>7.84</v>
       </c>
       <c r="C150" t="n">
-        <v>9.630000000000001</v>
+        <v>9.59</v>
       </c>
     </row>
     <row r="151">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-8.949999999999999</v>
+        <v>-9</v>
       </c>
       <c r="C151" t="n">
-        <v>-9.67</v>
+        <v>-9.9</v>
       </c>
     </row>
     <row r="152">
@@ -2407,10 +2407,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-1.06</v>
+        <v>-1.13</v>
       </c>
       <c r="C152" t="n">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="153">
@@ -2420,10 +2420,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>8.039999999999999</v>
+        <v>7.99</v>
       </c>
       <c r="C153" t="n">
-        <v>6.64</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="154">
@@ -2433,10 +2433,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.76</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="155">
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-2.97</v>
+        <v>-3.02</v>
       </c>
       <c r="C155" t="n">
-        <v>0.01</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="156">
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>-7.34</v>
+        <v>-7.54</v>
       </c>
     </row>
     <row r="157">
@@ -2472,10 +2472,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="C157" t="n">
-        <v>2.65</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="158">
@@ -2485,10 +2485,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-4.16</v>
+        <v>-4.24</v>
       </c>
       <c r="C158" t="n">
-        <v>-3.89</v>
+        <v>-4.05</v>
       </c>
     </row>
     <row r="159">
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>-6.42</v>
+        <v>-6.57</v>
       </c>
     </row>
     <row r="160">
@@ -2511,10 +2511,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-6.76</v>
+        <v>-6.83</v>
       </c>
       <c r="C160" t="n">
-        <v>-5.64</v>
+        <v>-5.78</v>
       </c>
     </row>
     <row r="161">
@@ -2524,10 +2524,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-3.54</v>
+        <v>-3.6</v>
       </c>
       <c r="C161" t="n">
-        <v>-2.96</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="162">
@@ -2537,10 +2537,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-4.96</v>
+        <v>-5.02</v>
       </c>
       <c r="C162" t="n">
-        <v>-8.119999999999999</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="163">
@@ -2550,10 +2550,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-5.96</v>
+        <v>-6.05</v>
       </c>
       <c r="C163" t="n">
-        <v>-5.03</v>
+        <v>-5.63</v>
       </c>
     </row>
     <row r="164">
@@ -2563,10 +2563,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="C164" t="n">
-        <v>5.94</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="165">
@@ -2576,10 +2576,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-8.43</v>
+        <v>-8.5</v>
       </c>
       <c r="C165" t="n">
-        <v>-8.460000000000001</v>
+        <v>-8.640000000000001</v>
       </c>
     </row>
     <row r="166">
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-9.74</v>
+        <v>-9.779999999999999</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-6.96</v>
+        <v>-7</v>
       </c>
       <c r="C167" t="n">
-        <v>-7</v>
+        <v>-7.15</v>
       </c>
     </row>
     <row r="168">
@@ -2615,10 +2615,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-1.85</v>
+        <v>-1.91</v>
       </c>
       <c r="C168" t="n">
-        <v>-5.28</v>
+        <v>-5.45</v>
       </c>
     </row>
     <row r="169">
@@ -2628,10 +2628,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>5.05</v>
+        <v>4.96</v>
       </c>
       <c r="C169" t="n">
-        <v>6.1</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="170">
@@ -2641,10 +2641,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>4.28</v>
+        <v>4.21</v>
       </c>
       <c r="C170" t="n">
-        <v>5.5</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="171">
@@ -2654,10 +2654,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>3.32</v>
+        <v>3.25</v>
       </c>
       <c r="C171" t="n">
-        <v>2.33</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="172">
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-3.46</v>
+        <v>-3.51</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -2680,10 +2680,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-4.01</v>
+        <v>-4.07</v>
       </c>
       <c r="C173" t="n">
-        <v>-7.19</v>
+        <v>-7.37</v>
       </c>
     </row>
     <row r="174">
@@ -2693,10 +2693,10 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-7.88</v>
+        <v>-7.95</v>
       </c>
       <c r="C174" t="n">
-        <v>-7.62</v>
+        <v>-7.79</v>
       </c>
     </row>
     <row r="175">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-5.31</v>
+        <v>-5.36</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.33</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="176">
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-5.08</v>
+        <v>-5.14</v>
       </c>
       <c r="C176" t="n">
-        <v>-5.47</v>
+        <v>-5.64</v>
       </c>
     </row>
     <row r="177">
@@ -2732,10 +2732,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-4.06</v>
+        <v>-4.13</v>
       </c>
       <c r="C177" t="n">
-        <v>-3.76</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="178">
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-2.8</v>
+        <v>-2.85</v>
       </c>
       <c r="C178" t="n">
-        <v>-4.18</v>
+        <v>-4.32</v>
       </c>
     </row>
     <row r="179">
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-3.85</v>
+        <v>-3.9</v>
       </c>
       <c r="C179" t="n">
-        <v>-2.78</v>
+        <v>-2.63</v>
       </c>
     </row>
     <row r="180">
@@ -2771,10 +2771,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>12.73</v>
+        <v>12.61</v>
       </c>
       <c r="C180" t="n">
-        <v>10.26</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="181">
@@ -2784,10 +2784,10 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-1.01</v>
+        <v>-1.1</v>
       </c>
       <c r="C181" t="n">
-        <v>0.64</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="182">
@@ -2797,10 +2797,10 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-2.71</v>
+        <v>-2.76</v>
       </c>
       <c r="C182" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="183">
@@ -2810,10 +2810,10 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-2.78</v>
+        <v>-2.84</v>
       </c>
       <c r="C183" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="184">
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-0.61</v>
+        <v>-0.66</v>
       </c>
       <c r="C184" t="n">
-        <v>-2.61</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="185">
@@ -2836,10 +2836,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-2.49</v>
+        <v>-2.56</v>
       </c>
       <c r="C185" t="n">
-        <v>-1.13</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="186">
@@ -2849,10 +2849,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-8.470000000000001</v>
+        <v>-8.51</v>
       </c>
       <c r="C186" t="n">
-        <v>-7.7</v>
+        <v>-7.89</v>
       </c>
     </row>
     <row r="187">
@@ -2862,10 +2862,10 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-2.29</v>
+        <v>-2.35</v>
       </c>
       <c r="C187" t="n">
-        <v>-2.31</v>
+        <v>-2.45</v>
       </c>
     </row>
     <row r="188">
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>-8.81</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="189">
@@ -2888,10 +2888,10 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-5.53</v>
+        <v>-5.6</v>
       </c>
       <c r="C189" t="n">
-        <v>0.11</v>
+        <v>-1.09</v>
       </c>
     </row>
     <row r="190">
@@ -2901,10 +2901,10 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="C190" t="n">
-        <v>-1.93</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="191">
@@ -2914,10 +2914,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-7.38</v>
+        <v>-7.43</v>
       </c>
       <c r="C191" t="n">
-        <v>-5.87</v>
+        <v>-6.36</v>
       </c>
     </row>
     <row r="192">
@@ -2927,10 +2927,10 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>4.37</v>
+        <v>4.3</v>
       </c>
       <c r="C192" t="n">
-        <v>-1.1</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="193">
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>-7.08</v>
+        <v>-7.23</v>
       </c>
     </row>
     <row r="194">
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-4.22</v>
+        <v>-4.29</v>
       </c>
       <c r="C194" t="n">
-        <v>-2.82</v>
+        <v>-3.39</v>
       </c>
     </row>
     <row r="195">
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-7.08</v>
+        <v>-7.16</v>
       </c>
       <c r="C195" t="n">
-        <v>-4.47</v>
+        <v>-3.77</v>
       </c>
     </row>
     <row r="196">
@@ -2979,7 +2979,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>2.66</v>
+        <v>2.57</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-1.86</v>
+        <v>-1.94</v>
       </c>
       <c r="C197" t="n">
-        <v>-1.45</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="198">
@@ -3005,10 +3005,10 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-1.02</v>
+        <v>-1.06</v>
       </c>
       <c r="C198" t="n">
-        <v>-1.96</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="199">
@@ -3018,10 +3018,10 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-3.71</v>
+        <v>-3.78</v>
       </c>
       <c r="C199" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="200">
@@ -3031,10 +3031,10 @@
         </is>
       </c>
       <c r="B200" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="C200" t="n">
         <v>2.88</v>
-      </c>
-      <c r="C200" t="n">
-        <v>2.91</v>
       </c>
     </row>
     <row r="201">
@@ -3044,1567 +3044,1567 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-8.880000000000001</v>
+        <v>-8.93</v>
       </c>
       <c r="C201" t="n">
-        <v>-8.58</v>
+        <v>-8.779999999999999</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Ja Morant</t>
+          <t>JT Thor</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>4.64</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>4.27</v>
+        <v>-5.42</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Ja'Kobe Walter</t>
+          <t>Ja Morant</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-8.27</v>
+        <v>4.54</v>
       </c>
       <c r="C203" t="n">
-        <v>-8.26</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Jabari Smith Jr.</t>
+          <t>Ja'Kobe Walter</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-0.42</v>
+        <v>-8.33</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.46</v>
+        <v>-8.49</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Jabari Walker</t>
+          <t>Jabari Smith Jr.</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>-5.66</v>
+        <v>-0.47</v>
       </c>
       <c r="C205" t="n">
-        <v>-6.22</v>
+        <v>-1.12</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Jack McVeigh</t>
+          <t>Jabari Walker</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>-5.73</v>
       </c>
       <c r="C206" t="n">
-        <v>-8.43</v>
+        <v>-6.38</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Jacob Toppin</t>
+          <t>Jack McVeigh</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>-8.08</v>
+        <v>-8.43</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Jaden Hardy</t>
+          <t>Jacob Toppin</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>-6.01</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>-5.08</v>
+        <v>-8.25</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Jaden Ivey</t>
+          <t>Jaden Hardy</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.61</v>
+        <v>-6.07</v>
       </c>
       <c r="C209" t="n">
-        <v>0.8100000000000001</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Jaden McDaniels</t>
+          <t>Jaden Ivey</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>-1.77</v>
+        <v>0.54</v>
       </c>
       <c r="C210" t="n">
-        <v>0.04</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Jaden Springer</t>
+          <t>Jaden McDaniels</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>-5.4</v>
+        <v>-1.83</v>
       </c>
       <c r="C211" t="n">
-        <v>-7.86</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Jae'Sean Tate</t>
+          <t>Jaden Springer</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>-5.47</v>
       </c>
       <c r="C212" t="n">
-        <v>-7.34</v>
+        <v>-8.050000000000001</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Jaime Jaquez Jr.</t>
+          <t>Jae'Sean Tate</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>-0.89</v>
+        <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>-2.07</v>
+        <v>-6.9</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Jake LaRavia</t>
+          <t>Jaime Jaquez Jr.</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>-5.97</v>
+        <v>-0.97</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.64</v>
+        <v>-2.68</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Jakob Poeltl</t>
+          <t>Jake LaRavia</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>2.77</v>
+        <v>-6.03</v>
       </c>
       <c r="C215" t="n">
-        <v>5.24</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Jalen Bridges</t>
+          <t>Jakob Poeltl</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="C216" t="n">
-        <v>-9.85</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>Jalen Bridges</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>6.04</v>
+        <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>3.4</v>
+        <v>-10.08</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Jalen Duren</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>2.2</v>
+        <v>5.97</v>
       </c>
       <c r="C218" t="n">
-        <v>1.16</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Jalen Green</t>
+          <t>Jalen Duren</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>1.29</v>
+        <v>2.11</v>
       </c>
       <c r="C219" t="n">
-        <v>1.82</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Jalen Hood-Schifino</t>
+          <t>Jalen Green</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>-11.51</v>
+        <v>1.24</v>
       </c>
       <c r="C220" t="n">
-        <v>-8.460000000000001</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Jalen Johnson</t>
+          <t>Jalen Hood-Schifino</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>5.89</v>
+        <v>-11.58</v>
       </c>
       <c r="C221" t="n">
-        <v>6.21</v>
+        <v>-8.640000000000001</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Jalen McDaniels</t>
+          <t>Jalen Johnson</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>-7.06</v>
+        <v>5.81</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Jalen Pickett</t>
+          <t>Jalen McDaniels</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-9.06</v>
+        <v>-7.13</v>
       </c>
       <c r="C223" t="n">
-        <v>-8.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Jalen Smith</t>
+          <t>Jalen Pickett</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>-3.22</v>
+        <v>-9.130000000000001</v>
       </c>
       <c r="C224" t="n">
-        <v>-2.92</v>
+        <v>-9.01</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Jalen Suggs</t>
+          <t>Jalen Smith</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>5.56</v>
+        <v>-3.29</v>
       </c>
       <c r="C225" t="n">
-        <v>5.06</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Jalen Williams</t>
+          <t>Jalen Suggs</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>5.47</v>
+        <v>5.51</v>
       </c>
       <c r="C226" t="n">
-        <v>8.1</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Jalen Wilson</t>
+          <t>Jalen Williams</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>-4.73</v>
+        <v>5.39</v>
       </c>
       <c r="C227" t="n">
-        <v>-3.37</v>
+        <v>8.31</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Jamal Cain</t>
+          <t>Jalen Wilson</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>-6.72</v>
+        <v>-4.53</v>
       </c>
       <c r="C228" t="n">
-        <v>-5.35</v>
+        <v>-3.22</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Jamal Murray</t>
+          <t>Jamal Cain</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>2.95</v>
+        <v>-6.79</v>
       </c>
       <c r="C229" t="n">
-        <v>1.47</v>
+        <v>-5.54</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Jamal Shead</t>
+          <t>Jamal Murray</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>-7.99</v>
+        <v>2.88</v>
       </c>
       <c r="C230" t="n">
-        <v>-4.92</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Jamal Shead</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>10.6</v>
+        <v>-8.06</v>
       </c>
       <c r="C231" t="n">
-        <v>8.5</v>
+        <v>-5.08</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>James Johnson</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>10.53</v>
       </c>
       <c r="C232" t="n">
-        <v>-6.99</v>
+        <v>8.789999999999999</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>James Wiseman</t>
+          <t>James Johnson</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>-6.81</v>
+        <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>-5.63</v>
+        <v>-7.15</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Jamison Battle</t>
+          <t>James Wiseman</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>-5.44</v>
+        <v>-6.86</v>
       </c>
       <c r="C234" t="n">
-        <v>-5.14</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Jarace Walker</t>
+          <t>Jamison Battle</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>-4.48</v>
+        <v>-5.47</v>
       </c>
       <c r="C235" t="n">
-        <v>-1.69</v>
+        <v>-5.32</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Jared Butler</t>
+          <t>Jarace Walker</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>-5.45</v>
+        <v>-4.55</v>
       </c>
       <c r="C236" t="n">
-        <v>-4.92</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Jared McCain</t>
+          <t>Jared Butler</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>-0.19</v>
+        <v>-5.54</v>
       </c>
       <c r="C237" t="n">
-        <v>0.07000000000000001</v>
+        <v>-5.29</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Jared Rhoden</t>
+          <t>Jared McCain</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>-0.24</v>
       </c>
       <c r="C238" t="n">
-        <v>-7.64</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>Jared Rhoden</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>5.06</v>
+        <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>6.67</v>
+        <v>-7.99</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Jarred Vanderbilt</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>-1.19</v>
+        <v>5.01</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Jarrett Allen</t>
+          <t>Jarred Vanderbilt</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>3.59</v>
+        <v>-1.28</v>
       </c>
       <c r="C241" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Jason Preston</t>
+          <t>Jarrett Allen</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>-8.31</v>
+        <v>3.49</v>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Javonte Green</t>
+          <t>Jason Preston</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>-0.53</v>
+        <v>-8.4</v>
       </c>
       <c r="C243" t="n">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Jaxson Hayes</t>
+          <t>Javonte Green</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>-5.58</v>
+        <v>-0.59</v>
       </c>
       <c r="C244" t="n">
-        <v>-1.68</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Jay Huff</t>
+          <t>Jaxson Hayes</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>-0.9</v>
+        <v>-5.66</v>
       </c>
       <c r="C245" t="n">
-        <v>1.36</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Jay Huff</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>3.78</v>
+        <v>-0.96</v>
       </c>
       <c r="C246" t="n">
-        <v>3.46</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Jaylen Martin</t>
+          <t>Jaylen Brown</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="C247" t="n">
-        <v>-7.35</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Jaylen Nowell</t>
+          <t>Jaylen Martin</t>
         </is>
       </c>
       <c r="B248" t="n">
         <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>-5.23</v>
+        <v>-7.51</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Jaylen Wells</t>
+          <t>Jaylen Nowell</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>-5.35</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>-2.88</v>
+        <v>-5.45</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Jaylin Williams</t>
+          <t>Jaylen Wells</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>-5.21</v>
+        <v>-5.41</v>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Jaylon Tyson</t>
+          <t>Jaylin Williams</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>-6.26</v>
+        <v>-5.28</v>
       </c>
       <c r="C251" t="n">
-        <v>-7.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Jaylon Tyson</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>9.27</v>
+        <v>-6.33</v>
       </c>
       <c r="C252" t="n">
-        <v>10.49</v>
+        <v>-8.25</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Jazian Gortman</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C253" t="n">
-        <v>-7.35</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Jeff Dowtin Jr.</t>
+          <t>Jazian Gortman</t>
         </is>
       </c>
       <c r="B254" t="n">
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>-7.26</v>
+        <v>-7.51</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Jeff Green</t>
+          <t>Jeff Dowtin Jr.</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>-7.49</v>
+        <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>-5.77</v>
+        <v>-7.44</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Jerami Grant</t>
+          <t>Jeff Green</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.24</v>
+        <v>-7.56</v>
       </c>
       <c r="C256" t="n">
-        <v>1.09</v>
+        <v>-6.48</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Jeremiah Robinson-Earl</t>
+          <t>Jerami Grant</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>-6.6</v>
+        <v>0.19</v>
       </c>
       <c r="C257" t="n">
-        <v>-2.9</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Jeremy Sochan</t>
+          <t>Jeremiah Robinson-Earl</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.5600000000000001</v>
+        <v>-6.67</v>
       </c>
       <c r="C258" t="n">
-        <v>0.86</v>
+        <v>-3.02</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Jericho Sims</t>
+          <t>Jeremy Sochan</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>-4.78</v>
+        <v>0.49</v>
       </c>
       <c r="C259" t="n">
-        <v>-5.54</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Jett Howard</t>
+          <t>Jericho Sims</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>-8.83</v>
+        <v>-4.86</v>
       </c>
       <c r="C260" t="n">
-        <v>-5.49</v>
+        <v>-5.42</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Jevon Carter</t>
+          <t>Jett Howard</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>-7.26</v>
+        <v>-8.890000000000001</v>
       </c>
       <c r="C261" t="n">
-        <v>-7.34</v>
+        <v>-5.65</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>Jevon Carter</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>4.31</v>
+        <v>-7.33</v>
       </c>
       <c r="C262" t="n">
-        <v>0.8</v>
+        <v>-6.39</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Jock Landale</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>-5.62</v>
+        <v>4.23</v>
       </c>
       <c r="C263" t="n">
-        <v>-5.73</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Joe Ingles</t>
+          <t>Jock Landale</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>-5.25</v>
+        <v>-5.69</v>
       </c>
       <c r="C264" t="n">
-        <v>-7.94</v>
+        <v>-5.64</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Joel Embiid</t>
+          <t>Joe Ingles</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>12.59</v>
+        <v>-5.33</v>
       </c>
       <c r="C265" t="n">
-        <v>5.66</v>
+        <v>-8.09</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Joel Embiid</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>1.09</v>
+        <v>12.53</v>
       </c>
       <c r="C266" t="n">
-        <v>6.64</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>John Konchar</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>-2.69</v>
+        <v>2.71</v>
       </c>
       <c r="C267" t="n">
-        <v>-2.73</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Johnny Davis</t>
+          <t>John Konchar</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>-8.380000000000001</v>
+        <v>-2.76</v>
       </c>
       <c r="C268" t="n">
-        <v>-6.82</v>
+        <v>-3.68</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Johnny Furphy</t>
+          <t>Johnny Davis</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>-5.93</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="C269" t="n">
-        <v>-7.59</v>
+        <v>-7.1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Johnny Juzang</t>
+          <t>Johnny Furphy</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>-7.44</v>
+        <v>-6</v>
       </c>
       <c r="C270" t="n">
-        <v>-3.96</v>
+        <v>-7.76</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Jonas Valanciunas</t>
+          <t>Johnny Juzang</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.3</v>
+        <v>-7.5</v>
       </c>
       <c r="C271" t="n">
-        <v>2</v>
+        <v>-4.07</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Jonathan Isaac</t>
+          <t>Jonas Valanciunas</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>-1.15</v>
+        <v>0.23</v>
       </c>
       <c r="C272" t="n">
-        <v>-1.85</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Jonathan Kuminga</t>
+          <t>Jonathan Isaac</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.72</v>
+        <v>-1.21</v>
       </c>
       <c r="C273" t="n">
-        <v>-2.73</v>
+        <v>-1.99</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Jonathan Mogbo</t>
+          <t>Jonathan Kuminga</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>-4</v>
+        <v>0.65</v>
       </c>
       <c r="C274" t="n">
-        <v>-3.34</v>
+        <v>-2.86</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Jordan Clarkson</t>
+          <t>Jonathan Mogbo</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>-0.57</v>
+        <v>-4.09</v>
       </c>
       <c r="C275" t="n">
-        <v>-0.74</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Jordan Hawkins</t>
+          <t>Jordan Clarkson</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>-3.49</v>
+        <v>-0.64</v>
       </c>
       <c r="C276" t="n">
-        <v>0.16</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Jordan McLaughlin</t>
+          <t>Jordan Hawkins</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>-5.77</v>
+        <v>-3.53</v>
       </c>
       <c r="C277" t="n">
-        <v>-5.99</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Jordan Miller</t>
+          <t>Jordan McLaughlin</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>-5.85</v>
       </c>
       <c r="C278" t="n">
-        <v>-6.7</v>
+        <v>-6.15</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Jordan Poole</t>
+          <t>Jordan Miller</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>8.48</v>
+        <v>-6.86</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Jordan Walsh</t>
+          <t>Jordan Poole</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>-7.11</v>
+        <v>3.22</v>
       </c>
       <c r="C280" t="n">
-        <v>-6.88</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Jose Alvarado</t>
+          <t>Jordan Walsh</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>-1</v>
+        <v>-7.18</v>
       </c>
       <c r="C281" t="n">
-        <v>0.9</v>
+        <v>-7.05</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Josh Giddey</t>
+          <t>Jose Alvarado</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>2.94</v>
+        <v>-1.07</v>
       </c>
       <c r="C282" t="n">
-        <v>0.01</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Josh Green</t>
+          <t>Josh Giddey</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>-3.06</v>
+        <v>2.84</v>
       </c>
       <c r="C283" t="n">
-        <v>-3.2</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Josh Hart</t>
+          <t>Josh Green</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>1.52</v>
+        <v>-3.13</v>
       </c>
       <c r="C284" t="n">
-        <v>5.68</v>
+        <v>-2.89</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Josh Minott</t>
+          <t>Josh Hart</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>-4.64</v>
+        <v>1.44</v>
       </c>
       <c r="C285" t="n">
-        <v>-7.49</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Josh Okogie</t>
+          <t>Josh Minott</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>-5.38</v>
+        <v>-4.71</v>
       </c>
       <c r="C286" t="n">
-        <v>-1.89</v>
+        <v>-7.66</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Josh Richardson</t>
+          <t>Josh Okogie</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>-1.44</v>
+        <v>-5.45</v>
       </c>
       <c r="C287" t="n">
-        <v>-4.52</v>
+        <v>-2.22</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Jrue Holiday</t>
+          <t>Josh Richardson</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>2.7</v>
+        <v>-1.5</v>
       </c>
       <c r="C288" t="n">
-        <v>0.73</v>
+        <v>-4.36</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Juan Nunez</t>
+          <t>Jrue Holiday</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>-8.119999999999999</v>
+        <v>2.63</v>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Julian Champagnie</t>
+          <t>Juan Nunez</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.06</v>
+        <v>-8.210000000000001</v>
       </c>
       <c r="C290" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Julian Phillips</t>
+          <t>Julian Champagnie</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>-6.74</v>
+        <v>0.01</v>
       </c>
       <c r="C291" t="n">
-        <v>-5.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Julian Strawther</t>
+          <t>Julian Phillips</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>-2.79</v>
+        <v>-6.8</v>
       </c>
       <c r="C292" t="n">
-        <v>-2.27</v>
+        <v>-5.68</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Julius Randle</t>
+          <t>Julian Strawther</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1.6</v>
+        <v>-2.85</v>
       </c>
       <c r="C293" t="n">
-        <v>3.44</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Justin Champagnie</t>
+          <t>Julius Randle</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="C294" t="n">
-        <v>-7.83</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Jusuf Nurkic</t>
+          <t>Justin Champagnie</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>-1.71</v>
+        <v>-8.01</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>KJ Simpson</t>
+          <t>Jusuf Nurkic</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>-7.47</v>
+        <v>-0.06</v>
       </c>
       <c r="C296" t="n">
-        <v>-6.46</v>
+        <v>-2.31</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Kai Jones</t>
+          <t>KJ Simpson</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>-9.279999999999999</v>
+        <v>-7.54</v>
       </c>
       <c r="C297" t="n">
-        <v>-5.52</v>
+        <v>-6.63</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Karl-Anthony Towns</t>
+          <t>Kai Jones</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>10.12</v>
+        <v>-9.35</v>
       </c>
       <c r="C298" t="n">
-        <v>9.67</v>
+        <v>-5.67</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Karlo Matkovic</t>
+          <t>Karl-Anthony Towns</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>-3.35</v>
+        <v>10.22</v>
       </c>
       <c r="C299" t="n">
-        <v>-6.12</v>
+        <v>10.11</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Kawhi Leonard</t>
+          <t>Karlo Matkovic</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>4.87</v>
+        <v>-3.42</v>
       </c>
       <c r="C300" t="n">
-        <v>0</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Keaton Wallace</t>
+          <t>Kawhi Leonard</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>-3.98</v>
+        <v>4.81</v>
       </c>
       <c r="C301" t="n">
-        <v>-3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Keegan Murray</t>
+          <t>Keaton Wallace</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>2.11</v>
+        <v>-4.04</v>
       </c>
       <c r="C302" t="n">
-        <v>0.85</v>
+        <v>-3.51</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Keita Bates-Diop</t>
+          <t>Keegan Murray</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>-7.46</v>
+        <v>2.07</v>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Kel'el Ware</t>
+          <t>Keita Bates-Diop</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>-7.15</v>
+        <v>-7.53</v>
       </c>
       <c r="C304" t="n">
-        <v>-5.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Keldon Johnson</t>
+          <t>Kel'el Ware</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>-1.92</v>
+        <v>-7.23</v>
       </c>
       <c r="C305" t="n">
-        <v>-1.04</v>
+        <v>-5.87</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Kelly Olynyk</t>
+          <t>Keldon Johnson</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>-0.08</v>
+        <v>-1.97</v>
       </c>
       <c r="C306" t="n">
-        <v>0</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Kelly Oubre Jr.</t>
+          <t>Kelly Olynyk</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>-1.09</v>
+        <v>-0.15</v>
       </c>
       <c r="C307" t="n">
-        <v>-2.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Kenrich Williams</t>
+          <t>Kelly Oubre Jr.</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>-5.76</v>
+        <v>-1.13</v>
       </c>
       <c r="C308" t="n">
-        <v>-2.36</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Kentavious Caldwell-Pope</t>
+          <t>Kenrich Williams</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>-1.3</v>
+        <v>-5.84</v>
       </c>
       <c r="C309" t="n">
-        <v>-1.07</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Kenyon Martin Jr.</t>
+          <t>Kentavious Caldwell-Pope</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>-5.85</v>
+        <v>-1.35</v>
       </c>
       <c r="C310" t="n">
-        <v>-4.06</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Keon Ellis</t>
+          <t>Kenyon Martin Jr.</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>-2.18</v>
+        <v>-5.93</v>
       </c>
       <c r="C311" t="n">
-        <v>-1.66</v>
+        <v>-4.19</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Keon Johnson</t>
+          <t>Keon Ellis</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>-6.15</v>
+        <v>-2.24</v>
       </c>
       <c r="C312" t="n">
-        <v>-4.49</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Kessler Edwards</t>
+          <t>Keon Johnson</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0</v>
+        <v>-6.22</v>
       </c>
       <c r="C313" t="n">
-        <v>-8.949999999999999</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Kevin Durant</t>
+          <t>Kessler Edwards</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>10.06</v>
+        <v>-9.130000000000001</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Kevin Huerter</t>
+          <t>Kevin Durant</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>-1.03</v>
+        <v>9.43</v>
       </c>
       <c r="C315" t="n">
-        <v>0.73</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Kevin Love</t>
+          <t>Kevin Huerter</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>-4.33</v>
+        <v>-1.09</v>
       </c>
       <c r="C316" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Kevin Porter Jr.</t>
+          <t>Kevin Love</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>-1.77</v>
+        <v>-4.4</v>
       </c>
       <c r="C317" t="n">
-        <v>-5</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Kevon Looney</t>
+          <t>Kevin Porter Jr.</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>-6.5</v>
+        <v>-1.84</v>
       </c>
       <c r="C318" t="n">
-        <v>-2.22</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Keyonte George</t>
+          <t>Kevon Looney</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0.71</v>
+        <v>-6.58</v>
       </c>
       <c r="C319" t="n">
-        <v>-0.51</v>
+        <v>-2.41</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Keyonte George</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>1.68</v>
+        <v>-0.23</v>
       </c>
       <c r="C320" t="n">
-        <v>0</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Killian Hayes</t>
+          <t>Khris Middleton</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>-6.55</v>
+        <v>1.61</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -4613,713 +4613,713 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Klay Thompson</t>
+          <t>Killian Hayes</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0.4</v>
+        <v>-6.64</v>
       </c>
       <c r="C322" t="n">
-        <v>-0.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Kobe Brown</t>
+          <t>Klay Thompson</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>-9.390000000000001</v>
+        <v>-0.76</v>
       </c>
       <c r="C323" t="n">
-        <v>-7.2</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Kobe Bufkin</t>
+          <t>Kobe Brown</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>-6.61</v>
+        <v>-9.449999999999999</v>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Kris Dunn</t>
+          <t>Kobe Bufkin</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>-1.43</v>
+        <v>-6.69</v>
       </c>
       <c r="C325" t="n">
-        <v>-1.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Kris Murray</t>
+          <t>Kris Dunn</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>-7.68</v>
+        <v>-0.44</v>
       </c>
       <c r="C326" t="n">
-        <v>-6.15</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Kristaps Porzingis</t>
+          <t>Kris Murray</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>4.62</v>
+        <v>-7.75</v>
       </c>
       <c r="C327" t="n">
-        <v>0</v>
+        <v>-6.57</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Kyle Anderson</t>
+          <t>Kristaps Porzingis</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>-2.53</v>
+        <v>4.57</v>
       </c>
       <c r="C328" t="n">
-        <v>-1.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Kyle Filipowski</t>
+          <t>Kyle Anderson</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>-5.54</v>
+        <v>-2.62</v>
       </c>
       <c r="C329" t="n">
-        <v>-3.96</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Kyle Kuzma</t>
+          <t>Kyle Filipowski</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0.85</v>
+        <v>-5.62</v>
       </c>
       <c r="C330" t="n">
-        <v>-0.96</v>
+        <v>-4.12</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Kyle Lowry</t>
+          <t>Kyle Kuzma</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>-0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="C331" t="n">
-        <v>-0.64</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Kyrie Irving</t>
+          <t>Kyle Lowry</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>8.539999999999999</v>
+        <v>-0.63</v>
       </c>
       <c r="C332" t="n">
-        <v>8.6</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Kyshawn George</t>
+          <t>Kyrie Irving</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>-2.38</v>
+        <v>8.48</v>
       </c>
       <c r="C333" t="n">
-        <v>0.09</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>LaMelo Ball</t>
+          <t>Kyshawn George</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>8.81</v>
+        <v>-2.44</v>
       </c>
       <c r="C334" t="n">
-        <v>9.1</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Larry Nance Jr.</t>
+          <t>LaMelo Ball</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>-2.83</v>
+        <v>8.74</v>
       </c>
       <c r="C335" t="n">
-        <v>-0.36</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>Larry Nance Jr.</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>6.24</v>
+        <v>-2.91</v>
       </c>
       <c r="C336" t="n">
-        <v>1.69</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>6.71</v>
+        <v>6.22</v>
       </c>
       <c r="C337" t="n">
-        <v>8.130000000000001</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Leonard Miller</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>-5.18</v>
+        <v>6.61</v>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Lester Quinones</t>
+          <t>Leonard Miller</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>-5.26</v>
       </c>
       <c r="C339" t="n">
-        <v>-7.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Liam Robbins</t>
+          <t>Lester Quinones</t>
         </is>
       </c>
       <c r="B340" t="n">
         <v>0</v>
       </c>
       <c r="C340" t="n">
-        <v>-9.539999999999999</v>
+        <v>-7.19</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Lindy Waters III</t>
+          <t>Liam Robbins</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>-3.62</v>
+        <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>-3.97</v>
+        <v>-9.710000000000001</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Lonzo Ball</t>
+          <t>Lindy Waters III</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>-0.96</v>
+        <v>-3.69</v>
       </c>
       <c r="C342" t="n">
-        <v>-3.79</v>
+        <v>-4.12</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Luguentz Dort</t>
+          <t>Lonzo Ball</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>-0.17</v>
+        <v>-1.02</v>
       </c>
       <c r="C343" t="n">
-        <v>2.27</v>
+        <v>-3.97</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Luka Doncic</t>
+          <t>Luguentz Dort</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>11.52</v>
+        <v>0.37</v>
       </c>
       <c r="C344" t="n">
-        <v>7.7</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Luka Garza</t>
+          <t>Luka Doncic</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>-8.49</v>
+        <v>11.46</v>
       </c>
       <c r="C345" t="n">
-        <v>-8.779999999999999</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Luke Kennard</t>
+          <t>Luka Garza</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>-2.71</v>
+        <v>-8.529999999999999</v>
       </c>
       <c r="C346" t="n">
-        <v>-2.3</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Luke Kornet</t>
+          <t>Luke Kennard</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>-2.79</v>
+        <v>-2.76</v>
       </c>
       <c r="C347" t="n">
-        <v>-1.88</v>
+        <v>-2.72</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Luke Travers</t>
+          <t>Luke Kornet</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>-2.87</v>
       </c>
       <c r="C348" t="n">
-        <v>-4.95</v>
+        <v>-1.97</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Mac McClung</t>
+          <t>Luke Travers</t>
         </is>
       </c>
       <c r="B349" t="n">
         <v>0</v>
       </c>
       <c r="C349" t="n">
-        <v>-7.08</v>
+        <v>-6.21</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Malaki Branham</t>
+          <t>Mac McClung</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>-5.34</v>
+        <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>-3.17</v>
+        <v>-7.26</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Malcolm Brogdon</t>
+          <t>Malaki Branham</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>-1.32</v>
+        <v>-5.41</v>
       </c>
       <c r="C351" t="n">
-        <v>0</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Malevy Leons</t>
+          <t>Malcolm Brogdon</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0</v>
+        <v>-1.39</v>
       </c>
       <c r="C352" t="n">
-        <v>-9</v>
+        <v>-11.67</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Malik Beasley</t>
+          <t>Malevy Leons</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>-2.82</v>
+        <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>-1.95</v>
+        <v>-9.210000000000001</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Malik Monk</t>
+          <t>Malik Beasley</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0.29</v>
+        <v>-2.87</v>
       </c>
       <c r="C354" t="n">
-        <v>-0.33</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>MarJon Beauchamp</t>
+          <t>Malik Monk</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>-6.87</v>
+        <v>0.22</v>
       </c>
       <c r="C355" t="n">
-        <v>-7.47</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Marcus Sasser</t>
+          <t>MarJon Beauchamp</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>-3.63</v>
+        <v>-6.94</v>
       </c>
       <c r="C356" t="n">
-        <v>-4.79</v>
+        <v>-7.63</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Marcus Smart</t>
+          <t>Marcus Sasser</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>-1.06</v>
+        <v>-3.7</v>
       </c>
       <c r="C357" t="n">
-        <v>-1.28</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Mark Williams</t>
+          <t>Marcus Smart</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>1.97</v>
+        <v>-1.13</v>
       </c>
       <c r="C358" t="n">
-        <v>0</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Markieff Morris</t>
+          <t>Mark Williams</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="C359" t="n">
-        <v>-8.470000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Marvin Bagley III</t>
+          <t>Markieff Morris</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>-4.44</v>
+        <v>0</v>
       </c>
       <c r="C360" t="n">
-        <v>-6.77</v>
+        <v>-8.66</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Mason Jones</t>
+          <t>Marvin Bagley III</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0</v>
+        <v>-4.52</v>
       </c>
       <c r="C361" t="n">
-        <v>-7.3</v>
+        <v>-6.92</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Mason Plumlee</t>
+          <t>Mason Jones</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>-4.47</v>
+        <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>-4.46</v>
+        <v>-7.49</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Matas Buzelis</t>
+          <t>Mason Plumlee</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>-4.9</v>
+        <v>-4.56</v>
       </c>
       <c r="C363" t="n">
-        <v>-5.64</v>
+        <v>-4.25</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Matisse Thybulle</t>
+          <t>Matas Buzelis</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>-2.71</v>
+        <v>-4.97</v>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>-5.58</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Matt Ryan</t>
+          <t>Matisse Thybulle</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>-7.64</v>
+        <v>-2.76</v>
       </c>
       <c r="C365" t="n">
-        <v>-8.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Max Christie</t>
+          <t>Matt Ryan</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>-4.7</v>
+        <v>-7.7</v>
       </c>
       <c r="C366" t="n">
-        <v>-4.16</v>
+        <v>-9.119999999999999</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Max Strus</t>
+          <t>Max Christie</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>-0.78</v>
+        <v>-4.77</v>
       </c>
       <c r="C367" t="n">
-        <v>0</v>
+        <v>-4.28</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Maxi Kleber</t>
+          <t>Max Strus</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>-5.57</v>
+        <v>-0.84</v>
       </c>
       <c r="C368" t="n">
-        <v>-6.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Maxwell Lewis</t>
+          <t>Maxi Kleber</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>-10.36</v>
+        <v>-5.64</v>
       </c>
       <c r="C369" t="n">
-        <v>-8.460000000000001</v>
+        <v>-6.84</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Michael Porter Jr.</t>
+          <t>Maxwell Lewis</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>1.8</v>
+        <v>-10.41</v>
       </c>
       <c r="C370" t="n">
-        <v>4.39</v>
+        <v>-8.640000000000001</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Mikal Bridges</t>
+          <t>Michael Porter Jr.</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>3.32</v>
+        <v>1.76</v>
       </c>
       <c r="C371" t="n">
-        <v>2.91</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Mike Conley</t>
+          <t>Mikal Bridges</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>-0.55</v>
+        <v>3.27</v>
       </c>
       <c r="C372" t="n">
-        <v>0.54</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Miles Bridges</t>
+          <t>Mike Conley</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0.92</v>
+        <v>-0.62</v>
       </c>
       <c r="C373" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Miles McBride</t>
+          <t>Miles Bridges</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>-1.19</v>
+        <v>0.87</v>
       </c>
       <c r="C374" t="n">
-        <v>-0.51</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Mitchell Robinson</t>
+          <t>Miles McBride</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0.6</v>
+        <v>-1.25</v>
       </c>
       <c r="C375" t="n">
-        <v>0</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Mo Bamba</t>
+          <t>Mitchell Robinson</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>-3.34</v>
+        <v>0.53</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -5328,1899 +5328,1912 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Monte Morris</t>
+          <t>Mo Bamba</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>-5.45</v>
+        <v>-3.41</v>
       </c>
       <c r="C377" t="n">
-        <v>-4.89</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Moritz Wagner</t>
+          <t>Monte Morris</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>-2.2</v>
+        <v>-5.53</v>
       </c>
       <c r="C378" t="n">
-        <v>-0.78</v>
+        <v>-4.64</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Moses Moody</t>
+          <t>Moritz Wagner</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>-4.03</v>
+        <v>-2.27</v>
       </c>
       <c r="C379" t="n">
-        <v>-3.07</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Mouhamed Gueye</t>
+          <t>Moses Moody</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>-4.1</v>
       </c>
       <c r="C380" t="n">
-        <v>-8.619999999999999</v>
+        <v>-3.24</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Moussa Diabate</t>
+          <t>Mouhamed Gueye</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>-4.11</v>
+        <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>-2.24</v>
+        <v>-8.81</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Myles Turner</t>
+          <t>Moussa Diabate</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>4.07</v>
+        <v>-4.19</v>
       </c>
       <c r="C382" t="n">
-        <v>2.98</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Naji Marshall</t>
+          <t>Myles Turner</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>-3.42</v>
+        <v>4.01</v>
       </c>
       <c r="C383" t="n">
-        <v>-0.58</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Nassir Little</t>
+          <t>Naji Marshall</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>-7.57</v>
+        <v>-3.49</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Nate Williams</t>
+          <t>Nassir Little</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0</v>
+        <v>-7.64</v>
       </c>
       <c r="C385" t="n">
-        <v>-5.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Naz Reid</t>
+          <t>Nate Williams</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="C386" t="n">
-        <v>2.93</v>
+        <v>-5.25</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Neemias Queta</t>
+          <t>Naz Reid</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>-1.35</v>
+        <v>1.18</v>
       </c>
       <c r="C387" t="n">
-        <v>-1.97</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Nick Richards</t>
+          <t>Neemias Queta</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>-0.4</v>
+        <v>-1.43</v>
       </c>
       <c r="C388" t="n">
-        <v>3.16</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Nick Smith Jr.</t>
+          <t>Nick Richards</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>-7.34</v>
+        <v>-0.48</v>
       </c>
       <c r="C389" t="n">
-        <v>-7.79</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Nickeil Alexander-Walker</t>
+          <t>Nick Smith Jr.</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>-1.7</v>
+        <v>-7.4</v>
       </c>
       <c r="C390" t="n">
-        <v>-0.23</v>
+        <v>-8.220000000000001</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Nicolas Batum</t>
+          <t>Nickeil Alexander-Walker</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>-2.25</v>
+        <v>-1.77</v>
       </c>
       <c r="C391" t="n">
-        <v>-3.55</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Nicolas Claxton</t>
+          <t>Nicolas Batum</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>2.86</v>
+        <v>-2.32</v>
       </c>
       <c r="C392" t="n">
-        <v>-0.08</v>
+        <v>-4.25</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Nikola Djurisic</t>
+          <t>Nicolas Claxton</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>-6.51</v>
+        <v>2.78</v>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Nikola Jokic</t>
+          <t>Nikola Djurisic</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>15.2</v>
+        <v>-6.59</v>
       </c>
       <c r="C394" t="n">
-        <v>18.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Nikola Jovic</t>
+          <t>Nikola Jokic</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>-1.39</v>
+        <v>16.91</v>
       </c>
       <c r="C395" t="n">
-        <v>-2</v>
+        <v>18.38</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Nikola Vucevic</t>
+          <t>Nikola Jovic</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>5.52</v>
+        <v>-1.45</v>
       </c>
       <c r="C396" t="n">
-        <v>8.07</v>
+        <v>-1.81</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Noah Clowney</t>
+          <t>Nikola Vucevic</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>-0.48</v>
+        <v>5.45</v>
       </c>
       <c r="C397" t="n">
-        <v>-3.88</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Norman Powell</t>
+          <t>Noah Clowney</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>2.22</v>
+        <v>-0.55</v>
       </c>
       <c r="C398" t="n">
-        <v>4.92</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>OG Anunoby</t>
+          <t>Norman Powell</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>2.66</v>
+        <v>2.18</v>
       </c>
       <c r="C399" t="n">
-        <v>4.48</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Obi Toppin</t>
+          <t>OG Anunoby</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>-2.29</v>
+        <v>2.61</v>
       </c>
       <c r="C400" t="n">
-        <v>-1.2</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Ochai Agbaji</t>
+          <t>Obi Toppin</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>-5.45</v>
+        <v>-2.36</v>
       </c>
       <c r="C401" t="n">
-        <v>2.31</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Olivier-Maxence Prosper</t>
+          <t>Ochai Agbaji</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>-8.869999999999999</v>
+        <v>-5.51</v>
       </c>
       <c r="C402" t="n">
-        <v>-8.039999999999999</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Onyeka Okongwu</t>
+          <t>Olivier-Maxence Prosper</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>3.18</v>
+        <v>-8.949999999999999</v>
       </c>
       <c r="C403" t="n">
-        <v>1.11</v>
+        <v>-8.220000000000001</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Orlando Robinson</t>
+          <t>Onyeka Okongwu</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>-7.23</v>
+        <v>3.1</v>
       </c>
       <c r="C404" t="n">
-        <v>-5.7</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Oso Ighodaro</t>
+          <t>Orlando Robinson</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>0</v>
+        <v>-7.31</v>
       </c>
       <c r="C405" t="n">
-        <v>-3.78</v>
+        <v>-5.93</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Ousmane Dieng</t>
+          <t>Oso Ighodaro</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>-7.62</v>
+        <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>-4.44</v>
+        <v>-4.19</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>P.J. Tucker</t>
+          <t>Ousmane Dieng</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>-8.5</v>
+        <v>-7.69</v>
       </c>
       <c r="C407" t="n">
-        <v>0</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>P.J. Washington</t>
+          <t>P.J. Tucker</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>0.05</v>
+        <v>-8.57</v>
       </c>
       <c r="C408" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>PJ Dozier</t>
+          <t>P.J. Washington</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>-8.25</v>
+        <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>-7.39</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>PJ Hall</t>
+          <t>PJ Dozier</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>-8.92</v>
+        <v>-8.32</v>
       </c>
       <c r="C410" t="n">
-        <v>0</v>
+        <v>-7.58</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Pacome Dadiet</t>
+          <t>PJ Hall</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>-8.5</v>
+        <v>-8.960000000000001</v>
       </c>
       <c r="C411" t="n">
-        <v>-6.09</v>
+        <v>-8.640000000000001</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Paolo Banchero</t>
+          <t>Pacome Dadiet</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>2.93</v>
+        <v>-8.57</v>
       </c>
       <c r="C412" t="n">
-        <v>2.85</v>
+        <v>-6.41</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Pascal Siakam</t>
+          <t>Paolo Banchero</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>3.09</v>
+        <v>2.84</v>
       </c>
       <c r="C413" t="n">
-        <v>4.15</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Pat Connaughton</t>
+          <t>Pascal Siakam</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>-4.24</v>
+        <v>3.01</v>
       </c>
       <c r="C414" t="n">
-        <v>-4.9</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Pat Spencer</t>
+          <t>Pat Connaughton</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>0</v>
+        <v>-4.31</v>
       </c>
       <c r="C415" t="n">
-        <v>-7.82</v>
+        <v>-5.07</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Patrick Baldwin Jr.</t>
+          <t>Pat Spencer</t>
         </is>
       </c>
       <c r="B416" t="n">
         <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>-6.97</v>
+        <v>-7.99</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Patrick Williams</t>
+          <t>Patrick Baldwin Jr.</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>-1.18</v>
+        <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>0.89</v>
+        <v>-7.38</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Patty Mills</t>
+          <t>Patrick Williams</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>-7.16</v>
+        <v>-0.19</v>
       </c>
       <c r="C418" t="n">
-        <v>-4.78</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Paul George</t>
+          <t>Patty Mills</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>6.49</v>
+        <v>-7.23</v>
       </c>
       <c r="C419" t="n">
-        <v>4.68</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Paul Reed</t>
+          <t>Paul George</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>-3.04</v>
+        <v>6.45</v>
       </c>
       <c r="C420" t="n">
-        <v>-3.11</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Payton Pritchard</t>
+          <t>Paul Reed</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>0.22</v>
+        <v>-3.12</v>
       </c>
       <c r="C421" t="n">
-        <v>2.58</v>
+        <v>-4.08</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Pelle Larsson</t>
+          <t>Payton Pritchard</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>-7.32</v>
+        <v>0.17</v>
       </c>
       <c r="C422" t="n">
-        <v>-5.3</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Peyton Watson</t>
+          <t>Pelle Larsson</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>-2.55</v>
+        <v>-7.4</v>
       </c>
       <c r="C423" t="n">
-        <v>-1.77</v>
+        <v>-5.48</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Precious Achiuwa</t>
+          <t>Peyton Watson</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>-4.47</v>
+        <v>-2.62</v>
       </c>
       <c r="C424" t="n">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Quentin Grimes</t>
+          <t>Precious Achiuwa</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>-5.54</v>
+        <v>-4.55</v>
       </c>
       <c r="C425" t="n">
-        <v>-4.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Quenton Jackson</t>
+          <t>Quentin Grimes</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>0</v>
+        <v>-5.6</v>
       </c>
       <c r="C426" t="n">
-        <v>-3.94</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Quinten Post</t>
+          <t>Quenton Jackson</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>-8.49</v>
+        <v>0</v>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
+        <v>-4.99</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Quinten Post</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>0.52</v>
+        <v>-8.539999999999999</v>
       </c>
       <c r="C428" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Rayan Rupert</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>-4.98</v>
+        <v>0.45</v>
       </c>
       <c r="C429" t="n">
-        <v>-5.55</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Reece Beekman</t>
+          <t>Rayan Rupert</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0</v>
+        <v>-5.04</v>
       </c>
       <c r="C430" t="n">
-        <v>-6.54</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Reed Sheppard</t>
+          <t>Reece Beekman</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>-2.77</v>
+        <v>0</v>
       </c>
       <c r="C431" t="n">
-        <v>-5.74</v>
+        <v>-6.69</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Reggie Jackson</t>
+          <t>Reed Sheppard</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>-5.93</v>
+        <v>-2.84</v>
       </c>
       <c r="C432" t="n">
-        <v>-5.36</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Richaun Holmes</t>
+          <t>Reggie Jackson</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>-5.59</v>
+        <v>-6</v>
       </c>
       <c r="C433" t="n">
-        <v>-7.53</v>
+        <v>-5.54</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Ricky Council IV</t>
+          <t>Richaun Holmes</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>-8.77</v>
+        <v>-5.67</v>
       </c>
       <c r="C434" t="n">
-        <v>-7.48</v>
+        <v>-7.7</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Riley Minix</t>
+          <t>Ricky Council IV</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>0</v>
+        <v>-8.85</v>
       </c>
       <c r="C435" t="n">
-        <v>-8.43</v>
+        <v>-7.65</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Rob Dillingham</t>
+          <t>Riley Minix</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>-3.81</v>
+        <v>0</v>
       </c>
       <c r="C436" t="n">
-        <v>-6.57</v>
+        <v>-8.619999999999999</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Robert Williams III</t>
+          <t>Rob Dillingham</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>-2.48</v>
+        <v>-3.88</v>
       </c>
       <c r="C437" t="n">
-        <v>7.58</v>
+        <v>-7.23</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Ron Holland II</t>
+          <t>Robert Williams III</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>-3.12</v>
+        <v>-2.56</v>
       </c>
       <c r="C438" t="n">
-        <v>-4.73</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Royce O'Neale</t>
+          <t>Ron Holland II</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>-2.55</v>
+        <v>-3.19</v>
       </c>
       <c r="C439" t="n">
-        <v>1.37</v>
+        <v>-5.06</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
+          <t>Royce O'Neale</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>3.97</v>
+        <v>-2.61</v>
       </c>
       <c r="C440" t="n">
-        <v>3.78</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Rui Hachimura</t>
+          <t>Rudy Gobert</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>-0.04</v>
+        <v>3.89</v>
       </c>
       <c r="C441" t="n">
-        <v>0.09</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
+          <t>Rui Hachimura</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>-2.45</v>
+        <v>-0.1</v>
       </c>
       <c r="C442" t="n">
-        <v>-0.95</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Ryan Dunn</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>-4.87</v>
+        <v>-2.54</v>
       </c>
       <c r="C443" t="n">
-        <v>-3.38</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Ryan Rollins</t>
+          <t>Ryan Dunn</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>-8.050000000000001</v>
+        <v>-3.67</v>
       </c>
       <c r="C444" t="n">
-        <v>-4.25</v>
+        <v>-4.37</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Saddiq Bey</t>
+          <t>Ryan Rollins</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>-4.01</v>
+        <v>-8.130000000000001</v>
       </c>
       <c r="C445" t="n">
-        <v>0</v>
+        <v>-4.38</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Sam Hauser</t>
+          <t>Saddiq Bey</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>-2.05</v>
+        <v>-4.06</v>
       </c>
       <c r="C446" t="n">
-        <v>-2.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Sam Merrill</t>
+          <t>Sam Hauser</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>-5.59</v>
+        <v>-2.09</v>
       </c>
       <c r="C447" t="n">
-        <v>-2.93</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Sandro Mamukelashvili</t>
+          <t>Sam Merrill</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>-8.880000000000001</v>
+        <v>-5.64</v>
       </c>
       <c r="C448" t="n">
-        <v>-3.42</v>
+        <v>-3.07</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Santi Aldama</t>
+          <t>Sandro Mamukelashvili</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>-2.38</v>
+        <v>-8.92</v>
       </c>
       <c r="C449" t="n">
-        <v>1.89</v>
+        <v>-3.54</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Scoot Henderson</t>
+          <t>Santi Aldama</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>-0.1</v>
+        <v>-2.44</v>
       </c>
       <c r="C450" t="n">
-        <v>-0.9399999999999999</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Scottie Barnes</t>
+          <t>Scoot Henderson</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>8.07</v>
+        <v>-0.17</v>
       </c>
       <c r="C451" t="n">
-        <v>4.47</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Scotty Pippen Jr.</t>
+          <t>Scottie Barnes</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>-0.02</v>
+        <v>7.99</v>
       </c>
       <c r="C452" t="n">
-        <v>2.32</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Seth Curry</t>
+          <t>Scotty Pippen Jr.</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>-5.11</v>
+        <v>-0.1</v>
       </c>
       <c r="C453" t="n">
-        <v>-5</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Shaedon Sharpe</t>
+          <t>Seth Curry</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>-1.79</v>
+        <v>-5.17</v>
       </c>
       <c r="C454" t="n">
-        <v>-1.9</v>
+        <v>-5.31</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Shaedon Sharpe</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>14.29</v>
+        <v>-1.84</v>
       </c>
       <c r="C455" t="n">
-        <v>11.25</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Shake Milton</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>-6.14</v>
+        <v>14.17</v>
       </c>
       <c r="C456" t="n">
-        <v>-6.25</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Sidy Cissoko</t>
+          <t>Shake Milton</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>-8.970000000000001</v>
+        <v>-6.22</v>
       </c>
       <c r="C457" t="n">
-        <v>-8.289999999999999</v>
+        <v>-6.57</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Simone Fontecchio</t>
+          <t>Sidy Cissoko</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>-6.03</v>
+        <v>-9.039999999999999</v>
       </c>
       <c r="C458" t="n">
-        <v>-4.72</v>
+        <v>-8.5</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Spencer Dinwiddie</t>
+          <t>Simone Fontecchio</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>-4.16</v>
+        <v>-6.09</v>
       </c>
       <c r="C459" t="n">
-        <v>-5.88</v>
+        <v>-4.96</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Spencer Jones</t>
+          <t>Spencer Dinwiddie</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>0</v>
+        <v>-4.24</v>
       </c>
       <c r="C460" t="n">
-        <v>-6.21</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Stanley Umude</t>
+          <t>Spencer Jones</t>
         </is>
       </c>
       <c r="B461" t="n">
         <v>0</v>
       </c>
       <c r="C461" t="n">
-        <v>-8.880000000000001</v>
+        <v>-6.34</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Stanley Umude</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>9.25</v>
+        <v>0</v>
       </c>
       <c r="C462" t="n">
-        <v>11.03</v>
+        <v>-9.130000000000001</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Stephon Castle</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>-3.9</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C463" t="n">
-        <v>-2.83</v>
+        <v>11.06</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Steven Adams</t>
+          <t>Stephon Castle</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>-3.41</v>
+        <v>-3.99</v>
       </c>
       <c r="C464" t="n">
-        <v>-6.63</v>
+        <v>-3.02</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Svi Mykhailiuk</t>
+          <t>Steven Adams</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>-5.07</v>
+        <v>-3.49</v>
       </c>
       <c r="C465" t="n">
-        <v>-6.04</v>
+        <v>-6.87</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>T.J. McConnell</t>
+          <t>Svi Mykhailiuk</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-5.12</v>
       </c>
       <c r="C466" t="n">
-        <v>-1.25</v>
+        <v>-6.21</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Taj Gibson</t>
+          <t>T.J. McConnell</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>-9.17</v>
+        <v>-0.67</v>
       </c>
       <c r="C467" t="n">
-        <v>-4.46</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Talen Horton-Tucker</t>
+          <t>Taj Gibson</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>0</v>
+        <v>-9.210000000000001</v>
       </c>
       <c r="C468" t="n">
-        <v>-6.45</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Tari Eason</t>
+          <t>Talen Horton-Tucker</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>3.49</v>
+        <v>-6.49</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Taurean Prince</t>
+          <t>Tari Eason</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>-2.44</v>
+        <v>1.03</v>
       </c>
       <c r="C470" t="n">
-        <v>0.47</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Taylor Hendricks</t>
+          <t>Taurean Prince</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>0.63</v>
+        <v>-2.5</v>
       </c>
       <c r="C471" t="n">
-        <v>-0.8</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Terance Mann</t>
+          <t>Taylor Hendricks</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>-2.86</v>
+        <v>0.58</v>
       </c>
       <c r="C472" t="n">
-        <v>-4.36</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Terrence Shannon Jr.</t>
+          <t>Terance Mann</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>-7.88</v>
+        <v>-3.9</v>
       </c>
       <c r="C473" t="n">
-        <v>-6.28</v>
+        <v>-4.24</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Terry Rozier</t>
+          <t>Terrence Shannon Jr.</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>-0.2</v>
+        <v>-7.95</v>
       </c>
       <c r="C474" t="n">
-        <v>1.04</v>
+        <v>-6.43</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Thomas Bryant</t>
+          <t>Terry Rozier</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>-5.29</v>
+        <v>-0.26</v>
       </c>
       <c r="C475" t="n">
-        <v>-3.48</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Tidjane Salaun</t>
+          <t>Thomas Bryant</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>-6.23</v>
+        <v>-5.36</v>
       </c>
       <c r="C476" t="n">
-        <v>-7.02</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Tim Hardaway Jr.</t>
+          <t>Tidjane Salaun</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>-5.36</v>
+        <v>-6.29</v>
       </c>
       <c r="C477" t="n">
-        <v>-0.91</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Tim Hardaway Jr.</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>3</v>
+        <v>-5.41</v>
       </c>
       <c r="C478" t="n">
-        <v>2.51</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Torrey Craig</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>-4.13</v>
+        <v>2.94</v>
       </c>
       <c r="C479" t="n">
-        <v>-8.449999999999999</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Toumani Camara</t>
+          <t>Torrey Craig</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>-2.3</v>
+        <v>-4.2</v>
       </c>
       <c r="C480" t="n">
-        <v>0.61</v>
+        <v>-7.88</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Toumani Camara</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>9.83</v>
+        <v>-2.35</v>
       </c>
       <c r="C481" t="n">
-        <v>8.279999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Trayce Jackson-Davis</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>2.33</v>
+        <v>9.75</v>
       </c>
       <c r="C482" t="n">
-        <v>-2.13</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Tre Jones</t>
+          <t>Trayce Jackson-Davis</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>-0.45</v>
+        <v>2.24</v>
       </c>
       <c r="C483" t="n">
-        <v>-6.05</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Tre Mann</t>
+          <t>Tre Jones</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>-1.99</v>
+        <v>-0.55</v>
       </c>
       <c r="C484" t="n">
-        <v>0.61</v>
+        <v>-6.25</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Trendon Watford</t>
+          <t>Tre Mann</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>-6.65</v>
+        <v>-2.06</v>
       </c>
       <c r="C485" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Trevelin Queen</t>
+          <t>Trendon Watford</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>0</v>
+        <v>-6.73</v>
       </c>
       <c r="C486" t="n">
-        <v>-8.07</v>
+        <v>-4.58</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Trey Alexander</t>
+          <t>Trevelin Queen</t>
         </is>
       </c>
       <c r="B487" t="n">
         <v>0</v>
       </c>
       <c r="C487" t="n">
-        <v>-8.449999999999999</v>
+        <v>-8.25</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Trey Jemison</t>
+          <t>Trey Alexander</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>-5.15</v>
+        <v>0</v>
       </c>
       <c r="C488" t="n">
-        <v>-4.66</v>
+        <v>-8.65</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Trey Lyles</t>
+          <t>Trey Jemison</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>-3.79</v>
+        <v>-5.23</v>
       </c>
       <c r="C489" t="n">
-        <v>-3</v>
+        <v>-4.81</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Trey Murphy III</t>
+          <t>Trey Lyles</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>2.36</v>
+        <v>-3.85</v>
       </c>
       <c r="C490" t="n">
-        <v>-0.04</v>
+        <v>-3.13</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Tristan Da Silva</t>
+          <t>Trey Murphy III</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>-6.03</v>
+        <v>2.33</v>
       </c>
       <c r="C491" t="n">
-        <v>-3.94</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Tristan Thompson</t>
+          <t>Tristan Da Silva</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>0</v>
+        <v>-6.1</v>
       </c>
       <c r="C492" t="n">
-        <v>-9.210000000000001</v>
+        <v>-4.11</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Tristan Vukcevic</t>
+          <t>Tristan Thompson</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>-7.01</v>
+        <v>0</v>
       </c>
       <c r="C493" t="n">
-        <v>0</v>
+        <v>-9.369999999999999</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Ty Jerome</t>
+          <t>Tristan Vukcevic</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>-8.9</v>
+        <v>-7.08</v>
       </c>
       <c r="C494" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>TyTy Washington Jr.</t>
+          <t>Ty Jerome</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>0</v>
+        <v>-1.78</v>
       </c>
       <c r="C495" t="n">
-        <v>-5.14</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Tyler Herro</t>
+          <t>TyTy Washington Jr.</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="C496" t="n">
-        <v>7.06</v>
+        <v>-5.29</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Tyler Kolek</t>
+          <t>Tyler Herro</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>-8.140000000000001</v>
+        <v>2.93</v>
       </c>
       <c r="C497" t="n">
-        <v>-5.47</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Tyler Smith</t>
+          <t>Tyler Kolek</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>-6.36</v>
+        <v>-8.220000000000001</v>
       </c>
       <c r="C498" t="n">
-        <v>-6.57</v>
+        <v>-5.61</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Tyler Smith</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>8.65</v>
+        <v>-6.43</v>
       </c>
       <c r="C499" t="n">
-        <v>3.25</v>
+        <v>-6.74</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Tyrese Martin</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>0</v>
+        <v>8.56</v>
       </c>
       <c r="C500" t="n">
-        <v>-7.82</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Tyrese Maxey</t>
+          <t>Tyrese Martin</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>5.56</v>
+        <v>0</v>
       </c>
       <c r="C501" t="n">
-        <v>4.38</v>
+        <v>-7.49</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Tyus Jones</t>
+          <t>Tyrese Maxey</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>1.66</v>
+        <v>5.5</v>
       </c>
       <c r="C502" t="n">
-        <v>0.64</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Ulrich Chomche</t>
+          <t>Tyus Jones</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="C503" t="n">
-        <v>-6.99</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Vasilije Micic</t>
+          <t>Ulrich Chomche</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>-5.42</v>
+        <v>0</v>
       </c>
       <c r="C504" t="n">
-        <v>-7.98</v>
+        <v>-7.15</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Vasilije Micic</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>14.7</v>
+        <v>-5.5</v>
       </c>
       <c r="C505" t="n">
-        <v>14.21</v>
+        <v>-7.55</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Vince Williams Jr.</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>-0.9</v>
+        <v>15.38</v>
       </c>
       <c r="C506" t="n">
-        <v>-1.53</v>
+        <v>14.27</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Vlatko Cancar</t>
+          <t>Vince Williams Jr.</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>-7.46</v>
+        <v>-0.96</v>
       </c>
       <c r="C507" t="n">
-        <v>-6.68</v>
+        <v>-4.68</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Vít Krejcí</t>
+          <t>Vlatko Cancar</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>-8.08</v>
+        <v>-7.53</v>
       </c>
       <c r="C508" t="n">
-        <v>-5.64</v>
+        <v>-7.27</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Walker Kessler</t>
+          <t>Vít Krejcí</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>2.51</v>
+        <v>-8.15</v>
       </c>
       <c r="C509" t="n">
-        <v>3.97</v>
+        <v>-4.49</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Wendell Carter Jr.</t>
+          <t>Walker Kessler</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>0.14</v>
+        <v>2.42</v>
       </c>
       <c r="C510" t="n">
-        <v>0.26</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Wendell Moore Jr.</t>
+          <t>Wendell Carter Jr.</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="C511" t="n">
-        <v>-5.35</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Xavier Tillman Sr.</t>
+          <t>Wendell Moore Jr.</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>-3.23</v>
+        <v>0</v>
       </c>
       <c r="C512" t="n">
-        <v>-7.07</v>
+        <v>-4.43</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Yongxi Cui</t>
+          <t>Xavier Tillman Sr.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>0</v>
+        <v>-3.3</v>
       </c>
       <c r="C513" t="n">
-        <v>-9.31</v>
+        <v>-7.25</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Yuki Kawamura</t>
+          <t>Yongxi Cui</t>
         </is>
       </c>
       <c r="B514" t="n">
         <v>0</v>
       </c>
       <c r="C514" t="n">
-        <v>-8.33</v>
+        <v>-9.5</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Yves Missi</t>
+          <t>Yuki Kawamura</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>-3.91</v>
+        <v>0</v>
       </c>
       <c r="C515" t="n">
-        <v>-1.02</v>
+        <v>-8.58</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Zaccharie Risacher</t>
+          <t>Yves Missi</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>-2.18</v>
+        <v>-3.98</v>
       </c>
       <c r="C516" t="n">
-        <v>-3.35</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Zach Collins</t>
+          <t>Zaccharie Risacher</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>-2.6</v>
+        <v>-2.23</v>
       </c>
       <c r="C517" t="n">
-        <v>-1.35</v>
+        <v>-3.26</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Zach Edey</t>
+          <t>Zach Collins</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>-1.41</v>
+        <v>-2.68</v>
       </c>
       <c r="C518" t="n">
-        <v>0.91</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
+          <t>Zach Edey</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>3.62</v>
+        <v>-1.5</v>
       </c>
       <c r="C519" t="n">
-        <v>4.65</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Zeke Nnaji</t>
+          <t>Zach LaVine</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>-6.63</v>
+        <v>3.57</v>
       </c>
       <c r="C520" t="n">
-        <v>-7.87</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Ziaire Williams</t>
+          <t>Zeke Nnaji</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>-4.44</v>
+        <v>-6.71</v>
       </c>
       <c r="C521" t="n">
-        <v>-1.01</v>
+        <v>-7.97</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
+          <t>Ziaire Williams</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="C522" t="n">
+        <v>-1.64</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
           <t>Zion Williamson</t>
         </is>
       </c>
-      <c r="B522" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="C522" t="n">
-        <v>2.02</v>
+      <c r="B523" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="C523" t="n">
+        <v>1.89</v>
       </c>
     </row>
   </sheetData>

--- a/data/merged_scores.xlsx
+++ b/data/merged_scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C523"/>
+  <dimension ref="A1:C524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
         <v>-4.19</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.87</v>
+        <v>-3.14</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-8.470000000000001</v>
+        <v>-8.49</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>1.14</v>
       </c>
       <c r="C6" t="n">
-        <v>3.04</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>-7.12</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.05</v>
+        <v>-5.78</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>-1.72</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.35</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>-4.45</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.26</v>
+        <v>-7.27</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         <v>-9.119999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.61</v>
+        <v>-7.63</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         <v>-6.78</v>
       </c>
       <c r="C12" t="n">
-        <v>-6.84</v>
+        <v>-6.96</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.76</v>
+        <v>-3.75</v>
       </c>
     </row>
     <row r="14">
@@ -616,7 +616,7 @@
         <v>1.17</v>
       </c>
       <c r="C14" t="n">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +629,7 @@
         <v>-4.36</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.4</v>
+        <v>-2.62</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>0.9</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.27</v>
+        <v>-2.26</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-9.19</v>
+        <v>-9.210000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         <v>-6.45</v>
       </c>
       <c r="C18" t="n">
-        <v>-5.15</v>
+        <v>-4.71</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-7.15</v>
+        <v>-7.17</v>
       </c>
     </row>
     <row r="20">
@@ -694,7 +694,7 @@
         <v>0.09</v>
       </c>
       <c r="C20" t="n">
-        <v>0.86</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         <v>3.38</v>
       </c>
       <c r="C21" t="n">
-        <v>6.05</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +720,7 @@
         <v>0.64</v>
       </c>
       <c r="C22" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="23">
@@ -733,7 +733,7 @@
         <v>-5.53</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.85</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="24">
@@ -746,7 +746,7 @@
         <v>-0.53</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.74</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="25">
@@ -759,7 +759,7 @@
         <v>-6.4</v>
       </c>
       <c r="C25" t="n">
-        <v>-4.21</v>
+        <v>-4.41</v>
       </c>
     </row>
     <row r="26">
@@ -785,7 +785,7 @@
         <v>-1.2</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.34</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="28">
@@ -798,7 +798,7 @@
         <v>2.79</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.29</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="29">
@@ -811,7 +811,7 @@
         <v>-3.51</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.36</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="30">
@@ -824,7 +824,7 @@
         <v>13.84</v>
       </c>
       <c r="C30" t="n">
-        <v>12.32</v>
+        <v>12.41</v>
       </c>
     </row>
     <row r="31">
@@ -837,7 +837,7 @@
         <v>6.99</v>
       </c>
       <c r="C31" t="n">
-        <v>6.84</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="32">
@@ -850,7 +850,7 @@
         <v>-8.17</v>
       </c>
       <c r="C32" t="n">
-        <v>-7.5</v>
+        <v>-7.84</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>-7.56</v>
+        <v>-7.57</v>
       </c>
     </row>
     <row r="34">
@@ -876,7 +876,7 @@
         <v>-7.62</v>
       </c>
       <c r="C34" t="n">
-        <v>-5.03</v>
+        <v>-5.44</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-9</v>
+        <v>-9.02</v>
       </c>
     </row>
     <row r="36">
@@ -915,7 +915,7 @@
         <v>4.29</v>
       </c>
       <c r="C37" t="n">
-        <v>3.62</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="38">
@@ -928,7 +928,7 @@
         <v>-2.02</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.23</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         <v>3.34</v>
       </c>
       <c r="C39" t="n">
-        <v>3.79</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="40">
@@ -980,7 +980,7 @@
         <v>-0.44</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="43">
@@ -993,7 +993,7 @@
         <v>-0.41</v>
       </c>
       <c r="C43" t="n">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="44">
@@ -1006,7 +1006,7 @@
         <v>0.93</v>
       </c>
       <c r="C44" t="n">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="45">
@@ -1019,7 +1019,7 @@
         <v>-7.88</v>
       </c>
       <c r="C45" t="n">
-        <v>-5.94</v>
+        <v>-5.95</v>
       </c>
     </row>
     <row r="46">
@@ -1032,7 +1032,7 @@
         <v>0.21</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.98</v>
+        <v>-1.01</v>
       </c>
     </row>
     <row r="47">
@@ -1058,7 +1058,7 @@
         <v>0.79</v>
       </c>
       <c r="C48" t="n">
-        <v>0.68</v>
+        <v>-2.23</v>
       </c>
     </row>
     <row r="49">
@@ -1084,7 +1084,7 @@
         <v>-5.4</v>
       </c>
       <c r="C50" t="n">
-        <v>-6.69</v>
+        <v>-8.25</v>
       </c>
     </row>
     <row r="51">
@@ -1097,7 +1097,7 @@
         <v>-3.43</v>
       </c>
       <c r="C51" t="n">
-        <v>-4.84</v>
+        <v>-4.81</v>
       </c>
     </row>
     <row r="52">
@@ -1123,7 +1123,7 @@
         <v>3.61</v>
       </c>
       <c r="C53" t="n">
-        <v>4.71</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="54">
@@ -1136,7 +1136,7 @@
         <v>-1.07</v>
       </c>
       <c r="C54" t="n">
-        <v>-1.94</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="55">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="57">
@@ -1188,7 +1188,7 @@
         <v>2.81</v>
       </c>
       <c r="C58" t="n">
-        <v>5.97</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="59">
@@ -1201,7 +1201,7 @@
         <v>1.82</v>
       </c>
       <c r="C59" t="n">
-        <v>2.26</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="60">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>-8.970000000000001</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="61">
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>-8.15</v>
+        <v>-8.16</v>
       </c>
     </row>
     <row r="64">
@@ -1266,7 +1266,7 @@
         <v>1.54</v>
       </c>
       <c r="C64" t="n">
-        <v>2.98</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="65">
@@ -1292,7 +1292,7 @@
         <v>-4.71</v>
       </c>
       <c r="C66" t="n">
-        <v>-4.7</v>
+        <v>-4.71</v>
       </c>
     </row>
     <row r="67">
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="69">
@@ -1344,7 +1344,7 @@
         <v>2.28</v>
       </c>
       <c r="C70" t="n">
-        <v>3.29</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="71">
@@ -1357,7 +1357,7 @@
         <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>5.89</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="72">
@@ -1370,7 +1370,7 @@
         <v>6.98</v>
       </c>
       <c r="C72" t="n">
-        <v>7.58</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="73">
@@ -1383,7 +1383,7 @@
         <v>-7.66</v>
       </c>
       <c r="C73" t="n">
-        <v>-8.32</v>
+        <v>-8.34</v>
       </c>
     </row>
     <row r="74">
@@ -1396,7 +1396,7 @@
         <v>-1.04</v>
       </c>
       <c r="C74" t="n">
-        <v>-1.6</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="75">
@@ -1422,7 +1422,7 @@
         <v>-5.53</v>
       </c>
       <c r="C76" t="n">
-        <v>-3.76</v>
+        <v>-3.79</v>
       </c>
     </row>
     <row r="77">
@@ -1435,7 +1435,7 @@
         <v>2.02</v>
       </c>
       <c r="C77" t="n">
-        <v>3.93</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="78">
@@ -1448,7 +1448,7 @@
         <v>-7.43</v>
       </c>
       <c r="C78" t="n">
-        <v>-7.93</v>
+        <v>-7.98</v>
       </c>
     </row>
     <row r="79">
@@ -1461,7 +1461,7 @@
         <v>0.78</v>
       </c>
       <c r="C79" t="n">
-        <v>2.97</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="80">
@@ -1474,7 +1474,7 @@
         <v>-5.38</v>
       </c>
       <c r="C80" t="n">
-        <v>-3.35</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="81">
@@ -1487,7 +1487,7 @@
         <v>-1.33</v>
       </c>
       <c r="C81" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="82">
@@ -1513,7 +1513,7 @@
         <v>-2.26</v>
       </c>
       <c r="C83" t="n">
-        <v>-1.36</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="84">
@@ -1526,7 +1526,7 @@
         <v>-5.57</v>
       </c>
       <c r="C84" t="n">
-        <v>-5.38</v>
+        <v>-5.37</v>
       </c>
     </row>
     <row r="85">
@@ -1539,7 +1539,7 @@
         <v>6.1</v>
       </c>
       <c r="C85" t="n">
-        <v>6.87</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="86">
@@ -1552,7 +1552,7 @@
         <v>-5.04</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.32</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="87">
@@ -1565,7 +1565,7 @@
         <v>-6.49</v>
       </c>
       <c r="C87" t="n">
-        <v>-7.03</v>
+        <v>-7.05</v>
       </c>
     </row>
     <row r="88">
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>-9.380000000000001</v>
+        <v>-9.4</v>
       </c>
     </row>
     <row r="89">
@@ -1591,7 +1591,7 @@
         <v>0.98</v>
       </c>
       <c r="C89" t="n">
-        <v>4.07</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="90">
@@ -1604,7 +1604,7 @@
         <v>-0.93</v>
       </c>
       <c r="C90" t="n">
-        <v>3.71</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="91">
@@ -1656,7 +1656,7 @@
         <v>0.76</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.72</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="95">
@@ -1669,7 +1669,7 @@
         <v>2.33</v>
       </c>
       <c r="C95" t="n">
-        <v>5.04</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="96">
@@ -1695,7 +1695,7 @@
         <v>-6.82</v>
       </c>
       <c r="C97" t="n">
-        <v>-6.17</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="98">
@@ -1721,7 +1721,7 @@
         <v>-9.1</v>
       </c>
       <c r="C99" t="n">
-        <v>-7.66</v>
+        <v>-7.87</v>
       </c>
     </row>
     <row r="100">
@@ -1734,7 +1734,7 @@
         <v>-3.47</v>
       </c>
       <c r="C100" t="n">
-        <v>-5.6</v>
+        <v>-6.05</v>
       </c>
     </row>
     <row r="101">
@@ -1760,7 +1760,7 @@
         <v>-9.02</v>
       </c>
       <c r="C102" t="n">
-        <v>-7.12</v>
+        <v>-7.14</v>
       </c>
     </row>
     <row r="103">
@@ -1773,7 +1773,7 @@
         <v>1.51</v>
       </c>
       <c r="C103" t="n">
-        <v>0.79</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="104">
@@ -1786,7 +1786,7 @@
         <v>-2.69</v>
       </c>
       <c r="C104" t="n">
-        <v>-2.5</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="105">
@@ -1799,7 +1799,7 @@
         <v>-7.39</v>
       </c>
       <c r="C105" t="n">
-        <v>-7.2</v>
+        <v>-7.21</v>
       </c>
     </row>
     <row r="106">
@@ -1812,7 +1812,7 @@
         <v>-5.65</v>
       </c>
       <c r="C106" t="n">
-        <v>-5.93</v>
+        <v>-5.94</v>
       </c>
     </row>
     <row r="107">
@@ -1825,7 +1825,7 @@
         <v>2.7</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="108">
@@ -1838,7 +1838,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>-7.5</v>
+        <v>-7.51</v>
       </c>
     </row>
     <row r="109">
@@ -1877,7 +1877,7 @@
         <v>-7.05</v>
       </c>
       <c r="C111" t="n">
-        <v>-1.43</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="112">
@@ -1890,7 +1890,7 @@
         <v>-8.07</v>
       </c>
       <c r="C112" t="n">
-        <v>-5.07</v>
+        <v>-5.03</v>
       </c>
     </row>
     <row r="113">
@@ -1903,7 +1903,7 @@
         <v>-1.81</v>
       </c>
       <c r="C113" t="n">
-        <v>-2.52</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="114">
@@ -1916,7 +1916,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>8.24</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="115">
@@ -1929,7 +1929,7 @@
         <v>-4.83</v>
       </c>
       <c r="C115" t="n">
-        <v>-5.56</v>
+        <v>-5.54</v>
       </c>
     </row>
     <row r="116">
@@ -1942,7 +1942,7 @@
         <v>1.98</v>
       </c>
       <c r="C116" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="117">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>-9.380000000000001</v>
+        <v>-9.4</v>
       </c>
     </row>
     <row r="119">
@@ -1994,7 +1994,7 @@
         <v>-4.75</v>
       </c>
       <c r="C120" t="n">
-        <v>-5.85</v>
+        <v>-5.88</v>
       </c>
     </row>
     <row r="121">
@@ -2007,7 +2007,7 @@
         <v>-8.93</v>
       </c>
       <c r="C121" t="n">
-        <v>-8.26</v>
+        <v>-8.279999999999999</v>
       </c>
     </row>
     <row r="122">
@@ -2020,7 +2020,7 @@
         <v>3.77</v>
       </c>
       <c r="C122" t="n">
-        <v>7.56</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="123">
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>-10.52</v>
+        <v>-10.62</v>
       </c>
     </row>
     <row r="124">
@@ -2059,7 +2059,7 @@
         <v>-8.210000000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>-1.91</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="126">
@@ -2072,7 +2072,7 @@
         <v>-4.71</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.64</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="127">
@@ -2098,7 +2098,7 @@
         <v>5.21</v>
       </c>
       <c r="C128" t="n">
-        <v>8.550000000000001</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="129">
@@ -2111,7 +2111,7 @@
         <v>-0.25</v>
       </c>
       <c r="C129" t="n">
-        <v>2.62</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="130">
@@ -2137,7 +2137,7 @@
         <v>-7.32</v>
       </c>
       <c r="C131" t="n">
-        <v>-6.58</v>
+        <v>-6.65</v>
       </c>
     </row>
     <row r="132">
@@ -2150,7 +2150,7 @@
         <v>5.05</v>
       </c>
       <c r="C132" t="n">
-        <v>6.71</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="133">
@@ -2163,7 +2163,7 @@
         <v>-4.56</v>
       </c>
       <c r="C133" t="n">
-        <v>-3.1</v>
+        <v>-3.13</v>
       </c>
     </row>
     <row r="134">
@@ -2176,7 +2176,7 @@
         <v>2.64</v>
       </c>
       <c r="C134" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="135">
@@ -2189,7 +2189,7 @@
         <v>3.86</v>
       </c>
       <c r="C135" t="n">
-        <v>3.1</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="136">
@@ -2202,7 +2202,7 @@
         <v>-3</v>
       </c>
       <c r="C136" t="n">
-        <v>-4.7</v>
+        <v>-4.29</v>
       </c>
     </row>
     <row r="137">
@@ -2215,7 +2215,7 @@
         <v>-0.65</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="138">
@@ -2228,7 +2228,7 @@
         <v>1.63</v>
       </c>
       <c r="C138" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139">
@@ -2241,7 +2241,7 @@
         <v>2.34</v>
       </c>
       <c r="C139" t="n">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="140">
@@ -2254,7 +2254,7 @@
         <v>-2.45</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.55</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="141">
@@ -2280,7 +2280,7 @@
         <v>4.95</v>
       </c>
       <c r="C142" t="n">
-        <v>6.16</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="143">
@@ -2293,7 +2293,7 @@
         <v>5.01</v>
       </c>
       <c r="C143" t="n">
-        <v>4.21</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="144">
@@ -2306,7 +2306,7 @@
         <v>8.07</v>
       </c>
       <c r="C144" t="n">
-        <v>6.55</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="145">
@@ -2332,7 +2332,7 @@
         <v>2.53</v>
       </c>
       <c r="C146" t="n">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="147">
@@ -2358,7 +2358,7 @@
         <v>-2.51</v>
       </c>
       <c r="C148" t="n">
-        <v>-1.88</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="149">
@@ -2371,7 +2371,7 @@
         <v>-8.82</v>
       </c>
       <c r="C149" t="n">
-        <v>-7.29</v>
+        <v>-7.32</v>
       </c>
     </row>
     <row r="150">
@@ -2384,7 +2384,7 @@
         <v>7.84</v>
       </c>
       <c r="C150" t="n">
-        <v>9.59</v>
+        <v>9.640000000000001</v>
       </c>
     </row>
     <row r="151">
@@ -2397,7 +2397,7 @@
         <v>-9</v>
       </c>
       <c r="C151" t="n">
-        <v>-9.9</v>
+        <v>-9.949999999999999</v>
       </c>
     </row>
     <row r="152">
@@ -2410,7 +2410,7 @@
         <v>-1.13</v>
       </c>
       <c r="C152" t="n">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="153">
@@ -2423,7 +2423,7 @@
         <v>7.99</v>
       </c>
       <c r="C153" t="n">
-        <v>6.58</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="154">
@@ -2436,7 +2436,7 @@
         <v>1.03</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.77</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="155">
@@ -2449,7 +2449,7 @@
         <v>-3.02</v>
       </c>
       <c r="C155" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="156">
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>-7.54</v>
+        <v>-7.08</v>
       </c>
     </row>
     <row r="157">
@@ -2488,7 +2488,7 @@
         <v>-4.24</v>
       </c>
       <c r="C158" t="n">
-        <v>-4.05</v>
+        <v>-4.07</v>
       </c>
     </row>
     <row r="159">
@@ -2514,7 +2514,7 @@
         <v>-6.83</v>
       </c>
       <c r="C160" t="n">
-        <v>-5.78</v>
+        <v>-3.55</v>
       </c>
     </row>
     <row r="161">
@@ -2527,7 +2527,7 @@
         <v>-3.6</v>
       </c>
       <c r="C161" t="n">
-        <v>-2.25</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="162">
@@ -2540,7 +2540,7 @@
         <v>-5.02</v>
       </c>
       <c r="C162" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.32</v>
       </c>
     </row>
     <row r="163">
@@ -2553,7 +2553,7 @@
         <v>-6.05</v>
       </c>
       <c r="C163" t="n">
-        <v>-5.63</v>
+        <v>-5.64</v>
       </c>
     </row>
     <row r="164">
@@ -2566,7 +2566,7 @@
         <v>3.34</v>
       </c>
       <c r="C164" t="n">
-        <v>5.61</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="165">
@@ -2579,7 +2579,7 @@
         <v>-8.5</v>
       </c>
       <c r="C165" t="n">
-        <v>-8.640000000000001</v>
+        <v>-8.66</v>
       </c>
     </row>
     <row r="166">
@@ -2605,7 +2605,7 @@
         <v>-7</v>
       </c>
       <c r="C167" t="n">
-        <v>-7.15</v>
+        <v>-6.98</v>
       </c>
     </row>
     <row r="168">
@@ -2618,7 +2618,7 @@
         <v>-1.91</v>
       </c>
       <c r="C168" t="n">
-        <v>-5.45</v>
+        <v>-5.61</v>
       </c>
     </row>
     <row r="169">
@@ -2631,7 +2631,7 @@
         <v>4.96</v>
       </c>
       <c r="C169" t="n">
-        <v>6.41</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="170">
@@ -2644,7 +2644,7 @@
         <v>4.21</v>
       </c>
       <c r="C170" t="n">
-        <v>5.43</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="171">
@@ -2657,7 +2657,7 @@
         <v>3.25</v>
       </c>
       <c r="C171" t="n">
-        <v>3.1</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="172">
@@ -2683,7 +2683,7 @@
         <v>-4.07</v>
       </c>
       <c r="C173" t="n">
-        <v>-7.37</v>
+        <v>-7.39</v>
       </c>
     </row>
     <row r="174">
@@ -2696,7 +2696,7 @@
         <v>-7.95</v>
       </c>
       <c r="C174" t="n">
-        <v>-7.79</v>
+        <v>-6.04</v>
       </c>
     </row>
     <row r="175">
@@ -2709,7 +2709,7 @@
         <v>-5.36</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.96</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="176">
@@ -2722,7 +2722,7 @@
         <v>-5.14</v>
       </c>
       <c r="C176" t="n">
-        <v>-5.64</v>
+        <v>-5.72</v>
       </c>
     </row>
     <row r="177">
@@ -2748,7 +2748,7 @@
         <v>-2.85</v>
       </c>
       <c r="C178" t="n">
-        <v>-4.32</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="179">
@@ -2761,7 +2761,7 @@
         <v>-3.9</v>
       </c>
       <c r="C179" t="n">
-        <v>-2.63</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="180">
@@ -2774,7 +2774,7 @@
         <v>12.61</v>
       </c>
       <c r="C180" t="n">
-        <v>10.22</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="181">
@@ -2787,7 +2787,7 @@
         <v>-1.1</v>
       </c>
       <c r="C181" t="n">
-        <v>0.54</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="182">
@@ -2800,7 +2800,7 @@
         <v>-2.76</v>
       </c>
       <c r="C182" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="183">
@@ -2813,7 +2813,7 @@
         <v>-2.84</v>
       </c>
       <c r="C183" t="n">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="184">
@@ -2826,7 +2826,7 @@
         <v>-0.66</v>
       </c>
       <c r="C184" t="n">
-        <v>-2.02</v>
+        <v>-2.59</v>
       </c>
     </row>
     <row r="185">
@@ -2839,7 +2839,7 @@
         <v>-2.56</v>
       </c>
       <c r="C185" t="n">
-        <v>-1.29</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="186">
@@ -2852,7 +2852,7 @@
         <v>-8.51</v>
       </c>
       <c r="C186" t="n">
-        <v>-7.89</v>
+        <v>-7.93</v>
       </c>
     </row>
     <row r="187">
@@ -2865,7 +2865,7 @@
         <v>-2.35</v>
       </c>
       <c r="C187" t="n">
-        <v>-2.45</v>
+        <v>-2.44</v>
       </c>
     </row>
     <row r="188">
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>-9</v>
+        <v>-9.02</v>
       </c>
     </row>
     <row r="189">
@@ -2891,7 +2891,7 @@
         <v>-5.6</v>
       </c>
       <c r="C189" t="n">
-        <v>-1.09</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="190">
@@ -2904,7 +2904,7 @@
         <v>1.91</v>
       </c>
       <c r="C190" t="n">
-        <v>-2.04</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="191">
@@ -2930,7 +2930,7 @@
         <v>4.3</v>
       </c>
       <c r="C192" t="n">
-        <v>-1.23</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="193">
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>-7.23</v>
+        <v>-7.61</v>
       </c>
     </row>
     <row r="194">
@@ -2956,7 +2956,7 @@
         <v>-4.29</v>
       </c>
       <c r="C194" t="n">
-        <v>-3.39</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="195">
@@ -2969,7 +2969,7 @@
         <v>-7.16</v>
       </c>
       <c r="C195" t="n">
-        <v>-3.77</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="196">
@@ -2995,7 +2995,7 @@
         <v>-1.94</v>
       </c>
       <c r="C197" t="n">
-        <v>-1.53</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="198">
@@ -3021,7 +3021,7 @@
         <v>-3.78</v>
       </c>
       <c r="C199" t="n">
-        <v>0.75</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="200">
@@ -3034,7 +3034,7 @@
         <v>2.78</v>
       </c>
       <c r="C200" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="201">
@@ -3047,7 +3047,7 @@
         <v>-8.93</v>
       </c>
       <c r="C201" t="n">
-        <v>-8.779999999999999</v>
+        <v>-8.82</v>
       </c>
     </row>
     <row r="202">
@@ -3073,7 +3073,7 @@
         <v>4.54</v>
       </c>
       <c r="C203" t="n">
-        <v>4.16</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="204">
@@ -3086,7 +3086,7 @@
         <v>-8.33</v>
       </c>
       <c r="C204" t="n">
-        <v>-8.49</v>
+        <v>-8.539999999999999</v>
       </c>
     </row>
     <row r="205">
@@ -3099,7 +3099,7 @@
         <v>-0.47</v>
       </c>
       <c r="C205" t="n">
-        <v>-1.12</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="206">
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>-8.43</v>
+        <v>-8.44</v>
       </c>
     </row>
     <row r="208">
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>-8.25</v>
+        <v>-8.130000000000001</v>
       </c>
     </row>
     <row r="209">
@@ -3151,7 +3151,7 @@
         <v>-6.07</v>
       </c>
       <c r="C209" t="n">
-        <v>-4.9</v>
+        <v>-4.89</v>
       </c>
     </row>
     <row r="210">
@@ -3164,7 +3164,7 @@
         <v>0.54</v>
       </c>
       <c r="C210" t="n">
-        <v>1.63</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="211">
@@ -3177,7 +3177,7 @@
         <v>-1.83</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="212">
@@ -3190,7 +3190,7 @@
         <v>-5.47</v>
       </c>
       <c r="C212" t="n">
-        <v>-8.050000000000001</v>
+        <v>-8.08</v>
       </c>
     </row>
     <row r="213">
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>-6.9</v>
+        <v>-6.93</v>
       </c>
     </row>
     <row r="214">
@@ -3216,7 +3216,7 @@
         <v>-0.97</v>
       </c>
       <c r="C214" t="n">
-        <v>-2.68</v>
+        <v>-2.72</v>
       </c>
     </row>
     <row r="215">
@@ -3229,7 +3229,7 @@
         <v>-6.03</v>
       </c>
       <c r="C215" t="n">
-        <v>-0.49</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="216">
@@ -3242,7 +3242,7 @@
         <v>2.68</v>
       </c>
       <c r="C216" t="n">
-        <v>5.12</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="217">
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>-10.08</v>
+        <v>-10.14</v>
       </c>
     </row>
     <row r="218">
@@ -3268,7 +3268,7 @@
         <v>5.97</v>
       </c>
       <c r="C218" t="n">
-        <v>2.74</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="219">
@@ -3281,7 +3281,7 @@
         <v>2.11</v>
       </c>
       <c r="C219" t="n">
-        <v>0.75</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="220">
@@ -3294,7 +3294,7 @@
         <v>1.24</v>
       </c>
       <c r="C220" t="n">
-        <v>1.85</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="221">
@@ -3307,7 +3307,7 @@
         <v>-11.58</v>
       </c>
       <c r="C221" t="n">
-        <v>-8.640000000000001</v>
+        <v>-8.66</v>
       </c>
     </row>
     <row r="222">
@@ -3320,7 +3320,7 @@
         <v>5.81</v>
       </c>
       <c r="C222" t="n">
-        <v>6.36</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="223">
@@ -3346,7 +3346,7 @@
         <v>-9.130000000000001</v>
       </c>
       <c r="C224" t="n">
-        <v>-9.01</v>
+        <v>-9.029999999999999</v>
       </c>
     </row>
     <row r="225">
@@ -3359,7 +3359,7 @@
         <v>-3.29</v>
       </c>
       <c r="C225" t="n">
-        <v>-2.96</v>
+        <v>-2.55</v>
       </c>
     </row>
     <row r="226">
@@ -3372,7 +3372,7 @@
         <v>5.51</v>
       </c>
       <c r="C226" t="n">
-        <v>5.02</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="227">
@@ -3385,7 +3385,7 @@
         <v>5.39</v>
       </c>
       <c r="C227" t="n">
-        <v>8.31</v>
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="228">
@@ -3398,7 +3398,7 @@
         <v>-4.53</v>
       </c>
       <c r="C228" t="n">
-        <v>-3.22</v>
+        <v>-3.21</v>
       </c>
     </row>
     <row r="229">
@@ -3411,7 +3411,7 @@
         <v>-6.79</v>
       </c>
       <c r="C229" t="n">
-        <v>-5.54</v>
+        <v>-5.57</v>
       </c>
     </row>
     <row r="230">
@@ -3424,7 +3424,7 @@
         <v>2.88</v>
       </c>
       <c r="C230" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="231">
@@ -3437,7 +3437,7 @@
         <v>-8.06</v>
       </c>
       <c r="C231" t="n">
-        <v>-5.08</v>
+        <v>-5.74</v>
       </c>
     </row>
     <row r="232">
@@ -3450,7 +3450,7 @@
         <v>10.53</v>
       </c>
       <c r="C232" t="n">
-        <v>8.789999999999999</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="233">
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>-7.15</v>
+        <v>-7.16</v>
       </c>
     </row>
     <row r="234">
@@ -3476,7 +3476,7 @@
         <v>-6.86</v>
       </c>
       <c r="C234" t="n">
-        <v>-5.73</v>
+        <v>-5.69</v>
       </c>
     </row>
     <row r="235">
@@ -3489,7 +3489,7 @@
         <v>-5.47</v>
       </c>
       <c r="C235" t="n">
-        <v>-5.32</v>
+        <v>-5.31</v>
       </c>
     </row>
     <row r="236">
@@ -3502,7 +3502,7 @@
         <v>-4.55</v>
       </c>
       <c r="C236" t="n">
-        <v>-1.93</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="237">
@@ -3515,7 +3515,7 @@
         <v>-5.54</v>
       </c>
       <c r="C237" t="n">
-        <v>-5.29</v>
+        <v>-5.32</v>
       </c>
     </row>
     <row r="238">
@@ -3528,7 +3528,7 @@
         <v>-0.24</v>
       </c>
       <c r="C238" t="n">
-        <v>-0.01</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="239">
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>-7.99</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="240">
@@ -3554,7 +3554,7 @@
         <v>5.01</v>
       </c>
       <c r="C240" t="n">
-        <v>6.71</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="241">
@@ -3580,7 +3580,7 @@
         <v>3.49</v>
       </c>
       <c r="C242" t="n">
-        <v>5.23</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="243">
@@ -3606,7 +3606,7 @@
         <v>-0.59</v>
       </c>
       <c r="C244" t="n">
-        <v>-2.36</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="245">
@@ -3619,7 +3619,7 @@
         <v>-5.66</v>
       </c>
       <c r="C245" t="n">
-        <v>-1.79</v>
+        <v>-1.78</v>
       </c>
     </row>
     <row r="246">
@@ -3632,7 +3632,7 @@
         <v>-0.96</v>
       </c>
       <c r="C246" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="247">
@@ -3645,7 +3645,7 @@
         <v>3.72</v>
       </c>
       <c r="C247" t="n">
-        <v>3.32</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="248">
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>-7.51</v>
+        <v>-7.53</v>
       </c>
     </row>
     <row r="249">
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>-5.45</v>
+        <v>-5.49</v>
       </c>
     </row>
     <row r="250">
@@ -3684,7 +3684,7 @@
         <v>-5.41</v>
       </c>
       <c r="C250" t="n">
-        <v>-2.9</v>
+        <v>-2.91</v>
       </c>
     </row>
     <row r="251">
@@ -3710,7 +3710,7 @@
         <v>-6.33</v>
       </c>
       <c r="C252" t="n">
-        <v>-8.25</v>
+        <v>-8.279999999999999</v>
       </c>
     </row>
     <row r="253">
@@ -3723,7 +3723,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="C253" t="n">
-        <v>10.44</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="254">
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>-7.51</v>
+        <v>-7.53</v>
       </c>
     </row>
     <row r="255">
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>-7.44</v>
+        <v>-7.16</v>
       </c>
     </row>
     <row r="256">
@@ -3762,7 +3762,7 @@
         <v>-7.56</v>
       </c>
       <c r="C256" t="n">
-        <v>-6.48</v>
+        <v>-7.04</v>
       </c>
     </row>
     <row r="257">
@@ -3775,7 +3775,7 @@
         <v>0.19</v>
       </c>
       <c r="C257" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="258">
@@ -3788,7 +3788,7 @@
         <v>-6.67</v>
       </c>
       <c r="C258" t="n">
-        <v>-3.02</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="259">
@@ -3801,7 +3801,7 @@
         <v>0.49</v>
       </c>
       <c r="C259" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="260">
@@ -3814,7 +3814,7 @@
         <v>-4.86</v>
       </c>
       <c r="C260" t="n">
-        <v>-5.42</v>
+        <v>-5.33</v>
       </c>
     </row>
     <row r="261">
@@ -3840,7 +3840,7 @@
         <v>-7.33</v>
       </c>
       <c r="C262" t="n">
-        <v>-6.39</v>
+        <v>-6.4</v>
       </c>
     </row>
     <row r="263">
@@ -3853,7 +3853,7 @@
         <v>4.23</v>
       </c>
       <c r="C263" t="n">
-        <v>0.63</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="264">
@@ -3866,7 +3866,7 @@
         <v>-5.69</v>
       </c>
       <c r="C264" t="n">
-        <v>-5.64</v>
+        <v>-5.67</v>
       </c>
     </row>
     <row r="265">
@@ -3879,7 +3879,7 @@
         <v>-5.33</v>
       </c>
       <c r="C265" t="n">
-        <v>-8.09</v>
+        <v>-8.109999999999999</v>
       </c>
     </row>
     <row r="266">
@@ -3892,7 +3892,7 @@
         <v>12.53</v>
       </c>
       <c r="C266" t="n">
-        <v>5.84</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="267">
@@ -3905,7 +3905,7 @@
         <v>2.71</v>
       </c>
       <c r="C267" t="n">
-        <v>6.85</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="268">
@@ -3931,7 +3931,7 @@
         <v>-8.449999999999999</v>
       </c>
       <c r="C269" t="n">
-        <v>-7.1</v>
+        <v>-6.95</v>
       </c>
     </row>
     <row r="270">
@@ -3944,7 +3944,7 @@
         <v>-6</v>
       </c>
       <c r="C270" t="n">
-        <v>-7.76</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="271">
@@ -3957,7 +3957,7 @@
         <v>-7.5</v>
       </c>
       <c r="C271" t="n">
-        <v>-4.07</v>
+        <v>-4.04</v>
       </c>
     </row>
     <row r="272">
@@ -3970,7 +3970,7 @@
         <v>0.23</v>
       </c>
       <c r="C272" t="n">
-        <v>2.05</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="273">
@@ -3983,7 +3983,7 @@
         <v>-1.21</v>
       </c>
       <c r="C273" t="n">
-        <v>-1.99</v>
+        <v>-1.81</v>
       </c>
     </row>
     <row r="274">
@@ -3996,7 +3996,7 @@
         <v>0.65</v>
       </c>
       <c r="C274" t="n">
-        <v>-2.86</v>
+        <v>-2.85</v>
       </c>
     </row>
     <row r="275">
@@ -4009,7 +4009,7 @@
         <v>-4.09</v>
       </c>
       <c r="C275" t="n">
-        <v>-3.5</v>
+        <v>-3.46</v>
       </c>
     </row>
     <row r="276">
@@ -4022,7 +4022,7 @@
         <v>-0.64</v>
       </c>
       <c r="C276" t="n">
-        <v>-0.58</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="277">
@@ -4035,7 +4035,7 @@
         <v>-3.53</v>
       </c>
       <c r="C277" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="278">
@@ -4048,7 +4048,7 @@
         <v>-5.85</v>
       </c>
       <c r="C278" t="n">
-        <v>-6.15</v>
+        <v>-5.74</v>
       </c>
     </row>
     <row r="279">
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>-6.86</v>
+        <v>-6.85</v>
       </c>
     </row>
     <row r="280">
@@ -4074,7 +4074,7 @@
         <v>3.22</v>
       </c>
       <c r="C280" t="n">
-        <v>8.15</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="281">
@@ -4087,7 +4087,7 @@
         <v>-7.18</v>
       </c>
       <c r="C281" t="n">
-        <v>-7.05</v>
+        <v>-7.07</v>
       </c>
     </row>
     <row r="282">
@@ -4100,7 +4100,7 @@
         <v>-1.07</v>
       </c>
       <c r="C282" t="n">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="283">
@@ -4113,7 +4113,7 @@
         <v>2.84</v>
       </c>
       <c r="C283" t="n">
-        <v>-0.18</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="284">
@@ -4139,7 +4139,7 @@
         <v>1.44</v>
       </c>
       <c r="C285" t="n">
-        <v>5.6</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="286">
@@ -4152,7 +4152,7 @@
         <v>-4.71</v>
       </c>
       <c r="C286" t="n">
-        <v>-7.66</v>
+        <v>-7.69</v>
       </c>
     </row>
     <row r="287">
@@ -4165,7 +4165,7 @@
         <v>-5.45</v>
       </c>
       <c r="C287" t="n">
-        <v>-2.22</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="288">
@@ -4178,7 +4178,7 @@
         <v>-1.5</v>
       </c>
       <c r="C288" t="n">
-        <v>-4.36</v>
+        <v>-4.83</v>
       </c>
     </row>
     <row r="289">
@@ -4191,7 +4191,7 @@
         <v>2.63</v>
       </c>
       <c r="C289" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="290">
@@ -4217,7 +4217,7 @@
         <v>0.01</v>
       </c>
       <c r="C291" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="292">
@@ -4230,7 +4230,7 @@
         <v>-6.8</v>
       </c>
       <c r="C292" t="n">
-        <v>-5.68</v>
+        <v>-5.76</v>
       </c>
     </row>
     <row r="293">
@@ -4243,7 +4243,7 @@
         <v>-2.85</v>
       </c>
       <c r="C293" t="n">
-        <v>-1.9</v>
+        <v>-1.88</v>
       </c>
     </row>
     <row r="294">
@@ -4256,7 +4256,7 @@
         <v>1.53</v>
       </c>
       <c r="C294" t="n">
-        <v>4.04</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="295">
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>-8.01</v>
+        <v>-8.029999999999999</v>
       </c>
     </row>
     <row r="296">
@@ -4282,7 +4282,7 @@
         <v>-0.06</v>
       </c>
       <c r="C296" t="n">
-        <v>-2.31</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="297">
@@ -4295,7 +4295,7 @@
         <v>-7.54</v>
       </c>
       <c r="C297" t="n">
-        <v>-6.63</v>
+        <v>-6.66</v>
       </c>
     </row>
     <row r="298">
@@ -4308,7 +4308,7 @@
         <v>-9.35</v>
       </c>
       <c r="C298" t="n">
-        <v>-5.67</v>
+        <v>-5.69</v>
       </c>
     </row>
     <row r="299">
@@ -4321,7 +4321,7 @@
         <v>10.22</v>
       </c>
       <c r="C299" t="n">
-        <v>10.11</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="300">
@@ -4360,7 +4360,7 @@
         <v>-4.04</v>
       </c>
       <c r="C302" t="n">
-        <v>-3.51</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="303">
@@ -4373,7 +4373,7 @@
         <v>2.07</v>
       </c>
       <c r="C303" t="n">
-        <v>0.72</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="304">
@@ -4399,7 +4399,7 @@
         <v>-7.23</v>
       </c>
       <c r="C305" t="n">
-        <v>-5.87</v>
+        <v>-6.21</v>
       </c>
     </row>
     <row r="306">
@@ -4451,7 +4451,7 @@
         <v>-5.84</v>
       </c>
       <c r="C309" t="n">
-        <v>-1.95</v>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="310">
@@ -4464,7 +4464,7 @@
         <v>-1.35</v>
       </c>
       <c r="C310" t="n">
-        <v>-1.15</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="311">
@@ -4490,7 +4490,7 @@
         <v>-2.24</v>
       </c>
       <c r="C312" t="n">
-        <v>-1.75</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="313">
@@ -4503,7 +4503,7 @@
         <v>-6.22</v>
       </c>
       <c r="C313" t="n">
-        <v>-4.9</v>
+        <v>-4.91</v>
       </c>
     </row>
     <row r="314">
@@ -4516,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>-9.130000000000001</v>
+        <v>-9.15</v>
       </c>
     </row>
     <row r="315">
@@ -4529,7 +4529,7 @@
         <v>9.43</v>
       </c>
       <c r="C315" t="n">
-        <v>10.06</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="316">
@@ -4542,7 +4542,7 @@
         <v>-1.09</v>
       </c>
       <c r="C316" t="n">
-        <v>0.6</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="317">
@@ -4555,7 +4555,7 @@
         <v>-4.4</v>
       </c>
       <c r="C317" t="n">
-        <v>-0.1</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="318">
@@ -4568,7 +4568,7 @@
         <v>-1.84</v>
       </c>
       <c r="C318" t="n">
-        <v>-4.9</v>
+        <v>-4.95</v>
       </c>
     </row>
     <row r="319">
@@ -4581,7 +4581,7 @@
         <v>-6.58</v>
       </c>
       <c r="C319" t="n">
-        <v>-2.41</v>
+        <v>-2.45</v>
       </c>
     </row>
     <row r="320">
@@ -4594,7 +4594,7 @@
         <v>-0.23</v>
       </c>
       <c r="C320" t="n">
-        <v>-0.89</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="321">
@@ -4633,7 +4633,7 @@
         <v>-0.76</v>
       </c>
       <c r="C323" t="n">
-        <v>-0.6</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="324">
@@ -4646,7 +4646,7 @@
         <v>-9.449999999999999</v>
       </c>
       <c r="C324" t="n">
-        <v>-7.4</v>
+        <v>-7.43</v>
       </c>
     </row>
     <row r="325">
@@ -4659,7 +4659,7 @@
         <v>-6.69</v>
       </c>
       <c r="C325" t="n">
-        <v>0</v>
+        <v>-7.01</v>
       </c>
     </row>
     <row r="326">
@@ -4672,7 +4672,7 @@
         <v>-0.44</v>
       </c>
       <c r="C326" t="n">
-        <v>-0.92</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="327">
@@ -4685,7 +4685,7 @@
         <v>-7.75</v>
       </c>
       <c r="C327" t="n">
-        <v>-6.57</v>
+        <v>-6.64</v>
       </c>
     </row>
     <row r="328">
@@ -4737,7 +4737,7 @@
         <v>0.78</v>
       </c>
       <c r="C331" t="n">
-        <v>-1.93</v>
+        <v>-1.83</v>
       </c>
     </row>
     <row r="332">
@@ -4750,7 +4750,7 @@
         <v>-0.63</v>
       </c>
       <c r="C332" t="n">
-        <v>-0.76</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="333">
@@ -4763,7 +4763,7 @@
         <v>8.48</v>
       </c>
       <c r="C333" t="n">
-        <v>8.02</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="334">
@@ -4776,7 +4776,7 @@
         <v>-2.44</v>
       </c>
       <c r="C334" t="n">
-        <v>-0.46</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="335">
@@ -4789,7 +4789,7 @@
         <v>8.74</v>
       </c>
       <c r="C335" t="n">
-        <v>8.640000000000001</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="336">
@@ -4802,7 +4802,7 @@
         <v>-2.91</v>
       </c>
       <c r="C336" t="n">
-        <v>-1.16</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="337">
@@ -4815,7 +4815,7 @@
         <v>6.22</v>
       </c>
       <c r="C337" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="338">
@@ -4828,7 +4828,7 @@
         <v>6.61</v>
       </c>
       <c r="C338" t="n">
-        <v>7.99</v>
+        <v>8</v>
       </c>
     </row>
     <row r="339">
@@ -4854,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="C340" t="n">
-        <v>-7.19</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="341">
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>-9.710000000000001</v>
+        <v>-9.73</v>
       </c>
     </row>
     <row r="342">
@@ -4893,7 +4893,7 @@
         <v>-1.02</v>
       </c>
       <c r="C343" t="n">
-        <v>-3.97</v>
+        <v>-3.98</v>
       </c>
     </row>
     <row r="344">
@@ -4906,7 +4906,7 @@
         <v>0.37</v>
       </c>
       <c r="C344" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="345">
@@ -4919,7 +4919,7 @@
         <v>11.46</v>
       </c>
       <c r="C345" t="n">
-        <v>7.58</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="346">
@@ -4932,7 +4932,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="C346" t="n">
-        <v>-9</v>
+        <v>-9.039999999999999</v>
       </c>
     </row>
     <row r="347">
@@ -4945,7 +4945,7 @@
         <v>-2.76</v>
       </c>
       <c r="C347" t="n">
-        <v>-2.72</v>
+        <v>-2.74</v>
       </c>
     </row>
     <row r="348">
@@ -4958,7 +4958,7 @@
         <v>-2.87</v>
       </c>
       <c r="C348" t="n">
-        <v>-1.97</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="349">
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="C349" t="n">
-        <v>-6.21</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="350">
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>-7.26</v>
+        <v>-7.28</v>
       </c>
     </row>
     <row r="351">
@@ -4997,7 +4997,7 @@
         <v>-5.41</v>
       </c>
       <c r="C351" t="n">
-        <v>-3.3</v>
+        <v>-3.29</v>
       </c>
     </row>
     <row r="352">
@@ -5010,7 +5010,7 @@
         <v>-1.39</v>
       </c>
       <c r="C352" t="n">
-        <v>-11.67</v>
+        <v>-8.859999999999999</v>
       </c>
     </row>
     <row r="353">
@@ -5023,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>-9.210000000000001</v>
+        <v>-9.26</v>
       </c>
     </row>
     <row r="354">
@@ -5036,7 +5036,7 @@
         <v>-2.87</v>
       </c>
       <c r="C354" t="n">
-        <v>-1.29</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="355">
@@ -5049,7 +5049,7 @@
         <v>0.22</v>
       </c>
       <c r="C355" t="n">
-        <v>-0.44</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="356">
@@ -5075,7 +5075,7 @@
         <v>-3.7</v>
       </c>
       <c r="C357" t="n">
-        <v>-5.3</v>
+        <v>-5.1</v>
       </c>
     </row>
     <row r="358">
@@ -5088,7 +5088,7 @@
         <v>-1.13</v>
       </c>
       <c r="C358" t="n">
-        <v>-1.4</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="359">
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="C360" t="n">
-        <v>-8.66</v>
+        <v>-8.68</v>
       </c>
     </row>
     <row r="361">
@@ -5127,7 +5127,7 @@
         <v>-4.52</v>
       </c>
       <c r="C361" t="n">
-        <v>-6.92</v>
+        <v>-7.01</v>
       </c>
     </row>
     <row r="362">
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>-7.49</v>
+        <v>-7.51</v>
       </c>
     </row>
     <row r="363">
@@ -5153,7 +5153,7 @@
         <v>-4.56</v>
       </c>
       <c r="C363" t="n">
-        <v>-4.25</v>
+        <v>-4.23</v>
       </c>
     </row>
     <row r="364">
@@ -5166,7 +5166,7 @@
         <v>-4.97</v>
       </c>
       <c r="C364" t="n">
-        <v>-5.58</v>
+        <v>-5.92</v>
       </c>
     </row>
     <row r="365">
@@ -5192,7 +5192,7 @@
         <v>-7.7</v>
       </c>
       <c r="C366" t="n">
-        <v>-9.119999999999999</v>
+        <v>-9.01</v>
       </c>
     </row>
     <row r="367">
@@ -5205,7 +5205,7 @@
         <v>-4.77</v>
       </c>
       <c r="C367" t="n">
-        <v>-4.28</v>
+        <v>-4.26</v>
       </c>
     </row>
     <row r="368">
@@ -5231,7 +5231,7 @@
         <v>-5.64</v>
       </c>
       <c r="C369" t="n">
-        <v>-6.84</v>
+        <v>-6.87</v>
       </c>
     </row>
     <row r="370">
@@ -5244,7 +5244,7 @@
         <v>-10.41</v>
       </c>
       <c r="C370" t="n">
-        <v>-8.640000000000001</v>
+        <v>-8.66</v>
       </c>
     </row>
     <row r="371">
@@ -5257,7 +5257,7 @@
         <v>1.76</v>
       </c>
       <c r="C371" t="n">
-        <v>3.29</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="372">
@@ -5270,7 +5270,7 @@
         <v>3.27</v>
       </c>
       <c r="C372" t="n">
-        <v>2.78</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="373">
@@ -5283,7 +5283,7 @@
         <v>-0.62</v>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="374">
@@ -5296,7 +5296,7 @@
         <v>0.87</v>
       </c>
       <c r="C374" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="375">
@@ -5309,7 +5309,7 @@
         <v>-1.25</v>
       </c>
       <c r="C375" t="n">
-        <v>-0.64</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="376">
@@ -5335,7 +5335,7 @@
         <v>-3.41</v>
       </c>
       <c r="C377" t="n">
-        <v>-0.82</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="378">
@@ -5348,7 +5348,7 @@
         <v>-5.53</v>
       </c>
       <c r="C378" t="n">
-        <v>-4.64</v>
+        <v>-4.45</v>
       </c>
     </row>
     <row r="379">
@@ -5361,7 +5361,7 @@
         <v>-2.27</v>
       </c>
       <c r="C379" t="n">
-        <v>-0.89</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="380">
@@ -5374,7 +5374,7 @@
         <v>-4.1</v>
       </c>
       <c r="C380" t="n">
-        <v>-3.24</v>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="381">
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>-8.81</v>
+        <v>-8.84</v>
       </c>
     </row>
     <row r="382">
@@ -5400,7 +5400,7 @@
         <v>-4.19</v>
       </c>
       <c r="C382" t="n">
-        <v>-2.36</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="383">
@@ -5426,7 +5426,7 @@
         <v>-3.49</v>
       </c>
       <c r="C384" t="n">
-        <v>-0.67</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="385">
@@ -5465,7 +5465,7 @@
         <v>1.18</v>
       </c>
       <c r="C387" t="n">
-        <v>2.24</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="388">
@@ -5491,7 +5491,7 @@
         <v>-0.48</v>
       </c>
       <c r="C389" t="n">
-        <v>3.11</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="390">
@@ -5504,7 +5504,7 @@
         <v>-7.4</v>
       </c>
       <c r="C390" t="n">
-        <v>-8.220000000000001</v>
+        <v>-8.23</v>
       </c>
     </row>
     <row r="391">
@@ -5517,7 +5517,7 @@
         <v>-1.77</v>
       </c>
       <c r="C391" t="n">
-        <v>-0.4</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="392">
@@ -5543,7 +5543,7 @@
         <v>2.78</v>
       </c>
       <c r="C393" t="n">
-        <v>-0.18</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="394">
@@ -5569,7 +5569,7 @@
         <v>16.91</v>
       </c>
       <c r="C395" t="n">
-        <v>18.38</v>
+        <v>18.49</v>
       </c>
     </row>
     <row r="396">
@@ -5582,7 +5582,7 @@
         <v>-1.45</v>
       </c>
       <c r="C396" t="n">
-        <v>-1.81</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="397">
@@ -5595,7 +5595,7 @@
         <v>5.45</v>
       </c>
       <c r="C397" t="n">
-        <v>7.1</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="398">
@@ -5608,7 +5608,7 @@
         <v>-0.55</v>
       </c>
       <c r="C398" t="n">
-        <v>-4.2</v>
+        <v>-4.22</v>
       </c>
     </row>
     <row r="399">
@@ -5621,7 +5621,7 @@
         <v>2.18</v>
       </c>
       <c r="C399" t="n">
-        <v>4.26</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="400">
@@ -5634,7 +5634,7 @@
         <v>2.61</v>
       </c>
       <c r="C400" t="n">
-        <v>4.14</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="401">
@@ -5647,7 +5647,7 @@
         <v>-2.36</v>
       </c>
       <c r="C401" t="n">
-        <v>-1.71</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="402">
@@ -5660,7 +5660,7 @@
         <v>-5.51</v>
       </c>
       <c r="C402" t="n">
-        <v>2.21</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="403">
@@ -5673,7 +5673,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="C403" t="n">
-        <v>-8.220000000000001</v>
+        <v>-8.24</v>
       </c>
     </row>
     <row r="404">
@@ -5686,7 +5686,7 @@
         <v>3.1</v>
       </c>
       <c r="C404" t="n">
-        <v>1.57</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="405">
@@ -5699,7 +5699,7 @@
         <v>-7.31</v>
       </c>
       <c r="C405" t="n">
-        <v>-5.93</v>
+        <v>-6.47</v>
       </c>
     </row>
     <row r="406">
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>-4.19</v>
+        <v>-3.54</v>
       </c>
     </row>
     <row r="407">
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="410">
@@ -5764,7 +5764,7 @@
         <v>-8.32</v>
       </c>
       <c r="C410" t="n">
-        <v>-7.58</v>
+        <v>-7.61</v>
       </c>
     </row>
     <row r="411">
@@ -5777,7 +5777,7 @@
         <v>-8.960000000000001</v>
       </c>
       <c r="C411" t="n">
-        <v>-8.640000000000001</v>
+        <v>-8.66</v>
       </c>
     </row>
     <row r="412">
@@ -5790,7 +5790,7 @@
         <v>-8.57</v>
       </c>
       <c r="C412" t="n">
-        <v>-6.41</v>
+        <v>-5.91</v>
       </c>
     </row>
     <row r="413">
@@ -5803,7 +5803,7 @@
         <v>2.84</v>
       </c>
       <c r="C413" t="n">
-        <v>2.73</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="414">
@@ -5816,7 +5816,7 @@
         <v>3.01</v>
       </c>
       <c r="C414" t="n">
-        <v>4.44</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="415">
@@ -5829,7 +5829,7 @@
         <v>-4.31</v>
       </c>
       <c r="C415" t="n">
-        <v>-5.07</v>
+        <v>-5.08</v>
       </c>
     </row>
     <row r="416">
@@ -5842,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>-7.99</v>
+        <v>-8.01</v>
       </c>
     </row>
     <row r="417">
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>-7.38</v>
+        <v>-7.65</v>
       </c>
     </row>
     <row r="418">
@@ -5868,7 +5868,7 @@
         <v>-0.19</v>
       </c>
       <c r="C418" t="n">
-        <v>0.24</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="419">
@@ -5881,7 +5881,7 @@
         <v>-7.23</v>
       </c>
       <c r="C419" t="n">
-        <v>-4.92</v>
+        <v>-4.91</v>
       </c>
     </row>
     <row r="420">
@@ -5894,7 +5894,7 @@
         <v>6.45</v>
       </c>
       <c r="C420" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="421">
@@ -5907,7 +5907,7 @@
         <v>-3.12</v>
       </c>
       <c r="C421" t="n">
-        <v>-4.08</v>
+        <v>-4.07</v>
       </c>
     </row>
     <row r="422">
@@ -5920,7 +5920,7 @@
         <v>0.17</v>
       </c>
       <c r="C422" t="n">
-        <v>2.49</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="423">
@@ -5933,7 +5933,7 @@
         <v>-7.4</v>
       </c>
       <c r="C423" t="n">
-        <v>-5.48</v>
+        <v>-5.74</v>
       </c>
     </row>
     <row r="424">
@@ -5946,7 +5946,7 @@
         <v>-2.62</v>
       </c>
       <c r="C424" t="n">
-        <v>-1.8</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="425">
@@ -5972,7 +5972,7 @@
         <v>-5.6</v>
       </c>
       <c r="C426" t="n">
-        <v>-4.5</v>
+        <v>-4.51</v>
       </c>
     </row>
     <row r="427">
@@ -5985,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="C427" t="n">
-        <v>-4.99</v>
+        <v>-3.74</v>
       </c>
     </row>
     <row r="428">
@@ -6011,7 +6011,7 @@
         <v>0.45</v>
       </c>
       <c r="C429" t="n">
-        <v>0.64</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="430">
@@ -6024,7 +6024,7 @@
         <v>-5.04</v>
       </c>
       <c r="C430" t="n">
-        <v>-5.71</v>
+        <v>-5.72</v>
       </c>
     </row>
     <row r="431">
@@ -6050,7 +6050,7 @@
         <v>-2.84</v>
       </c>
       <c r="C432" t="n">
-        <v>-5</v>
+        <v>-5.44</v>
       </c>
     </row>
     <row r="433">
@@ -6063,7 +6063,7 @@
         <v>-6</v>
       </c>
       <c r="C433" t="n">
-        <v>-5.54</v>
+        <v>-5.55</v>
       </c>
     </row>
     <row r="434">
@@ -6076,7 +6076,7 @@
         <v>-5.67</v>
       </c>
       <c r="C434" t="n">
-        <v>-7.7</v>
+        <v>-7.72</v>
       </c>
     </row>
     <row r="435">
@@ -6089,7 +6089,7 @@
         <v>-8.85</v>
       </c>
       <c r="C435" t="n">
-        <v>-7.65</v>
+        <v>-7.59</v>
       </c>
     </row>
     <row r="436">
@@ -6102,7 +6102,7 @@
         <v>0</v>
       </c>
       <c r="C436" t="n">
-        <v>-8.619999999999999</v>
+        <v>-8.65</v>
       </c>
     </row>
     <row r="437">
@@ -6115,7 +6115,7 @@
         <v>-3.88</v>
       </c>
       <c r="C437" t="n">
-        <v>-7.23</v>
+        <v>-7.24</v>
       </c>
     </row>
     <row r="438">
@@ -6128,7 +6128,7 @@
         <v>-2.56</v>
       </c>
       <c r="C438" t="n">
-        <v>7.61</v>
+        <v>7.72</v>
       </c>
     </row>
     <row r="439">
@@ -6141,7 +6141,7 @@
         <v>-3.19</v>
       </c>
       <c r="C439" t="n">
-        <v>-5.06</v>
+        <v>-5.11</v>
       </c>
     </row>
     <row r="440">
@@ -6154,7 +6154,7 @@
         <v>-2.61</v>
       </c>
       <c r="C440" t="n">
-        <v>1.24</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="441">
@@ -6167,7 +6167,7 @@
         <v>3.89</v>
       </c>
       <c r="C441" t="n">
-        <v>3.76</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="442">
@@ -6180,7 +6180,7 @@
         <v>-0.1</v>
       </c>
       <c r="C442" t="n">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="443">
@@ -6193,7 +6193,7 @@
         <v>-2.54</v>
       </c>
       <c r="C443" t="n">
-        <v>-1.32</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="444">
@@ -6206,7 +6206,7 @@
         <v>-3.67</v>
       </c>
       <c r="C444" t="n">
-        <v>-4.37</v>
+        <v>-4.45</v>
       </c>
     </row>
     <row r="445">
@@ -6219,7 +6219,7 @@
         <v>-8.130000000000001</v>
       </c>
       <c r="C445" t="n">
-        <v>-4.38</v>
+        <v>-4.37</v>
       </c>
     </row>
     <row r="446">
@@ -6258,7 +6258,7 @@
         <v>-5.64</v>
       </c>
       <c r="C448" t="n">
-        <v>-3.07</v>
+        <v>-3.05</v>
       </c>
     </row>
     <row r="449">
@@ -6271,7 +6271,7 @@
         <v>-8.92</v>
       </c>
       <c r="C449" t="n">
-        <v>-3.54</v>
+        <v>-3.53</v>
       </c>
     </row>
     <row r="450">
@@ -6284,7 +6284,7 @@
         <v>-2.44</v>
       </c>
       <c r="C450" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="451">
@@ -6297,7 +6297,7 @@
         <v>-0.17</v>
       </c>
       <c r="C451" t="n">
-        <v>-1.05</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="452">
@@ -6323,7 +6323,7 @@
         <v>-0.1</v>
       </c>
       <c r="C453" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="454">
@@ -6336,7 +6336,7 @@
         <v>-5.17</v>
       </c>
       <c r="C454" t="n">
-        <v>-5.31</v>
+        <v>-5.33</v>
       </c>
     </row>
     <row r="455">
@@ -6349,7 +6349,7 @@
         <v>-1.84</v>
       </c>
       <c r="C455" t="n">
-        <v>-1.38</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="456">
@@ -6362,7 +6362,7 @@
         <v>14.17</v>
       </c>
       <c r="C456" t="n">
-        <v>11.6</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="457">
@@ -6375,7 +6375,7 @@
         <v>-6.22</v>
       </c>
       <c r="C457" t="n">
-        <v>-6.57</v>
+        <v>-6.58</v>
       </c>
     </row>
     <row r="458">
@@ -6388,7 +6388,7 @@
         <v>-9.039999999999999</v>
       </c>
       <c r="C458" t="n">
-        <v>-8.5</v>
+        <v>-8.550000000000001</v>
       </c>
     </row>
     <row r="459">
@@ -6401,7 +6401,7 @@
         <v>-6.09</v>
       </c>
       <c r="C459" t="n">
-        <v>-4.96</v>
+        <v>-4.89</v>
       </c>
     </row>
     <row r="460">
@@ -6414,7 +6414,7 @@
         <v>-4.24</v>
       </c>
       <c r="C460" t="n">
-        <v>-5.73</v>
+        <v>-5.74</v>
       </c>
     </row>
     <row r="461">
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="C462" t="n">
-        <v>-9.130000000000001</v>
+        <v>-9.210000000000001</v>
       </c>
     </row>
     <row r="463">
@@ -6453,7 +6453,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="C463" t="n">
-        <v>11.06</v>
+        <v>11.19</v>
       </c>
     </row>
     <row r="464">
@@ -6466,7 +6466,7 @@
         <v>-3.99</v>
       </c>
       <c r="C464" t="n">
-        <v>-3.02</v>
+        <v>-3.04</v>
       </c>
     </row>
     <row r="465">
@@ -6479,7 +6479,7 @@
         <v>-3.49</v>
       </c>
       <c r="C465" t="n">
-        <v>-6.87</v>
+        <v>-7.08</v>
       </c>
     </row>
     <row r="466">
@@ -6492,7 +6492,7 @@
         <v>-5.12</v>
       </c>
       <c r="C466" t="n">
-        <v>-6.21</v>
+        <v>-6.22</v>
       </c>
     </row>
     <row r="467">
@@ -6505,7 +6505,7 @@
         <v>-0.67</v>
       </c>
       <c r="C467" t="n">
-        <v>-1.4</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="468">
@@ -6518,7 +6518,7 @@
         <v>-9.210000000000001</v>
       </c>
       <c r="C468" t="n">
-        <v>-4.62</v>
+        <v>-4.63</v>
       </c>
     </row>
     <row r="469">
@@ -6531,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>-6.49</v>
+        <v>-6.53</v>
       </c>
     </row>
     <row r="470">
@@ -6544,7 +6544,7 @@
         <v>1.03</v>
       </c>
       <c r="C470" t="n">
-        <v>2.76</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="471">
@@ -6557,7 +6557,7 @@
         <v>-2.5</v>
       </c>
       <c r="C471" t="n">
-        <v>0.34</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="472">
@@ -6570,7 +6570,7 @@
         <v>0.58</v>
       </c>
       <c r="C472" t="n">
-        <v>-0.87</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="473">
@@ -6583,7 +6583,7 @@
         <v>-3.9</v>
       </c>
       <c r="C473" t="n">
-        <v>-4.24</v>
+        <v>-4.25</v>
       </c>
     </row>
     <row r="474">
@@ -6609,7 +6609,7 @@
         <v>-0.26</v>
       </c>
       <c r="C475" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="476">
@@ -6622,7 +6622,7 @@
         <v>-5.36</v>
       </c>
       <c r="C476" t="n">
-        <v>-3.6</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="477">
@@ -6635,7 +6635,7 @@
         <v>-6.29</v>
       </c>
       <c r="C477" t="n">
-        <v>-7</v>
+        <v>-7.04</v>
       </c>
     </row>
     <row r="478">
@@ -6648,7 +6648,7 @@
         <v>-5.41</v>
       </c>
       <c r="C478" t="n">
-        <v>-1.03</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="479">
@@ -6661,7 +6661,7 @@
         <v>2.94</v>
       </c>
       <c r="C479" t="n">
-        <v>2.08</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="480">
@@ -6674,7 +6674,7 @@
         <v>-4.2</v>
       </c>
       <c r="C480" t="n">
-        <v>-7.88</v>
+        <v>-7.89</v>
       </c>
     </row>
     <row r="481">
@@ -6687,7 +6687,7 @@
         <v>-2.35</v>
       </c>
       <c r="C481" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="482">
@@ -6700,7 +6700,7 @@
         <v>9.75</v>
       </c>
       <c r="C482" t="n">
-        <v>8.27</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="483">
@@ -6713,7 +6713,7 @@
         <v>2.24</v>
       </c>
       <c r="C483" t="n">
-        <v>-2.3</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="484">
@@ -6726,7 +6726,7 @@
         <v>-0.55</v>
       </c>
       <c r="C484" t="n">
-        <v>-6.25</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="485">
@@ -6739,7 +6739,7 @@
         <v>-2.06</v>
       </c>
       <c r="C485" t="n">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="486">
@@ -6752,7 +6752,7 @@
         <v>-6.73</v>
       </c>
       <c r="C486" t="n">
-        <v>-4.58</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="487">
@@ -6765,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="C487" t="n">
-        <v>-8.25</v>
+        <v>-8.27</v>
       </c>
     </row>
     <row r="488">
@@ -6778,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="C488" t="n">
-        <v>-8.65</v>
+        <v>-8.67</v>
       </c>
     </row>
     <row r="489">
@@ -6804,7 +6804,7 @@
         <v>-3.85</v>
       </c>
       <c r="C490" t="n">
-        <v>-3.13</v>
+        <v>-2.87</v>
       </c>
     </row>
     <row r="491">
@@ -6817,7 +6817,7 @@
         <v>2.33</v>
       </c>
       <c r="C491" t="n">
-        <v>-0.1</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="492">
@@ -6830,7 +6830,7 @@
         <v>-6.1</v>
       </c>
       <c r="C492" t="n">
-        <v>-4.11</v>
+        <v>-4.04</v>
       </c>
     </row>
     <row r="493">
@@ -6843,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="C493" t="n">
-        <v>-9.369999999999999</v>
+        <v>-9.390000000000001</v>
       </c>
     </row>
     <row r="494">
@@ -6862,378 +6862,391 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Ty Jerome</t>
+          <t>Tristen Newton</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>-1.78</v>
+        <v>0</v>
       </c>
       <c r="C495" t="n">
-        <v>0.78</v>
+        <v>-9.4</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>TyTy Washington Jr.</t>
+          <t>Ty Jerome</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>0</v>
+        <v>-1.78</v>
       </c>
       <c r="C496" t="n">
-        <v>-5.29</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Tyler Herro</t>
+          <t>TyTy Washington Jr.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>2.93</v>
+        <v>0</v>
       </c>
       <c r="C497" t="n">
-        <v>7.47</v>
+        <v>-5.29</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Tyler Kolek</t>
+          <t>Tyler Herro</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>-8.220000000000001</v>
+        <v>2.93</v>
       </c>
       <c r="C498" t="n">
-        <v>-5.61</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Tyler Smith</t>
+          <t>Tyler Kolek</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>-6.43</v>
+        <v>-8.220000000000001</v>
       </c>
       <c r="C499" t="n">
-        <v>-6.74</v>
+        <v>-5.66</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Tyler Smith</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>8.56</v>
+        <v>-6.43</v>
       </c>
       <c r="C500" t="n">
-        <v>3.49</v>
+        <v>-6.75</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Tyrese Martin</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>0</v>
+        <v>8.56</v>
       </c>
       <c r="C501" t="n">
-        <v>-7.49</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Tyrese Maxey</t>
+          <t>Tyrese Martin</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="C502" t="n">
-        <v>4.33</v>
+        <v>-7.51</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Tyus Jones</t>
+          <t>Tyrese Maxey</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>1.57</v>
+        <v>5.5</v>
       </c>
       <c r="C503" t="n">
-        <v>0.88</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Ulrich Chomche</t>
+          <t>Tyus Jones</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="C504" t="n">
-        <v>-7.15</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Vasilije Micic</t>
+          <t>Ulrich Chomche</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>-5.5</v>
+        <v>0</v>
       </c>
       <c r="C505" t="n">
-        <v>-7.55</v>
+        <v>-7.17</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Vasilije Micic</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>15.38</v>
+        <v>-5.5</v>
       </c>
       <c r="C506" t="n">
-        <v>14.27</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Vince Williams Jr.</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>-0.96</v>
+        <v>15.38</v>
       </c>
       <c r="C507" t="n">
-        <v>-4.68</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Vlatko Cancar</t>
+          <t>Vince Williams Jr.</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>-7.53</v>
+        <v>-0.96</v>
       </c>
       <c r="C508" t="n">
-        <v>-7.27</v>
+        <v>-4.68</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Vít Krejcí</t>
+          <t>Vlatko Cancar</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>-8.15</v>
+        <v>-7.53</v>
       </c>
       <c r="C509" t="n">
-        <v>-4.49</v>
+        <v>-7.28</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Walker Kessler</t>
+          <t>Vít Krejcí</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>2.42</v>
+        <v>-8.15</v>
       </c>
       <c r="C510" t="n">
-        <v>3.85</v>
+        <v>-4.51</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Wendell Carter Jr.</t>
+          <t>Walker Kessler</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>0.06</v>
+        <v>2.42</v>
       </c>
       <c r="C511" t="n">
-        <v>0.13</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Wendell Moore Jr.</t>
+          <t>Wendell Carter Jr.</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="C512" t="n">
-        <v>-4.43</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Xavier Tillman Sr.</t>
+          <t>Wendell Moore Jr.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>-3.3</v>
+        <v>0</v>
       </c>
       <c r="C513" t="n">
-        <v>-7.25</v>
+        <v>-4.43</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Yongxi Cui</t>
+          <t>Xavier Tillman Sr.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>0</v>
+        <v>-3.3</v>
       </c>
       <c r="C514" t="n">
-        <v>-9.5</v>
+        <v>-7.27</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Yuki Kawamura</t>
+          <t>Yongxi Cui</t>
         </is>
       </c>
       <c r="B515" t="n">
         <v>0</v>
       </c>
       <c r="C515" t="n">
-        <v>-8.58</v>
+        <v>-9.550000000000001</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Yves Missi</t>
+          <t>Yuki Kawamura</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>-3.98</v>
+        <v>0</v>
       </c>
       <c r="C516" t="n">
-        <v>-1.17</v>
+        <v>-8.6</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Zaccharie Risacher</t>
+          <t>Yves Missi</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>-2.23</v>
+        <v>-3.98</v>
       </c>
       <c r="C517" t="n">
-        <v>-3.26</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Zach Collins</t>
+          <t>Zaccharie Risacher</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>-2.68</v>
+        <v>-2.23</v>
       </c>
       <c r="C518" t="n">
-        <v>-1.44</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Zach Edey</t>
+          <t>Zach Collins</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>-1.5</v>
+        <v>-2.68</v>
       </c>
       <c r="C519" t="n">
-        <v>0.88</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
+          <t>Zach Edey</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>3.57</v>
+        <v>-1.5</v>
       </c>
       <c r="C520" t="n">
-        <v>4.64</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Zeke Nnaji</t>
+          <t>Zach LaVine</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>-6.71</v>
+        <v>3.57</v>
       </c>
       <c r="C521" t="n">
-        <v>-7.97</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Ziaire Williams</t>
+          <t>Zeke Nnaji</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>-4.5</v>
+        <v>-6.71</v>
       </c>
       <c r="C522" t="n">
-        <v>-1.64</v>
+        <v>-8.01</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
+          <t>Ziaire Williams</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="C523" t="n">
+        <v>-1.63</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
           <t>Zion Williamson</t>
         </is>
       </c>
-      <c r="B523" t="n">
+      <c r="B524" t="n">
         <v>2.21</v>
       </c>
-      <c r="C523" t="n">
-        <v>1.89</v>
+      <c r="C524" t="n">
+        <v>1.91</v>
       </c>
     </row>
   </sheetData>

--- a/data/merged_scores.xlsx
+++ b/data/merged_scores.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-9.550000000000001</v>
+        <v>-9.57</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4.19</v>
+        <v>-4.2</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.14</v>
+        <v>-3.15</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-9.210000000000001</v>
+        <v>-9.23</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="C6" t="n">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="7">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.12</v>
+        <v>-7.14</v>
       </c>
       <c r="C7" t="n">
         <v>-5.78</v>
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.72</v>
+        <v>-1.73</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.33</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.45</v>
+        <v>-4.47</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.68</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.27</v>
+        <v>-7.52</v>
       </c>
     </row>
     <row r="11">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9.119999999999999</v>
+        <v>-9.140000000000001</v>
       </c>
       <c r="C11" t="n">
         <v>-7.63</v>
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-6.78</v>
+        <v>-6.81</v>
       </c>
       <c r="C12" t="n">
-        <v>-6.96</v>
+        <v>-6.95</v>
       </c>
     </row>
     <row r="13">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.949999999999999</v>
+        <v>-8.960000000000001</v>
       </c>
       <c r="C13" t="n">
         <v>-3.75</v>
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="C14" t="n">
-        <v>2.12</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="15">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.26</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-9.210000000000001</v>
+        <v>-9.220000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6.45</v>
+        <v>-6.48</v>
       </c>
       <c r="C18" t="n">
-        <v>-4.71</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-7.17</v>
+        <v>-7.16</v>
       </c>
     </row>
     <row r="20">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C20" t="n">
         <v>0.3</v>
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.38</v>
+        <v>3.36</v>
       </c>
       <c r="C21" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="22">
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="C22" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="23">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-5.53</v>
+        <v>-5.55</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.84</v>
+        <v>-2.39</v>
       </c>
     </row>
     <row r="24">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.53</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.75</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="25">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-6.4</v>
+        <v>-6.42</v>
       </c>
       <c r="C25" t="n">
-        <v>-4.41</v>
+        <v>-4.42</v>
       </c>
     </row>
     <row r="26">
@@ -772,7 +772,7 @@
         <v>-1.32</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.27</v>
+        <v>-3.28</v>
       </c>
     </row>
     <row r="27">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1.2</v>
+        <v>-1.21</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.35</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="28">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.79</v>
+        <v>2.81</v>
       </c>
       <c r="C28" t="n">
         <v>-0.23</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-3.51</v>
+        <v>-3.53</v>
       </c>
       <c r="C29" t="n">
         <v>-0.37</v>
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13.84</v>
+        <v>13.83</v>
       </c>
       <c r="C30" t="n">
-        <v>12.41</v>
+        <v>11.67</v>
       </c>
     </row>
     <row r="31">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.99</v>
+        <v>7</v>
       </c>
       <c r="C31" t="n">
-        <v>6.86</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="32">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-8.17</v>
+        <v>-8.19</v>
       </c>
       <c r="C32" t="n">
         <v>-7.84</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>-7.57</v>
+        <v>-6.97</v>
       </c>
     </row>
     <row r="34">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-7.62</v>
+        <v>-7.65</v>
       </c>
       <c r="C34" t="n">
-        <v>-5.44</v>
+        <v>-5.43</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-9.02</v>
+        <v>-9.029999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.09</v>
+        <v>-0.1</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>4.29</v>
       </c>
       <c r="C37" t="n">
-        <v>3.64</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="38">
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-2.02</v>
+        <v>-2.03</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.8</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="39">
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.34</v>
+        <v>3.33</v>
       </c>
       <c r="C39" t="n">
-        <v>3.71</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="40">
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-7.33</v>
+        <v>-7.35</v>
       </c>
       <c r="C40" t="n">
-        <v>-8.42</v>
+        <v>-8.43</v>
       </c>
     </row>
     <row r="41">
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-6.08</v>
+        <v>-6.09</v>
       </c>
       <c r="C41" t="n">
         <v>-3.86</v>
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.44</v>
+        <v>-0.46</v>
       </c>
       <c r="C42" t="n">
-        <v>0.95</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="43">
@@ -993,7 +993,7 @@
         <v>-0.41</v>
       </c>
       <c r="C43" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="44">
@@ -1003,10 +1003,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="C44" t="n">
-        <v>3.07</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="45">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-7.88</v>
+        <v>-7.9</v>
       </c>
       <c r="C45" t="n">
         <v>-5.95</v>
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-6.19</v>
+        <v>-6.21</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="C48" t="n">
         <v>-2.23</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-5.4</v>
+        <v>-5.42</v>
       </c>
       <c r="C50" t="n">
-        <v>-8.25</v>
+        <v>-8.26</v>
       </c>
     </row>
     <row r="51">
@@ -1097,7 +1097,7 @@
         <v>-3.43</v>
       </c>
       <c r="C51" t="n">
-        <v>-4.81</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="52">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-9.23</v>
+        <v>-9.26</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3.61</v>
+        <v>3.6</v>
       </c>
       <c r="C53" t="n">
-        <v>4.76</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="54">
@@ -1133,10 +1133,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1.07</v>
+        <v>-1.08</v>
       </c>
       <c r="C54" t="n">
-        <v>-1.95</v>
+        <v>-2.91</v>
       </c>
     </row>
     <row r="55">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1.96</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="57">
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-2.43</v>
+        <v>-2.46</v>
       </c>
       <c r="C57" t="n">
-        <v>-4.16</v>
+        <v>-3.88</v>
       </c>
     </row>
     <row r="58">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
       <c r="C58" t="n">
-        <v>6.02</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="59">
@@ -1201,7 +1201,7 @@
         <v>1.82</v>
       </c>
       <c r="C59" t="n">
-        <v>2.33</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="60">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>-9</v>
+        <v>-8.94</v>
       </c>
     </row>
     <row r="61">
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-3.4</v>
+        <v>-3.41</v>
       </c>
       <c r="C61" t="n">
         <v>-5.33</v>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-8.51</v>
+        <v>-8.529999999999999</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="C64" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="65">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.41</v>
+        <v>-0.42</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-4.71</v>
+        <v>-4.73</v>
       </c>
       <c r="C66" t="n">
-        <v>-4.71</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="67">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-9.44</v>
+        <v>-9.460000000000001</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="69">
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-9.93</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2.28</v>
+        <v>2.29</v>
       </c>
       <c r="C70" t="n">
-        <v>3.33</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="71">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="C71" t="n">
-        <v>5.93</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="72">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>6.98</v>
+        <v>6.99</v>
       </c>
       <c r="C72" t="n">
         <v>7.41</v>
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-7.66</v>
+        <v>-7.67</v>
       </c>
       <c r="C73" t="n">
-        <v>-8.34</v>
+        <v>-8.35</v>
       </c>
     </row>
     <row r="74">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-1.04</v>
+        <v>-1.05</v>
       </c>
       <c r="C74" t="n">
-        <v>-1.64</v>
+        <v>-1.66</v>
       </c>
     </row>
     <row r="75">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-8.529999999999999</v>
+        <v>-8.550000000000001</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-5.53</v>
+        <v>-5.55</v>
       </c>
       <c r="C76" t="n">
-        <v>-3.79</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="77">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="C77" t="n">
-        <v>4.01</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="78">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-7.43</v>
+        <v>-7.45</v>
       </c>
       <c r="C78" t="n">
-        <v>-7.98</v>
+        <v>-7.99</v>
       </c>
     </row>
     <row r="79">
@@ -1461,7 +1461,7 @@
         <v>0.78</v>
       </c>
       <c r="C79" t="n">
-        <v>3.03</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="80">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-5.38</v>
+        <v>-5.39</v>
       </c>
       <c r="C80" t="n">
-        <v>-2.46</v>
+        <v>-2.47</v>
       </c>
     </row>
     <row r="81">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-2.26</v>
+        <v>-2.28</v>
       </c>
       <c r="C83" t="n">
-        <v>-1.33</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="84">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-5.57</v>
+        <v>-5.6</v>
       </c>
       <c r="C84" t="n">
-        <v>-5.37</v>
+        <v>-4.38</v>
       </c>
     </row>
     <row r="85">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>6.1</v>
+        <v>6.08</v>
       </c>
       <c r="C85" t="n">
-        <v>6.92</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="86">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-5.04</v>
+        <v>-5.06</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.04</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="87">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-6.49</v>
+        <v>-6.51</v>
       </c>
       <c r="C87" t="n">
         <v>-7.05</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>-9.4</v>
+        <v>-9.41</v>
       </c>
     </row>
     <row r="89">
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="C89" t="n">
-        <v>4.12</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="90">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.93</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>3.76</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="91">
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>-4.96</v>
+        <v>-5.34</v>
       </c>
     </row>
     <row r="92">
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-3.03</v>
+        <v>-3.04</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-9.460000000000001</v>
+        <v>-9.48</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.67</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="95">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2.33</v>
+        <v>2.34</v>
       </c>
       <c r="C95" t="n">
-        <v>5.51</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="96">
@@ -1679,10 +1679,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-4.2</v>
+        <v>-4.21</v>
       </c>
       <c r="C96" t="n">
-        <v>-1.03</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="97">
@@ -1692,10 +1692,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-6.82</v>
+        <v>-6.85</v>
       </c>
       <c r="C97" t="n">
-        <v>-6.19</v>
+        <v>-6.15</v>
       </c>
     </row>
     <row r="98">
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-9.289999999999999</v>
+        <v>-9.31</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -1718,7 +1718,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-9.1</v>
+        <v>-9.130000000000001</v>
       </c>
       <c r="C99" t="n">
         <v>-7.87</v>
@@ -1731,10 +1731,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-3.47</v>
+        <v>-3.48</v>
       </c>
       <c r="C100" t="n">
-        <v>-6.05</v>
+        <v>-6.07</v>
       </c>
     </row>
     <row r="101">
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>-7.44</v>
+        <v>-7.43</v>
       </c>
     </row>
     <row r="102">
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-9.02</v>
+        <v>-9.050000000000001</v>
       </c>
       <c r="C102" t="n">
         <v>-7.14</v>
@@ -1770,10 +1770,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="C103" t="n">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="104">
@@ -1786,7 +1786,7 @@
         <v>-2.69</v>
       </c>
       <c r="C104" t="n">
-        <v>-2.02</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="105">
@@ -1796,10 +1796,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-7.39</v>
+        <v>-7.41</v>
       </c>
       <c r="C105" t="n">
-        <v>-7.21</v>
+        <v>-7.22</v>
       </c>
     </row>
     <row r="106">
@@ -1809,10 +1809,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-5.65</v>
+        <v>-5.67</v>
       </c>
       <c r="C106" t="n">
-        <v>-5.94</v>
+        <v>-5.04</v>
       </c>
     </row>
     <row r="107">
@@ -1825,7 +1825,7 @@
         <v>2.7</v>
       </c>
       <c r="C107" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="108">
@@ -1835,7 +1835,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9.220000000000001</v>
       </c>
       <c r="C108" t="n">
         <v>-7.51</v>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-7.52</v>
+        <v>-7.55</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-9.609999999999999</v>
+        <v>-9.630000000000001</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-7.05</v>
+        <v>-7.06</v>
       </c>
       <c r="C111" t="n">
-        <v>-1.44</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="112">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-8.07</v>
+        <v>-8.09</v>
       </c>
       <c r="C112" t="n">
         <v>-5.03</v>
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-1.81</v>
+        <v>-1.82</v>
       </c>
       <c r="C113" t="n">
-        <v>-2.5</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="114">
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>9.289999999999999</v>
+        <v>9.31</v>
       </c>
       <c r="C114" t="n">
-        <v>7.48</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="115">
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-4.83</v>
+        <v>-4.84</v>
       </c>
       <c r="C115" t="n">
         <v>-5.54</v>
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="C116" t="n">
-        <v>1.21</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="117">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-3.35</v>
+        <v>-3.38</v>
       </c>
       <c r="C117" t="n">
         <v>-4.3</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>-9.4</v>
+        <v>-9.41</v>
       </c>
     </row>
     <row r="119">
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-5.03</v>
+        <v>-5.05</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1991,10 +1991,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-4.75</v>
+        <v>-4.76</v>
       </c>
       <c r="C120" t="n">
-        <v>-5.88</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="121">
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-8.93</v>
+        <v>-8.94</v>
       </c>
       <c r="C121" t="n">
         <v>-8.279999999999999</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>3.77</v>
+        <v>3.78</v>
       </c>
       <c r="C122" t="n">
-        <v>7.65</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="123">
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>-10.62</v>
+        <v>-10.64</v>
       </c>
     </row>
     <row r="124">
@@ -2043,7 +2043,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-7.29</v>
+        <v>-7.31</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-8.210000000000001</v>
+        <v>-8.23</v>
       </c>
       <c r="C125" t="n">
-        <v>-2.29</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="126">
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-4.71</v>
+        <v>-4.72</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.7</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="127">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-2.6</v>
+        <v>-2.63</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>5.21</v>
+        <v>5.22</v>
       </c>
       <c r="C128" t="n">
-        <v>8.359999999999999</v>
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="129">
@@ -2111,7 +2111,7 @@
         <v>-0.25</v>
       </c>
       <c r="C129" t="n">
-        <v>3.7</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="130">
@@ -2124,7 +2124,7 @@
         <v>0.5</v>
       </c>
       <c r="C130" t="n">
-        <v>-1.04</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="131">
@@ -2134,10 +2134,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-7.32</v>
+        <v>-7.35</v>
       </c>
       <c r="C131" t="n">
-        <v>-6.65</v>
+        <v>-6.03</v>
       </c>
     </row>
     <row r="132">
@@ -2147,10 +2147,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>5.05</v>
+        <v>4.49</v>
       </c>
       <c r="C132" t="n">
-        <v>6.81</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="133">
@@ -2160,10 +2160,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-4.56</v>
+        <v>-4.57</v>
       </c>
       <c r="C133" t="n">
-        <v>-3.13</v>
+        <v>-3.15</v>
       </c>
     </row>
     <row r="134">
@@ -2173,10 +2173,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="C134" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="135">
@@ -2199,10 +2199,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-3</v>
+        <v>-3.01</v>
       </c>
       <c r="C136" t="n">
-        <v>-4.29</v>
+        <v>-4.3</v>
       </c>
     </row>
     <row r="137">
@@ -2212,10 +2212,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-0.65</v>
+        <v>-0.66</v>
       </c>
       <c r="C137" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="138">
@@ -2225,10 +2225,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="C138" t="n">
-        <v>4</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="139">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="C139" t="n">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="140">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-2.45</v>
+        <v>-2.46</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.53</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="141">
@@ -2264,7 +2264,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-6.97</v>
+        <v>-6.99</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -2280,7 +2280,7 @@
         <v>4.95</v>
       </c>
       <c r="C142" t="n">
-        <v>6.22</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="143">
@@ -2290,10 +2290,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>5.01</v>
+        <v>5.02</v>
       </c>
       <c r="C143" t="n">
-        <v>4.26</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="144">
@@ -2303,10 +2303,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>8.07</v>
+        <v>8.08</v>
       </c>
       <c r="C144" t="n">
-        <v>6.4</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="145">
@@ -2316,7 +2316,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-5.3</v>
+        <v>-5.32</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>2.53</v>
       </c>
       <c r="C146" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="147">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-7.23</v>
+        <v>-7.24</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>-2.51</v>
       </c>
       <c r="C148" t="n">
-        <v>-2.09</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="149">
@@ -2368,10 +2368,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-8.82</v>
+        <v>-8.85</v>
       </c>
       <c r="C149" t="n">
-        <v>-7.32</v>
+        <v>-7.21</v>
       </c>
     </row>
     <row r="150">
@@ -2381,10 +2381,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>7.84</v>
+        <v>7.81</v>
       </c>
       <c r="C150" t="n">
-        <v>9.640000000000001</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="151">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-9</v>
+        <v>-9.02</v>
       </c>
       <c r="C151" t="n">
-        <v>-9.949999999999999</v>
+        <v>-9.970000000000001</v>
       </c>
     </row>
     <row r="152">
@@ -2407,10 +2407,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-1.13</v>
+        <v>-1.16</v>
       </c>
       <c r="C152" t="n">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="153">
@@ -2420,10 +2420,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>7.99</v>
+        <v>8.01</v>
       </c>
       <c r="C153" t="n">
-        <v>6.65</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="154">
@@ -2436,7 +2436,7 @@
         <v>1.03</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.76</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="155">
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-3.02</v>
+        <v>-3.03</v>
       </c>
       <c r="C155" t="n">
-        <v>0.28</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="156">
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>-7.08</v>
+        <v>-7.09</v>
       </c>
     </row>
     <row r="157">
@@ -2472,10 +2472,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="C157" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="158">
@@ -2485,10 +2485,10 @@
         </is>
       </c>
       <c r="B158" t="n">
+        <v>-4.27</v>
+      </c>
+      <c r="C158" t="n">
         <v>-4.24</v>
-      </c>
-      <c r="C158" t="n">
-        <v>-4.07</v>
       </c>
     </row>
     <row r="159">
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>-6.57</v>
+        <v>-6.56</v>
       </c>
     </row>
     <row r="160">
@@ -2511,7 +2511,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-6.83</v>
+        <v>-6.85</v>
       </c>
       <c r="C160" t="n">
         <v>-3.55</v>
@@ -2527,7 +2527,7 @@
         <v>-3.6</v>
       </c>
       <c r="C161" t="n">
-        <v>-2.29</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="162">
@@ -2537,10 +2537,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-5.02</v>
+        <v>-5.04</v>
       </c>
       <c r="C162" t="n">
-        <v>-8.32</v>
+        <v>-8.33</v>
       </c>
     </row>
     <row r="163">
@@ -2550,10 +2550,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-6.05</v>
+        <v>-6.08</v>
       </c>
       <c r="C163" t="n">
-        <v>-5.64</v>
+        <v>-5.45</v>
       </c>
     </row>
     <row r="164">
@@ -2566,7 +2566,7 @@
         <v>3.34</v>
       </c>
       <c r="C164" t="n">
-        <v>5.91</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="165">
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-8.5</v>
+        <v>-8.52</v>
       </c>
       <c r="C165" t="n">
         <v>-8.66</v>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-9.779999999999999</v>
+        <v>-9.789999999999999</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-7</v>
+        <v>-7.02</v>
       </c>
       <c r="C167" t="n">
         <v>-6.98</v>
@@ -2618,7 +2618,7 @@
         <v>-1.91</v>
       </c>
       <c r="C168" t="n">
-        <v>-5.61</v>
+        <v>-5.62</v>
       </c>
     </row>
     <row r="169">
@@ -2628,10 +2628,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>4.96</v>
+        <v>4.94</v>
       </c>
       <c r="C169" t="n">
-        <v>6.46</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="170">
@@ -2644,7 +2644,7 @@
         <v>4.21</v>
       </c>
       <c r="C170" t="n">
-        <v>5.66</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="171">
@@ -2654,10 +2654,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="C171" t="n">
-        <v>3.26</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="172">
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-3.51</v>
+        <v>-3.52</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -2683,7 +2683,7 @@
         <v>-4.07</v>
       </c>
       <c r="C173" t="n">
-        <v>-7.39</v>
+        <v>-7.22</v>
       </c>
     </row>
     <row r="174">
@@ -2693,7 +2693,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-7.95</v>
+        <v>-7.97</v>
       </c>
       <c r="C174" t="n">
         <v>-6.04</v>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-5.36</v>
+        <v>-5.37</v>
       </c>
       <c r="C175" t="n">
         <v>-0.64</v>
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-5.14</v>
+        <v>-5.16</v>
       </c>
       <c r="C176" t="n">
-        <v>-5.72</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="177">
@@ -2732,10 +2732,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-4.13</v>
+        <v>-4.15</v>
       </c>
       <c r="C177" t="n">
-        <v>-3.9</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="178">
@@ -2748,7 +2748,7 @@
         <v>-2.85</v>
       </c>
       <c r="C178" t="n">
-        <v>-4</v>
+        <v>-4.01</v>
       </c>
     </row>
     <row r="179">
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-3.9</v>
+        <v>-3.91</v>
       </c>
       <c r="C179" t="n">
         <v>-2.64</v>
@@ -2771,10 +2771,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>12.61</v>
+        <v>12.59</v>
       </c>
       <c r="C180" t="n">
-        <v>10.04</v>
+        <v>10.09</v>
       </c>
     </row>
     <row r="181">
@@ -2784,10 +2784,10 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-1.1</v>
+        <v>-1.12</v>
       </c>
       <c r="C181" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="182">
@@ -2800,7 +2800,7 @@
         <v>-2.76</v>
       </c>
       <c r="C182" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="183">
@@ -2810,10 +2810,10 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-2.84</v>
+        <v>-2.85</v>
       </c>
       <c r="C183" t="n">
-        <v>1.02</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="184">
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-0.66</v>
+        <v>-0.67</v>
       </c>
       <c r="C184" t="n">
-        <v>-2.59</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="185">
@@ -2836,10 +2836,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-2.56</v>
+        <v>-2.57</v>
       </c>
       <c r="C185" t="n">
-        <v>-1.67</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="186">
@@ -2849,7 +2849,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-8.51</v>
+        <v>-8.529999999999999</v>
       </c>
       <c r="C186" t="n">
         <v>-7.93</v>
@@ -2865,7 +2865,7 @@
         <v>-2.35</v>
       </c>
       <c r="C187" t="n">
-        <v>-2.44</v>
+        <v>-2.49</v>
       </c>
     </row>
     <row r="188">
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>-9.02</v>
+        <v>-9.029999999999999</v>
       </c>
     </row>
     <row r="189">
@@ -2888,7 +2888,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-5.6</v>
+        <v>-5.61</v>
       </c>
       <c r="C189" t="n">
         <v>-0.85</v>
@@ -2901,10 +2901,10 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="C190" t="n">
-        <v>-2.03</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="191">
@@ -2914,10 +2914,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-7.43</v>
+        <v>-7.44</v>
       </c>
       <c r="C191" t="n">
-        <v>-6.36</v>
+        <v>-6.35</v>
       </c>
     </row>
     <row r="192">
@@ -2927,10 +2927,10 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>4.3</v>
+        <v>4.31</v>
       </c>
       <c r="C192" t="n">
-        <v>-1.2</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="193">
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-4.29</v>
+        <v>-4.3</v>
       </c>
       <c r="C194" t="n">
-        <v>-3.4</v>
+        <v>-3.41</v>
       </c>
     </row>
     <row r="195">
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-7.16</v>
+        <v>-7.18</v>
       </c>
       <c r="C195" t="n">
-        <v>-3.8</v>
+        <v>-3.48</v>
       </c>
     </row>
     <row r="196">
@@ -2979,7 +2979,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-1.94</v>
+        <v>-1.97</v>
       </c>
       <c r="C197" t="n">
-        <v>-1.5</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="198">
@@ -3018,10 +3018,10 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-3.78</v>
+        <v>-3.79</v>
       </c>
       <c r="C199" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="200">
@@ -3031,10 +3031,10 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>2.78</v>
+        <v>2.75</v>
       </c>
       <c r="C200" t="n">
-        <v>2.9</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="201">
@@ -3044,10 +3044,10 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-8.93</v>
+        <v>-8.949999999999999</v>
       </c>
       <c r="C201" t="n">
-        <v>-8.82</v>
+        <v>-8.84</v>
       </c>
     </row>
     <row r="202">
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>-5.42</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="203">
@@ -3083,10 +3083,10 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-8.33</v>
+        <v>-8.35</v>
       </c>
       <c r="C204" t="n">
-        <v>-8.539999999999999</v>
+        <v>-8.56</v>
       </c>
     </row>
     <row r="205">
@@ -3099,7 +3099,7 @@
         <v>-0.47</v>
       </c>
       <c r="C205" t="n">
-        <v>-1.17</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="206">
@@ -3109,7 +3109,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-5.73</v>
+        <v>-5.75</v>
       </c>
       <c r="C206" t="n">
         <v>-6.38</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>-8.44</v>
+        <v>-8.449999999999999</v>
       </c>
     </row>
     <row r="208">
@@ -3148,10 +3148,10 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-6.07</v>
+        <v>-6.08</v>
       </c>
       <c r="C209" t="n">
-        <v>-4.89</v>
+        <v>-4.75</v>
       </c>
     </row>
     <row r="210">
@@ -3161,10 +3161,10 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="C210" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="211">
@@ -3174,10 +3174,10 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>-1.83</v>
+        <v>-1.84</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="212">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>-5.47</v>
+        <v>-5.49</v>
       </c>
       <c r="C212" t="n">
-        <v>-8.08</v>
+        <v>-8.09</v>
       </c>
     </row>
     <row r="213">
@@ -3213,10 +3213,10 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>-0.97</v>
+        <v>-0.98</v>
       </c>
       <c r="C214" t="n">
-        <v>-2.72</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="215">
@@ -3226,10 +3226,10 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>-6.03</v>
+        <v>-6.04</v>
       </c>
       <c r="C215" t="n">
-        <v>-0.52</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="216">
@@ -3239,10 +3239,10 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>2.68</v>
+        <v>5.36</v>
       </c>
       <c r="C216" t="n">
-        <v>5.76</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="217">
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>-10.14</v>
+        <v>-10.15</v>
       </c>
     </row>
     <row r="218">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>5.97</v>
+        <v>4.98</v>
       </c>
       <c r="C218" t="n">
         <v>3.62</v>
@@ -3278,10 +3278,10 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>2.11</v>
+        <v>2.07</v>
       </c>
       <c r="C219" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="220">
@@ -3291,10 +3291,10 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="C220" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="221">
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>-11.58</v>
+        <v>-11.6</v>
       </c>
       <c r="C221" t="n">
         <v>-8.66</v>
@@ -3320,7 +3320,7 @@
         <v>5.81</v>
       </c>
       <c r="C222" t="n">
-        <v>6.37</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="223">
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-7.13</v>
+        <v>-7.15</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>-9.130000000000001</v>
+        <v>-9.15</v>
       </c>
       <c r="C224" t="n">
         <v>-9.029999999999999</v>
@@ -3356,7 +3356,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>-3.29</v>
+        <v>-3.31</v>
       </c>
       <c r="C225" t="n">
         <v>-2.55</v>
@@ -3369,10 +3369,10 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>5.51</v>
+        <v>5.52</v>
       </c>
       <c r="C226" t="n">
-        <v>4.69</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="227">
@@ -3385,7 +3385,7 @@
         <v>5.39</v>
       </c>
       <c r="C227" t="n">
-        <v>8.369999999999999</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="228">
@@ -3395,10 +3395,10 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>-4.53</v>
+        <v>-4.55</v>
       </c>
       <c r="C228" t="n">
-        <v>-3.21</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="229">
@@ -3408,10 +3408,10 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>-6.79</v>
+        <v>-6.81</v>
       </c>
       <c r="C229" t="n">
-        <v>-5.57</v>
+        <v>-5.23</v>
       </c>
     </row>
     <row r="230">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="C230" t="n">
-        <v>1.98</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="231">
@@ -3434,10 +3434,10 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>-8.06</v>
+        <v>-8.08</v>
       </c>
       <c r="C231" t="n">
-        <v>-5.74</v>
+        <v>-5.75</v>
       </c>
     </row>
     <row r="232">
@@ -3447,10 +3447,10 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>10.53</v>
+        <v>10.55</v>
       </c>
       <c r="C232" t="n">
-        <v>8.9</v>
+        <v>9.16</v>
       </c>
     </row>
     <row r="233">
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>-7.16</v>
+        <v>-7.15</v>
       </c>
     </row>
     <row r="234">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>-6.86</v>
+        <v>-6.88</v>
       </c>
       <c r="C234" t="n">
-        <v>-5.69</v>
+        <v>-5.68</v>
       </c>
     </row>
     <row r="235">
@@ -3486,7 +3486,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>-5.47</v>
+        <v>-5.48</v>
       </c>
       <c r="C235" t="n">
         <v>-5.31</v>
@@ -3499,10 +3499,10 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>-4.55</v>
+        <v>-4.56</v>
       </c>
       <c r="C236" t="n">
-        <v>-1.94</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="237">
@@ -3512,10 +3512,10 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>-5.54</v>
+        <v>-5.56</v>
       </c>
       <c r="C237" t="n">
-        <v>-5.32</v>
+        <v>-5.33</v>
       </c>
     </row>
     <row r="238">
@@ -3528,7 +3528,7 @@
         <v>-0.24</v>
       </c>
       <c r="C238" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="239">
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>-8</v>
+        <v>-8.01</v>
       </c>
     </row>
     <row r="240">
@@ -3554,7 +3554,7 @@
         <v>5.01</v>
       </c>
       <c r="C240" t="n">
-        <v>6.78</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="241">
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>-1.28</v>
+        <v>-1.3</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -3577,10 +3577,10 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>3.49</v>
+        <v>3.46</v>
       </c>
       <c r="C242" t="n">
-        <v>5.26</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="243">
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>-8.4</v>
+        <v>-8.42</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -3603,10 +3603,10 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>-0.59</v>
+        <v>-0.61</v>
       </c>
       <c r="C244" t="n">
-        <v>-2.33</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="245">
@@ -3616,10 +3616,10 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>-5.66</v>
+        <v>-5.69</v>
       </c>
       <c r="C245" t="n">
-        <v>-1.78</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="246">
@@ -3629,10 +3629,10 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>-0.96</v>
+        <v>-0.98</v>
       </c>
       <c r="C246" t="n">
-        <v>1.23</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="247">
@@ -3645,7 +3645,7 @@
         <v>3.72</v>
       </c>
       <c r="C247" t="n">
-        <v>3.34</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="248">
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>-5.49</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="250">
@@ -3681,10 +3681,10 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>-5.41</v>
+        <v>-5.42</v>
       </c>
       <c r="C250" t="n">
-        <v>-2.91</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="251">
@@ -3694,7 +3694,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>-5.28</v>
+        <v>-5.3</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>-6.33</v>
+        <v>-6.35</v>
       </c>
       <c r="C252" t="n">
         <v>-8.279999999999999</v>
@@ -3720,10 +3720,10 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>9.699999999999999</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="C253" t="n">
-        <v>10.52</v>
+        <v>10.43</v>
       </c>
     </row>
     <row r="254">
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>-7.16</v>
+        <v>-7.17</v>
       </c>
     </row>
     <row r="256">
@@ -3759,7 +3759,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>-7.56</v>
+        <v>-7.58</v>
       </c>
       <c r="C256" t="n">
         <v>-7.04</v>
@@ -3785,10 +3785,10 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>-6.67</v>
+        <v>-6.69</v>
       </c>
       <c r="C258" t="n">
-        <v>-2.99</v>
+        <v>-3.07</v>
       </c>
     </row>
     <row r="259">
@@ -3798,7 +3798,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="C259" t="n">
         <v>0.66</v>
@@ -3811,10 +3811,10 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>-4.86</v>
+        <v>-4.89</v>
       </c>
       <c r="C260" t="n">
-        <v>-5.33</v>
+        <v>-5.32</v>
       </c>
     </row>
     <row r="261">
@@ -3824,7 +3824,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>-8.890000000000001</v>
+        <v>-8.91</v>
       </c>
       <c r="C261" t="n">
         <v>-5.65</v>
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>-7.33</v>
+        <v>-7.35</v>
       </c>
       <c r="C262" t="n">
         <v>-6.4</v>
@@ -3863,10 +3863,10 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>-5.69</v>
+        <v>-5.72</v>
       </c>
       <c r="C264" t="n">
-        <v>-5.67</v>
+        <v>-5.68</v>
       </c>
     </row>
     <row r="265">
@@ -3876,10 +3876,10 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>-5.33</v>
+        <v>-5.34</v>
       </c>
       <c r="C265" t="n">
-        <v>-8.109999999999999</v>
+        <v>-8.119999999999999</v>
       </c>
     </row>
     <row r="266">
@@ -3889,10 +3889,10 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>12.53</v>
+        <v>9.73</v>
       </c>
       <c r="C266" t="n">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="267">
@@ -3902,10 +3902,10 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>2.71</v>
+        <v>2.7</v>
       </c>
       <c r="C267" t="n">
-        <v>6.96</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="268">
@@ -3915,10 +3915,10 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>-2.76</v>
+        <v>-2.77</v>
       </c>
       <c r="C268" t="n">
-        <v>-3.68</v>
+        <v>-3.89</v>
       </c>
     </row>
     <row r="269">
@@ -3928,10 +3928,10 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>-8.449999999999999</v>
+        <v>-8.470000000000001</v>
       </c>
       <c r="C269" t="n">
-        <v>-6.95</v>
+        <v>-6.96</v>
       </c>
     </row>
     <row r="270">
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>-6</v>
+        <v>-6.02</v>
       </c>
       <c r="C270" t="n">
         <v>-7.5</v>
@@ -3954,10 +3954,10 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>-7.5</v>
+        <v>-7.51</v>
       </c>
       <c r="C271" t="n">
-        <v>-4.04</v>
+        <v>-4.27</v>
       </c>
     </row>
     <row r="272">
@@ -3967,10 +3967,10 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="C272" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="273">
@@ -3980,10 +3980,10 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>-1.21</v>
+        <v>-1.23</v>
       </c>
       <c r="C273" t="n">
-        <v>-1.81</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="274">
@@ -3993,10 +3993,10 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="C274" t="n">
-        <v>-2.85</v>
+        <v>-2.49</v>
       </c>
     </row>
     <row r="275">
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>-4.09</v>
+        <v>-4.11</v>
       </c>
       <c r="C275" t="n">
         <v>-3.46</v>
@@ -4019,10 +4019,10 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>-0.64</v>
+        <v>-0.63</v>
       </c>
       <c r="C276" t="n">
-        <v>-0.57</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="277">
@@ -4035,7 +4035,7 @@
         <v>-3.53</v>
       </c>
       <c r="C277" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="278">
@@ -4045,10 +4045,10 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>-5.85</v>
+        <v>-5.87</v>
       </c>
       <c r="C278" t="n">
-        <v>-5.74</v>
+        <v>-5.75</v>
       </c>
     </row>
     <row r="279">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>3.22</v>
+        <v>3.24</v>
       </c>
       <c r="C280" t="n">
         <v>7.04</v>
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>-7.18</v>
+        <v>-7.21</v>
       </c>
       <c r="C281" t="n">
         <v>-7.07</v>
@@ -4097,10 +4097,10 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>-1.07</v>
+        <v>-1.06</v>
       </c>
       <c r="C282" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="283">
@@ -4110,10 +4110,10 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="C283" t="n">
-        <v>-0.16</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="284">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>-3.13</v>
+        <v>-3.14</v>
       </c>
       <c r="C284" t="n">
-        <v>-2.89</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="285">
@@ -4136,10 +4136,10 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="C285" t="n">
-        <v>5.35</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="286">
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>-4.71</v>
+        <v>-4.73</v>
       </c>
       <c r="C286" t="n">
         <v>-7.69</v>
@@ -4162,10 +4162,10 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>-5.45</v>
+        <v>-5.47</v>
       </c>
       <c r="C287" t="n">
-        <v>-1.44</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="288">
@@ -4178,7 +4178,7 @@
         <v>-1.5</v>
       </c>
       <c r="C288" t="n">
-        <v>-4.83</v>
+        <v>-4.84</v>
       </c>
     </row>
     <row r="289">
@@ -4188,10 +4188,10 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="C289" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="290">
@@ -4201,7 +4201,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>-8.210000000000001</v>
+        <v>-8.23</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -4217,7 +4217,7 @@
         <v>0.01</v>
       </c>
       <c r="C291" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="292">
@@ -4227,10 +4227,10 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>-6.8</v>
+        <v>-6.81</v>
       </c>
       <c r="C292" t="n">
-        <v>-5.76</v>
+        <v>-5.78</v>
       </c>
     </row>
     <row r="293">
@@ -4243,7 +4243,7 @@
         <v>-2.85</v>
       </c>
       <c r="C293" t="n">
-        <v>-1.88</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="294">
@@ -4253,10 +4253,10 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="C294" t="n">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="295">
@@ -4279,10 +4279,10 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>-0.06</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="C296" t="n">
-        <v>-2.36</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="297">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>-7.54</v>
+        <v>-7.56</v>
       </c>
       <c r="C297" t="n">
         <v>-6.66</v>
@@ -4305,10 +4305,10 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>-9.35</v>
+        <v>-9.369999999999999</v>
       </c>
       <c r="C298" t="n">
-        <v>-5.69</v>
+        <v>-5.68</v>
       </c>
     </row>
     <row r="299">
@@ -4321,7 +4321,7 @@
         <v>10.22</v>
       </c>
       <c r="C299" t="n">
-        <v>10.4</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="300">
@@ -4331,10 +4331,10 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>-3.42</v>
+        <v>-3.44</v>
       </c>
       <c r="C300" t="n">
-        <v>-6.28</v>
+        <v>-7.15</v>
       </c>
     </row>
     <row r="301">
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>-4.04</v>
+        <v>-4.06</v>
       </c>
       <c r="C302" t="n">
         <v>-3.5</v>
@@ -4373,7 +4373,7 @@
         <v>2.07</v>
       </c>
       <c r="C303" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="304">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>-7.53</v>
+        <v>-7.55</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>-7.23</v>
+        <v>-7.26</v>
       </c>
       <c r="C305" t="n">
         <v>-6.21</v>
@@ -4409,10 +4409,10 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>-1.97</v>
+        <v>-1.98</v>
       </c>
       <c r="C306" t="n">
-        <v>-1.17</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="307">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>-0.15</v>
+        <v>-0.17</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>-1.13</v>
       </c>
       <c r="C308" t="n">
-        <v>-2.37</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="309">
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>-5.84</v>
+        <v>-5.86</v>
       </c>
       <c r="C309" t="n">
-        <v>-1.92</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="310">
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>-1.35</v>
+        <v>-1.36</v>
       </c>
       <c r="C310" t="n">
         <v>-1.32</v>
@@ -4474,10 +4474,10 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>-5.93</v>
+        <v>-5.95</v>
       </c>
       <c r="C311" t="n">
-        <v>-4.19</v>
+        <v>-4.18</v>
       </c>
     </row>
     <row r="312">
@@ -4487,10 +4487,10 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>-2.24</v>
+        <v>-2.25</v>
       </c>
       <c r="C312" t="n">
-        <v>-0.33</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="313">
@@ -4500,10 +4500,10 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>-6.22</v>
+        <v>-6.23</v>
       </c>
       <c r="C313" t="n">
-        <v>-4.91</v>
+        <v>-5.08</v>
       </c>
     </row>
     <row r="314">
@@ -4516,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>-9.15</v>
+        <v>-9.16</v>
       </c>
     </row>
     <row r="315">
@@ -4529,7 +4529,7 @@
         <v>9.43</v>
       </c>
       <c r="C315" t="n">
-        <v>10.15</v>
+        <v>10.19</v>
       </c>
     </row>
     <row r="316">
@@ -4542,7 +4542,7 @@
         <v>-1.09</v>
       </c>
       <c r="C316" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="317">
@@ -4552,10 +4552,10 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>-4.4</v>
+        <v>-4.41</v>
       </c>
       <c r="C317" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="318">
@@ -4565,10 +4565,10 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>-1.84</v>
+        <v>-1.85</v>
       </c>
       <c r="C318" t="n">
-        <v>-4.95</v>
+        <v>-4.64</v>
       </c>
     </row>
     <row r="319">
@@ -4578,7 +4578,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>-6.58</v>
+        <v>-6.61</v>
       </c>
       <c r="C319" t="n">
         <v>-2.45</v>
@@ -4594,7 +4594,7 @@
         <v>-0.23</v>
       </c>
       <c r="C320" t="n">
-        <v>-0.88</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="321">
@@ -4604,7 +4604,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>-6.64</v>
+        <v>-6.65</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -4630,10 +4630,10 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>-0.76</v>
+        <v>-0.75</v>
       </c>
       <c r="C323" t="n">
-        <v>-0.58</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="324">
@@ -4643,10 +4643,10 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>-9.449999999999999</v>
+        <v>-9.470000000000001</v>
       </c>
       <c r="C324" t="n">
-        <v>-7.43</v>
+        <v>-7.44</v>
       </c>
     </row>
     <row r="325">
@@ -4656,10 +4656,10 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>-6.69</v>
+        <v>-6.7</v>
       </c>
       <c r="C325" t="n">
-        <v>-7.01</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="326">
@@ -4669,10 +4669,10 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>-0.44</v>
+        <v>-0.45</v>
       </c>
       <c r="C326" t="n">
-        <v>-0.93</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="327">
@@ -4682,10 +4682,10 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>-7.75</v>
+        <v>-7.77</v>
       </c>
       <c r="C327" t="n">
-        <v>-6.64</v>
+        <v>-6.65</v>
       </c>
     </row>
     <row r="328">
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -4708,10 +4708,10 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>-2.62</v>
+        <v>-2.64</v>
       </c>
       <c r="C329" t="n">
-        <v>-1.9</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="330">
@@ -4721,10 +4721,10 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>-5.62</v>
+        <v>-5.64</v>
       </c>
       <c r="C330" t="n">
-        <v>-4.12</v>
+        <v>-3.95</v>
       </c>
     </row>
     <row r="331">
@@ -4734,10 +4734,10 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="C331" t="n">
-        <v>-1.83</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="332">
@@ -4747,10 +4747,10 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>-0.63</v>
+        <v>-0.64</v>
       </c>
       <c r="C332" t="n">
-        <v>-1.4</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="333">
@@ -4760,10 +4760,10 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>8.48</v>
+        <v>8.49</v>
       </c>
       <c r="C333" t="n">
-        <v>8.09</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="334">
@@ -4776,7 +4776,7 @@
         <v>-2.44</v>
       </c>
       <c r="C334" t="n">
-        <v>-1.45</v>
+        <v>-1.46</v>
       </c>
     </row>
     <row r="335">
@@ -4786,10 +4786,10 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>8.74</v>
+        <v>8.76</v>
       </c>
       <c r="C335" t="n">
-        <v>8.73</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="336">
@@ -4799,10 +4799,10 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>-2.91</v>
+        <v>-2.94</v>
       </c>
       <c r="C336" t="n">
-        <v>-1.15</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="337">
@@ -4815,7 +4815,7 @@
         <v>6.22</v>
       </c>
       <c r="C337" t="n">
-        <v>1.47</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="338">
@@ -4825,10 +4825,10 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>6.61</v>
+        <v>6.6</v>
       </c>
       <c r="C338" t="n">
-        <v>8</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="339">
@@ -4838,7 +4838,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>-5.26</v>
+        <v>-5.29</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -4854,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="C340" t="n">
-        <v>-7.2</v>
+        <v>-7.19</v>
       </c>
     </row>
     <row r="341">
@@ -4877,10 +4877,10 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>-3.69</v>
+        <v>-3.71</v>
       </c>
       <c r="C342" t="n">
-        <v>-4.12</v>
+        <v>-3.67</v>
       </c>
     </row>
     <row r="343">
@@ -4890,10 +4890,10 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>-1.02</v>
+        <v>-1.03</v>
       </c>
       <c r="C343" t="n">
-        <v>-3.98</v>
+        <v>-3.99</v>
       </c>
     </row>
     <row r="344">
@@ -4906,7 +4906,7 @@
         <v>0.37</v>
       </c>
       <c r="C344" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="345">
@@ -4916,10 +4916,10 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>11.46</v>
+        <v>11.47</v>
       </c>
       <c r="C345" t="n">
-        <v>7.62</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="346">
@@ -4929,10 +4929,10 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>-8.529999999999999</v>
+        <v>-8.550000000000001</v>
       </c>
       <c r="C346" t="n">
-        <v>-9.039999999999999</v>
+        <v>-9.050000000000001</v>
       </c>
     </row>
     <row r="347">
@@ -4945,7 +4945,7 @@
         <v>-2.76</v>
       </c>
       <c r="C347" t="n">
-        <v>-2.74</v>
+        <v>-3.41</v>
       </c>
     </row>
     <row r="348">
@@ -4955,10 +4955,10 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>-2.87</v>
+        <v>-2.9</v>
       </c>
       <c r="C348" t="n">
-        <v>-1.94</v>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="349">
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="C349" t="n">
-        <v>-6.2</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="350">
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>-7.28</v>
+        <v>-7.29</v>
       </c>
     </row>
     <row r="351">
@@ -4994,10 +4994,10 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>-5.41</v>
+        <v>-5.42</v>
       </c>
       <c r="C351" t="n">
-        <v>-3.29</v>
+        <v>-3.41</v>
       </c>
     </row>
     <row r="352">
@@ -5010,7 +5010,7 @@
         <v>-1.39</v>
       </c>
       <c r="C352" t="n">
-        <v>-8.859999999999999</v>
+        <v>-8.869999999999999</v>
       </c>
     </row>
     <row r="353">
@@ -5023,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>-9.26</v>
+        <v>-9.27</v>
       </c>
     </row>
     <row r="354">
@@ -5036,7 +5036,7 @@
         <v>-2.87</v>
       </c>
       <c r="C354" t="n">
-        <v>-1.07</v>
+        <v>-1.09</v>
       </c>
     </row>
     <row r="355">
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>-6.94</v>
+        <v>-6.96</v>
       </c>
       <c r="C356" t="n">
         <v>-7.63</v>
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>-3.7</v>
+        <v>-3.71</v>
       </c>
       <c r="C357" t="n">
         <v>-5.1</v>
@@ -5088,7 +5088,7 @@
         <v>-1.13</v>
       </c>
       <c r="C358" t="n">
-        <v>-1.36</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="359">
@@ -5098,7 +5098,7 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="C359" t="n">
         <v>0</v>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="C360" t="n">
-        <v>-8.68</v>
+        <v>-8.69</v>
       </c>
     </row>
     <row r="361">
@@ -5124,7 +5124,7 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>-4.52</v>
+        <v>-4.54</v>
       </c>
       <c r="C361" t="n">
         <v>-7.01</v>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>-7.51</v>
+        <v>-7.52</v>
       </c>
     </row>
     <row r="363">
@@ -5150,10 +5150,10 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>-4.56</v>
+        <v>-4.59</v>
       </c>
       <c r="C363" t="n">
-        <v>-4.23</v>
+        <v>-4.24</v>
       </c>
     </row>
     <row r="364">
@@ -5163,7 +5163,7 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>-4.97</v>
+        <v>-4.99</v>
       </c>
       <c r="C364" t="n">
         <v>-5.92</v>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>-2.76</v>
+        <v>-2.77</v>
       </c>
       <c r="C365" t="n">
         <v>0</v>
@@ -5189,10 +5189,10 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>-7.7</v>
+        <v>-7.71</v>
       </c>
       <c r="C366" t="n">
-        <v>-9.01</v>
+        <v>-9.02</v>
       </c>
     </row>
     <row r="367">
@@ -5202,10 +5202,10 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>-4.77</v>
+        <v>-4.78</v>
       </c>
       <c r="C367" t="n">
-        <v>-4.26</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="368">
@@ -5228,10 +5228,10 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>-5.64</v>
+        <v>-5.66</v>
       </c>
       <c r="C369" t="n">
-        <v>-6.87</v>
+        <v>-5.88</v>
       </c>
     </row>
     <row r="370">
@@ -5241,7 +5241,7 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>-10.41</v>
+        <v>-10.43</v>
       </c>
       <c r="C370" t="n">
         <v>-8.66</v>
@@ -5257,7 +5257,7 @@
         <v>1.76</v>
       </c>
       <c r="C371" t="n">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="372">
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>3.27</v>
+        <v>2.32</v>
       </c>
       <c r="C372" t="n">
         <v>2.29</v>
@@ -5280,10 +5280,10 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>-0.62</v>
+        <v>-0.63</v>
       </c>
       <c r="C373" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="374">
@@ -5293,10 +5293,10 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="C374" t="n">
-        <v>1.52</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="375">
@@ -5309,7 +5309,7 @@
         <v>-1.25</v>
       </c>
       <c r="C375" t="n">
-        <v>-0.62</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="376">
@@ -5319,7 +5319,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -5332,10 +5332,10 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>-3.41</v>
+        <v>-3.43</v>
       </c>
       <c r="C377" t="n">
-        <v>-0.79</v>
+        <v>-2.78</v>
       </c>
     </row>
     <row r="378">
@@ -5345,7 +5345,7 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>-5.53</v>
+        <v>-5.55</v>
       </c>
       <c r="C378" t="n">
         <v>-4.45</v>
@@ -5358,10 +5358,10 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>-2.27</v>
+        <v>-2.29</v>
       </c>
       <c r="C379" t="n">
-        <v>-0.85</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="380">
@@ -5371,10 +5371,10 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>-4.1</v>
+        <v>-4.11</v>
       </c>
       <c r="C380" t="n">
-        <v>-3.25</v>
+        <v>-3.55</v>
       </c>
     </row>
     <row r="381">
@@ -5397,10 +5397,10 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>-4.19</v>
+        <v>-4.21</v>
       </c>
       <c r="C382" t="n">
-        <v>-2.38</v>
+        <v>-2.56</v>
       </c>
     </row>
     <row r="383">
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>4.01</v>
+        <v>3.99</v>
       </c>
       <c r="C383" t="n">
-        <v>3.91</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="384">
@@ -5423,10 +5423,10 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>-3.49</v>
+        <v>-3.5</v>
       </c>
       <c r="C384" t="n">
-        <v>-0.62</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="385">
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>-7.64</v>
+        <v>-7.66</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
@@ -5462,10 +5462,10 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="C387" t="n">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="388">
@@ -5475,10 +5475,10 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>-1.43</v>
+        <v>-1.46</v>
       </c>
       <c r="C388" t="n">
-        <v>-2.09</v>
+        <v>-2.55</v>
       </c>
     </row>
     <row r="389">
@@ -5488,10 +5488,10 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>-0.48</v>
+        <v>-0.51</v>
       </c>
       <c r="C389" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="390">
@@ -5501,10 +5501,10 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>-7.4</v>
+        <v>-7.42</v>
       </c>
       <c r="C390" t="n">
-        <v>-8.23</v>
+        <v>-8.24</v>
       </c>
     </row>
     <row r="391">
@@ -5517,7 +5517,7 @@
         <v>-1.77</v>
       </c>
       <c r="C391" t="n">
-        <v>-0.39</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="392">
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>-2.32</v>
+        <v>-2.33</v>
       </c>
       <c r="C392" t="n">
-        <v>-4.25</v>
+        <v>-4.02</v>
       </c>
     </row>
     <row r="393">
@@ -5540,10 +5540,10 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>2.78</v>
+        <v>2.75</v>
       </c>
       <c r="C393" t="n">
-        <v>-0.15</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="394">
@@ -5553,7 +5553,7 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>-6.59</v>
+        <v>-6.61</v>
       </c>
       <c r="C394" t="n">
         <v>0</v>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>16.91</v>
+        <v>16.9</v>
       </c>
       <c r="C395" t="n">
-        <v>18.49</v>
+        <v>18.53</v>
       </c>
     </row>
     <row r="396">
@@ -5579,10 +5579,10 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>-1.45</v>
+        <v>-1.46</v>
       </c>
       <c r="C396" t="n">
-        <v>-2.21</v>
+        <v>-2.22</v>
       </c>
     </row>
     <row r="397">
@@ -5592,10 +5592,10 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>5.45</v>
+        <v>5.44</v>
       </c>
       <c r="C397" t="n">
-        <v>7.93</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="398">
@@ -5605,10 +5605,10 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>-0.55</v>
+        <v>-0.57</v>
       </c>
       <c r="C398" t="n">
-        <v>-4.22</v>
+        <v>-4.37</v>
       </c>
     </row>
     <row r="399">
@@ -5621,7 +5621,7 @@
         <v>2.18</v>
       </c>
       <c r="C399" t="n">
-        <v>4.3</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="400">
@@ -5634,7 +5634,7 @@
         <v>2.61</v>
       </c>
       <c r="C400" t="n">
-        <v>3.8</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="401">
@@ -5644,10 +5644,10 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>-2.36</v>
+        <v>-2.37</v>
       </c>
       <c r="C401" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="402">
@@ -5657,10 +5657,10 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>-5.51</v>
+        <v>-5.52</v>
       </c>
       <c r="C402" t="n">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="403">
@@ -5670,10 +5670,10 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>-8.949999999999999</v>
+        <v>-8.970000000000001</v>
       </c>
       <c r="C403" t="n">
-        <v>-8.24</v>
+        <v>-8.07</v>
       </c>
     </row>
     <row r="404">
@@ -5683,10 +5683,10 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="C404" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="405">
@@ -5696,10 +5696,10 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>-7.31</v>
+        <v>-7.34</v>
       </c>
       <c r="C405" t="n">
-        <v>-6.47</v>
+        <v>-6.48</v>
       </c>
     </row>
     <row r="406">
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>-3.54</v>
+        <v>-3.53</v>
       </c>
     </row>
     <row r="407">
@@ -5722,10 +5722,10 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>-7.69</v>
+        <v>-7.71</v>
       </c>
       <c r="C407" t="n">
-        <v>-4.92</v>
+        <v>-5.04</v>
       </c>
     </row>
     <row r="408">
@@ -5735,7 +5735,7 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>-8.57</v>
+        <v>-8.59</v>
       </c>
       <c r="C408" t="n">
         <v>0</v>
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>1.92</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="410">
@@ -5761,10 +5761,10 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>-8.32</v>
+        <v>-8.34</v>
       </c>
       <c r="C410" t="n">
-        <v>-7.61</v>
+        <v>-7.62</v>
       </c>
     </row>
     <row r="411">
@@ -5774,7 +5774,7 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>-8.960000000000001</v>
+        <v>-8.98</v>
       </c>
       <c r="C411" t="n">
         <v>-8.66</v>
@@ -5787,7 +5787,7 @@
         </is>
       </c>
       <c r="B412" t="n">
-        <v>-8.57</v>
+        <v>-8.6</v>
       </c>
       <c r="C412" t="n">
         <v>-5.91</v>
@@ -5803,7 +5803,7 @@
         <v>2.84</v>
       </c>
       <c r="C413" t="n">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="414">
@@ -5813,10 +5813,10 @@
         </is>
       </c>
       <c r="B414" t="n">
-        <v>3.01</v>
+        <v>2.99</v>
       </c>
       <c r="C414" t="n">
-        <v>4.15</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="415">
@@ -5826,10 +5826,10 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>-4.31</v>
+        <v>-4.32</v>
       </c>
       <c r="C415" t="n">
-        <v>-5.08</v>
+        <v>-5.09</v>
       </c>
     </row>
     <row r="416">
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>-7.65</v>
+        <v>-7.66</v>
       </c>
     </row>
     <row r="418">
@@ -5865,10 +5865,10 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>-0.19</v>
+        <v>-0.2</v>
       </c>
       <c r="C418" t="n">
-        <v>-0.33</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="419">
@@ -5878,10 +5878,10 @@
         </is>
       </c>
       <c r="B419" t="n">
-        <v>-7.23</v>
+        <v>-7.24</v>
       </c>
       <c r="C419" t="n">
-        <v>-4.91</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="420">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>6.45</v>
+        <v>6.47</v>
       </c>
       <c r="C420" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="421">
@@ -5904,10 +5904,10 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>-3.12</v>
+        <v>-3.14</v>
       </c>
       <c r="C421" t="n">
-        <v>-4.07</v>
+        <v>-4.06</v>
       </c>
     </row>
     <row r="422">
@@ -5920,7 +5920,7 @@
         <v>0.17</v>
       </c>
       <c r="C422" t="n">
-        <v>2.53</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="423">
@@ -5930,10 +5930,10 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>-7.4</v>
+        <v>-7.42</v>
       </c>
       <c r="C423" t="n">
-        <v>-5.74</v>
+        <v>-5.75</v>
       </c>
     </row>
     <row r="424">
@@ -5943,10 +5943,10 @@
         </is>
       </c>
       <c r="B424" t="n">
-        <v>-2.62</v>
+        <v>-2.64</v>
       </c>
       <c r="C424" t="n">
-        <v>-1.79</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="425">
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>-4.55</v>
+        <v>-4.57</v>
       </c>
       <c r="C425" t="n">
         <v>0</v>
@@ -5969,10 +5969,10 @@
         </is>
       </c>
       <c r="B426" t="n">
-        <v>-5.6</v>
+        <v>-5.61</v>
       </c>
       <c r="C426" t="n">
-        <v>-4.51</v>
+        <v>-4.31</v>
       </c>
     </row>
     <row r="427">
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>-8.539999999999999</v>
+        <v>-8.56</v>
       </c>
       <c r="C428" t="n">
         <v>0</v>
@@ -6008,10 +6008,10 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="C429" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="430">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>-5.04</v>
+        <v>-5.06</v>
       </c>
       <c r="C430" t="n">
         <v>-5.72</v>
@@ -6047,10 +6047,10 @@
         </is>
       </c>
       <c r="B432" t="n">
-        <v>-2.84</v>
+        <v>-2.85</v>
       </c>
       <c r="C432" t="n">
-        <v>-5.44</v>
+        <v>-5.45</v>
       </c>
     </row>
     <row r="433">
@@ -6060,10 +6060,10 @@
         </is>
       </c>
       <c r="B433" t="n">
-        <v>-6</v>
+        <v>-6.02</v>
       </c>
       <c r="C433" t="n">
-        <v>-5.55</v>
+        <v>-5.56</v>
       </c>
     </row>
     <row r="434">
@@ -6073,7 +6073,7 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>-5.67</v>
+        <v>-5.7</v>
       </c>
       <c r="C434" t="n">
         <v>-7.72</v>
@@ -6086,7 +6086,7 @@
         </is>
       </c>
       <c r="B435" t="n">
-        <v>-8.85</v>
+        <v>-8.869999999999999</v>
       </c>
       <c r="C435" t="n">
         <v>-7.59</v>
@@ -6112,10 +6112,10 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>-3.88</v>
+        <v>-3.89</v>
       </c>
       <c r="C437" t="n">
-        <v>-7.24</v>
+        <v>-7.25</v>
       </c>
     </row>
     <row r="438">
@@ -6125,10 +6125,10 @@
         </is>
       </c>
       <c r="B438" t="n">
-        <v>-2.56</v>
+        <v>-2.59</v>
       </c>
       <c r="C438" t="n">
-        <v>7.72</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="439">
@@ -6138,7 +6138,7 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>-3.19</v>
+        <v>-3.2</v>
       </c>
       <c r="C439" t="n">
         <v>-5.11</v>
@@ -6151,10 +6151,10 @@
         </is>
       </c>
       <c r="B440" t="n">
-        <v>-2.61</v>
+        <v>-2.62</v>
       </c>
       <c r="C440" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="441">
@@ -6164,10 +6164,10 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>3.89</v>
+        <v>3.86</v>
       </c>
       <c r="C441" t="n">
-        <v>3.8</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="442">
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="B443" t="n">
-        <v>-2.54</v>
+        <v>-2.55</v>
       </c>
       <c r="C443" t="n">
-        <v>-1.35</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="444">
@@ -6203,10 +6203,10 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>-3.67</v>
+        <v>-3.7</v>
       </c>
       <c r="C444" t="n">
-        <v>-4.45</v>
+        <v>-4.46</v>
       </c>
     </row>
     <row r="445">
@@ -6216,10 +6216,10 @@
         </is>
       </c>
       <c r="B445" t="n">
-        <v>-8.130000000000001</v>
+        <v>-8.15</v>
       </c>
       <c r="C445" t="n">
-        <v>-4.37</v>
+        <v>-4.38</v>
       </c>
     </row>
     <row r="446">
@@ -6229,7 +6229,7 @@
         </is>
       </c>
       <c r="B446" t="n">
-        <v>-4.06</v>
+        <v>-4.07</v>
       </c>
       <c r="C446" t="n">
         <v>0</v>
@@ -6242,10 +6242,10 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>-2.09</v>
+        <v>-2.1</v>
       </c>
       <c r="C447" t="n">
-        <v>-2.7</v>
+        <v>-3.08</v>
       </c>
     </row>
     <row r="448">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="B448" t="n">
-        <v>-5.64</v>
+        <v>-5.65</v>
       </c>
       <c r="C448" t="n">
-        <v>-3.05</v>
+        <v>-3.02</v>
       </c>
     </row>
     <row r="449">
@@ -6268,10 +6268,10 @@
         </is>
       </c>
       <c r="B449" t="n">
-        <v>-8.92</v>
+        <v>-8.94</v>
       </c>
       <c r="C449" t="n">
-        <v>-3.53</v>
+        <v>-4.01</v>
       </c>
     </row>
     <row r="450">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B450" t="n">
-        <v>-2.44</v>
+        <v>-2.45</v>
       </c>
       <c r="C450" t="n">
-        <v>1.89</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="451">
@@ -6297,7 +6297,7 @@
         <v>-0.17</v>
       </c>
       <c r="C451" t="n">
-        <v>-1.03</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="452">
@@ -6307,10 +6307,10 @@
         </is>
       </c>
       <c r="B452" t="n">
-        <v>7.99</v>
+        <v>7.98</v>
       </c>
       <c r="C452" t="n">
-        <v>4.34</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="453">
@@ -6320,10 +6320,10 @@
         </is>
       </c>
       <c r="B453" t="n">
-        <v>-0.1</v>
+        <v>-0.11</v>
       </c>
       <c r="C453" t="n">
-        <v>2.19</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="454">
@@ -6333,10 +6333,10 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>-5.17</v>
+        <v>-5.18</v>
       </c>
       <c r="C454" t="n">
-        <v>-5.33</v>
+        <v>-5.52</v>
       </c>
     </row>
     <row r="455">
@@ -6349,7 +6349,7 @@
         <v>-1.84</v>
       </c>
       <c r="C455" t="n">
-        <v>-1.42</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="456">
@@ -6362,7 +6362,7 @@
         <v>14.17</v>
       </c>
       <c r="C456" t="n">
-        <v>11.75</v>
+        <v>11.93</v>
       </c>
     </row>
     <row r="457">
@@ -6372,10 +6372,10 @@
         </is>
       </c>
       <c r="B457" t="n">
-        <v>-6.22</v>
+        <v>-6.24</v>
       </c>
       <c r="C457" t="n">
-        <v>-6.58</v>
+        <v>-6.57</v>
       </c>
     </row>
     <row r="458">
@@ -6385,10 +6385,10 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>-9.039999999999999</v>
+        <v>-9.07</v>
       </c>
       <c r="C458" t="n">
-        <v>-8.550000000000001</v>
+        <v>-8.56</v>
       </c>
     </row>
     <row r="459">
@@ -6398,7 +6398,7 @@
         </is>
       </c>
       <c r="B459" t="n">
-        <v>-6.09</v>
+        <v>-6.11</v>
       </c>
       <c r="C459" t="n">
         <v>-4.89</v>
@@ -6414,7 +6414,7 @@
         <v>-4.24</v>
       </c>
       <c r="C460" t="n">
-        <v>-5.74</v>
+        <v>-5.75</v>
       </c>
     </row>
     <row r="461">
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="C462" t="n">
-        <v>-9.210000000000001</v>
+        <v>-9.23</v>
       </c>
     </row>
     <row r="463">
@@ -6450,10 +6450,10 @@
         </is>
       </c>
       <c r="B463" t="n">
-        <v>9.449999999999999</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="C463" t="n">
-        <v>11.19</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="464">
@@ -6463,10 +6463,10 @@
         </is>
       </c>
       <c r="B464" t="n">
-        <v>-3.99</v>
+        <v>-4</v>
       </c>
       <c r="C464" t="n">
-        <v>-3.04</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="465">
@@ -6476,10 +6476,10 @@
         </is>
       </c>
       <c r="B465" t="n">
-        <v>-3.49</v>
+        <v>-3.52</v>
       </c>
       <c r="C465" t="n">
-        <v>-7.08</v>
+        <v>-7.09</v>
       </c>
     </row>
     <row r="466">
@@ -6489,10 +6489,10 @@
         </is>
       </c>
       <c r="B466" t="n">
-        <v>-5.12</v>
+        <v>-5.13</v>
       </c>
       <c r="C466" t="n">
-        <v>-6.22</v>
+        <v>-6.23</v>
       </c>
     </row>
     <row r="467">
@@ -6502,7 +6502,7 @@
         </is>
       </c>
       <c r="B467" t="n">
-        <v>-0.67</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="C467" t="n">
         <v>-0.78</v>
@@ -6515,10 +6515,10 @@
         </is>
       </c>
       <c r="B468" t="n">
-        <v>-9.210000000000001</v>
+        <v>-9.23</v>
       </c>
       <c r="C468" t="n">
-        <v>-4.63</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="469">
@@ -6531,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>-6.53</v>
+        <v>-6.54</v>
       </c>
     </row>
     <row r="470">
@@ -6541,10 +6541,10 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="C470" t="n">
-        <v>3.44</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="471">
@@ -6554,7 +6554,7 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>-2.5</v>
+        <v>-2.51</v>
       </c>
       <c r="C471" t="n">
         <v>0.11</v>
@@ -6567,10 +6567,10 @@
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="C472" t="n">
-        <v>-0.83</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="473">
@@ -6580,10 +6580,10 @@
         </is>
       </c>
       <c r="B473" t="n">
-        <v>-3.9</v>
+        <v>-3.91</v>
       </c>
       <c r="C473" t="n">
-        <v>-4.25</v>
+        <v>-3.81</v>
       </c>
     </row>
     <row r="474">
@@ -6593,7 +6593,7 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>-7.95</v>
+        <v>-7.97</v>
       </c>
       <c r="C474" t="n">
         <v>-6.43</v>
@@ -6609,7 +6609,7 @@
         <v>-0.26</v>
       </c>
       <c r="C475" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="476">
@@ -6619,10 +6619,10 @@
         </is>
       </c>
       <c r="B476" t="n">
-        <v>-5.36</v>
+        <v>-5.39</v>
       </c>
       <c r="C476" t="n">
-        <v>-3.59</v>
+        <v>-3.57</v>
       </c>
     </row>
     <row r="477">
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="B477" t="n">
-        <v>-6.29</v>
+        <v>-6.3</v>
       </c>
       <c r="C477" t="n">
-        <v>-7.04</v>
+        <v>-6.13</v>
       </c>
     </row>
     <row r="478">
@@ -6645,7 +6645,7 @@
         </is>
       </c>
       <c r="B478" t="n">
-        <v>-5.41</v>
+        <v>-5.42</v>
       </c>
       <c r="C478" t="n">
         <v>-1.82</v>
@@ -6661,7 +6661,7 @@
         <v>2.94</v>
       </c>
       <c r="C479" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="480">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="B480" t="n">
-        <v>-4.2</v>
+        <v>-4.21</v>
       </c>
       <c r="C480" t="n">
         <v>-7.89</v>
@@ -6684,7 +6684,7 @@
         </is>
       </c>
       <c r="B481" t="n">
-        <v>-2.35</v>
+        <v>-2.36</v>
       </c>
       <c r="C481" t="n">
         <v>0.61</v>
@@ -6697,10 +6697,10 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>9.75</v>
+        <v>9.77</v>
       </c>
       <c r="C482" t="n">
-        <v>8.039999999999999</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="483">
@@ -6710,10 +6710,10 @@
         </is>
       </c>
       <c r="B483" t="n">
-        <v>2.24</v>
+        <v>2.21</v>
       </c>
       <c r="C483" t="n">
-        <v>-2.33</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="484">
@@ -6723,10 +6723,10 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>-0.55</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="C484" t="n">
-        <v>-6.28</v>
+        <v>-6.55</v>
       </c>
     </row>
     <row r="485">
@@ -6739,7 +6739,7 @@
         <v>-2.06</v>
       </c>
       <c r="C485" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="486">
@@ -6749,10 +6749,10 @@
         </is>
       </c>
       <c r="B486" t="n">
-        <v>-6.73</v>
+        <v>-6.75</v>
       </c>
       <c r="C486" t="n">
-        <v>-4.55</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="487">
@@ -6778,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="C488" t="n">
-        <v>-8.67</v>
+        <v>-9.050000000000001</v>
       </c>
     </row>
     <row r="489">
@@ -6788,10 +6788,10 @@
         </is>
       </c>
       <c r="B489" t="n">
-        <v>-5.23</v>
+        <v>-5.26</v>
       </c>
       <c r="C489" t="n">
-        <v>-4.81</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="490">
@@ -6801,7 +6801,7 @@
         </is>
       </c>
       <c r="B490" t="n">
-        <v>-3.85</v>
+        <v>-3.87</v>
       </c>
       <c r="C490" t="n">
         <v>-2.87</v>
@@ -6817,7 +6817,7 @@
         <v>2.33</v>
       </c>
       <c r="C491" t="n">
-        <v>-0.03</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="492">
@@ -6827,10 +6827,10 @@
         </is>
       </c>
       <c r="B492" t="n">
-        <v>-6.1</v>
+        <v>-6.12</v>
       </c>
       <c r="C492" t="n">
-        <v>-4.04</v>
+        <v>-4.05</v>
       </c>
     </row>
     <row r="493">
@@ -6853,7 +6853,7 @@
         </is>
       </c>
       <c r="B494" t="n">
-        <v>-7.08</v>
+        <v>-7.1</v>
       </c>
       <c r="C494" t="n">
         <v>0</v>
@@ -6869,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="C495" t="n">
-        <v>-9.4</v>
+        <v>-9.41</v>
       </c>
     </row>
     <row r="496">
@@ -6879,10 +6879,10 @@
         </is>
       </c>
       <c r="B496" t="n">
-        <v>-1.78</v>
+        <v>-1.8</v>
       </c>
       <c r="C496" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="497">
@@ -6895,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="C497" t="n">
-        <v>-5.29</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="498">
@@ -6905,10 +6905,10 @@
         </is>
       </c>
       <c r="B498" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="C498" t="n">
-        <v>6.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="499">
@@ -6918,7 +6918,7 @@
         </is>
       </c>
       <c r="B499" t="n">
-        <v>-8.220000000000001</v>
+        <v>-8.25</v>
       </c>
       <c r="C499" t="n">
         <v>-5.66</v>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="B500" t="n">
-        <v>-6.43</v>
+        <v>-6.45</v>
       </c>
       <c r="C500" t="n">
         <v>-6.75</v>
@@ -6944,10 +6944,10 @@
         </is>
       </c>
       <c r="B501" t="n">
-        <v>8.56</v>
+        <v>8.58</v>
       </c>
       <c r="C501" t="n">
-        <v>4.03</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="502">
@@ -6970,10 +6970,10 @@
         </is>
       </c>
       <c r="B503" t="n">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="C503" t="n">
-        <v>4.4</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="504">
@@ -6983,10 +6983,10 @@
         </is>
       </c>
       <c r="B504" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="C504" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="505">
@@ -6999,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="C505" t="n">
-        <v>-7.17</v>
+        <v>-7.16</v>
       </c>
     </row>
     <row r="506">
@@ -7009,10 +7009,10 @@
         </is>
       </c>
       <c r="B506" t="n">
-        <v>-5.5</v>
+        <v>-5.52</v>
       </c>
       <c r="C506" t="n">
-        <v>-7.6</v>
+        <v>-7.62</v>
       </c>
     </row>
     <row r="507">
@@ -7025,7 +7025,7 @@
         <v>15.38</v>
       </c>
       <c r="C507" t="n">
-        <v>14.4</v>
+        <v>14.46</v>
       </c>
     </row>
     <row r="508">
@@ -7035,10 +7035,10 @@
         </is>
       </c>
       <c r="B508" t="n">
-        <v>-0.96</v>
+        <v>-0.98</v>
       </c>
       <c r="C508" t="n">
-        <v>-4.68</v>
+        <v>-6.22</v>
       </c>
     </row>
     <row r="509">
@@ -7048,10 +7048,10 @@
         </is>
       </c>
       <c r="B509" t="n">
-        <v>-7.53</v>
+        <v>-7.55</v>
       </c>
       <c r="C509" t="n">
-        <v>-7.28</v>
+        <v>-6.41</v>
       </c>
     </row>
     <row r="510">
@@ -7061,10 +7061,10 @@
         </is>
       </c>
       <c r="B510" t="n">
-        <v>-8.15</v>
+        <v>-8.17</v>
       </c>
       <c r="C510" t="n">
-        <v>-4.51</v>
+        <v>-4.52</v>
       </c>
     </row>
     <row r="511">
@@ -7074,10 +7074,10 @@
         </is>
       </c>
       <c r="B511" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="C511" t="n">
-        <v>3.84</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="512">
@@ -7087,10 +7087,10 @@
         </is>
       </c>
       <c r="B512" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="C512" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="513">
@@ -7113,10 +7113,10 @@
         </is>
       </c>
       <c r="B514" t="n">
-        <v>-3.3</v>
+        <v>-3.32</v>
       </c>
       <c r="C514" t="n">
-        <v>-7.27</v>
+        <v>-7.28</v>
       </c>
     </row>
     <row r="515">
@@ -7129,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="C515" t="n">
-        <v>-9.550000000000001</v>
+        <v>-9.56</v>
       </c>
     </row>
     <row r="516">
@@ -7142,7 +7142,7 @@
         <v>0</v>
       </c>
       <c r="C516" t="n">
-        <v>-8.6</v>
+        <v>-8.609999999999999</v>
       </c>
     </row>
     <row r="517">
@@ -7152,10 +7152,10 @@
         </is>
       </c>
       <c r="B517" t="n">
-        <v>-3.98</v>
+        <v>-4.01</v>
       </c>
       <c r="C517" t="n">
-        <v>-1.19</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="518">
@@ -7165,10 +7165,10 @@
         </is>
       </c>
       <c r="B518" t="n">
-        <v>-2.23</v>
+        <v>-2.24</v>
       </c>
       <c r="C518" t="n">
-        <v>-2.64</v>
+        <v>-2.65</v>
       </c>
     </row>
     <row r="519">
@@ -7178,10 +7178,10 @@
         </is>
       </c>
       <c r="B519" t="n">
-        <v>-2.68</v>
+        <v>-2.7</v>
       </c>
       <c r="C519" t="n">
-        <v>-1.4</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="520">
@@ -7191,10 +7191,10 @@
         </is>
       </c>
       <c r="B520" t="n">
-        <v>-1.5</v>
+        <v>-1.52</v>
       </c>
       <c r="C520" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="521">
@@ -7204,10 +7204,10 @@
         </is>
       </c>
       <c r="B521" t="n">
-        <v>3.57</v>
+        <v>3.58</v>
       </c>
       <c r="C521" t="n">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="522">
@@ -7217,10 +7217,10 @@
         </is>
       </c>
       <c r="B522" t="n">
-        <v>-6.71</v>
+        <v>-6.73</v>
       </c>
       <c r="C522" t="n">
-        <v>-8.01</v>
+        <v>-8.199999999999999</v>
       </c>
     </row>
     <row r="523">
@@ -7230,10 +7230,10 @@
         </is>
       </c>
       <c r="B523" t="n">
-        <v>-4.5</v>
+        <v>-4.51</v>
       </c>
       <c r="C523" t="n">
-        <v>-1.63</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="524">
@@ -7243,10 +7243,10 @@
         </is>
       </c>
       <c r="B524" t="n">
-        <v>2.21</v>
+        <v>2.19</v>
       </c>
       <c r="C524" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
     </row>
   </sheetData>

--- a/data/merged_scores.xlsx
+++ b/data/merged_scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C524"/>
+  <dimension ref="A1:C526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-9.57</v>
+        <v>-9.6</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4.2</v>
+        <v>-4.23</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.15</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-9.23</v>
+        <v>-9.26</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-8.49</v>
+        <v>-8.470000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="C6" t="n">
-        <v>3.1</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.14</v>
+        <v>-7.17</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.78</v>
+        <v>-5.92</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.73</v>
+        <v>-1.76</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.32</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.47</v>
+        <v>-4.5</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.92</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.52</v>
+        <v>-7.58</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9.140000000000001</v>
+        <v>-9.17</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.63</v>
+        <v>-7.61</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-6.81</v>
+        <v>-6.84</v>
       </c>
       <c r="C12" t="n">
-        <v>-6.95</v>
+        <v>-6.97</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.960000000000001</v>
+        <v>-9</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.75</v>
+        <v>-3.52</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="C14" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="15">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.36</v>
+        <v>-4.39</v>
       </c>
       <c r="C15" t="n">
         <v>-2.62</v>
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.85</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-9.220000000000001</v>
+        <v>-9.199999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6.48</v>
+        <v>-6.51</v>
       </c>
       <c r="C18" t="n">
-        <v>-4.7</v>
+        <v>-4.78</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-7.16</v>
+        <v>-7.15</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.36</v>
+        <v>3.33</v>
       </c>
       <c r="C21" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="22">
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="C22" t="n">
-        <v>0.44</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="23">
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-5.55</v>
+        <v>-5.58</v>
       </c>
       <c r="C23" t="n">
         <v>-2.39</v>
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.59</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.73</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="25">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-6.42</v>
+        <v>-6.45</v>
       </c>
       <c r="C25" t="n">
-        <v>-4.42</v>
+        <v>-4.71</v>
       </c>
     </row>
     <row r="26">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.32</v>
+        <v>-1.34</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.28</v>
+        <v>-3.24</v>
       </c>
     </row>
     <row r="27">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1.21</v>
+        <v>-1.23</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.3</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="28">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.81</v>
+        <v>2.79</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.23</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="29">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-3.53</v>
+        <v>-3.55</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.37</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="30">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13.83</v>
+        <v>13.81</v>
       </c>
       <c r="C30" t="n">
-        <v>11.67</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="31">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7</v>
+        <v>6.99</v>
       </c>
       <c r="C31" t="n">
-        <v>6.85</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="32">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-8.19</v>
+        <v>-8.23</v>
       </c>
       <c r="C32" t="n">
-        <v>-7.84</v>
+        <v>-7.81</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>-6.97</v>
+        <v>-5.41</v>
       </c>
     </row>
     <row r="34">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-7.65</v>
+        <v>-7.69</v>
       </c>
       <c r="C34" t="n">
-        <v>-5.43</v>
+        <v>-5.53</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-9.029999999999999</v>
+        <v>-9.01</v>
       </c>
     </row>
     <row r="36">
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.1</v>
+        <v>-0.13</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -912,10 +912,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.29</v>
+        <v>4.27</v>
       </c>
       <c r="C37" t="n">
-        <v>3.36</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="38">
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-2.03</v>
+        <v>-2.05</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.79</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="39">
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.33</v>
+        <v>3.3</v>
       </c>
       <c r="C39" t="n">
-        <v>3.7</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="40">
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-7.35</v>
+        <v>-7.38</v>
       </c>
       <c r="C40" t="n">
-        <v>-8.43</v>
+        <v>-8.42</v>
       </c>
     </row>
     <row r="41">
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-6.09</v>
+        <v>-6.12</v>
       </c>
       <c r="C41" t="n">
-        <v>-3.86</v>
+        <v>-3.87</v>
       </c>
     </row>
     <row r="42">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.46</v>
+        <v>-0.48</v>
       </c>
       <c r="C42" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="43">
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.41</v>
+        <v>-0.44</v>
       </c>
       <c r="C43" t="n">
-        <v>2.78</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="44">
@@ -1003,10 +1003,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="C44" t="n">
-        <v>3.08</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="45">
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-7.9</v>
+        <v>-7.93</v>
       </c>
       <c r="C45" t="n">
-        <v>-5.95</v>
+        <v>-5.94</v>
       </c>
     </row>
     <row r="46">
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="C46" t="n">
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="47">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-6.21</v>
+        <v>-6.24</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1055,10 +1055,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="C48" t="n">
-        <v>-2.23</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="49">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-2.42</v>
+        <v>-2.45</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-5.42</v>
+        <v>-5.46</v>
       </c>
       <c r="C50" t="n">
-        <v>-8.26</v>
+        <v>-8.23</v>
       </c>
     </row>
     <row r="51">
@@ -1094,10 +1094,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-3.43</v>
+        <v>-3.46</v>
       </c>
       <c r="C51" t="n">
-        <v>-4.8</v>
+        <v>-4.85</v>
       </c>
     </row>
     <row r="52">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-9.26</v>
+        <v>-9.289999999999999</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3.6</v>
+        <v>3.59</v>
       </c>
       <c r="C53" t="n">
-        <v>4.77</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="54">
@@ -1133,10 +1133,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1.08</v>
+        <v>-1.1</v>
       </c>
       <c r="C54" t="n">
-        <v>-2.91</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="55">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.24</v>
+        <v>-0.26</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1.69</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="57">
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-2.46</v>
+        <v>-2.49</v>
       </c>
       <c r="C57" t="n">
-        <v>-3.88</v>
+        <v>-3.91</v>
       </c>
     </row>
     <row r="58">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="C58" t="n">
-        <v>5.44</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="59">
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="C59" t="n">
-        <v>3.56</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="60">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>-8.94</v>
+        <v>-8.92</v>
       </c>
     </row>
     <row r="61">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-3.41</v>
+        <v>-3.44</v>
       </c>
       <c r="C61" t="n">
-        <v>-5.33</v>
+        <v>-5.32</v>
       </c>
     </row>
     <row r="62">
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-8.529999999999999</v>
+        <v>-8.57</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>-8.16</v>
+        <v>-8.15</v>
       </c>
     </row>
     <row r="64">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="C64" t="n">
-        <v>4.57</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="65">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.42</v>
+        <v>-0.44</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-4.73</v>
+        <v>-4.77</v>
       </c>
       <c r="C66" t="n">
-        <v>-4.7</v>
+        <v>-4.76</v>
       </c>
     </row>
     <row r="67">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-9.460000000000001</v>
+        <v>-9.49</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-9.949999999999999</v>
+        <v>-9.98</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2.29</v>
+        <v>2.27</v>
       </c>
       <c r="C70" t="n">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="71">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="C71" t="n">
-        <v>5.92</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="72">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>6.99</v>
+        <v>6.98</v>
       </c>
       <c r="C72" t="n">
-        <v>7.41</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="73">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-7.67</v>
+        <v>-7.71</v>
       </c>
       <c r="C73" t="n">
-        <v>-8.35</v>
+        <v>-8.34</v>
       </c>
     </row>
     <row r="74">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-1.05</v>
+        <v>-1.08</v>
       </c>
       <c r="C74" t="n">
-        <v>-1.66</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="75">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-8.550000000000001</v>
+        <v>-8.58</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1419,228 +1419,228 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-5.55</v>
+        <v>-5.58</v>
       </c>
       <c r="C76" t="n">
-        <v>-2.97</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Cam Thomas</t>
+          <t>Cam Spencer</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>4.02</v>
+        <v>-5.99</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Cam Whitmore</t>
+          <t>Cam Thomas</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-7.45</v>
+        <v>2.01</v>
       </c>
       <c r="C78" t="n">
-        <v>-7.99</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Cameron Johnson</t>
+          <t>Cam Whitmore</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.78</v>
+        <v>-7.49</v>
       </c>
       <c r="C79" t="n">
-        <v>4.24</v>
+        <v>-8.51</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Cameron Payne</t>
+          <t>Cameron Johnson</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-5.39</v>
+        <v>0.76</v>
       </c>
       <c r="C80" t="n">
-        <v>-2.47</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Caris LeVert</t>
+          <t>Cameron Payne</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-1.33</v>
+        <v>-5.42</v>
       </c>
       <c r="C81" t="n">
-        <v>1.63</v>
+        <v>-2.45</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Carlton Carrington</t>
+          <t>Caris LeVert</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-3.34</v>
+        <v>-1.36</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Cason Wallace</t>
+          <t>Carlton Carrington</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-2.28</v>
+        <v>-3.37</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Charles Bassey</t>
+          <t>Cason Wallace</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-5.6</v>
+        <v>-2.3</v>
       </c>
       <c r="C84" t="n">
-        <v>-4.38</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Chet Holmgren</t>
+          <t>Charles Bassey</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>6.08</v>
+        <v>-5.63</v>
       </c>
       <c r="C85" t="n">
-        <v>6.96</v>
+        <v>-4.45</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Chris Boucher</t>
+          <t>Chet Holmgren</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-5.06</v>
+        <v>6.06</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.03</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Chris Duarte</t>
+          <t>Chris Boucher</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-6.51</v>
+        <v>-5.1</v>
       </c>
       <c r="C87" t="n">
-        <v>-7.05</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Chris Livingston</t>
+          <t>Chris Duarte</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>-6.54</v>
       </c>
       <c r="C88" t="n">
-        <v>-9.41</v>
+        <v>-7.22</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Chris Paul</t>
+          <t>Chris Livingston</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>4.17</v>
+        <v>-9.390000000000001</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Christian Braun</t>
+          <t>Chris Paul</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="C90" t="n">
-        <v>3.87</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Christian Koloko</t>
+          <t>Christian Braun</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>-0.96</v>
       </c>
       <c r="C91" t="n">
-        <v>-5.34</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Christian Wood</t>
+          <t>Christian Koloko</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-3.04</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>-5.35</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Chuma Okeke</t>
+          <t>Christian Wood</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-9.48</v>
+        <v>-3.08</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -1649,219 +1649,219 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Clint Capela</t>
+          <t>Chuma Okeke</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.72</v>
+        <v>-9.51</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Coby White</t>
+          <t>Clint Capela</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2.34</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>5.52</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Cody Martin</t>
+          <t>Coby White</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-4.21</v>
+        <v>2.32</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.89</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Cody Williams</t>
+          <t>Cody Martin</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-6.85</v>
+        <v>-4.24</v>
       </c>
       <c r="C97" t="n">
-        <v>-6.15</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Cody Zeller</t>
+          <t>Cody Williams</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-9.31</v>
+        <v>-6.88</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>-6.16</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Colby Jones</t>
+          <t>Cody Zeller</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-9.130000000000001</v>
+        <v>-9.35</v>
       </c>
       <c r="C99" t="n">
-        <v>-7.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Cole Anthony</t>
+          <t>Colby Jones</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-3.48</v>
+        <v>-9.17</v>
       </c>
       <c r="C100" t="n">
-        <v>-6.07</v>
+        <v>-7.86</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Colin Castleton</t>
+          <t>Cole Anthony</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>-3.51</v>
       </c>
       <c r="C101" t="n">
-        <v>-7.43</v>
+        <v>-6.04</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Collin Gillespie</t>
+          <t>Colin Castleton</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-9.050000000000001</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>-7.14</v>
+        <v>-7.45</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Collin Sexton</t>
+          <t>Collin Gillespie</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1.5</v>
+        <v>-9.08</v>
       </c>
       <c r="C103" t="n">
-        <v>0.96</v>
+        <v>-7.12</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Corey Kispert</t>
+          <t>Collin Sexton</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-2.69</v>
+        <v>1.48</v>
       </c>
       <c r="C104" t="n">
-        <v>-2.03</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Cory Joseph</t>
+          <t>Corey Kispert</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-7.41</v>
+        <v>-2.72</v>
       </c>
       <c r="C105" t="n">
-        <v>-7.22</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Craig Porter Jr.</t>
+          <t>Cory Joseph</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-5.67</v>
+        <v>-7.44</v>
       </c>
       <c r="C106" t="n">
-        <v>-5.04</v>
+        <v>-7.22</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>D'Angelo Russell</t>
+          <t>Craig Porter Jr.</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2.7</v>
+        <v>-5.7</v>
       </c>
       <c r="C107" t="n">
-        <v>0.02</v>
+        <v>-4.51</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>D.J. Carton</t>
+          <t>D'Angelo Russell</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-9.220000000000001</v>
+        <v>-0.21</v>
       </c>
       <c r="C108" t="n">
-        <v>-7.51</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>DaRon Holmes II</t>
+          <t>D.J. Carton</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-7.55</v>
+        <v>-9.26</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>-7.49</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Daishen Nix</t>
+          <t>DaRon Holmes II</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-9.630000000000001</v>
+        <v>-7.58</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -1870,2754 +1870,2754 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Dalano Banton</t>
+          <t>Daishen Nix</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-7.06</v>
+        <v>-9.67</v>
       </c>
       <c r="C111" t="n">
-        <v>-1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Dalen Terry</t>
+          <t>Dalano Banton</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-8.09</v>
+        <v>-7.1</v>
       </c>
       <c r="C112" t="n">
-        <v>-5.03</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Dalton Knecht</t>
+          <t>Dalen Terry</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-1.82</v>
+        <v>-8.130000000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>-1.19</v>
+        <v>-4.73</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Damian Lillard</t>
+          <t>Dalton Knecht</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>9.31</v>
+        <v>0.51</v>
       </c>
       <c r="C114" t="n">
-        <v>7.5</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Damion Lee</t>
+          <t>Damian Lillard</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-4.84</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>-5.54</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Daniel Gafford</t>
+          <t>Damion Lee</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1.95</v>
+        <v>-4.88</v>
       </c>
       <c r="C116" t="n">
-        <v>1.09</v>
+        <v>-5.54</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Daniel Theis</t>
+          <t>Daniel Gafford</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-3.38</v>
+        <v>1.92</v>
       </c>
       <c r="C117" t="n">
-        <v>-4.3</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Daniss Jenkins</t>
+          <t>Daniel Theis</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>-3.41</v>
       </c>
       <c r="C118" t="n">
-        <v>-9.41</v>
+        <v>-4.35</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Dante Exum</t>
+          <t>Daniss Jenkins</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-5.05</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>-9.390000000000001</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Dario Saric</t>
+          <t>Dante Exum</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-4.76</v>
+        <v>-5.08</v>
       </c>
       <c r="C120" t="n">
-        <v>-4.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Dariq Whitehead</t>
+          <t>Dario Saric</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-8.94</v>
+        <v>-4.8</v>
       </c>
       <c r="C121" t="n">
-        <v>-8.279999999999999</v>
+        <v>-4.88</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Darius Garland</t>
+          <t>Dariq Whitehead</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>3.78</v>
+        <v>-8.970000000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>6.59</v>
+        <v>-8.27</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>David Duke Jr.</t>
+          <t>Darius Garland</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>3.77</v>
       </c>
       <c r="C123" t="n">
-        <v>-10.64</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>David Jones</t>
+          <t>David Duke Jr.</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-7.31</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>-10.59</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>David Roddy</t>
+          <t>David Jones</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-8.23</v>
+        <v>-7.34</v>
       </c>
       <c r="C125" t="n">
-        <v>-2.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Davion Mitchell</t>
+          <t>David Roddy</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-4.72</v>
+        <v>-8.27</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.71</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Day'Ron Sharpe</t>
+          <t>Davion Mitchell</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-2.63</v>
+        <v>-4.75</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>De'Aaron Fox</t>
+          <t>Day'Ron Sharpe</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>5.22</v>
+        <v>-2.66</v>
       </c>
       <c r="C128" t="n">
-        <v>8.369999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>De'Andre Hunter</t>
+          <t>De'Aaron Fox</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-0.25</v>
+        <v>5.21</v>
       </c>
       <c r="C129" t="n">
-        <v>3.72</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>De'Anthony Melton</t>
+          <t>De'Andre Hunter</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.5</v>
+        <v>-0.28</v>
       </c>
       <c r="C130" t="n">
-        <v>-1.06</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>DeAndre Jordan</t>
+          <t>De'Anthony Melton</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-7.35</v>
+        <v>0.35</v>
       </c>
       <c r="C131" t="n">
-        <v>-6.03</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>DeMar DeRozan</t>
+          <t>DeAndre Jordan</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>4.49</v>
+        <v>-7.39</v>
       </c>
       <c r="C132" t="n">
-        <v>6.84</v>
+        <v>-6.03</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Dean Wade</t>
+          <t>DeMar DeRozan</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-4.57</v>
+        <v>4.47</v>
       </c>
       <c r="C133" t="n">
-        <v>-3.15</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Deandre Ayton</t>
+          <t>Dean Wade</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>2.61</v>
+        <v>-4.6</v>
       </c>
       <c r="C134" t="n">
-        <v>1.42</v>
+        <v>-3.15</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Dejounte Murray</t>
+          <t>Deandre Ayton</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>3.86</v>
+        <v>2.58</v>
       </c>
       <c r="C135" t="n">
-        <v>3.17</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Delon Wright</t>
+          <t>Dejounte Murray</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-3.01</v>
+        <v>3.85</v>
       </c>
       <c r="C136" t="n">
-        <v>-4.3</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Deni Avdija</t>
+          <t>Delon Wright</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-0.66</v>
+        <v>-3.03</v>
       </c>
       <c r="C137" t="n">
-        <v>0.14</v>
+        <v>-4.78</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Dennis Schröder</t>
+          <t>Deni Avdija</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1.64</v>
+        <v>-0.68</v>
       </c>
       <c r="C138" t="n">
-        <v>3.74</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Dereck Lively II</t>
+          <t>Dennis Schröder</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="C139" t="n">
-        <v>0.47</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Derrick Jones Jr.</t>
+          <t>Dereck Lively II</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-2.46</v>
+        <v>2.27</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.75</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Derrick Rose</t>
+          <t>Derrick Jones Jr.</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-6.99</v>
+        <v>-2.49</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Derrick White</t>
+          <t>Derrick Rose</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>4.95</v>
+        <v>-7.02</v>
       </c>
       <c r="C142" t="n">
-        <v>6.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>Derrick White</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>5.02</v>
+        <v>4.93</v>
       </c>
       <c r="C143" t="n">
-        <v>2.34</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Devin Booker</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>8.08</v>
+        <v>5</v>
       </c>
       <c r="C144" t="n">
-        <v>6.41</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Devin Carter</t>
+          <t>Devin Booker</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-5.32</v>
+        <v>8.06</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Devin Vassell</t>
+          <t>Devin Carter</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>2.53</v>
+        <v>-5.35</v>
       </c>
       <c r="C146" t="n">
-        <v>2.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Devonte' Graham</t>
+          <t>Devin Vassell</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-7.24</v>
+        <v>2.52</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Dillon Brooks</t>
+          <t>Devonte' Graham</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-2.51</v>
+        <v>-7.28</v>
       </c>
       <c r="C148" t="n">
-        <v>-2.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Dillon Jones</t>
+          <t>Dillon Brooks</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-8.85</v>
+        <v>-2.53</v>
       </c>
       <c r="C149" t="n">
-        <v>-7.21</v>
+        <v>-2.34</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Dillon Jones</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>7.81</v>
+        <v>-8.880000000000001</v>
       </c>
       <c r="C150" t="n">
-        <v>9.68</v>
+        <v>-7.27</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Dominick Barlow</t>
+          <t>Domantas Sabonis</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-9.02</v>
+        <v>7.79</v>
       </c>
       <c r="C151" t="n">
-        <v>-9.970000000000001</v>
+        <v>9.609999999999999</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Donovan Clingan</t>
+          <t>Dominick Barlow</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-1.16</v>
+        <v>-9.050000000000001</v>
       </c>
       <c r="C152" t="n">
-        <v>0.46</v>
+        <v>-9.93</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Donovan Clingan</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>8.01</v>
+        <v>-1.19</v>
       </c>
       <c r="C153" t="n">
-        <v>6.31</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1.03</v>
+        <v>8</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.77</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Dorian Finney-Smith</t>
+          <t>Donte DiVincenzo</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-3.03</v>
+        <v>1.02</v>
       </c>
       <c r="C155" t="n">
-        <v>0.41</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Doug McDermott</t>
+          <t>Dorian Finney-Smith</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>-3.06</v>
       </c>
       <c r="C156" t="n">
-        <v>-7.09</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Draymond Green</t>
+          <t>Doug McDermott</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>2.66</v>
+        <v>-7.07</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Drew Eubanks</t>
+          <t>Draymond Green</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-4.27</v>
+        <v>2.34</v>
       </c>
       <c r="C158" t="n">
-        <v>-4.24</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Drew Peterson</t>
+          <t>Drew Eubanks</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>-4.3</v>
       </c>
       <c r="C159" t="n">
-        <v>-6.56</v>
+        <v>-4.27</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Dru Smith</t>
+          <t>Drew Peterson</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-6.85</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>-3.55</v>
+        <v>-6.62</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Duncan Robinson</t>
+          <t>Dru Smith</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-3.6</v>
+        <v>-6.88</v>
       </c>
       <c r="C161" t="n">
-        <v>-2.3</v>
+        <v>-3.62</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Duop Reath</t>
+          <t>Duncan Robinson</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-5.04</v>
+        <v>-3.63</v>
       </c>
       <c r="C162" t="n">
-        <v>-8.33</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Dwight Powell</t>
+          <t>Duop Reath</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-6.08</v>
+        <v>-5.07</v>
       </c>
       <c r="C163" t="n">
-        <v>-5.45</v>
+        <v>-8.32</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Dyson Daniels</t>
+          <t>Dwight Powell</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>3.34</v>
+        <v>-6.11</v>
       </c>
       <c r="C164" t="n">
-        <v>5.9</v>
+        <v>-5.49</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>EJ Liddell</t>
+          <t>Dyson Daniels</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-8.52</v>
+        <v>3.34</v>
       </c>
       <c r="C165" t="n">
-        <v>-8.66</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Emoni Bates</t>
+          <t>EJ Liddell</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-9.789999999999999</v>
+        <v>-8.56</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>-8.640000000000001</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Enrique Freeman</t>
+          <t>Emoni Bates</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-7.02</v>
+        <v>-9.82</v>
       </c>
       <c r="C167" t="n">
-        <v>-6.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Eric Gordon</t>
+          <t>Enrique Freeman</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-1.91</v>
+        <v>-7.05</v>
       </c>
       <c r="C168" t="n">
-        <v>-5.62</v>
+        <v>-6.58</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Evan Mobley</t>
+          <t>Eric Gordon</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>4.94</v>
+        <v>-1.93</v>
       </c>
       <c r="C169" t="n">
-        <v>7.02</v>
+        <v>-5.76</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Franz Wagner</t>
+          <t>Evan Mobley</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>4.21</v>
+        <v>4.91</v>
       </c>
       <c r="C170" t="n">
-        <v>5.67</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Fred VanVleet</t>
+          <t>Franz Wagner</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>3.26</v>
+        <v>5.87</v>
       </c>
       <c r="C171" t="n">
-        <v>3.24</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>GG Jackson II</t>
+          <t>Fred VanVleet</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-3.52</v>
+        <v>3.25</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Gabe Vincent</t>
+          <t>GG Jackson II</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-4.07</v>
+        <v>-3.55</v>
       </c>
       <c r="C173" t="n">
-        <v>-7.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Garrett Temple</t>
+          <t>Gabe Vincent</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-7.97</v>
+        <v>-4.1</v>
       </c>
       <c r="C174" t="n">
-        <v>-6.04</v>
+        <v>-7.18</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Garrison Mathews</t>
+          <t>Garrett Temple</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-5.37</v>
+        <v>-8</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.64</v>
+        <v>-6.04</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Gary Harris</t>
+          <t>Garrison Mathews</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-5.16</v>
+        <v>-5.4</v>
       </c>
       <c r="C176" t="n">
-        <v>-5.73</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Gary Payton II</t>
+          <t>Gary Harris</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-4.15</v>
+        <v>-5.19</v>
       </c>
       <c r="C177" t="n">
-        <v>-4.2</v>
+        <v>-5.75</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Gary Trent Jr.</t>
+          <t>Gary Payton II</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-2.85</v>
+        <v>-4.18</v>
       </c>
       <c r="C178" t="n">
-        <v>-4.01</v>
+        <v>-4.21</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Georges Niang</t>
+          <t>Gary Trent Jr.</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-3.91</v>
+        <v>-2.87</v>
       </c>
       <c r="C179" t="n">
-        <v>-2.64</v>
+        <v>-3.72</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Georges Niang</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>12.59</v>
+        <v>-3.94</v>
       </c>
       <c r="C180" t="n">
-        <v>10.09</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Goga Bitadze</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-1.12</v>
+        <v>12.58</v>
       </c>
       <c r="C181" t="n">
-        <v>1.31</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Gradey Dick</t>
+          <t>Goga Bitadze</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-2.76</v>
+        <v>-1.15</v>
       </c>
       <c r="C182" t="n">
-        <v>1.84</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Grant Williams</t>
+          <t>Gradey Dick</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-2.85</v>
+        <v>-2.79</v>
       </c>
       <c r="C183" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Grayson Allen</t>
+          <t>Grant Williams</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-0.67</v>
+        <v>-2.88</v>
       </c>
       <c r="C184" t="n">
-        <v>-2.6</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Guerschon Yabusele</t>
+          <t>Grayson Allen</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-2.57</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="C185" t="n">
-        <v>-1.68</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Gui Santos</t>
+          <t>Guerschon Yabusele</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-8.529999999999999</v>
+        <v>-2.6</v>
       </c>
       <c r="C186" t="n">
-        <v>-7.93</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Harrison Barnes</t>
+          <t>Gui Santos</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-2.35</v>
+        <v>-8.56</v>
       </c>
       <c r="C187" t="n">
-        <v>-2.49</v>
+        <v>-7.91</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Harrison Ingram</t>
+          <t>Harrison Barnes</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>-2.38</v>
       </c>
       <c r="C188" t="n">
-        <v>-9.029999999999999</v>
+        <v>-2.49</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Haywood Highsmith</t>
+          <t>Harrison Ingram</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-5.61</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.85</v>
+        <v>-9.01</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Herbert Jones</t>
+          <t>Haywood Highsmith</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1.9</v>
+        <v>-5.65</v>
       </c>
       <c r="C190" t="n">
-        <v>-2.04</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Hunter Tyson</t>
+          <t>Herbert Jones</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-7.44</v>
+        <v>1.88</v>
       </c>
       <c r="C191" t="n">
-        <v>-6.35</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Immanuel Quickley</t>
+          <t>Hunter Tyson</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>4.31</v>
+        <v>-7.47</v>
       </c>
       <c r="C192" t="n">
-        <v>-1.21</v>
+        <v>-6.35</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Isaac Jones</t>
+          <t>Immanuel Quickley</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="C193" t="n">
-        <v>-7.61</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Isaac Okoro</t>
+          <t>Isaac Jones</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-4.3</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>-3.41</v>
+        <v>-7.61</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Isaiah Collier</t>
+          <t>Isaac Okoro</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-7.18</v>
+        <v>-4.33</v>
       </c>
       <c r="C195" t="n">
-        <v>-3.48</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Isaiah Hartenstein</t>
+          <t>Isaiah Collier</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>2.54</v>
+        <v>-7.21</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>-3.46</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Isaiah Jackson</t>
+          <t>Isaiah Hartenstein</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-1.97</v>
+        <v>2.52</v>
       </c>
       <c r="C197" t="n">
-        <v>-1.47</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Isaiah Joe</t>
+          <t>Isaiah Jackson</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-1.06</v>
+        <v>-2</v>
       </c>
       <c r="C198" t="n">
-        <v>-1.9</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Isaiah Stewart</t>
+          <t>Isaiah Joe</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-3.79</v>
+        <v>-1.08</v>
       </c>
       <c r="C199" t="n">
-        <v>0.83</v>
+        <v>-1.91</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Ivica Zubac</t>
+          <t>Isaiah Stewart</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>2.75</v>
+        <v>-3.83</v>
       </c>
       <c r="C200" t="n">
-        <v>2.99</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>JD Davison</t>
+          <t>Ivica Zubac</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-8.949999999999999</v>
+        <v>2.72</v>
       </c>
       <c r="C201" t="n">
-        <v>-8.84</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>JT Thor</t>
+          <t>JD Davison</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>-8.98</v>
       </c>
       <c r="C202" t="n">
-        <v>-5.4</v>
+        <v>-8.800000000000001</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Ja Morant</t>
+          <t>JT Thor</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>4.54</v>
+        <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>4.21</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Ja'Kobe Walter</t>
+          <t>Ja Morant</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-8.35</v>
+        <v>4.53</v>
       </c>
       <c r="C204" t="n">
-        <v>-8.56</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Jabari Smith Jr.</t>
+          <t>Ja'Kobe Walter</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>-0.47</v>
+        <v>-8.390000000000001</v>
       </c>
       <c r="C205" t="n">
-        <v>-1.16</v>
+        <v>-8.57</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Jabari Walker</t>
+          <t>Jabari Smith Jr.</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-5.75</v>
+        <v>-0.59</v>
       </c>
       <c r="C206" t="n">
-        <v>-6.38</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Jack McVeigh</t>
+          <t>Jabari Walker</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>-5.78</v>
       </c>
       <c r="C207" t="n">
-        <v>-8.449999999999999</v>
+        <v>-6.38</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Jacob Toppin</t>
+          <t>Jack McVeigh</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>-8.130000000000001</v>
+        <v>-8.449999999999999</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Jaden Hardy</t>
+          <t>Jacob Toppin</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-6.08</v>
+        <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>-4.75</v>
+        <v>-8.109999999999999</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Jaden Ivey</t>
+          <t>Jaden Hardy</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.55</v>
+        <v>-6.11</v>
       </c>
       <c r="C210" t="n">
-        <v>0.8100000000000001</v>
+        <v>-4.75</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Jaden McDaniels</t>
+          <t>Jaden Ivey</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>-1.84</v>
+        <v>0.53</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.04</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Jaden Springer</t>
+          <t>Jaden McDaniels</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>-5.49</v>
+        <v>-1.87</v>
       </c>
       <c r="C212" t="n">
-        <v>-8.09</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Jae'Sean Tate</t>
+          <t>Jaden Springer</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>-5.52</v>
       </c>
       <c r="C213" t="n">
-        <v>-6.93</v>
+        <v>-8.06</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Jaime Jaquez Jr.</t>
+          <t>Jae'Sean Tate</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>-0.98</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>-2.75</v>
+        <v>-7.19</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Jake LaRavia</t>
+          <t>Jaime Jaquez Jr.</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>-6.04</v>
+        <v>-1</v>
       </c>
       <c r="C215" t="n">
-        <v>-0.46</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Jakob Poeltl</t>
+          <t>Jake LaRavia</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>5.36</v>
+        <v>-6.07</v>
       </c>
       <c r="C216" t="n">
-        <v>5.79</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Jalen Bridges</t>
+          <t>Jakob Poeltl</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>5.34</v>
       </c>
       <c r="C217" t="n">
-        <v>-10.15</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>Jalen Bridges</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>4.98</v>
+        <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>3.62</v>
+        <v>-10.12</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Jalen Duren</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>2.07</v>
+        <v>4.97</v>
       </c>
       <c r="C219" t="n">
-        <v>1.14</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Jalen Green</t>
+          <t>Jalen Duren</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.93</v>
+        <v>2.04</v>
       </c>
       <c r="C220" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Jalen Hood-Schifino</t>
+          <t>Jalen Green</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>-11.6</v>
+        <v>0.91</v>
       </c>
       <c r="C221" t="n">
-        <v>-8.66</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Jalen Johnson</t>
+          <t>Jalen Hood-Schifino</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>5.81</v>
+        <v>-11.64</v>
       </c>
       <c r="C222" t="n">
-        <v>6.38</v>
+        <v>-8.640000000000001</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Jalen McDaniels</t>
+          <t>Jalen Johnson</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-7.15</v>
+        <v>5.79</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Jalen Pickett</t>
+          <t>Jalen McDaniels</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>-9.15</v>
+        <v>-7.18</v>
       </c>
       <c r="C224" t="n">
-        <v>-9.029999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Jalen Smith</t>
+          <t>Jalen Pickett</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>-3.31</v>
+        <v>-9.19</v>
       </c>
       <c r="C225" t="n">
-        <v>-2.55</v>
+        <v>-9.02</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Jalen Suggs</t>
+          <t>Jalen Smith</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>5.52</v>
+        <v>-3.34</v>
       </c>
       <c r="C226" t="n">
-        <v>4.71</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Jalen Williams</t>
+          <t>Jalen Suggs</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>5.39</v>
+        <v>2.67</v>
       </c>
       <c r="C227" t="n">
-        <v>8.65</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Jalen Wilson</t>
+          <t>Jalen Williams</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>-4.55</v>
+        <v>7.32</v>
       </c>
       <c r="C228" t="n">
-        <v>-2.99</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Jamal Cain</t>
+          <t>Jalen Wilson</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>-6.81</v>
+        <v>-4.58</v>
       </c>
       <c r="C229" t="n">
-        <v>-5.23</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Jamal Murray</t>
+          <t>Jamal Cain</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>2.89</v>
+        <v>-6.84</v>
       </c>
       <c r="C230" t="n">
-        <v>3.36</v>
+        <v>-4.88</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Jamal Shead</t>
+          <t>Jamal Murray</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>-8.08</v>
+        <v>2.87</v>
       </c>
       <c r="C231" t="n">
-        <v>-5.75</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Jamal Shead</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>10.55</v>
+        <v>-8.119999999999999</v>
       </c>
       <c r="C232" t="n">
-        <v>9.16</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>James Johnson</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0</v>
+        <v>10.54</v>
       </c>
       <c r="C233" t="n">
-        <v>-7.15</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>James Wiseman</t>
+          <t>James Johnson</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>-6.88</v>
+        <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>-5.68</v>
+        <v>-7.17</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Jamison Battle</t>
+          <t>James Wiseman</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>-5.48</v>
+        <v>-6.91</v>
       </c>
       <c r="C235" t="n">
-        <v>-5.31</v>
+        <v>-5.69</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Jarace Walker</t>
+          <t>Jamison Battle</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>-4.56</v>
+        <v>-5.51</v>
       </c>
       <c r="C236" t="n">
-        <v>-1.95</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Jared Butler</t>
+          <t>Jarace Walker</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>-5.56</v>
+        <v>-4.59</v>
       </c>
       <c r="C237" t="n">
-        <v>-5.33</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Jared McCain</t>
+          <t>Jared Butler</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>-0.24</v>
+        <v>-5.59</v>
       </c>
       <c r="C238" t="n">
-        <v>0.51</v>
+        <v>-5.31</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Jared Rhoden</t>
+          <t>Jared McCain</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>-0.27</v>
       </c>
       <c r="C239" t="n">
-        <v>-8.01</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>Jared Rhoden</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>5.01</v>
+        <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>6.96</v>
+        <v>-7.99</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Jarred Vanderbilt</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>-1.3</v>
+        <v>4.99</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Jarrett Allen</t>
+          <t>Jarred Vanderbilt</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>3.46</v>
+        <v>-1.32</v>
       </c>
       <c r="C242" t="n">
-        <v>5.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Jason Preston</t>
+          <t>Jarrett Allen</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>-8.42</v>
+        <v>3.43</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Javonte Green</t>
+          <t>Jason Preston</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>-0.61</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="C244" t="n">
-        <v>-2.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Jaxson Hayes</t>
+          <t>Javonte Green</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>-5.69</v>
+        <v>-0.63</v>
       </c>
       <c r="C245" t="n">
-        <v>-1.75</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Jay Huff</t>
+          <t>Jaxson Hayes</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>-0.98</v>
+        <v>-5.73</v>
       </c>
       <c r="C246" t="n">
-        <v>0.63</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Jay Huff</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>3.72</v>
+        <v>-1.01</v>
       </c>
       <c r="C247" t="n">
-        <v>3.04</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Jaylen Martin</t>
+          <t>Jaylen Brown</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="C248" t="n">
-        <v>-7.53</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Jaylen Nowell</t>
+          <t>Jaylen Martin</t>
         </is>
       </c>
       <c r="B249" t="n">
         <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>-5.7</v>
+        <v>-7.51</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Jaylen Wells</t>
+          <t>Jaylen Nowell</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>-5.42</v>
+        <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>-3.2</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Jaylin Williams</t>
+          <t>Jaylen Wells</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>-5.3</v>
+        <v>-5.45</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>-2.69</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Jaylon Tyson</t>
+          <t>Jaylin Williams</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>-6.35</v>
+        <v>-5.33</v>
       </c>
       <c r="C252" t="n">
-        <v>-8.279999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Jaylon Tyson</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>9.720000000000001</v>
+        <v>-6.38</v>
       </c>
       <c r="C253" t="n">
-        <v>10.43</v>
+        <v>-6.14</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Jazian Gortman</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C254" t="n">
-        <v>-7.53</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Jeff Dowtin Jr.</t>
+          <t>Jazian Gortman</t>
         </is>
       </c>
       <c r="B255" t="n">
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>-7.17</v>
+        <v>-7.51</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Jeff Green</t>
+          <t>Jeff Dowtin Jr.</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>-7.58</v>
+        <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>-7.04</v>
+        <v>-7.15</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Jerami Grant</t>
+          <t>Jeff Green</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.19</v>
+        <v>-7.62</v>
       </c>
       <c r="C257" t="n">
-        <v>1.16</v>
+        <v>-7.09</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Jeremiah Robinson-Earl</t>
+          <t>Jerami Grant</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>-6.69</v>
+        <v>0.16</v>
       </c>
       <c r="C258" t="n">
-        <v>-3.07</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Jeremy Sochan</t>
+          <t>Jeremiah Robinson-Earl</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.48</v>
+        <v>-6.73</v>
       </c>
       <c r="C259" t="n">
-        <v>0.66</v>
+        <v>-3.39</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Jericho Sims</t>
+          <t>Jeremy Sochan</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>-4.89</v>
+        <v>0.46</v>
       </c>
       <c r="C260" t="n">
-        <v>-5.32</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Jett Howard</t>
+          <t>Jericho Sims</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>-8.91</v>
+        <v>-4.92</v>
       </c>
       <c r="C261" t="n">
-        <v>-5.65</v>
+        <v>-5.36</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Jevon Carter</t>
+          <t>Jett Howard</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>-7.35</v>
+        <v>-8.949999999999999</v>
       </c>
       <c r="C262" t="n">
-        <v>-6.4</v>
+        <v>-5.68</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>Jevon Carter</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>4.23</v>
+        <v>-7.38</v>
       </c>
       <c r="C263" t="n">
-        <v>2.33</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Jock Landale</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>-5.72</v>
+        <v>4.21</v>
       </c>
       <c r="C264" t="n">
-        <v>-5.68</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Joe Ingles</t>
+          <t>Jock Landale</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>-5.34</v>
+        <v>-5.75</v>
       </c>
       <c r="C265" t="n">
-        <v>-8.119999999999999</v>
+        <v>-5.63</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Joel Embiid</t>
+          <t>Joe Ingles</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>9.73</v>
+        <v>-5.37</v>
       </c>
       <c r="C266" t="n">
-        <v>3.9</v>
+        <v>-8.1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Joel Embiid</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>2.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C267" t="n">
-        <v>6.65</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>John Konchar</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>-2.77</v>
+        <v>2.67</v>
       </c>
       <c r="C268" t="n">
-        <v>-3.89</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Johnny Davis</t>
+          <t>John Konchar</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>-8.470000000000001</v>
+        <v>-2.8</v>
       </c>
       <c r="C269" t="n">
-        <v>-6.96</v>
+        <v>-3.94</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Johnny Furphy</t>
+          <t>Johnny Davis</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>-6.02</v>
+        <v>-8.51</v>
       </c>
       <c r="C270" t="n">
-        <v>-7.5</v>
+        <v>-6.95</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Johnny Juzang</t>
+          <t>Johnny Furphy</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>-7.51</v>
+        <v>-6.05</v>
       </c>
       <c r="C271" t="n">
-        <v>-4.27</v>
+        <v>-7.47</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Jonas Valanciunas</t>
+          <t>Johnny Juzang</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.2</v>
+        <v>-7.55</v>
       </c>
       <c r="C272" t="n">
-        <v>2.65</v>
+        <v>-4.28</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Jonathan Isaac</t>
+          <t>Jonas Valanciunas</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>-1.23</v>
+        <v>0.17</v>
       </c>
       <c r="C273" t="n">
-        <v>-1.8</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Jonathan Kuminga</t>
+          <t>Jonathan Isaac</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.63</v>
+        <v>-1.25</v>
       </c>
       <c r="C274" t="n">
-        <v>-2.49</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Jonathan Mogbo</t>
+          <t>Jonathan Kuminga</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>-4.11</v>
+        <v>-1.02</v>
       </c>
       <c r="C275" t="n">
-        <v>-3.46</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Jordan Clarkson</t>
+          <t>Jonathan Mogbo</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>-0.63</v>
+        <v>-4.14</v>
       </c>
       <c r="C276" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-3.49</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Jordan Hawkins</t>
+          <t>Jordan Clarkson</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>-3.53</v>
+        <v>-0.66</v>
       </c>
       <c r="C277" t="n">
-        <v>0.15</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Jordan McLaughlin</t>
+          <t>Jordan Hawkins</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>-5.87</v>
+        <v>-3.56</v>
       </c>
       <c r="C278" t="n">
-        <v>-5.75</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Jordan Miller</t>
+          <t>Jordan McLaughlin</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0</v>
+        <v>-5.9</v>
       </c>
       <c r="C279" t="n">
-        <v>-6.85</v>
+        <v>-5.72</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Jordan Poole</t>
+          <t>Jordan Miller</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>3.24</v>
+        <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>7.04</v>
+        <v>-6.85</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Jordan Walsh</t>
+          <t>Jordan Poole</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>-7.21</v>
+        <v>3.22</v>
       </c>
       <c r="C281" t="n">
-        <v>-7.07</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Jose Alvarado</t>
+          <t>Jordan Walsh</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>-1.06</v>
+        <v>-7.24</v>
       </c>
       <c r="C282" t="n">
-        <v>0.8</v>
+        <v>-7.08</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Josh Giddey</t>
+          <t>Jose Alvarado</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>2.83</v>
+        <v>-1.08</v>
       </c>
       <c r="C283" t="n">
-        <v>-0.19</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Josh Green</t>
+          <t>Josh Giddey</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>-3.14</v>
+        <v>2.81</v>
       </c>
       <c r="C284" t="n">
-        <v>-3.2</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Josh Hart</t>
+          <t>Josh Green</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>1.43</v>
+        <v>-3.17</v>
       </c>
       <c r="C285" t="n">
-        <v>5.37</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Josh Minott</t>
+          <t>Josh Hart</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>-4.73</v>
+        <v>1.4</v>
       </c>
       <c r="C286" t="n">
-        <v>-7.69</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Josh Okogie</t>
+          <t>Josh Minott</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>-5.47</v>
+        <v>-4.76</v>
       </c>
       <c r="C287" t="n">
-        <v>-1.45</v>
+        <v>-7.7</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Josh Richardson</t>
+          <t>Josh Okogie</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>-1.5</v>
+        <v>-5.5</v>
       </c>
       <c r="C288" t="n">
-        <v>-4.84</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Jrue Holiday</t>
+          <t>Josh Richardson</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>2.62</v>
+        <v>-1.53</v>
       </c>
       <c r="C289" t="n">
-        <v>0.76</v>
+        <v>-4.82</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Juan Nunez</t>
+          <t>Jrue Holiday</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>-8.23</v>
+        <v>2.61</v>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Julian Champagnie</t>
+          <t>Juan Nunez</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.01</v>
+        <v>-8.26</v>
       </c>
       <c r="C291" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Julian Phillips</t>
+          <t>Julian Champagnie</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>-6.81</v>
+        <v>-0.02</v>
       </c>
       <c r="C292" t="n">
-        <v>-5.78</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Julian Strawther</t>
+          <t>Julian Phillips</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>-2.85</v>
+        <v>-6.84</v>
       </c>
       <c r="C293" t="n">
-        <v>-1.87</v>
+        <v>-5.62</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Julius Randle</t>
+          <t>Julian Strawther</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1.52</v>
+        <v>-2.88</v>
       </c>
       <c r="C294" t="n">
-        <v>4.1</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Justin Champagnie</t>
+          <t>Julius Randle</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="C295" t="n">
-        <v>-8.029999999999999</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Jusuf Nurkic</t>
+          <t>Justin Champagnie</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>-2.38</v>
+        <v>-8.02</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>KJ Simpson</t>
+          <t>Jusuf Nurkic</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>-7.56</v>
+        <v>-0.1</v>
       </c>
       <c r="C297" t="n">
-        <v>-6.66</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Kai Jones</t>
+          <t>KJ Simpson</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>-9.369999999999999</v>
+        <v>-7.6</v>
       </c>
       <c r="C298" t="n">
-        <v>-5.68</v>
+        <v>-6.65</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Karl-Anthony Towns</t>
+          <t>Kai Jones</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>10.22</v>
+        <v>-9.4</v>
       </c>
       <c r="C299" t="n">
-        <v>10.44</v>
+        <v>-5.74</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Karlo Matkovic</t>
+          <t>Karl-Anthony Towns</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>-3.44</v>
+        <v>10.2</v>
       </c>
       <c r="C300" t="n">
-        <v>-7.15</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Kawhi Leonard</t>
+          <t>Karlo Matkovic</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>4.81</v>
+        <v>-3.47</v>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>-5.42</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Keaton Wallace</t>
+          <t>Kawhi Leonard</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>-4.06</v>
+        <v>4.79</v>
       </c>
       <c r="C302" t="n">
-        <v>-3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Keegan Murray</t>
+          <t>Keaton Wallace</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>2.07</v>
+        <v>-4.09</v>
       </c>
       <c r="C303" t="n">
-        <v>0.64</v>
+        <v>-3.53</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Keita Bates-Diop</t>
+          <t>Keegan Murray</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>-7.55</v>
+        <v>2.05</v>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Kel'el Ware</t>
+          <t>Keita Bates-Diop</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>-7.26</v>
+        <v>-7.59</v>
       </c>
       <c r="C305" t="n">
-        <v>-6.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Keldon Johnson</t>
+          <t>Kel'el Ware</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>-1.98</v>
+        <v>-7.29</v>
       </c>
       <c r="C306" t="n">
-        <v>-0.76</v>
+        <v>-6.25</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Kelly Olynyk</t>
+          <t>Keldon Johnson</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>-0.17</v>
+        <v>-2.01</v>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Kelly Oubre Jr.</t>
+          <t>Kelly Olynyk</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>-1.13</v>
+        <v>-0.19</v>
       </c>
       <c r="C308" t="n">
-        <v>-2.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Kenrich Williams</t>
+          <t>Kelly Oubre Jr.</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>-5.86</v>
+        <v>-1.16</v>
       </c>
       <c r="C309" t="n">
-        <v>-3.2</v>
+        <v>-2.14</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Kentavious Caldwell-Pope</t>
+          <t>Kenrich Williams</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>-1.36</v>
+        <v>-5.89</v>
       </c>
       <c r="C310" t="n">
-        <v>-1.32</v>
+        <v>-3.68</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Kenyon Martin Jr.</t>
+          <t>Kentavious Caldwell-Pope</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>-5.95</v>
+        <v>-1.38</v>
       </c>
       <c r="C311" t="n">
-        <v>-4.18</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Keon Ellis</t>
+          <t>Kenyon Martin Jr.</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>-2.25</v>
+        <v>-5.99</v>
       </c>
       <c r="C312" t="n">
-        <v>-0.32</v>
+        <v>-4.43</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Keon Johnson</t>
+          <t>Keon Ellis</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>-6.23</v>
+        <v>-2.28</v>
       </c>
       <c r="C313" t="n">
-        <v>-5.08</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Kessler Edwards</t>
+          <t>Keon Johnson</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>-6.26</v>
       </c>
       <c r="C314" t="n">
-        <v>-9.16</v>
+        <v>-5.1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Kevin Durant</t>
+          <t>Kessler Edwards</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>9.43</v>
+        <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>10.19</v>
+        <v>-9.140000000000001</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Kevin Huerter</t>
+          <t>Kevin Durant</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>-1.09</v>
+        <v>9.41</v>
       </c>
       <c r="C316" t="n">
-        <v>0.38</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Kevin Love</t>
+          <t>Kevin Huerter</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>-4.41</v>
+        <v>-1.11</v>
       </c>
       <c r="C317" t="n">
-        <v>-0.7</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Kevin Porter Jr.</t>
+          <t>Kevin Love</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>-1.85</v>
+        <v>-4.2</v>
       </c>
       <c r="C318" t="n">
-        <v>-4.64</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Kevon Looney</t>
+          <t>Kevin Porter Jr.</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>-6.61</v>
+        <v>-1.87</v>
       </c>
       <c r="C319" t="n">
-        <v>-2.45</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Keyonte George</t>
+          <t>Kevon Looney</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>-0.23</v>
+        <v>-6.65</v>
       </c>
       <c r="C320" t="n">
-        <v>-0.97</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Keyonte George</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>1.6</v>
+        <v>-0.25</v>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Killian Hayes</t>
+          <t>Khris Middleton</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>-6.65</v>
+        <v>1.58</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -4626,2627 +4626,2653 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Klay Thompson</t>
+          <t>Killian Hayes</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>-0.75</v>
+        <v>-6.68</v>
       </c>
       <c r="C323" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Kobe Brown</t>
+          <t>Klay Thompson</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>-9.470000000000001</v>
+        <v>-0.78</v>
       </c>
       <c r="C324" t="n">
-        <v>-7.44</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Kobe Bufkin</t>
+          <t>Kobe Brown</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>-6.7</v>
+        <v>-9.5</v>
       </c>
       <c r="C325" t="n">
-        <v>-7</v>
+        <v>-7.41</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Kris Dunn</t>
+          <t>Kobe Bufkin</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>-0.45</v>
+        <v>-6.73</v>
       </c>
       <c r="C326" t="n">
-        <v>-0.99</v>
+        <v>-7.01</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Kris Murray</t>
+          <t>Kris Dunn</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>-7.77</v>
+        <v>-0.47</v>
       </c>
       <c r="C327" t="n">
-        <v>-6.65</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Kristaps Porzingis</t>
+          <t>Kris Murray</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>4.56</v>
+        <v>-7.8</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>-6.71</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Kyle Anderson</t>
+          <t>Kristaps Porzingis</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>-2.64</v>
+        <v>4.53</v>
       </c>
       <c r="C329" t="n">
-        <v>-2.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Kyle Filipowski</t>
+          <t>Kyle Anderson</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>-5.64</v>
+        <v>-2.66</v>
       </c>
       <c r="C330" t="n">
-        <v>-3.95</v>
+        <v>-2.14</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Kyle Kuzma</t>
+          <t>Kyle Filipowski</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.79</v>
+        <v>-5.68</v>
       </c>
       <c r="C331" t="n">
-        <v>-1.84</v>
+        <v>-3.95</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Kyle Lowry</t>
+          <t>Kyle Kuzma</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>-0.64</v>
+        <v>0.76</v>
       </c>
       <c r="C332" t="n">
-        <v>-1.41</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Kyrie Irving</t>
+          <t>Kyle Lowry</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>8.49</v>
+        <v>-0.66</v>
       </c>
       <c r="C333" t="n">
-        <v>7.9</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Kyshawn George</t>
+          <t>Kyrie Irving</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>-2.44</v>
+        <v>8.48</v>
       </c>
       <c r="C334" t="n">
-        <v>-1.46</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>LaMelo Ball</t>
+          <t>Kyshawn George</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>8.76</v>
+        <v>-2.47</v>
       </c>
       <c r="C335" t="n">
-        <v>8.050000000000001</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Larry Nance Jr.</t>
+          <t>LaMelo Ball</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>-2.94</v>
+        <v>8.76</v>
       </c>
       <c r="C336" t="n">
-        <v>-1.14</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>Larry Nance Jr.</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>6.22</v>
+        <v>-2.97</v>
       </c>
       <c r="C337" t="n">
-        <v>2.25</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="C338" t="n">
-        <v>7.08</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Leonard Miller</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>-5.29</v>
+        <v>6.59</v>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Lester Quinones</t>
+          <t>Leonard Miller</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0</v>
+        <v>-5.32</v>
       </c>
       <c r="C340" t="n">
-        <v>-7.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Liam Robbins</t>
+          <t>Lester Quinones</t>
         </is>
       </c>
       <c r="B341" t="n">
         <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>-9.73</v>
+        <v>-7.19</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Lindy Waters III</t>
+          <t>Liam Robbins</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>-3.71</v>
+        <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>-3.67</v>
+        <v>-9.789999999999999</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Lonzo Ball</t>
+          <t>Lindy Waters III</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>-1.03</v>
+        <v>-3.74</v>
       </c>
       <c r="C343" t="n">
-        <v>-3.99</v>
+        <v>-3.67</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Luguentz Dort</t>
+          <t>Lonzo Ball</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0.37</v>
+        <v>-1.05</v>
       </c>
       <c r="C344" t="n">
-        <v>1.95</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Luka Doncic</t>
+          <t>Luguentz Dort</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>11.47</v>
+        <v>0.35</v>
       </c>
       <c r="C345" t="n">
-        <v>7.92</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Luka Garza</t>
+          <t>Luka Doncic</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>-8.550000000000001</v>
+        <v>11.47</v>
       </c>
       <c r="C346" t="n">
-        <v>-9.050000000000001</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Luke Kennard</t>
+          <t>Luka Garza</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>-2.76</v>
+        <v>-8.58</v>
       </c>
       <c r="C347" t="n">
-        <v>-3.41</v>
+        <v>-9.029999999999999</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Luke Kornet</t>
+          <t>Luke Kennard</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>-2.9</v>
+        <v>-2.79</v>
       </c>
       <c r="C348" t="n">
-        <v>-1.92</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Luke Travers</t>
+          <t>Luke Kornet</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0</v>
+        <v>-2.93</v>
       </c>
       <c r="C349" t="n">
-        <v>-6.19</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Mac McClung</t>
+          <t>Luke Travers</t>
         </is>
       </c>
       <c r="B350" t="n">
         <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>-7.29</v>
+        <v>-5.69</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Malaki Branham</t>
+          <t>Mac McClung</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>-5.42</v>
+        <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>-3.41</v>
+        <v>-7.27</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Malcolm Brogdon</t>
+          <t>Malaki Branham</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>-1.39</v>
+        <v>-5.45</v>
       </c>
       <c r="C352" t="n">
-        <v>-8.869999999999999</v>
+        <v>-3.41</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Malevy Leons</t>
+          <t>Malcolm Brogdon</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0</v>
+        <v>-1.42</v>
       </c>
       <c r="C353" t="n">
-        <v>-9.27</v>
+        <v>-8.84</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Malik Beasley</t>
+          <t>Malevy Leons</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>-2.87</v>
+        <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>-1.09</v>
+        <v>-9.24</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Malik Monk</t>
+          <t>Malik Beasley</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0.22</v>
+        <v>-2.89</v>
       </c>
       <c r="C355" t="n">
-        <v>-0.41</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>MarJon Beauchamp</t>
+          <t>Malik Monk</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>-6.96</v>
+        <v>0.2</v>
       </c>
       <c r="C356" t="n">
-        <v>-7.63</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Marcus Sasser</t>
+          <t>MarJon Beauchamp</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>-3.71</v>
+        <v>-6.99</v>
       </c>
       <c r="C357" t="n">
-        <v>-5.1</v>
+        <v>-7.77</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Marcus Smart</t>
+          <t>Marcus Sasser</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>-1.13</v>
+        <v>-3.73</v>
       </c>
       <c r="C358" t="n">
-        <v>-1.37</v>
+        <v>-5.11</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Mark Williams</t>
+          <t>Marcus Smart</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1.85</v>
+        <v>-1.15</v>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Markieff Morris</t>
+          <t>Mark Williams</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="C360" t="n">
-        <v>-8.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Marvin Bagley III</t>
+          <t>Markieff Morris</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>-4.54</v>
+        <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>-7.01</v>
+        <v>-8.68</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Mason Jones</t>
+          <t>Marvin Bagley III</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>-4.58</v>
       </c>
       <c r="C362" t="n">
-        <v>-7.52</v>
+        <v>-7.01</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Mason Plumlee</t>
+          <t>Mason Jones</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>-4.59</v>
+        <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>-4.24</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Matas Buzelis</t>
+          <t>Mason Plumlee</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>-4.99</v>
+        <v>-4.63</v>
       </c>
       <c r="C364" t="n">
-        <v>-5.92</v>
+        <v>-4.24</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Matisse Thybulle</t>
+          <t>Matas Buzelis</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>-2.77</v>
+        <v>-5.03</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>-5.89</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Matt Ryan</t>
+          <t>Matisse Thybulle</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>-7.71</v>
+        <v>-2.8</v>
       </c>
       <c r="C366" t="n">
-        <v>-9.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Max Christie</t>
+          <t>Matt Ryan</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>-4.78</v>
+        <v>-7.75</v>
       </c>
       <c r="C367" t="n">
-        <v>-4.2</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Max Strus</t>
+          <t>Max Christie</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>-0.84</v>
+        <v>-4.81</v>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>-4.24</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Maxi Kleber</t>
+          <t>Max Strus</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>-5.66</v>
+        <v>-0.86</v>
       </c>
       <c r="C369" t="n">
-        <v>-5.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Maxwell Lewis</t>
+          <t>Maxi Kleber</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>-10.43</v>
+        <v>-5.69</v>
       </c>
       <c r="C370" t="n">
-        <v>-8.66</v>
+        <v>-5.93</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Michael Porter Jr.</t>
+          <t>Maxwell Lewis</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>1.76</v>
+        <v>-10.46</v>
       </c>
       <c r="C371" t="n">
-        <v>2.85</v>
+        <v>-8.640000000000001</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Mikal Bridges</t>
+          <t>Michael Porter Jr.</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>2.32</v>
+        <v>1.74</v>
       </c>
       <c r="C372" t="n">
-        <v>2.29</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Mike Conley</t>
+          <t>Mikal Bridges</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>-0.63</v>
+        <v>2.3</v>
       </c>
       <c r="C373" t="n">
-        <v>0.01</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Miles Bridges</t>
+          <t>Mike Conley</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0.86</v>
+        <v>-0.64</v>
       </c>
       <c r="C374" t="n">
-        <v>1.75</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Miles McBride</t>
+          <t>Miles Bridges</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>-1.25</v>
+        <v>0.84</v>
       </c>
       <c r="C375" t="n">
-        <v>-0.63</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Mitchell Robinson</t>
+          <t>Miles McBride</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0.5</v>
+        <v>-1.27</v>
       </c>
       <c r="C376" t="n">
-        <v>0</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Mo Bamba</t>
+          <t>Mitchell Robinson</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>-3.43</v>
+        <v>0.48</v>
       </c>
       <c r="C377" t="n">
-        <v>-2.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Monte Morris</t>
+          <t>Mo Bamba</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>-5.55</v>
+        <v>-3.47</v>
       </c>
       <c r="C378" t="n">
-        <v>-4.45</v>
+        <v>-2.74</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Moritz Wagner</t>
+          <t>Monte Morris</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>-2.29</v>
+        <v>-5.58</v>
       </c>
       <c r="C379" t="n">
-        <v>-0.84</v>
+        <v>-4.46</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Moses Moody</t>
+          <t>Moritz Wagner</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>-4.11</v>
+        <v>-2.32</v>
       </c>
       <c r="C380" t="n">
-        <v>-3.55</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Mouhamed Gueye</t>
+          <t>Moses Brown</t>
         </is>
       </c>
       <c r="B381" t="n">
         <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>-8.84</v>
+        <v>-4.53</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Moussa Diabate</t>
+          <t>Moses Moody</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>-4.21</v>
+        <v>-4.14</v>
       </c>
       <c r="C382" t="n">
-        <v>-2.56</v>
+        <v>-3.53</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Myles Turner</t>
+          <t>Mouhamed Gueye</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>3.99</v>
+        <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>3.92</v>
+        <v>-8.83</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Naji Marshall</t>
+          <t>Moussa Diabate</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>-3.5</v>
+        <v>-4.24</v>
       </c>
       <c r="C384" t="n">
-        <v>-0.34</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Nassir Little</t>
+          <t>Myles Turner</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>-7.66</v>
+        <v>3.97</v>
       </c>
       <c r="C385" t="n">
-        <v>0</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Nate Williams</t>
+          <t>Naji Marshall</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0</v>
+        <v>-3.53</v>
       </c>
       <c r="C386" t="n">
-        <v>-5.25</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Naz Reid</t>
+          <t>Nassir Little</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>1.17</v>
+        <v>-7.69</v>
       </c>
       <c r="C387" t="n">
-        <v>2.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Neemias Queta</t>
+          <t>Nate Williams</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>-1.46</v>
+        <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>-2.55</v>
+        <v>-6.43</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Nick Richards</t>
+          <t>Naz Reid</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>-0.51</v>
+        <v>1.14</v>
       </c>
       <c r="C389" t="n">
-        <v>3.2</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Nick Smith Jr.</t>
+          <t>Neemias Queta</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>-7.42</v>
+        <v>-1.49</v>
       </c>
       <c r="C390" t="n">
-        <v>-8.24</v>
+        <v>-2.63</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Nickeil Alexander-Walker</t>
+          <t>Nick Richards</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>-1.77</v>
+        <v>-0.55</v>
       </c>
       <c r="C391" t="n">
-        <v>-0.4</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Nicolas Batum</t>
+          <t>Nick Smith Jr.</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>-2.33</v>
+        <v>-7.45</v>
       </c>
       <c r="C392" t="n">
-        <v>-4.02</v>
+        <v>-8.220000000000001</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Nicolas Claxton</t>
+          <t>Nickeil Alexander-Walker</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>2.75</v>
+        <v>-1.79</v>
       </c>
       <c r="C393" t="n">
-        <v>-0.13</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Nikola Djurisic</t>
+          <t>Nicolas Batum</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>-6.61</v>
+        <v>-2.35</v>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>-4.07</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Nikola Jokic</t>
+          <t>Nicolas Claxton</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>16.9</v>
+        <v>2.72</v>
       </c>
       <c r="C395" t="n">
-        <v>18.53</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Nikola Jovic</t>
+          <t>Nikola Djurisic</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>-1.46</v>
+        <v>-6.64</v>
       </c>
       <c r="C396" t="n">
-        <v>-2.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Nikola Vucevic</t>
+          <t>Nikola Jokic</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>5.44</v>
+        <v>16.9</v>
       </c>
       <c r="C397" t="n">
-        <v>7.97</v>
+        <v>18.43</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Noah Clowney</t>
+          <t>Nikola Jovic</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>-0.57</v>
+        <v>-1.48</v>
       </c>
       <c r="C398" t="n">
-        <v>-4.37</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Norman Powell</t>
+          <t>Nikola Vucevic</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>2.18</v>
+        <v>5.41</v>
       </c>
       <c r="C399" t="n">
-        <v>4.42</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>OG Anunoby</t>
+          <t>Noah Clowney</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>2.61</v>
+        <v>-0.6</v>
       </c>
       <c r="C400" t="n">
-        <v>3.81</v>
+        <v>-4.4</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Obi Toppin</t>
+          <t>Norman Powell</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>-2.37</v>
+        <v>2.16</v>
       </c>
       <c r="C401" t="n">
-        <v>-0.93</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Ochai Agbaji</t>
+          <t>OG Anunoby</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>-5.52</v>
+        <v>2.6</v>
       </c>
       <c r="C402" t="n">
-        <v>2.51</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Olivier-Maxence Prosper</t>
+          <t>Obi Toppin</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>-8.970000000000001</v>
+        <v>-2.4</v>
       </c>
       <c r="C403" t="n">
-        <v>-8.07</v>
+        <v>-1.39</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Onyeka Okongwu</t>
+          <t>Ochai Agbaji</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>3.08</v>
+        <v>-5.56</v>
       </c>
       <c r="C404" t="n">
-        <v>1.2</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Orlando Robinson</t>
+          <t>Olivier-Maxence Prosper</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>-7.34</v>
+        <v>-9.01</v>
       </c>
       <c r="C405" t="n">
-        <v>-6.48</v>
+        <v>-8.06</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Oso Ighodaro</t>
+          <t>Onyeka Okongwu</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="C406" t="n">
-        <v>-3.53</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Ousmane Dieng</t>
+          <t>Orlando Robinson</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>-7.71</v>
+        <v>-7.37</v>
       </c>
       <c r="C407" t="n">
-        <v>-5.04</v>
+        <v>-6.43</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>P.J. Tucker</t>
+          <t>Oso Ighodaro</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>-8.59</v>
+        <v>0</v>
       </c>
       <c r="C408" t="n">
-        <v>0</v>
+        <v>-3.57</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>P.J. Washington</t>
+          <t>Ousmane Dieng</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0</v>
+        <v>-7.75</v>
       </c>
       <c r="C409" t="n">
-        <v>1.57</v>
+        <v>-5.35</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>PJ Dozier</t>
+          <t>P.J. Tucker</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>-8.34</v>
+        <v>-8.630000000000001</v>
       </c>
       <c r="C410" t="n">
-        <v>-7.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>PJ Hall</t>
+          <t>P.J. Washington</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>-8.98</v>
+        <v>-0.03</v>
       </c>
       <c r="C411" t="n">
-        <v>-8.66</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Pacome Dadiet</t>
+          <t>PJ Dozier</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>-8.6</v>
+        <v>-8.380000000000001</v>
       </c>
       <c r="C412" t="n">
-        <v>-5.91</v>
+        <v>-7.59</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Paolo Banchero</t>
+          <t>PJ Hall</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>2.84</v>
+        <v>-9.01</v>
       </c>
       <c r="C413" t="n">
-        <v>2.75</v>
+        <v>-8.640000000000001</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Pascal Siakam</t>
+          <t>Pacome Dadiet</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>2.99</v>
+        <v>-8.630000000000001</v>
       </c>
       <c r="C414" t="n">
-        <v>4.16</v>
+        <v>-5.93</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Pat Connaughton</t>
+          <t>Paolo Banchero</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>-4.32</v>
+        <v>2.82</v>
       </c>
       <c r="C415" t="n">
-        <v>-5.09</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Pat Spencer</t>
+          <t>Pascal Siakam</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="C416" t="n">
-        <v>-8.01</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Patrick Baldwin Jr.</t>
+          <t>Pat Connaughton</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>0</v>
+        <v>-4.35</v>
       </c>
       <c r="C417" t="n">
-        <v>-7.66</v>
+        <v>-5.09</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Patrick Williams</t>
+          <t>Pat Spencer</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="C418" t="n">
-        <v>-0.34</v>
+        <v>-7.99</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Patty Mills</t>
+          <t>Patrick Baldwin Jr.</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>-7.24</v>
+        <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>-4.92</v>
+        <v>-7.64</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Paul George</t>
+          <t>Patrick Williams</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>6.47</v>
+        <v>-0.23</v>
       </c>
       <c r="C420" t="n">
-        <v>4.54</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Paul Reed</t>
+          <t>Patty Mills</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>-3.14</v>
+        <v>-7.27</v>
       </c>
       <c r="C421" t="n">
-        <v>-4.06</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Payton Pritchard</t>
+          <t>Paul George</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0.17</v>
+        <v>6.45</v>
       </c>
       <c r="C422" t="n">
-        <v>2.49</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Pelle Larsson</t>
+          <t>Paul Reed</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>-7.42</v>
+        <v>-3.17</v>
       </c>
       <c r="C423" t="n">
-        <v>-5.75</v>
+        <v>-4.11</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Peyton Watson</t>
+          <t>Payton Pritchard</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>-2.64</v>
+        <v>0.15</v>
       </c>
       <c r="C424" t="n">
-        <v>-1.27</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Precious Achiuwa</t>
+          <t>Pelle Larsson</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>-4.57</v>
+        <v>-7.46</v>
       </c>
       <c r="C425" t="n">
-        <v>0</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Quentin Grimes</t>
+          <t>Peyton Watson</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>-5.61</v>
+        <v>-2.67</v>
       </c>
       <c r="C426" t="n">
-        <v>-4.31</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Quenton Jackson</t>
+          <t>Precious Achiuwa</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>0</v>
+        <v>-4.6</v>
       </c>
       <c r="C427" t="n">
-        <v>-3.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Quinten Post</t>
+          <t>Quentin Grimes</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>-8.56</v>
+        <v>-5.64</v>
       </c>
       <c r="C428" t="n">
-        <v>0</v>
+        <v>-4.3</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Quenton Jackson</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="C429" t="n">
-        <v>1.34</v>
+        <v>-1.74</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Rayan Rupert</t>
+          <t>Quinten Post</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>-5.06</v>
+        <v>-8.59</v>
       </c>
       <c r="C430" t="n">
-        <v>-5.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Reece Beekman</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="C431" t="n">
-        <v>-6.69</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Reed Sheppard</t>
+          <t>Rayan Rupert</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>-2.85</v>
+        <v>-5.09</v>
       </c>
       <c r="C432" t="n">
-        <v>-5.45</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Reggie Jackson</t>
+          <t>Reece Beekman</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>-6.02</v>
+        <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>-5.56</v>
+        <v>-6.67</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Richaun Holmes</t>
+          <t>Reed Sheppard</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>-5.7</v>
+        <v>-2.88</v>
       </c>
       <c r="C434" t="n">
-        <v>-7.72</v>
+        <v>-5.08</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Ricky Council IV</t>
+          <t>Reggie Jackson</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>-8.869999999999999</v>
+        <v>-6.05</v>
       </c>
       <c r="C435" t="n">
-        <v>-7.59</v>
+        <v>-4.86</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Riley Minix</t>
+          <t>Richaun Holmes</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0</v>
+        <v>-5.74</v>
       </c>
       <c r="C436" t="n">
-        <v>-8.65</v>
+        <v>-7.71</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Rob Dillingham</t>
+          <t>Ricky Council IV</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>-3.89</v>
+        <v>-8.91</v>
       </c>
       <c r="C437" t="n">
-        <v>-7.25</v>
+        <v>-7.34</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Robert Williams III</t>
+          <t>Riley Minix</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>-2.59</v>
+        <v>0</v>
       </c>
       <c r="C438" t="n">
-        <v>7.78</v>
+        <v>-8.640000000000001</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Ron Holland II</t>
+          <t>Rob Dillingham</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>-3.2</v>
+        <v>-3.92</v>
       </c>
       <c r="C439" t="n">
-        <v>-5.11</v>
+        <v>-7.23</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Royce O'Neale</t>
+          <t>Robert Williams III</t>
         </is>
       </c>
       <c r="B440" t="n">
         <v>-2.62</v>
       </c>
       <c r="C440" t="n">
-        <v>0.59</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
+          <t>Ron Holland II</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>3.86</v>
+        <v>-3.23</v>
       </c>
       <c r="C441" t="n">
-        <v>3.84</v>
+        <v>-5.11</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Rui Hachimura</t>
+          <t>Royce O'Neale</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>-0.1</v>
+        <v>-2.64</v>
       </c>
       <c r="C442" t="n">
-        <v>-0.01</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
+          <t>Rudy Gobert</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>-2.55</v>
+        <v>3.83</v>
       </c>
       <c r="C443" t="n">
-        <v>-0.63</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Ryan Dunn</t>
+          <t>Rui Hachimura</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>-3.7</v>
+        <v>-0.13</v>
       </c>
       <c r="C444" t="n">
-        <v>-4.46</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Ryan Rollins</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>-8.15</v>
+        <v>-2.57</v>
       </c>
       <c r="C445" t="n">
-        <v>-4.38</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Saddiq Bey</t>
+          <t>Ryan Dunn</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>-4.07</v>
+        <v>-3.73</v>
       </c>
       <c r="C446" t="n">
-        <v>0</v>
+        <v>-4.47</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Sam Hauser</t>
+          <t>Ryan Rollins</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>-2.1</v>
+        <v>-8.19</v>
       </c>
       <c r="C447" t="n">
-        <v>-3.08</v>
+        <v>-4.39</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Sam Merrill</t>
+          <t>Saddiq Bey</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>-5.65</v>
+        <v>-4.1</v>
       </c>
       <c r="C448" t="n">
-        <v>-3.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Sandro Mamukelashvili</t>
+          <t>Sam Hauser</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>-8.94</v>
+        <v>-2.12</v>
       </c>
       <c r="C449" t="n">
-        <v>-4.01</v>
+        <v>-3.09</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Santi Aldama</t>
+          <t>Sam Merrill</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>-2.45</v>
+        <v>-5.68</v>
       </c>
       <c r="C450" t="n">
-        <v>2.07</v>
+        <v>-3.02</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Scoot Henderson</t>
+          <t>Sandro Mamukelashvili</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>-0.17</v>
+        <v>-8.970000000000001</v>
       </c>
       <c r="C451" t="n">
-        <v>-1.05</v>
+        <v>-4.05</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Scottie Barnes</t>
+          <t>Santi Aldama</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>7.98</v>
+        <v>-2.48</v>
       </c>
       <c r="C452" t="n">
-        <v>4.33</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Scotty Pippen Jr.</t>
+          <t>Scoot Henderson</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>-0.11</v>
+        <v>-0.19</v>
       </c>
       <c r="C453" t="n">
-        <v>1.96</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Seth Curry</t>
+          <t>Scottie Barnes</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>-5.18</v>
+        <v>7.97</v>
       </c>
       <c r="C454" t="n">
-        <v>-5.52</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Shaedon Sharpe</t>
+          <t>Scotty Pippen Jr.</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>-1.84</v>
+        <v>-0.13</v>
       </c>
       <c r="C455" t="n">
-        <v>-1.44</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Seth Curry</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>14.17</v>
+        <v>-5.21</v>
       </c>
       <c r="C456" t="n">
-        <v>11.93</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Shake Milton</t>
+          <t>Shaedon Sharpe</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>-6.24</v>
+        <v>-1.87</v>
       </c>
       <c r="C457" t="n">
-        <v>-6.57</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Sidy Cissoko</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>-9.07</v>
+        <v>14.17</v>
       </c>
       <c r="C458" t="n">
-        <v>-8.56</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Simone Fontecchio</t>
+          <t>Shake Milton</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>-6.11</v>
+        <v>-6.27</v>
       </c>
       <c r="C459" t="n">
-        <v>-4.89</v>
+        <v>-6.55</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Spencer Dinwiddie</t>
+          <t>Sidy Cissoko</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>-4.24</v>
+        <v>-9.1</v>
       </c>
       <c r="C460" t="n">
-        <v>-5.75</v>
+        <v>-8.529999999999999</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Spencer Jones</t>
+          <t>Simone Fontecchio</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>0</v>
+        <v>-6.14</v>
       </c>
       <c r="C461" t="n">
-        <v>-6.34</v>
+        <v>-4.89</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Stanley Umude</t>
+          <t>Spencer Dinwiddie</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>0</v>
+        <v>-4.27</v>
       </c>
       <c r="C462" t="n">
-        <v>-9.23</v>
+        <v>-5.75</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Spencer Jones</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>9.470000000000001</v>
+        <v>0</v>
       </c>
       <c r="C463" t="n">
-        <v>10.9</v>
+        <v>-6.32</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Stephon Castle</t>
+          <t>Stanley Umude</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="C464" t="n">
-        <v>-3.31</v>
+        <v>-8.76</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Steven Adams</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>-3.52</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="C465" t="n">
-        <v>-7.09</v>
+        <v>10.86</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Svi Mykhailiuk</t>
+          <t>Stephon Castle</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>-5.13</v>
+        <v>-4.03</v>
       </c>
       <c r="C466" t="n">
-        <v>-6.23</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>T.J. McConnell</t>
+          <t>Steven Adams</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-3.55</v>
       </c>
       <c r="C467" t="n">
-        <v>-0.78</v>
+        <v>-7.04</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Taj Gibson</t>
+          <t>Svi Mykhailiuk</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>-9.23</v>
+        <v>-5.15</v>
       </c>
       <c r="C468" t="n">
-        <v>-4.62</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Talen Horton-Tucker</t>
+          <t>T.J. McConnell</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>0</v>
+        <v>-0.71</v>
       </c>
       <c r="C469" t="n">
-        <v>-6.54</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Tari Eason</t>
+          <t>Taj Gibson</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>1.01</v>
+        <v>-9.27</v>
       </c>
       <c r="C470" t="n">
-        <v>3.46</v>
+        <v>-4.66</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Taurean Prince</t>
+          <t>Talen Horton-Tucker</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>-2.51</v>
+        <v>0</v>
       </c>
       <c r="C471" t="n">
-        <v>0.11</v>
+        <v>-6.64</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Taylor Hendricks</t>
+          <t>Tari Eason</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0.57</v>
+        <v>0.99</v>
       </c>
       <c r="C472" t="n">
-        <v>-0.82</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Terance Mann</t>
+          <t>Taurean Prince</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>-3.91</v>
+        <v>-2.53</v>
       </c>
       <c r="C473" t="n">
-        <v>-3.81</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Terrence Shannon Jr.</t>
+          <t>Taylor Hendricks</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>-7.97</v>
+        <v>0.55</v>
       </c>
       <c r="C474" t="n">
-        <v>-6.43</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Terry Rozier</t>
+          <t>Terance Mann</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>-0.26</v>
+        <v>-3.94</v>
       </c>
       <c r="C475" t="n">
-        <v>0.12</v>
+        <v>-3.82</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Thomas Bryant</t>
+          <t>Terrence Shannon Jr.</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>-5.39</v>
+        <v>-8.01</v>
       </c>
       <c r="C476" t="n">
-        <v>-3.57</v>
+        <v>-6.44</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Tidjane Salaun</t>
+          <t>Terry Rozier</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>-6.3</v>
+        <v>-0.28</v>
       </c>
       <c r="C477" t="n">
-        <v>-6.13</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Tim Hardaway Jr.</t>
+          <t>Thomas Bryant</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>-5.42</v>
+        <v>-5.43</v>
       </c>
       <c r="C478" t="n">
-        <v>-1.82</v>
+        <v>-3.65</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Tidjane Salaun</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>2.94</v>
+        <v>-6.33</v>
       </c>
       <c r="C479" t="n">
-        <v>1.81</v>
+        <v>-6.14</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Torrey Craig</t>
+          <t>Tim Hardaway Jr.</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>-4.21</v>
+        <v>-5.45</v>
       </c>
       <c r="C480" t="n">
-        <v>-7.89</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Toumani Camara</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>-2.36</v>
+        <v>2.91</v>
       </c>
       <c r="C481" t="n">
-        <v>0.61</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Torrey Craig</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>9.77</v>
+        <v>-4.24</v>
       </c>
       <c r="C482" t="n">
-        <v>8.050000000000001</v>
+        <v>-4.22</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Trayce Jackson-Davis</t>
+          <t>Toumani Camara</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>2.21</v>
+        <v>-2.39</v>
       </c>
       <c r="C483" t="n">
-        <v>-2.48</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Tre Jones</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>-0.5600000000000001</v>
+        <v>9.77</v>
       </c>
       <c r="C484" t="n">
-        <v>-6.55</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Tre Mann</t>
+          <t>Trayce Jackson-Davis</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>-2.06</v>
+        <v>2.18</v>
       </c>
       <c r="C485" t="n">
-        <v>0.57</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Trendon Watford</t>
+          <t>Tre Jones</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>-6.75</v>
+        <v>-0.58</v>
       </c>
       <c r="C486" t="n">
-        <v>-1.47</v>
+        <v>-6.52</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Trevelin Queen</t>
+          <t>Tre Mann</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>0</v>
+        <v>-2.09</v>
       </c>
       <c r="C487" t="n">
-        <v>-8.27</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Trey Alexander</t>
+          <t>Trendon Watford</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>0</v>
+        <v>-6.79</v>
       </c>
       <c r="C488" t="n">
-        <v>-9.050000000000001</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Trey Jemison</t>
+          <t>Trevelin Queen</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>-5.26</v>
+        <v>0</v>
       </c>
       <c r="C489" t="n">
-        <v>-4.92</v>
+        <v>-8.25</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Trey Lyles</t>
+          <t>Trey Alexander</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>-3.87</v>
+        <v>0</v>
       </c>
       <c r="C490" t="n">
-        <v>-2.87</v>
+        <v>-9.029999999999999</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Trey Murphy III</t>
+          <t>Trey Jemison</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>2.33</v>
+        <v>-5.29</v>
       </c>
       <c r="C491" t="n">
-        <v>1.54</v>
+        <v>-5.43</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Tristan Da Silva</t>
+          <t>Trey Lyles</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>-6.12</v>
+        <v>-3.9</v>
       </c>
       <c r="C492" t="n">
-        <v>-4.05</v>
+        <v>-2.92</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Tristan Thompson</t>
+          <t>Trey Murphy III</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="C493" t="n">
-        <v>-9.390000000000001</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Tristan Vukcevic</t>
+          <t>Tristan Da Silva</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>-7.1</v>
+        <v>-6.16</v>
       </c>
       <c r="C494" t="n">
-        <v>0</v>
+        <v>-4.07</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Tristen Newton</t>
+          <t>Tristan Thompson</t>
         </is>
       </c>
       <c r="B495" t="n">
         <v>0</v>
       </c>
       <c r="C495" t="n">
-        <v>-9.41</v>
+        <v>-8.01</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Ty Jerome</t>
+          <t>Tristan Vukcevic</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>-1.8</v>
+        <v>-7.14</v>
       </c>
       <c r="C496" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>TyTy Washington Jr.</t>
+          <t>Tristen Newton</t>
         </is>
       </c>
       <c r="B497" t="n">
         <v>0</v>
       </c>
       <c r="C497" t="n">
-        <v>-5.3</v>
+        <v>-9.390000000000001</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Tyler Herro</t>
+          <t>Ty Jerome</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>2.94</v>
+        <v>-1.82</v>
       </c>
       <c r="C498" t="n">
-        <v>7</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Tyler Kolek</t>
+          <t>TyTy Washington Jr.</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>-8.25</v>
+        <v>0</v>
       </c>
       <c r="C499" t="n">
-        <v>-5.66</v>
+        <v>-5.27</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Tyler Smith</t>
+          <t>Tyler Herro</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>-6.45</v>
+        <v>2.92</v>
       </c>
       <c r="C500" t="n">
-        <v>-6.75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Tyler Kolek</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>8.58</v>
+        <v>-8.279999999999999</v>
       </c>
       <c r="C501" t="n">
-        <v>4.01</v>
+        <v>-5.65</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Tyrese Martin</t>
+          <t>Tyler Smith</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>0</v>
+        <v>-6.48</v>
       </c>
       <c r="C502" t="n">
-        <v>-7.51</v>
+        <v>-6.76</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Tyrese Maxey</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>5.51</v>
+        <v>7.05</v>
       </c>
       <c r="C503" t="n">
-        <v>4.41</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Tyus Jones</t>
+          <t>Tyrese Martin</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="C504" t="n">
-        <v>0.83</v>
+        <v>-7.49</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Ulrich Chomche</t>
+          <t>Tyrese Maxey</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="C505" t="n">
-        <v>-7.16</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Vasilije Micic</t>
+          <t>Tyus Jones</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>-5.52</v>
+        <v>1.55</v>
       </c>
       <c r="C506" t="n">
-        <v>-7.62</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Ulrich Chomche</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>15.38</v>
+        <v>0</v>
       </c>
       <c r="C507" t="n">
-        <v>14.46</v>
+        <v>-7.15</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Vince Williams Jr.</t>
+          <t>Vasilije Micic</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>-0.98</v>
+        <v>-5.55</v>
       </c>
       <c r="C508" t="n">
-        <v>-6.22</v>
+        <v>-7.59</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Vlatko Cancar</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>-7.55</v>
+        <v>15.36</v>
       </c>
       <c r="C509" t="n">
-        <v>-6.41</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Vít Krejcí</t>
+          <t>Vince Williams Jr.</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>-8.17</v>
+        <v>-1</v>
       </c>
       <c r="C510" t="n">
-        <v>-4.52</v>
+        <v>-6.29</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Walker Kessler</t>
+          <t>Vlatko Cancar</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>2.38</v>
+        <v>-7.59</v>
       </c>
       <c r="C511" t="n">
-        <v>3.87</v>
+        <v>-6.43</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Wendell Carter Jr.</t>
+          <t>Vít Krejcí</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>0.05</v>
+        <v>-8.210000000000001</v>
       </c>
       <c r="C512" t="n">
-        <v>0.15</v>
+        <v>-4.52</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Wendell Moore Jr.</t>
+          <t>Walker Kessler</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="C513" t="n">
-        <v>-4.43</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Xavier Tillman Sr.</t>
+          <t>Wendell Carter Jr.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>-3.32</v>
+        <v>0.02</v>
       </c>
       <c r="C514" t="n">
-        <v>-7.28</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Yongxi Cui</t>
+          <t>Wendell Moore Jr.</t>
         </is>
       </c>
       <c r="B515" t="n">
         <v>0</v>
       </c>
       <c r="C515" t="n">
-        <v>-9.56</v>
+        <v>-4.43</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Yuki Kawamura</t>
+          <t>Xavier Tillman Sr.</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>0</v>
+        <v>-3.35</v>
       </c>
       <c r="C516" t="n">
-        <v>-8.609999999999999</v>
+        <v>-7.26</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Yves Missi</t>
+          <t>Yongxi Cui</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>-4.01</v>
+        <v>0</v>
       </c>
       <c r="C517" t="n">
-        <v>-1.08</v>
+        <v>-9.529999999999999</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Zaccharie Risacher</t>
+          <t>Yuki Kawamura</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>-2.24</v>
+        <v>0</v>
       </c>
       <c r="C518" t="n">
-        <v>-2.65</v>
+        <v>-8.59</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Zach Collins</t>
+          <t>Yves Missi</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>-2.7</v>
+        <v>-4.04</v>
       </c>
       <c r="C519" t="n">
-        <v>-1.05</v>
+        <v>-1.12</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Zach Edey</t>
+          <t>Zaccharie Risacher</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>-1.52</v>
+        <v>-2.27</v>
       </c>
       <c r="C520" t="n">
-        <v>0.89</v>
+        <v>-2.69</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
+          <t>Zach Collins</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>3.58</v>
+        <v>-2.73</v>
       </c>
       <c r="C521" t="n">
-        <v>5.06</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Zeke Nnaji</t>
+          <t>Zach Edey</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>-6.73</v>
+        <v>-1.56</v>
       </c>
       <c r="C522" t="n">
-        <v>-8.199999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Ziaire Williams</t>
+          <t>Zach LaVine</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>-4.51</v>
+        <v>3.56</v>
       </c>
       <c r="C523" t="n">
-        <v>-1.56</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
+          <t>Zeke Nnaji</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>-6.77</v>
+      </c>
+      <c r="C524" t="n">
+        <v>-8.18</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Ziaire Williams</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>-4.54</v>
+      </c>
+      <c r="C525" t="n">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
           <t>Zion Williamson</t>
         </is>
       </c>
-      <c r="B524" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="C524" t="n">
-        <v>1.92</v>
+      <c r="B526" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C526" t="n">
+        <v>1.82</v>
       </c>
     </row>
   </sheetData>

--- a/data/merged_scores.xlsx
+++ b/data/merged_scores.xlsx
@@ -473,7 +473,7 @@
         <v>-4.23</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.4</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-8.470000000000001</v>
+        <v>-8.57</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>1.1</v>
       </c>
       <c r="C6" t="n">
-        <v>3.07</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>-7.17</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.92</v>
+        <v>-6.01</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>-1.76</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.34</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>-4.5</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.38</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.58</v>
+        <v>-7.67</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         <v>-9.17</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.61</v>
+        <v>-7.7</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         <v>-6.84</v>
       </c>
       <c r="C12" t="n">
-        <v>-6.97</v>
+        <v>-7.06</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         <v>-9</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.52</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="14">
@@ -616,7 +616,7 @@
         <v>1.13</v>
       </c>
       <c r="C14" t="n">
-        <v>2.6</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +629,7 @@
         <v>-4.39</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.62</v>
+        <v>-2.71</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>0.88</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.56</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9.289999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         <v>-6.51</v>
       </c>
       <c r="C18" t="n">
-        <v>-4.78</v>
+        <v>-4.87</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-7.15</v>
+        <v>-7.24</v>
       </c>
     </row>
     <row r="20">
@@ -694,7 +694,7 @@
         <v>0.04</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         <v>3.33</v>
       </c>
       <c r="C21" t="n">
-        <v>5.66</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +720,7 @@
         <v>0.6</v>
       </c>
       <c r="C22" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="23">
@@ -733,7 +733,7 @@
         <v>-5.58</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.39</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="24">
@@ -746,7 +746,7 @@
         <v>-0.59</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.61</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="25">
@@ -759,7 +759,7 @@
         <v>-6.45</v>
       </c>
       <c r="C25" t="n">
-        <v>-4.71</v>
+        <v>-4.78</v>
       </c>
     </row>
     <row r="26">
@@ -772,7 +772,7 @@
         <v>-1.34</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.24</v>
+        <v>-3.33</v>
       </c>
     </row>
     <row r="27">
@@ -785,7 +785,7 @@
         <v>-1.23</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.34</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="28">
@@ -798,7 +798,7 @@
         <v>2.79</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.22</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="29">
@@ -811,7 +811,7 @@
         <v>-3.55</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.44</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="30">
@@ -824,7 +824,7 @@
         <v>13.81</v>
       </c>
       <c r="C30" t="n">
-        <v>11.49</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="31">
@@ -837,7 +837,7 @@
         <v>6.99</v>
       </c>
       <c r="C31" t="n">
-        <v>6.86</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="32">
@@ -850,7 +850,7 @@
         <v>-8.23</v>
       </c>
       <c r="C32" t="n">
-        <v>-7.81</v>
+        <v>-7.89</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>-5.41</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="34">
@@ -876,7 +876,7 @@
         <v>-7.69</v>
       </c>
       <c r="C34" t="n">
-        <v>-5.53</v>
+        <v>-5.62</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-9.01</v>
+        <v>-9.109999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -915,7 +915,7 @@
         <v>4.27</v>
       </c>
       <c r="C37" t="n">
-        <v>3.38</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="38">
@@ -928,7 +928,7 @@
         <v>-2.05</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.93</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         <v>3.3</v>
       </c>
       <c r="C39" t="n">
-        <v>3.62</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +954,7 @@
         <v>-7.38</v>
       </c>
       <c r="C40" t="n">
-        <v>-8.42</v>
+        <v>-8.52</v>
       </c>
     </row>
     <row r="41">
@@ -967,7 +967,7 @@
         <v>-6.12</v>
       </c>
       <c r="C41" t="n">
-        <v>-3.87</v>
+        <v>-3.96</v>
       </c>
     </row>
     <row r="42">
@@ -980,7 +980,7 @@
         <v>-0.48</v>
       </c>
       <c r="C42" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="43">
@@ -993,7 +993,7 @@
         <v>-0.44</v>
       </c>
       <c r="C43" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="44">
@@ -1006,7 +1006,7 @@
         <v>0.9</v>
       </c>
       <c r="C44" t="n">
-        <v>3.04</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="45">
@@ -1019,7 +1019,7 @@
         <v>-7.93</v>
       </c>
       <c r="C45" t="n">
-        <v>-5.94</v>
+        <v>-6.37</v>
       </c>
     </row>
     <row r="46">
@@ -1032,7 +1032,7 @@
         <v>0.16</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.89</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="47">
@@ -1058,7 +1058,7 @@
         <v>0.78</v>
       </c>
       <c r="C48" t="n">
-        <v>-2.33</v>
+        <v>-3.44</v>
       </c>
     </row>
     <row r="49">
@@ -1084,7 +1084,7 @@
         <v>-5.46</v>
       </c>
       <c r="C50" t="n">
-        <v>-8.23</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="51">
@@ -1097,7 +1097,7 @@
         <v>-3.46</v>
       </c>
       <c r="C51" t="n">
-        <v>-4.85</v>
+        <v>-4.95</v>
       </c>
     </row>
     <row r="52">
@@ -1123,7 +1123,7 @@
         <v>3.59</v>
       </c>
       <c r="C53" t="n">
-        <v>4.71</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="54">
@@ -1136,7 +1136,7 @@
         <v>-1.1</v>
       </c>
       <c r="C54" t="n">
-        <v>-2.9</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="55">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.77</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="57">
@@ -1175,7 +1175,7 @@
         <v>-2.49</v>
       </c>
       <c r="C57" t="n">
-        <v>-3.91</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="58">
@@ -1188,7 +1188,7 @@
         <v>2.78</v>
       </c>
       <c r="C58" t="n">
-        <v>5.41</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="59">
@@ -1201,7 +1201,7 @@
         <v>1.8</v>
       </c>
       <c r="C59" t="n">
-        <v>3.52</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="60">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>-8.92</v>
+        <v>-9.01</v>
       </c>
     </row>
     <row r="61">
@@ -1227,7 +1227,7 @@
         <v>-3.44</v>
       </c>
       <c r="C61" t="n">
-        <v>-5.32</v>
+        <v>-4.4</v>
       </c>
     </row>
     <row r="62">
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>-8.15</v>
+        <v>-8.24</v>
       </c>
     </row>
     <row r="64">
@@ -1266,7 +1266,7 @@
         <v>1.5</v>
       </c>
       <c r="C64" t="n">
-        <v>4.76</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="65">
@@ -1292,7 +1292,7 @@
         <v>-4.77</v>
       </c>
       <c r="C66" t="n">
-        <v>-4.76</v>
+        <v>-4.85</v>
       </c>
     </row>
     <row r="67">
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="69">
@@ -1344,7 +1344,7 @@
         <v>2.27</v>
       </c>
       <c r="C70" t="n">
-        <v>2.82</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="71">
@@ -1357,7 +1357,7 @@
         <v>1.99</v>
       </c>
       <c r="C71" t="n">
-        <v>5.88</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="72">
@@ -1370,7 +1370,7 @@
         <v>6.98</v>
       </c>
       <c r="C72" t="n">
-        <v>7.34</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="73">
@@ -1383,7 +1383,7 @@
         <v>-7.71</v>
       </c>
       <c r="C73" t="n">
-        <v>-8.34</v>
+        <v>-8.449999999999999</v>
       </c>
     </row>
     <row r="74">
@@ -1396,7 +1396,7 @@
         <v>-1.08</v>
       </c>
       <c r="C74" t="n">
-        <v>-1.31</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="75">
@@ -1422,7 +1422,7 @@
         <v>-5.58</v>
       </c>
       <c r="C76" t="n">
-        <v>-2.99</v>
+        <v>-3.05</v>
       </c>
     </row>
     <row r="77">
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>-5.99</v>
+        <v>-6.08</v>
       </c>
     </row>
     <row r="78">
@@ -1448,7 +1448,7 @@
         <v>2.01</v>
       </c>
       <c r="C78" t="n">
-        <v>4.02</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="79">
@@ -1461,7 +1461,7 @@
         <v>-7.49</v>
       </c>
       <c r="C79" t="n">
-        <v>-8.51</v>
+        <v>-8.59</v>
       </c>
     </row>
     <row r="80">
@@ -1474,7 +1474,7 @@
         <v>0.76</v>
       </c>
       <c r="C80" t="n">
-        <v>4.19</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="81">
@@ -1487,7 +1487,7 @@
         <v>-5.42</v>
       </c>
       <c r="C81" t="n">
-        <v>-2.45</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="82">
@@ -1500,7 +1500,7 @@
         <v>-1.36</v>
       </c>
       <c r="C82" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="83">
@@ -1526,7 +1526,7 @@
         <v>-2.3</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.99</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="85">
@@ -1539,7 +1539,7 @@
         <v>-5.63</v>
       </c>
       <c r="C85" t="n">
-        <v>-4.45</v>
+        <v>-3.02</v>
       </c>
     </row>
     <row r="86">
@@ -1552,7 +1552,7 @@
         <v>6.06</v>
       </c>
       <c r="C86" t="n">
-        <v>6.68</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="87">
@@ -1565,7 +1565,7 @@
         <v>-5.1</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.11</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="88">
@@ -1578,7 +1578,7 @@
         <v>-6.54</v>
       </c>
       <c r="C88" t="n">
-        <v>-7.22</v>
+        <v>-7.31</v>
       </c>
     </row>
     <row r="89">
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>-9.390000000000001</v>
+        <v>-9.48</v>
       </c>
     </row>
     <row r="90">
@@ -1604,7 +1604,7 @@
         <v>0.96</v>
       </c>
       <c r="C90" t="n">
-        <v>4.19</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="91">
@@ -1617,7 +1617,7 @@
         <v>-0.96</v>
       </c>
       <c r="C91" t="n">
-        <v>3.82</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="92">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>-5.35</v>
+        <v>-5.44</v>
       </c>
     </row>
     <row r="93">
@@ -1669,7 +1669,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.7</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="96">
@@ -1682,7 +1682,7 @@
         <v>2.32</v>
       </c>
       <c r="C96" t="n">
-        <v>5.13</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="97">
@@ -1695,7 +1695,7 @@
         <v>-4.24</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.92</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="98">
@@ -1708,7 +1708,7 @@
         <v>-6.88</v>
       </c>
       <c r="C98" t="n">
-        <v>-6.16</v>
+        <v>-6.41</v>
       </c>
     </row>
     <row r="99">
@@ -1734,7 +1734,7 @@
         <v>-9.17</v>
       </c>
       <c r="C100" t="n">
-        <v>-7.86</v>
+        <v>-7.95</v>
       </c>
     </row>
     <row r="101">
@@ -1747,7 +1747,7 @@
         <v>-3.51</v>
       </c>
       <c r="C101" t="n">
-        <v>-6.04</v>
+        <v>-6.25</v>
       </c>
     </row>
     <row r="102">
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>-7.45</v>
+        <v>-7.55</v>
       </c>
     </row>
     <row r="103">
@@ -1773,7 +1773,7 @@
         <v>-9.08</v>
       </c>
       <c r="C103" t="n">
-        <v>-7.12</v>
+        <v>-7.21</v>
       </c>
     </row>
     <row r="104">
@@ -1786,7 +1786,7 @@
         <v>1.48</v>
       </c>
       <c r="C104" t="n">
-        <v>0.96</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="105">
@@ -1799,7 +1799,7 @@
         <v>-2.72</v>
       </c>
       <c r="C105" t="n">
-        <v>-2.02</v>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="106">
@@ -1812,7 +1812,7 @@
         <v>-7.44</v>
       </c>
       <c r="C106" t="n">
-        <v>-7.22</v>
+        <v>-7.32</v>
       </c>
     </row>
     <row r="107">
@@ -1825,7 +1825,7 @@
         <v>-5.7</v>
       </c>
       <c r="C107" t="n">
-        <v>-4.51</v>
+        <v>-4.6</v>
       </c>
     </row>
     <row r="108">
@@ -1838,7 +1838,7 @@
         <v>-0.21</v>
       </c>
       <c r="C108" t="n">
-        <v>0.03</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="109">
@@ -1851,7 +1851,7 @@
         <v>-9.26</v>
       </c>
       <c r="C109" t="n">
-        <v>-7.49</v>
+        <v>-7.58</v>
       </c>
     </row>
     <row r="110">
@@ -1890,7 +1890,7 @@
         <v>-7.1</v>
       </c>
       <c r="C112" t="n">
-        <v>-1.38</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="113">
@@ -1903,7 +1903,7 @@
         <v>-8.130000000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>-4.73</v>
+        <v>-4.81</v>
       </c>
     </row>
     <row r="114">
@@ -1916,7 +1916,7 @@
         <v>0.51</v>
       </c>
       <c r="C114" t="n">
-        <v>-1.17</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="115">
@@ -1929,7 +1929,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>7.27</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="116">
@@ -1942,7 +1942,7 @@
         <v>-4.88</v>
       </c>
       <c r="C116" t="n">
-        <v>-5.54</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="117">
@@ -1955,7 +1955,7 @@
         <v>1.92</v>
       </c>
       <c r="C117" t="n">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="118">
@@ -1968,7 +1968,7 @@
         <v>-3.41</v>
       </c>
       <c r="C118" t="n">
-        <v>-4.35</v>
+        <v>-4.44</v>
       </c>
     </row>
     <row r="119">
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>-9.390000000000001</v>
+        <v>-9.48</v>
       </c>
     </row>
     <row r="120">
@@ -2007,7 +2007,7 @@
         <v>-4.8</v>
       </c>
       <c r="C121" t="n">
-        <v>-4.88</v>
+        <v>-4.97</v>
       </c>
     </row>
     <row r="122">
@@ -2020,7 +2020,7 @@
         <v>-8.970000000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>-8.27</v>
+        <v>-8.359999999999999</v>
       </c>
     </row>
     <row r="123">
@@ -2033,7 +2033,7 @@
         <v>3.77</v>
       </c>
       <c r="C123" t="n">
-        <v>6.59</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="124">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>-10.59</v>
+        <v>-10.66</v>
       </c>
     </row>
     <row r="125">
@@ -2072,7 +2072,7 @@
         <v>-8.27</v>
       </c>
       <c r="C126" t="n">
-        <v>-2.29</v>
+        <v>-2.68</v>
       </c>
     </row>
     <row r="127">
@@ -2085,7 +2085,7 @@
         <v>-4.75</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.7</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="128">
@@ -2111,7 +2111,7 @@
         <v>5.21</v>
       </c>
       <c r="C129" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="130">
@@ -2124,7 +2124,7 @@
         <v>-0.28</v>
       </c>
       <c r="C130" t="n">
-        <v>3.66</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="131">
@@ -2137,7 +2137,7 @@
         <v>0.35</v>
       </c>
       <c r="C131" t="n">
-        <v>-1.04</v>
+        <v>-1.12</v>
       </c>
     </row>
     <row r="132">
@@ -2150,7 +2150,7 @@
         <v>-7.39</v>
       </c>
       <c r="C132" t="n">
-        <v>-6.03</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="133">
@@ -2163,7 +2163,7 @@
         <v>4.47</v>
       </c>
       <c r="C133" t="n">
-        <v>6.78</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="134">
@@ -2176,7 +2176,7 @@
         <v>-4.6</v>
       </c>
       <c r="C134" t="n">
-        <v>-3.15</v>
+        <v>-3.22</v>
       </c>
     </row>
     <row r="135">
@@ -2189,7 +2189,7 @@
         <v>2.58</v>
       </c>
       <c r="C135" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="136">
@@ -2202,7 +2202,7 @@
         <v>3.85</v>
       </c>
       <c r="C136" t="n">
-        <v>3.17</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="137">
@@ -2215,7 +2215,7 @@
         <v>-3.03</v>
       </c>
       <c r="C137" t="n">
-        <v>-4.78</v>
+        <v>-4.86</v>
       </c>
     </row>
     <row r="138">
@@ -2228,7 +2228,7 @@
         <v>-0.68</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.35</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="139">
@@ -2241,7 +2241,7 @@
         <v>1.62</v>
       </c>
       <c r="C139" t="n">
-        <v>3.77</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="140">
@@ -2254,7 +2254,7 @@
         <v>2.27</v>
       </c>
       <c r="C140" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="141">
@@ -2267,7 +2267,7 @@
         <v>-2.49</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.75</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="142">
@@ -2293,7 +2293,7 @@
         <v>4.93</v>
       </c>
       <c r="C143" t="n">
-        <v>6.17</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="144">
@@ -2306,7 +2306,7 @@
         <v>5</v>
       </c>
       <c r="C144" t="n">
-        <v>3.23</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="145">
@@ -2319,7 +2319,7 @@
         <v>8.06</v>
       </c>
       <c r="C145" t="n">
-        <v>6.36</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="146">
@@ -2345,7 +2345,7 @@
         <v>2.52</v>
       </c>
       <c r="C147" t="n">
-        <v>2.11</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="148">
@@ -2371,7 +2371,7 @@
         <v>-2.53</v>
       </c>
       <c r="C149" t="n">
-        <v>-2.34</v>
+        <v>-2.43</v>
       </c>
     </row>
     <row r="150">
@@ -2384,7 +2384,7 @@
         <v>-8.880000000000001</v>
       </c>
       <c r="C150" t="n">
-        <v>-7.27</v>
+        <v>-7.36</v>
       </c>
     </row>
     <row r="151">
@@ -2397,7 +2397,7 @@
         <v>7.79</v>
       </c>
       <c r="C151" t="n">
-        <v>9.609999999999999</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="152">
@@ -2410,7 +2410,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="C152" t="n">
-        <v>-9.93</v>
+        <v>-10.01</v>
       </c>
     </row>
     <row r="153">
@@ -2423,7 +2423,7 @@
         <v>-1.19</v>
       </c>
       <c r="C153" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="154">
@@ -2436,7 +2436,7 @@
         <v>8</v>
       </c>
       <c r="C154" t="n">
-        <v>5.69</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="155">
@@ -2449,7 +2449,7 @@
         <v>1.02</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.77</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="156">
@@ -2462,7 +2462,7 @@
         <v>-3.06</v>
       </c>
       <c r="C156" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="157">
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>-7.07</v>
+        <v>-7.16</v>
       </c>
     </row>
     <row r="158">
@@ -2488,7 +2488,7 @@
         <v>2.34</v>
       </c>
       <c r="C158" t="n">
-        <v>2.59</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="159">
@@ -2501,7 +2501,7 @@
         <v>-4.3</v>
       </c>
       <c r="C159" t="n">
-        <v>-4.27</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="160">
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>-6.62</v>
+        <v>-6.71</v>
       </c>
     </row>
     <row r="161">
@@ -2527,7 +2527,7 @@
         <v>-6.88</v>
       </c>
       <c r="C161" t="n">
-        <v>-3.62</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="162">
@@ -2540,7 +2540,7 @@
         <v>-3.63</v>
       </c>
       <c r="C162" t="n">
-        <v>-2.3</v>
+        <v>-2.39</v>
       </c>
     </row>
     <row r="163">
@@ -2553,7 +2553,7 @@
         <v>-5.07</v>
       </c>
       <c r="C163" t="n">
-        <v>-8.32</v>
+        <v>-8.42</v>
       </c>
     </row>
     <row r="164">
@@ -2566,7 +2566,7 @@
         <v>-6.11</v>
       </c>
       <c r="C164" t="n">
-        <v>-5.49</v>
+        <v>-5.57</v>
       </c>
     </row>
     <row r="165">
@@ -2579,7 +2579,7 @@
         <v>3.34</v>
       </c>
       <c r="C165" t="n">
-        <v>5.86</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="166">
@@ -2592,7 +2592,7 @@
         <v>-8.56</v>
       </c>
       <c r="C166" t="n">
-        <v>-8.640000000000001</v>
+        <v>-8.73</v>
       </c>
     </row>
     <row r="167">
@@ -2618,7 +2618,7 @@
         <v>-7.05</v>
       </c>
       <c r="C168" t="n">
-        <v>-6.58</v>
+        <v>-6.67</v>
       </c>
     </row>
     <row r="169">
@@ -2631,7 +2631,7 @@
         <v>-1.93</v>
       </c>
       <c r="C169" t="n">
-        <v>-5.76</v>
+        <v>-5.85</v>
       </c>
     </row>
     <row r="170">
@@ -2644,7 +2644,7 @@
         <v>4.91</v>
       </c>
       <c r="C170" t="n">
-        <v>6.7</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="171">
@@ -2657,7 +2657,7 @@
         <v>5.87</v>
       </c>
       <c r="C171" t="n">
-        <v>5.66</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="172">
@@ -2670,7 +2670,7 @@
         <v>3.25</v>
       </c>
       <c r="C172" t="n">
-        <v>3.67</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="173">
@@ -2696,7 +2696,7 @@
         <v>-4.1</v>
       </c>
       <c r="C174" t="n">
-        <v>-7.18</v>
+        <v>-7.27</v>
       </c>
     </row>
     <row r="175">
@@ -2709,7 +2709,7 @@
         <v>-8</v>
       </c>
       <c r="C175" t="n">
-        <v>-6.04</v>
+        <v>-6.12</v>
       </c>
     </row>
     <row r="176">
@@ -2722,7 +2722,7 @@
         <v>-5.4</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.64</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="177">
@@ -2735,7 +2735,7 @@
         <v>-5.19</v>
       </c>
       <c r="C177" t="n">
-        <v>-5.75</v>
+        <v>-5.85</v>
       </c>
     </row>
     <row r="178">
@@ -2748,7 +2748,7 @@
         <v>-4.18</v>
       </c>
       <c r="C178" t="n">
-        <v>-4.21</v>
+        <v>-4.38</v>
       </c>
     </row>
     <row r="179">
@@ -2761,7 +2761,7 @@
         <v>-2.87</v>
       </c>
       <c r="C179" t="n">
-        <v>-3.72</v>
+        <v>-3.81</v>
       </c>
     </row>
     <row r="180">
@@ -2774,7 +2774,7 @@
         <v>-3.94</v>
       </c>
       <c r="C180" t="n">
-        <v>-2.17</v>
+        <v>-2.26</v>
       </c>
     </row>
     <row r="181">
@@ -2787,7 +2787,7 @@
         <v>12.58</v>
       </c>
       <c r="C181" t="n">
-        <v>10.14</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="182">
@@ -2800,7 +2800,7 @@
         <v>-1.15</v>
       </c>
       <c r="C182" t="n">
-        <v>1.17</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="183">
@@ -2813,7 +2813,7 @@
         <v>-2.79</v>
       </c>
       <c r="C183" t="n">
-        <v>1.81</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="184">
@@ -2826,7 +2826,7 @@
         <v>-2.88</v>
       </c>
       <c r="C184" t="n">
-        <v>1.69</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="185">
@@ -2839,7 +2839,7 @@
         <v>-0.6899999999999999</v>
       </c>
       <c r="C185" t="n">
-        <v>-2.61</v>
+        <v>-3.09</v>
       </c>
     </row>
     <row r="186">
@@ -2852,7 +2852,7 @@
         <v>-2.6</v>
       </c>
       <c r="C186" t="n">
-        <v>-1.25</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="187">
@@ -2865,7 +2865,7 @@
         <v>-8.56</v>
       </c>
       <c r="C187" t="n">
-        <v>-7.91</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="188">
@@ -2878,7 +2878,7 @@
         <v>-2.38</v>
       </c>
       <c r="C188" t="n">
-        <v>-2.49</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="189">
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>-9.01</v>
+        <v>-9.109999999999999</v>
       </c>
     </row>
     <row r="190">
@@ -2904,7 +2904,7 @@
         <v>-5.65</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.86</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="191">
@@ -2917,7 +2917,7 @@
         <v>1.88</v>
       </c>
       <c r="C191" t="n">
-        <v>-2.02</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="192">
@@ -2930,7 +2930,7 @@
         <v>-7.47</v>
       </c>
       <c r="C192" t="n">
-        <v>-6.35</v>
+        <v>-6.45</v>
       </c>
     </row>
     <row r="193">
@@ -2943,7 +2943,7 @@
         <v>4.3</v>
       </c>
       <c r="C193" t="n">
-        <v>-1.18</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="194">
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>-7.61</v>
+        <v>-7.7</v>
       </c>
     </row>
     <row r="195">
@@ -2969,7 +2969,7 @@
         <v>-4.33</v>
       </c>
       <c r="C195" t="n">
-        <v>-3.4</v>
+        <v>-3.48</v>
       </c>
     </row>
     <row r="196">
@@ -2982,7 +2982,7 @@
         <v>-7.21</v>
       </c>
       <c r="C196" t="n">
-        <v>-3.46</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="197">
@@ -2995,7 +2995,7 @@
         <v>2.52</v>
       </c>
       <c r="C197" t="n">
-        <v>6.62</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="198">
@@ -3008,7 +3008,7 @@
         <v>-2</v>
       </c>
       <c r="C198" t="n">
-        <v>-1.64</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="199">
@@ -3021,7 +3021,7 @@
         <v>-1.08</v>
       </c>
       <c r="C199" t="n">
-        <v>-1.91</v>
+        <v>-1.99</v>
       </c>
     </row>
     <row r="200">
@@ -3034,7 +3034,7 @@
         <v>-3.83</v>
       </c>
       <c r="C200" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="201">
@@ -3047,7 +3047,7 @@
         <v>2.72</v>
       </c>
       <c r="C201" t="n">
-        <v>2.85</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="202">
@@ -3060,7 +3060,7 @@
         <v>-8.98</v>
       </c>
       <c r="C202" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.880000000000001</v>
       </c>
     </row>
     <row r="203">
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="204">
@@ -3086,7 +3086,7 @@
         <v>4.53</v>
       </c>
       <c r="C204" t="n">
-        <v>4.19</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="205">
@@ -3099,7 +3099,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="C205" t="n">
-        <v>-8.57</v>
+        <v>-8.66</v>
       </c>
     </row>
     <row r="206">
@@ -3112,7 +3112,7 @@
         <v>-0.59</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.77</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="207">
@@ -3125,7 +3125,7 @@
         <v>-5.78</v>
       </c>
       <c r="C207" t="n">
-        <v>-6.38</v>
+        <v>-6.48</v>
       </c>
     </row>
     <row r="208">
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>-8.449999999999999</v>
+        <v>-8.550000000000001</v>
       </c>
     </row>
     <row r="209">
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>-8.109999999999999</v>
+        <v>-8.31</v>
       </c>
     </row>
     <row r="210">
@@ -3164,7 +3164,7 @@
         <v>-6.11</v>
       </c>
       <c r="C210" t="n">
-        <v>-4.75</v>
+        <v>-4.84</v>
       </c>
     </row>
     <row r="211">
@@ -3177,7 +3177,7 @@
         <v>0.53</v>
       </c>
       <c r="C211" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="212">
@@ -3190,7 +3190,7 @@
         <v>-1.87</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="213">
@@ -3203,7 +3203,7 @@
         <v>-5.52</v>
       </c>
       <c r="C213" t="n">
-        <v>-8.06</v>
+        <v>-8.140000000000001</v>
       </c>
     </row>
     <row r="214">
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>-7.19</v>
+        <v>-7.27</v>
       </c>
     </row>
     <row r="215">
@@ -3229,7 +3229,7 @@
         <v>-1</v>
       </c>
       <c r="C215" t="n">
-        <v>-2.7</v>
+        <v>-2.77</v>
       </c>
     </row>
     <row r="216">
@@ -3242,7 +3242,7 @@
         <v>-6.07</v>
       </c>
       <c r="C216" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="217">
@@ -3255,7 +3255,7 @@
         <v>5.34</v>
       </c>
       <c r="C217" t="n">
-        <v>5.68</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="218">
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>-10.12</v>
+        <v>-10.2</v>
       </c>
     </row>
     <row r="219">
@@ -3281,7 +3281,7 @@
         <v>4.97</v>
       </c>
       <c r="C219" t="n">
-        <v>3.65</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="220">
@@ -3294,7 +3294,7 @@
         <v>2.04</v>
       </c>
       <c r="C220" t="n">
-        <v>1.01</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="221">
@@ -3307,7 +3307,7 @@
         <v>0.91</v>
       </c>
       <c r="C221" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="222">
@@ -3320,7 +3320,7 @@
         <v>-11.64</v>
       </c>
       <c r="C222" t="n">
-        <v>-8.640000000000001</v>
+        <v>-8.73</v>
       </c>
     </row>
     <row r="223">
@@ -3333,7 +3333,7 @@
         <v>5.79</v>
       </c>
       <c r="C223" t="n">
-        <v>6.3</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="224">
@@ -3359,7 +3359,7 @@
         <v>-9.19</v>
       </c>
       <c r="C225" t="n">
-        <v>-9.02</v>
+        <v>-9.109999999999999</v>
       </c>
     </row>
     <row r="226">
@@ -3372,7 +3372,7 @@
         <v>-3.34</v>
       </c>
       <c r="C226" t="n">
-        <v>-3.1</v>
+        <v>-3.19</v>
       </c>
     </row>
     <row r="227">
@@ -3385,7 +3385,7 @@
         <v>2.67</v>
       </c>
       <c r="C227" t="n">
-        <v>4.6</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="228">
@@ -3398,7 +3398,7 @@
         <v>7.32</v>
       </c>
       <c r="C228" t="n">
-        <v>9.44</v>
+        <v>9.359999999999999</v>
       </c>
     </row>
     <row r="229">
@@ -3411,7 +3411,7 @@
         <v>-4.58</v>
       </c>
       <c r="C229" t="n">
-        <v>-2.97</v>
+        <v>-3.07</v>
       </c>
     </row>
     <row r="230">
@@ -3424,7 +3424,7 @@
         <v>-6.84</v>
       </c>
       <c r="C230" t="n">
-        <v>-4.88</v>
+        <v>-4.96</v>
       </c>
     </row>
     <row r="231">
@@ -3437,7 +3437,7 @@
         <v>2.87</v>
       </c>
       <c r="C231" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="232">
@@ -3450,7 +3450,7 @@
         <v>-8.119999999999999</v>
       </c>
       <c r="C232" t="n">
-        <v>-5.73</v>
+        <v>-5.78</v>
       </c>
     </row>
     <row r="233">
@@ -3463,7 +3463,7 @@
         <v>10.54</v>
       </c>
       <c r="C233" t="n">
-        <v>9.06</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="234">
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>-7.17</v>
+        <v>-7.26</v>
       </c>
     </row>
     <row r="235">
@@ -3489,7 +3489,7 @@
         <v>-6.91</v>
       </c>
       <c r="C235" t="n">
-        <v>-5.69</v>
+        <v>-5.8</v>
       </c>
     </row>
     <row r="236">
@@ -3502,7 +3502,7 @@
         <v>-5.51</v>
       </c>
       <c r="C236" t="n">
-        <v>-5.3</v>
+        <v>-5.46</v>
       </c>
     </row>
     <row r="237">
@@ -3515,7 +3515,7 @@
         <v>-4.59</v>
       </c>
       <c r="C237" t="n">
-        <v>-2.25</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="238">
@@ -3528,7 +3528,7 @@
         <v>-5.59</v>
       </c>
       <c r="C238" t="n">
-        <v>-5.31</v>
+        <v>-5.39</v>
       </c>
     </row>
     <row r="239">
@@ -3541,7 +3541,7 @@
         <v>-0.27</v>
       </c>
       <c r="C239" t="n">
-        <v>0.84</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="240">
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>-7.99</v>
+        <v>-8.08</v>
       </c>
     </row>
     <row r="241">
@@ -3567,7 +3567,7 @@
         <v>4.99</v>
       </c>
       <c r="C241" t="n">
-        <v>7.15</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="242">
@@ -3593,7 +3593,7 @@
         <v>3.43</v>
       </c>
       <c r="C243" t="n">
-        <v>5.14</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="244">
@@ -3619,7 +3619,7 @@
         <v>-0.63</v>
       </c>
       <c r="C245" t="n">
-        <v>-1.95</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="246">
@@ -3632,7 +3632,7 @@
         <v>-5.73</v>
       </c>
       <c r="C246" t="n">
-        <v>-1.85</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="247">
@@ -3645,7 +3645,7 @@
         <v>-1.01</v>
       </c>
       <c r="C247" t="n">
-        <v>0.34</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="248">
@@ -3658,7 +3658,7 @@
         <v>3.7</v>
       </c>
       <c r="C248" t="n">
-        <v>3.04</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="249">
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>-7.51</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="250">
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>-5.71</v>
+        <v>-5.8</v>
       </c>
     </row>
     <row r="251">
@@ -3697,7 +3697,7 @@
         <v>-5.45</v>
       </c>
       <c r="C251" t="n">
-        <v>-2.69</v>
+        <v>-2.78</v>
       </c>
     </row>
     <row r="252">
@@ -3723,7 +3723,7 @@
         <v>-6.38</v>
       </c>
       <c r="C253" t="n">
-        <v>-6.14</v>
+        <v>-6.22</v>
       </c>
     </row>
     <row r="254">
@@ -3736,7 +3736,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="C254" t="n">
-        <v>10.41</v>
+        <v>10.31</v>
       </c>
     </row>
     <row r="255">
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>-7.51</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="256">
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>-7.15</v>
+        <v>-7.23</v>
       </c>
     </row>
     <row r="257">
@@ -3775,7 +3775,7 @@
         <v>-7.62</v>
       </c>
       <c r="C257" t="n">
-        <v>-7.09</v>
+        <v>-7.17</v>
       </c>
     </row>
     <row r="258">
@@ -3788,7 +3788,7 @@
         <v>0.16</v>
       </c>
       <c r="C258" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="259">
@@ -3801,7 +3801,7 @@
         <v>-6.73</v>
       </c>
       <c r="C259" t="n">
-        <v>-3.39</v>
+        <v>-3.48</v>
       </c>
     </row>
     <row r="260">
@@ -3814,7 +3814,7 @@
         <v>0.46</v>
       </c>
       <c r="C260" t="n">
-        <v>0.66</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="261">
@@ -3827,7 +3827,7 @@
         <v>-4.92</v>
       </c>
       <c r="C261" t="n">
-        <v>-5.36</v>
+        <v>-5.18</v>
       </c>
     </row>
     <row r="262">
@@ -3840,7 +3840,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="C262" t="n">
-        <v>-5.68</v>
+        <v>-5.78</v>
       </c>
     </row>
     <row r="263">
@@ -3853,7 +3853,7 @@
         <v>-7.38</v>
       </c>
       <c r="C263" t="n">
-        <v>-7</v>
+        <v>-7.09</v>
       </c>
     </row>
     <row r="264">
@@ -3866,7 +3866,7 @@
         <v>4.21</v>
       </c>
       <c r="C264" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="265">
@@ -3879,7 +3879,7 @@
         <v>-5.75</v>
       </c>
       <c r="C265" t="n">
-        <v>-5.63</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="266">
@@ -3892,7 +3892,7 @@
         <v>-5.37</v>
       </c>
       <c r="C266" t="n">
-        <v>-8.1</v>
+        <v>-8.19</v>
       </c>
     </row>
     <row r="267">
@@ -3905,7 +3905,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="C267" t="n">
-        <v>6.64</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="268">
@@ -3918,7 +3918,7 @@
         <v>2.67</v>
       </c>
       <c r="C268" t="n">
-        <v>6.55</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="269">
@@ -3931,7 +3931,7 @@
         <v>-2.8</v>
       </c>
       <c r="C269" t="n">
-        <v>-3.94</v>
+        <v>-4.03</v>
       </c>
     </row>
     <row r="270">
@@ -3944,7 +3944,7 @@
         <v>-8.51</v>
       </c>
       <c r="C270" t="n">
-        <v>-6.95</v>
+        <v>-7.03</v>
       </c>
     </row>
     <row r="271">
@@ -3957,7 +3957,7 @@
         <v>-6.05</v>
       </c>
       <c r="C271" t="n">
-        <v>-7.47</v>
+        <v>-7.57</v>
       </c>
     </row>
     <row r="272">
@@ -3970,7 +3970,7 @@
         <v>-7.55</v>
       </c>
       <c r="C272" t="n">
-        <v>-4.28</v>
+        <v>-4.27</v>
       </c>
     </row>
     <row r="273">
@@ -3983,7 +3983,7 @@
         <v>0.17</v>
       </c>
       <c r="C273" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="274">
@@ -3996,7 +3996,7 @@
         <v>-1.25</v>
       </c>
       <c r="C274" t="n">
-        <v>-1.89</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="275">
@@ -4009,7 +4009,7 @@
         <v>-1.02</v>
       </c>
       <c r="C275" t="n">
-        <v>-2.5</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="276">
@@ -4022,7 +4022,7 @@
         <v>-4.14</v>
       </c>
       <c r="C276" t="n">
-        <v>-3.49</v>
+        <v>-3.62</v>
       </c>
     </row>
     <row r="277">
@@ -4035,7 +4035,7 @@
         <v>-0.66</v>
       </c>
       <c r="C277" t="n">
-        <v>-0.54</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="278">
@@ -4048,7 +4048,7 @@
         <v>-3.56</v>
       </c>
       <c r="C278" t="n">
-        <v>0.09</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="279">
@@ -4061,7 +4061,7 @@
         <v>-5.9</v>
       </c>
       <c r="C279" t="n">
-        <v>-5.72</v>
+        <v>-5.81</v>
       </c>
     </row>
     <row r="280">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>-6.85</v>
+        <v>-5.78</v>
       </c>
     </row>
     <row r="281">
@@ -4087,7 +4087,7 @@
         <v>3.22</v>
       </c>
       <c r="C281" t="n">
-        <v>7.02</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="282">
@@ -4100,7 +4100,7 @@
         <v>-7.24</v>
       </c>
       <c r="C282" t="n">
-        <v>-7.08</v>
+        <v>-7.17</v>
       </c>
     </row>
     <row r="283">
@@ -4113,7 +4113,7 @@
         <v>-1.08</v>
       </c>
       <c r="C283" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="284">
@@ -4126,7 +4126,7 @@
         <v>2.81</v>
       </c>
       <c r="C284" t="n">
-        <v>-0.47</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="285">
@@ -4139,7 +4139,7 @@
         <v>-3.17</v>
       </c>
       <c r="C285" t="n">
-        <v>-3.2</v>
+        <v>-3.19</v>
       </c>
     </row>
     <row r="286">
@@ -4152,7 +4152,7 @@
         <v>1.4</v>
       </c>
       <c r="C286" t="n">
-        <v>5.35</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="287">
@@ -4165,7 +4165,7 @@
         <v>-4.76</v>
       </c>
       <c r="C287" t="n">
-        <v>-7.7</v>
+        <v>-7.79</v>
       </c>
     </row>
     <row r="288">
@@ -4178,7 +4178,7 @@
         <v>-5.5</v>
       </c>
       <c r="C288" t="n">
-        <v>-1.41</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="289">
@@ -4191,7 +4191,7 @@
         <v>-1.53</v>
       </c>
       <c r="C289" t="n">
-        <v>-4.82</v>
+        <v>-4.91</v>
       </c>
     </row>
     <row r="290">
@@ -4204,7 +4204,7 @@
         <v>2.61</v>
       </c>
       <c r="C290" t="n">
-        <v>0.76</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="291">
@@ -4230,7 +4230,7 @@
         <v>-0.02</v>
       </c>
       <c r="C292" t="n">
-        <v>0.09</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="293">
@@ -4243,7 +4243,7 @@
         <v>-6.84</v>
       </c>
       <c r="C293" t="n">
-        <v>-5.62</v>
+        <v>-5.69</v>
       </c>
     </row>
     <row r="294">
@@ -4256,7 +4256,7 @@
         <v>-2.88</v>
       </c>
       <c r="C294" t="n">
-        <v>-1.89</v>
+        <v>-1.97</v>
       </c>
     </row>
     <row r="295">
@@ -4269,7 +4269,7 @@
         <v>1.49</v>
       </c>
       <c r="C295" t="n">
-        <v>4.1</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="296">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>-8.02</v>
+        <v>-8.109999999999999</v>
       </c>
     </row>
     <row r="297">
@@ -4295,7 +4295,7 @@
         <v>-0.1</v>
       </c>
       <c r="C297" t="n">
-        <v>-2.4</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="298">
@@ -4308,7 +4308,7 @@
         <v>-7.6</v>
       </c>
       <c r="C298" t="n">
-        <v>-6.65</v>
+        <v>-6.74</v>
       </c>
     </row>
     <row r="299">
@@ -4321,7 +4321,7 @@
         <v>-9.4</v>
       </c>
       <c r="C299" t="n">
-        <v>-5.74</v>
+        <v>-6.15</v>
       </c>
     </row>
     <row r="300">
@@ -4334,7 +4334,7 @@
         <v>10.2</v>
       </c>
       <c r="C300" t="n">
-        <v>10.34</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="301">
@@ -4347,7 +4347,7 @@
         <v>-3.47</v>
       </c>
       <c r="C301" t="n">
-        <v>-5.42</v>
+        <v>-5.51</v>
       </c>
     </row>
     <row r="302">
@@ -4373,7 +4373,7 @@
         <v>-4.09</v>
       </c>
       <c r="C303" t="n">
-        <v>-3.53</v>
+        <v>-3.62</v>
       </c>
     </row>
     <row r="304">
@@ -4386,7 +4386,7 @@
         <v>2.05</v>
       </c>
       <c r="C304" t="n">
-        <v>0.58</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="305">
@@ -4412,7 +4412,7 @@
         <v>-7.29</v>
       </c>
       <c r="C306" t="n">
-        <v>-6.25</v>
+        <v>-6.34</v>
       </c>
     </row>
     <row r="307">
@@ -4425,7 +4425,7 @@
         <v>-2.01</v>
       </c>
       <c r="C307" t="n">
-        <v>-0.77</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="308">
@@ -4451,7 +4451,7 @@
         <v>-1.16</v>
       </c>
       <c r="C309" t="n">
-        <v>-2.14</v>
+        <v>-2.23</v>
       </c>
     </row>
     <row r="310">
@@ -4464,7 +4464,7 @@
         <v>-5.89</v>
       </c>
       <c r="C310" t="n">
-        <v>-3.68</v>
+        <v>-3.77</v>
       </c>
     </row>
     <row r="311">
@@ -4477,7 +4477,7 @@
         <v>-1.38</v>
       </c>
       <c r="C311" t="n">
-        <v>-1.36</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="312">
@@ -4490,7 +4490,7 @@
         <v>-5.99</v>
       </c>
       <c r="C312" t="n">
-        <v>-4.43</v>
+        <v>-4.52</v>
       </c>
     </row>
     <row r="313">
@@ -4503,7 +4503,7 @@
         <v>-2.28</v>
       </c>
       <c r="C313" t="n">
-        <v>-0.39</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="314">
@@ -4516,7 +4516,7 @@
         <v>-6.26</v>
       </c>
       <c r="C314" t="n">
-        <v>-5.1</v>
+        <v>-5.2</v>
       </c>
     </row>
     <row r="315">
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>-9.140000000000001</v>
+        <v>-9.23</v>
       </c>
     </row>
     <row r="316">
@@ -4542,7 +4542,7 @@
         <v>9.41</v>
       </c>
       <c r="C316" t="n">
-        <v>10.05</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="317">
@@ -4555,7 +4555,7 @@
         <v>-1.11</v>
       </c>
       <c r="C317" t="n">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="318">
@@ -4568,7 +4568,7 @@
         <v>-4.2</v>
       </c>
       <c r="C318" t="n">
-        <v>-0.67</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="319">
@@ -4581,7 +4581,7 @@
         <v>-1.87</v>
       </c>
       <c r="C319" t="n">
-        <v>-4.62</v>
+        <v>-4.18</v>
       </c>
     </row>
     <row r="320">
@@ -4594,7 +4594,7 @@
         <v>-6.65</v>
       </c>
       <c r="C320" t="n">
-        <v>-2.46</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="321">
@@ -4607,7 +4607,7 @@
         <v>-0.25</v>
       </c>
       <c r="C321" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="322">
@@ -4646,7 +4646,7 @@
         <v>-0.78</v>
       </c>
       <c r="C324" t="n">
-        <v>-0.21</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="325">
@@ -4659,7 +4659,7 @@
         <v>-9.5</v>
       </c>
       <c r="C325" t="n">
-        <v>-7.41</v>
+        <v>-7.83</v>
       </c>
     </row>
     <row r="326">
@@ -4672,7 +4672,7 @@
         <v>-6.73</v>
       </c>
       <c r="C326" t="n">
-        <v>-7.01</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="327">
@@ -4685,7 +4685,7 @@
         <v>-0.47</v>
       </c>
       <c r="C327" t="n">
-        <v>-0.97</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="328">
@@ -4698,7 +4698,7 @@
         <v>-7.8</v>
       </c>
       <c r="C328" t="n">
-        <v>-6.71</v>
+        <v>-6.78</v>
       </c>
     </row>
     <row r="329">
@@ -4724,7 +4724,7 @@
         <v>-2.66</v>
       </c>
       <c r="C330" t="n">
-        <v>-2.14</v>
+        <v>-2.27</v>
       </c>
     </row>
     <row r="331">
@@ -4737,7 +4737,7 @@
         <v>-5.68</v>
       </c>
       <c r="C331" t="n">
-        <v>-3.95</v>
+        <v>-4.4</v>
       </c>
     </row>
     <row r="332">
@@ -4750,7 +4750,7 @@
         <v>0.76</v>
       </c>
       <c r="C332" t="n">
-        <v>-1.85</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="333">
@@ -4763,7 +4763,7 @@
         <v>-0.66</v>
       </c>
       <c r="C333" t="n">
-        <v>-1.42</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="334">
@@ -4776,7 +4776,7 @@
         <v>8.48</v>
       </c>
       <c r="C334" t="n">
-        <v>7.91</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="335">
@@ -4789,7 +4789,7 @@
         <v>-2.47</v>
       </c>
       <c r="C335" t="n">
-        <v>-1.52</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="336">
@@ -4802,7 +4802,7 @@
         <v>8.76</v>
       </c>
       <c r="C336" t="n">
-        <v>8.06</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="337">
@@ -4815,7 +4815,7 @@
         <v>-2.97</v>
       </c>
       <c r="C337" t="n">
-        <v>-1.14</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="338">
@@ -4828,7 +4828,7 @@
         <v>6.2</v>
       </c>
       <c r="C338" t="n">
-        <v>2.25</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="339">
@@ -4841,7 +4841,7 @@
         <v>6.59</v>
       </c>
       <c r="C339" t="n">
-        <v>7.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340">
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>-7.19</v>
+        <v>-7.28</v>
       </c>
     </row>
     <row r="342">
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>-9.789999999999999</v>
+        <v>-9.859999999999999</v>
       </c>
     </row>
     <row r="343">
@@ -4893,7 +4893,7 @@
         <v>-3.74</v>
       </c>
       <c r="C343" t="n">
-        <v>-3.67</v>
+        <v>-3.49</v>
       </c>
     </row>
     <row r="344">
@@ -4906,7 +4906,7 @@
         <v>-1.05</v>
       </c>
       <c r="C344" t="n">
-        <v>-4</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="345">
@@ -4919,7 +4919,7 @@
         <v>0.35</v>
       </c>
       <c r="C345" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="346">
@@ -4932,7 +4932,7 @@
         <v>11.47</v>
       </c>
       <c r="C346" t="n">
-        <v>7.93</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="347">
@@ -4945,7 +4945,7 @@
         <v>-8.58</v>
       </c>
       <c r="C347" t="n">
-        <v>-9.029999999999999</v>
+        <v>-9.109999999999999</v>
       </c>
     </row>
     <row r="348">
@@ -4958,7 +4958,7 @@
         <v>-2.79</v>
       </c>
       <c r="C348" t="n">
-        <v>-2.29</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="349">
@@ -4971,7 +4971,7 @@
         <v>-2.93</v>
       </c>
       <c r="C349" t="n">
-        <v>-2</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="350">
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>-5.69</v>
+        <v>-5.78</v>
       </c>
     </row>
     <row r="351">
@@ -4997,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>-7.27</v>
+        <v>-7.36</v>
       </c>
     </row>
     <row r="352">
@@ -5010,7 +5010,7 @@
         <v>-5.45</v>
       </c>
       <c r="C352" t="n">
-        <v>-3.41</v>
+        <v>-3.87</v>
       </c>
     </row>
     <row r="353">
@@ -5023,7 +5023,7 @@
         <v>-1.42</v>
       </c>
       <c r="C353" t="n">
-        <v>-8.84</v>
+        <v>-8.93</v>
       </c>
     </row>
     <row r="354">
@@ -5036,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>-9.24</v>
+        <v>-9.32</v>
       </c>
     </row>
     <row r="355">
@@ -5049,7 +5049,7 @@
         <v>-2.89</v>
       </c>
       <c r="C355" t="n">
-        <v>-1.05</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="356">
@@ -5062,7 +5062,7 @@
         <v>0.2</v>
       </c>
       <c r="C356" t="n">
-        <v>-0.43</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="357">
@@ -5075,7 +5075,7 @@
         <v>-6.99</v>
       </c>
       <c r="C357" t="n">
-        <v>-7.77</v>
+        <v>-7.86</v>
       </c>
     </row>
     <row r="358">
@@ -5088,7 +5088,7 @@
         <v>-3.73</v>
       </c>
       <c r="C358" t="n">
-        <v>-5.11</v>
+        <v>-5.94</v>
       </c>
     </row>
     <row r="359">
@@ -5101,7 +5101,7 @@
         <v>-1.15</v>
       </c>
       <c r="C359" t="n">
-        <v>-1.45</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="360">
@@ -5127,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>-8.68</v>
+        <v>-8.77</v>
       </c>
     </row>
     <row r="362">
@@ -5140,7 +5140,7 @@
         <v>-4.58</v>
       </c>
       <c r="C362" t="n">
-        <v>-7.01</v>
+        <v>-7.1</v>
       </c>
     </row>
     <row r="363">
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>-7.5</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="364">
@@ -5166,7 +5166,7 @@
         <v>-4.63</v>
       </c>
       <c r="C364" t="n">
-        <v>-4.24</v>
+        <v>-4.67</v>
       </c>
     </row>
     <row r="365">
@@ -5179,7 +5179,7 @@
         <v>-5.03</v>
       </c>
       <c r="C365" t="n">
-        <v>-5.89</v>
+        <v>-5.98</v>
       </c>
     </row>
     <row r="366">
@@ -5205,7 +5205,7 @@
         <v>-7.75</v>
       </c>
       <c r="C367" t="n">
-        <v>-9</v>
+        <v>-9.09</v>
       </c>
     </row>
     <row r="368">
@@ -5218,7 +5218,7 @@
         <v>-4.81</v>
       </c>
       <c r="C368" t="n">
-        <v>-4.24</v>
+        <v>-4.33</v>
       </c>
     </row>
     <row r="369">
@@ -5244,7 +5244,7 @@
         <v>-5.69</v>
       </c>
       <c r="C370" t="n">
-        <v>-5.93</v>
+        <v>-6.02</v>
       </c>
     </row>
     <row r="371">
@@ -5257,7 +5257,7 @@
         <v>-10.46</v>
       </c>
       <c r="C371" t="n">
-        <v>-8.640000000000001</v>
+        <v>-8.73</v>
       </c>
     </row>
     <row r="372">
@@ -5270,7 +5270,7 @@
         <v>1.74</v>
       </c>
       <c r="C372" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="373">
@@ -5283,7 +5283,7 @@
         <v>2.3</v>
       </c>
       <c r="C373" t="n">
-        <v>2.27</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="374">
@@ -5296,7 +5296,7 @@
         <v>-0.64</v>
       </c>
       <c r="C374" t="n">
-        <v>0.03</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="375">
@@ -5309,7 +5309,7 @@
         <v>0.84</v>
       </c>
       <c r="C375" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="376">
@@ -5322,7 +5322,7 @@
         <v>-1.27</v>
       </c>
       <c r="C376" t="n">
-        <v>-0.62</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="377">
@@ -5348,7 +5348,7 @@
         <v>-3.47</v>
       </c>
       <c r="C378" t="n">
-        <v>-2.74</v>
+        <v>-3.32</v>
       </c>
     </row>
     <row r="379">
@@ -5361,7 +5361,7 @@
         <v>-5.58</v>
       </c>
       <c r="C379" t="n">
-        <v>-4.46</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="380">
@@ -5374,7 +5374,7 @@
         <v>-2.32</v>
       </c>
       <c r="C380" t="n">
-        <v>-0.85</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="381">
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>-4.53</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="382">
@@ -5400,7 +5400,7 @@
         <v>-4.14</v>
       </c>
       <c r="C382" t="n">
-        <v>-3.53</v>
+        <v>-4.05</v>
       </c>
     </row>
     <row r="383">
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>-8.83</v>
+        <v>-8.92</v>
       </c>
     </row>
     <row r="384">
@@ -5426,7 +5426,7 @@
         <v>-4.24</v>
       </c>
       <c r="C384" t="n">
-        <v>-2.64</v>
+        <v>-2.65</v>
       </c>
     </row>
     <row r="385">
@@ -5439,7 +5439,7 @@
         <v>3.97</v>
       </c>
       <c r="C385" t="n">
-        <v>3.91</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="386">
@@ -5452,7 +5452,7 @@
         <v>-3.53</v>
       </c>
       <c r="C386" t="n">
-        <v>-0.34</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="387">
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>-6.43</v>
+        <v>-6.52</v>
       </c>
     </row>
     <row r="389">
@@ -5491,7 +5491,7 @@
         <v>1.14</v>
       </c>
       <c r="C389" t="n">
-        <v>2.27</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="390">
@@ -5504,7 +5504,7 @@
         <v>-1.49</v>
       </c>
       <c r="C390" t="n">
-        <v>-2.63</v>
+        <v>-2.72</v>
       </c>
     </row>
     <row r="391">
@@ -5517,7 +5517,7 @@
         <v>-0.55</v>
       </c>
       <c r="C391" t="n">
-        <v>2.92</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="392">
@@ -5530,7 +5530,7 @@
         <v>-7.45</v>
       </c>
       <c r="C392" t="n">
-        <v>-8.220000000000001</v>
+        <v>-8.31</v>
       </c>
     </row>
     <row r="393">
@@ -5543,7 +5543,7 @@
         <v>-1.79</v>
       </c>
       <c r="C393" t="n">
-        <v>-0.4</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="394">
@@ -5556,7 +5556,7 @@
         <v>-2.35</v>
       </c>
       <c r="C394" t="n">
-        <v>-4.07</v>
+        <v>-4.25</v>
       </c>
     </row>
     <row r="395">
@@ -5569,7 +5569,7 @@
         <v>2.72</v>
       </c>
       <c r="C395" t="n">
-        <v>-0.26</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="396">
@@ -5595,7 +5595,7 @@
         <v>16.9</v>
       </c>
       <c r="C397" t="n">
-        <v>18.43</v>
+        <v>18.32</v>
       </c>
     </row>
     <row r="398">
@@ -5608,7 +5608,7 @@
         <v>-1.48</v>
       </c>
       <c r="C398" t="n">
-        <v>-2.2</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="399">
@@ -5621,7 +5621,7 @@
         <v>5.41</v>
       </c>
       <c r="C399" t="n">
-        <v>7.87</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="400">
@@ -5634,7 +5634,7 @@
         <v>-0.6</v>
       </c>
       <c r="C400" t="n">
-        <v>-4.4</v>
+        <v>-4.49</v>
       </c>
     </row>
     <row r="401">
@@ -5647,7 +5647,7 @@
         <v>2.16</v>
       </c>
       <c r="C401" t="n">
-        <v>4.44</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="402">
@@ -5660,7 +5660,7 @@
         <v>2.6</v>
       </c>
       <c r="C402" t="n">
-        <v>3.78</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="403">
@@ -5673,7 +5673,7 @@
         <v>-2.4</v>
       </c>
       <c r="C403" t="n">
-        <v>-1.39</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="404">
@@ -5686,7 +5686,7 @@
         <v>-5.56</v>
       </c>
       <c r="C404" t="n">
-        <v>2.47</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="405">
@@ -5699,7 +5699,7 @@
         <v>-9.01</v>
       </c>
       <c r="C405" t="n">
-        <v>-8.06</v>
+        <v>-8.15</v>
       </c>
     </row>
     <row r="406">
@@ -5712,7 +5712,7 @@
         <v>3.05</v>
       </c>
       <c r="C406" t="n">
-        <v>1.12</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="407">
@@ -5725,7 +5725,7 @@
         <v>-7.37</v>
       </c>
       <c r="C407" t="n">
-        <v>-6.43</v>
+        <v>-6.49</v>
       </c>
     </row>
     <row r="408">
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="C408" t="n">
-        <v>-3.57</v>
+        <v>-3.73</v>
       </c>
     </row>
     <row r="409">
@@ -5751,7 +5751,7 @@
         <v>-7.75</v>
       </c>
       <c r="C409" t="n">
-        <v>-5.35</v>
+        <v>-5.44</v>
       </c>
     </row>
     <row r="410">
@@ -5777,7 +5777,7 @@
         <v>-0.03</v>
       </c>
       <c r="C411" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="412">
@@ -5790,7 +5790,7 @@
         <v>-8.380000000000001</v>
       </c>
       <c r="C412" t="n">
-        <v>-7.59</v>
+        <v>-7.67</v>
       </c>
     </row>
     <row r="413">
@@ -5803,7 +5803,7 @@
         <v>-9.01</v>
       </c>
       <c r="C413" t="n">
-        <v>-8.640000000000001</v>
+        <v>-8.73</v>
       </c>
     </row>
     <row r="414">
@@ -5816,7 +5816,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="C414" t="n">
-        <v>-5.93</v>
+        <v>-6.36</v>
       </c>
     </row>
     <row r="415">
@@ -5829,7 +5829,7 @@
         <v>2.82</v>
       </c>
       <c r="C415" t="n">
-        <v>2.71</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="416">
@@ -5842,7 +5842,7 @@
         <v>2.97</v>
       </c>
       <c r="C416" t="n">
-        <v>4.1</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="417">
@@ -5855,7 +5855,7 @@
         <v>-4.35</v>
       </c>
       <c r="C417" t="n">
-        <v>-5.09</v>
+        <v>-5.19</v>
       </c>
     </row>
     <row r="418">
@@ -5868,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="C418" t="n">
-        <v>-7.99</v>
+        <v>-8.08</v>
       </c>
     </row>
     <row r="419">
@@ -5881,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>-7.64</v>
+        <v>-7.73</v>
       </c>
     </row>
     <row r="420">
@@ -5894,7 +5894,7 @@
         <v>-0.23</v>
       </c>
       <c r="C420" t="n">
-        <v>-0.37</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="421">
@@ -5907,7 +5907,7 @@
         <v>-7.27</v>
       </c>
       <c r="C421" t="n">
-        <v>-4.92</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="422">
@@ -5920,7 +5920,7 @@
         <v>6.45</v>
       </c>
       <c r="C422" t="n">
-        <v>3.42</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="423">
@@ -5933,7 +5933,7 @@
         <v>-3.17</v>
       </c>
       <c r="C423" t="n">
-        <v>-4.11</v>
+        <v>-4.19</v>
       </c>
     </row>
     <row r="424">
@@ -5946,7 +5946,7 @@
         <v>0.15</v>
       </c>
       <c r="C424" t="n">
-        <v>2.52</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="425">
@@ -5959,7 +5959,7 @@
         <v>-7.46</v>
       </c>
       <c r="C425" t="n">
-        <v>-5.71</v>
+        <v>-5.79</v>
       </c>
     </row>
     <row r="426">
@@ -5972,7 +5972,7 @@
         <v>-2.67</v>
       </c>
       <c r="C426" t="n">
-        <v>-1.35</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="427">
@@ -5998,7 +5998,7 @@
         <v>-5.64</v>
       </c>
       <c r="C428" t="n">
-        <v>-4.3</v>
+        <v>-4.39</v>
       </c>
     </row>
     <row r="429">
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="C429" t="n">
-        <v>-1.74</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="430">
@@ -6037,7 +6037,7 @@
         <v>0.41</v>
       </c>
       <c r="C431" t="n">
-        <v>1.39</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="432">
@@ -6050,7 +6050,7 @@
         <v>-5.09</v>
       </c>
       <c r="C432" t="n">
-        <v>-5.71</v>
+        <v>-5.79</v>
       </c>
     </row>
     <row r="433">
@@ -6063,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>-6.67</v>
+        <v>-6.75</v>
       </c>
     </row>
     <row r="434">
@@ -6076,7 +6076,7 @@
         <v>-2.88</v>
       </c>
       <c r="C434" t="n">
-        <v>-5.08</v>
+        <v>-5.17</v>
       </c>
     </row>
     <row r="435">
@@ -6089,7 +6089,7 @@
         <v>-6.05</v>
       </c>
       <c r="C435" t="n">
-        <v>-4.86</v>
+        <v>-4.94</v>
       </c>
     </row>
     <row r="436">
@@ -6102,7 +6102,7 @@
         <v>-5.74</v>
       </c>
       <c r="C436" t="n">
-        <v>-7.71</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="437">
@@ -6115,7 +6115,7 @@
         <v>-8.91</v>
       </c>
       <c r="C437" t="n">
-        <v>-7.34</v>
+        <v>-7.44</v>
       </c>
     </row>
     <row r="438">
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="C438" t="n">
-        <v>-8.640000000000001</v>
+        <v>-8.73</v>
       </c>
     </row>
     <row r="439">
@@ -6141,7 +6141,7 @@
         <v>-3.92</v>
       </c>
       <c r="C439" t="n">
-        <v>-7.23</v>
+        <v>-7.37</v>
       </c>
     </row>
     <row r="440">
@@ -6154,7 +6154,7 @@
         <v>-2.62</v>
       </c>
       <c r="C440" t="n">
-        <v>5.27</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="441">
@@ -6167,7 +6167,7 @@
         <v>-3.23</v>
       </c>
       <c r="C441" t="n">
-        <v>-5.11</v>
+        <v>-5.12</v>
       </c>
     </row>
     <row r="442">
@@ -6180,7 +6180,7 @@
         <v>-2.64</v>
       </c>
       <c r="C442" t="n">
-        <v>0.5</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="443">
@@ -6193,7 +6193,7 @@
         <v>3.83</v>
       </c>
       <c r="C443" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="444">
@@ -6206,7 +6206,7 @@
         <v>-0.13</v>
       </c>
       <c r="C444" t="n">
-        <v>-0.05</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="445">
@@ -6219,7 +6219,7 @@
         <v>-2.57</v>
       </c>
       <c r="C445" t="n">
-        <v>-0.63</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="446">
@@ -6232,7 +6232,7 @@
         <v>-3.73</v>
       </c>
       <c r="C446" t="n">
-        <v>-4.47</v>
+        <v>-4.38</v>
       </c>
     </row>
     <row r="447">
@@ -6245,7 +6245,7 @@
         <v>-8.19</v>
       </c>
       <c r="C447" t="n">
-        <v>-4.39</v>
+        <v>-4.47</v>
       </c>
     </row>
     <row r="448">
@@ -6271,7 +6271,7 @@
         <v>-2.12</v>
       </c>
       <c r="C449" t="n">
-        <v>-3.09</v>
+        <v>-3.18</v>
       </c>
     </row>
     <row r="450">
@@ -6284,7 +6284,7 @@
         <v>-5.68</v>
       </c>
       <c r="C450" t="n">
-        <v>-3.02</v>
+        <v>-3.11</v>
       </c>
     </row>
     <row r="451">
@@ -6297,7 +6297,7 @@
         <v>-8.970000000000001</v>
       </c>
       <c r="C451" t="n">
-        <v>-4.05</v>
+        <v>-4.14</v>
       </c>
     </row>
     <row r="452">
@@ -6310,7 +6310,7 @@
         <v>-2.48</v>
       </c>
       <c r="C452" t="n">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="453">
@@ -6323,7 +6323,7 @@
         <v>-0.19</v>
       </c>
       <c r="C453" t="n">
-        <v>-1.04</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="454">
@@ -6336,7 +6336,7 @@
         <v>7.97</v>
       </c>
       <c r="C454" t="n">
-        <v>4.34</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="455">
@@ -6349,7 +6349,7 @@
         <v>-0.13</v>
       </c>
       <c r="C455" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="456">
@@ -6362,7 +6362,7 @@
         <v>-5.21</v>
       </c>
       <c r="C456" t="n">
-        <v>-5.5</v>
+        <v>-5.83</v>
       </c>
     </row>
     <row r="457">
@@ -6375,7 +6375,7 @@
         <v>-1.87</v>
       </c>
       <c r="C457" t="n">
-        <v>-1.36</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="458">
@@ -6388,7 +6388,7 @@
         <v>14.17</v>
       </c>
       <c r="C458" t="n">
-        <v>12.1</v>
+        <v>11.98</v>
       </c>
     </row>
     <row r="459">
@@ -6401,7 +6401,7 @@
         <v>-6.27</v>
       </c>
       <c r="C459" t="n">
-        <v>-6.55</v>
+        <v>-6.64</v>
       </c>
     </row>
     <row r="460">
@@ -6414,7 +6414,7 @@
         <v>-9.1</v>
       </c>
       <c r="C460" t="n">
-        <v>-8.529999999999999</v>
+        <v>-8.609999999999999</v>
       </c>
     </row>
     <row r="461">
@@ -6427,7 +6427,7 @@
         <v>-6.14</v>
       </c>
       <c r="C461" t="n">
-        <v>-4.89</v>
+        <v>-4.75</v>
       </c>
     </row>
     <row r="462">
@@ -6440,7 +6440,7 @@
         <v>-4.27</v>
       </c>
       <c r="C462" t="n">
-        <v>-5.75</v>
+        <v>-5.83</v>
       </c>
     </row>
     <row r="463">
@@ -6453,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="C463" t="n">
-        <v>-6.32</v>
+        <v>-6.39</v>
       </c>
     </row>
     <row r="464">
@@ -6466,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="C464" t="n">
-        <v>-8.76</v>
+        <v>-8.83</v>
       </c>
     </row>
     <row r="465">
@@ -6479,7 +6479,7 @@
         <v>9.460000000000001</v>
       </c>
       <c r="C465" t="n">
-        <v>10.86</v>
+        <v>11.21</v>
       </c>
     </row>
     <row r="466">
@@ -6492,7 +6492,7 @@
         <v>-4.03</v>
       </c>
       <c r="C466" t="n">
-        <v>-3.3</v>
+        <v>-2.92</v>
       </c>
     </row>
     <row r="467">
@@ -6505,7 +6505,7 @@
         <v>-3.55</v>
       </c>
       <c r="C467" t="n">
-        <v>-7.04</v>
+        <v>-7.11</v>
       </c>
     </row>
     <row r="468">
@@ -6518,7 +6518,7 @@
         <v>-5.15</v>
       </c>
       <c r="C468" t="n">
-        <v>-6.2</v>
+        <v>-6.29</v>
       </c>
     </row>
     <row r="469">
@@ -6531,7 +6531,7 @@
         <v>-0.71</v>
       </c>
       <c r="C469" t="n">
-        <v>-0.63</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="470">
@@ -6544,7 +6544,7 @@
         <v>-9.27</v>
       </c>
       <c r="C470" t="n">
-        <v>-4.66</v>
+        <v>-5.06</v>
       </c>
     </row>
     <row r="471">
@@ -6557,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="C471" t="n">
-        <v>-6.64</v>
+        <v>-6.73</v>
       </c>
     </row>
     <row r="472">
@@ -6570,7 +6570,7 @@
         <v>0.99</v>
       </c>
       <c r="C472" t="n">
-        <v>3.76</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="473">
@@ -6583,7 +6583,7 @@
         <v>-2.53</v>
       </c>
       <c r="C473" t="n">
-        <v>-0.26</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="474">
@@ -6596,7 +6596,7 @@
         <v>0.55</v>
       </c>
       <c r="C474" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-1.01</v>
       </c>
     </row>
     <row r="475">
@@ -6609,7 +6609,7 @@
         <v>-3.94</v>
       </c>
       <c r="C475" t="n">
-        <v>-3.82</v>
+        <v>-4.16</v>
       </c>
     </row>
     <row r="476">
@@ -6622,7 +6622,7 @@
         <v>-8.01</v>
       </c>
       <c r="C476" t="n">
-        <v>-6.44</v>
+        <v>-6.52</v>
       </c>
     </row>
     <row r="477">
@@ -6635,7 +6635,7 @@
         <v>-0.28</v>
       </c>
       <c r="C477" t="n">
-        <v>0.1</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="478">
@@ -6648,7 +6648,7 @@
         <v>-5.43</v>
       </c>
       <c r="C478" t="n">
-        <v>-3.65</v>
+        <v>-3.75</v>
       </c>
     </row>
     <row r="479">
@@ -6661,7 +6661,7 @@
         <v>-6.33</v>
       </c>
       <c r="C479" t="n">
-        <v>-6.14</v>
+        <v>-6.18</v>
       </c>
     </row>
     <row r="480">
@@ -6674,7 +6674,7 @@
         <v>-5.45</v>
       </c>
       <c r="C480" t="n">
-        <v>-1.8</v>
+        <v>-2.47</v>
       </c>
     </row>
     <row r="481">
@@ -6687,7 +6687,7 @@
         <v>2.91</v>
       </c>
       <c r="C481" t="n">
-        <v>1.7</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="482">
@@ -6700,7 +6700,7 @@
         <v>-4.24</v>
       </c>
       <c r="C482" t="n">
-        <v>-4.22</v>
+        <v>-4.32</v>
       </c>
     </row>
     <row r="483">
@@ -6713,7 +6713,7 @@
         <v>-2.39</v>
       </c>
       <c r="C483" t="n">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="484">
@@ -6726,7 +6726,7 @@
         <v>9.77</v>
       </c>
       <c r="C484" t="n">
-        <v>8.050000000000001</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="485">
@@ -6739,7 +6739,7 @@
         <v>2.18</v>
       </c>
       <c r="C485" t="n">
-        <v>-2.5</v>
+        <v>-1.88</v>
       </c>
     </row>
     <row r="486">
@@ -6752,7 +6752,7 @@
         <v>-0.58</v>
       </c>
       <c r="C486" t="n">
-        <v>-6.52</v>
+        <v>-7.13</v>
       </c>
     </row>
     <row r="487">
@@ -6765,7 +6765,7 @@
         <v>-2.09</v>
       </c>
       <c r="C487" t="n">
-        <v>0.5600000000000001</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="488">
@@ -6778,7 +6778,7 @@
         <v>-6.79</v>
       </c>
       <c r="C488" t="n">
-        <v>-1.58</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="489">
@@ -6791,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="C489" t="n">
-        <v>-8.25</v>
+        <v>-8.35</v>
       </c>
     </row>
     <row r="490">
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="C490" t="n">
-        <v>-9.029999999999999</v>
+        <v>-9.130000000000001</v>
       </c>
     </row>
     <row r="491">
@@ -6817,7 +6817,7 @@
         <v>-5.29</v>
       </c>
       <c r="C491" t="n">
-        <v>-5.43</v>
+        <v>-5.51</v>
       </c>
     </row>
     <row r="492">
@@ -6830,7 +6830,7 @@
         <v>-3.9</v>
       </c>
       <c r="C492" t="n">
-        <v>-2.92</v>
+        <v>-3.01</v>
       </c>
     </row>
     <row r="493">
@@ -6843,7 +6843,7 @@
         <v>2.31</v>
       </c>
       <c r="C493" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="494">
@@ -6856,7 +6856,7 @@
         <v>-6.16</v>
       </c>
       <c r="C494" t="n">
-        <v>-4.07</v>
+        <v>-3.91</v>
       </c>
     </row>
     <row r="495">
@@ -6869,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="C495" t="n">
-        <v>-8.01</v>
+        <v>-8.1</v>
       </c>
     </row>
     <row r="496">
@@ -6895,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="C497" t="n">
-        <v>-9.390000000000001</v>
+        <v>-9.48</v>
       </c>
     </row>
     <row r="498">
@@ -6908,7 +6908,7 @@
         <v>-1.82</v>
       </c>
       <c r="C498" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="499">
@@ -6921,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="C499" t="n">
-        <v>-5.27</v>
+        <v>-5.45</v>
       </c>
     </row>
     <row r="500">
@@ -6934,7 +6934,7 @@
         <v>2.92</v>
       </c>
       <c r="C500" t="n">
-        <v>7</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="501">
@@ -6947,7 +6947,7 @@
         <v>-8.279999999999999</v>
       </c>
       <c r="C501" t="n">
-        <v>-5.65</v>
+        <v>-5.57</v>
       </c>
     </row>
     <row r="502">
@@ -6960,7 +6960,7 @@
         <v>-6.48</v>
       </c>
       <c r="C502" t="n">
-        <v>-6.76</v>
+        <v>-6.85</v>
       </c>
     </row>
     <row r="503">
@@ -6973,7 +6973,7 @@
         <v>7.05</v>
       </c>
       <c r="C503" t="n">
-        <v>3.71</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="504">
@@ -6986,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="C504" t="n">
-        <v>-7.49</v>
+        <v>-7.58</v>
       </c>
     </row>
     <row r="505">
@@ -6999,7 +6999,7 @@
         <v>5.5</v>
       </c>
       <c r="C505" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="506">
@@ -7012,7 +7012,7 @@
         <v>1.55</v>
       </c>
       <c r="C506" t="n">
-        <v>0.87</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="507">
@@ -7025,7 +7025,7 @@
         <v>0</v>
       </c>
       <c r="C507" t="n">
-        <v>-7.15</v>
+        <v>-7.24</v>
       </c>
     </row>
     <row r="508">
@@ -7038,7 +7038,7 @@
         <v>-5.55</v>
       </c>
       <c r="C508" t="n">
-        <v>-7.59</v>
+        <v>-7.67</v>
       </c>
     </row>
     <row r="509">
@@ -7051,7 +7051,7 @@
         <v>15.36</v>
       </c>
       <c r="C509" t="n">
-        <v>14.04</v>
+        <v>13.93</v>
       </c>
     </row>
     <row r="510">
@@ -7064,7 +7064,7 @@
         <v>-1</v>
       </c>
       <c r="C510" t="n">
-        <v>-6.29</v>
+        <v>-6.39</v>
       </c>
     </row>
     <row r="511">
@@ -7077,7 +7077,7 @@
         <v>-7.59</v>
       </c>
       <c r="C511" t="n">
-        <v>-6.43</v>
+        <v>-6.52</v>
       </c>
     </row>
     <row r="512">
@@ -7090,7 +7090,7 @@
         <v>-8.210000000000001</v>
       </c>
       <c r="C512" t="n">
-        <v>-4.52</v>
+        <v>-5.22</v>
       </c>
     </row>
     <row r="513">
@@ -7103,7 +7103,7 @@
         <v>2.35</v>
       </c>
       <c r="C513" t="n">
-        <v>3.58</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="514">
@@ -7116,7 +7116,7 @@
         <v>0.02</v>
       </c>
       <c r="C514" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="515">
@@ -7129,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="C515" t="n">
-        <v>-4.43</v>
+        <v>-3.22</v>
       </c>
     </row>
     <row r="516">
@@ -7142,7 +7142,7 @@
         <v>-3.35</v>
       </c>
       <c r="C516" t="n">
-        <v>-7.26</v>
+        <v>-7.35</v>
       </c>
     </row>
     <row r="517">
@@ -7155,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="C517" t="n">
-        <v>-9.529999999999999</v>
+        <v>-9.609999999999999</v>
       </c>
     </row>
     <row r="518">
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="C518" t="n">
-        <v>-8.59</v>
+        <v>-8.68</v>
       </c>
     </row>
     <row r="519">
@@ -7181,7 +7181,7 @@
         <v>-4.04</v>
       </c>
       <c r="C519" t="n">
-        <v>-1.12</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="520">
@@ -7194,7 +7194,7 @@
         <v>-2.27</v>
       </c>
       <c r="C520" t="n">
-        <v>-2.69</v>
+        <v>-2.63</v>
       </c>
     </row>
     <row r="521">
@@ -7207,7 +7207,7 @@
         <v>-2.73</v>
       </c>
       <c r="C521" t="n">
-        <v>-1.11</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="522">
@@ -7220,7 +7220,7 @@
         <v>-1.56</v>
       </c>
       <c r="C522" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="523">
@@ -7233,7 +7233,7 @@
         <v>3.56</v>
       </c>
       <c r="C523" t="n">
-        <v>5.49</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="524">
@@ -7246,7 +7246,7 @@
         <v>-6.77</v>
       </c>
       <c r="C524" t="n">
-        <v>-8.18</v>
+        <v>-8.27</v>
       </c>
     </row>
     <row r="525">
@@ -7259,7 +7259,7 @@
         <v>-4.54</v>
       </c>
       <c r="C525" t="n">
-        <v>-1.6</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="526">
@@ -7272,7 +7272,7 @@
         <v>2.17</v>
       </c>
       <c r="C526" t="n">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
     </row>
   </sheetData>

--- a/data/merged_scores.xlsx
+++ b/data/merged_scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C526"/>
+  <dimension ref="A1:C527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
         <v>-4.23</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.48</v>
+        <v>-2.55</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-8.57</v>
+        <v>-8.619999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>1.1</v>
       </c>
       <c r="C6" t="n">
-        <v>2.97</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>-7.17</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.01</v>
+        <v>-6.26</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>-1.76</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.43</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>-4.5</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.47</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.67</v>
+        <v>-7.72</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         <v>-9.17</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.7</v>
+        <v>-7.76</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         <v>-6.84</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.06</v>
+        <v>-7.12</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         <v>-9</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.6</v>
+        <v>-3.65</v>
       </c>
     </row>
     <row r="14">
@@ -616,7 +616,7 @@
         <v>1.13</v>
       </c>
       <c r="C14" t="n">
-        <v>2.51</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +629,7 @@
         <v>-4.39</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.71</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>0.88</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.64</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-9.289999999999999</v>
+        <v>-9.35</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         <v>-6.51</v>
       </c>
       <c r="C18" t="n">
-        <v>-4.87</v>
+        <v>-4.93</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-7.24</v>
+        <v>-7.29</v>
       </c>
     </row>
     <row r="20">
@@ -694,7 +694,7 @@
         <v>0.04</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         <v>3.33</v>
       </c>
       <c r="C21" t="n">
-        <v>5.56</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +720,7 @@
         <v>0.6</v>
       </c>
       <c r="C22" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="23">
@@ -733,7 +733,7 @@
         <v>-5.58</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.04</v>
+        <v>-2.24</v>
       </c>
     </row>
     <row r="24">
@@ -746,7 +746,7 @@
         <v>-0.59</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.69</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="25">
@@ -759,7 +759,7 @@
         <v>-6.45</v>
       </c>
       <c r="C25" t="n">
-        <v>-4.78</v>
+        <v>-4.85</v>
       </c>
     </row>
     <row r="26">
@@ -772,7 +772,7 @@
         <v>-1.34</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.33</v>
+        <v>-3.39</v>
       </c>
     </row>
     <row r="27">
@@ -785,7 +785,7 @@
         <v>-1.23</v>
       </c>
       <c r="C27" t="n">
-        <v>0.82</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="28">
@@ -798,7 +798,7 @@
         <v>2.79</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.33</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="29">
@@ -811,7 +811,7 @@
         <v>-3.55</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.93</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="30">
@@ -824,7 +824,7 @@
         <v>13.81</v>
       </c>
       <c r="C30" t="n">
-        <v>11.39</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="31">
@@ -837,7 +837,7 @@
         <v>6.99</v>
       </c>
       <c r="C31" t="n">
-        <v>7.15</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="32">
@@ -850,7 +850,7 @@
         <v>-8.23</v>
       </c>
       <c r="C32" t="n">
-        <v>-7.89</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>-5.5</v>
+        <v>-6.23</v>
       </c>
     </row>
     <row r="34">
@@ -876,7 +876,7 @@
         <v>-7.69</v>
       </c>
       <c r="C34" t="n">
-        <v>-5.62</v>
+        <v>-5.69</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-9.109999999999999</v>
+        <v>-9.17</v>
       </c>
     </row>
     <row r="36">
@@ -915,7 +915,7 @@
         <v>4.27</v>
       </c>
       <c r="C37" t="n">
-        <v>3.28</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="38">
@@ -928,7 +928,7 @@
         <v>-2.05</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.04</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         <v>3.3</v>
       </c>
       <c r="C39" t="n">
-        <v>3.55</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +954,7 @@
         <v>-7.38</v>
       </c>
       <c r="C40" t="n">
-        <v>-8.52</v>
+        <v>-8.58</v>
       </c>
     </row>
     <row r="41">
@@ -967,7 +967,7 @@
         <v>-6.12</v>
       </c>
       <c r="C41" t="n">
-        <v>-3.96</v>
+        <v>-4.01</v>
       </c>
     </row>
     <row r="42">
@@ -980,7 +980,7 @@
         <v>-0.48</v>
       </c>
       <c r="C42" t="n">
-        <v>1.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -993,7 +993,7 @@
         <v>-0.44</v>
       </c>
       <c r="C43" t="n">
-        <v>2.46</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="44">
@@ -1006,7 +1006,7 @@
         <v>0.9</v>
       </c>
       <c r="C44" t="n">
-        <v>2.96</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="45">
@@ -1019,7 +1019,7 @@
         <v>-7.93</v>
       </c>
       <c r="C45" t="n">
-        <v>-6.37</v>
+        <v>-6.43</v>
       </c>
     </row>
     <row r="46">
@@ -1032,7 +1032,7 @@
         <v>0.16</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.99</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="47">
@@ -1058,7 +1058,7 @@
         <v>0.78</v>
       </c>
       <c r="C48" t="n">
-        <v>-3.44</v>
+        <v>-2.58</v>
       </c>
     </row>
     <row r="49">
@@ -1084,7 +1084,7 @@
         <v>-5.46</v>
       </c>
       <c r="C50" t="n">
-        <v>-7.6</v>
+        <v>-7.67</v>
       </c>
     </row>
     <row r="51">
@@ -1097,7 +1097,7 @@
         <v>-3.46</v>
       </c>
       <c r="C51" t="n">
-        <v>-4.95</v>
+        <v>-4.99</v>
       </c>
     </row>
     <row r="52">
@@ -1123,7 +1123,7 @@
         <v>3.59</v>
       </c>
       <c r="C53" t="n">
-        <v>4.62</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="54">
@@ -1136,7 +1136,7 @@
         <v>-1.1</v>
       </c>
       <c r="C54" t="n">
-        <v>-3.2</v>
+        <v>-3.15</v>
       </c>
     </row>
     <row r="55">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.68</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="57">
@@ -1175,7 +1175,7 @@
         <v>-2.49</v>
       </c>
       <c r="C57" t="n">
-        <v>-4</v>
+        <v>-4.05</v>
       </c>
     </row>
     <row r="58">
@@ -1188,7 +1188,7 @@
         <v>2.78</v>
       </c>
       <c r="C58" t="n">
-        <v>5.31</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="59">
@@ -1201,7 +1201,7 @@
         <v>1.8</v>
       </c>
       <c r="C59" t="n">
-        <v>5.1</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="60">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>-9.01</v>
+        <v>-9.08</v>
       </c>
     </row>
     <row r="61">
@@ -1227,7 +1227,7 @@
         <v>-3.44</v>
       </c>
       <c r="C61" t="n">
-        <v>-4.4</v>
+        <v>-4.45</v>
       </c>
     </row>
     <row r="62">
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>-8.24</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="64">
@@ -1266,7 +1266,7 @@
         <v>1.5</v>
       </c>
       <c r="C64" t="n">
-        <v>4.68</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="65">
@@ -1292,7 +1292,7 @@
         <v>-4.77</v>
       </c>
       <c r="C66" t="n">
-        <v>-4.85</v>
+        <v>-4.91</v>
       </c>
     </row>
     <row r="67">
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>1.12</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="69">
@@ -1344,7 +1344,7 @@
         <v>2.27</v>
       </c>
       <c r="C70" t="n">
-        <v>2.39</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="71">
@@ -1357,7 +1357,7 @@
         <v>1.99</v>
       </c>
       <c r="C71" t="n">
-        <v>5.82</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="72">
@@ -1370,7 +1370,7 @@
         <v>6.98</v>
       </c>
       <c r="C72" t="n">
-        <v>6.97</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="73">
@@ -1383,7 +1383,7 @@
         <v>-7.71</v>
       </c>
       <c r="C73" t="n">
-        <v>-8.449999999999999</v>
+        <v>-8.51</v>
       </c>
     </row>
     <row r="74">
@@ -1396,7 +1396,7 @@
         <v>-1.08</v>
       </c>
       <c r="C74" t="n">
-        <v>-1.38</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="75">
@@ -1422,7 +1422,7 @@
         <v>-5.58</v>
       </c>
       <c r="C76" t="n">
-        <v>-3.05</v>
+        <v>-2.89</v>
       </c>
     </row>
     <row r="77">
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>-6.08</v>
+        <v>-6.14</v>
       </c>
     </row>
     <row r="78">
@@ -1448,7 +1448,7 @@
         <v>2.01</v>
       </c>
       <c r="C78" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="79">
@@ -1461,7 +1461,7 @@
         <v>-7.49</v>
       </c>
       <c r="C79" t="n">
-        <v>-8.59</v>
+        <v>-8.67</v>
       </c>
     </row>
     <row r="80">
@@ -1474,7 +1474,7 @@
         <v>0.76</v>
       </c>
       <c r="C80" t="n">
-        <v>4.08</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="81">
@@ -1487,7 +1487,7 @@
         <v>-5.42</v>
       </c>
       <c r="C81" t="n">
-        <v>-2.3</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="82">
@@ -1500,7 +1500,7 @@
         <v>-1.36</v>
       </c>
       <c r="C82" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="83">
@@ -1526,7 +1526,7 @@
         <v>-2.3</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.06</v>
+        <v>-1.12</v>
       </c>
     </row>
     <row r="85">
@@ -1539,7 +1539,7 @@
         <v>-5.63</v>
       </c>
       <c r="C85" t="n">
-        <v>-3.02</v>
+        <v>-3.08</v>
       </c>
     </row>
     <row r="86">
@@ -1552,7 +1552,7 @@
         <v>6.06</v>
       </c>
       <c r="C86" t="n">
-        <v>6.59</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="87">
@@ -1565,7 +1565,7 @@
         <v>-5.1</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.99</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="88">
@@ -1578,7 +1578,7 @@
         <v>-6.54</v>
       </c>
       <c r="C88" t="n">
-        <v>-7.31</v>
+        <v>-7.36</v>
       </c>
     </row>
     <row r="89">
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>-9.48</v>
+        <v>-8.23</v>
       </c>
     </row>
     <row r="90">
@@ -1604,7 +1604,7 @@
         <v>0.96</v>
       </c>
       <c r="C90" t="n">
-        <v>4.45</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="91">
@@ -1617,7 +1617,7 @@
         <v>-0.96</v>
       </c>
       <c r="C91" t="n">
-        <v>3.74</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="92">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>-5.44</v>
+        <v>-5.21</v>
       </c>
     </row>
     <row r="93">
@@ -1669,7 +1669,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>-1.1</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="96">
@@ -1682,7 +1682,7 @@
         <v>2.32</v>
       </c>
       <c r="C96" t="n">
-        <v>5.03</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="97">
@@ -1695,7 +1695,7 @@
         <v>-4.24</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.43</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="98">
@@ -1708,7 +1708,7 @@
         <v>-6.88</v>
       </c>
       <c r="C98" t="n">
-        <v>-6.41</v>
+        <v>-6.48</v>
       </c>
     </row>
     <row r="99">
@@ -1734,7 +1734,7 @@
         <v>-9.17</v>
       </c>
       <c r="C100" t="n">
-        <v>-7.95</v>
+        <v>-7.72</v>
       </c>
     </row>
     <row r="101">
@@ -1747,7 +1747,7 @@
         <v>-3.51</v>
       </c>
       <c r="C101" t="n">
-        <v>-6.25</v>
+        <v>-6.58</v>
       </c>
     </row>
     <row r="102">
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>-7.55</v>
+        <v>-7.59</v>
       </c>
     </row>
     <row r="103">
@@ -1773,7 +1773,7 @@
         <v>-9.08</v>
       </c>
       <c r="C103" t="n">
-        <v>-7.21</v>
+        <v>-7.26</v>
       </c>
     </row>
     <row r="104">
@@ -1786,7 +1786,7 @@
         <v>1.48</v>
       </c>
       <c r="C104" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="105">
@@ -1799,7 +1799,7 @@
         <v>-2.72</v>
       </c>
       <c r="C105" t="n">
-        <v>-2.11</v>
+        <v>-2.56</v>
       </c>
     </row>
     <row r="106">
@@ -1812,7 +1812,7 @@
         <v>-7.44</v>
       </c>
       <c r="C106" t="n">
-        <v>-7.32</v>
+        <v>-7.38</v>
       </c>
     </row>
     <row r="107">
@@ -1825,7 +1825,7 @@
         <v>-5.7</v>
       </c>
       <c r="C107" t="n">
-        <v>-4.6</v>
+        <v>-4.66</v>
       </c>
     </row>
     <row r="108">
@@ -1838,7 +1838,7 @@
         <v>-0.21</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="109">
@@ -1851,7 +1851,7 @@
         <v>-9.26</v>
       </c>
       <c r="C109" t="n">
-        <v>-7.58</v>
+        <v>-7.64</v>
       </c>
     </row>
     <row r="110">
@@ -1890,7 +1890,7 @@
         <v>-7.1</v>
       </c>
       <c r="C112" t="n">
-        <v>-1.45</v>
+        <v>-2.31</v>
       </c>
     </row>
     <row r="113">
@@ -1903,7 +1903,7 @@
         <v>-8.130000000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>-4.81</v>
+        <v>-4.12</v>
       </c>
     </row>
     <row r="114">
@@ -1916,7 +1916,7 @@
         <v>0.51</v>
       </c>
       <c r="C114" t="n">
-        <v>-1.26</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="115">
@@ -1929,7 +1929,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>7.13</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="116">
@@ -1942,7 +1942,7 @@
         <v>-4.88</v>
       </c>
       <c r="C116" t="n">
-        <v>-5.71</v>
+        <v>-5.75</v>
       </c>
     </row>
     <row r="117">
@@ -1955,7 +1955,7 @@
         <v>1.92</v>
       </c>
       <c r="C117" t="n">
-        <v>0.91</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="118">
@@ -1968,7 +1968,7 @@
         <v>-3.41</v>
       </c>
       <c r="C118" t="n">
-        <v>-4.44</v>
+        <v>-4.12</v>
       </c>
     </row>
     <row r="119">
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>-9.48</v>
+        <v>-9.539999999999999</v>
       </c>
     </row>
     <row r="120">
@@ -2007,7 +2007,7 @@
         <v>-4.8</v>
       </c>
       <c r="C121" t="n">
-        <v>-4.97</v>
+        <v>-5.34</v>
       </c>
     </row>
     <row r="122">
@@ -2020,7 +2020,7 @@
         <v>-8.970000000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>-8.359999999999999</v>
+        <v>-8.42</v>
       </c>
     </row>
     <row r="123">
@@ -2033,7 +2033,7 @@
         <v>3.77</v>
       </c>
       <c r="C123" t="n">
-        <v>6.49</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="124">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>-10.66</v>
+        <v>-10.76</v>
       </c>
     </row>
     <row r="125">
@@ -2072,7 +2072,7 @@
         <v>-8.27</v>
       </c>
       <c r="C126" t="n">
-        <v>-2.68</v>
+        <v>-2.72</v>
       </c>
     </row>
     <row r="127">
@@ -2085,7 +2085,7 @@
         <v>-4.75</v>
       </c>
       <c r="C127" t="n">
-        <v>-1.23</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="128">
@@ -2111,7 +2111,7 @@
         <v>5.21</v>
       </c>
       <c r="C129" t="n">
-        <v>8.300000000000001</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="130">
@@ -2124,7 +2124,7 @@
         <v>-0.28</v>
       </c>
       <c r="C130" t="n">
-        <v>3.27</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="131">
@@ -2137,7 +2137,7 @@
         <v>0.35</v>
       </c>
       <c r="C131" t="n">
-        <v>-1.12</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="132">
@@ -2150,7 +2150,7 @@
         <v>-7.39</v>
       </c>
       <c r="C132" t="n">
-        <v>-6.1</v>
+        <v>-7.1</v>
       </c>
     </row>
     <row r="133">
@@ -2163,7 +2163,7 @@
         <v>4.47</v>
       </c>
       <c r="C133" t="n">
-        <v>6.68</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="134">
@@ -2176,7 +2176,7 @@
         <v>-4.6</v>
       </c>
       <c r="C134" t="n">
-        <v>-3.22</v>
+        <v>-3.29</v>
       </c>
     </row>
     <row r="135">
@@ -2189,7 +2189,7 @@
         <v>2.58</v>
       </c>
       <c r="C135" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="136">
@@ -2202,7 +2202,7 @@
         <v>3.85</v>
       </c>
       <c r="C136" t="n">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="137">
@@ -2215,7 +2215,7 @@
         <v>-3.03</v>
       </c>
       <c r="C137" t="n">
-        <v>-4.86</v>
+        <v>-5.13</v>
       </c>
     </row>
     <row r="138">
@@ -2228,7 +2228,7 @@
         <v>-0.68</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.44</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="139">
@@ -2241,7 +2241,7 @@
         <v>1.62</v>
       </c>
       <c r="C139" t="n">
-        <v>3.68</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="140">
@@ -2254,7 +2254,7 @@
         <v>2.27</v>
       </c>
       <c r="C140" t="n">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="141">
@@ -2267,7 +2267,7 @@
         <v>-2.49</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.52</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="142">
@@ -2293,7 +2293,7 @@
         <v>4.93</v>
       </c>
       <c r="C143" t="n">
-        <v>6.07</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="144">
@@ -2306,7 +2306,7 @@
         <v>5</v>
       </c>
       <c r="C144" t="n">
-        <v>3.13</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="145">
@@ -2319,7 +2319,7 @@
         <v>8.06</v>
       </c>
       <c r="C145" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="146">
@@ -2345,7 +2345,7 @@
         <v>2.52</v>
       </c>
       <c r="C147" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="148">
@@ -2371,7 +2371,7 @@
         <v>-2.53</v>
       </c>
       <c r="C149" t="n">
-        <v>-2.43</v>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="150">
@@ -2384,7 +2384,7 @@
         <v>-8.880000000000001</v>
       </c>
       <c r="C150" t="n">
-        <v>-7.36</v>
+        <v>-7.43</v>
       </c>
     </row>
     <row r="151">
@@ -2397,7 +2397,7 @@
         <v>7.79</v>
       </c>
       <c r="C151" t="n">
-        <v>9.51</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="152">
@@ -2410,7 +2410,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="C152" t="n">
-        <v>-10.01</v>
+        <v>-10.09</v>
       </c>
     </row>
     <row r="153">
@@ -2423,7 +2423,7 @@
         <v>-1.19</v>
       </c>
       <c r="C153" t="n">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="154">
@@ -2436,7 +2436,7 @@
         <v>8</v>
       </c>
       <c r="C154" t="n">
-        <v>5.6</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="155">
@@ -2449,7 +2449,7 @@
         <v>1.02</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.71</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="156">
@@ -2462,7 +2462,7 @@
         <v>-3.06</v>
       </c>
       <c r="C156" t="n">
-        <v>0.32</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="157">
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>-7.16</v>
+        <v>-7.26</v>
       </c>
     </row>
     <row r="158">
@@ -2488,7 +2488,7 @@
         <v>2.34</v>
       </c>
       <c r="C158" t="n">
-        <v>2.46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -2501,7 +2501,7 @@
         <v>-4.3</v>
       </c>
       <c r="C159" t="n">
-        <v>-3.76</v>
+        <v>-3.82</v>
       </c>
     </row>
     <row r="160">
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>-6.71</v>
+        <v>-6.77</v>
       </c>
     </row>
     <row r="161">
@@ -2527,7 +2527,7 @@
         <v>-6.88</v>
       </c>
       <c r="C161" t="n">
-        <v>-3.7</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="162">
@@ -2540,7 +2540,7 @@
         <v>-3.63</v>
       </c>
       <c r="C162" t="n">
-        <v>-2.39</v>
+        <v>-2.44</v>
       </c>
     </row>
     <row r="163">
@@ -2553,7 +2553,7 @@
         <v>-5.07</v>
       </c>
       <c r="C163" t="n">
-        <v>-8.42</v>
+        <v>-8.41</v>
       </c>
     </row>
     <row r="164">
@@ -2566,7 +2566,7 @@
         <v>-6.11</v>
       </c>
       <c r="C164" t="n">
-        <v>-5.57</v>
+        <v>-5.63</v>
       </c>
     </row>
     <row r="165">
@@ -2579,7 +2579,7 @@
         <v>3.34</v>
       </c>
       <c r="C165" t="n">
-        <v>4.94</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="166">
@@ -2592,7 +2592,7 @@
         <v>-8.56</v>
       </c>
       <c r="C166" t="n">
-        <v>-8.73</v>
+        <v>-8.789999999999999</v>
       </c>
     </row>
     <row r="167">
@@ -2618,7 +2618,7 @@
         <v>-7.05</v>
       </c>
       <c r="C168" t="n">
-        <v>-6.67</v>
+        <v>-8.220000000000001</v>
       </c>
     </row>
     <row r="169">
@@ -2631,7 +2631,7 @@
         <v>-1.93</v>
       </c>
       <c r="C169" t="n">
-        <v>-5.85</v>
+        <v>-5.69</v>
       </c>
     </row>
     <row r="170">
@@ -2644,7 +2644,7 @@
         <v>4.91</v>
       </c>
       <c r="C170" t="n">
-        <v>6.61</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="171">
@@ -2657,7 +2657,7 @@
         <v>5.87</v>
       </c>
       <c r="C171" t="n">
-        <v>5.93</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="172">
@@ -2670,7 +2670,7 @@
         <v>3.25</v>
       </c>
       <c r="C172" t="n">
-        <v>3.59</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="173">
@@ -2696,7 +2696,7 @@
         <v>-4.1</v>
       </c>
       <c r="C174" t="n">
-        <v>-7.27</v>
+        <v>-7.37</v>
       </c>
     </row>
     <row r="175">
@@ -2709,7 +2709,7 @@
         <v>-8</v>
       </c>
       <c r="C175" t="n">
-        <v>-6.12</v>
+        <v>-6.18</v>
       </c>
     </row>
     <row r="176">
@@ -2722,7 +2722,7 @@
         <v>-5.4</v>
       </c>
       <c r="C176" t="n">
-        <v>-1.21</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="177">
@@ -2735,7 +2735,7 @@
         <v>-5.19</v>
       </c>
       <c r="C177" t="n">
-        <v>-5.85</v>
+        <v>-5.72</v>
       </c>
     </row>
     <row r="178">
@@ -2748,7 +2748,7 @@
         <v>-4.18</v>
       </c>
       <c r="C178" t="n">
-        <v>-4.38</v>
+        <v>-4.29</v>
       </c>
     </row>
     <row r="179">
@@ -2761,7 +2761,7 @@
         <v>-2.87</v>
       </c>
       <c r="C179" t="n">
-        <v>-3.81</v>
+        <v>-3.17</v>
       </c>
     </row>
     <row r="180">
@@ -2774,7 +2774,7 @@
         <v>-3.94</v>
       </c>
       <c r="C180" t="n">
-        <v>-2.26</v>
+        <v>-2.31</v>
       </c>
     </row>
     <row r="181">
@@ -2787,7 +2787,7 @@
         <v>12.58</v>
       </c>
       <c r="C181" t="n">
-        <v>10.04</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="182">
@@ -2800,7 +2800,7 @@
         <v>-1.15</v>
       </c>
       <c r="C182" t="n">
-        <v>0.83</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="183">
@@ -2813,7 +2813,7 @@
         <v>-2.79</v>
       </c>
       <c r="C183" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="184">
@@ -2826,7 +2826,7 @@
         <v>-2.88</v>
       </c>
       <c r="C184" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="185">
@@ -2839,7 +2839,7 @@
         <v>-0.6899999999999999</v>
       </c>
       <c r="C185" t="n">
-        <v>-3.09</v>
+        <v>-3.14</v>
       </c>
     </row>
     <row r="186">
@@ -2852,7 +2852,7 @@
         <v>-2.6</v>
       </c>
       <c r="C186" t="n">
-        <v>-1.33</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="187">
@@ -2865,7 +2865,7 @@
         <v>-8.56</v>
       </c>
       <c r="C187" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.359999999999999</v>
       </c>
     </row>
     <row r="188">
@@ -2878,7 +2878,7 @@
         <v>-2.38</v>
       </c>
       <c r="C188" t="n">
-        <v>-1.87</v>
+        <v>-1.91</v>
       </c>
     </row>
     <row r="189">
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>-9.109999999999999</v>
+        <v>-9.17</v>
       </c>
     </row>
     <row r="190">
@@ -2904,7 +2904,7 @@
         <v>-5.65</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.93</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="191">
@@ -2917,7 +2917,7 @@
         <v>1.88</v>
       </c>
       <c r="C191" t="n">
-        <v>-2.09</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="192">
@@ -2930,7 +2930,7 @@
         <v>-7.47</v>
       </c>
       <c r="C192" t="n">
-        <v>-6.45</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="193">
@@ -2943,7 +2943,7 @@
         <v>4.3</v>
       </c>
       <c r="C193" t="n">
-        <v>-1.29</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="194">
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>-7.7</v>
+        <v>-7.75</v>
       </c>
     </row>
     <row r="195">
@@ -2969,7 +2969,7 @@
         <v>-4.33</v>
       </c>
       <c r="C195" t="n">
-        <v>-3.48</v>
+        <v>-3.54</v>
       </c>
     </row>
     <row r="196">
@@ -2982,7 +2982,7 @@
         <v>-7.21</v>
       </c>
       <c r="C196" t="n">
-        <v>-4.55</v>
+        <v>-4.63</v>
       </c>
     </row>
     <row r="197">
@@ -2995,7 +2995,7 @@
         <v>2.52</v>
       </c>
       <c r="C197" t="n">
-        <v>6.53</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="198">
@@ -3008,7 +3008,7 @@
         <v>-2</v>
       </c>
       <c r="C198" t="n">
-        <v>-1.73</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="199">
@@ -3021,7 +3021,7 @@
         <v>-1.08</v>
       </c>
       <c r="C199" t="n">
-        <v>-1.99</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="200">
@@ -3034,7 +3034,7 @@
         <v>-3.83</v>
       </c>
       <c r="C200" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="201">
@@ -3047,7 +3047,7 @@
         <v>2.72</v>
       </c>
       <c r="C201" t="n">
-        <v>2.99</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="202">
@@ -3060,7 +3060,7 @@
         <v>-8.98</v>
       </c>
       <c r="C202" t="n">
-        <v>-8.880000000000001</v>
+        <v>-8.949999999999999</v>
       </c>
     </row>
     <row r="203">
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="204">
@@ -3086,7 +3086,7 @@
         <v>4.53</v>
       </c>
       <c r="C204" t="n">
-        <v>4.08</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="205">
@@ -3099,7 +3099,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="C205" t="n">
-        <v>-8.66</v>
+        <v>-8.74</v>
       </c>
     </row>
     <row r="206">
@@ -3112,7 +3112,7 @@
         <v>-0.59</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.87</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="207">
@@ -3125,7 +3125,7 @@
         <v>-5.78</v>
       </c>
       <c r="C207" t="n">
-        <v>-6.48</v>
+        <v>-6.53</v>
       </c>
     </row>
     <row r="208">
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>-8.550000000000001</v>
+        <v>-8.08</v>
       </c>
     </row>
     <row r="209">
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>-8.31</v>
+        <v>-8.369999999999999</v>
       </c>
     </row>
     <row r="210">
@@ -3164,7 +3164,7 @@
         <v>-6.11</v>
       </c>
       <c r="C210" t="n">
-        <v>-4.84</v>
+        <v>-5.17</v>
       </c>
     </row>
     <row r="211">
@@ -3177,7 +3177,7 @@
         <v>0.53</v>
       </c>
       <c r="C211" t="n">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="212">
@@ -3190,7 +3190,7 @@
         <v>-1.87</v>
       </c>
       <c r="C212" t="n">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="213">
@@ -3203,7 +3203,7 @@
         <v>-5.52</v>
       </c>
       <c r="C213" t="n">
-        <v>-8.140000000000001</v>
+        <v>-8.210000000000001</v>
       </c>
     </row>
     <row r="214">
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>-7.27</v>
+        <v>-6.96</v>
       </c>
     </row>
     <row r="215">
@@ -3229,7 +3229,7 @@
         <v>-1</v>
       </c>
       <c r="C215" t="n">
-        <v>-2.77</v>
+        <v>-2.85</v>
       </c>
     </row>
     <row r="216">
@@ -3242,7 +3242,7 @@
         <v>-6.07</v>
       </c>
       <c r="C216" t="n">
-        <v>0.05</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="217">
@@ -3255,7 +3255,7 @@
         <v>5.34</v>
       </c>
       <c r="C217" t="n">
-        <v>5.13</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="218">
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>-10.2</v>
+        <v>-10.28</v>
       </c>
     </row>
     <row r="219">
@@ -3281,7 +3281,7 @@
         <v>4.97</v>
       </c>
       <c r="C219" t="n">
-        <v>4.51</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="220">
@@ -3294,7 +3294,7 @@
         <v>2.04</v>
       </c>
       <c r="C220" t="n">
-        <v>0.64</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="221">
@@ -3307,7 +3307,7 @@
         <v>0.91</v>
       </c>
       <c r="C221" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="222">
@@ -3320,7 +3320,7 @@
         <v>-11.64</v>
       </c>
       <c r="C222" t="n">
-        <v>-8.73</v>
+        <v>-8.789999999999999</v>
       </c>
     </row>
     <row r="223">
@@ -3333,7 +3333,7 @@
         <v>5.79</v>
       </c>
       <c r="C223" t="n">
-        <v>6.42</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="224">
@@ -3359,7 +3359,7 @@
         <v>-9.19</v>
       </c>
       <c r="C225" t="n">
-        <v>-9.109999999999999</v>
+        <v>-9.17</v>
       </c>
     </row>
     <row r="226">
@@ -3372,7 +3372,7 @@
         <v>-3.34</v>
       </c>
       <c r="C226" t="n">
-        <v>-3.19</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="227">
@@ -3385,7 +3385,7 @@
         <v>2.67</v>
       </c>
       <c r="C227" t="n">
-        <v>4.35</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="228">
@@ -3398,7 +3398,7 @@
         <v>7.32</v>
       </c>
       <c r="C228" t="n">
-        <v>9.359999999999999</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="229">
@@ -3411,7 +3411,7 @@
         <v>-4.58</v>
       </c>
       <c r="C229" t="n">
-        <v>-3.07</v>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="230">
@@ -3424,7 +3424,7 @@
         <v>-6.84</v>
       </c>
       <c r="C230" t="n">
-        <v>-4.96</v>
+        <v>-5.03</v>
       </c>
     </row>
     <row r="231">
@@ -3437,7 +3437,7 @@
         <v>2.87</v>
       </c>
       <c r="C231" t="n">
-        <v>3.25</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="232">
@@ -3450,7 +3450,7 @@
         <v>-8.119999999999999</v>
       </c>
       <c r="C232" t="n">
-        <v>-5.78</v>
+        <v>-5.84</v>
       </c>
     </row>
     <row r="233">
@@ -3463,7 +3463,7 @@
         <v>10.54</v>
       </c>
       <c r="C233" t="n">
-        <v>8.76</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="234">
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>-7.26</v>
+        <v>-7.32</v>
       </c>
     </row>
     <row r="235">
@@ -3489,7 +3489,7 @@
         <v>-6.91</v>
       </c>
       <c r="C235" t="n">
-        <v>-5.8</v>
+        <v>-5.83</v>
       </c>
     </row>
     <row r="236">
@@ -3502,7 +3502,7 @@
         <v>-5.51</v>
       </c>
       <c r="C236" t="n">
-        <v>-5.46</v>
+        <v>-5.51</v>
       </c>
     </row>
     <row r="237">
@@ -3515,7 +3515,7 @@
         <v>-4.59</v>
       </c>
       <c r="C237" t="n">
-        <v>-2.33</v>
+        <v>-2.59</v>
       </c>
     </row>
     <row r="238">
@@ -3528,7 +3528,7 @@
         <v>-5.59</v>
       </c>
       <c r="C238" t="n">
-        <v>-5.39</v>
+        <v>-5.46</v>
       </c>
     </row>
     <row r="239">
@@ -3541,7 +3541,7 @@
         <v>-0.27</v>
       </c>
       <c r="C239" t="n">
-        <v>0.73</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="240">
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>-8.08</v>
+        <v>-8.140000000000001</v>
       </c>
     </row>
     <row r="241">
@@ -3567,7 +3567,7 @@
         <v>4.99</v>
       </c>
       <c r="C241" t="n">
-        <v>7.06</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="242">
@@ -3593,7 +3593,7 @@
         <v>3.43</v>
       </c>
       <c r="C243" t="n">
-        <v>5.06</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="244">
@@ -3619,7 +3619,7 @@
         <v>-0.63</v>
       </c>
       <c r="C245" t="n">
-        <v>-2.04</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="246">
@@ -3632,7 +3632,7 @@
         <v>-5.73</v>
       </c>
       <c r="C246" t="n">
-        <v>-1.94</v>
+        <v>-1.99</v>
       </c>
     </row>
     <row r="247">
@@ -3645,7 +3645,7 @@
         <v>-1.01</v>
       </c>
       <c r="C247" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="248">
@@ -3658,7 +3658,7 @@
         <v>3.7</v>
       </c>
       <c r="C248" t="n">
-        <v>2.94</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="249">
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>-7.6</v>
+        <v>-7.65</v>
       </c>
     </row>
     <row r="250">
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>-5.8</v>
+        <v>-5.87</v>
       </c>
     </row>
     <row r="251">
@@ -3697,7 +3697,7 @@
         <v>-5.45</v>
       </c>
       <c r="C251" t="n">
-        <v>-2.78</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="252">
@@ -3723,7 +3723,7 @@
         <v>-6.38</v>
       </c>
       <c r="C253" t="n">
-        <v>-6.22</v>
+        <v>-6.29</v>
       </c>
     </row>
     <row r="254">
@@ -3736,7 +3736,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="C254" t="n">
-        <v>10.31</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="255">
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>-7.6</v>
+        <v>-7.65</v>
       </c>
     </row>
     <row r="256">
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>-7.23</v>
+        <v>-7.29</v>
       </c>
     </row>
     <row r="257">
@@ -3775,7 +3775,7 @@
         <v>-7.62</v>
       </c>
       <c r="C257" t="n">
-        <v>-7.17</v>
+        <v>-6.95</v>
       </c>
     </row>
     <row r="258">
@@ -3788,7 +3788,7 @@
         <v>0.16</v>
       </c>
       <c r="C258" t="n">
-        <v>1.19</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="259">
@@ -3801,7 +3801,7 @@
         <v>-6.73</v>
       </c>
       <c r="C259" t="n">
-        <v>-3.48</v>
+        <v>-2.65</v>
       </c>
     </row>
     <row r="260">
@@ -3814,7 +3814,7 @@
         <v>0.46</v>
       </c>
       <c r="C260" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="261">
@@ -3827,7 +3827,7 @@
         <v>-4.92</v>
       </c>
       <c r="C261" t="n">
-        <v>-5.18</v>
+        <v>-5.24</v>
       </c>
     </row>
     <row r="262">
@@ -3840,7 +3840,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="C262" t="n">
-        <v>-5.78</v>
+        <v>-5.75</v>
       </c>
     </row>
     <row r="263">
@@ -3853,7 +3853,7 @@
         <v>-7.38</v>
       </c>
       <c r="C263" t="n">
-        <v>-7.09</v>
+        <v>-7.14</v>
       </c>
     </row>
     <row r="264">
@@ -3866,7 +3866,7 @@
         <v>4.21</v>
       </c>
       <c r="C264" t="n">
-        <v>2.27</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="265">
@@ -3879,7 +3879,7 @@
         <v>-5.75</v>
       </c>
       <c r="C265" t="n">
-        <v>-5.71</v>
+        <v>-5.82</v>
       </c>
     </row>
     <row r="266">
@@ -3892,7 +3892,7 @@
         <v>-5.37</v>
       </c>
       <c r="C266" t="n">
-        <v>-8.19</v>
+        <v>-8.25</v>
       </c>
     </row>
     <row r="267">
@@ -3905,7 +3905,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="C267" t="n">
-        <v>6.47</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="268">
@@ -3918,7 +3918,7 @@
         <v>2.67</v>
       </c>
       <c r="C268" t="n">
-        <v>6.6</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="269">
@@ -3931,7 +3931,7 @@
         <v>-2.8</v>
       </c>
       <c r="C269" t="n">
-        <v>-4.03</v>
+        <v>-4.09</v>
       </c>
     </row>
     <row r="270">
@@ -3944,7 +3944,7 @@
         <v>-8.51</v>
       </c>
       <c r="C270" t="n">
-        <v>-7.03</v>
+        <v>-7.09</v>
       </c>
     </row>
     <row r="271">
@@ -3957,7 +3957,7 @@
         <v>-6.05</v>
       </c>
       <c r="C271" t="n">
-        <v>-7.57</v>
+        <v>-6.77</v>
       </c>
     </row>
     <row r="272">
@@ -3970,7 +3970,7 @@
         <v>-7.55</v>
       </c>
       <c r="C272" t="n">
-        <v>-4.27</v>
+        <v>-4.32</v>
       </c>
     </row>
     <row r="273">
@@ -3983,7 +3983,7 @@
         <v>0.17</v>
       </c>
       <c r="C273" t="n">
-        <v>2.43</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="274">
@@ -3996,7 +3996,7 @@
         <v>-1.25</v>
       </c>
       <c r="C274" t="n">
-        <v>-1.73</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="275">
@@ -4009,7 +4009,7 @@
         <v>-1.02</v>
       </c>
       <c r="C275" t="n">
-        <v>-2.48</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="276">
@@ -4022,7 +4022,7 @@
         <v>-4.14</v>
       </c>
       <c r="C276" t="n">
-        <v>-3.62</v>
+        <v>-3.69</v>
       </c>
     </row>
     <row r="277">
@@ -4035,7 +4035,7 @@
         <v>-0.66</v>
       </c>
       <c r="C277" t="n">
-        <v>-0.63</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="278">
@@ -4048,7 +4048,7 @@
         <v>-3.56</v>
       </c>
       <c r="C278" t="n">
-        <v>-0.04</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="279">
@@ -4061,7 +4061,7 @@
         <v>-5.9</v>
       </c>
       <c r="C279" t="n">
-        <v>-5.81</v>
+        <v>-6.02</v>
       </c>
     </row>
     <row r="280">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>-5.78</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="281">
@@ -4087,7 +4087,7 @@
         <v>3.22</v>
       </c>
       <c r="C281" t="n">
-        <v>6.92</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="282">
@@ -4100,7 +4100,7 @@
         <v>-7.24</v>
       </c>
       <c r="C282" t="n">
-        <v>-7.17</v>
+        <v>-7.34</v>
       </c>
     </row>
     <row r="283">
@@ -4113,7 +4113,7 @@
         <v>-1.08</v>
       </c>
       <c r="C283" t="n">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="284">
@@ -4126,7 +4126,7 @@
         <v>2.81</v>
       </c>
       <c r="C284" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="285">
@@ -4139,7 +4139,7 @@
         <v>-3.17</v>
       </c>
       <c r="C285" t="n">
-        <v>-3.19</v>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="286">
@@ -4152,7 +4152,7 @@
         <v>1.4</v>
       </c>
       <c r="C286" t="n">
-        <v>5.84</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="287">
@@ -4165,7 +4165,7 @@
         <v>-4.76</v>
       </c>
       <c r="C287" t="n">
-        <v>-7.79</v>
+        <v>-7.85</v>
       </c>
     </row>
     <row r="288">
@@ -4178,7 +4178,7 @@
         <v>-5.5</v>
       </c>
       <c r="C288" t="n">
-        <v>-1.79</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="289">
@@ -4191,7 +4191,7 @@
         <v>-1.53</v>
       </c>
       <c r="C289" t="n">
-        <v>-4.91</v>
+        <v>-4.97</v>
       </c>
     </row>
     <row r="290">
@@ -4204,7 +4204,7 @@
         <v>2.61</v>
       </c>
       <c r="C290" t="n">
-        <v>0.66</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="291">
@@ -4230,7 +4230,7 @@
         <v>-0.02</v>
       </c>
       <c r="C292" t="n">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="293">
@@ -4243,7 +4243,7 @@
         <v>-6.84</v>
       </c>
       <c r="C293" t="n">
-        <v>-5.69</v>
+        <v>-5.87</v>
       </c>
     </row>
     <row r="294">
@@ -4256,7 +4256,7 @@
         <v>-2.88</v>
       </c>
       <c r="C294" t="n">
-        <v>-1.97</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="295">
@@ -4269,7 +4269,7 @@
         <v>1.49</v>
       </c>
       <c r="C295" t="n">
-        <v>3.87</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="296">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>-8.109999999999999</v>
+        <v>-8.17</v>
       </c>
     </row>
     <row r="297">
@@ -4295,7 +4295,7 @@
         <v>-0.1</v>
       </c>
       <c r="C297" t="n">
-        <v>-1.3</v>
+        <v>-1.39</v>
       </c>
     </row>
     <row r="298">
@@ -4308,7 +4308,7 @@
         <v>-7.6</v>
       </c>
       <c r="C298" t="n">
-        <v>-6.74</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="299">
@@ -4321,7 +4321,7 @@
         <v>-9.4</v>
       </c>
       <c r="C299" t="n">
-        <v>-6.15</v>
+        <v>-6.21</v>
       </c>
     </row>
     <row r="300">
@@ -4334,7 +4334,7 @@
         <v>10.2</v>
       </c>
       <c r="C300" t="n">
-        <v>10.33</v>
+        <v>10.32</v>
       </c>
     </row>
     <row r="301">
@@ -4347,7 +4347,7 @@
         <v>-3.47</v>
       </c>
       <c r="C301" t="n">
-        <v>-5.51</v>
+        <v>-5.56</v>
       </c>
     </row>
     <row r="302">
@@ -4373,7 +4373,7 @@
         <v>-4.09</v>
       </c>
       <c r="C303" t="n">
-        <v>-3.62</v>
+        <v>-3.67</v>
       </c>
     </row>
     <row r="304">
@@ -4386,7 +4386,7 @@
         <v>2.05</v>
       </c>
       <c r="C304" t="n">
-        <v>0.48</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="305">
@@ -4412,7 +4412,7 @@
         <v>-7.29</v>
       </c>
       <c r="C306" t="n">
-        <v>-6.34</v>
+        <v>-6.39</v>
       </c>
     </row>
     <row r="307">
@@ -4425,7 +4425,7 @@
         <v>-2.01</v>
       </c>
       <c r="C307" t="n">
-        <v>-0.95</v>
+        <v>-1.01</v>
       </c>
     </row>
     <row r="308">
@@ -4451,7 +4451,7 @@
         <v>-1.16</v>
       </c>
       <c r="C309" t="n">
-        <v>-2.23</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="310">
@@ -4464,7 +4464,7 @@
         <v>-5.89</v>
       </c>
       <c r="C310" t="n">
-        <v>-3.77</v>
+        <v>-3.82</v>
       </c>
     </row>
     <row r="311">
@@ -4477,7 +4477,7 @@
         <v>-1.38</v>
       </c>
       <c r="C311" t="n">
-        <v>-1.8</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="312">
@@ -4490,7 +4490,7 @@
         <v>-5.99</v>
       </c>
       <c r="C312" t="n">
-        <v>-4.52</v>
+        <v>-4.28</v>
       </c>
     </row>
     <row r="313">
@@ -4503,7 +4503,7 @@
         <v>-2.28</v>
       </c>
       <c r="C313" t="n">
-        <v>-0.47</v>
+        <v>-1.01</v>
       </c>
     </row>
     <row r="314">
@@ -4516,7 +4516,7 @@
         <v>-6.26</v>
       </c>
       <c r="C314" t="n">
-        <v>-5.2</v>
+        <v>-5.25</v>
       </c>
     </row>
     <row r="315">
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>-9.23</v>
+        <v>-9.289999999999999</v>
       </c>
     </row>
     <row r="316">
@@ -4542,7 +4542,7 @@
         <v>9.41</v>
       </c>
       <c r="C316" t="n">
-        <v>9.94</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="317">
@@ -4555,7 +4555,7 @@
         <v>-1.11</v>
       </c>
       <c r="C317" t="n">
-        <v>0.3</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="318">
@@ -4568,7 +4568,7 @@
         <v>-4.2</v>
       </c>
       <c r="C318" t="n">
-        <v>-0.75</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="319">
@@ -4581,7 +4581,7 @@
         <v>-1.87</v>
       </c>
       <c r="C319" t="n">
-        <v>-4.18</v>
+        <v>-4.24</v>
       </c>
     </row>
     <row r="320">
@@ -4594,7 +4594,7 @@
         <v>-6.65</v>
       </c>
       <c r="C320" t="n">
-        <v>-3.7</v>
+        <v>-3.58</v>
       </c>
     </row>
     <row r="321">
@@ -4607,7 +4607,7 @@
         <v>-0.25</v>
       </c>
       <c r="C321" t="n">
-        <v>-0.62</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="322">
@@ -4646,7 +4646,7 @@
         <v>-0.78</v>
       </c>
       <c r="C324" t="n">
-        <v>-0.32</v>
+        <v>-1.09</v>
       </c>
     </row>
     <row r="325">
@@ -4659,7 +4659,7 @@
         <v>-9.5</v>
       </c>
       <c r="C325" t="n">
-        <v>-7.83</v>
+        <v>-7.9</v>
       </c>
     </row>
     <row r="326">
@@ -4672,7 +4672,7 @@
         <v>-6.73</v>
       </c>
       <c r="C326" t="n">
-        <v>-7.5</v>
+        <v>-7.94</v>
       </c>
     </row>
     <row r="327">
@@ -4685,7 +4685,7 @@
         <v>-0.47</v>
       </c>
       <c r="C327" t="n">
-        <v>-1.17</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="328">
@@ -4698,7 +4698,7 @@
         <v>-7.8</v>
       </c>
       <c r="C328" t="n">
-        <v>-6.78</v>
+        <v>-6.73</v>
       </c>
     </row>
     <row r="329">
@@ -4724,7 +4724,7 @@
         <v>-2.66</v>
       </c>
       <c r="C330" t="n">
-        <v>-2.27</v>
+        <v>-3.03</v>
       </c>
     </row>
     <row r="331">
@@ -4737,7 +4737,7 @@
         <v>-5.68</v>
       </c>
       <c r="C331" t="n">
-        <v>-4.4</v>
+        <v>-4.49</v>
       </c>
     </row>
     <row r="332">
@@ -4750,7 +4750,7 @@
         <v>0.76</v>
       </c>
       <c r="C332" t="n">
-        <v>-1.95</v>
+        <v>-2.32</v>
       </c>
     </row>
     <row r="333">
@@ -4763,7 +4763,7 @@
         <v>-0.66</v>
       </c>
       <c r="C333" t="n">
-        <v>-1.5</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="334">
@@ -4776,7 +4776,7 @@
         <v>8.48</v>
       </c>
       <c r="C334" t="n">
-        <v>7.82</v>
+        <v>7.73</v>
       </c>
     </row>
     <row r="335">
@@ -4789,7 +4789,7 @@
         <v>-2.47</v>
       </c>
       <c r="C335" t="n">
-        <v>-1.61</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="336">
@@ -4802,7 +4802,7 @@
         <v>8.76</v>
       </c>
       <c r="C336" t="n">
-        <v>8.16</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="337">
@@ -4815,7 +4815,7 @@
         <v>-2.97</v>
       </c>
       <c r="C337" t="n">
-        <v>-1.22</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="338">
@@ -4828,7 +4828,7 @@
         <v>6.2</v>
       </c>
       <c r="C338" t="n">
-        <v>3.09</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="339">
@@ -4841,7 +4841,7 @@
         <v>6.59</v>
       </c>
       <c r="C339" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="340">
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>-7.28</v>
+        <v>-7.33</v>
       </c>
     </row>
     <row r="342">
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>-9.859999999999999</v>
+        <v>-9.949999999999999</v>
       </c>
     </row>
     <row r="343">
@@ -4893,7 +4893,7 @@
         <v>-3.74</v>
       </c>
       <c r="C343" t="n">
-        <v>-3.49</v>
+        <v>-4.12</v>
       </c>
     </row>
     <row r="344">
@@ -4906,7 +4906,7 @@
         <v>-1.05</v>
       </c>
       <c r="C344" t="n">
-        <v>-4.1</v>
+        <v>-4.16</v>
       </c>
     </row>
     <row r="345">
@@ -4919,7 +4919,7 @@
         <v>0.35</v>
       </c>
       <c r="C345" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="346">
@@ -4932,7 +4932,7 @@
         <v>11.47</v>
       </c>
       <c r="C346" t="n">
-        <v>7.84</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="347">
@@ -4945,7 +4945,7 @@
         <v>-8.58</v>
       </c>
       <c r="C347" t="n">
-        <v>-9.109999999999999</v>
+        <v>-9.18</v>
       </c>
     </row>
     <row r="348">
@@ -4958,7 +4958,7 @@
         <v>-2.79</v>
       </c>
       <c r="C348" t="n">
-        <v>-2.37</v>
+        <v>-2.43</v>
       </c>
     </row>
     <row r="349">
@@ -4971,7 +4971,7 @@
         <v>-2.93</v>
       </c>
       <c r="C349" t="n">
-        <v>-2.09</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="350">
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>-5.78</v>
+        <v>-5.83</v>
       </c>
     </row>
     <row r="351">
@@ -4997,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>-7.36</v>
+        <v>-7.42</v>
       </c>
     </row>
     <row r="352">
@@ -5010,7 +5010,7 @@
         <v>-5.45</v>
       </c>
       <c r="C352" t="n">
-        <v>-3.87</v>
+        <v>-3.92</v>
       </c>
     </row>
     <row r="353">
@@ -5023,7 +5023,7 @@
         <v>-1.42</v>
       </c>
       <c r="C353" t="n">
-        <v>-8.93</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="354">
@@ -5036,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>-9.32</v>
+        <v>-9.390000000000001</v>
       </c>
     </row>
     <row r="355">
@@ -5049,7 +5049,7 @@
         <v>-2.89</v>
       </c>
       <c r="C355" t="n">
-        <v>-1.24</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="356">
@@ -5062,7 +5062,7 @@
         <v>0.2</v>
       </c>
       <c r="C356" t="n">
-        <v>-0.52</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="357">
@@ -5075,7 +5075,7 @@
         <v>-6.99</v>
       </c>
       <c r="C357" t="n">
-        <v>-7.86</v>
+        <v>-7.99</v>
       </c>
     </row>
     <row r="358">
@@ -5088,7 +5088,7 @@
         <v>-3.73</v>
       </c>
       <c r="C358" t="n">
-        <v>-5.94</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="359">
@@ -5101,7 +5101,7 @@
         <v>-1.15</v>
       </c>
       <c r="C359" t="n">
-        <v>-1.54</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="360">
@@ -5127,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>-8.77</v>
+        <v>-8.83</v>
       </c>
     </row>
     <row r="362">
@@ -5140,7 +5140,7 @@
         <v>-4.58</v>
       </c>
       <c r="C362" t="n">
-        <v>-7.1</v>
+        <v>-7.16</v>
       </c>
     </row>
     <row r="363">
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>-7.6</v>
+        <v>-7.66</v>
       </c>
     </row>
     <row r="364">
@@ -5166,7 +5166,7 @@
         <v>-4.63</v>
       </c>
       <c r="C364" t="n">
-        <v>-4.67</v>
+        <v>-4.76</v>
       </c>
     </row>
     <row r="365">
@@ -5179,7 +5179,7 @@
         <v>-5.03</v>
       </c>
       <c r="C365" t="n">
-        <v>-5.98</v>
+        <v>-5.62</v>
       </c>
     </row>
     <row r="366">
@@ -5205,7 +5205,7 @@
         <v>-7.75</v>
       </c>
       <c r="C367" t="n">
-        <v>-9.09</v>
+        <v>-9.15</v>
       </c>
     </row>
     <row r="368">
@@ -5218,7 +5218,7 @@
         <v>-4.81</v>
       </c>
       <c r="C368" t="n">
-        <v>-4.33</v>
+        <v>-4.48</v>
       </c>
     </row>
     <row r="369">
@@ -5244,7 +5244,7 @@
         <v>-5.69</v>
       </c>
       <c r="C370" t="n">
-        <v>-6.02</v>
+        <v>-6.31</v>
       </c>
     </row>
     <row r="371">
@@ -5257,7 +5257,7 @@
         <v>-10.46</v>
       </c>
       <c r="C371" t="n">
-        <v>-8.73</v>
+        <v>-8.789999999999999</v>
       </c>
     </row>
     <row r="372">
@@ -5270,7 +5270,7 @@
         <v>1.74</v>
       </c>
       <c r="C372" t="n">
-        <v>2.76</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="373">
@@ -5283,7 +5283,7 @@
         <v>2.3</v>
       </c>
       <c r="C373" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="374">
@@ -5296,7 +5296,7 @@
         <v>-0.64</v>
       </c>
       <c r="C374" t="n">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="375">
@@ -5309,7 +5309,7 @@
         <v>0.84</v>
       </c>
       <c r="C375" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="376">
@@ -5322,7 +5322,7 @@
         <v>-1.27</v>
       </c>
       <c r="C376" t="n">
-        <v>-0.7</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="377">
@@ -5348,7 +5348,7 @@
         <v>-3.47</v>
       </c>
       <c r="C378" t="n">
-        <v>-3.32</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="379">
@@ -5361,7 +5361,7 @@
         <v>-5.58</v>
       </c>
       <c r="C379" t="n">
-        <v>-4.54</v>
+        <v>-4.59</v>
       </c>
     </row>
     <row r="380">
@@ -5374,7 +5374,7 @@
         <v>-2.32</v>
       </c>
       <c r="C380" t="n">
-        <v>-1.16</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="381">
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>-4.62</v>
+        <v>-6.92</v>
       </c>
     </row>
     <row r="382">
@@ -5400,7 +5400,7 @@
         <v>-4.14</v>
       </c>
       <c r="C382" t="n">
-        <v>-4.05</v>
+        <v>-4.09</v>
       </c>
     </row>
     <row r="383">
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>-8.92</v>
+        <v>-8.98</v>
       </c>
     </row>
     <row r="384">
@@ -5426,7 +5426,7 @@
         <v>-4.24</v>
       </c>
       <c r="C384" t="n">
-        <v>-2.65</v>
+        <v>-2.73</v>
       </c>
     </row>
     <row r="385">
@@ -5439,7 +5439,7 @@
         <v>3.97</v>
       </c>
       <c r="C385" t="n">
-        <v>3.83</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="386">
@@ -5452,7 +5452,7 @@
         <v>-3.53</v>
       </c>
       <c r="C386" t="n">
-        <v>-0.43</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="387">
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>-6.52</v>
+        <v>-6.57</v>
       </c>
     </row>
     <row r="389">
@@ -5491,7 +5491,7 @@
         <v>1.14</v>
       </c>
       <c r="C389" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="390">
@@ -5504,7 +5504,7 @@
         <v>-1.49</v>
       </c>
       <c r="C390" t="n">
-        <v>-2.72</v>
+        <v>-2.89</v>
       </c>
     </row>
     <row r="391">
@@ -5517,7 +5517,7 @@
         <v>-0.55</v>
       </c>
       <c r="C391" t="n">
-        <v>2.83</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="392">
@@ -5530,7 +5530,7 @@
         <v>-7.45</v>
       </c>
       <c r="C392" t="n">
-        <v>-8.31</v>
+        <v>-8.369999999999999</v>
       </c>
     </row>
     <row r="393">
@@ -5543,7 +5543,7 @@
         <v>-1.79</v>
       </c>
       <c r="C393" t="n">
-        <v>-0.77</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="394">
@@ -5556,7 +5556,7 @@
         <v>-2.35</v>
       </c>
       <c r="C394" t="n">
-        <v>-4.25</v>
+        <v>-4.16</v>
       </c>
     </row>
     <row r="395">
@@ -5569,7 +5569,7 @@
         <v>2.72</v>
       </c>
       <c r="C395" t="n">
-        <v>-0.35</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="396">
@@ -5595,7 +5595,7 @@
         <v>16.9</v>
       </c>
       <c r="C397" t="n">
-        <v>18.32</v>
+        <v>17.59</v>
       </c>
     </row>
     <row r="398">
@@ -5608,7 +5608,7 @@
         <v>-1.48</v>
       </c>
       <c r="C398" t="n">
-        <v>-2.29</v>
+        <v>-2.34</v>
       </c>
     </row>
     <row r="399">
@@ -5621,7 +5621,7 @@
         <v>5.41</v>
       </c>
       <c r="C399" t="n">
-        <v>7.77</v>
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="400">
@@ -5634,7 +5634,7 @@
         <v>-0.6</v>
       </c>
       <c r="C400" t="n">
-        <v>-4.49</v>
+        <v>-4.39</v>
       </c>
     </row>
     <row r="401">
@@ -5647,7 +5647,7 @@
         <v>2.16</v>
       </c>
       <c r="C401" t="n">
-        <v>4.35</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="402">
@@ -5660,7 +5660,7 @@
         <v>2.6</v>
       </c>
       <c r="C402" t="n">
-        <v>4.06</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="403">
@@ -5673,7 +5673,7 @@
         <v>-2.4</v>
       </c>
       <c r="C403" t="n">
-        <v>-1.49</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="404">
@@ -5686,7 +5686,7 @@
         <v>-5.56</v>
       </c>
       <c r="C404" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="405">
@@ -5699,7 +5699,7 @@
         <v>-9.01</v>
       </c>
       <c r="C405" t="n">
-        <v>-8.15</v>
+        <v>-8.210000000000001</v>
       </c>
     </row>
     <row r="406">
@@ -5712,7 +5712,7 @@
         <v>3.05</v>
       </c>
       <c r="C406" t="n">
-        <v>0.43</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="407">
@@ -5725,7 +5725,7 @@
         <v>-7.37</v>
       </c>
       <c r="C407" t="n">
-        <v>-6.49</v>
+        <v>-6.58</v>
       </c>
     </row>
     <row r="408">
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="C408" t="n">
-        <v>-3.73</v>
+        <v>-3.79</v>
       </c>
     </row>
     <row r="409">
@@ -5751,7 +5751,7 @@
         <v>-7.75</v>
       </c>
       <c r="C409" t="n">
-        <v>-5.44</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="410">
@@ -5777,7 +5777,7 @@
         <v>-0.03</v>
       </c>
       <c r="C411" t="n">
-        <v>1.38</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="412">
@@ -5790,7 +5790,7 @@
         <v>-8.380000000000001</v>
       </c>
       <c r="C412" t="n">
-        <v>-7.67</v>
+        <v>-7.73</v>
       </c>
     </row>
     <row r="413">
@@ -5803,7 +5803,7 @@
         <v>-9.01</v>
       </c>
       <c r="C413" t="n">
-        <v>-8.73</v>
+        <v>-8.789999999999999</v>
       </c>
     </row>
     <row r="414">
@@ -5816,7 +5816,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="C414" t="n">
-        <v>-6.36</v>
+        <v>-6.41</v>
       </c>
     </row>
     <row r="415">
@@ -5829,7 +5829,7 @@
         <v>2.82</v>
       </c>
       <c r="C415" t="n">
-        <v>5.19</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="416">
@@ -5842,7 +5842,7 @@
         <v>2.97</v>
       </c>
       <c r="C416" t="n">
-        <v>4.01</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="417">
@@ -5855,7 +5855,7 @@
         <v>-4.35</v>
       </c>
       <c r="C417" t="n">
-        <v>-5.19</v>
+        <v>-5.24</v>
       </c>
     </row>
     <row r="418">
@@ -5868,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="C418" t="n">
-        <v>-8.08</v>
+        <v>-8.140000000000001</v>
       </c>
     </row>
     <row r="419">
@@ -5881,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>-7.73</v>
+        <v>-7.79</v>
       </c>
     </row>
     <row r="420">
@@ -5894,7 +5894,7 @@
         <v>-0.23</v>
       </c>
       <c r="C420" t="n">
-        <v>-0.46</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="421">
@@ -5907,7 +5907,7 @@
         <v>-7.27</v>
       </c>
       <c r="C421" t="n">
-        <v>-5</v>
+        <v>-5.06</v>
       </c>
     </row>
     <row r="422">
@@ -5920,7 +5920,7 @@
         <v>6.45</v>
       </c>
       <c r="C422" t="n">
-        <v>3.34</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="423">
@@ -5933,7 +5933,7 @@
         <v>-3.17</v>
       </c>
       <c r="C423" t="n">
-        <v>-4.19</v>
+        <v>-4.24</v>
       </c>
     </row>
     <row r="424">
@@ -5946,7 +5946,7 @@
         <v>0.15</v>
       </c>
       <c r="C424" t="n">
-        <v>2.43</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="425">
@@ -5959,7 +5959,7 @@
         <v>-7.46</v>
       </c>
       <c r="C425" t="n">
-        <v>-5.79</v>
+        <v>-5.85</v>
       </c>
     </row>
     <row r="426">
@@ -5972,7 +5972,7 @@
         <v>-2.67</v>
       </c>
       <c r="C426" t="n">
-        <v>-1.43</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="427">
@@ -5998,7 +5998,7 @@
         <v>-5.64</v>
       </c>
       <c r="C428" t="n">
-        <v>-4.39</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="429">
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="C429" t="n">
-        <v>-1.82</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="430">
@@ -6037,7 +6037,7 @@
         <v>0.41</v>
       </c>
       <c r="C431" t="n">
-        <v>2.23</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="432">
@@ -6050,7 +6050,7 @@
         <v>-5.09</v>
       </c>
       <c r="C432" t="n">
-        <v>-5.79</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="433">
@@ -6063,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>-6.75</v>
+        <v>-6.81</v>
       </c>
     </row>
     <row r="434">
@@ -6076,7 +6076,7 @@
         <v>-2.88</v>
       </c>
       <c r="C434" t="n">
-        <v>-5.17</v>
+        <v>-4.81</v>
       </c>
     </row>
     <row r="435">
@@ -6089,7 +6089,7 @@
         <v>-6.05</v>
       </c>
       <c r="C435" t="n">
-        <v>-4.94</v>
+        <v>-4.88</v>
       </c>
     </row>
     <row r="436">
@@ -6102,7 +6102,7 @@
         <v>-5.74</v>
       </c>
       <c r="C436" t="n">
-        <v>-7.8</v>
+        <v>-7.85</v>
       </c>
     </row>
     <row r="437">
@@ -6115,7 +6115,7 @@
         <v>-8.91</v>
       </c>
       <c r="C437" t="n">
-        <v>-7.44</v>
+        <v>-7.69</v>
       </c>
     </row>
     <row r="438">
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="C438" t="n">
-        <v>-8.73</v>
+        <v>-8.789999999999999</v>
       </c>
     </row>
     <row r="439">
@@ -6141,7 +6141,7 @@
         <v>-3.92</v>
       </c>
       <c r="C439" t="n">
-        <v>-7.37</v>
+        <v>-7.43</v>
       </c>
     </row>
     <row r="440">
@@ -6154,7 +6154,7 @@
         <v>-2.62</v>
       </c>
       <c r="C440" t="n">
-        <v>5.18</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="441">
@@ -6167,7 +6167,7 @@
         <v>-3.23</v>
       </c>
       <c r="C441" t="n">
-        <v>-5.12</v>
+        <v>-5.18</v>
       </c>
     </row>
     <row r="442">
@@ -6180,7 +6180,7 @@
         <v>-2.64</v>
       </c>
       <c r="C442" t="n">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="443">
@@ -6193,7 +6193,7 @@
         <v>3.83</v>
       </c>
       <c r="C443" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="444">
@@ -6206,7 +6206,7 @@
         <v>-0.13</v>
       </c>
       <c r="C444" t="n">
-        <v>-0.15</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="445">
@@ -6219,7 +6219,7 @@
         <v>-2.57</v>
       </c>
       <c r="C445" t="n">
-        <v>-0.7</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="446">
@@ -6232,7 +6232,7 @@
         <v>-3.73</v>
       </c>
       <c r="C446" t="n">
-        <v>-4.38</v>
+        <v>-4.44</v>
       </c>
     </row>
     <row r="447">
@@ -6245,7 +6245,7 @@
         <v>-8.19</v>
       </c>
       <c r="C447" t="n">
-        <v>-4.47</v>
+        <v>-4.53</v>
       </c>
     </row>
     <row r="448">
@@ -6271,7 +6271,7 @@
         <v>-2.12</v>
       </c>
       <c r="C449" t="n">
-        <v>-3.18</v>
+        <v>-2.47</v>
       </c>
     </row>
     <row r="450">
@@ -6284,7 +6284,7 @@
         <v>-5.68</v>
       </c>
       <c r="C450" t="n">
-        <v>-3.11</v>
+        <v>-3.15</v>
       </c>
     </row>
     <row r="451">
@@ -6297,7 +6297,7 @@
         <v>-8.970000000000001</v>
       </c>
       <c r="C451" t="n">
-        <v>-4.14</v>
+        <v>-4.19</v>
       </c>
     </row>
     <row r="452">
@@ -6310,7 +6310,7 @@
         <v>-2.48</v>
       </c>
       <c r="C452" t="n">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="453">
@@ -6323,7 +6323,7 @@
         <v>-0.19</v>
       </c>
       <c r="C453" t="n">
-        <v>-1.13</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="454">
@@ -6336,7 +6336,7 @@
         <v>7.97</v>
       </c>
       <c r="C454" t="n">
-        <v>3.91</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="455">
@@ -6349,7 +6349,7 @@
         <v>-0.13</v>
       </c>
       <c r="C455" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="456">
@@ -6362,7 +6362,7 @@
         <v>-5.21</v>
       </c>
       <c r="C456" t="n">
-        <v>-5.83</v>
+        <v>-5.89</v>
       </c>
     </row>
     <row r="457">
@@ -6375,7 +6375,7 @@
         <v>-1.87</v>
       </c>
       <c r="C457" t="n">
-        <v>-1.44</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="458">
@@ -6388,7 +6388,7 @@
         <v>14.17</v>
       </c>
       <c r="C458" t="n">
-        <v>11.98</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="459">
@@ -6401,7 +6401,7 @@
         <v>-6.27</v>
       </c>
       <c r="C459" t="n">
-        <v>-6.64</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="460">
@@ -6414,7 +6414,7 @@
         <v>-9.1</v>
       </c>
       <c r="C460" t="n">
-        <v>-8.609999999999999</v>
+        <v>-8.68</v>
       </c>
     </row>
     <row r="461">
@@ -6427,7 +6427,7 @@
         <v>-6.14</v>
       </c>
       <c r="C461" t="n">
-        <v>-4.75</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="462">
@@ -6440,7 +6440,7 @@
         <v>-4.27</v>
       </c>
       <c r="C462" t="n">
-        <v>-5.83</v>
+        <v>-5.59</v>
       </c>
     </row>
     <row r="463">
@@ -6453,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="C463" t="n">
-        <v>-6.39</v>
+        <v>-6.45</v>
       </c>
     </row>
     <row r="464">
@@ -6466,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="C464" t="n">
-        <v>-8.83</v>
+        <v>-9.01</v>
       </c>
     </row>
     <row r="465">
@@ -6479,7 +6479,7 @@
         <v>9.460000000000001</v>
       </c>
       <c r="C465" t="n">
-        <v>11.21</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="466">
@@ -6492,7 +6492,7 @@
         <v>-4.03</v>
       </c>
       <c r="C466" t="n">
-        <v>-2.92</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="467">
@@ -6505,7 +6505,7 @@
         <v>-3.55</v>
       </c>
       <c r="C467" t="n">
-        <v>-7.11</v>
+        <v>-7.29</v>
       </c>
     </row>
     <row r="468">
@@ -6518,7 +6518,7 @@
         <v>-5.15</v>
       </c>
       <c r="C468" t="n">
-        <v>-6.29</v>
+        <v>-6.34</v>
       </c>
     </row>
     <row r="469">
@@ -6531,7 +6531,7 @@
         <v>-0.71</v>
       </c>
       <c r="C469" t="n">
-        <v>-0.7</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="470">
@@ -6544,7 +6544,7 @@
         <v>-9.27</v>
       </c>
       <c r="C470" t="n">
-        <v>-5.06</v>
+        <v>-5.12</v>
       </c>
     </row>
     <row r="471">
@@ -6557,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="C471" t="n">
-        <v>-6.73</v>
+        <v>-6.79</v>
       </c>
     </row>
     <row r="472">
@@ -6570,7 +6570,7 @@
         <v>0.99</v>
       </c>
       <c r="C472" t="n">
-        <v>3.7</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="473">
@@ -6583,7 +6583,7 @@
         <v>-2.53</v>
       </c>
       <c r="C473" t="n">
-        <v>-0.35</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="474">
@@ -6596,683 +6596,696 @@
         <v>0.55</v>
       </c>
       <c r="C474" t="n">
-        <v>-1.01</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Terance Mann</t>
+          <t>Taze Moore</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>-3.94</v>
+        <v>0</v>
       </c>
       <c r="C475" t="n">
-        <v>-4.16</v>
+        <v>-5.28</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Terrence Shannon Jr.</t>
+          <t>Terance Mann</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>-8.01</v>
+        <v>-3.94</v>
       </c>
       <c r="C476" t="n">
-        <v>-6.52</v>
+        <v>-3.96</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Terry Rozier</t>
+          <t>Terrence Shannon Jr.</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>-0.28</v>
+        <v>-8.01</v>
       </c>
       <c r="C477" t="n">
-        <v>-0.01</v>
+        <v>-6.58</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Thomas Bryant</t>
+          <t>Terry Rozier</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>-5.43</v>
+        <v>-0.28</v>
       </c>
       <c r="C478" t="n">
-        <v>-3.75</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Tidjane Salaun</t>
+          <t>Thomas Bryant</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>-6.33</v>
+        <v>-5.43</v>
       </c>
       <c r="C479" t="n">
-        <v>-6.18</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Tim Hardaway Jr.</t>
+          <t>Tidjane Salaun</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>-5.45</v>
+        <v>-6.33</v>
       </c>
       <c r="C480" t="n">
-        <v>-2.47</v>
+        <v>-6.24</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Tim Hardaway Jr.</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>2.91</v>
+        <v>-5.45</v>
       </c>
       <c r="C481" t="n">
-        <v>2.16</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Torrey Craig</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>-4.24</v>
+        <v>2.91</v>
       </c>
       <c r="C482" t="n">
-        <v>-4.32</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Toumani Camara</t>
+          <t>Torrey Craig</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>-2.39</v>
+        <v>-4.24</v>
       </c>
       <c r="C483" t="n">
-        <v>0.45</v>
+        <v>-4.37</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Toumani Camara</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>9.77</v>
+        <v>-2.39</v>
       </c>
       <c r="C484" t="n">
-        <v>7.63</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Trayce Jackson-Davis</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>2.18</v>
+        <v>9.77</v>
       </c>
       <c r="C485" t="n">
-        <v>-1.88</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Tre Jones</t>
+          <t>Trayce Jackson-Davis</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>-0.58</v>
+        <v>2.18</v>
       </c>
       <c r="C486" t="n">
-        <v>-7.13</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Tre Mann</t>
+          <t>Tre Jones</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>-2.09</v>
+        <v>-0.58</v>
       </c>
       <c r="C487" t="n">
-        <v>-0.74</v>
+        <v>-7.21</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Trendon Watford</t>
+          <t>Tre Mann</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>-6.79</v>
+        <v>-2.09</v>
       </c>
       <c r="C488" t="n">
-        <v>-1.69</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Trevelin Queen</t>
+          <t>Trendon Watford</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>0</v>
+        <v>-6.79</v>
       </c>
       <c r="C489" t="n">
-        <v>-8.35</v>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Trey Alexander</t>
+          <t>Trevelin Queen</t>
         </is>
       </c>
       <c r="B490" t="n">
         <v>0</v>
       </c>
       <c r="C490" t="n">
-        <v>-9.130000000000001</v>
+        <v>-8.4</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Trey Jemison</t>
+          <t>Trey Alexander</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>-5.29</v>
+        <v>0</v>
       </c>
       <c r="C491" t="n">
-        <v>-5.51</v>
+        <v>-9.140000000000001</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Trey Lyles</t>
+          <t>Trey Jemison</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>-3.9</v>
+        <v>-5.29</v>
       </c>
       <c r="C492" t="n">
-        <v>-3.01</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Trey Murphy III</t>
+          <t>Trey Lyles</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>2.31</v>
+        <v>-3.9</v>
       </c>
       <c r="C493" t="n">
-        <v>1.33</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Tristan Da Silva</t>
+          <t>Trey Murphy III</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>-6.16</v>
+        <v>2.31</v>
       </c>
       <c r="C494" t="n">
-        <v>-3.91</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Tristan Thompson</t>
+          <t>Tristan Da Silva</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>0</v>
+        <v>-6.16</v>
       </c>
       <c r="C495" t="n">
-        <v>-8.1</v>
+        <v>-3.85</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Tristan Vukcevic</t>
+          <t>Tristan Thompson</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>-7.14</v>
+        <v>0</v>
       </c>
       <c r="C496" t="n">
-        <v>0</v>
+        <v>-8.15</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Tristen Newton</t>
+          <t>Tristan Vukcevic</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>0</v>
+        <v>-7.14</v>
       </c>
       <c r="C497" t="n">
-        <v>-9.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Ty Jerome</t>
+          <t>Tristen Newton</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>-1.82</v>
+        <v>0</v>
       </c>
       <c r="C498" t="n">
-        <v>1.16</v>
+        <v>-8.52</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>TyTy Washington Jr.</t>
+          <t>Ty Jerome</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>0</v>
+        <v>-1.82</v>
       </c>
       <c r="C499" t="n">
-        <v>-5.45</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Tyler Herro</t>
+          <t>TyTy Washington Jr.</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="C500" t="n">
-        <v>6.89</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Tyler Kolek</t>
+          <t>Tyler Herro</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>-8.279999999999999</v>
+        <v>2.92</v>
       </c>
       <c r="C501" t="n">
-        <v>-5.57</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Tyler Smith</t>
+          <t>Tyler Kolek</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>-6.48</v>
+        <v>-8.279999999999999</v>
       </c>
       <c r="C502" t="n">
-        <v>-6.85</v>
+        <v>-5.62</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Tyler Smith</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>7.05</v>
+        <v>-6.48</v>
       </c>
       <c r="C503" t="n">
-        <v>3.62</v>
+        <v>-7.28</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Tyrese Martin</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>0</v>
+        <v>7.05</v>
       </c>
       <c r="C504" t="n">
-        <v>-7.58</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Tyrese Maxey</t>
+          <t>Tyrese Martin</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="C505" t="n">
-        <v>3.25</v>
+        <v>-7.64</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Tyus Jones</t>
+          <t>Tyrese Maxey</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>1.55</v>
+        <v>5.5</v>
       </c>
       <c r="C506" t="n">
-        <v>1.19</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Ulrich Chomche</t>
+          <t>Tyus Jones</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="C507" t="n">
-        <v>-7.24</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Vasilije Micic</t>
+          <t>Ulrich Chomche</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>-5.55</v>
+        <v>0</v>
       </c>
       <c r="C508" t="n">
-        <v>-7.67</v>
+        <v>-7.29</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Vasilije Micic</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>15.36</v>
+        <v>-5.55</v>
       </c>
       <c r="C509" t="n">
-        <v>13.93</v>
+        <v>-7.75</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Vince Williams Jr.</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>-1</v>
+        <v>15.36</v>
       </c>
       <c r="C510" t="n">
-        <v>-6.39</v>
+        <v>13.91</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Vlatko Cancar</t>
+          <t>Vince Williams Jr.</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>-7.59</v>
+        <v>-1</v>
       </c>
       <c r="C511" t="n">
-        <v>-6.52</v>
+        <v>-6.45</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Vít Krejcí</t>
+          <t>Vlatko Cancar</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>-8.210000000000001</v>
+        <v>-7.59</v>
       </c>
       <c r="C512" t="n">
-        <v>-5.22</v>
+        <v>-6.58</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Walker Kessler</t>
+          <t>Vít Krejcí</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>2.35</v>
+        <v>-8.210000000000001</v>
       </c>
       <c r="C513" t="n">
-        <v>3.51</v>
+        <v>-5.93</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Wendell Carter Jr.</t>
+          <t>Walker Kessler</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>0.02</v>
+        <v>2.35</v>
       </c>
       <c r="C514" t="n">
-        <v>0.04</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Wendell Moore Jr.</t>
+          <t>Wendell Carter Jr.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C515" t="n">
-        <v>-3.22</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Xavier Tillman Sr.</t>
+          <t>Wendell Moore Jr.</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>-3.35</v>
+        <v>0</v>
       </c>
       <c r="C516" t="n">
-        <v>-7.35</v>
+        <v>-3.28</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Yongxi Cui</t>
+          <t>Xavier Tillman Sr.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>0</v>
+        <v>-3.35</v>
       </c>
       <c r="C517" t="n">
-        <v>-9.609999999999999</v>
+        <v>-7.16</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Yuki Kawamura</t>
+          <t>Yongxi Cui</t>
         </is>
       </c>
       <c r="B518" t="n">
         <v>0</v>
       </c>
       <c r="C518" t="n">
-        <v>-8.68</v>
+        <v>-9.68</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Yves Missi</t>
+          <t>Yuki Kawamura</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>-4.04</v>
+        <v>0</v>
       </c>
       <c r="C519" t="n">
-        <v>-1.2</v>
+        <v>-8.74</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Zaccharie Risacher</t>
+          <t>Yves Missi</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>-2.27</v>
+        <v>-4.04</v>
       </c>
       <c r="C520" t="n">
-        <v>-2.63</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Zach Collins</t>
+          <t>Zaccharie Risacher</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>-2.73</v>
+        <v>-2.27</v>
       </c>
       <c r="C521" t="n">
-        <v>-0.92</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Zach Edey</t>
+          <t>Zach Collins</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>-1.56</v>
+        <v>-2.73</v>
       </c>
       <c r="C522" t="n">
-        <v>0.74</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
+          <t>Zach Edey</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>3.56</v>
+        <v>-1.56</v>
       </c>
       <c r="C523" t="n">
-        <v>5.39</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Zeke Nnaji</t>
+          <t>Zach LaVine</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>-6.77</v>
+        <v>3.56</v>
       </c>
       <c r="C524" t="n">
-        <v>-8.27</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Ziaire Williams</t>
+          <t>Zeke Nnaji</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>-4.54</v>
+        <v>-6.77</v>
       </c>
       <c r="C525" t="n">
-        <v>-1.69</v>
+        <v>-8.34</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
+          <t>Ziaire Williams</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>-4.54</v>
+      </c>
+      <c r="C526" t="n">
+        <v>-2.07</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
           <t>Zion Williamson</t>
         </is>
       </c>
-      <c r="B526" t="n">
+      <c r="B527" t="n">
         <v>2.17</v>
       </c>
-      <c r="C526" t="n">
-        <v>1.71</v>
+      <c r="C527" t="n">
+        <v>1.65</v>
       </c>
     </row>
   </sheetData>

--- a/data/merged_scores.xlsx
+++ b/data/merged_scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C527"/>
+  <dimension ref="A1:C529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-9.6</v>
+        <v>-9.720000000000001</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4.23</v>
+        <v>-4.37</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.55</v>
+        <v>-2.44</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-9.26</v>
+        <v>-9.369999999999999</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-8.619999999999999</v>
+        <v>-8.539999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="C6" t="n">
-        <v>2.94</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.17</v>
+        <v>-7.27</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.26</v>
+        <v>-6.18</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.76</v>
+        <v>-2.77</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.47</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.5</v>
+        <v>-4.79</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.52</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.72</v>
+        <v>-7.64</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9.17</v>
+        <v>-9.289999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.76</v>
+        <v>-7.67</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-6.84</v>
+        <v>-6.97</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.12</v>
+        <v>-7.03</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-9</v>
+        <v>-9.09</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.65</v>
+        <v>-3.56</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.13</v>
+        <v>1.78</v>
       </c>
       <c r="C14" t="n">
-        <v>2.47</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.39</v>
+        <v>-4.52</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.75</v>
+        <v>-2.67</v>
       </c>
     </row>
     <row r="16">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.88</v>
+        <v>0.54</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-9.35</v>
+        <v>-9.279999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6.51</v>
+        <v>-6.62</v>
       </c>
       <c r="C18" t="n">
-        <v>-4.93</v>
+        <v>-4.84</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-7.29</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="20">
@@ -691,969 +691,969 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.04</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.46</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Alperen Sengün</t>
+          <t>Alondes Williams</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>4.99</v>
+        <v>-4.79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Amen Thompson</t>
+          <t>Alperen Sengün</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6</v>
+        <v>3.73</v>
       </c>
       <c r="C22" t="n">
-        <v>0.16</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Amir Coffey</t>
+          <t>Amen Thompson</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-5.58</v>
+        <v>0.03</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.24</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Andre Drummond</t>
+          <t>Amir Coffey</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.59</v>
+        <v>-5.7</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.82</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Andre Jackson Jr.</t>
+          <t>Andre Drummond</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-6.45</v>
+        <v>-0.79</v>
       </c>
       <c r="C25" t="n">
-        <v>-4.85</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Andrew Nembhard</t>
+          <t>Andre Jackson Jr.</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.34</v>
+        <v>-6.57</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.39</v>
+        <v>-4.47</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
+          <t>Andrew Nembhard</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1.23</v>
+        <v>-1.56</v>
       </c>
       <c r="C27" t="n">
-        <v>1.92</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Anfernee Simons</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.79</v>
+        <v>-0.18</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.67</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Anthony Black</t>
+          <t>Anfernee Simons</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-3.55</v>
+        <v>2.66</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.34</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Anthony Davis</t>
+          <t>Anthony Black</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13.81</v>
+        <v>-3.82</v>
       </c>
       <c r="C30" t="n">
-        <v>11.55</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Anthony Davis</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.99</v>
+        <v>13.01</v>
       </c>
       <c r="C31" t="n">
-        <v>7.11</v>
+        <v>11.03</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Anthony Gill</t>
+          <t>Anthony Edwards</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-8.23</v>
+        <v>7.17</v>
       </c>
       <c r="C32" t="n">
-        <v>-8</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Antonio Reeves</t>
+          <t>Anthony Gill</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>-6.23</v>
+        <v>-7.92</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ariel Hukporti</t>
+          <t>Antonio Reeves</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-7.69</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>-5.69</v>
+        <v>-6.14</v>
       </c>
     </row>
